--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="550" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="540" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="842">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -2552,6 +2552,12 @@
   </si>
   <si>
     <t>오대호 연합</t>
+  </si>
+  <si>
+    <t>남미(브라질)</t>
+  </si>
+  <si>
+    <t>중동</t>
   </si>
 </sst>
 </file>
@@ -2867,7 +2873,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -2882,33 +2890,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2923,9 +2923,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2940,9 +2938,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -2957,17 +2953,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -2976,9 +2968,7 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -3360,8 +3350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E260"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -3792,7 +3782,7 @@
         <v>70</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>809</v>
+        <v>840</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>574</v>
@@ -3891,7 +3881,7 @@
         <v>88</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>813</v>
+        <v>841</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>584</v>
@@ -5277,7 +5267,7 @@
         <v>341</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>818</v>
+        <v>840</v>
       </c>
       <c r="C172" s="0" t="s">
         <v>715</v>
@@ -5915,7 +5905,7 @@
         <v>460</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>818</v>
+        <v>840</v>
       </c>
       <c r="C230" s="0" t="s">
         <v>775</v>
@@ -5926,7 +5916,7 @@
         <v>462</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>818</v>
+        <v>840</v>
       </c>
       <c r="C231" s="0" t="s">
         <v>776</v>
@@ -5937,7 +5927,7 @@
         <v>464</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>818</v>
+        <v>840</v>
       </c>
       <c r="C232" s="0" t="s">
         <v>777</v>
@@ -5948,7 +5938,7 @@
         <v>466</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>818</v>
+        <v>840</v>
       </c>
       <c r="C233" s="0" t="s">
         <v>778</v>
@@ -5959,7 +5949,7 @@
         <v>468</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>818</v>
+        <v>840</v>
       </c>
       <c r="C234" s="0" t="s">
         <v>779</v>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="540" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="530" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="853">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -2558,6 +2558,39 @@
   </si>
   <si>
     <t>중동</t>
+  </si>
+  <si>
+    <t>프랑스 코뮌</t>
+  </si>
+  <si>
+    <t>이탈리아 공화국</t>
+  </si>
+  <si>
+    <t>일본제국</t>
+  </si>
+  <si>
+    <t>오스트랄라시아 연합</t>
+  </si>
+  <si>
+    <t>대한민국</t>
+  </si>
+  <si>
+    <t>오세아니아</t>
+  </si>
+  <si>
+    <t>아프가니스탄 왕국</t>
+  </si>
+  <si>
+    <t>라플라타</t>
+  </si>
+  <si>
+    <t>스페인 왕국</t>
+  </si>
+  <si>
+    <t>미등장</t>
+  </si>
+  <si>
+    <t>이탈리아 사회주의 공화국</t>
   </si>
 </sst>
 </file>
@@ -2873,9 +2906,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2890,25 +2921,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -2923,7 +2962,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -2938,7 +2979,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -2953,13 +2996,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -2968,7 +3015,9 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -3350,8 +3399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E260"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C121" sqref="C121"/>
+    <sheetView topLeftCell="A88" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -3382,13 +3431,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="0" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>828</v>
+        <v>808</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>530</v>
+        <v>848</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>537</v>
@@ -3399,13 +3448,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>829</v>
+        <v>529</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>535</v>
+        <v>558</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>537</v>
@@ -3416,2833 +3465,3059 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="0" t="s">
-        <v>4</v>
+        <v>177</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>538</v>
+        <v>628</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>179</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>529</v>
+        <v>838</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>539</v>
+        <v>629</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="0" t="s">
-        <v>8</v>
+        <v>466</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>831</v>
+        <v>840</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>540</v>
+        <v>778</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="0" t="s">
-        <v>10</v>
+        <v>181</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>529</v>
+        <v>812</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>541</v>
+        <v>630</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="0" t="s">
-        <v>12</v>
+        <v>475</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>529</v>
+        <v>836</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>542</v>
+        <v>785</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="0" t="s">
-        <v>14</v>
+        <v>477</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>529</v>
+        <v>836</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>543</v>
+        <v>782</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="0" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>529</v>
+        <v>809</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>544</v>
+        <v>849</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="0" t="s">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>529</v>
+        <v>820</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>545</v>
+        <v>631</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="0" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>529</v>
+        <v>847</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>546</v>
+        <v>845</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>529</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="0" t="s">
-        <v>24</v>
+        <v>185</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>529</v>
+        <v>820</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>548</v>
+        <v>632</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="0" t="s">
-        <v>26</v>
+        <v>427</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>529</v>
+        <v>812</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>549</v>
+        <v>760</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="0" t="s">
-        <v>28</v>
+        <v>468</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>840</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="B17" s="0" t="s">
         <v>832</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>529</v>
-      </c>
       <c r="C17" s="0" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="0" t="s">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>529</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>634</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="0" t="s">
-        <v>34</v>
+        <v>189</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="0" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>833</v>
+        <v>529</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="0" t="s">
-        <v>38</v>
+        <v>191</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>529</v>
+        <v>812</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="0" t="s">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>834</v>
+        <v>611</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>638</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="0" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>529</v>
+        <v>611</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="0" t="s">
-        <v>44</v>
+        <v>429</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>529</v>
+        <v>812</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="0" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>529</v>
+        <v>809</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="0" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>529</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>639</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>837</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>833</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>840</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>831</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>832</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>808</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>809</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="0" t="s">
-        <v>64</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>529</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>561</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="0" t="s">
-        <v>66</v>
+        <v>205</v>
       </c>
       <c r="B35" s="0" t="s">
+        <v>837</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>819</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>810</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>837</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>810</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>832</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>851</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>832</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B43" s="0" t="s">
         <v>611</v>
       </c>
-      <c r="C35" s="0" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" s="0" t="s">
+      <c r="C43" s="0" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>810</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="0" t="s">
         <v>809</v>
       </c>
-      <c r="C36" s="0" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>840</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" s="0" t="s">
+      <c r="C46" s="0" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>832</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>809</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>833</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="B54" s="0" t="s">
         <v>810</v>
       </c>
-      <c r="C38" s="0" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>809</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>809</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B41" s="0" t="s">
+      <c r="C54" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="0" t="s">
         <v>811</v>
       </c>
-      <c r="C41" s="0" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="0" t="s">
+      <c r="C55" s="0" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>837</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>820</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="0" t="s">
         <v>80</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>809</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>812</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>811</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>811</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>841</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>836</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>836</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>811</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>611</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>811</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>815</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>808</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>809</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>812</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>808</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>837</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>836</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>836</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>809</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>809</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>836</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>810</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>836</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>836</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="0" t="s">
-        <v>128</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>809</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="0" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="0" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>811</v>
+        <v>819</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="0" t="s">
-        <v>134</v>
+        <v>422</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>811</v>
+        <v>835</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="0" t="s">
-        <v>136</v>
+        <v>2</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>808</v>
+        <v>829</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>535</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="0" t="s">
-        <v>138</v>
+        <v>241</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>808</v>
+        <v>829</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="0" t="s">
-        <v>140</v>
+        <v>243</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="0" t="s">
-        <v>142</v>
+        <v>24</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>611</v>
+        <v>529</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="0" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="0" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>836</v>
+        <v>529</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>564</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="0" t="s">
-        <v>148</v>
+        <v>245</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>836</v>
+        <v>529</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="0" t="s">
-        <v>150</v>
+        <v>247</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>836</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="0" t="s">
-        <v>152</v>
+        <v>470</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>529</v>
+        <v>818</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="0" t="s">
-        <v>154</v>
+        <v>8</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>808</v>
+        <v>831</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>842</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="0" t="s">
-        <v>156</v>
+        <v>249</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>808</v>
+        <v>831</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" s="0" t="s">
-        <v>158</v>
+        <v>251</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" s="0" t="s">
-        <v>160</v>
+        <v>253</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" s="0" t="s">
-        <v>162</v>
+        <v>255</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>808</v>
+        <v>529</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" s="0" t="s">
-        <v>164</v>
+        <v>257</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>808</v>
+        <v>829</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" s="0" t="s">
-        <v>166</v>
+        <v>259</v>
       </c>
       <c r="B85" s="0" t="s">
+        <v>829</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>837</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>820</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>675</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="0" t="s">
         <v>828</v>
       </c>
-      <c r="C85" s="0" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>828</v>
-      </c>
-      <c r="C86" s="0" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>819</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>819</v>
-      </c>
       <c r="C88" s="0" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>530</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" s="0" t="s">
-        <v>174</v>
+        <v>273</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>837</v>
+        <v>812</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" s="0" t="s">
-        <v>177</v>
+        <v>265</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" s="0" t="s">
-        <v>179</v>
+        <v>267</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>838</v>
+        <v>529</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" s="0" t="s">
-        <v>181</v>
+        <v>269</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" s="0" t="s">
-        <v>183</v>
+        <v>42</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>820</v>
+        <v>529</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>557</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" s="0" t="s">
-        <v>185</v>
+        <v>464</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>820</v>
+        <v>840</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" s="0" t="s">
-        <v>187</v>
+        <v>271</v>
       </c>
       <c r="B95" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>823</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B102" s="0" t="s">
         <v>529</v>
       </c>
-      <c r="C95" s="0" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="B96" s="0" t="s">
-        <v>828</v>
-      </c>
-      <c r="C96" s="0" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="B97" s="0" t="s">
+      <c r="C102" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>808</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>833</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>837</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>837</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>808</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>808</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>808</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>837</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B118" s="0" t="s">
         <v>812</v>
       </c>
-      <c r="C97" s="0" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="B98" s="0" t="s">
+      <c r="C118" s="0" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>846</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>808</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>837</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>808</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E132" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>835</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="B136" s="0" t="s">
         <v>611</v>
       </c>
-      <c r="C98" s="0" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="B99" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="C99" s="0" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="B100" s="0" t="s">
-        <v>837</v>
-      </c>
-      <c r="C100" s="0" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="B101" s="0" t="s">
-        <v>833</v>
-      </c>
-      <c r="C101" s="0" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="B102" s="0" t="s">
+      <c r="C136" s="0" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B137" s="0" t="s">
         <v>812</v>
       </c>
-      <c r="C102" s="0" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="B103" s="0" t="s">
-        <v>831</v>
-      </c>
-      <c r="C103" s="0" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="B104" s="0" t="s">
-        <v>837</v>
-      </c>
-      <c r="C104" s="0" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="B105" s="0" t="s">
-        <v>819</v>
-      </c>
-      <c r="C105" s="0" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="B106" s="0" t="s">
-        <v>810</v>
-      </c>
-      <c r="C106" s="0" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="B107" s="0" t="s">
-        <v>837</v>
-      </c>
-      <c r="C107" s="0" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="B108" s="0" t="s">
-        <v>832</v>
-      </c>
-      <c r="C108" s="0" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="B109" s="0" t="s">
-        <v>832</v>
-      </c>
-      <c r="C109" s="0" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="B110" s="0" t="s">
-        <v>812</v>
-      </c>
-      <c r="C110" s="0" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="B111" s="0" t="s">
-        <v>611</v>
-      </c>
-      <c r="C111" s="0" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="B112" s="0" t="s">
-        <v>810</v>
-      </c>
-      <c r="C112" s="0" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="B113" s="0" t="s">
-        <v>812</v>
-      </c>
-      <c r="C113" s="0" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="B114" s="0" t="s">
-        <v>812</v>
-      </c>
-      <c r="C114" s="0" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B115" s="0" t="s">
-        <v>832</v>
-      </c>
-      <c r="C115" s="0" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="B116" s="0" t="s">
-        <v>810</v>
-      </c>
-      <c r="C116" s="0" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="B117" s="0" t="s">
-        <v>812</v>
-      </c>
-      <c r="C117" s="0" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="B118" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="C118" s="0" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="B119" s="0" t="s">
-        <v>611</v>
-      </c>
-      <c r="C119" s="0" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="B120" s="0" t="s">
-        <v>837</v>
-      </c>
-      <c r="C120" s="0" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="B121" s="0" t="s">
-        <v>820</v>
-      </c>
-      <c r="C121" s="0" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="B122" s="0" t="s">
-        <v>829</v>
-      </c>
-      <c r="C122" s="0" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="B123" s="0" t="s">
-        <v>812</v>
-      </c>
-      <c r="C123" s="0" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="B124" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="C124" s="0" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="B125" s="0" t="s">
-        <v>836</v>
-      </c>
-      <c r="C125" s="0" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="B126" s="0" t="s">
-        <v>831</v>
-      </c>
-      <c r="C126" s="0" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="B127" s="0" t="s">
-        <v>810</v>
-      </c>
-      <c r="C127" s="0" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="B128" s="0" t="s">
-        <v>812</v>
-      </c>
-      <c r="C128" s="0" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="B129" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="C129" s="0" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="B130" s="0" t="s">
-        <v>829</v>
-      </c>
-      <c r="C130" s="0" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="B131" s="0" t="s">
-        <v>829</v>
-      </c>
-      <c r="C131" s="0" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="B132" s="0" t="s">
-        <v>837</v>
-      </c>
-      <c r="C132" s="0" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="B133" s="0" t="s">
-        <v>820</v>
-      </c>
-      <c r="C133" s="0" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="B134" s="0" t="s">
-        <v>812</v>
-      </c>
-      <c r="C134" s="0" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="B135" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="C135" s="0" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="B136" s="0" t="s">
-        <v>812</v>
-      </c>
-      <c r="C136" s="0" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="B137" s="0" t="s">
-        <v>828</v>
-      </c>
       <c r="C137" s="0" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138" s="0" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="B138" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139" s="0" t="s">
-        <v>275</v>
+        <v>499</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140" s="0" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141" s="0" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142" s="0" t="s">
-        <v>281</v>
+        <v>520</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143" s="0" t="s">
-        <v>283</v>
+        <v>94</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144" s="0" t="s">
-        <v>285</v>
+        <v>453</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>686</v>
+        <v>772</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="0" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>812</v>
+        <v>837</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="0" t="s">
-        <v>289</v>
+        <v>437</v>
       </c>
       <c r="B146" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>688</v>
+        <v>764</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="0" t="s">
-        <v>291</v>
+        <v>124</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>808</v>
+        <v>836</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>689</v>
+        <v>602</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="0" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>837</v>
+        <v>812</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>690</v>
+        <v>700</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="0" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="B149" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="0" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>836</v>
+        <v>812</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>692</v>
+        <v>702</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="0" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>812</v>
+        <v>833</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="0" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="B152" s="0" t="s">
         <v>611</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>694</v>
+        <v>704</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="0" t="s">
-        <v>303</v>
+        <v>435</v>
       </c>
       <c r="B153" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>695</v>
+        <v>763</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="0" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="B154" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="0" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="0" t="s">
-        <v>309</v>
+        <v>96</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>836</v>
+        <v>611</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>698</v>
+        <v>588</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="0" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>837</v>
+        <v>812</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="0" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="B158" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="0" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>812</v>
+        <v>828</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="0" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="B160" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
       <c r="A161" s="0" t="s">
-        <v>319</v>
+        <v>98</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>833</v>
+        <v>811</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
       <c r="A162" s="0" t="s">
-        <v>321</v>
+        <v>46</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>611</v>
+        <v>529</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
+        <v>559</v>
+      </c>
+      <c r="D162" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E162" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
       <c r="A163" s="0" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>812</v>
+        <v>831</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164" s="0" t="s">
-        <v>325</v>
+        <v>100</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165" s="0" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>812</v>
+        <v>831</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
       <c r="A166" s="0" t="s">
-        <v>329</v>
+        <v>140</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
       <c r="A167" s="0" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>828</v>
+        <v>808</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
+        <v>714</v>
+      </c>
+      <c r="D167" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E167" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168" s="0" t="s">
-        <v>333</v>
+        <v>439</v>
       </c>
       <c r="B168" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
       <c r="A169" s="0" t="s">
-        <v>335</v>
+        <v>162</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>831</v>
+        <v>808</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170" s="0" t="s">
-        <v>337</v>
+        <v>172</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
       <c r="A171" s="0" t="s">
-        <v>339</v>
+        <v>416</v>
       </c>
       <c r="B171" s="0" t="s">
+        <v>835</v>
+      </c>
+      <c r="C171" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="D171" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E171" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>809</v>
+      </c>
+      <c r="C172" s="0" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B173" s="0" t="s">
         <v>808</v>
       </c>
-      <c r="C171" s="0" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" s="0" t="s">
+      <c r="C173" s="0" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B174" s="0" t="s">
+        <v>837</v>
+      </c>
+      <c r="C174" s="0" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="B172" s="0" t="s">
+      <c r="B175" s="0" t="s">
         <v>840</v>
       </c>
-      <c r="C172" s="0" t="s">
+      <c r="C175" s="0" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
-      <c r="A173" s="0" t="s">
+    <row r="176" spans="1:5">
+      <c r="A176" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="C176" s="0" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="B173" s="0" t="s">
+      <c r="B177" s="0" t="s">
         <v>825</v>
       </c>
-      <c r="C173" s="0" t="s">
+      <c r="C177" s="0" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
-      <c r="A174" s="0" t="s">
+    <row r="178" spans="1:5">
+      <c r="A178" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="C178" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="D178" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E178" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>832</v>
+      </c>
+      <c r="C179" s="0" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="C180" s="0" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="B174" s="0" t="s">
+      <c r="B181" s="0" t="s">
         <v>611</v>
       </c>
-      <c r="C174" s="0" t="s">
+      <c r="C181" s="0" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
-      <c r="A175" s="0" t="s">
+    <row r="182" spans="1:5">
+      <c r="A182" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>819</v>
+      </c>
+      <c r="C182" s="0" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B183" s="0" t="s">
+        <v>809</v>
+      </c>
+      <c r="C183" s="0" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>818</v>
+      </c>
+      <c r="C184" s="0" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="B185" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="C185" s="0" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="B175" s="0" t="s">
+      <c r="B186" s="0" t="s">
         <v>810</v>
       </c>
-      <c r="C175" s="0" t="s">
+      <c r="C186" s="0" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
-      <c r="A176" s="0" t="s">
+    <row r="187" spans="1:5">
+      <c r="A187" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B187" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="C187" s="0" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="B188" s="0" t="s">
+        <v>840</v>
+      </c>
+      <c r="C188" s="0" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B189" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="C189" s="0" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="B176" s="0" t="s">
+      <c r="B190" s="0" t="s">
         <v>825</v>
       </c>
-      <c r="C176" s="0" t="s">
+      <c r="C190" s="0" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" s="0" t="s">
+      <c r="D190" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E190" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="B177" s="0" t="s">
+      <c r="B191" s="0" t="s">
         <v>826</v>
       </c>
-      <c r="C177" s="0" t="s">
+      <c r="C191" s="0" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" s="0" t="s">
-        <v>353</v>
-      </c>
-      <c r="B178" s="0" t="s">
-        <v>837</v>
-      </c>
-      <c r="C178" s="0" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="0" t="s">
-        <v>355</v>
-      </c>
-      <c r="B179" s="0" t="s">
-        <v>825</v>
-      </c>
-      <c r="C179" s="0" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" s="0" t="s">
-        <v>357</v>
-      </c>
-      <c r="B180" s="0" t="s">
-        <v>829</v>
-      </c>
-      <c r="C180" s="0" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="B181" s="0" t="s">
+      <c r="D191" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E191" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="B192" s="0" t="s">
         <v>812</v>
       </c>
-      <c r="C181" s="0" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" s="0" t="s">
-        <v>361</v>
-      </c>
-      <c r="B182" s="0" t="s">
-        <v>826</v>
-      </c>
-      <c r="C182" s="0" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" s="0" t="s">
-        <v>363</v>
-      </c>
-      <c r="B183" s="0" t="s">
-        <v>835</v>
-      </c>
-      <c r="C183" s="0" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" s="0" t="s">
-        <v>365</v>
-      </c>
-      <c r="B184" s="0" t="s">
-        <v>812</v>
-      </c>
-      <c r="C184" s="0" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="B185" s="0" t="s">
-        <v>833</v>
-      </c>
-      <c r="C185" s="0" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="B186" s="0" t="s">
-        <v>812</v>
-      </c>
-      <c r="C186" s="0" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="B187" s="0" t="s">
-        <v>835</v>
-      </c>
-      <c r="C187" s="0" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188" s="0" t="s">
-        <v>373</v>
-      </c>
-      <c r="B188" s="0" t="s">
-        <v>812</v>
-      </c>
-      <c r="C188" s="0" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="B189" s="0" t="s">
-        <v>825</v>
-      </c>
-      <c r="C189" s="0" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" s="0" t="s">
-        <v>377</v>
-      </c>
-      <c r="B190" s="0" t="s">
-        <v>810</v>
-      </c>
-      <c r="C190" s="0" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="B191" s="0" t="s">
-        <v>812</v>
-      </c>
-      <c r="C191" s="0" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="B192" s="0" t="s">
-        <v>838</v>
-      </c>
       <c r="C192" s="0" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
       <c r="A193" s="0" t="s">
-        <v>383</v>
+        <v>495</v>
       </c>
       <c r="B193" s="0" t="s">
         <v>836</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
       <c r="A194" s="0" t="s">
-        <v>385</v>
+        <v>106</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>611</v>
+        <v>812</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
+        <v>593</v>
+      </c>
+      <c r="D194" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E194" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
       <c r="A195" s="0" t="s">
-        <v>387</v>
+        <v>353</v>
       </c>
       <c r="B195" s="0" t="s">
+        <v>837</v>
+      </c>
+      <c r="C195" s="0" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B196" s="0" t="s">
+        <v>808</v>
+      </c>
+      <c r="C196" s="0" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="B197" s="0" t="s">
         <v>825</v>
       </c>
-      <c r="C195" s="0" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="B196" s="0" t="s">
+      <c r="C197" s="0" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="B198" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="C198" s="0" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="B199" s="0" t="s">
+        <v>829</v>
+      </c>
+      <c r="C199" s="0" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="B200" s="0" t="s">
         <v>812</v>
       </c>
-      <c r="C196" s="0" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="B197" s="0" t="s">
-        <v>812</v>
-      </c>
-      <c r="C197" s="0" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" s="0" t="s">
-        <v>393</v>
-      </c>
-      <c r="B198" s="0" t="s">
-        <v>812</v>
-      </c>
-      <c r="C198" s="0" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" s="0" t="s">
-        <v>395</v>
-      </c>
-      <c r="B199" s="0" t="s">
-        <v>825</v>
-      </c>
-      <c r="C199" s="0" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="B200" s="0" t="s">
-        <v>829</v>
-      </c>
       <c r="C200" s="0" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
       <c r="A201" s="0" t="s">
-        <v>399</v>
+        <v>36</v>
       </c>
       <c r="B201" s="0" t="s">
+        <v>833</v>
+      </c>
+      <c r="C201" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="B202" s="0" t="s">
         <v>837</v>
       </c>
-      <c r="C201" s="0" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" s="0" t="s">
-        <v>401</v>
-      </c>
-      <c r="B202" s="0" t="s">
-        <v>812</v>
-      </c>
       <c r="C202" s="0" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
       <c r="A203" s="0" t="s">
-        <v>403</v>
+        <v>148</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>829</v>
+        <v>836</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
       <c r="A204" s="0" t="s">
-        <v>405</v>
+        <v>110</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>825</v>
+        <v>837</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
       <c r="A205" s="0" t="s">
-        <v>407</v>
+        <v>361</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
       <c r="A206" s="0" t="s">
-        <v>409</v>
+        <v>363</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>812</v>
+        <v>835</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
       <c r="A207" s="0" t="s">
-        <v>411</v>
+        <v>365</v>
       </c>
       <c r="B207" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
       <c r="A208" s="0" t="s">
-        <v>414</v>
+        <v>112</v>
       </c>
       <c r="B208" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="C208" s="0" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="B209" s="0" t="s">
+        <v>833</v>
+      </c>
+      <c r="C209" s="0" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="B210" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="C210" s="0" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B211" s="0" t="s">
+        <v>830</v>
+      </c>
+      <c r="C211" s="0" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="B212" s="0" t="s">
+        <v>840</v>
+      </c>
+      <c r="C212" s="0" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B213" s="0" t="s">
+        <v>832</v>
+      </c>
+      <c r="C213" s="0" t="s">
+        <v>850</v>
+      </c>
+      <c r="D213" s="0" t="s">
+        <v>851</v>
+      </c>
+      <c r="E213" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="B214" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="C214" s="0" t="s">
+        <v>790</v>
+      </c>
+      <c r="D214" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E214" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="B215" s="0" t="s">
         <v>835</v>
       </c>
-      <c r="C208" s="0" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" s="0" t="s">
-        <v>416</v>
-      </c>
-      <c r="B209" s="0" t="s">
+      <c r="C215" s="0" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="B216" s="0" t="s">
         <v>835</v>
       </c>
-      <c r="C209" s="0" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="B210" s="0" t="s">
-        <v>835</v>
-      </c>
-      <c r="C210" s="0" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
-      <c r="A211" s="0" t="s">
-        <v>420</v>
-      </c>
-      <c r="B211" s="0" t="s">
-        <v>835</v>
-      </c>
-      <c r="C211" s="0" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="A212" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="B212" s="0" t="s">
-        <v>835</v>
-      </c>
-      <c r="C212" s="0" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="A213" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="B213" s="0" t="s">
-        <v>835</v>
-      </c>
-      <c r="C213" s="0" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="A214" s="0" t="s">
-        <v>427</v>
-      </c>
-      <c r="B214" s="0" t="s">
-        <v>812</v>
-      </c>
-      <c r="C214" s="0" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
-      <c r="A215" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="B215" s="0" t="s">
-        <v>812</v>
-      </c>
-      <c r="C215" s="0" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
-      <c r="A216" s="0" t="s">
-        <v>431</v>
-      </c>
-      <c r="B216" s="0" t="s">
-        <v>812</v>
-      </c>
       <c r="C216" s="0" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
       <c r="A217" s="0" t="s">
-        <v>433</v>
+        <v>373</v>
       </c>
       <c r="B217" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
       <c r="A218" s="0" t="s">
-        <v>435</v>
+        <v>375</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>812</v>
+        <v>825</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
       <c r="A219" s="0" t="s">
-        <v>437</v>
+        <v>6</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>812</v>
+        <v>529</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
+        <v>539</v>
+      </c>
+      <c r="D219" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E219" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
       <c r="A220" s="0" t="s">
-        <v>439</v>
+        <v>38</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>812</v>
+        <v>529</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
+        <v>555</v>
+      </c>
+      <c r="D220" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E220" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
       <c r="A221" s="0" t="s">
-        <v>441</v>
+        <v>138</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
       <c r="A222" s="0" t="s">
-        <v>443</v>
+        <v>156</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
       <c r="A223" s="0" t="s">
-        <v>445</v>
+        <v>491</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>812</v>
+        <v>836</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
       <c r="A224" s="0" t="s">
-        <v>447</v>
+        <v>493</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>812</v>
+        <v>836</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
       <c r="A225" s="0" t="s">
-        <v>449</v>
+        <v>504</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>812</v>
+        <v>838</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
       <c r="A226" s="0" t="s">
-        <v>451</v>
+        <v>126</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>812</v>
+        <v>836</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
       <c r="A227" s="0" t="s">
-        <v>453</v>
+        <v>377</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
       <c r="A228" s="0" t="s">
-        <v>455</v>
+        <v>114</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>812</v>
+        <v>836</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
       <c r="A229" s="0" t="s">
-        <v>457</v>
+        <v>379</v>
       </c>
       <c r="B229" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
       <c r="A230" s="0" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>840</v>
+        <v>812</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
       <c r="A231" s="0" t="s">
-        <v>462</v>
+        <v>381</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
       <c r="A232" s="0" t="s">
-        <v>464</v>
+        <v>383</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
       <c r="A233" s="0" t="s">
-        <v>466</v>
+        <v>387</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>840</v>
+        <v>825</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
       <c r="A234" s="0" t="s">
-        <v>468</v>
+        <v>385</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>840</v>
+        <v>611</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
       <c r="A235" s="0" t="s">
-        <v>470</v>
+        <v>389</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
       <c r="A236" s="0" t="s">
-        <v>472</v>
+        <v>391</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
       <c r="A237" s="0" t="s">
-        <v>475</v>
+        <v>40</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
       <c r="A238" s="0" t="s">
-        <v>477</v>
+        <v>420</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
       <c r="A239" s="0" t="s">
-        <v>479</v>
+        <v>393</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>836</v>
+        <v>812</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
       <c r="A240" s="0" t="s">
-        <v>481</v>
+        <v>395</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>786</v>
+        <v>745</v>
+      </c>
+      <c r="D240" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E240" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="0" t="s">
-        <v>483</v>
+        <v>397</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>787</v>
+        <v>746</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="0" t="s">
-        <v>485</v>
+        <v>116</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>836</v>
+        <v>809</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>788</v>
+        <v>598</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="0" t="s">
-        <v>487</v>
+        <v>122</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>836</v>
+        <v>810</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>789</v>
+        <v>601</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="0" t="s">
-        <v>489</v>
+        <v>516</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>790</v>
+        <v>803</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="0" t="s">
-        <v>491</v>
+        <v>118</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>836</v>
+        <v>809</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>791</v>
+        <v>599</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="0" t="s">
-        <v>493</v>
+        <v>399</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>792</v>
+        <v>747</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="0" t="s">
-        <v>495</v>
+        <v>441</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>836</v>
+        <v>812</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>793</v>
+        <v>766</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="0" t="s">
-        <v>497</v>
+        <v>424</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>812</v>
+        <v>835</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>794</v>
+        <v>759</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="0" t="s">
-        <v>499</v>
+        <v>401</v>
       </c>
       <c r="B249" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>795</v>
+        <v>748</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="0" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>611</v>
+        <v>812</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="0" t="s">
-        <v>504</v>
+        <v>403</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>797</v>
+        <v>749</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="0" t="s">
-        <v>506</v>
+        <v>166</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>819</v>
+        <v>828</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>798</v>
+        <v>623</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="0" t="s">
-        <v>508</v>
+        <v>405</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>799</v>
+        <v>750</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="0" t="s">
-        <v>510</v>
+        <v>407</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>800</v>
+        <v>751</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="0" t="s">
-        <v>512</v>
+        <v>150</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>828</v>
+        <v>836</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>801</v>
+        <v>615</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="0" t="s">
-        <v>514</v>
+        <v>136</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>837</v>
+        <v>808</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
       <c r="A257" s="0" t="s">
-        <v>516</v>
+        <v>34</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3">
+        <v>553</v>
+      </c>
+      <c r="D257" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E257" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
       <c r="A258" s="0" t="s">
-        <v>518</v>
+        <v>120</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
       <c r="A259" s="0" t="s">
-        <v>520</v>
+        <v>409</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>836</v>
+        <v>812</v>
       </c>
       <c r="C259" s="0" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
       <c r="A260" s="0" t="s">
-        <v>522</v>
+        <v>411</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="C260" s="0" t="s">
-        <v>806</v>
+        <v>753</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E260"/>
+  <autoFilter ref="A1:E260">
+    <sortState ref="A2:E260">
+      <sortCondition ref="A2:A260"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="855">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -2591,6 +2591,12 @@
   </si>
   <si>
     <t>이탈리아 사회주의 공화국</t>
+  </si>
+  <si>
+    <t>독일 제국</t>
+  </si>
+  <si>
+    <t>바이에른</t>
   </si>
 </sst>
 </file>
@@ -3399,8 +3405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E260"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F116" sqref="F116"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -3648,7 +3654,7 @@
         <v>828</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>636</v>
+        <v>854</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4491,7 +4497,7 @@
         <v>828</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>530</v>
+        <v>853</v>
       </c>
       <c r="D88" s="0" t="s">
         <v>537</v>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="530" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
-    <sheet name="단계" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="임시 태그" sheetId="3" r:id="rId2"/>
+    <sheet name="단계" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="새_텍스트_문서" localSheetId="0">#REF!</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="857">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -2597,6 +2597,12 @@
   </si>
   <si>
     <t>바이에른</t>
+  </si>
+  <si>
+    <t>비고</t>
+  </si>
+  <si>
+    <t>임시태그</t>
   </si>
 </sst>
 </file>
@@ -2912,7 +2918,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -2927,33 +2935,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2968,9 +2968,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2985,9 +2983,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -3002,17 +2998,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -3021,9 +3013,7 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -3405,15 +3395,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E260"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
     <col min="1" max="1" width="7.75500011" customWidth="1" outlineLevel="0"/>
     <col min="2" max="2" width="18.37999916" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" width="37.00500107" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="26.37999916" customWidth="1" outlineLevel="0"/>
     <col min="4" max="4" width="12.00500011" customWidth="1" outlineLevel="0"/>
     <col min="5" max="5" width="7.75500011" customWidth="1" outlineLevel="0"/>
   </cols>
@@ -6532,6 +6522,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <cols>
+    <col min="1" max="1" width="9.13000011" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="0" t="s">
+        <v>856</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6560,20 +6581,4 @@
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
 </file>
--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="520" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
   <definedNames>
     <definedName name="새_텍스트_문서" localSheetId="0">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'국가 태그'!$A$1:$E$260</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'임시 태그'!$A$1:$C$153</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="1273">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -2603,6 +2604,1254 @@
   </si>
   <si>
     <t>임시태그</t>
+  </si>
+  <si>
+    <t>SER_republic</t>
+  </si>
+  <si>
+    <t>SER_kingdom</t>
+  </si>
+  <si>
+    <t>SER_YUG</t>
+  </si>
+  <si>
+    <t>NPA</t>
+  </si>
+  <si>
+    <t>TIE</t>
+  </si>
+  <si>
+    <t>RRM_republic</t>
+  </si>
+  <si>
+    <t>RRM_WAL</t>
+  </si>
+  <si>
+    <t>RRM_MOL</t>
+  </si>
+  <si>
+    <t>SYR_great</t>
+  </si>
+  <si>
+    <t>IND_EMP</t>
+  </si>
+  <si>
+    <t>DEH_IND</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>POL_REPUBLIC</t>
+  </si>
+  <si>
+    <t>PRF_EMP</t>
+  </si>
+  <si>
+    <t>SAU_ARA</t>
+  </si>
+  <si>
+    <t>JBS_ARA</t>
+  </si>
+  <si>
+    <t>JBS_UAE</t>
+  </si>
+  <si>
+    <t>YEM_ARA</t>
+  </si>
+  <si>
+    <t>LYB_LYB</t>
+  </si>
+  <si>
+    <t>IFR</t>
+  </si>
+  <si>
+    <t>GBR_republic</t>
+  </si>
+  <si>
+    <t>GBP_republic</t>
+  </si>
+  <si>
+    <t>CANCM</t>
+  </si>
+  <si>
+    <t>CANK</t>
+  </si>
+  <si>
+    <t>KAZ_caf</t>
+  </si>
+  <si>
+    <t>AUS_GER</t>
+  </si>
+  <si>
+    <t>GEO_transcaucasian</t>
+  </si>
+  <si>
+    <t>GEO_Republic</t>
+  </si>
+  <si>
+    <t>GEO_kingdom</t>
+  </si>
+  <si>
+    <t>SPR_republic</t>
+  </si>
+  <si>
+    <t>BAT_FED</t>
+  </si>
+  <si>
+    <t>BAT_GER</t>
+  </si>
+  <si>
+    <t>ITA_kingdom</t>
+  </si>
+  <si>
+    <t>ITA_republic</t>
+  </si>
+  <si>
+    <t>TSC</t>
+  </si>
+  <si>
+    <t>ITR</t>
+  </si>
+  <si>
+    <t>NFE</t>
+  </si>
+  <si>
+    <t>NFK</t>
+  </si>
+  <si>
+    <t>NFM</t>
+  </si>
+  <si>
+    <t>GNO</t>
+  </si>
+  <si>
+    <t>NOU</t>
+  </si>
+  <si>
+    <t>SWU</t>
+  </si>
+  <si>
+    <t>DHO</t>
+  </si>
+  <si>
+    <t>RTS</t>
+  </si>
+  <si>
+    <t>FRP_GER</t>
+  </si>
+  <si>
+    <t>THI</t>
+  </si>
+  <si>
+    <t>SIA_REP</t>
+  </si>
+  <si>
+    <t>THI_REP</t>
+  </si>
+  <si>
+    <t>SIA_EMPIRE</t>
+  </si>
+  <si>
+    <t>THI_EMPIRE</t>
+  </si>
+  <si>
+    <t>SIA_Parliament</t>
+  </si>
+  <si>
+    <t>EBR</t>
+  </si>
+  <si>
+    <t>Siam_BUR</t>
+  </si>
+  <si>
+    <t>Siam_MLY</t>
+  </si>
+  <si>
+    <t>Siam_VIE</t>
+  </si>
+  <si>
+    <t>Siam_CAM</t>
+  </si>
+  <si>
+    <t>Siam_LAO</t>
+  </si>
+  <si>
+    <t>Siam_KAC</t>
+  </si>
+  <si>
+    <t>Siam_SHA</t>
+  </si>
+  <si>
+    <t>VIE_GER_subject</t>
+  </si>
+  <si>
+    <t>CAM_GER_subject</t>
+  </si>
+  <si>
+    <t>INC_GER_subject</t>
+  </si>
+  <si>
+    <t>INC_DAI</t>
+  </si>
+  <si>
+    <t>LAO_GER_subject</t>
+  </si>
+  <si>
+    <t>PHW</t>
+  </si>
+  <si>
+    <t>UKR_communist</t>
+  </si>
+  <si>
+    <t>PBC</t>
+  </si>
+  <si>
+    <t>GCL</t>
+  </si>
+  <si>
+    <t>LIT_republican</t>
+  </si>
+  <si>
+    <t>TUR_TF</t>
+  </si>
+  <si>
+    <t>MON_EMP</t>
+  </si>
+  <si>
+    <t>RUS_vozhdct</t>
+  </si>
+  <si>
+    <t>ALO_KAZ</t>
+  </si>
+  <si>
+    <t>SAF_federation</t>
+  </si>
+  <si>
+    <t>SAF_republic</t>
+  </si>
+  <si>
+    <t>TRM_FE</t>
+  </si>
+  <si>
+    <t>TRM_RUS</t>
+  </si>
+  <si>
+    <t>RUS_TRM</t>
+  </si>
+  <si>
+    <t>MAD_DRAV</t>
+  </si>
+  <si>
+    <t>ZIM_RHO</t>
+  </si>
+  <si>
+    <t>ZIM_RHO_ENG</t>
+  </si>
+  <si>
+    <t>BHC_TOT</t>
+  </si>
+  <si>
+    <t>LYB_ITA_subject</t>
+  </si>
+  <si>
+    <t>TUN_subject</t>
+  </si>
+  <si>
+    <t>MYS_PRF_subject</t>
+  </si>
+  <si>
+    <t>TRV_PRF_subject</t>
+  </si>
+  <si>
+    <t>MLY_GER_subject</t>
+  </si>
+  <si>
+    <t>SAR_GER_subject</t>
+  </si>
+  <si>
+    <t>CEY_GER_subject</t>
+  </si>
+  <si>
+    <t>MAG_GER_subject</t>
+  </si>
+  <si>
+    <t>MOR_GER_subject</t>
+  </si>
+  <si>
+    <t>SOM_GER_subject</t>
+  </si>
+  <si>
+    <t>GHA_GER_subject</t>
+  </si>
+  <si>
+    <t>NGR_GER_subject</t>
+  </si>
+  <si>
+    <t>CEA_GER_subject</t>
+  </si>
+  <si>
+    <t>GAB_GER_subject</t>
+  </si>
+  <si>
+    <t>CNR_GER_subject</t>
+  </si>
+  <si>
+    <t>TNZ_GER_subject</t>
+  </si>
+  <si>
+    <t>NAM_GER_subject</t>
+  </si>
+  <si>
+    <t>LIB_AUTHDEM_subject</t>
+  </si>
+  <si>
+    <t>KEN_GER_subject</t>
+  </si>
+  <si>
+    <t>UGA_GER_subject</t>
+  </si>
+  <si>
+    <t>ANG_GER_subject</t>
+  </si>
+  <si>
+    <t>MOZ_GER_subject</t>
+  </si>
+  <si>
+    <t>BOT_GER_subject</t>
+  </si>
+  <si>
+    <t>ZIM_GER_subject</t>
+  </si>
+  <si>
+    <t>YEM_GER_subject</t>
+  </si>
+  <si>
+    <t>SIE_GER_subject</t>
+  </si>
+  <si>
+    <t>CZE_czechoslavakia</t>
+  </si>
+  <si>
+    <t>CNT_FAI</t>
+  </si>
+  <si>
+    <t>CNT_IBERIA</t>
+  </si>
+  <si>
+    <t>AST_australia</t>
+  </si>
+  <si>
+    <t>AST_republic</t>
+  </si>
+  <si>
+    <t>AST_australia_republic</t>
+  </si>
+  <si>
+    <t>FNG_manchurian_empire</t>
+  </si>
+  <si>
+    <t>INS_HOL</t>
+  </si>
+  <si>
+    <t>BRA_ARG_LAP</t>
+  </si>
+  <si>
+    <t>AUS_CIS</t>
+  </si>
+  <si>
+    <t>AUS_united_states</t>
+  </si>
+  <si>
+    <t>HUN_TRANS</t>
+  </si>
+  <si>
+    <t>SWIS</t>
+  </si>
+  <si>
+    <t>SWIB</t>
+  </si>
+  <si>
+    <t>SWIM</t>
+  </si>
+  <si>
+    <t>MRT_trab_al_baydan</t>
+  </si>
+  <si>
+    <t>CEA_EMR</t>
+  </si>
+  <si>
+    <t>BELS</t>
+  </si>
+  <si>
+    <t>BELG</t>
+  </si>
+  <si>
+    <t>ALB_kingdom</t>
+  </si>
+  <si>
+    <t>SIC_ITA</t>
+  </si>
+  <si>
+    <t>BATCOM</t>
+  </si>
+  <si>
+    <t>DIETSREP</t>
+  </si>
+  <si>
+    <t>DIETSMON</t>
+  </si>
+  <si>
+    <t>GUA_LIB</t>
+  </si>
+  <si>
+    <t>NIC_LIB</t>
+  </si>
+  <si>
+    <t>mittelafrika_formed</t>
+  </si>
+  <si>
+    <t>RAS_ARB</t>
+  </si>
+  <si>
+    <t>EMI_PAR</t>
+  </si>
+  <si>
+    <t>AHE</t>
+  </si>
+  <si>
+    <t>DNF</t>
+  </si>
+  <si>
+    <t>PER_REP</t>
+  </si>
+  <si>
+    <t>CAR_kingdom</t>
+  </si>
+  <si>
+    <t>RPO</t>
+  </si>
+  <si>
+    <t>GRE_kingdom</t>
+  </si>
+  <si>
+    <t>OTT_lost_war</t>
+  </si>
+  <si>
+    <t>NUSCOM</t>
+  </si>
+  <si>
+    <t>INSULT</t>
+  </si>
+  <si>
+    <t>FOP_WIN_ARG_LAP</t>
+  </si>
+  <si>
+    <t>ARG_LAP</t>
+  </si>
+  <si>
+    <t>PAP_ITA</t>
+  </si>
+  <si>
+    <t>FIN_REP</t>
+  </si>
+  <si>
+    <t>HUN_REP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 세르비아 공화국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 세르비아 왕국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 유고슬라비아</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 호국동맹</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 천 제국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 루마니아 공화국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 왈라키아</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 몰도바</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 대시리아</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 인도 제국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 인도</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 폴란드 공화국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 사우디아라비아</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 라쉬디 아라비아</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 아랍에미리트 연합국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 라시드 아라비아</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 라시드</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 아라비아 노동 연맹</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 붉은 아라비아</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 아라비아 인민 연방</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 리비아</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 이프리키야 왕국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 브리튼 공화국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 캐나다 연합왕국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 캐나다 왕국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 중앙아시아 연방</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 독일 제국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 자카프카스 사회주의 연방 공화국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 조지아 공화국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 조지아 왕국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 스페인 공화국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 발트 연합</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 발트국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 발트공국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 이탈리아 왕국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 이탈리아 공화국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 양 시칠리아 왕국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 프랑스 제국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 프랑스 왕국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 프랑스</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 대 노르웨이</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 노르웨이</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 스웨덴-노르웨이</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 홀슈타인 공국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 러시아 제국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 타이 왕국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 시암 공화국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 태국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 시암 제국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 타이 제국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 시암 연방</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 브라질 제국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 버마 자치구</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 말라야 자치구</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 베트남 자치구</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 크메르 자치구</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 란쌍 자치구</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 카친 자치구</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 샨 자치구</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 베트남 왕국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 캄보디아 왕국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 인도차이나 자유주</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 따이비엣 공화국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 라오스 왕국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 필리핀 공화국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 우크라이나 사회주의공화국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 페루-볼리비아 연맹</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 그란콜롬비아</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 리투아니아 국민공화국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 청년 튀르크</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 몽골 칸국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 러시아국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 알라쉬 오르다</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 남아프리카 연방</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 남아프리카 공화국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 극동 연방</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 러시아 연방</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 드라비다 나두</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 로디지아</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 남로디지아</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 바라트 코뮌</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 이탈리아령 북아프리카</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $OVERLORDADJ$령 튀니지</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 마이소르 주</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 트레번코르-코친</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 말라야 왕국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 사라왁 왕국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 실론 자유주</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 마다가스카르 자유주</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 모로코</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 소말리아 왕국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 아샨티 왕국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 나이제리아</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 우방기샤리</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 가봉</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 콩고</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 탕가니카</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 남서아프리카</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 라이베리아 자치령</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 케냐</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 부간다</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 앙골라</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 모잠비크</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 보츠와나</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 예멘</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 시에라리온 자유주</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 체코슬로바키아 왕국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 전국노동자연합</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 이베리아 연방</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 오스트레일리아 연방</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 오스트랄라시아 공화국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 오스트레일리아 공화국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 만주 제국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 네덜란드령 동인도제도</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 브라질 과도정부</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 시스라이타니아 오스트리아</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 대 오스트리아 합중국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 성 이슈트반 왕관령 오스트리아</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 헬베틱 코뮌</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 트라브알바이단</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 샤리 토후국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 벨기에 협동 조합</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 벨기에</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 알바니아 왕국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 이탈리아 제국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 바타비아 코뮌</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 네덜란드</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 과테말라</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 니카라과</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 독일령 중앙아프리카</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 파르마</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 오스트리아-헝가리 제국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 도나우 연방</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 이란 사회주의 공화국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 이란 공화국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 스페인 왕국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 포르투갈</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 그리스 왕국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 터키 임시 정부</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 누산타라 코뮌</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 인도네시아 술탄국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 라플라타 코뮌</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 라플라타</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 이탈리아 연방</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 핀란드 사회주의 노동자 공화국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 헝가리 공화국</t>
+  </si>
+  <si>
+    <t>오스트리아-헝가리 제국</t>
+  </si>
+  <si>
+    <t>알바니아 왕국</t>
+  </si>
+  <si>
+    <t>알라쉬 오르다</t>
+  </si>
+  <si>
+    <t>오스트레일리아 연방</t>
+  </si>
+  <si>
+    <t>오스트레일리아 공화국</t>
+  </si>
+  <si>
+    <t>오스트랄라시아 공화국</t>
+  </si>
+  <si>
+    <t>시스라이타니아 오스트리아</t>
+  </si>
+  <si>
+    <t>대 오스트리아 합중국</t>
+  </si>
+  <si>
+    <t>발트 연합</t>
+  </si>
+  <si>
+    <t>발트국</t>
+  </si>
+  <si>
+    <t>발트공국</t>
+  </si>
+  <si>
+    <t>바타비아 코뮌</t>
+  </si>
+  <si>
+    <t>벨기에</t>
+  </si>
+  <si>
+    <t>벨기에 협동 조합</t>
+  </si>
+  <si>
+    <t>보츠와나</t>
+  </si>
+  <si>
+    <t>브라질 과도정부</t>
+  </si>
+  <si>
+    <t>캐나다 연합왕국</t>
+  </si>
+  <si>
+    <t>캐나다 왕국</t>
+  </si>
+  <si>
+    <t>샤리 토후국</t>
+  </si>
+  <si>
+    <t>우방기샤리</t>
+  </si>
+  <si>
+    <t>실론 자유주</t>
+  </si>
+  <si>
+    <t>전국노동자연합</t>
+  </si>
+  <si>
+    <t>체코슬로바키아 왕국</t>
+  </si>
+  <si>
+    <t>홀슈타인 공국</t>
+  </si>
+  <si>
+    <t>도나우 연방</t>
+  </si>
+  <si>
+    <t>브라질 제국</t>
+  </si>
+  <si>
+    <t>파르마</t>
+  </si>
+  <si>
+    <t>핀란드 사회주의 노동자 공화국</t>
+  </si>
+  <si>
+    <t>만주 제국</t>
+  </si>
+  <si>
+    <t>라플라타 코뮌</t>
+  </si>
+  <si>
+    <t>프랑스 왕국</t>
+  </si>
+  <si>
+    <t>브리튼 공화국</t>
+  </si>
+  <si>
+    <t>그란콜롬비아</t>
+  </si>
+  <si>
+    <t>조지아 왕국</t>
+  </si>
+  <si>
+    <t>조지아 공화국</t>
+  </si>
+  <si>
+    <t>자카프카스 사회주의 연방 공화국</t>
+  </si>
+  <si>
+    <t>대 노르웨이</t>
+  </si>
+  <si>
+    <t>그리스 왕국</t>
+  </si>
+  <si>
+    <t>헝가리 공화국</t>
+  </si>
+  <si>
+    <t>성 이슈트반 왕관령 오스트리아</t>
+  </si>
+  <si>
+    <t>이프리키야 왕국</t>
+  </si>
+  <si>
+    <t>따이비엣 공화국</t>
+  </si>
+  <si>
+    <t>인도차이나 자유주</t>
+  </si>
+  <si>
+    <t>인도 제국</t>
+  </si>
+  <si>
+    <t>네덜란드령 동인도제도</t>
+  </si>
+  <si>
+    <t>인도네시아 술탄국</t>
+  </si>
+  <si>
+    <t>이탈리아 왕국</t>
+  </si>
+  <si>
+    <t>라쉬디 아라비아</t>
+  </si>
+  <si>
+    <t>아랍에미리트 연합국</t>
+  </si>
+  <si>
+    <t>중앙아시아 연방</t>
+  </si>
+  <si>
+    <t>라이베리아 자치령</t>
+  </si>
+  <si>
+    <t>리투아니아 국민공화국</t>
+  </si>
+  <si>
+    <t>이탈리아령 북아프리카</t>
+  </si>
+  <si>
+    <t>드라비다 나두</t>
+  </si>
+  <si>
+    <t>마다가스카르 자유주</t>
+  </si>
+  <si>
+    <t>말라야 왕국</t>
+  </si>
+  <si>
+    <t>몽골 칸국</t>
+  </si>
+  <si>
+    <t>트라브알바이단</t>
+  </si>
+  <si>
+    <t>마이소르 주</t>
+  </si>
+  <si>
+    <t>남서아프리카</t>
+  </si>
+  <si>
+    <t>프랑스 제국</t>
+  </si>
+  <si>
+    <t>나이제리아</t>
+  </si>
+  <si>
+    <t>니카라과</t>
+  </si>
+  <si>
+    <t>호국동맹</t>
+  </si>
+  <si>
+    <t>누산타라 코뮌</t>
+  </si>
+  <si>
+    <t>터키 임시 정부</t>
+  </si>
+  <si>
+    <t>페루-볼리비아 연맹</t>
+  </si>
+  <si>
+    <t>이란 사회주의 공화국</t>
+  </si>
+  <si>
+    <t>이란 공화국</t>
+  </si>
+  <si>
+    <t>필리핀 공화국</t>
+  </si>
+  <si>
+    <t>폴란드 공화국</t>
+  </si>
+  <si>
+    <t>라시드 아라비아</t>
+  </si>
+  <si>
+    <t>몰도바</t>
+  </si>
+  <si>
+    <t>루마니아 공화국</t>
+  </si>
+  <si>
+    <t>왈라키아</t>
+  </si>
+  <si>
+    <t>러시아 연방</t>
+  </si>
+  <si>
+    <t>러시아국</t>
+  </si>
+  <si>
+    <t>남아프리카 공화국</t>
+  </si>
+  <si>
+    <t>사라왁 왕국</t>
+  </si>
+  <si>
+    <t>사우디아라비아</t>
+  </si>
+  <si>
+    <t>세르비아 왕국</t>
+  </si>
+  <si>
+    <t>세르비아 공화국</t>
+  </si>
+  <si>
+    <t>시암 제국</t>
+  </si>
+  <si>
+    <t>시암 연방</t>
+  </si>
+  <si>
+    <t>시암 공화국</t>
+  </si>
+  <si>
+    <t>버마 자치구</t>
+  </si>
+  <si>
+    <t>크메르 자치구</t>
+  </si>
+  <si>
+    <t>카친 자치구</t>
+  </si>
+  <si>
+    <t>란쌍 자치구</t>
+  </si>
+  <si>
+    <t>말라야 자치구</t>
+  </si>
+  <si>
+    <t>샨 자치구</t>
+  </si>
+  <si>
+    <t>베트남 자치구</t>
+  </si>
+  <si>
+    <t>이탈리아 제국</t>
+  </si>
+  <si>
+    <t>시에라리온 자유주</t>
+  </si>
+  <si>
+    <t>소말리아 왕국</t>
+  </si>
+  <si>
+    <t>스페인 공화국</t>
+  </si>
+  <si>
+    <t>헬베틱 코뮌</t>
+  </si>
+  <si>
+    <t>스웨덴-노르웨이</t>
+  </si>
+  <si>
+    <t>대시리아</t>
+  </si>
+  <si>
+    <t>타이 왕국</t>
+  </si>
+  <si>
+    <t>타이 제국</t>
+  </si>
+  <si>
+    <t>천 제국</t>
+  </si>
+  <si>
+    <t>극동 연방</t>
+  </si>
+  <si>
+    <t>트레번코르-코친</t>
+  </si>
+  <si>
+    <t>양 시칠리아 왕국</t>
+  </si>
+  <si>
+    <t>$OVERLORDADJ$령 튀니지</t>
+  </si>
+  <si>
+    <t>청년 튀르크</t>
+  </si>
+  <si>
+    <t>부간다</t>
+  </si>
+  <si>
+    <t>우크라이나 사회주의공화국</t>
+  </si>
+  <si>
+    <t>베트남 왕국</t>
+  </si>
+  <si>
+    <t>라시드</t>
+  </si>
+  <si>
+    <t>아라비아 노동 연맹</t>
+  </si>
+  <si>
+    <t>붉은 아라비아</t>
+  </si>
+  <si>
+    <t>아라비아 인민 연방</t>
+  </si>
+  <si>
+    <t>예멘</t>
+  </si>
+  <si>
+    <t>로디지아</t>
+  </si>
+  <si>
+    <t>남로디지아</t>
+  </si>
+  <si>
+    <t>스웨덴-노르웨이 연합령 노르웨이</t>
+  </si>
+  <si>
+    <t>스웨덴-노르웨이 연합</t>
   </si>
 </sst>
 </file>
@@ -2610,7 +3859,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -2714,6 +3963,11 @@
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
       <color rgb="FF7F7F7F"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2912,15 +4166,13 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2935,25 +4187,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -2968,7 +4228,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -2983,7 +4245,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -2998,13 +4262,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -3013,7 +4281,18 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -3067,8 +4346,11 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3396,7 +4678,7 @@
   <dimension ref="A1:E260"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81"/>
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -6522,15 +7804,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A97" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="9.13000011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="23.62999916" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="32.00499916" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="41.25500107" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6544,7 +7828,1228 @@
         <v>855</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>1270</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:C153">
+    <sortState ref="A2:C153">
+      <sortCondition ref="A2:A163"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="510" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="500" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="새_텍스트_문서" localSheetId="0">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'국가 태그'!$A$1:$E$260</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'임시 태그'!$A$1:$C$153</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'임시 태그'!$A$1:$D$154</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="1273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="1287">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -3852,6 +3852,48 @@
   </si>
   <si>
     <t>스웨덴-노르웨이 연합</t>
+  </si>
+  <si>
+    <t>국기 여부</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>BRA_ARG</t>
+  </si>
+  <si>
+    <t>핀란드 공화국</t>
+  </si>
+  <si>
+    <t>FOP_WIN_ARG</t>
+  </si>
+  <si>
+    <t>아르헨티나 코뮌</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>THICOM</t>
+  </si>
+  <si>
+    <t>타이 인민 공화국</t>
+  </si>
+  <si>
+    <t>ㅒ</t>
+  </si>
+  <si>
+    <t>중화인민공화국</t>
   </si>
 </sst>
 </file>
@@ -3859,7 +3901,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -3963,11 +4005,6 @@
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
       <color rgb="FF7F7F7F"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -4172,7 +4209,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4187,33 +4226,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4228,9 +4259,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4245,9 +4274,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -4262,17 +4289,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -4281,18 +4304,14 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4346,11 +4365,17 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4677,8 +4702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E260"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView topLeftCell="A156" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C181" sqref="C181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -6853,7 +6878,7 @@
         <v>836</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>613</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -7804,20 +7829,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C153"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
     <col min="1" max="1" width="23.62999916" customWidth="1" outlineLevel="0"/>
     <col min="2" max="2" width="32.00499916" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" width="41.25500107" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="7.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="41.25500107" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="0" t="s">
         <v>856</v>
       </c>
@@ -7825,1229 +7851,1699 @@
         <v>527</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>994</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1154</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>984</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1155</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" s="2" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>929</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>959</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>1004</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>968</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>970</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>969</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>974</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1160</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10" s="2" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>882</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>975</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1161</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12" s="2" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>887</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="C13" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>888</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="C14" s="2" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>888</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="C15" s="2" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>986</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>1165</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>983</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>982</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>1167</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>938</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>961</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>973</v>
+        <v>1277</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>917</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>879</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>1170</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" s="2" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>880</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>1171</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" s="2" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>997</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" s="2" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>981</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>1172</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>951</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>945</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>1174</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>953</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>966</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>1175</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>967</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>965</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" s="2" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>867</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>899</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>1177</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
         <v>988</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
         <v>987</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
         <v>995</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>1178</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
         <v>908</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>1179</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
         <v>993</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>1180</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
         <v>1006</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>1278</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
         <v>971</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>1182</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>1003</v>
+        <v>1279</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>1280</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
         <v>901</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>1184</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
         <v>952</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
         <v>878</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>1185</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
         <v>877</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>1185</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
         <v>924</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
         <v>885</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>1187</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
         <v>884</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>1188</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
         <v>883</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>1189</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
         <v>949</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
         <v>896</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>1190</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52" s="2" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>999</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>1191</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>989</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>1007</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>1192</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>976</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>1193</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56" s="2" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>876</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>1194</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>919</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>1195</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>918</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>1196</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59" s="2" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>868</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>866</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>972</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>1198</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>1002</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>889</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>1200</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>890</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65" s="2" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
         <v>892</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>872</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>1201</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>873</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>881</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>1203</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>957</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C70" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>920</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="C71" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>956</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="C72" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>925</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>1205</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="C73" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>939</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>1206</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="C74" s="2" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>875</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="C75" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>935</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>1207</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="C76" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>946</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="C77" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>991</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="C78" s="2" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>943</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>1209</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="C79" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>927</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>1210</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="C80" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>947</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="C81" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>960</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="C82" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>980</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>1211</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="C83" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
         <v>941</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>1212</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="C84" s="2" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>955</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>1213</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="C85" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>893</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>1214</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="C86" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>894</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>1184</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="C87" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>895</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="C88" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>950</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>1215</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="C89" s="2" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
         <v>990</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>1216</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="C90" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
         <v>897</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>1271</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="C91" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
         <v>860</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>1217</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="C92" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>1218</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
+      <c r="C93" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
         <v>1000</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>1219</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
+      <c r="C94" s="2" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
         <v>1005</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
+      <c r="C95" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
         <v>923</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>1220</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
         <v>996</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>1222</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
+      <c r="C97" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
         <v>921</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>1223</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
+      <c r="C98" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
         <v>869</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>1224</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
+      <c r="C99" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
         <v>870</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
         <v>992</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
+      <c r="C101" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
         <v>998</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102" s="2" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
         <v>864</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>1226</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
         <v>862</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>1227</v>
       </c>
-    </row>
-    <row r="105" spans="1:2">
+      <c r="C104" s="2" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
         <v>863</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>1228</v>
       </c>
-    </row>
-    <row r="106" spans="1:2">
+      <c r="C105" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
         <v>900</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="107" spans="1:2">
+      <c r="C106" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
         <v>934</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>1229</v>
       </c>
-    </row>
-    <row r="108" spans="1:2">
+      <c r="C107" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
         <v>928</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>1230</v>
       </c>
-    </row>
-    <row r="109" spans="1:2">
+      <c r="C108" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
         <v>930</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="110" spans="1:2">
+      <c r="C109" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
         <v>931</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>1231</v>
       </c>
-    </row>
-    <row r="111" spans="1:2">
+      <c r="C110" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
         <v>944</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>1232</v>
       </c>
-    </row>
-    <row r="112" spans="1:2">
+      <c r="C111" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
         <v>871</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>1233</v>
       </c>
-    </row>
-    <row r="113" spans="1:2">
+      <c r="C112" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
         <v>858</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>1234</v>
       </c>
-    </row>
-    <row r="114" spans="1:2">
+      <c r="C113" s="2" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
         <v>857</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>1235</v>
       </c>
-    </row>
-    <row r="115" spans="1:2">
+      <c r="C114" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
         <v>859</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="116" spans="1:2">
+      <c r="C115" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
         <v>905</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>1236</v>
       </c>
-    </row>
-    <row r="117" spans="1:2">
+      <c r="C116" s="2" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
         <v>907</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>1237</v>
       </c>
-    </row>
-    <row r="118" spans="1:2">
+      <c r="C117" s="2" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
         <v>903</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>1238</v>
       </c>
-    </row>
-    <row r="119" spans="1:2">
+      <c r="C118" s="2" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
         <v>909</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>1239</v>
       </c>
-    </row>
-    <row r="120" spans="1:2">
+      <c r="C119" s="2" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
         <v>912</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>1240</v>
       </c>
-    </row>
-    <row r="121" spans="1:2">
+      <c r="C120" s="2" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
         <v>914</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>1241</v>
       </c>
-    </row>
-    <row r="122" spans="1:2">
+      <c r="C121" s="2" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
         <v>913</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>1242</v>
       </c>
-    </row>
-    <row r="123" spans="1:2">
+      <c r="C122" s="2" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
         <v>910</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="124" spans="1:2">
+      <c r="C123" s="2" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
         <v>915</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>1244</v>
       </c>
-    </row>
-    <row r="125" spans="1:2">
+      <c r="C124" s="2" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
         <v>911</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>1245</v>
       </c>
-    </row>
-    <row r="126" spans="1:2">
+      <c r="C125" s="2" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
         <v>985</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>1246</v>
       </c>
-    </row>
-    <row r="127" spans="1:2">
+      <c r="C126" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
         <v>964</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>1247</v>
       </c>
-    </row>
-    <row r="128" spans="1:2">
+      <c r="C127" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
         <v>948</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>1248</v>
       </c>
-    </row>
-    <row r="129" spans="1:2">
+      <c r="C128" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
         <v>886</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>1249</v>
       </c>
-    </row>
-    <row r="130" spans="1:2">
+      <c r="C129" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
         <v>978</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="131" spans="1:2">
+      <c r="C130" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
         <v>979</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="132" spans="1:2">
+      <c r="C131" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
         <v>977</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="133" spans="1:2">
+      <c r="C132" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
         <v>898</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>1272</v>
       </c>
-    </row>
-    <row r="134" spans="1:2">
+      <c r="C133" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
         <v>865</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>1252</v>
       </c>
-    </row>
-    <row r="135" spans="1:2">
+      <c r="C134" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
         <v>902</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>1253</v>
       </c>
-    </row>
-    <row r="136" spans="1:2">
+      <c r="C135" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
         <v>906</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>1254</v>
       </c>
-    </row>
-    <row r="137" spans="1:2">
+      <c r="C136" s="2" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
         <v>904</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="138" spans="1:2">
+      <c r="C137" s="2" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B139" s="1" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="1" t="s">
+      <c r="C139" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B140" s="1" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="1" t="s">
+      <c r="C140" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B141" s="1" t="s">
         <v>1256</v>
       </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="1" t="s">
+      <c r="C141" s="2" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B142" s="1" t="s">
         <v>1229</v>
       </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="1" t="s">
+      <c r="C142" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B143" s="1" t="s">
         <v>1257</v>
       </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="1" t="s">
+      <c r="C143" s="2" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B144" s="1" t="s">
         <v>1258</v>
       </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="1" t="s">
+      <c r="C144" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B145" s="1" t="s">
         <v>1259</v>
       </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="1" t="s">
+      <c r="C145" s="2" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B146" s="1" t="s">
         <v>1260</v>
       </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="1" t="s">
+      <c r="C146" s="2" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B147" s="1" t="s">
         <v>1261</v>
       </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="1" t="s">
+      <c r="C147" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B148" s="1" t="s">
         <v>1262</v>
       </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="1" t="s">
+      <c r="C148" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B149" s="1" t="s">
         <v>1263</v>
       </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="1" t="s">
+      <c r="C149" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B150" s="1" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="1" t="s">
+      <c r="C150" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B151" s="1" t="s">
         <v>1268</v>
       </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="1" t="s">
+      <c r="C151" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1" t="s">
         <v>962</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="1" t="s">
-        <v>936</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>1269</v>
       </c>
-    </row>
-    <row r="153" spans="1:2">
+      <c r="C152" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="0" t="s">
         <v>937</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B154" s="0" t="s">
         <v>1270</v>
       </c>
+      <c r="C154" s="3" t="s">
+        <v>1274</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C153">
-    <sortState ref="A2:C153">
-      <sortCondition ref="A2:A163"/>
+  <autoFilter ref="A1:D154">
+    <sortState ref="A2:D154">
+      <sortCondition ref="A2:A154"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="1287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="1288">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -3894,6 +3894,9 @@
   </si>
   <si>
     <t>중화인민공화국</t>
+  </si>
+  <si>
+    <t>중국</t>
   </si>
 </sst>
 </file>
@@ -4702,8 +4705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E260"/>
   <sheetViews>
-    <sheetView topLeftCell="A156" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C181" sqref="C181"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -4815,7 +4818,7 @@
         <v>475</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>836</v>
+        <v>1287</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>785</v>
@@ -4826,7 +4829,7 @@
         <v>477</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>836</v>
+        <v>1287</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>782</v>
@@ -5276,7 +5279,7 @@
         <v>479</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>836</v>
+        <v>1287</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>783</v>
@@ -5658,7 +5661,7 @@
         <v>247</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>836</v>
+        <v>1287</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>668</v>
@@ -5902,7 +5905,7 @@
         <v>485</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>836</v>
+        <v>1287</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>788</v>
@@ -5946,7 +5949,7 @@
         <v>481</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>836</v>
+        <v>1287</v>
       </c>
       <c r="C101" s="0" t="s">
         <v>786</v>
@@ -6284,7 +6287,7 @@
         <v>297</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>836</v>
+        <v>1287</v>
       </c>
       <c r="C129" s="0" t="s">
         <v>692</v>
@@ -6295,7 +6298,7 @@
         <v>483</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>836</v>
+        <v>1287</v>
       </c>
       <c r="C130" s="0" t="s">
         <v>787</v>
@@ -6422,7 +6425,7 @@
         <v>309</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>836</v>
+        <v>1287</v>
       </c>
       <c r="C141" s="0" t="s">
         <v>698</v>
@@ -6433,7 +6436,7 @@
         <v>520</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>836</v>
+        <v>1287</v>
       </c>
       <c r="C142" s="0" t="s">
         <v>805</v>
@@ -6875,7 +6878,7 @@
         <v>146</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>836</v>
+        <v>1287</v>
       </c>
       <c r="C180" s="0" t="s">
         <v>1286</v>
@@ -6930,7 +6933,7 @@
         <v>487</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>836</v>
+        <v>1287</v>
       </c>
       <c r="C185" s="0" t="s">
         <v>789</v>
@@ -7146,7 +7149,7 @@
         <v>148</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>836</v>
+        <v>1287</v>
       </c>
       <c r="C203" s="0" t="s">
         <v>614</v>
@@ -7273,7 +7276,7 @@
         <v>489</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>836</v>
+        <v>1287</v>
       </c>
       <c r="C214" s="0" t="s">
         <v>790</v>
@@ -7390,7 +7393,7 @@
         <v>491</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>836</v>
+        <v>1287</v>
       </c>
       <c r="C223" s="0" t="s">
         <v>791</v>
@@ -7748,7 +7751,7 @@
         <v>150</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>836</v>
+        <v>1287</v>
       </c>
       <c r="C255" s="0" t="s">
         <v>615</v>
@@ -7787,7 +7790,7 @@
         <v>120</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>836</v>
+        <v>1287</v>
       </c>
       <c r="C258" s="0" t="s">
         <v>600</v>
@@ -7831,8 +7834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D154"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="500" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="490" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -4212,9 +4212,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4229,25 +4227,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4262,7 +4268,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4277,7 +4285,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -4292,13 +4302,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -4307,14 +4321,18 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4706,7 +4724,7 @@
   <dimension ref="A1:E260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F144" sqref="F144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -6464,7 +6482,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:5">
       <c r="A145" s="0" t="s">
         <v>311</v>
       </c>
@@ -6475,7 +6493,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:5">
       <c r="A146" s="0" t="s">
         <v>437</v>
       </c>
@@ -6486,7 +6504,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:5">
       <c r="A147" s="0" t="s">
         <v>124</v>
       </c>
@@ -6496,8 +6514,14 @@
       <c r="C147" s="0" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="148" spans="1:3">
+      <c r="D147" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E147" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148" s="0" t="s">
         <v>313</v>
       </c>
@@ -6508,7 +6532,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:5">
       <c r="A149" s="0" t="s">
         <v>315</v>
       </c>
@@ -6519,7 +6543,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:5">
       <c r="A150" s="0" t="s">
         <v>317</v>
       </c>
@@ -6530,7 +6554,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:5">
       <c r="A151" s="0" t="s">
         <v>319</v>
       </c>
@@ -6541,7 +6565,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:5">
       <c r="A152" s="0" t="s">
         <v>321</v>
       </c>
@@ -6552,7 +6576,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:5">
       <c r="A153" s="0" t="s">
         <v>435</v>
       </c>
@@ -6563,7 +6587,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:5">
       <c r="A154" s="0" t="s">
         <v>323</v>
       </c>
@@ -6574,7 +6598,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:5">
       <c r="A155" s="0" t="s">
         <v>325</v>
       </c>
@@ -6585,7 +6609,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:5">
       <c r="A156" s="0" t="s">
         <v>96</v>
       </c>
@@ -6596,7 +6620,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:5">
       <c r="A157" s="0" t="s">
         <v>327</v>
       </c>
@@ -6607,7 +6631,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:5">
       <c r="A158" s="0" t="s">
         <v>329</v>
       </c>
@@ -6618,7 +6642,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:5">
       <c r="A159" s="0" t="s">
         <v>331</v>
       </c>
@@ -6629,7 +6653,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:5">
       <c r="A160" s="0" t="s">
         <v>333</v>
       </c>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="490" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="480" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="새_텍스트_문서" localSheetId="0">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'국가 태그'!$A$1:$E$260</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'임시 태그'!$A$1:$D$154</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="1288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="1301">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -3897,6 +3897,45 @@
   </si>
   <si>
     <t>중국</t>
+  </si>
+  <si>
+    <t>안gnl 군벌</t>
+  </si>
+  <si>
+    <t>안휘 군벌</t>
+  </si>
+  <si>
+    <t>상계 군벌</t>
+  </si>
+  <si>
+    <t>BAT_PRI</t>
+  </si>
+  <si>
+    <t>발트 (러시아 소속)</t>
+  </si>
+  <si>
+    <t>ㅒ</t>
+  </si>
+  <si>
+    <t>MEE</t>
+  </si>
+  <si>
+    <t>MEK</t>
+  </si>
+  <si>
+    <t>멕시코(제정)</t>
+  </si>
+  <si>
+    <t>멕시코(왕정)</t>
+  </si>
+  <si>
+    <t>SFG</t>
+  </si>
+  <si>
+    <t>남독일연방</t>
+  </si>
+  <si>
+    <t>O</t>
   </si>
 </sst>
 </file>
@@ -4212,7 +4251,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4227,33 +4268,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4268,9 +4301,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4285,9 +4316,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -4302,17 +4331,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -4321,18 +4346,14 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4723,8 +4744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E260"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F144" sqref="F144"/>
+    <sheetView topLeftCell="A230" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C262" sqref="C262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -4839,7 +4860,7 @@
         <v>1287</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>785</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5970,7 +5991,7 @@
         <v>1287</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>786</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -7856,10 +7877,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D154"/>
+  <dimension ref="A1:D158"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -8040,21 +8061,21 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>986</v>
+        <v>1291</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1165</v>
+        <v>1292</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>1274</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>1274</v>
@@ -8062,10 +8083,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>1274</v>
@@ -8073,10 +8094,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>938</v>
+        <v>982</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>638</v>
+        <v>1167</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>1274</v>
@@ -8084,10 +8105,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>961</v>
+        <v>938</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1168</v>
+        <v>638</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>1274</v>
@@ -8095,10 +8116,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>1277</v>
+        <v>961</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>1274</v>
@@ -8106,10 +8127,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>917</v>
+        <v>1277</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>649</v>
+        <v>1169</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>1274</v>
@@ -8117,21 +8138,21 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>879</v>
+        <v>917</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1170</v>
+        <v>649</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>1275</v>
@@ -8139,10 +8160,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>997</v>
+        <v>880</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>850</v>
+        <v>1171</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>1275</v>
@@ -8150,21 +8171,21 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>981</v>
+        <v>997</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1172</v>
+        <v>850</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>951</v>
+        <v>981</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>1274</v>
@@ -8172,10 +8193,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>1274</v>
@@ -8183,10 +8204,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>657</v>
+        <v>1174</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>1274</v>
@@ -8194,10 +8215,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>966</v>
+        <v>953</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1175</v>
+        <v>657</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>1274</v>
@@ -8205,10 +8226,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>658</v>
+        <v>1175</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>1274</v>
@@ -8216,32 +8237,32 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1176</v>
+        <v>658</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>867</v>
+        <v>965</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>611</v>
+        <v>1176</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>899</v>
+        <v>867</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1177</v>
+        <v>611</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>1274</v>
@@ -8249,10 +8270,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>988</v>
+        <v>899</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>543</v>
+        <v>1177</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>1274</v>
@@ -8260,7 +8281,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>543</v>
@@ -8271,10 +8292,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1178</v>
+        <v>543</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>1274</v>
@@ -8282,10 +8303,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>908</v>
+        <v>995</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>1274</v>
@@ -8293,10 +8314,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>993</v>
+        <v>908</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>1274</v>
@@ -8304,10 +8325,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>1006</v>
+        <v>993</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1278</v>
+        <v>1180</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>1274</v>
@@ -8315,10 +8336,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>971</v>
+        <v>1006</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1182</v>
+        <v>1278</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>1274</v>
@@ -8326,10 +8347,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>1279</v>
+        <v>971</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1280</v>
+        <v>1182</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>1274</v>
@@ -8337,10 +8358,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>901</v>
+        <v>1279</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1184</v>
+        <v>1280</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>1274</v>
@@ -8348,10 +8369,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>952</v>
+        <v>901</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>671</v>
+        <v>1184</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>1274</v>
@@ -8359,10 +8380,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>878</v>
+        <v>952</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1185</v>
+        <v>671</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>1274</v>
@@ -8370,7 +8391,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>1185</v>
@@ -8381,10 +8402,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>924</v>
+        <v>877</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>1274</v>
@@ -8392,10 +8413,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>885</v>
+        <v>924</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>1274</v>
@@ -8403,10 +8424,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>1274</v>
@@ -8414,10 +8435,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>1274</v>
@@ -8425,10 +8446,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>949</v>
+        <v>883</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>676</v>
+        <v>1189</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>1274</v>
@@ -8436,32 +8457,32 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>896</v>
+        <v>949</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1190</v>
+        <v>676</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>999</v>
+        <v>896</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>989</v>
+        <v>999</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>581</v>
+        <v>1191</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>1274</v>
@@ -8469,10 +8490,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>1007</v>
+        <v>989</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1192</v>
+        <v>581</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>1274</v>
@@ -8480,32 +8501,32 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>976</v>
+        <v>1007</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>876</v>
+        <v>976</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>919</v>
+        <v>876</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>1274</v>
@@ -8513,32 +8534,32 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>868</v>
+        <v>918</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>611</v>
+        <v>1196</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1197</v>
+        <v>611</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>1274</v>
@@ -8546,10 +8567,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>972</v>
+        <v>866</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>1274</v>
@@ -8557,10 +8578,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>1002</v>
+        <v>972</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>1274</v>
@@ -8568,10 +8589,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>889</v>
+        <v>1002</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>1274</v>
@@ -8579,32 +8600,32 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>843</v>
+        <v>1200</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>843</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>872</v>
+        <v>892</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1201</v>
+        <v>843</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>1274</v>
@@ -8612,10 +8633,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>1274</v>
@@ -8623,10 +8644,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>1274</v>
@@ -8634,10 +8655,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>957</v>
+        <v>881</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>688</v>
+        <v>1203</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>1274</v>
@@ -8645,10 +8666,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>920</v>
+        <v>957</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>1274</v>
@@ -8656,10 +8677,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>956</v>
+        <v>920</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1204</v>
+        <v>690</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>1274</v>
@@ -8667,10 +8688,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
-        <v>925</v>
+        <v>956</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>1274</v>
@@ -8678,32 +8699,32 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>939</v>
+        <v>925</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>875</v>
+        <v>939</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>620</v>
+        <v>1206</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
-        <v>935</v>
+        <v>875</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1207</v>
+        <v>620</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>1274</v>
@@ -8711,10 +8732,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>1274</v>
@@ -8722,32 +8743,32 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>991</v>
+        <v>946</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>695</v>
+        <v>1208</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
-        <v>943</v>
+        <v>991</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1209</v>
+        <v>695</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
-        <v>927</v>
+        <v>943</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>1274</v>
@@ -8755,32 +8776,32 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
-        <v>947</v>
+        <v>1294</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>700</v>
+        <v>1296</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>1274</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>960</v>
+        <v>1295</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>701</v>
+        <v>1297</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>1274</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>980</v>
+        <v>927</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>1274</v>
@@ -8788,21 +8809,21 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>941</v>
+        <v>947</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1212</v>
+        <v>700</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1213</v>
+        <v>701</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>1274</v>
@@ -8810,10 +8831,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>893</v>
+        <v>980</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>1274</v>
@@ -8821,21 +8842,21 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>894</v>
+        <v>941</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1184</v>
+        <v>1212</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>895</v>
+        <v>955</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>540</v>
+        <v>1213</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>1274</v>
@@ -8843,21 +8864,21 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>950</v>
+        <v>893</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>990</v>
+        <v>894</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>1216</v>
+        <v>1184</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>1274</v>
@@ -8865,10 +8886,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>1271</v>
+        <v>540</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>1274</v>
@@ -8876,21 +8897,21 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
-        <v>860</v>
+        <v>950</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>1001</v>
+        <v>990</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>1274</v>
@@ -8898,21 +8919,21 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
-        <v>1000</v>
+        <v>897</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1219</v>
+        <v>1271</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>1005</v>
+        <v>860</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>755</v>
+        <v>1217</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>1274</v>
@@ -8920,10 +8941,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
-        <v>923</v>
+        <v>1001</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>1274</v>
@@ -8931,21 +8952,21 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
-        <v>921</v>
+        <v>1005</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1223</v>
+        <v>755</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>1274</v>
@@ -8953,10 +8974,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>869</v>
+        <v>923</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>1274</v>
@@ -8964,10 +8985,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
-        <v>870</v>
+        <v>996</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1197</v>
+        <v>1222</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>1274</v>
@@ -8975,10 +8996,10 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
-        <v>992</v>
+        <v>921</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>1274</v>
@@ -8986,21 +9007,21 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
-        <v>998</v>
+        <v>869</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>562</v>
+        <v>1224</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1226</v>
+        <v>1197</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>1274</v>
@@ -9008,32 +9029,32 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
-        <v>862</v>
+        <v>992</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
-        <v>863</v>
+        <v>998</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1228</v>
+        <v>562</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
-        <v>900</v>
+        <v>864</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>720</v>
+        <v>1226</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>1274</v>
@@ -9041,21 +9062,21 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
-        <v>934</v>
+        <v>862</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
-        <v>928</v>
+        <v>863</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>1274</v>
@@ -9063,10 +9084,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
-        <v>930</v>
+        <v>900</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>593</v>
+        <v>720</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>1274</v>
@@ -9074,10 +9095,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>1274</v>
@@ -9085,10 +9106,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
-        <v>944</v>
+        <v>928</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>1274</v>
@@ -9096,10 +9117,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
-        <v>871</v>
+        <v>930</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1233</v>
+        <v>593</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>1274</v>
@@ -9107,21 +9128,21 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
-        <v>858</v>
+        <v>931</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
-        <v>857</v>
+        <v>944</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>1274</v>
@@ -9129,10 +9150,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
-        <v>859</v>
+        <v>871</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>553</v>
+        <v>1233</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>1274</v>
@@ -9140,10 +9161,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
-        <v>905</v>
+        <v>858</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>1275</v>
@@ -9151,32 +9172,32 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
-        <v>907</v>
+        <v>857</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>1282</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
-        <v>903</v>
+        <v>859</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1238</v>
+        <v>553</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>1275</v>
@@ -9184,21 +9205,21 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>1275</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>1275</v>
@@ -9206,10 +9227,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>1275</v>
@@ -9217,10 +9238,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>1275</v>
@@ -9228,10 +9249,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>1275</v>
@@ -9239,10 +9260,10 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>1275</v>
@@ -9250,43 +9271,43 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
-        <v>985</v>
+        <v>910</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
-        <v>964</v>
+        <v>915</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
-        <v>948</v>
+        <v>911</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
-        <v>886</v>
+        <v>985</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>1274</v>
@@ -9294,10 +9315,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
-        <v>978</v>
+        <v>964</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>555</v>
+        <v>1247</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>1274</v>
@@ -9305,10 +9326,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
-        <v>979</v>
+        <v>948</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>555</v>
+        <v>1248</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>1274</v>
@@ -9316,10 +9337,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
-        <v>977</v>
+        <v>886</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>555</v>
+        <v>1249</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>1274</v>
@@ -9327,10 +9348,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>898</v>
+        <v>978</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1272</v>
+        <v>555</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>1274</v>
@@ -9338,10 +9359,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
-        <v>865</v>
+        <v>979</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1252</v>
+        <v>555</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>1274</v>
@@ -9349,54 +9370,54 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
-        <v>902</v>
+        <v>977</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1253</v>
+        <v>555</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>1274</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
-        <v>906</v>
+        <v>1298</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1254</v>
+        <v>1299</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>1275</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>595</v>
+        <v>1272</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
-        <v>1283</v>
+        <v>865</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>1282</v>
+        <v>1252</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
-        <v>861</v>
+        <v>902</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>1274</v>
@@ -9404,21 +9425,21 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
-        <v>954</v>
+        <v>906</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>737</v>
+        <v>1254</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>932</v>
+        <v>904</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1256</v>
+        <v>595</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>1275</v>
@@ -9426,32 +9447,32 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>933</v>
+        <v>1283</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1229</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>1274</v>
+        <v>1284</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>1282</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
-        <v>942</v>
+        <v>861</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
-        <v>891</v>
+        <v>954</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>1258</v>
+        <v>737</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>1274</v>
@@ -9459,10 +9480,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>1275</v>
@@ -9470,32 +9491,32 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
-        <v>926</v>
+        <v>933</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1260</v>
+        <v>1229</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
-        <v>958</v>
+        <v>942</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
-        <v>922</v>
+        <v>891</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>1274</v>
@@ -9503,32 +9524,32 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
-        <v>916</v>
+        <v>940</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
-        <v>874</v>
+        <v>926</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1225</v>
+        <v>1260</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1268</v>
+        <v>1261</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>1274</v>
@@ -9536,10 +9557,10 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
-        <v>962</v>
+        <v>922</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1269</v>
+        <v>1262</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>1274</v>
@@ -9547,29 +9568,73 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B157" s="1" t="s">
         <v>1269</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="0" t="s">
+      <c r="C157" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="0" t="s">
         <v>937</v>
       </c>
-      <c r="B154" s="0" t="s">
+      <c r="B158" s="0" t="s">
         <v>1270</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="C158" s="3" t="s">
         <v>1274</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D154">
-    <sortState ref="A2:D154">
+  <autoFilter ref="A1:D158">
+    <sortState ref="A2:D158">
       <sortCondition ref="A2:A154"/>
     </sortState>
   </autoFilter>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="480" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="470" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="1301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="1302">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -3936,6 +3936,9 @@
   </si>
   <si>
     <t>O</t>
+  </si>
+  <si>
+    <t>후난 군벌</t>
   </si>
 </sst>
 </file>
@@ -4251,9 +4254,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4268,25 +4269,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4301,7 +4310,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4316,7 +4327,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -4331,13 +4344,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -4346,14 +4363,18 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4744,8 +4765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E260"/>
   <sheetViews>
-    <sheetView topLeftCell="A230" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C262" sqref="C262"/>
+    <sheetView topLeftCell="A65" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5991,7 +6012,7 @@
         <v>1287</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>1290</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="102" spans="1:5">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="470" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="460" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="새_텍스트_문서" localSheetId="0">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'국가 태그'!$A$1:$E$260</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'임시 태그'!$A$1:$D$158</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -4254,7 +4254,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4269,33 +4271,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4310,9 +4304,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4327,9 +4319,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -4344,17 +4334,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -4363,18 +4349,14 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4765,8 +4747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E260"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -7900,8 +7882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D158"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="D127" sqref="D127"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -8775,46 +8757,46 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
-        <v>991</v>
+        <v>1294</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>695</v>
+        <v>1296</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>1275</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
-        <v>943</v>
+        <v>1295</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1209</v>
+        <v>1297</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>1274</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
-        <v>1294</v>
+        <v>991</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1296</v>
+        <v>695</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>1282</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>1295</v>
+        <v>943</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1297</v>
+        <v>1209</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>1282</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -9215,43 +9197,43 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
-        <v>905</v>
+        <v>1298</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1236</v>
+        <v>1299</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>1275</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>1282</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>1275</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>1275</v>
@@ -9259,10 +9241,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>1275</v>
@@ -9270,10 +9252,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>1275</v>
@@ -9281,10 +9263,10 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>1275</v>
@@ -9292,10 +9274,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>1275</v>
@@ -9303,10 +9285,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>1275</v>
@@ -9314,10 +9296,10 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>1275</v>
@@ -9325,21 +9307,21 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
-        <v>985</v>
+        <v>911</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
-        <v>964</v>
+        <v>985</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>1274</v>
@@ -9347,10 +9329,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
-        <v>948</v>
+        <v>964</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>1274</v>
@@ -9358,10 +9340,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
-        <v>886</v>
+        <v>948</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>1274</v>
@@ -9369,10 +9351,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>978</v>
+        <v>886</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>555</v>
+        <v>1249</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>1274</v>
@@ -9380,7 +9362,7 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>555</v>
@@ -9391,21 +9373,21 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>555</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>1300</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
-        <v>1298</v>
+        <v>977</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1299</v>
+        <v>555</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>1300</v>
@@ -9656,7 +9638,7 @@
   </sheetData>
   <autoFilter ref="A1:D158">
     <sortState ref="A2:D158">
-      <sortCondition ref="A2:A154"/>
+      <sortCondition ref="A2:A158"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="460" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="450" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="1302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="1303">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -3939,6 +3939,9 @@
   </si>
   <si>
     <t>후난 군벌</t>
+  </si>
+  <si>
+    <t>dhtmaks</t>
   </si>
 </sst>
 </file>
@@ -4254,9 +4257,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4271,25 +4272,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4304,7 +4313,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4319,7 +4330,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -4334,13 +4347,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -4349,14 +4366,18 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4748,7 +4769,7 @@
   <dimension ref="A1:E260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -6848,6 +6869,12 @@
       <c r="C173" s="0" t="s">
         <v>591</v>
       </c>
+      <c r="D173" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E173" s="0" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="0" t="s">
@@ -7813,7 +7840,7 @@
         <v>808</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>608</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="257" spans="1:5">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="450" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="440" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -4257,7 +4257,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4272,33 +4274,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4313,9 +4307,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4330,9 +4322,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -4347,17 +4337,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -4366,18 +4352,14 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4768,8 +4750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E260"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A148" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G174" sqref="G174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -6907,6 +6889,12 @@
       </c>
       <c r="C176" s="0" t="s">
         <v>796</v>
+      </c>
+      <c r="D176" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E176" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="177" spans="1:5">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4751,7 +4751,7 @@
   <dimension ref="A1:E260"/>
   <sheetViews>
     <sheetView topLeftCell="A148" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G174" sqref="G174"/>
+      <selection activeCell="E177" sqref="E177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="440" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="430" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -4257,9 +4257,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4274,25 +4272,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4307,7 +4313,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4322,7 +4330,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -4337,13 +4347,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -4352,14 +4366,18 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4750,8 +4768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E260"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E177" sqref="E177"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D199" sqref="D199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -7139,6 +7157,12 @@
       </c>
       <c r="C196" s="0" t="s">
         <v>594</v>
+      </c>
+      <c r="D196" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E196" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="197" spans="1:5">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4768,8 +4768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E260"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D199" sqref="D199"/>
+    <sheetView topLeftCell="A58" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -6780,6 +6780,12 @@
       <c r="C166" s="0" t="s">
         <v>610</v>
       </c>
+      <c r="D166" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E166" s="0" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="0" t="s">
@@ -7463,6 +7469,12 @@
       <c r="C221" s="0" t="s">
         <v>609</v>
       </c>
+      <c r="D221" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E221" s="0" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="0" t="s">
@@ -7679,7 +7691,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:5">
       <c r="A241" s="0" t="s">
         <v>397</v>
       </c>
@@ -7690,7 +7702,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:5">
       <c r="A242" s="0" t="s">
         <v>116</v>
       </c>
@@ -7701,7 +7713,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:5">
       <c r="A243" s="0" t="s">
         <v>122</v>
       </c>
@@ -7712,7 +7724,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:5">
       <c r="A244" s="0" t="s">
         <v>516</v>
       </c>
@@ -7723,7 +7735,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:5">
       <c r="A245" s="0" t="s">
         <v>118</v>
       </c>
@@ -7734,7 +7746,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:5">
       <c r="A246" s="0" t="s">
         <v>399</v>
       </c>
@@ -7745,7 +7757,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:5">
       <c r="A247" s="0" t="s">
         <v>441</v>
       </c>
@@ -7756,7 +7768,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:5">
       <c r="A248" s="0" t="s">
         <v>424</v>
       </c>
@@ -7767,7 +7779,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:5">
       <c r="A249" s="0" t="s">
         <v>401</v>
       </c>
@@ -7778,7 +7790,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:5">
       <c r="A250" s="0" t="s">
         <v>497</v>
       </c>
@@ -7789,7 +7801,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:5">
       <c r="A251" s="0" t="s">
         <v>403</v>
       </c>
@@ -7800,7 +7812,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:5">
       <c r="A252" s="0" t="s">
         <v>166</v>
       </c>
@@ -7811,7 +7823,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:5">
       <c r="A253" s="0" t="s">
         <v>405</v>
       </c>
@@ -7822,7 +7834,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:5">
       <c r="A254" s="0" t="s">
         <v>407</v>
       </c>
@@ -7833,7 +7845,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:5">
       <c r="A255" s="0" t="s">
         <v>150</v>
       </c>
@@ -7844,7 +7856,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:5">
       <c r="A256" s="0" t="s">
         <v>136</v>
       </c>
@@ -7853,6 +7865,12 @@
       </c>
       <c r="C256" s="0" t="s">
         <v>1268</v>
+      </c>
+      <c r="D256" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E256" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="257" spans="1:5">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="430" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="420" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="새_텍스트_문서" localSheetId="0">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'국가 태그'!$A$1:$E$260</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'임시 태그'!$A$1:$D$158</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="1303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="1305">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -3942,6 +3942,12 @@
   </si>
   <si>
     <t>dhtmaks</t>
+  </si>
+  <si>
+    <t>flqldk</t>
+  </si>
+  <si>
+    <t>리비아</t>
   </si>
 </sst>
 </file>
@@ -4257,7 +4263,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4272,33 +4280,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4313,9 +4313,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4330,9 +4328,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -4347,17 +4343,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -4366,18 +4358,14 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4766,10 +4754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E260"/>
+  <dimension ref="A1:E259"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A115" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5607,6 +5595,12 @@
       <c r="C67" s="0" t="s">
         <v>619</v>
       </c>
+      <c r="D67" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="0" t="s">
@@ -6325,460 +6319,472 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="0" t="s">
-        <v>160</v>
+        <v>522</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>620</v>
+        <v>806</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="0" t="s">
-        <v>522</v>
+        <v>297</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>808</v>
+        <v>1287</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>806</v>
+        <v>692</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="0" t="s">
-        <v>297</v>
+        <v>483</v>
       </c>
       <c r="B129" s="0" t="s">
         <v>1287</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>692</v>
+        <v>787</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="0" t="s">
-        <v>483</v>
+        <v>295</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>1287</v>
+        <v>812</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>787</v>
+        <v>691</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="0" t="s">
-        <v>295</v>
+        <v>22</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>812</v>
+        <v>529</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>691</v>
+        <v>547</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E131" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="0" t="s">
-        <v>22</v>
+        <v>414</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>529</v>
+        <v>835</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>547</v>
-      </c>
-      <c r="D132" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E132" s="0" t="s">
-        <v>534</v>
+        <v>754</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="0" t="s">
-        <v>414</v>
+        <v>10</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>835</v>
+        <v>529</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>754</v>
+        <v>541</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="0" t="s">
-        <v>10</v>
+        <v>299</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>529</v>
+        <v>812</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>541</v>
+        <v>1304</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E134" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>812</v>
+        <v>611</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>611</v>
+        <v>812</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B137" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="0" t="s">
-        <v>305</v>
+        <v>499</v>
       </c>
       <c r="B138" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>696</v>
+        <v>795</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="0" t="s">
-        <v>499</v>
+        <v>307</v>
       </c>
       <c r="B139" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>795</v>
+        <v>697</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>812</v>
+        <v>1287</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="0" t="s">
-        <v>309</v>
+        <v>520</v>
       </c>
       <c r="B141" s="0" t="s">
         <v>1287</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>698</v>
+        <v>805</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="0" t="s">
-        <v>520</v>
+        <v>94</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>1287</v>
+        <v>811</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>805</v>
+        <v>587</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="0" t="s">
-        <v>94</v>
+        <v>453</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>587</v>
+        <v>772</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="0" t="s">
-        <v>453</v>
+        <v>311</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>812</v>
+        <v>837</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>772</v>
+        <v>699</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="0" t="s">
-        <v>311</v>
+        <v>437</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>837</v>
+        <v>812</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>699</v>
+        <v>764</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="0" t="s">
-        <v>437</v>
+        <v>124</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>812</v>
+        <v>836</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>764</v>
+        <v>602</v>
+      </c>
+      <c r="D146" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E146" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="0" t="s">
-        <v>124</v>
+        <v>313</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>836</v>
+        <v>812</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>602</v>
-      </c>
-      <c r="D147" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E147" s="0" t="s">
-        <v>534</v>
+        <v>700</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B148" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B149" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>812</v>
+        <v>833</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>833</v>
+        <v>611</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="0" t="s">
-        <v>321</v>
+        <v>435</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>611</v>
+        <v>812</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>704</v>
+        <v>763</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="0" t="s">
-        <v>435</v>
+        <v>323</v>
       </c>
       <c r="B153" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>763</v>
+        <v>705</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="0" t="s">
-        <v>325</v>
+        <v>96</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>810</v>
+        <v>611</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>706</v>
+        <v>588</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="0" t="s">
-        <v>96</v>
+        <v>327</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>611</v>
+        <v>812</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>588</v>
+        <v>707</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="0" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B157" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>812</v>
+        <v>828</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="0" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="0" t="s">
-        <v>333</v>
+        <v>98</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>710</v>
+        <v>589</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="0" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>811</v>
+        <v>529</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>589</v>
+        <v>559</v>
+      </c>
+      <c r="D161" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E161" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="0" t="s">
-        <v>46</v>
+        <v>335</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>529</v>
+        <v>831</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>559</v>
-      </c>
-      <c r="D162" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E162" s="0" t="s">
-        <v>534</v>
+        <v>713</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="0" t="s">
-        <v>335</v>
+        <v>100</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>831</v>
+        <v>815</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>713</v>
+        <v>590</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="0" t="s">
-        <v>100</v>
+        <v>337</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>815</v>
+        <v>831</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>590</v>
+        <v>712</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="0" t="s">
-        <v>337</v>
+        <v>140</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>831</v>
+        <v>808</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>712</v>
+        <v>610</v>
+      </c>
+      <c r="D165" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E165" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="0" t="s">
-        <v>140</v>
+        <v>339</v>
       </c>
       <c r="B166" s="0" t="s">
         <v>808</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>610</v>
+        <v>714</v>
       </c>
       <c r="D166" s="0" t="s">
         <v>537</v>
@@ -6789,296 +6795,296 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="0" t="s">
-        <v>339</v>
+        <v>439</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>714</v>
-      </c>
-      <c r="D167" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E167" s="0" t="s">
-        <v>534</v>
+        <v>765</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="0" t="s">
-        <v>439</v>
+        <v>162</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>765</v>
+        <v>621</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="0" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>808</v>
+        <v>819</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="0" t="s">
-        <v>172</v>
+        <v>416</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>819</v>
+        <v>835</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>626</v>
+        <v>755</v>
+      </c>
+      <c r="D170" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E170" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="0" t="s">
-        <v>416</v>
+        <v>128</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>835</v>
+        <v>809</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>755</v>
-      </c>
-      <c r="D171" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E171" s="0" t="s">
-        <v>534</v>
+        <v>604</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="0" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>604</v>
+        <v>591</v>
+      </c>
+      <c r="D172" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E172" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="0" t="s">
-        <v>102</v>
+        <v>174</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>808</v>
+        <v>837</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>591</v>
-      </c>
-      <c r="D173" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E173" s="0" t="s">
-        <v>534</v>
+        <v>627</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="0" t="s">
-        <v>174</v>
+        <v>341</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>627</v>
+        <v>715</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="0" t="s">
-        <v>341</v>
+        <v>501</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>840</v>
+        <v>611</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>715</v>
+        <v>796</v>
+      </c>
+      <c r="D175" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E175" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="0" t="s">
-        <v>501</v>
+        <v>343</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>611</v>
+        <v>825</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>796</v>
-      </c>
-      <c r="D176" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E176" s="0" t="s">
-        <v>534</v>
+        <v>716</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="0" t="s">
-        <v>343</v>
+        <v>18</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>825</v>
+        <v>529</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>716</v>
+        <v>545</v>
+      </c>
+      <c r="D177" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E177" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="0" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>529</v>
+        <v>832</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>545</v>
-      </c>
-      <c r="D178" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E178" s="0" t="s">
-        <v>534</v>
+        <v>562</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="0" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>832</v>
+        <v>1287</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>562</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="0" t="s">
-        <v>146</v>
+        <v>345</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>1287</v>
+        <v>611</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>1286</v>
+        <v>717</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="0" t="s">
-        <v>345</v>
+        <v>506</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>611</v>
+        <v>819</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>717</v>
+        <v>798</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="0" t="s">
-        <v>506</v>
+        <v>104</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>798</v>
+        <v>592</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="0" t="s">
-        <v>104</v>
+        <v>472</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>809</v>
+        <v>818</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>592</v>
+        <v>781</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="0" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>818</v>
+        <v>1287</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="0" t="s">
-        <v>487</v>
+        <v>347</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>1287</v>
+        <v>810</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>789</v>
+        <v>718</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="0" t="s">
-        <v>347</v>
+        <v>142</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>810</v>
+        <v>611</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>718</v>
+        <v>611</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="0" t="s">
-        <v>142</v>
+        <v>460</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>611</v>
+        <v>840</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>611</v>
+        <v>775</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="0" t="s">
-        <v>460</v>
+        <v>32</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>840</v>
+        <v>529</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>775</v>
+        <v>729</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="0" t="s">
-        <v>32</v>
+        <v>349</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>529</v>
+        <v>825</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>729</v>
+        <v>719</v>
+      </c>
+      <c r="D189" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E189" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D190" s="0" t="s">
         <v>537</v>
@@ -7089,276 +7095,276 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="0" t="s">
-        <v>351</v>
+        <v>455</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>826</v>
+        <v>812</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>720</v>
-      </c>
-      <c r="D191" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E191" s="0" t="s">
-        <v>534</v>
+        <v>773</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="0" t="s">
-        <v>455</v>
+        <v>495</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>812</v>
+        <v>836</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>773</v>
+        <v>793</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="0" t="s">
-        <v>495</v>
+        <v>106</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>836</v>
+        <v>812</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>793</v>
+        <v>593</v>
+      </c>
+      <c r="D193" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E193" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="0" t="s">
-        <v>106</v>
+        <v>353</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>812</v>
+        <v>837</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>593</v>
-      </c>
-      <c r="D194" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E194" s="0" t="s">
-        <v>534</v>
+        <v>721</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="0" t="s">
-        <v>353</v>
+        <v>108</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>837</v>
+        <v>808</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>721</v>
+        <v>594</v>
+      </c>
+      <c r="D195" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E195" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="0" t="s">
-        <v>108</v>
+        <v>355</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>808</v>
+        <v>825</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>594</v>
-      </c>
-      <c r="D196" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E196" s="0" t="s">
-        <v>534</v>
+        <v>722</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="0" t="s">
-        <v>355</v>
+        <v>512</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>722</v>
+        <v>801</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="0" t="s">
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>801</v>
+        <v>723</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>829</v>
+        <v>812</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="0" t="s">
-        <v>359</v>
+        <v>36</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>812</v>
+        <v>833</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>724</v>
+        <v>554</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="0" t="s">
-        <v>36</v>
+        <v>514</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>554</v>
+        <v>802</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="0" t="s">
-        <v>514</v>
+        <v>148</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>837</v>
+        <v>1287</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>802</v>
+        <v>614</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="0" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>1287</v>
+        <v>837</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>614</v>
+        <v>595</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="0" t="s">
-        <v>110</v>
+        <v>361</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>595</v>
+        <v>725</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>826</v>
+        <v>835</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>835</v>
+        <v>812</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="0" t="s">
-        <v>365</v>
+        <v>112</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>812</v>
+        <v>836</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>727</v>
+        <v>596</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="0" t="s">
-        <v>112</v>
+        <v>367</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>596</v>
+        <v>730</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="0" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="0" t="s">
-        <v>369</v>
+        <v>4</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>812</v>
+        <v>830</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>731</v>
+        <v>538</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="0" t="s">
-        <v>4</v>
+        <v>462</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>538</v>
+        <v>776</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="0" t="s">
-        <v>462</v>
+        <v>28</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>776</v>
+        <v>850</v>
+      </c>
+      <c r="D212" s="0" t="s">
+        <v>851</v>
+      </c>
+      <c r="E212" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="0" t="s">
-        <v>28</v>
+        <v>489</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>832</v>
+        <v>1287</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>850</v>
+        <v>790</v>
       </c>
       <c r="D213" s="0" t="s">
-        <v>851</v>
+        <v>537</v>
       </c>
       <c r="E213" s="0" t="s">
         <v>534</v>
@@ -7366,74 +7372,74 @@
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="0" t="s">
-        <v>489</v>
+        <v>418</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>1287</v>
+        <v>835</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>790</v>
-      </c>
-      <c r="D214" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E214" s="0" t="s">
-        <v>534</v>
+        <v>756</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="0" t="s">
-        <v>418</v>
+        <v>371</v>
       </c>
       <c r="B215" s="0" t="s">
         <v>835</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>756</v>
+        <v>852</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="0" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>835</v>
+        <v>812</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>852</v>
+        <v>733</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="0" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>812</v>
+        <v>825</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="0" t="s">
-        <v>375</v>
+        <v>6</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>825</v>
+        <v>529</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>734</v>
+        <v>539</v>
+      </c>
+      <c r="D218" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E218" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="0" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B219" s="0" t="s">
         <v>529</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
       <c r="D219" s="0" t="s">
         <v>537</v>
@@ -7444,13 +7450,13 @@
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="0" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>529</v>
+        <v>808</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>555</v>
+        <v>609</v>
       </c>
       <c r="D220" s="0" t="s">
         <v>537</v>
@@ -7461,410 +7467,410 @@
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="0" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="B221" s="0" t="s">
         <v>808</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>609</v>
-      </c>
-      <c r="D221" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E221" s="0" t="s">
-        <v>534</v>
+        <v>618</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="0" t="s">
-        <v>156</v>
+        <v>491</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>808</v>
+        <v>1287</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>618</v>
+        <v>791</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="0" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>1287</v>
+        <v>836</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="0" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="0" t="s">
-        <v>504</v>
+        <v>126</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>797</v>
+        <v>603</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="0" t="s">
-        <v>126</v>
+        <v>377</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>836</v>
+        <v>810</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>603</v>
+        <v>735</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="0" t="s">
-        <v>377</v>
+        <v>114</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>810</v>
+        <v>836</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>735</v>
+        <v>597</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="0" t="s">
-        <v>114</v>
+        <v>379</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>836</v>
+        <v>812</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>597</v>
+        <v>737</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="0" t="s">
-        <v>379</v>
+        <v>449</v>
       </c>
       <c r="B229" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>737</v>
+        <v>770</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="0" t="s">
-        <v>449</v>
+        <v>381</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>812</v>
+        <v>838</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>770</v>
+        <v>738</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="0" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="0" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="0" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>825</v>
+        <v>611</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="0" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>611</v>
+        <v>812</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B235" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="0" t="s">
-        <v>391</v>
+        <v>40</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>812</v>
+        <v>834</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>743</v>
+        <v>556</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="0" t="s">
-        <v>40</v>
+        <v>420</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>556</v>
+        <v>757</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="0" t="s">
-        <v>420</v>
+        <v>393</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>835</v>
+        <v>812</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="0" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>812</v>
+        <v>825</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>744</v>
+        <v>745</v>
+      </c>
+      <c r="D239" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E239" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>745</v>
-      </c>
-      <c r="D240" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E240" s="0" t="s">
-        <v>534</v>
+        <v>746</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="0" t="s">
-        <v>397</v>
+        <v>116</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>829</v>
+        <v>809</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>746</v>
+        <v>598</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="0" t="s">
-        <v>122</v>
+        <v>516</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>810</v>
+        <v>838</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>601</v>
+        <v>803</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="0" t="s">
-        <v>516</v>
+        <v>118</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>838</v>
+        <v>809</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>803</v>
+        <v>599</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="0" t="s">
-        <v>118</v>
+        <v>399</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>809</v>
+        <v>837</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>599</v>
+        <v>747</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="0" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>837</v>
+        <v>812</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>747</v>
+        <v>766</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="0" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>812</v>
+        <v>835</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="0" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>835</v>
+        <v>812</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="0" t="s">
-        <v>401</v>
+        <v>497</v>
       </c>
       <c r="B249" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>748</v>
+        <v>794</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="0" t="s">
-        <v>497</v>
+        <v>403</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>812</v>
+        <v>829</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>794</v>
+        <v>749</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="0" t="s">
-        <v>403</v>
+        <v>166</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>749</v>
+        <v>623</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="0" t="s">
-        <v>166</v>
+        <v>405</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>623</v>
+        <v>750</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B253" s="0" t="s">
         <v>825</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="0" t="s">
-        <v>407</v>
+        <v>150</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>825</v>
+        <v>1287</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>751</v>
+        <v>615</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="0" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>1287</v>
+        <v>808</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>615</v>
+        <v>1268</v>
+      </c>
+      <c r="D255" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E255" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" s="0" t="s">
-        <v>136</v>
+        <v>34</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>808</v>
+        <v>833</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>1268</v>
+        <v>553</v>
       </c>
       <c r="D256" s="0" t="s">
         <v>537</v>
@@ -7873,58 +7879,41 @@
         <v>534</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:3">
       <c r="A257" s="0" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>833</v>
+        <v>1287</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>553</v>
-      </c>
-      <c r="D257" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E257" s="0" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
       <c r="A258" s="0" t="s">
-        <v>120</v>
+        <v>409</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>1287</v>
+        <v>812</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
       <c r="A259" s="0" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B259" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C259" s="0" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5">
-      <c r="A260" s="0" t="s">
-        <v>411</v>
-      </c>
-      <c r="B260" s="0" t="s">
-        <v>812</v>
-      </c>
-      <c r="C260" s="0" t="s">
         <v>753</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E260">
+  <autoFilter ref="A1:E259">
     <sortState ref="A2:E260">
       <sortCondition ref="A2:A260"/>
     </sortState>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="420" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="410" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,8 @@
   </sheets>
   <definedNames>
     <definedName name="새_텍스트_문서" localSheetId="0">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'임시 태그'!$A$1:$D$158</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'국가 태그'!$A$1:$E$259</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="1305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="1307">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -3948,6 +3948,12 @@
   </si>
   <si>
     <t>리비아</t>
+  </si>
+  <si>
+    <t>AUS_Kingdom</t>
+  </si>
+  <si>
+    <t>오스트리아 왕국</t>
   </si>
 </sst>
 </file>
@@ -4263,9 +4269,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4280,25 +4284,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4313,7 +4325,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4328,7 +4342,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -4343,13 +4359,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -4358,14 +4378,18 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4756,8 +4780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E259"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C135" sqref="C135"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -7914,7 +7938,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E259">
-    <sortState ref="A2:E260">
+    <sortState ref="A2:E259">
       <sortCondition ref="A2:A260"/>
     </sortState>
   </autoFilter>
@@ -7926,10 +7950,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D158"/>
+  <dimension ref="A1:D159"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -8066,35 +8090,35 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>975</v>
+        <v>1305</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1161</v>
+        <v>1306</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1275</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>887</v>
+        <v>975</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -8102,7 +8126,7 @@
         <v>888</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>1275</v>
@@ -8110,32 +8134,32 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>1291</v>
+        <v>888</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1292</v>
+        <v>1164</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>1282</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>986</v>
+        <v>1291</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1165</v>
+        <v>1292</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>1274</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>1274</v>
@@ -8143,10 +8167,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>1274</v>
@@ -8154,10 +8178,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>938</v>
+        <v>982</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>638</v>
+        <v>1167</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>1274</v>
@@ -8165,10 +8189,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>961</v>
+        <v>938</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1168</v>
+        <v>638</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>1274</v>
@@ -8176,10 +8200,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>1277</v>
+        <v>961</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>1274</v>
@@ -8187,10 +8211,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>917</v>
+        <v>1277</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>649</v>
+        <v>1169</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>1274</v>
@@ -8198,21 +8222,21 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>879</v>
+        <v>917</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1170</v>
+        <v>649</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>1275</v>
@@ -8220,10 +8244,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>997</v>
+        <v>880</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>850</v>
+        <v>1171</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>1275</v>
@@ -8231,21 +8255,21 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>981</v>
+        <v>997</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1172</v>
+        <v>850</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>951</v>
+        <v>981</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>1274</v>
@@ -8253,10 +8277,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>1274</v>
@@ -8264,10 +8288,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>657</v>
+        <v>1174</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>1274</v>
@@ -8275,10 +8299,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>966</v>
+        <v>953</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1175</v>
+        <v>657</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>1274</v>
@@ -8286,10 +8310,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>658</v>
+        <v>1175</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>1274</v>
@@ -8297,32 +8321,32 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1176</v>
+        <v>658</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>867</v>
+        <v>965</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>611</v>
+        <v>1176</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>899</v>
+        <v>867</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1177</v>
+        <v>611</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>1274</v>
@@ -8330,10 +8354,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>988</v>
+        <v>899</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>543</v>
+        <v>1177</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>1274</v>
@@ -8341,7 +8365,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>543</v>
@@ -8352,10 +8376,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1178</v>
+        <v>543</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>1274</v>
@@ -8363,10 +8387,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>908</v>
+        <v>995</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>1274</v>
@@ -8374,10 +8398,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>993</v>
+        <v>908</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>1274</v>
@@ -8385,10 +8409,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>1006</v>
+        <v>993</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1278</v>
+        <v>1180</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>1274</v>
@@ -8396,10 +8420,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>971</v>
+        <v>1006</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1182</v>
+        <v>1278</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>1274</v>
@@ -8407,10 +8431,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>1279</v>
+        <v>971</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1280</v>
+        <v>1182</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>1274</v>
@@ -8418,10 +8442,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>901</v>
+        <v>1279</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1184</v>
+        <v>1280</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>1274</v>
@@ -8429,10 +8453,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>952</v>
+        <v>901</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>671</v>
+        <v>1184</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>1274</v>
@@ -8440,10 +8464,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>878</v>
+        <v>952</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1185</v>
+        <v>671</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>1274</v>
@@ -8451,7 +8475,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>1185</v>
@@ -8462,10 +8486,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>924</v>
+        <v>877</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>1274</v>
@@ -8473,10 +8497,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>885</v>
+        <v>924</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>1274</v>
@@ -8484,10 +8508,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>1274</v>
@@ -8495,10 +8519,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>1274</v>
@@ -8506,10 +8530,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>949</v>
+        <v>883</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>676</v>
+        <v>1189</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>1274</v>
@@ -8517,32 +8541,32 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>896</v>
+        <v>949</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1190</v>
+        <v>676</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>999</v>
+        <v>896</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>989</v>
+        <v>999</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>581</v>
+        <v>1191</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>1274</v>
@@ -8550,10 +8574,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>1007</v>
+        <v>989</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1192</v>
+        <v>581</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>1274</v>
@@ -8561,32 +8585,32 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>976</v>
+        <v>1007</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>876</v>
+        <v>976</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>919</v>
+        <v>876</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>1274</v>
@@ -8594,32 +8618,32 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>868</v>
+        <v>918</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>611</v>
+        <v>1196</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1197</v>
+        <v>611</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>1274</v>
@@ -8627,10 +8651,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>972</v>
+        <v>866</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>1274</v>
@@ -8638,10 +8662,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>1002</v>
+        <v>972</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>1274</v>
@@ -8649,10 +8673,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>889</v>
+        <v>1002</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>1274</v>
@@ -8660,32 +8684,32 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>843</v>
+        <v>1200</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>843</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>872</v>
+        <v>892</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1201</v>
+        <v>843</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>1274</v>
@@ -8693,10 +8717,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>1274</v>
@@ -8704,10 +8728,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>1274</v>
@@ -8715,10 +8739,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>957</v>
+        <v>881</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>688</v>
+        <v>1203</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>1274</v>
@@ -8726,10 +8750,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>920</v>
+        <v>957</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>1274</v>
@@ -8737,10 +8761,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
-        <v>956</v>
+        <v>920</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1204</v>
+        <v>690</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>1274</v>
@@ -8748,10 +8772,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>925</v>
+        <v>956</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>1274</v>
@@ -8759,32 +8783,32 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>939</v>
+        <v>925</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
-        <v>875</v>
+        <v>939</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>620</v>
+        <v>1206</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>935</v>
+        <v>875</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1207</v>
+        <v>620</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>1274</v>
@@ -8792,10 +8816,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>1274</v>
@@ -8803,21 +8827,21 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
-        <v>1294</v>
+        <v>946</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1296</v>
+        <v>1208</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>1282</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>1282</v>
@@ -8825,32 +8849,32 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
-        <v>991</v>
+        <v>1295</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>695</v>
+        <v>1297</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>1275</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>943</v>
+        <v>991</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1209</v>
+        <v>695</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>927</v>
+        <v>943</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>1274</v>
@@ -8858,10 +8882,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>947</v>
+        <v>927</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>700</v>
+        <v>1210</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>1274</v>
@@ -8869,10 +8893,10 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>960</v>
+        <v>947</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>1274</v>
@@ -8880,10 +8904,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1211</v>
+        <v>701</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>1274</v>
@@ -8891,32 +8915,32 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>941</v>
+        <v>980</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>955</v>
+        <v>941</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>893</v>
+        <v>955</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>1274</v>
@@ -8924,10 +8948,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>1184</v>
+        <v>1214</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>1274</v>
@@ -8935,10 +8959,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>540</v>
+        <v>1184</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>1274</v>
@@ -8946,32 +8970,32 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
-        <v>950</v>
+        <v>895</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1215</v>
+        <v>540</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>990</v>
+        <v>950</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
-        <v>897</v>
+        <v>990</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1271</v>
+        <v>1216</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>1274</v>
@@ -8979,10 +9003,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>860</v>
+        <v>897</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1217</v>
+        <v>1271</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>1274</v>
@@ -8990,10 +9014,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
-        <v>1001</v>
+        <v>860</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>1274</v>
@@ -9001,32 +9025,32 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>755</v>
+        <v>1219</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>923</v>
+        <v>1005</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>1220</v>
+        <v>755</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>1274</v>
@@ -9034,10 +9058,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
-        <v>996</v>
+        <v>923</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>1274</v>
@@ -9045,10 +9069,10 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
-        <v>921</v>
+        <v>996</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>1274</v>
@@ -9056,10 +9080,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
-        <v>869</v>
+        <v>921</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>1274</v>
@@ -9067,10 +9091,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1197</v>
+        <v>1224</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>1274</v>
@@ -9078,10 +9102,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
-        <v>992</v>
+        <v>870</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1225</v>
+        <v>1197</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>1274</v>
@@ -9089,54 +9113,54 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>562</v>
+        <v>1225</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
-        <v>864</v>
+        <v>998</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1226</v>
+        <v>562</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
-        <v>900</v>
+        <v>863</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>720</v>
+        <v>1228</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>1274</v>
@@ -9144,10 +9168,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
-        <v>934</v>
+        <v>900</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1229</v>
+        <v>720</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>1274</v>
@@ -9155,10 +9179,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>1274</v>
@@ -9166,10 +9190,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>593</v>
+        <v>1230</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>1274</v>
@@ -9177,10 +9201,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1231</v>
+        <v>593</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>1274</v>
@@ -9188,10 +9212,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
-        <v>944</v>
+        <v>931</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>1274</v>
@@ -9199,10 +9223,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
-        <v>871</v>
+        <v>944</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>1274</v>
@@ -9210,32 +9234,32 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
-        <v>858</v>
+        <v>871</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>553</v>
+        <v>1235</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>1274</v>
@@ -9243,54 +9267,54 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
-        <v>1298</v>
+        <v>859</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1299</v>
+        <v>553</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>1300</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
-        <v>905</v>
+        <v>1298</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1236</v>
+        <v>1299</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>1275</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>1282</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>1275</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>1275</v>
@@ -9298,10 +9322,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>1275</v>
@@ -9309,10 +9333,10 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>1275</v>
@@ -9320,10 +9344,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>1275</v>
@@ -9331,10 +9355,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>1275</v>
@@ -9342,10 +9366,10 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>1275</v>
@@ -9353,10 +9377,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>1275</v>
@@ -9364,21 +9388,21 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
-        <v>985</v>
+        <v>911</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
-        <v>964</v>
+        <v>985</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>1274</v>
@@ -9386,10 +9410,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
-        <v>948</v>
+        <v>964</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>1274</v>
@@ -9397,10 +9421,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>886</v>
+        <v>948</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>1274</v>
@@ -9408,10 +9432,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
-        <v>978</v>
+        <v>886</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>555</v>
+        <v>1249</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>1274</v>
@@ -9419,7 +9443,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>555</v>
@@ -9430,32 +9454,32 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>555</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>1300</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
-        <v>898</v>
+        <v>977</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1272</v>
+        <v>555</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>1274</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
-        <v>865</v>
+        <v>898</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1252</v>
+        <v>1272</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>1274</v>
@@ -9463,10 +9487,10 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
-        <v>902</v>
+        <v>865</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>1274</v>
@@ -9474,21 +9498,21 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>595</v>
+        <v>1254</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>1275</v>
@@ -9496,32 +9520,32 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>1283</v>
+        <v>904</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>1282</v>
+        <v>595</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>1275</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
-        <v>861</v>
+        <v>1283</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>1274</v>
+        <v>1284</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>1282</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
-        <v>954</v>
+        <v>861</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>737</v>
+        <v>1255</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>1274</v>
@@ -9529,65 +9553,65 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
-        <v>932</v>
+        <v>954</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1256</v>
+        <v>737</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1229</v>
+        <v>1256</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1257</v>
+        <v>1229</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
-        <v>891</v>
+        <v>942</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
-        <v>940</v>
+        <v>891</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
-        <v>926</v>
+        <v>940</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>1275</v>
@@ -9595,21 +9619,21 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
-        <v>958</v>
+        <v>926</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
-        <v>922</v>
+        <v>958</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>1274</v>
@@ -9617,10 +9641,10 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>1274</v>
@@ -9628,10 +9652,10 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
-        <v>874</v>
+        <v>916</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>1225</v>
+        <v>1263</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>1274</v>
@@ -9639,10 +9663,10 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
-        <v>963</v>
+        <v>874</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>1268</v>
+        <v>1225</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>1274</v>
@@ -9650,10 +9674,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>1274</v>
@@ -9661,7 +9685,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
-        <v>936</v>
+        <v>962</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>1269</v>
@@ -9671,20 +9695,31 @@
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="0" t="s">
+      <c r="A158" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="0" t="s">
         <v>937</v>
       </c>
-      <c r="B158" s="0" t="s">
+      <c r="B159" s="0" t="s">
         <v>1270</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="C159" s="3" t="s">
         <v>1274</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D158">
-    <sortState ref="A2:D158">
-      <sortCondition ref="A2:A158"/>
+  <autoFilter ref="A1:D159">
+    <sortState ref="A2:D159">
+      <sortCondition ref="A2:A159"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="410" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="400" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="새_텍스트_문서" localSheetId="0">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'국가 태그'!$A$1:$E$259</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'임시 태그'!$A$1:$D$159</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="1307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="1309">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -3954,6 +3954,12 @@
   </si>
   <si>
     <t>오스트리아 왕국</t>
+  </si>
+  <si>
+    <t>중앙아프리카 wprnr</t>
+  </si>
+  <si>
+    <t>중앙아프리카 제국</t>
   </si>
 </sst>
 </file>
@@ -4269,7 +4275,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4284,33 +4292,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4325,9 +4325,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4342,9 +4340,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -4359,17 +4355,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -4378,18 +4370,14 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4780,8 +4768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E259"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A28" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5324,7 +5312,7 @@
         <v>812</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>653</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -7952,8 +7940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="400" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="390" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -4275,9 +4275,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4292,25 +4290,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4325,7 +4331,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4340,7 +4348,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -4355,13 +4365,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -4370,14 +4384,18 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4768,8 +4786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E259"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView topLeftCell="A126" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -6471,6 +6489,12 @@
       </c>
       <c r="C138" s="0" t="s">
         <v>795</v>
+      </c>
+      <c r="D138" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E138" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="139" spans="1:5">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="390" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="380" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -4275,7 +4275,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4290,33 +4292,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4331,9 +4325,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4348,9 +4340,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -4365,17 +4355,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -4384,18 +4370,14 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4786,8 +4768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E259"/>
   <sheetViews>
-    <sheetView topLeftCell="A126" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D138" sqref="D138"/>
+    <sheetView topLeftCell="A65" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="380" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="370" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -4275,9 +4275,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4292,25 +4290,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4325,7 +4331,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4340,7 +4348,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -4355,13 +4365,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -4370,14 +4384,18 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4768,8 +4786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E259"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G95" sqref="G95"/>
+    <sheetView topLeftCell="A227" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G252" sqref="G252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -7806,6 +7824,12 @@
       </c>
       <c r="C249" s="0" t="s">
         <v>794</v>
+      </c>
+      <c r="D249" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E249" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="250" spans="1:5">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="370" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="360" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -4275,7 +4275,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4290,33 +4292,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4331,9 +4325,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4348,9 +4340,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -4365,17 +4355,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -4384,18 +4370,14 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4786,8 +4768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E259"/>
   <sheetViews>
-    <sheetView topLeftCell="A227" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G252" sqref="G252"/>
+    <sheetView topLeftCell="A14" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="360" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="350" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -4275,9 +4275,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4292,25 +4290,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4325,7 +4331,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4340,7 +4348,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -4355,13 +4365,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -4370,14 +4384,18 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4768,8 +4786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E259"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A167" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E183" sqref="E183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5314,6 +5332,12 @@
       <c r="C42" s="0" t="s">
         <v>1308</v>
       </c>
+      <c r="D42" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="0" t="s">
@@ -6966,6 +6990,12 @@
       <c r="C178" s="0" t="s">
         <v>562</v>
       </c>
+      <c r="D178" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E178" s="0" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="0" t="s">
@@ -7419,6 +7449,12 @@
       </c>
       <c r="C216" s="0" t="s">
         <v>733</v>
+      </c>
+      <c r="D216" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E216" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="217" spans="1:5">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="350" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="340" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -4275,7 +4275,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4290,33 +4292,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4331,9 +4325,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4348,9 +4340,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -4365,17 +4355,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -4384,18 +4370,14 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4786,8 +4768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E259"/>
   <sheetViews>
-    <sheetView topLeftCell="A167" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E183" sqref="E183"/>
+    <sheetView topLeftCell="A53" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5720,6 +5702,12 @@
       <c r="C74" s="0" t="s">
         <v>580</v>
       </c>
+      <c r="D74" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="0" t="s">
@@ -7360,6 +7348,12 @@
       </c>
       <c r="C209" s="0" t="s">
         <v>731</v>
+      </c>
+      <c r="D209" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E209" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="210" spans="1:5">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="340" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="330" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="1311">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -3960,6 +3960,12 @@
   </si>
   <si>
     <t>중앙아프리카 제국</t>
+  </si>
+  <si>
+    <t>dlfkzm</t>
+  </si>
+  <si>
+    <t>이라크</t>
   </si>
 </sst>
 </file>
@@ -4275,9 +4281,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4292,25 +4296,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4325,7 +4337,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4340,7 +4354,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -4355,13 +4371,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -4370,14 +4390,18 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4768,8 +4792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E259"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView topLeftCell="A90" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -6161,7 +6185,7 @@
         <v>841</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>584</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="112" spans="1:5">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4792,8 +4792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E259"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C119" sqref="C119"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="330" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="310" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="1311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="1313">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -3966,6 +3966,12 @@
   </si>
   <si>
     <t>이라크</t>
+  </si>
+  <si>
+    <t>spwlem</t>
+  </si>
+  <si>
+    <t>네지드</t>
   </si>
 </sst>
 </file>
@@ -4792,8 +4798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E259"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A103" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -6237,6 +6243,12 @@
       <c r="C115" s="0" t="s">
         <v>686</v>
       </c>
+      <c r="D115" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="0" t="s">
@@ -7211,7 +7223,7 @@
         <v>808</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>594</v>
+        <v>1312</v>
       </c>
       <c r="D195" s="0" t="s">
         <v>537</v>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="310" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="300" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -4287,7 +4287,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4302,33 +4304,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4343,9 +4337,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4360,9 +4352,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -4377,17 +4367,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -4396,18 +4382,14 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4798,8 +4780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E259"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D118" sqref="D118"/>
+    <sheetView topLeftCell="A142" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E156" sqref="E156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -6707,6 +6689,12 @@
       </c>
       <c r="C154" s="0" t="s">
         <v>706</v>
+      </c>
+      <c r="D154" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E154" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="155" spans="1:5">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="300" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="290" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,8 @@
   </sheets>
   <definedNames>
     <definedName name="새_텍스트_문서" localSheetId="0">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'국가 태그'!$A$1:$E$259</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'임시 태그'!$A$1:$D$159</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'임시 태그'!$A$1:$D$162</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="1313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="1325">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -3972,6 +3972,42 @@
   </si>
   <si>
     <t>네지드</t>
+  </si>
+  <si>
+    <t>MEX_CON</t>
+  </si>
+  <si>
+    <t>헌정파(멕시코)</t>
+  </si>
+  <si>
+    <t>MEX_ZAP</t>
+  </si>
+  <si>
+    <t>사파티스타(멕시코)</t>
+  </si>
+  <si>
+    <t>MEX_CUM</t>
+  </si>
+  <si>
+    <t>멕시코 평의회 합중국</t>
+  </si>
+  <si>
+    <t>아프리카</t>
+  </si>
+  <si>
+    <t>과테말라</t>
+  </si>
+  <si>
+    <t>아메리카 연합주</t>
+  </si>
+  <si>
+    <t>과테말라</t>
+  </si>
+  <si>
+    <t>CEN</t>
+  </si>
+  <si>
+    <t>PUA</t>
   </si>
 </sst>
 </file>
@@ -4287,9 +4323,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4304,25 +4338,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4337,7 +4379,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4352,7 +4396,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -4367,13 +4413,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -4382,14 +4432,18 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4778,10 +4832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E259"/>
+  <dimension ref="A1:E261"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E156" sqref="E156"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -4849,7 +4903,7 @@
         <v>177</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>819</v>
+        <v>1319</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>628</v>
@@ -5335,401 +5389,395 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="0" t="s">
-        <v>219</v>
+        <v>1323</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>611</v>
+        <v>819</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>654</v>
+        <v>583</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="0" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>810</v>
+        <v>611</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>839</v>
+        <v>654</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="0" t="s">
-        <v>479</v>
+        <v>221</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>1287</v>
+        <v>810</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>783</v>
+        <v>839</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="0" t="s">
-        <v>74</v>
+        <v>479</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>809</v>
+        <v>1287</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>576</v>
+        <v>783</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="0" t="s">
-        <v>223</v>
+        <v>74</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>656</v>
+        <v>576</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="0" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="0" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>832</v>
+        <v>812</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>658</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E49" s="0" t="s">
-        <v>534</v>
+        <v>657</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="0" t="s">
-        <v>431</v>
+        <v>227</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>812</v>
+        <v>832</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>657</v>
+        <v>658</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="0" t="s">
-        <v>76</v>
+        <v>431</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>577</v>
+        <v>657</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="0" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>833</v>
+        <v>811</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>612</v>
+        <v>578</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="0" t="s">
-        <v>229</v>
+        <v>144</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>810</v>
+        <v>833</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>659</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E54" s="0" t="s">
-        <v>534</v>
+        <v>612</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="0" t="s">
-        <v>130</v>
+        <v>229</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>605</v>
+        <v>659</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="0" t="s">
-        <v>231</v>
+        <v>130</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>660</v>
+        <v>605</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="0" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>529</v>
+        <v>812</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="0" t="s">
-        <v>16</v>
+        <v>233</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>529</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>544</v>
+        <v>661</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="0" t="s">
-        <v>447</v>
+        <v>16</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>812</v>
+        <v>529</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>769</v>
+        <v>544</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="0" t="s">
-        <v>168</v>
+        <v>447</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>624</v>
+        <v>769</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="0" t="s">
-        <v>235</v>
+        <v>168</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>611</v>
+        <v>828</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>662</v>
+        <v>624</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="0" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>837</v>
+        <v>611</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="0" t="s">
-        <v>48</v>
+        <v>237</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>529</v>
+        <v>837</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>560</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E63" s="0" t="s">
-        <v>534</v>
+        <v>663</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="0" t="s">
-        <v>239</v>
+        <v>48</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>820</v>
+        <v>529</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>664</v>
+        <v>560</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="0" t="s">
-        <v>132</v>
+        <v>239</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>811</v>
+        <v>820</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>606</v>
+        <v>664</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="0" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>579</v>
+        <v>606</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="0" t="s">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>619</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E67" s="0" t="s">
-        <v>534</v>
+        <v>579</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="0" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>625</v>
+        <v>619</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="0" t="s">
-        <v>422</v>
+        <v>170</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>835</v>
+        <v>819</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>758</v>
+        <v>625</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="0" t="s">
-        <v>2</v>
+        <v>422</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E70" s="0" t="s">
-        <v>534</v>
+        <v>758</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="0" t="s">
-        <v>241</v>
+        <v>2</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>829</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>665</v>
+        <v>535</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="0" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>812</v>
+        <v>829</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="0" t="s">
-        <v>24</v>
+        <v>243</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>529</v>
+        <v>812</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>548</v>
+        <v>666</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="0" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>812</v>
+        <v>529</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>580</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E74" s="0" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="0" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>529</v>
+        <v>812</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>537</v>
@@ -5740,112 +5788,118 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="0" t="s">
-        <v>245</v>
+        <v>54</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>529</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>667</v>
+        <v>564</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="0" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>1287</v>
+        <v>529</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="0" t="s">
-        <v>470</v>
+        <v>247</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>818</v>
+        <v>1287</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>780</v>
+        <v>668</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="0" t="s">
-        <v>8</v>
+        <v>470</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>842</v>
-      </c>
-      <c r="D79" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E79" s="0" t="s">
-        <v>534</v>
+        <v>780</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="0" t="s">
-        <v>249</v>
+        <v>8</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>831</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>669</v>
+        <v>842</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="0" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>810</v>
+        <v>831</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="0" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="0" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>529</v>
+        <v>812</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="0" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>829</v>
+        <v>529</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="0" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>829</v>
@@ -5856,41 +5910,35 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="0" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="0" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>820</v>
+        <v>837</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>675</v>
-      </c>
-      <c r="D87" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E87" s="0" t="s">
-        <v>534</v>
+        <v>674</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="0" t="s">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>853</v>
+        <v>675</v>
       </c>
       <c r="D88" s="0" t="s">
         <v>537</v>
@@ -5901,329 +5949,329 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="0" t="s">
-        <v>273</v>
+        <v>0</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>812</v>
+        <v>828</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>680</v>
+        <v>853</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="0" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="0" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>529</v>
+        <v>812</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="0" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>812</v>
+        <v>529</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="0" t="s">
-        <v>42</v>
+        <v>269</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>529</v>
+        <v>812</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>557</v>
-      </c>
-      <c r="D93" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E93" s="0" t="s">
-        <v>534</v>
+        <v>678</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="0" t="s">
-        <v>464</v>
+        <v>42</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>840</v>
+        <v>529</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>777</v>
+        <v>557</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="0" t="s">
-        <v>271</v>
+        <v>464</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>828</v>
+        <v>840</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>679</v>
+        <v>777</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="0" t="s">
-        <v>84</v>
+        <v>271</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>811</v>
+        <v>828</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>583</v>
+        <v>679</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="0" t="s">
-        <v>485</v>
+        <v>84</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>1287</v>
+        <v>811</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>788</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="0" t="s">
-        <v>134</v>
+        <v>485</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>811</v>
+        <v>1287</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>607</v>
+        <v>788</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="0" t="s">
-        <v>443</v>
+        <v>134</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>767</v>
+        <v>607</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="0" t="s">
-        <v>275</v>
+        <v>443</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>681</v>
+        <v>767</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="0" t="s">
-        <v>481</v>
+        <v>275</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>1287</v>
+        <v>823</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>1301</v>
+        <v>681</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="0" t="s">
-        <v>14</v>
+        <v>481</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>529</v>
+        <v>1287</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>543</v>
-      </c>
-      <c r="D102" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E102" s="0" t="s">
-        <v>534</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="0" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>811</v>
+        <v>529</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>582</v>
+        <v>543</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E103" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="0" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>529</v>
+        <v>811</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>566</v>
-      </c>
-      <c r="D104" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E104" s="0" t="s">
-        <v>534</v>
+        <v>582</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="0" t="s">
-        <v>152</v>
+        <v>58</v>
       </c>
       <c r="B105" s="0" t="s">
         <v>529</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>616</v>
+        <v>566</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="0" t="s">
-        <v>283</v>
+        <v>152</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>808</v>
+        <v>529</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>685</v>
+        <v>616</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="0" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>833</v>
+        <v>808</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="0" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="0" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B109" s="0" t="s">
         <v>837</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="0" t="s">
-        <v>56</v>
+        <v>281</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>529</v>
+        <v>837</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>565</v>
-      </c>
-      <c r="D110" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E110" s="0" t="s">
-        <v>534</v>
+        <v>684</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="0" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>841</v>
+        <v>529</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>1310</v>
+        <v>565</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="0" t="s">
-        <v>164</v>
+        <v>88</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>808</v>
+        <v>841</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>622</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="0" t="s">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>529</v>
+        <v>808</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>843</v>
+        <v>622</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="0" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>836</v>
+        <v>529</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>844</v>
-      </c>
-      <c r="D114" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E114" s="0" t="s">
-        <v>534</v>
+        <v>843</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="0" t="s">
-        <v>285</v>
+        <v>90</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>808</v>
+        <v>836</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>686</v>
+        <v>844</v>
       </c>
       <c r="D115" s="0" t="s">
         <v>537</v>
@@ -6234,611 +6282,611 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="0" t="s">
-        <v>154</v>
+        <v>285</v>
       </c>
       <c r="B116" s="0" t="s">
         <v>808</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>617</v>
+        <v>686</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="0" t="s">
-        <v>510</v>
+        <v>154</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>837</v>
+        <v>808</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>800</v>
+        <v>617</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="0" t="s">
-        <v>287</v>
+        <v>510</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>812</v>
+        <v>837</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>687</v>
+        <v>800</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="0" t="s">
-        <v>433</v>
+        <v>287</v>
       </c>
       <c r="B119" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>762</v>
+        <v>687</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="0" t="s">
-        <v>289</v>
+        <v>433</v>
       </c>
       <c r="B120" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>688</v>
+        <v>762</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="0" t="s">
-        <v>92</v>
+        <v>289</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>836</v>
+        <v>812</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>846</v>
-      </c>
-      <c r="D121" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E121" s="0" t="s">
-        <v>534</v>
+        <v>688</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="0" t="s">
-        <v>451</v>
+        <v>92</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>812</v>
+        <v>836</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>771</v>
+        <v>846</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="0" t="s">
-        <v>291</v>
+        <v>451</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>689</v>
+        <v>771</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="0" t="s">
-        <v>518</v>
+        <v>291</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>838</v>
+        <v>808</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>804</v>
+        <v>689</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="0" t="s">
-        <v>293</v>
+        <v>518</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>690</v>
+        <v>804</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="0" t="s">
-        <v>26</v>
+        <v>293</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>529</v>
+        <v>837</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>549</v>
+        <v>690</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="0" t="s">
-        <v>522</v>
+        <v>26</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>808</v>
+        <v>529</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>806</v>
+        <v>549</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="0" t="s">
-        <v>297</v>
+        <v>522</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>1287</v>
+        <v>808</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>692</v>
+        <v>806</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="0" t="s">
-        <v>483</v>
+        <v>297</v>
       </c>
       <c r="B129" s="0" t="s">
         <v>1287</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>787</v>
+        <v>692</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="0" t="s">
-        <v>295</v>
+        <v>483</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>812</v>
+        <v>1287</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>691</v>
+        <v>787</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="0" t="s">
-        <v>22</v>
+        <v>295</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>529</v>
+        <v>812</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>547</v>
-      </c>
-      <c r="D131" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E131" s="0" t="s">
-        <v>534</v>
+        <v>691</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="0" t="s">
-        <v>414</v>
+        <v>22</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>835</v>
+        <v>529</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>754</v>
+        <v>547</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E132" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="0" t="s">
-        <v>10</v>
+        <v>414</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>529</v>
+        <v>835</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>541</v>
+        <v>754</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="0" t="s">
-        <v>299</v>
+        <v>10</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>812</v>
+        <v>529</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>1304</v>
-      </c>
-      <c r="D134" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E134" s="0" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="0" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>611</v>
+        <v>812</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>694</v>
+        <v>1304</v>
+      </c>
+      <c r="D135" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E135" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="0" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>812</v>
+        <v>611</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="0" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B137" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="0" t="s">
-        <v>499</v>
+        <v>305</v>
       </c>
       <c r="B138" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>795</v>
-      </c>
-      <c r="D138" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E138" s="0" t="s">
-        <v>534</v>
+        <v>696</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="0" t="s">
-        <v>307</v>
+        <v>499</v>
       </c>
       <c r="B139" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>697</v>
+        <v>795</v>
+      </c>
+      <c r="D139" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E139" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="0" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>1287</v>
+        <v>812</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="0" t="s">
-        <v>520</v>
+        <v>309</v>
       </c>
       <c r="B141" s="0" t="s">
         <v>1287</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>805</v>
+        <v>698</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="0" t="s">
-        <v>94</v>
+        <v>520</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>811</v>
+        <v>1287</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>587</v>
+        <v>805</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="0" t="s">
-        <v>453</v>
+        <v>94</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>772</v>
+        <v>587</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="0" t="s">
-        <v>311</v>
+        <v>453</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>837</v>
+        <v>812</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>699</v>
+        <v>772</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="0" t="s">
-        <v>437</v>
+        <v>311</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>812</v>
+        <v>837</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>764</v>
+        <v>699</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="0" t="s">
-        <v>124</v>
+        <v>437</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>836</v>
+        <v>812</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>602</v>
-      </c>
-      <c r="D146" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E146" s="0" t="s">
-        <v>534</v>
+        <v>764</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="0" t="s">
-        <v>313</v>
+        <v>124</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>812</v>
+        <v>836</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>700</v>
+        <v>602</v>
+      </c>
+      <c r="D147" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E147" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="0" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B148" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="0" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B149" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="0" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="0" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>611</v>
+        <v>833</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="0" t="s">
-        <v>435</v>
+        <v>321</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>812</v>
+        <v>611</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>763</v>
+        <v>704</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="0" t="s">
-        <v>323</v>
+        <v>435</v>
       </c>
       <c r="B153" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>705</v>
+        <v>763</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="0" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>706</v>
-      </c>
-      <c r="D154" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E154" s="0" t="s">
-        <v>534</v>
+        <v>705</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="0" t="s">
-        <v>96</v>
+        <v>325</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>611</v>
+        <v>810</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>588</v>
+        <v>706</v>
+      </c>
+      <c r="D155" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E155" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="0" t="s">
-        <v>327</v>
+        <v>96</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>812</v>
+        <v>611</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>707</v>
+        <v>588</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="0" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B157" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="0" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="0" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>812</v>
+        <v>828</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="0" t="s">
-        <v>98</v>
+        <v>333</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>589</v>
+        <v>710</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="0" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>529</v>
+        <v>811</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>559</v>
-      </c>
-      <c r="D161" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E161" s="0" t="s">
-        <v>534</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="0" t="s">
-        <v>335</v>
+        <v>46</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>831</v>
+        <v>529</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>713</v>
+        <v>559</v>
+      </c>
+      <c r="D162" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E162" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="0" t="s">
-        <v>100</v>
+        <v>335</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>815</v>
+        <v>831</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>590</v>
+        <v>713</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="0" t="s">
-        <v>337</v>
+        <v>100</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>831</v>
+        <v>815</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>712</v>
+        <v>590</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="0" t="s">
-        <v>140</v>
+        <v>337</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>808</v>
+        <v>831</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>610</v>
-      </c>
-      <c r="D165" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E165" s="0" t="s">
-        <v>534</v>
+        <v>712</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="0" t="s">
-        <v>339</v>
+        <v>140</v>
       </c>
       <c r="B166" s="0" t="s">
         <v>808</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>714</v>
+        <v>610</v>
       </c>
       <c r="D166" s="0" t="s">
         <v>537</v>
@@ -6849,158 +6897,158 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="0" t="s">
-        <v>439</v>
+        <v>339</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>765</v>
+        <v>714</v>
+      </c>
+      <c r="D167" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E167" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="0" t="s">
-        <v>162</v>
+        <v>439</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>621</v>
+        <v>765</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="0" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="0" t="s">
-        <v>416</v>
+        <v>172</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>835</v>
+        <v>819</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>755</v>
-      </c>
-      <c r="D170" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E170" s="0" t="s">
-        <v>534</v>
+        <v>626</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="0" t="s">
-        <v>128</v>
+        <v>416</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>809</v>
+        <v>835</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>604</v>
+        <v>755</v>
+      </c>
+      <c r="D171" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E171" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="0" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>591</v>
-      </c>
-      <c r="D172" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E172" s="0" t="s">
-        <v>534</v>
+        <v>604</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="0" t="s">
-        <v>174</v>
+        <v>102</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>837</v>
+        <v>808</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>627</v>
+        <v>591</v>
+      </c>
+      <c r="D173" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E173" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="0" t="s">
-        <v>341</v>
+        <v>174</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>715</v>
+        <v>627</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="0" t="s">
-        <v>501</v>
+        <v>341</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>611</v>
+        <v>840</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>796</v>
-      </c>
-      <c r="D175" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E175" s="0" t="s">
-        <v>534</v>
+        <v>715</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="0" t="s">
-        <v>343</v>
+        <v>501</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>825</v>
+        <v>611</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>716</v>
+        <v>796</v>
+      </c>
+      <c r="D176" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E176" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="0" t="s">
-        <v>18</v>
+        <v>343</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>529</v>
+        <v>825</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>545</v>
-      </c>
-      <c r="D177" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E177" s="0" t="s">
-        <v>534</v>
+        <v>716</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="0" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>832</v>
+        <v>529</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="D178" s="0" t="s">
         <v>537</v>
@@ -7011,207 +7059,207 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="0" t="s">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>1287</v>
+        <v>832</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>1286</v>
+        <v>562</v>
+      </c>
+      <c r="D179" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E179" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="0" t="s">
-        <v>345</v>
+        <v>146</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>611</v>
+        <v>1287</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>717</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="0" t="s">
-        <v>506</v>
+        <v>345</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>819</v>
+        <v>611</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>798</v>
+        <v>717</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="0" t="s">
-        <v>104</v>
+        <v>506</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>809</v>
+        <v>819</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>592</v>
+        <v>798</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="0" t="s">
-        <v>472</v>
+        <v>104</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>781</v>
+        <v>592</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="0" t="s">
-        <v>487</v>
+        <v>1324</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>1287</v>
+        <v>819</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>789</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="0" t="s">
-        <v>347</v>
+        <v>472</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>718</v>
+        <v>781</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="0" t="s">
-        <v>142</v>
+        <v>487</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>611</v>
+        <v>1287</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>611</v>
+        <v>789</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="0" t="s">
-        <v>460</v>
+        <v>347</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>840</v>
+        <v>810</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>775</v>
+        <v>718</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="0" t="s">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>529</v>
+        <v>611</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>729</v>
+        <v>611</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="0" t="s">
-        <v>349</v>
+        <v>460</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>825</v>
+        <v>840</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>719</v>
-      </c>
-      <c r="D189" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E189" s="0" t="s">
-        <v>534</v>
+        <v>775</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="0" t="s">
-        <v>351</v>
+        <v>32</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>826</v>
+        <v>529</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>720</v>
-      </c>
-      <c r="D190" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E190" s="0" t="s">
-        <v>534</v>
+        <v>729</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="0" t="s">
-        <v>455</v>
+        <v>349</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>812</v>
+        <v>825</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>773</v>
+        <v>719</v>
+      </c>
+      <c r="D191" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E191" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="0" t="s">
-        <v>495</v>
+        <v>351</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>793</v>
+        <v>720</v>
+      </c>
+      <c r="D192" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E192" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="0" t="s">
-        <v>106</v>
+        <v>455</v>
       </c>
       <c r="B193" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>593</v>
-      </c>
-      <c r="D193" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E193" s="0" t="s">
-        <v>534</v>
+        <v>773</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="0" t="s">
-        <v>353</v>
+        <v>495</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>721</v>
+        <v>793</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>1312</v>
+        <v>593</v>
       </c>
       <c r="D195" s="0" t="s">
         <v>537</v>
@@ -7222,279 +7270,279 @@
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="0" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>825</v>
+        <v>837</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="0" t="s">
-        <v>512</v>
+        <v>108</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>828</v>
+        <v>808</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>801</v>
+        <v>1312</v>
+      </c>
+      <c r="D197" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E197" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="0" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="0" t="s">
-        <v>359</v>
+        <v>512</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>812</v>
+        <v>828</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>724</v>
+        <v>801</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="0" t="s">
-        <v>36</v>
+        <v>357</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>554</v>
+        <v>723</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="0" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>837</v>
+        <v>812</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>802</v>
+        <v>724</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="0" t="s">
-        <v>148</v>
+        <v>36</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>1287</v>
+        <v>833</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>614</v>
+        <v>554</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="0" t="s">
-        <v>110</v>
+        <v>514</v>
       </c>
       <c r="B203" s="0" t="s">
         <v>837</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>595</v>
+        <v>802</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="0" t="s">
-        <v>361</v>
+        <v>148</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>826</v>
+        <v>1287</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>725</v>
+        <v>614</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="0" t="s">
-        <v>363</v>
+        <v>110</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>726</v>
+        <v>595</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>812</v>
+        <v>826</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="0" t="s">
-        <v>112</v>
+        <v>363</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>596</v>
+        <v>726</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="0" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="0" t="s">
-        <v>369</v>
+        <v>112</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>812</v>
+        <v>836</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>731</v>
-      </c>
-      <c r="D209" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E209" s="0" t="s">
-        <v>534</v>
+        <v>596</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="0" t="s">
-        <v>4</v>
+        <v>367</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>538</v>
+        <v>730</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="0" t="s">
-        <v>462</v>
+        <v>369</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>840</v>
+        <v>812</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>776</v>
+        <v>731</v>
+      </c>
+      <c r="D211" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E211" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="0" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>850</v>
-      </c>
-      <c r="D212" s="0" t="s">
-        <v>851</v>
-      </c>
-      <c r="E212" s="0" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="0" t="s">
-        <v>489</v>
+        <v>462</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>1287</v>
+        <v>840</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>790</v>
-      </c>
-      <c r="D213" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E213" s="0" t="s">
-        <v>534</v>
+        <v>776</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="0" t="s">
-        <v>418</v>
+        <v>28</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>756</v>
+        <v>850</v>
+      </c>
+      <c r="D214" s="0" t="s">
+        <v>851</v>
+      </c>
+      <c r="E214" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="0" t="s">
-        <v>371</v>
+        <v>489</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>835</v>
+        <v>1287</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>852</v>
+        <v>790</v>
+      </c>
+      <c r="D215" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E215" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="0" t="s">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>812</v>
+        <v>835</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>733</v>
-      </c>
-      <c r="D216" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E216" s="0" t="s">
-        <v>534</v>
+        <v>756</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="0" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>825</v>
+        <v>835</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>734</v>
+        <v>852</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="0" t="s">
-        <v>6</v>
+        <v>373</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>529</v>
+        <v>812</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>539</v>
+        <v>733</v>
       </c>
       <c r="D218" s="0" t="s">
         <v>537</v>
@@ -7505,30 +7553,24 @@
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="0" t="s">
-        <v>38</v>
+        <v>375</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>529</v>
+        <v>825</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>555</v>
-      </c>
-      <c r="D219" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E219" s="0" t="s">
-        <v>534</v>
+        <v>734</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="0" t="s">
-        <v>138</v>
+        <v>6</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>808</v>
+        <v>529</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>609</v>
+        <v>539</v>
       </c>
       <c r="D220" s="0" t="s">
         <v>537</v>
@@ -7539,461 +7581,495 @@
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="0" t="s">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>808</v>
+        <v>529</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>618</v>
+        <v>555</v>
+      </c>
+      <c r="D221" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E221" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="0" t="s">
-        <v>491</v>
+        <v>138</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>1287</v>
+        <v>808</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>791</v>
+        <v>609</v>
+      </c>
+      <c r="D222" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E222" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="0" t="s">
-        <v>493</v>
+        <v>156</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>836</v>
+        <v>808</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>792</v>
+        <v>618</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="0" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>838</v>
+        <v>1287</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
       <c r="A225" s="0" t="s">
-        <v>126</v>
+        <v>493</v>
       </c>
       <c r="B225" s="0" t="s">
         <v>836</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
       <c r="A226" s="0" t="s">
-        <v>377</v>
+        <v>504</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>810</v>
+        <v>838</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
       <c r="A227" s="0" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B227" s="0" t="s">
         <v>836</v>
       </c>
       <c r="C227" s="0" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B228" s="0" t="s">
+        <v>810</v>
+      </c>
+      <c r="C228" s="0" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B229" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="C229" s="0" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
-      <c r="A228" s="0" t="s">
+    <row r="230" spans="1:3">
+      <c r="A230" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="B228" s="0" t="s">
+      <c r="B230" s="0" t="s">
         <v>812</v>
       </c>
-      <c r="C228" s="0" t="s">
+      <c r="C230" s="0" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
-      <c r="A229" s="0" t="s">
+    <row r="231" spans="1:3">
+      <c r="A231" s="0" t="s">
         <v>449</v>
       </c>
-      <c r="B229" s="0" t="s">
+      <c r="B231" s="0" t="s">
         <v>812</v>
       </c>
-      <c r="C229" s="0" t="s">
+      <c r="C231" s="0" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
-      <c r="A230" s="0" t="s">
+    <row r="232" spans="1:3">
+      <c r="A232" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="B230" s="0" t="s">
+      <c r="B232" s="0" t="s">
         <v>838</v>
       </c>
-      <c r="C230" s="0" t="s">
+      <c r="C232" s="0" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
-      <c r="A231" s="0" t="s">
+    <row r="233" spans="1:3">
+      <c r="A233" s="0" t="s">
         <v>383</v>
       </c>
-      <c r="B231" s="0" t="s">
+      <c r="B233" s="0" t="s">
         <v>836</v>
       </c>
-      <c r="C231" s="0" t="s">
+      <c r="C233" s="0" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
-      <c r="A232" s="0" t="s">
+    <row r="234" spans="1:3">
+      <c r="A234" s="0" t="s">
         <v>387</v>
       </c>
-      <c r="B232" s="0" t="s">
+      <c r="B234" s="0" t="s">
         <v>825</v>
       </c>
-      <c r="C232" s="0" t="s">
+      <c r="C234" s="0" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
-      <c r="A233" s="0" t="s">
+    <row r="235" spans="1:3">
+      <c r="A235" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="B233" s="0" t="s">
+      <c r="B235" s="0" t="s">
         <v>611</v>
       </c>
-      <c r="C233" s="0" t="s">
+      <c r="C235" s="0" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
-      <c r="A234" s="0" t="s">
+    <row r="236" spans="1:3">
+      <c r="A236" s="0" t="s">
         <v>389</v>
       </c>
-      <c r="B234" s="0" t="s">
+      <c r="B236" s="0" t="s">
         <v>812</v>
       </c>
-      <c r="C234" s="0" t="s">
+      <c r="C236" s="0" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
-      <c r="A235" s="0" t="s">
+    <row r="237" spans="1:3">
+      <c r="A237" s="0" t="s">
         <v>391</v>
       </c>
-      <c r="B235" s="0" t="s">
+      <c r="B237" s="0" t="s">
         <v>812</v>
       </c>
-      <c r="C235" s="0" t="s">
+      <c r="C237" s="0" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
-      <c r="A236" s="0" t="s">
+    <row r="238" spans="1:3">
+      <c r="A238" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B236" s="0" t="s">
+      <c r="B238" s="0" t="s">
         <v>834</v>
       </c>
-      <c r="C236" s="0" t="s">
+      <c r="C238" s="0" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
-      <c r="A237" s="0" t="s">
+    <row r="239" spans="1:3">
+      <c r="A239" s="0" t="s">
         <v>420</v>
       </c>
-      <c r="B237" s="0" t="s">
+      <c r="B239" s="0" t="s">
         <v>835</v>
       </c>
-      <c r="C237" s="0" t="s">
+      <c r="C239" s="0" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
-      <c r="A238" s="0" t="s">
+    <row r="240" spans="1:3">
+      <c r="A240" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B238" s="0" t="s">
+      <c r="B240" s="0" t="s">
         <v>812</v>
       </c>
-      <c r="C238" s="0" t="s">
+      <c r="C240" s="0" t="s">
         <v>744</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5">
-      <c r="A239" s="0" t="s">
-        <v>395</v>
-      </c>
-      <c r="B239" s="0" t="s">
-        <v>825</v>
-      </c>
-      <c r="C239" s="0" t="s">
-        <v>745</v>
-      </c>
-      <c r="D239" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E239" s="0" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
-      <c r="A240" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="B240" s="0" t="s">
-        <v>829</v>
-      </c>
-      <c r="C240" s="0" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="0" t="s">
-        <v>116</v>
+        <v>395</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>809</v>
+        <v>825</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>598</v>
+        <v>745</v>
+      </c>
+      <c r="D241" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E241" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="0" t="s">
-        <v>122</v>
+        <v>397</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>810</v>
+        <v>829</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>601</v>
+        <v>746</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="0" t="s">
-        <v>516</v>
+        <v>116</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>838</v>
+        <v>809</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>803</v>
+        <v>598</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="0" t="s">
-        <v>399</v>
+        <v>516</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>747</v>
+        <v>803</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="0" t="s">
-        <v>441</v>
+        <v>118</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>766</v>
+        <v>599</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="0" t="s">
-        <v>424</v>
+        <v>399</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="0" t="s">
-        <v>401</v>
+        <v>441</v>
       </c>
       <c r="B248" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>748</v>
+        <v>766</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="0" t="s">
-        <v>497</v>
+        <v>424</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>812</v>
+        <v>835</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>794</v>
-      </c>
-      <c r="D249" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E249" s="0" t="s">
-        <v>534</v>
+        <v>759</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="0" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>829</v>
+        <v>812</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="0" t="s">
-        <v>166</v>
+        <v>497</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>623</v>
+        <v>794</v>
+      </c>
+      <c r="D251" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E251" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="0" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="0" t="s">
-        <v>407</v>
+        <v>166</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>751</v>
+        <v>623</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="0" t="s">
-        <v>150</v>
+        <v>405</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>1287</v>
+        <v>825</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>615</v>
+        <v>750</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="0" t="s">
-        <v>136</v>
+        <v>407</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>808</v>
+        <v>825</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>1268</v>
-      </c>
-      <c r="D255" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E255" s="0" t="s">
-        <v>534</v>
+        <v>751</v>
       </c>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B256" s="0" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C256" s="0" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B257" s="0" t="s">
+        <v>808</v>
+      </c>
+      <c r="C257" s="0" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D257" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E257" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B256" s="0" t="s">
+      <c r="B258" s="0" t="s">
         <v>833</v>
       </c>
-      <c r="C256" s="0" t="s">
+      <c r="C258" s="0" t="s">
         <v>553</v>
       </c>
-      <c r="D256" s="0" t="s">
+      <c r="D258" s="0" t="s">
         <v>537</v>
       </c>
-      <c r="E256" s="0" t="s">
+      <c r="E258" s="0" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
-      <c r="A257" s="0" t="s">
+    <row r="259" spans="1:5">
+      <c r="A259" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B257" s="0" t="s">
+      <c r="B259" s="0" t="s">
         <v>1287</v>
       </c>
-      <c r="C257" s="0" t="s">
+      <c r="C259" s="0" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
-      <c r="A258" s="0" t="s">
+    <row r="260" spans="1:5">
+      <c r="A260" s="0" t="s">
         <v>409</v>
       </c>
-      <c r="B258" s="0" t="s">
+      <c r="B260" s="0" t="s">
         <v>812</v>
       </c>
-      <c r="C258" s="0" t="s">
+      <c r="C260" s="0" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
-      <c r="A259" s="0" t="s">
+    <row r="261" spans="1:5">
+      <c r="A261" s="0" t="s">
         <v>411</v>
       </c>
-      <c r="B259" s="0" t="s">
+      <c r="B261" s="0" t="s">
         <v>812</v>
       </c>
-      <c r="C259" s="0" t="s">
+      <c r="C261" s="0" t="s">
         <v>753</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E259">
-    <sortState ref="A2:E259">
-      <sortCondition ref="A2:A260"/>
+  <autoFilter ref="A1:E261">
+    <sortState ref="A2:E261">
+      <sortCondition ref="A2:A261"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8004,10 +8080,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D159"/>
+  <dimension ref="A1:D162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -8914,54 +8990,54 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>991</v>
+        <v>1313</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>695</v>
+        <v>1314</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>1275</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>943</v>
+        <v>1315</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1209</v>
+        <v>1316</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>1274</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>927</v>
+        <v>1317</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1210</v>
+        <v>1318</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>1274</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>947</v>
+        <v>991</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>960</v>
+        <v>943</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>701</v>
+        <v>1209</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>1274</v>
@@ -8969,10 +9045,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>980</v>
+        <v>927</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>1274</v>
@@ -8980,21 +9056,21 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>941</v>
+        <v>947</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1212</v>
+        <v>700</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1213</v>
+        <v>701</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>1274</v>
@@ -9002,10 +9078,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>893</v>
+        <v>980</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>1274</v>
@@ -9013,21 +9089,21 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>894</v>
+        <v>941</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>1184</v>
+        <v>1212</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
-        <v>895</v>
+        <v>955</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>540</v>
+        <v>1213</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>1274</v>
@@ -9035,21 +9111,21 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>950</v>
+        <v>893</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
-        <v>990</v>
+        <v>894</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1216</v>
+        <v>1184</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>1274</v>
@@ -9057,10 +9133,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1271</v>
+        <v>540</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>1274</v>
@@ -9068,21 +9144,21 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
-        <v>860</v>
+        <v>950</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
-        <v>1001</v>
+        <v>990</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>1274</v>
@@ -9090,21 +9166,21 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
-        <v>1000</v>
+        <v>897</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1219</v>
+        <v>1271</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>1005</v>
+        <v>860</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>755</v>
+        <v>1217</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>1274</v>
@@ -9112,10 +9188,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
-        <v>923</v>
+        <v>1001</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>1274</v>
@@ -9123,21 +9199,21 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
-        <v>921</v>
+        <v>1005</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1223</v>
+        <v>755</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>1274</v>
@@ -9145,10 +9221,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
-        <v>869</v>
+        <v>923</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>1274</v>
@@ -9156,10 +9232,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
-        <v>870</v>
+        <v>996</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1197</v>
+        <v>1222</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>1274</v>
@@ -9167,10 +9243,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
-        <v>992</v>
+        <v>921</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>1274</v>
@@ -9178,21 +9254,21 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
-        <v>998</v>
+        <v>869</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>562</v>
+        <v>1224</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1226</v>
+        <v>1197</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>1274</v>
@@ -9200,32 +9276,32 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
-        <v>862</v>
+        <v>992</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
-        <v>863</v>
+        <v>998</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>1228</v>
+        <v>562</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
-        <v>900</v>
+        <v>864</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>720</v>
+        <v>1226</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>1274</v>
@@ -9233,21 +9309,21 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
-        <v>934</v>
+        <v>862</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
-        <v>928</v>
+        <v>863</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>1274</v>
@@ -9255,10 +9331,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
-        <v>930</v>
+        <v>900</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>593</v>
+        <v>720</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>1274</v>
@@ -9266,10 +9342,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>1274</v>
@@ -9277,10 +9353,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
-        <v>944</v>
+        <v>928</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>1274</v>
@@ -9288,10 +9364,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
-        <v>871</v>
+        <v>930</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1233</v>
+        <v>593</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>1274</v>
@@ -9299,21 +9375,21 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
-        <v>858</v>
+        <v>931</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
-        <v>857</v>
+        <v>944</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>1274</v>
@@ -9321,10 +9397,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
-        <v>859</v>
+        <v>871</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>553</v>
+        <v>1233</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>1274</v>
@@ -9332,54 +9408,54 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
-        <v>1298</v>
+        <v>858</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1299</v>
+        <v>1234</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>1300</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
-        <v>905</v>
+        <v>857</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
-        <v>907</v>
+        <v>859</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1237</v>
+        <v>553</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>1282</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
-        <v>903</v>
+        <v>1298</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>1238</v>
+        <v>1299</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>1275</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>1275</v>
@@ -9387,21 +9463,21 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>1275</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>1275</v>
@@ -9409,10 +9485,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>1275</v>
@@ -9420,10 +9496,10 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>1275</v>
@@ -9431,10 +9507,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>1275</v>
@@ -9442,10 +9518,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>1275</v>
@@ -9453,43 +9529,43 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
-        <v>985</v>
+        <v>910</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
-        <v>964</v>
+        <v>915</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>948</v>
+        <v>911</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
-        <v>886</v>
+        <v>985</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>1274</v>
@@ -9497,10 +9573,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
-        <v>978</v>
+        <v>964</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>555</v>
+        <v>1247</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>1274</v>
@@ -9508,10 +9584,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
-        <v>979</v>
+        <v>948</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>555</v>
+        <v>1248</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>1274</v>
@@ -9519,21 +9595,21 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
-        <v>977</v>
+        <v>886</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>555</v>
+        <v>1249</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>1300</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
-        <v>898</v>
+        <v>978</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1272</v>
+        <v>555</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>1274</v>
@@ -9541,10 +9617,10 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
-        <v>865</v>
+        <v>979</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1252</v>
+        <v>555</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>1274</v>
@@ -9552,87 +9628,87 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
-        <v>902</v>
+        <v>977</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>1253</v>
+        <v>555</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>1274</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1254</v>
+        <v>1272</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>904</v>
+        <v>865</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>595</v>
+        <v>1252</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
-        <v>1283</v>
+        <v>902</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>1282</v>
+        <v>1253</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
-        <v>861</v>
+        <v>906</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
-        <v>954</v>
+        <v>904</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>737</v>
+        <v>595</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
-        <v>932</v>
+        <v>1283</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>1275</v>
+        <v>1284</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>1282</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
-        <v>933</v>
+        <v>861</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1229</v>
+        <v>1255</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>1274</v>
@@ -9640,43 +9716,43 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
-        <v>942</v>
+        <v>954</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>1257</v>
+        <v>737</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
-        <v>891</v>
+        <v>932</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1259</v>
+        <v>1229</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
-        <v>926</v>
+        <v>942</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>1275</v>
@@ -9684,10 +9760,10 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
-        <v>958</v>
+        <v>891</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>1274</v>
@@ -9695,32 +9771,32 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
-        <v>916</v>
+        <v>926</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
-        <v>874</v>
+        <v>958</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>1225</v>
+        <v>1261</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>1274</v>
@@ -9728,10 +9804,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
-        <v>963</v>
+        <v>922</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>1274</v>
@@ -9739,10 +9815,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
-        <v>962</v>
+        <v>916</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>1274</v>
@@ -9750,32 +9826,61 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B161" s="1" t="s">
         <v>1269</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" s="0" t="s">
+      <c r="C161" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="0" t="s">
         <v>937</v>
       </c>
-      <c r="B159" s="0" t="s">
+      <c r="B162" s="0" t="s">
         <v>1270</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="C162" s="3" t="s">
         <v>1274</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D159">
-    <sortState ref="A2:D159">
-      <sortCondition ref="A2:A159"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:D162"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="290" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="280" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="새_텍스트_문서" localSheetId="0">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'국가 태그'!$A$1:$E$261</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'임시 태그'!$A$1:$D$162</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -4323,7 +4323,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4338,33 +4340,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4379,9 +4373,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4396,9 +4388,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -4413,17 +4403,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -4432,18 +4418,14 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4834,8 +4816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A28" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5551,6 +5533,12 @@
       </c>
       <c r="C56" s="0" t="s">
         <v>605</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="57" spans="1:5">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="280" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="270" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="1325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="1330">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4008,6 +4008,21 @@
   </si>
   <si>
     <t>PUA</t>
+  </si>
+  <si>
+    <t>펄스 2 : 장관진과 테크팀, 국가원수 후보, 국가 원수 설정, 병력 배치, 초기 기술과 테크트리와 무기, 공용 국가중점, 코어, 지역 기반</t>
+  </si>
+  <si>
+    <t>펄스 3 : 국가중점 트리와 이벤트</t>
+  </si>
+  <si>
+    <t>펄스 2 : 장관진과 테크팀, 국가원수 후보, 국가 정신, 국가 원수 설명, 병력 배치, 초기 기술과 테크트리와 무기, 공용 국가중점, 코어, 지역 기반</t>
+  </si>
+  <si>
+    <t>펄스 2 : 장관진과 테크팀, 국가원수 후보, 초기 국가 정신, 국가 원수 설명, 병력 배치, 초기 기술과 테크트리와 무기, 공용 국가중점, 코어, 지역 기반</t>
+  </si>
+  <si>
+    <t>펄스 3 : 국가중점 트리와 이벤트, 추가 국가정신</t>
   </si>
 </sst>
 </file>
@@ -4323,9 +4338,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4340,25 +4353,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4373,7 +4394,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4388,7 +4411,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -4403,13 +4428,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -4418,14 +4447,18 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4816,7 +4849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E261"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
@@ -9879,8 +9912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -9892,12 +9925,12 @@
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="0" t="s">
-        <v>532</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="0" t="s">
-        <v>533</v>
+        <v>1329</v>
       </c>
     </row>
   </sheetData>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="270" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="260" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -4338,7 +4338,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4353,33 +4355,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4394,9 +4388,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4411,9 +4403,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -4428,17 +4418,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -4447,18 +4433,14 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4849,8 +4831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E261"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5311,6 +5293,12 @@
       <c r="C36" s="0" t="s">
         <v>647</v>
       </c>
+      <c r="D36" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="0" t="s">
@@ -5412,6 +5400,12 @@
       <c r="C43" s="0" t="s">
         <v>583</v>
       </c>
+      <c r="D43" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="0" t="s">
@@ -5689,6 +5683,12 @@
       <c r="C66" s="0" t="s">
         <v>606</v>
       </c>
+      <c r="D66" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="0" t="s">
@@ -6100,6 +6100,12 @@
       <c r="C99" s="0" t="s">
         <v>607</v>
       </c>
+      <c r="D99" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="0" t="s">
@@ -6638,6 +6644,12 @@
       <c r="C143" s="0" t="s">
         <v>587</v>
       </c>
+      <c r="D143" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E143" s="0" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="0" t="s">
@@ -7148,6 +7160,12 @@
       </c>
       <c r="C184" s="0" t="s">
         <v>1321</v>
+      </c>
+      <c r="D184" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E184" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -9912,7 +9930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="260" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="250" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -4338,9 +4338,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4355,25 +4353,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4388,7 +4394,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4403,7 +4411,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -4418,13 +4428,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -4433,14 +4447,18 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4831,8 +4849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A103" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C262" sqref="C262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5511,6 +5529,12 @@
       <c r="C52" s="0" t="s">
         <v>577</v>
       </c>
+      <c r="D52" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="0" t="s">
@@ -7920,6 +7944,12 @@
       </c>
       <c r="C246" s="0" t="s">
         <v>599</v>
+      </c>
+      <c r="D246" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E246" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="247" spans="1:5">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="250" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="240" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -4338,7 +4338,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4353,33 +4355,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4394,9 +4388,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4411,9 +4403,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -4428,17 +4418,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -4447,18 +4433,14 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4849,8 +4831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E261"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C262" sqref="C262"/>
+    <sheetView topLeftCell="A61" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5723,6 +5705,12 @@
       </c>
       <c r="C67" s="0" t="s">
         <v>579</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="68" spans="1:5">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="240" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="230" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="1330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="1331">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4023,6 +4023,9 @@
   </si>
   <si>
     <t>펄스 3 : 국가중점 트리와 이벤트, 추가 국가정신</t>
+  </si>
+  <si>
+    <t>조지아</t>
   </si>
 </sst>
 </file>
@@ -4338,9 +4341,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4355,25 +4356,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4388,7 +4397,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4403,7 +4414,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -4418,13 +4431,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -4433,14 +4450,18 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4831,8 +4852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E261"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView topLeftCell="A82" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5971,7 +5992,7 @@
         <v>820</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>675</v>
+        <v>1330</v>
       </c>
       <c r="D88" s="0" t="s">
         <v>537</v>
@@ -8139,8 +8160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D162"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="230" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="220" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -4341,7 +4341,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4356,33 +4358,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4397,9 +4391,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4414,9 +4406,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -4431,17 +4421,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -4450,18 +4436,14 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4852,8 +4834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E261"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView topLeftCell="A34" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5471,6 +5453,12 @@
       <c r="C47" s="0" t="s">
         <v>576</v>
       </c>
+      <c r="D47" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="0" t="s">
@@ -7182,6 +7170,12 @@
       </c>
       <c r="C183" s="0" t="s">
         <v>592</v>
+      </c>
+      <c r="D183" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E183" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="184" spans="1:5">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="220" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="210" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="1331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="1332">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4026,6 +4026,9 @@
   </si>
   <si>
     <t>조지아</t>
+  </si>
+  <si>
+    <t>아르헨티나</t>
   </si>
 </sst>
 </file>
@@ -4341,9 +4344,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4358,25 +4359,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4391,7 +4400,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4406,7 +4417,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -4421,13 +4434,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -4436,14 +4453,18 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4834,8 +4855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E261"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -4972,7 +4993,13 @@
         <v>809</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>849</v>
+        <v>1331</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5156,6 +5183,12 @@
       </c>
       <c r="C25" s="0" t="s">
         <v>573</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="26" spans="1:5">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="210" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="190" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="1332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="1333">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4029,6 +4029,9 @@
   </si>
   <si>
     <t>아르헨티나</t>
+  </si>
+  <si>
+    <t>말레이시아 연방</t>
   </si>
 </sst>
 </file>
@@ -4855,8 +4858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A226" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G252" sqref="G252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5318,6 +5321,12 @@
       <c r="C35" s="0" t="s">
         <v>646</v>
       </c>
+      <c r="D35" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="0" t="s">
@@ -5363,6 +5372,12 @@
       <c r="C38" s="0" t="s">
         <v>649</v>
       </c>
+      <c r="D38" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="0" t="s">
@@ -6282,6 +6297,12 @@
       <c r="C109" s="0" t="s">
         <v>683</v>
       </c>
+      <c r="D109" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="0" t="s">
@@ -6293,6 +6314,12 @@
       <c r="C110" s="0" t="s">
         <v>684</v>
       </c>
+      <c r="D110" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="0" t="s">
@@ -6493,6 +6520,12 @@
       <c r="C126" s="0" t="s">
         <v>690</v>
       </c>
+      <c r="D126" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E126" s="0" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="0" t="s">
@@ -6724,7 +6757,13 @@
         <v>837</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>699</v>
+        <v>1332</v>
+      </c>
+      <c r="D145" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E145" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -7087,6 +7126,12 @@
       <c r="C174" s="0" t="s">
         <v>627</v>
       </c>
+      <c r="D174" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E174" s="0" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="0" t="s">
@@ -7482,6 +7527,12 @@
       <c r="C205" s="0" t="s">
         <v>595</v>
       </c>
+      <c r="D205" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E205" s="0" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="0" t="s">
@@ -7997,6 +8048,12 @@
       </c>
       <c r="C247" s="0" t="s">
         <v>747</v>
+      </c>
+      <c r="D247" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E247" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="248" spans="1:5">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="190" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="180" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="1333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="1334">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4032,6 +4032,9 @@
   </si>
   <si>
     <t>말레이시아 연방</t>
+  </si>
+  <si>
+    <t>미등장</t>
   </si>
 </sst>
 </file>
@@ -4347,7 +4350,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4362,33 +4367,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4403,9 +4400,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4420,9 +4415,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -4437,17 +4430,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -4456,18 +4445,14 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4858,8 +4843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E261"/>
   <sheetViews>
-    <sheetView topLeftCell="A226" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G252" sqref="G252"/>
+    <sheetView topLeftCell="A181" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D191" sqref="D191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -7338,6 +7323,12 @@
       <c r="C190" s="0" t="s">
         <v>729</v>
       </c>
+      <c r="D190" s="0" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E190" s="0" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="0" t="s">
@@ -7393,6 +7384,12 @@
       </c>
       <c r="C194" s="0" t="s">
         <v>793</v>
+      </c>
+      <c r="D194" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E194" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="195" spans="1:5">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="1334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="1336">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4035,6 +4035,12 @@
   </si>
   <si>
     <t>미등장</t>
+  </si>
+  <si>
+    <t>고이아스</t>
+  </si>
+  <si>
+    <t>남미(브라질)</t>
   </si>
 </sst>
 </file>
@@ -4843,8 +4849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E261"/>
   <sheetViews>
-    <sheetView topLeftCell="A181" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D191" sqref="D191"/>
+    <sheetView topLeftCell="A104" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -6339,10 +6345,10 @@
         <v>164</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>808</v>
+        <v>1335</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>622</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="114" spans="1:5">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="180" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="170" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -4356,9 +4356,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4373,25 +4371,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4406,7 +4412,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4421,7 +4429,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -4436,13 +4446,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -4451,14 +4465,18 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4850,7 +4868,7 @@
   <dimension ref="A1:E261"/>
   <sheetViews>
     <sheetView topLeftCell="A104" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+      <selection activeCell="J130" sqref="J130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -6549,6 +6567,12 @@
       </c>
       <c r="C129" s="0" t="s">
         <v>692</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E129" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="130" spans="1:5">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="170" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="160" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -4356,7 +4356,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4371,33 +4373,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4412,9 +4406,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4429,9 +4421,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -4446,17 +4436,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -4465,18 +4451,14 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4867,8 +4849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E261"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J130" sqref="J130"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="160" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="150" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -4356,9 +4356,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4373,25 +4371,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4406,7 +4412,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4421,7 +4429,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -4436,13 +4446,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -4451,14 +4465,18 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4849,8 +4867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A142" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E160" sqref="E160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -6706,6 +6724,12 @@
       <c r="C141" s="0" t="s">
         <v>698</v>
       </c>
+      <c r="D141" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E141" s="0" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="0" t="s">
@@ -6895,6 +6919,12 @@
       <c r="C156" s="0" t="s">
         <v>588</v>
       </c>
+      <c r="D156" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E156" s="0" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="0" t="s">
@@ -7794,7 +7824,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:5">
       <c r="A225" s="0" t="s">
         <v>493</v>
       </c>
@@ -7804,8 +7834,14 @@
       <c r="C225" s="0" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="226" spans="1:3">
+      <c r="D225" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E225" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
       <c r="A226" s="0" t="s">
         <v>504</v>
       </c>
@@ -7816,7 +7852,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:5">
       <c r="A227" s="0" t="s">
         <v>126</v>
       </c>
@@ -7827,7 +7863,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:5">
       <c r="A228" s="0" t="s">
         <v>377</v>
       </c>
@@ -7838,7 +7874,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:5">
       <c r="A229" s="0" t="s">
         <v>114</v>
       </c>
@@ -7848,8 +7884,14 @@
       <c r="C229" s="0" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="230" spans="1:3">
+      <c r="D229" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E229" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
       <c r="A230" s="0" t="s">
         <v>379</v>
       </c>
@@ -7860,7 +7902,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:5">
       <c r="A231" s="0" t="s">
         <v>449</v>
       </c>
@@ -7871,7 +7913,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:5">
       <c r="A232" s="0" t="s">
         <v>381</v>
       </c>
@@ -7882,7 +7924,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:5">
       <c r="A233" s="0" t="s">
         <v>383</v>
       </c>
@@ -7893,7 +7935,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:5">
       <c r="A234" s="0" t="s">
         <v>387</v>
       </c>
@@ -7904,7 +7946,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:5">
       <c r="A235" s="0" t="s">
         <v>385</v>
       </c>
@@ -7915,7 +7957,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:5">
       <c r="A236" s="0" t="s">
         <v>389</v>
       </c>
@@ -7926,7 +7968,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:5">
       <c r="A237" s="0" t="s">
         <v>391</v>
       </c>
@@ -7937,7 +7979,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:5">
       <c r="A238" s="0" t="s">
         <v>40</v>
       </c>
@@ -7948,7 +7990,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:5">
       <c r="A239" s="0" t="s">
         <v>420</v>
       </c>
@@ -7959,7 +8001,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:5">
       <c r="A240" s="0" t="s">
         <v>393</v>
       </c>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="150" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="140" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -4356,7 +4356,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4371,33 +4373,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4412,9 +4406,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4429,9 +4421,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -4446,17 +4436,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -4465,18 +4451,14 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4867,8 +4849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E261"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E160" sqref="E160"/>
+    <sheetView topLeftCell="A223" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C263" sqref="C263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -4897,7 +4879,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="16.500000" hidden="1">
       <c r="A2" s="0" t="s">
         <v>60</v>
       </c>
@@ -4914,7 +4896,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="16.500000" hidden="1">
       <c r="A3" s="0" t="s">
         <v>44</v>
       </c>
@@ -4997,7 +4979,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="16.500000" hidden="1">
       <c r="A10" s="0" t="s">
         <v>62</v>
       </c>
@@ -5025,7 +5007,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" ht="16.500000" hidden="1">
       <c r="A12" s="0" t="s">
         <v>64</v>
       </c>
@@ -5097,7 +5079,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" ht="16.500000" hidden="1">
       <c r="A18" s="0" t="s">
         <v>187</v>
       </c>
@@ -5147,7 +5129,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" ht="16.500000" hidden="1">
       <c r="A22" s="0" t="s">
         <v>193</v>
       </c>
@@ -5186,7 +5168,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" ht="16.500000" hidden="1">
       <c r="A25" s="0" t="s">
         <v>68</v>
       </c>
@@ -5203,7 +5185,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" ht="16.500000" hidden="1">
       <c r="A26" s="0" t="s">
         <v>195</v>
       </c>
@@ -5253,7 +5235,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" ht="16.500000" hidden="1">
       <c r="A30" s="0" t="s">
         <v>70</v>
       </c>
@@ -5303,7 +5285,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" ht="16.500000" hidden="1">
       <c r="A34" s="0" t="s">
         <v>50</v>
       </c>
@@ -5320,7 +5302,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" ht="16.500000" hidden="1">
       <c r="A35" s="0" t="s">
         <v>205</v>
       </c>
@@ -5337,7 +5319,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" ht="16.500000" hidden="1">
       <c r="A36" s="0" t="s">
         <v>207</v>
       </c>
@@ -5354,7 +5336,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" ht="16.500000" hidden="1">
       <c r="A37" s="0" t="s">
         <v>209</v>
       </c>
@@ -5371,7 +5353,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" ht="16.500000" hidden="1">
       <c r="A38" s="0" t="s">
         <v>211</v>
       </c>
@@ -5388,7 +5370,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" ht="16.500000" hidden="1">
       <c r="A39" s="0" t="s">
         <v>72</v>
       </c>
@@ -5433,7 +5415,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" ht="16.500000" hidden="1">
       <c r="A42" s="0" t="s">
         <v>217</v>
       </c>
@@ -5450,7 +5432,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" ht="16.500000" hidden="1">
       <c r="A43" s="0" t="s">
         <v>1323</v>
       </c>
@@ -5500,7 +5482,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" ht="16.500000" hidden="1">
       <c r="A47" s="0" t="s">
         <v>74</v>
       </c>
@@ -5539,7 +5521,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" ht="16.500000" hidden="1">
       <c r="A50" s="0" t="s">
         <v>227</v>
       </c>
@@ -5567,7 +5549,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" ht="16.500000" hidden="1">
       <c r="A52" s="0" t="s">
         <v>76</v>
       </c>
@@ -5606,7 +5588,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" ht="16.500000" hidden="1">
       <c r="A55" s="0" t="s">
         <v>229</v>
       </c>
@@ -5623,7 +5605,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" ht="16.500000" hidden="1">
       <c r="A56" s="0" t="s">
         <v>130</v>
       </c>
@@ -5717,7 +5699,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" ht="16.500000" hidden="1">
       <c r="A64" s="0" t="s">
         <v>48</v>
       </c>
@@ -5745,7 +5727,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" ht="16.500000" hidden="1">
       <c r="A66" s="0" t="s">
         <v>132</v>
       </c>
@@ -5762,7 +5744,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" ht="16.500000" hidden="1">
       <c r="A67" s="0" t="s">
         <v>80</v>
       </c>
@@ -5779,7 +5761,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" ht="16.500000" hidden="1">
       <c r="A68" s="0" t="s">
         <v>158</v>
       </c>
@@ -5818,7 +5800,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" ht="16.500000" hidden="1">
       <c r="A71" s="0" t="s">
         <v>2</v>
       </c>
@@ -5868,7 +5850,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" ht="16.500000" hidden="1">
       <c r="A75" s="0" t="s">
         <v>82</v>
       </c>
@@ -5885,7 +5867,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" ht="16.500000" hidden="1">
       <c r="A76" s="0" t="s">
         <v>54</v>
       </c>
@@ -5935,7 +5917,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" ht="16.500000" hidden="1">
       <c r="A80" s="0" t="s">
         <v>8</v>
       </c>
@@ -6029,7 +6011,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" ht="16.500000" hidden="1">
       <c r="A88" s="0" t="s">
         <v>263</v>
       </c>
@@ -6046,7 +6028,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" ht="16.500000" hidden="1">
       <c r="A89" s="0" t="s">
         <v>0</v>
       </c>
@@ -6107,7 +6089,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" ht="16.500000" hidden="1">
       <c r="A94" s="0" t="s">
         <v>42</v>
       </c>
@@ -6168,7 +6150,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" ht="16.500000" hidden="1">
       <c r="A99" s="0" t="s">
         <v>134</v>
       </c>
@@ -6218,7 +6200,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" ht="16.500000" hidden="1">
       <c r="A103" s="0" t="s">
         <v>14</v>
       </c>
@@ -6246,7 +6228,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" ht="16.500000" hidden="1">
       <c r="A105" s="0" t="s">
         <v>58</v>
       </c>
@@ -6296,7 +6278,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" ht="16.500000" hidden="1">
       <c r="A109" s="0" t="s">
         <v>279</v>
       </c>
@@ -6313,7 +6295,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" ht="16.500000" hidden="1">
       <c r="A110" s="0" t="s">
         <v>281</v>
       </c>
@@ -6330,7 +6312,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" ht="16.500000" hidden="1">
       <c r="A111" s="0" t="s">
         <v>56</v>
       </c>
@@ -6380,7 +6362,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" ht="16.500000" hidden="1">
       <c r="A115" s="0" t="s">
         <v>90</v>
       </c>
@@ -6397,7 +6379,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" ht="16.500000" hidden="1">
       <c r="A116" s="0" t="s">
         <v>285</v>
       </c>
@@ -6469,7 +6451,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" ht="16.500000" hidden="1">
       <c r="A122" s="0" t="s">
         <v>92</v>
       </c>
@@ -6519,7 +6501,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" ht="16.500000" hidden="1">
       <c r="A126" s="0" t="s">
         <v>293</v>
       </c>
@@ -6558,7 +6540,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" ht="16.500000" hidden="1">
       <c r="A129" s="0" t="s">
         <v>297</v>
       </c>
@@ -6597,7 +6579,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" ht="16.500000" hidden="1">
       <c r="A132" s="0" t="s">
         <v>22</v>
       </c>
@@ -6636,7 +6618,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" ht="16.500000" hidden="1">
       <c r="A135" s="0" t="s">
         <v>299</v>
       </c>
@@ -6686,7 +6668,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" ht="16.500000" hidden="1">
       <c r="A139" s="0" t="s">
         <v>499</v>
       </c>
@@ -6714,7 +6696,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" ht="16.500000" hidden="1">
       <c r="A141" s="0" t="s">
         <v>309</v>
       </c>
@@ -6742,7 +6724,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" ht="16.500000" hidden="1">
       <c r="A143" s="0" t="s">
         <v>94</v>
       </c>
@@ -6770,7 +6752,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" ht="16.500000" hidden="1">
       <c r="A145" s="0" t="s">
         <v>311</v>
       </c>
@@ -6798,7 +6780,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" ht="16.500000" hidden="1">
       <c r="A147" s="0" t="s">
         <v>124</v>
       </c>
@@ -6892,7 +6874,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" ht="16.500000" hidden="1">
       <c r="A155" s="0" t="s">
         <v>325</v>
       </c>
@@ -6909,7 +6891,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" ht="16.500000" hidden="1">
       <c r="A156" s="0" t="s">
         <v>96</v>
       </c>
@@ -6981,7 +6963,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" ht="16.500000" hidden="1">
       <c r="A162" s="0" t="s">
         <v>46</v>
       </c>
@@ -7031,7 +7013,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" ht="16.500000" hidden="1">
       <c r="A166" s="0" t="s">
         <v>140</v>
       </c>
@@ -7048,7 +7030,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" ht="16.500000" hidden="1">
       <c r="A167" s="0" t="s">
         <v>339</v>
       </c>
@@ -7098,7 +7080,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" ht="16.500000" hidden="1">
       <c r="A171" s="0" t="s">
         <v>416</v>
       </c>
@@ -7126,7 +7108,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" ht="16.500000" hidden="1">
       <c r="A173" s="0" t="s">
         <v>102</v>
       </c>
@@ -7143,7 +7125,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" ht="16.500000" hidden="1">
       <c r="A174" s="0" t="s">
         <v>174</v>
       </c>
@@ -7171,7 +7153,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" ht="16.500000" hidden="1">
       <c r="A176" s="0" t="s">
         <v>501</v>
       </c>
@@ -7199,7 +7181,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" ht="16.500000" hidden="1">
       <c r="A178" s="0" t="s">
         <v>18</v>
       </c>
@@ -7216,7 +7198,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" ht="16.500000" hidden="1">
       <c r="A179" s="0" t="s">
         <v>52</v>
       </c>
@@ -7266,7 +7248,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" ht="16.500000" hidden="1">
       <c r="A183" s="0" t="s">
         <v>104</v>
       </c>
@@ -7283,7 +7265,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" ht="16.500000" hidden="1">
       <c r="A184" s="0" t="s">
         <v>1324</v>
       </c>
@@ -7372,7 +7354,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" ht="16.500000" hidden="1">
       <c r="A191" s="0" t="s">
         <v>349</v>
       </c>
@@ -7389,7 +7371,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" ht="16.500000" hidden="1">
       <c r="A192" s="0" t="s">
         <v>351</v>
       </c>
@@ -7417,7 +7399,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" ht="16.500000" hidden="1">
       <c r="A194" s="0" t="s">
         <v>495</v>
       </c>
@@ -7434,7 +7416,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" ht="16.500000" hidden="1">
       <c r="A195" s="0" t="s">
         <v>106</v>
       </c>
@@ -7462,7 +7444,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" ht="16.500000" hidden="1">
       <c r="A197" s="0" t="s">
         <v>108</v>
       </c>
@@ -7556,7 +7538,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" ht="16.500000" hidden="1">
       <c r="A205" s="0" t="s">
         <v>110</v>
       </c>
@@ -7628,7 +7610,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" ht="16.500000" hidden="1">
       <c r="A211" s="0" t="s">
         <v>369</v>
       </c>
@@ -7684,7 +7666,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" ht="16.500000" hidden="1">
       <c r="A215" s="0" t="s">
         <v>489</v>
       </c>
@@ -7723,7 +7705,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" ht="16.500000" hidden="1">
       <c r="A218" s="0" t="s">
         <v>373</v>
       </c>
@@ -7751,7 +7733,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" ht="16.500000" hidden="1">
       <c r="A220" s="0" t="s">
         <v>6</v>
       </c>
@@ -7768,7 +7750,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" ht="16.500000" hidden="1">
       <c r="A221" s="0" t="s">
         <v>38</v>
       </c>
@@ -7785,7 +7767,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" ht="16.500000" hidden="1">
       <c r="A222" s="0" t="s">
         <v>138</v>
       </c>
@@ -7824,7 +7806,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" ht="16.500000" hidden="1">
       <c r="A225" s="0" t="s">
         <v>493</v>
       </c>
@@ -7874,7 +7856,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" ht="16.500000" hidden="1">
       <c r="A229" s="0" t="s">
         <v>114</v>
       </c>
@@ -8012,7 +7994,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" ht="16.500000" hidden="1">
       <c r="A241" s="0" t="s">
         <v>395</v>
       </c>
@@ -8073,7 +8055,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" ht="16.500000" hidden="1">
       <c r="A246" s="0" t="s">
         <v>118</v>
       </c>
@@ -8090,7 +8072,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" ht="16.500000" hidden="1">
       <c r="A247" s="0" t="s">
         <v>399</v>
       </c>
@@ -8140,7 +8122,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" ht="16.500000" hidden="1">
       <c r="A251" s="0" t="s">
         <v>497</v>
       </c>
@@ -8212,7 +8194,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" ht="16.500000" hidden="1">
       <c r="A257" s="0" t="s">
         <v>136</v>
       </c>
@@ -8229,7 +8211,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" ht="16.500000" hidden="1">
       <c r="A258" s="0" t="s">
         <v>34</v>
       </c>
@@ -8281,6 +8263,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E261">
+    <filterColumn colId="3">
+      <filters blank="1">
+        <filter val="All"/>
+        <filter val="미등장"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:E261">
       <sortCondition ref="A2:A261"/>
     </sortState>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="140" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="170" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -4356,9 +4356,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4373,25 +4371,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4406,7 +4412,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4421,7 +4429,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -4436,13 +4446,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -4451,14 +4465,18 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4849,8 +4867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E261"/>
   <sheetViews>
-    <sheetView topLeftCell="A223" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C263" sqref="C263"/>
+    <sheetView topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="C272" sqref="C272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -4913,7 +4931,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="16.500000" hidden="1">
       <c r="A4" s="0" t="s">
         <v>177</v>
       </c>
@@ -4924,7 +4942,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="16.500000" hidden="1">
       <c r="A5" s="0" t="s">
         <v>179</v>
       </c>
@@ -4935,7 +4953,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="16.500000" hidden="1">
       <c r="A6" s="0" t="s">
         <v>466</v>
       </c>
@@ -4946,7 +4964,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="16.500000" hidden="1">
       <c r="A7" s="0" t="s">
         <v>181</v>
       </c>
@@ -4957,7 +4975,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="16.500000" hidden="1">
       <c r="A8" s="0" t="s">
         <v>475</v>
       </c>
@@ -4968,7 +4986,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="16.500000" hidden="1">
       <c r="A9" s="0" t="s">
         <v>477</v>
       </c>
@@ -4996,7 +5014,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="16.500000" hidden="1">
       <c r="A11" s="0" t="s">
         <v>183</v>
       </c>
@@ -5035,7 +5053,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="16.500000" hidden="1">
       <c r="A14" s="0" t="s">
         <v>185</v>
       </c>
@@ -5046,7 +5064,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" ht="16.500000" hidden="1">
       <c r="A15" s="0" t="s">
         <v>427</v>
       </c>
@@ -5057,7 +5075,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="16.500000" hidden="1">
       <c r="A16" s="0" t="s">
         <v>468</v>
       </c>
@@ -5118,7 +5136,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="16.500000" hidden="1">
       <c r="A21" s="0" t="s">
         <v>191</v>
       </c>
@@ -5146,7 +5164,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" ht="16.500000" hidden="1">
       <c r="A23" s="0" t="s">
         <v>66</v>
       </c>
@@ -5157,7 +5175,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" ht="16.500000" hidden="1">
       <c r="A24" s="0" t="s">
         <v>429</v>
       </c>
@@ -5202,7 +5220,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" ht="16.500000" hidden="1">
       <c r="A27" s="0" t="s">
         <v>197</v>
       </c>
@@ -5224,7 +5242,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" ht="16.500000" hidden="1">
       <c r="A29" s="0" t="s">
         <v>201</v>
       </c>
@@ -5252,7 +5270,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" ht="16.500000" hidden="1">
       <c r="A31" s="0" t="s">
         <v>445</v>
       </c>
@@ -5274,7 +5292,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" ht="16.500000" hidden="1">
       <c r="A33" s="0" t="s">
         <v>457</v>
       </c>
@@ -5449,7 +5467,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" ht="16.500000" hidden="1">
       <c r="A44" s="0" t="s">
         <v>219</v>
       </c>
@@ -5460,7 +5478,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" ht="16.500000" hidden="1">
       <c r="A45" s="0" t="s">
         <v>221</v>
       </c>
@@ -5471,7 +5489,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" ht="16.500000" hidden="1">
       <c r="A46" s="0" t="s">
         <v>479</v>
       </c>
@@ -5499,7 +5517,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" ht="16.500000" hidden="1">
       <c r="A48" s="0" t="s">
         <v>223</v>
       </c>
@@ -5510,7 +5528,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" ht="16.500000" hidden="1">
       <c r="A49" s="0" t="s">
         <v>225</v>
       </c>
@@ -5538,7 +5556,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" ht="16.500000" hidden="1">
       <c r="A51" s="0" t="s">
         <v>431</v>
       </c>
@@ -5566,7 +5584,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" ht="16.500000" hidden="1">
       <c r="A53" s="0" t="s">
         <v>78</v>
       </c>
@@ -5622,7 +5640,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" ht="16.500000" hidden="1">
       <c r="A57" s="0" t="s">
         <v>231</v>
       </c>
@@ -5655,7 +5673,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" ht="16.500000" hidden="1">
       <c r="A60" s="0" t="s">
         <v>447</v>
       </c>
@@ -5677,7 +5695,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" ht="16.500000" hidden="1">
       <c r="A62" s="0" t="s">
         <v>235</v>
       </c>
@@ -5688,7 +5706,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" ht="16.500000" hidden="1">
       <c r="A63" s="0" t="s">
         <v>237</v>
       </c>
@@ -5716,7 +5734,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" ht="16.500000" hidden="1">
       <c r="A65" s="0" t="s">
         <v>239</v>
       </c>
@@ -5778,7 +5796,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" ht="16.500000" hidden="1">
       <c r="A69" s="0" t="s">
         <v>170</v>
       </c>
@@ -5828,7 +5846,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" ht="16.500000" hidden="1">
       <c r="A73" s="0" t="s">
         <v>243</v>
       </c>
@@ -5895,7 +5913,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" ht="16.500000" hidden="1">
       <c r="A78" s="0" t="s">
         <v>247</v>
       </c>
@@ -5906,7 +5924,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" ht="16.500000" hidden="1">
       <c r="A79" s="0" t="s">
         <v>470</v>
       </c>
@@ -5945,7 +5963,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" ht="16.500000" hidden="1">
       <c r="A82" s="0" t="s">
         <v>251</v>
       </c>
@@ -5956,7 +5974,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" ht="16.500000" hidden="1">
       <c r="A83" s="0" t="s">
         <v>253</v>
       </c>
@@ -6000,7 +6018,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" ht="16.500000" hidden="1">
       <c r="A87" s="0" t="s">
         <v>261</v>
       </c>
@@ -6045,7 +6063,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" ht="16.500000" hidden="1">
       <c r="A90" s="0" t="s">
         <v>273</v>
       </c>
@@ -6056,7 +6074,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" ht="16.500000" hidden="1">
       <c r="A91" s="0" t="s">
         <v>265</v>
       </c>
@@ -6078,7 +6096,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" ht="16.500000" hidden="1">
       <c r="A93" s="0" t="s">
         <v>269</v>
       </c>
@@ -6106,7 +6124,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" ht="16.500000" hidden="1">
       <c r="A95" s="0" t="s">
         <v>464</v>
       </c>
@@ -6128,7 +6146,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" ht="16.500000" hidden="1">
       <c r="A97" s="0" t="s">
         <v>84</v>
       </c>
@@ -6139,7 +6157,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" ht="16.500000" hidden="1">
       <c r="A98" s="0" t="s">
         <v>485</v>
       </c>
@@ -6167,7 +6185,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" ht="16.500000" hidden="1">
       <c r="A100" s="0" t="s">
         <v>443</v>
       </c>
@@ -6178,7 +6196,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" ht="16.500000" hidden="1">
       <c r="A101" s="0" t="s">
         <v>275</v>
       </c>
@@ -6189,7 +6207,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" ht="16.500000" hidden="1">
       <c r="A102" s="0" t="s">
         <v>481</v>
       </c>
@@ -6217,7 +6235,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" ht="16.500000" hidden="1">
       <c r="A104" s="0" t="s">
         <v>86</v>
       </c>
@@ -6256,7 +6274,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" ht="16.500000" hidden="1">
       <c r="A107" s="0" t="s">
         <v>283</v>
       </c>
@@ -6329,7 +6347,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" ht="16.500000" hidden="1">
       <c r="A112" s="0" t="s">
         <v>88</v>
       </c>
@@ -6340,7 +6358,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" ht="16.500000" hidden="1">
       <c r="A113" s="0" t="s">
         <v>164</v>
       </c>
@@ -6396,7 +6414,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" ht="16.500000" hidden="1">
       <c r="A117" s="0" t="s">
         <v>154</v>
       </c>
@@ -6407,7 +6425,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" ht="16.500000" hidden="1">
       <c r="A118" s="0" t="s">
         <v>510</v>
       </c>
@@ -6418,7 +6436,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" ht="16.500000" hidden="1">
       <c r="A119" s="0" t="s">
         <v>287</v>
       </c>
@@ -6429,7 +6447,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" ht="16.500000" hidden="1">
       <c r="A120" s="0" t="s">
         <v>433</v>
       </c>
@@ -6440,7 +6458,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" ht="16.500000" hidden="1">
       <c r="A121" s="0" t="s">
         <v>289</v>
       </c>
@@ -6468,7 +6486,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" ht="16.500000" hidden="1">
       <c r="A123" s="0" t="s">
         <v>451</v>
       </c>
@@ -6479,7 +6497,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" ht="16.500000" hidden="1">
       <c r="A124" s="0" t="s">
         <v>291</v>
       </c>
@@ -6490,7 +6508,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" ht="16.500000" hidden="1">
       <c r="A125" s="0" t="s">
         <v>518</v>
       </c>
@@ -6529,7 +6547,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" ht="16.500000" hidden="1">
       <c r="A128" s="0" t="s">
         <v>522</v>
       </c>
@@ -6557,7 +6575,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" ht="16.500000" hidden="1">
       <c r="A130" s="0" t="s">
         <v>483</v>
       </c>
@@ -6568,7 +6586,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" ht="16.500000" hidden="1">
       <c r="A131" s="0" t="s">
         <v>295</v>
       </c>
@@ -6635,7 +6653,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" ht="16.500000" hidden="1">
       <c r="A136" s="0" t="s">
         <v>301</v>
       </c>
@@ -6646,7 +6664,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" ht="16.500000" hidden="1">
       <c r="A137" s="0" t="s">
         <v>303</v>
       </c>
@@ -6657,7 +6675,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" ht="16.500000" hidden="1">
       <c r="A138" s="0" t="s">
         <v>305</v>
       </c>
@@ -6685,7 +6703,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" ht="16.500000" hidden="1">
       <c r="A140" s="0" t="s">
         <v>307</v>
       </c>
@@ -6713,7 +6731,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" ht="16.500000" hidden="1">
       <c r="A142" s="0" t="s">
         <v>520</v>
       </c>
@@ -6741,7 +6759,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" ht="16.500000" hidden="1">
       <c r="A144" s="0" t="s">
         <v>453</v>
       </c>
@@ -6769,7 +6787,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" ht="16.500000" hidden="1">
       <c r="A146" s="0" t="s">
         <v>437</v>
       </c>
@@ -6797,7 +6815,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" ht="16.500000" hidden="1">
       <c r="A148" s="0" t="s">
         <v>313</v>
       </c>
@@ -6808,7 +6826,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" ht="16.500000" hidden="1">
       <c r="A149" s="0" t="s">
         <v>315</v>
       </c>
@@ -6819,7 +6837,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" ht="16.500000" hidden="1">
       <c r="A150" s="0" t="s">
         <v>317</v>
       </c>
@@ -6841,7 +6859,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" ht="16.500000" hidden="1">
       <c r="A152" s="0" t="s">
         <v>321</v>
       </c>
@@ -6852,7 +6870,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" ht="16.500000" hidden="1">
       <c r="A153" s="0" t="s">
         <v>435</v>
       </c>
@@ -6863,7 +6881,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" ht="16.500000" hidden="1">
       <c r="A154" s="0" t="s">
         <v>323</v>
       </c>
@@ -6908,7 +6926,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" ht="16.500000" hidden="1">
       <c r="A157" s="0" t="s">
         <v>327</v>
       </c>
@@ -6919,7 +6937,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" ht="16.500000" hidden="1">
       <c r="A158" s="0" t="s">
         <v>329</v>
       </c>
@@ -6941,7 +6959,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" ht="16.500000" hidden="1">
       <c r="A160" s="0" t="s">
         <v>333</v>
       </c>
@@ -6952,7 +6970,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" ht="16.500000" hidden="1">
       <c r="A161" s="0" t="s">
         <v>98</v>
       </c>
@@ -6991,7 +7009,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" ht="16.500000" hidden="1">
       <c r="A164" s="0" t="s">
         <v>100</v>
       </c>
@@ -7047,7 +7065,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" ht="16.500000" hidden="1">
       <c r="A168" s="0" t="s">
         <v>439</v>
       </c>
@@ -7058,7 +7076,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" ht="16.500000" hidden="1">
       <c r="A169" s="0" t="s">
         <v>162</v>
       </c>
@@ -7069,7 +7087,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" ht="16.500000" hidden="1">
       <c r="A170" s="0" t="s">
         <v>172</v>
       </c>
@@ -7097,7 +7115,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" ht="16.500000" hidden="1">
       <c r="A172" s="0" t="s">
         <v>128</v>
       </c>
@@ -7142,7 +7160,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" ht="16.500000" hidden="1">
       <c r="A175" s="0" t="s">
         <v>341</v>
       </c>
@@ -7215,7 +7233,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" ht="16.500000" hidden="1">
       <c r="A180" s="0" t="s">
         <v>146</v>
       </c>
@@ -7226,7 +7244,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" ht="16.500000" hidden="1">
       <c r="A181" s="0" t="s">
         <v>345</v>
       </c>
@@ -7237,7 +7255,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" ht="16.500000" hidden="1">
       <c r="A182" s="0" t="s">
         <v>506</v>
       </c>
@@ -7282,7 +7300,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" ht="16.500000" hidden="1">
       <c r="A185" s="0" t="s">
         <v>472</v>
       </c>
@@ -7293,7 +7311,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" ht="16.500000" hidden="1">
       <c r="A186" s="0" t="s">
         <v>487</v>
       </c>
@@ -7304,7 +7322,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" ht="16.500000" hidden="1">
       <c r="A187" s="0" t="s">
         <v>347</v>
       </c>
@@ -7315,7 +7333,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" ht="16.500000" hidden="1">
       <c r="A188" s="0" t="s">
         <v>142</v>
       </c>
@@ -7326,7 +7344,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" ht="16.500000" hidden="1">
       <c r="A189" s="0" t="s">
         <v>460</v>
       </c>
@@ -7388,7 +7406,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" ht="16.500000" hidden="1">
       <c r="A193" s="0" t="s">
         <v>455</v>
       </c>
@@ -7433,7 +7451,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" ht="16.500000" hidden="1">
       <c r="A196" s="0" t="s">
         <v>353</v>
       </c>
@@ -7494,7 +7512,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" ht="16.500000" hidden="1">
       <c r="A201" s="0" t="s">
         <v>359</v>
       </c>
@@ -7516,7 +7534,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" ht="16.500000" hidden="1">
       <c r="A203" s="0" t="s">
         <v>514</v>
       </c>
@@ -7527,7 +7545,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" ht="16.500000" hidden="1">
       <c r="A204" s="0" t="s">
         <v>148</v>
       </c>
@@ -7555,7 +7573,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" ht="16.500000" hidden="1">
       <c r="A206" s="0" t="s">
         <v>361</v>
       </c>
@@ -7577,7 +7595,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" ht="16.500000" hidden="1">
       <c r="A208" s="0" t="s">
         <v>365</v>
       </c>
@@ -7588,7 +7606,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" ht="16.500000" hidden="1">
       <c r="A209" s="0" t="s">
         <v>112</v>
       </c>
@@ -7627,7 +7645,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" ht="16.500000" hidden="1">
       <c r="A212" s="0" t="s">
         <v>4</v>
       </c>
@@ -7638,7 +7656,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" ht="16.500000" hidden="1">
       <c r="A213" s="0" t="s">
         <v>462</v>
       </c>
@@ -7784,7 +7802,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" ht="16.500000" hidden="1">
       <c r="A223" s="0" t="s">
         <v>156</v>
       </c>
@@ -7795,7 +7813,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" ht="16.500000" hidden="1">
       <c r="A224" s="0" t="s">
         <v>491</v>
       </c>
@@ -7823,7 +7841,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" ht="16.500000" hidden="1">
       <c r="A226" s="0" t="s">
         <v>504</v>
       </c>
@@ -7834,7 +7852,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" ht="16.500000" hidden="1">
       <c r="A227" s="0" t="s">
         <v>126</v>
       </c>
@@ -7845,7 +7863,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" ht="16.500000" hidden="1">
       <c r="A228" s="0" t="s">
         <v>377</v>
       </c>
@@ -7873,7 +7891,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" ht="16.500000" hidden="1">
       <c r="A230" s="0" t="s">
         <v>379</v>
       </c>
@@ -7884,7 +7902,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" ht="16.500000" hidden="1">
       <c r="A231" s="0" t="s">
         <v>449</v>
       </c>
@@ -7895,7 +7913,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" ht="16.500000" hidden="1">
       <c r="A232" s="0" t="s">
         <v>381</v>
       </c>
@@ -7906,7 +7924,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" ht="16.500000" hidden="1">
       <c r="A233" s="0" t="s">
         <v>383</v>
       </c>
@@ -7928,7 +7946,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" ht="16.500000" hidden="1">
       <c r="A235" s="0" t="s">
         <v>385</v>
       </c>
@@ -7939,7 +7957,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" ht="16.500000" hidden="1">
       <c r="A236" s="0" t="s">
         <v>389</v>
       </c>
@@ -7950,7 +7968,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" ht="16.500000" hidden="1">
       <c r="A237" s="0" t="s">
         <v>391</v>
       </c>
@@ -7961,7 +7979,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" ht="16.500000" hidden="1">
       <c r="A238" s="0" t="s">
         <v>40</v>
       </c>
@@ -7983,7 +8001,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" ht="16.500000" hidden="1">
       <c r="A240" s="0" t="s">
         <v>393</v>
       </c>
@@ -8022,7 +8040,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" ht="16.500000" hidden="1">
       <c r="A243" s="0" t="s">
         <v>116</v>
       </c>
@@ -8033,7 +8051,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" ht="16.500000" hidden="1">
       <c r="A244" s="0" t="s">
         <v>122</v>
       </c>
@@ -8044,7 +8062,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" ht="16.500000" hidden="1">
       <c r="A245" s="0" t="s">
         <v>516</v>
       </c>
@@ -8089,7 +8107,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" ht="16.500000" hidden="1">
       <c r="A248" s="0" t="s">
         <v>441</v>
       </c>
@@ -8111,7 +8129,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" ht="16.500000" hidden="1">
       <c r="A250" s="0" t="s">
         <v>401</v>
       </c>
@@ -8183,7 +8201,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" ht="16.500000" hidden="1">
       <c r="A256" s="0" t="s">
         <v>150</v>
       </c>
@@ -8228,7 +8246,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" ht="16.500000" hidden="1">
       <c r="A259" s="0" t="s">
         <v>120</v>
       </c>
@@ -8239,7 +8257,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" ht="16.500000" hidden="1">
       <c r="A260" s="0" t="s">
         <v>409</v>
       </c>
@@ -8250,7 +8268,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" ht="16.500000" hidden="1">
       <c r="A261" s="0" t="s">
         <v>411</v>
       </c>
@@ -8263,6 +8281,18 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E261">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="All"/>
+        <filter val="유럽"/>
+        <filter val="유럽(독일)"/>
+        <filter val="유럽(영국)"/>
+        <filter val="유럽(유고슬라비아)"/>
+        <filter val="유럽(이베리아)"/>
+        <filter val="유럽(이탈리아)"/>
+        <filter val="유럽(프랑스)"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3">
       <filters blank="1">
         <filter val="All"/>
@@ -10092,8 +10122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="170" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="160" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -4356,7 +4356,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4371,33 +4373,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4412,9 +4406,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4429,9 +4421,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -4446,17 +4436,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -4465,18 +4451,14 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4867,8 +4849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E261"/>
   <sheetViews>
-    <sheetView topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="C272" sqref="C272"/>
+    <sheetView topLeftCell="A230" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -4931,7 +4913,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.500000" hidden="1">
+    <row r="4" spans="1:5">
       <c r="A4" s="0" t="s">
         <v>177</v>
       </c>
@@ -4942,7 +4924,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.500000" hidden="1">
+    <row r="5" spans="1:5">
       <c r="A5" s="0" t="s">
         <v>179</v>
       </c>
@@ -4953,7 +4935,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.500000" hidden="1">
+    <row r="6" spans="1:5">
       <c r="A6" s="0" t="s">
         <v>466</v>
       </c>
@@ -4964,7 +4946,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.500000" hidden="1">
+    <row r="7" spans="1:5">
       <c r="A7" s="0" t="s">
         <v>181</v>
       </c>
@@ -4975,7 +4957,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.500000" hidden="1">
+    <row r="8" spans="1:5">
       <c r="A8" s="0" t="s">
         <v>475</v>
       </c>
@@ -4986,7 +4968,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.500000" hidden="1">
+    <row r="9" spans="1:5">
       <c r="A9" s="0" t="s">
         <v>477</v>
       </c>
@@ -5014,7 +4996,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.500000" hidden="1">
+    <row r="11" spans="1:5">
       <c r="A11" s="0" t="s">
         <v>183</v>
       </c>
@@ -5053,7 +5035,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16.500000" hidden="1">
+    <row r="14" spans="1:5">
       <c r="A14" s="0" t="s">
         <v>185</v>
       </c>
@@ -5064,7 +5046,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16.500000" hidden="1">
+    <row r="15" spans="1:5">
       <c r="A15" s="0" t="s">
         <v>427</v>
       </c>
@@ -5075,7 +5057,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16.500000" hidden="1">
+    <row r="16" spans="1:5">
       <c r="A16" s="0" t="s">
         <v>468</v>
       </c>
@@ -5136,7 +5118,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16.500000" hidden="1">
+    <row r="21" spans="1:5">
       <c r="A21" s="0" t="s">
         <v>191</v>
       </c>
@@ -5164,7 +5146,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16.500000" hidden="1">
+    <row r="23" spans="1:5">
       <c r="A23" s="0" t="s">
         <v>66</v>
       </c>
@@ -5175,7 +5157,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16.500000" hidden="1">
+    <row r="24" spans="1:5">
       <c r="A24" s="0" t="s">
         <v>429</v>
       </c>
@@ -5220,7 +5202,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="16.500000" hidden="1">
+    <row r="27" spans="1:5">
       <c r="A27" s="0" t="s">
         <v>197</v>
       </c>
@@ -5242,7 +5224,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16.500000" hidden="1">
+    <row r="29" spans="1:5">
       <c r="A29" s="0" t="s">
         <v>201</v>
       </c>
@@ -5270,7 +5252,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16.500000" hidden="1">
+    <row r="31" spans="1:5">
       <c r="A31" s="0" t="s">
         <v>445</v>
       </c>
@@ -5292,7 +5274,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.500000" hidden="1">
+    <row r="33" spans="1:5">
       <c r="A33" s="0" t="s">
         <v>457</v>
       </c>
@@ -5467,7 +5449,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="16.500000" hidden="1">
+    <row r="44" spans="1:5">
       <c r="A44" s="0" t="s">
         <v>219</v>
       </c>
@@ -5478,7 +5460,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16.500000" hidden="1">
+    <row r="45" spans="1:5">
       <c r="A45" s="0" t="s">
         <v>221</v>
       </c>
@@ -5489,7 +5471,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16.500000" hidden="1">
+    <row r="46" spans="1:5">
       <c r="A46" s="0" t="s">
         <v>479</v>
       </c>
@@ -5517,7 +5499,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="16.500000" hidden="1">
+    <row r="48" spans="1:5">
       <c r="A48" s="0" t="s">
         <v>223</v>
       </c>
@@ -5528,7 +5510,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16.500000" hidden="1">
+    <row r="49" spans="1:5">
       <c r="A49" s="0" t="s">
         <v>225</v>
       </c>
@@ -5556,7 +5538,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="16.500000" hidden="1">
+    <row r="51" spans="1:5">
       <c r="A51" s="0" t="s">
         <v>431</v>
       </c>
@@ -5584,7 +5566,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16.500000" hidden="1">
+    <row r="53" spans="1:5">
       <c r="A53" s="0" t="s">
         <v>78</v>
       </c>
@@ -5640,7 +5622,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="16.500000" hidden="1">
+    <row r="57" spans="1:5">
       <c r="A57" s="0" t="s">
         <v>231</v>
       </c>
@@ -5673,7 +5655,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="16.500000" hidden="1">
+    <row r="60" spans="1:5">
       <c r="A60" s="0" t="s">
         <v>447</v>
       </c>
@@ -5695,7 +5677,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="16.500000" hidden="1">
+    <row r="62" spans="1:5">
       <c r="A62" s="0" t="s">
         <v>235</v>
       </c>
@@ -5706,7 +5688,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="16.500000" hidden="1">
+    <row r="63" spans="1:5">
       <c r="A63" s="0" t="s">
         <v>237</v>
       </c>
@@ -5734,7 +5716,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="16.500000" hidden="1">
+    <row r="65" spans="1:5">
       <c r="A65" s="0" t="s">
         <v>239</v>
       </c>
@@ -5796,7 +5778,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="16.500000" hidden="1">
+    <row r="69" spans="1:5">
       <c r="A69" s="0" t="s">
         <v>170</v>
       </c>
@@ -5846,7 +5828,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="16.500000" hidden="1">
+    <row r="73" spans="1:5">
       <c r="A73" s="0" t="s">
         <v>243</v>
       </c>
@@ -5913,7 +5895,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="16.500000" hidden="1">
+    <row r="78" spans="1:5">
       <c r="A78" s="0" t="s">
         <v>247</v>
       </c>
@@ -5924,7 +5906,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="16.500000" hidden="1">
+    <row r="79" spans="1:5">
       <c r="A79" s="0" t="s">
         <v>470</v>
       </c>
@@ -5963,7 +5945,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="16.500000" hidden="1">
+    <row r="82" spans="1:5">
       <c r="A82" s="0" t="s">
         <v>251</v>
       </c>
@@ -5974,7 +5956,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="16.500000" hidden="1">
+    <row r="83" spans="1:5">
       <c r="A83" s="0" t="s">
         <v>253</v>
       </c>
@@ -6018,7 +6000,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="16.500000" hidden="1">
+    <row r="87" spans="1:5">
       <c r="A87" s="0" t="s">
         <v>261</v>
       </c>
@@ -6063,7 +6045,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="16.500000" hidden="1">
+    <row r="90" spans="1:5">
       <c r="A90" s="0" t="s">
         <v>273</v>
       </c>
@@ -6074,7 +6056,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="16.500000" hidden="1">
+    <row r="91" spans="1:5">
       <c r="A91" s="0" t="s">
         <v>265</v>
       </c>
@@ -6096,7 +6078,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="16.500000" hidden="1">
+    <row r="93" spans="1:5">
       <c r="A93" s="0" t="s">
         <v>269</v>
       </c>
@@ -6124,7 +6106,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="16.500000" hidden="1">
+    <row r="95" spans="1:5">
       <c r="A95" s="0" t="s">
         <v>464</v>
       </c>
@@ -6146,7 +6128,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="16.500000" hidden="1">
+    <row r="97" spans="1:5">
       <c r="A97" s="0" t="s">
         <v>84</v>
       </c>
@@ -6157,7 +6139,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="16.500000" hidden="1">
+    <row r="98" spans="1:5">
       <c r="A98" s="0" t="s">
         <v>485</v>
       </c>
@@ -6185,7 +6167,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="16.500000" hidden="1">
+    <row r="100" spans="1:5">
       <c r="A100" s="0" t="s">
         <v>443</v>
       </c>
@@ -6196,7 +6178,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="16.500000" hidden="1">
+    <row r="101" spans="1:5">
       <c r="A101" s="0" t="s">
         <v>275</v>
       </c>
@@ -6207,7 +6189,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="16.500000" hidden="1">
+    <row r="102" spans="1:5">
       <c r="A102" s="0" t="s">
         <v>481</v>
       </c>
@@ -6235,7 +6217,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="16.500000" hidden="1">
+    <row r="104" spans="1:5">
       <c r="A104" s="0" t="s">
         <v>86</v>
       </c>
@@ -6274,7 +6256,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="16.500000" hidden="1">
+    <row r="107" spans="1:5">
       <c r="A107" s="0" t="s">
         <v>283</v>
       </c>
@@ -6347,7 +6329,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="16.500000" hidden="1">
+    <row r="112" spans="1:5">
       <c r="A112" s="0" t="s">
         <v>88</v>
       </c>
@@ -6358,7 +6340,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="16.500000" hidden="1">
+    <row r="113" spans="1:5">
       <c r="A113" s="0" t="s">
         <v>164</v>
       </c>
@@ -6414,7 +6396,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="16.500000" hidden="1">
+    <row r="117" spans="1:5">
       <c r="A117" s="0" t="s">
         <v>154</v>
       </c>
@@ -6425,7 +6407,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="16.500000" hidden="1">
+    <row r="118" spans="1:5">
       <c r="A118" s="0" t="s">
         <v>510</v>
       </c>
@@ -6436,7 +6418,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="16.500000" hidden="1">
+    <row r="119" spans="1:5">
       <c r="A119" s="0" t="s">
         <v>287</v>
       </c>
@@ -6447,7 +6429,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="16.500000" hidden="1">
+    <row r="120" spans="1:5">
       <c r="A120" s="0" t="s">
         <v>433</v>
       </c>
@@ -6458,7 +6440,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="16.500000" hidden="1">
+    <row r="121" spans="1:5">
       <c r="A121" s="0" t="s">
         <v>289</v>
       </c>
@@ -6486,7 +6468,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="16.500000" hidden="1">
+    <row r="123" spans="1:5">
       <c r="A123" s="0" t="s">
         <v>451</v>
       </c>
@@ -6497,7 +6479,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="16.500000" hidden="1">
+    <row r="124" spans="1:5">
       <c r="A124" s="0" t="s">
         <v>291</v>
       </c>
@@ -6508,7 +6490,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="16.500000" hidden="1">
+    <row r="125" spans="1:5">
       <c r="A125" s="0" t="s">
         <v>518</v>
       </c>
@@ -6547,7 +6529,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="16.500000" hidden="1">
+    <row r="128" spans="1:5">
       <c r="A128" s="0" t="s">
         <v>522</v>
       </c>
@@ -6575,7 +6557,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="16.500000" hidden="1">
+    <row r="130" spans="1:5">
       <c r="A130" s="0" t="s">
         <v>483</v>
       </c>
@@ -6586,7 +6568,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="16.500000" hidden="1">
+    <row r="131" spans="1:5">
       <c r="A131" s="0" t="s">
         <v>295</v>
       </c>
@@ -6653,7 +6635,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="16.500000" hidden="1">
+    <row r="136" spans="1:5">
       <c r="A136" s="0" t="s">
         <v>301</v>
       </c>
@@ -6664,7 +6646,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="16.500000" hidden="1">
+    <row r="137" spans="1:5">
       <c r="A137" s="0" t="s">
         <v>303</v>
       </c>
@@ -6675,7 +6657,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="16.500000" hidden="1">
+    <row r="138" spans="1:5">
       <c r="A138" s="0" t="s">
         <v>305</v>
       </c>
@@ -6703,7 +6685,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="16.500000" hidden="1">
+    <row r="140" spans="1:5">
       <c r="A140" s="0" t="s">
         <v>307</v>
       </c>
@@ -6731,7 +6713,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="16.500000" hidden="1">
+    <row r="142" spans="1:5">
       <c r="A142" s="0" t="s">
         <v>520</v>
       </c>
@@ -6759,7 +6741,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="16.500000" hidden="1">
+    <row r="144" spans="1:5">
       <c r="A144" s="0" t="s">
         <v>453</v>
       </c>
@@ -6787,7 +6769,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="16.500000" hidden="1">
+    <row r="146" spans="1:5">
       <c r="A146" s="0" t="s">
         <v>437</v>
       </c>
@@ -6815,7 +6797,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="16.500000" hidden="1">
+    <row r="148" spans="1:5">
       <c r="A148" s="0" t="s">
         <v>313</v>
       </c>
@@ -6826,7 +6808,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="16.500000" hidden="1">
+    <row r="149" spans="1:5">
       <c r="A149" s="0" t="s">
         <v>315</v>
       </c>
@@ -6837,7 +6819,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="16.500000" hidden="1">
+    <row r="150" spans="1:5">
       <c r="A150" s="0" t="s">
         <v>317</v>
       </c>
@@ -6859,7 +6841,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="16.500000" hidden="1">
+    <row r="152" spans="1:5">
       <c r="A152" s="0" t="s">
         <v>321</v>
       </c>
@@ -6870,7 +6852,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="16.500000" hidden="1">
+    <row r="153" spans="1:5">
       <c r="A153" s="0" t="s">
         <v>435</v>
       </c>
@@ -6881,7 +6863,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="16.500000" hidden="1">
+    <row r="154" spans="1:5">
       <c r="A154" s="0" t="s">
         <v>323</v>
       </c>
@@ -6926,7 +6908,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="16.500000" hidden="1">
+    <row r="157" spans="1:5">
       <c r="A157" s="0" t="s">
         <v>327</v>
       </c>
@@ -6937,7 +6919,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="16.500000" hidden="1">
+    <row r="158" spans="1:5">
       <c r="A158" s="0" t="s">
         <v>329</v>
       </c>
@@ -6959,7 +6941,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="16.500000" hidden="1">
+    <row r="160" spans="1:5">
       <c r="A160" s="0" t="s">
         <v>333</v>
       </c>
@@ -6970,7 +6952,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="16.500000" hidden="1">
+    <row r="161" spans="1:5">
       <c r="A161" s="0" t="s">
         <v>98</v>
       </c>
@@ -7009,7 +6991,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="16.500000" hidden="1">
+    <row r="164" spans="1:5">
       <c r="A164" s="0" t="s">
         <v>100</v>
       </c>
@@ -7065,7 +7047,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="16.500000" hidden="1">
+    <row r="168" spans="1:5">
       <c r="A168" s="0" t="s">
         <v>439</v>
       </c>
@@ -7076,7 +7058,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="16.500000" hidden="1">
+    <row r="169" spans="1:5">
       <c r="A169" s="0" t="s">
         <v>162</v>
       </c>
@@ -7087,7 +7069,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="16.500000" hidden="1">
+    <row r="170" spans="1:5">
       <c r="A170" s="0" t="s">
         <v>172</v>
       </c>
@@ -7115,7 +7097,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="16.500000" hidden="1">
+    <row r="172" spans="1:5">
       <c r="A172" s="0" t="s">
         <v>128</v>
       </c>
@@ -7160,7 +7142,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="16.500000" hidden="1">
+    <row r="175" spans="1:5">
       <c r="A175" s="0" t="s">
         <v>341</v>
       </c>
@@ -7233,7 +7215,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="16.500000" hidden="1">
+    <row r="180" spans="1:5">
       <c r="A180" s="0" t="s">
         <v>146</v>
       </c>
@@ -7244,7 +7226,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="16.500000" hidden="1">
+    <row r="181" spans="1:5">
       <c r="A181" s="0" t="s">
         <v>345</v>
       </c>
@@ -7255,7 +7237,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="16.500000" hidden="1">
+    <row r="182" spans="1:5">
       <c r="A182" s="0" t="s">
         <v>506</v>
       </c>
@@ -7300,7 +7282,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="16.500000" hidden="1">
+    <row r="185" spans="1:5">
       <c r="A185" s="0" t="s">
         <v>472</v>
       </c>
@@ -7311,7 +7293,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="16.500000" hidden="1">
+    <row r="186" spans="1:5">
       <c r="A186" s="0" t="s">
         <v>487</v>
       </c>
@@ -7322,7 +7304,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="16.500000" hidden="1">
+    <row r="187" spans="1:5">
       <c r="A187" s="0" t="s">
         <v>347</v>
       </c>
@@ -7333,7 +7315,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="16.500000" hidden="1">
+    <row r="188" spans="1:5">
       <c r="A188" s="0" t="s">
         <v>142</v>
       </c>
@@ -7344,7 +7326,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="16.500000" hidden="1">
+    <row r="189" spans="1:5">
       <c r="A189" s="0" t="s">
         <v>460</v>
       </c>
@@ -7406,7 +7388,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="16.500000" hidden="1">
+    <row r="193" spans="1:5">
       <c r="A193" s="0" t="s">
         <v>455</v>
       </c>
@@ -7451,7 +7433,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="16.500000" hidden="1">
+    <row r="196" spans="1:5">
       <c r="A196" s="0" t="s">
         <v>353</v>
       </c>
@@ -7512,7 +7494,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="16.500000" hidden="1">
+    <row r="201" spans="1:5">
       <c r="A201" s="0" t="s">
         <v>359</v>
       </c>
@@ -7534,7 +7516,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="16.500000" hidden="1">
+    <row r="203" spans="1:5">
       <c r="A203" s="0" t="s">
         <v>514</v>
       </c>
@@ -7545,7 +7527,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="16.500000" hidden="1">
+    <row r="204" spans="1:5">
       <c r="A204" s="0" t="s">
         <v>148</v>
       </c>
@@ -7573,7 +7555,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="16.500000" hidden="1">
+    <row r="206" spans="1:5">
       <c r="A206" s="0" t="s">
         <v>361</v>
       </c>
@@ -7595,7 +7577,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="16.500000" hidden="1">
+    <row r="208" spans="1:5">
       <c r="A208" s="0" t="s">
         <v>365</v>
       </c>
@@ -7606,7 +7588,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="16.500000" hidden="1">
+    <row r="209" spans="1:5">
       <c r="A209" s="0" t="s">
         <v>112</v>
       </c>
@@ -7645,7 +7627,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="16.500000" hidden="1">
+    <row r="212" spans="1:5">
       <c r="A212" s="0" t="s">
         <v>4</v>
       </c>
@@ -7656,7 +7638,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="16.500000" hidden="1">
+    <row r="213" spans="1:5">
       <c r="A213" s="0" t="s">
         <v>462</v>
       </c>
@@ -7802,7 +7784,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="16.500000" hidden="1">
+    <row r="223" spans="1:5">
       <c r="A223" s="0" t="s">
         <v>156</v>
       </c>
@@ -7813,7 +7795,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="16.500000" hidden="1">
+    <row r="224" spans="1:5">
       <c r="A224" s="0" t="s">
         <v>491</v>
       </c>
@@ -7841,7 +7823,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="16.500000" hidden="1">
+    <row r="226" spans="1:5">
       <c r="A226" s="0" t="s">
         <v>504</v>
       </c>
@@ -7852,7 +7834,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="16.500000" hidden="1">
+    <row r="227" spans="1:5">
       <c r="A227" s="0" t="s">
         <v>126</v>
       </c>
@@ -7863,7 +7845,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="16.500000" hidden="1">
+    <row r="228" spans="1:5">
       <c r="A228" s="0" t="s">
         <v>377</v>
       </c>
@@ -7891,7 +7873,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="16.500000" hidden="1">
+    <row r="230" spans="1:5">
       <c r="A230" s="0" t="s">
         <v>379</v>
       </c>
@@ -7902,7 +7884,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="16.500000" hidden="1">
+    <row r="231" spans="1:5">
       <c r="A231" s="0" t="s">
         <v>449</v>
       </c>
@@ -7913,7 +7895,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="16.500000" hidden="1">
+    <row r="232" spans="1:5">
       <c r="A232" s="0" t="s">
         <v>381</v>
       </c>
@@ -7924,7 +7906,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="16.500000" hidden="1">
+    <row r="233" spans="1:5">
       <c r="A233" s="0" t="s">
         <v>383</v>
       </c>
@@ -7946,7 +7928,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="16.500000" hidden="1">
+    <row r="235" spans="1:5">
       <c r="A235" s="0" t="s">
         <v>385</v>
       </c>
@@ -7957,7 +7939,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="16.500000" hidden="1">
+    <row r="236" spans="1:5">
       <c r="A236" s="0" t="s">
         <v>389</v>
       </c>
@@ -7968,7 +7950,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="16.500000" hidden="1">
+    <row r="237" spans="1:5">
       <c r="A237" s="0" t="s">
         <v>391</v>
       </c>
@@ -7979,7 +7961,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="16.500000" hidden="1">
+    <row r="238" spans="1:5">
       <c r="A238" s="0" t="s">
         <v>40</v>
       </c>
@@ -8001,7 +7983,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="16.500000" hidden="1">
+    <row r="240" spans="1:5">
       <c r="A240" s="0" t="s">
         <v>393</v>
       </c>
@@ -8040,7 +8022,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="16.500000" hidden="1">
+    <row r="243" spans="1:5">
       <c r="A243" s="0" t="s">
         <v>116</v>
       </c>
@@ -8051,7 +8033,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="16.500000" hidden="1">
+    <row r="244" spans="1:5">
       <c r="A244" s="0" t="s">
         <v>122</v>
       </c>
@@ -8062,7 +8044,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="16.500000" hidden="1">
+    <row r="245" spans="1:5">
       <c r="A245" s="0" t="s">
         <v>516</v>
       </c>
@@ -8107,7 +8089,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="16.500000" hidden="1">
+    <row r="248" spans="1:5">
       <c r="A248" s="0" t="s">
         <v>441</v>
       </c>
@@ -8129,7 +8111,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="16.500000" hidden="1">
+    <row r="250" spans="1:5">
       <c r="A250" s="0" t="s">
         <v>401</v>
       </c>
@@ -8201,7 +8183,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="16.500000" hidden="1">
+    <row r="256" spans="1:5">
       <c r="A256" s="0" t="s">
         <v>150</v>
       </c>
@@ -8246,7 +8228,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="16.500000" hidden="1">
+    <row r="259" spans="1:5">
       <c r="A259" s="0" t="s">
         <v>120</v>
       </c>
@@ -8257,7 +8239,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="16.500000" hidden="1">
+    <row r="260" spans="1:5">
       <c r="A260" s="0" t="s">
         <v>409</v>
       </c>
@@ -8268,7 +8250,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="16.500000" hidden="1">
+    <row r="261" spans="1:5">
       <c r="A261" s="0" t="s">
         <v>411</v>
       </c>
@@ -8281,18 +8263,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E261">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="All"/>
-        <filter val="유럽"/>
-        <filter val="유럽(독일)"/>
-        <filter val="유럽(영국)"/>
-        <filter val="유럽(유고슬라비아)"/>
-        <filter val="유럽(이베리아)"/>
-        <filter val="유럽(이탈리아)"/>
-        <filter val="유럽(프랑스)"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="3">
       <filters blank="1">
         <filter val="All"/>
@@ -10122,7 +10092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="160" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="140" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="1336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="1353">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4041,6 +4041,57 @@
   </si>
   <si>
     <t>남미(브라질)</t>
+  </si>
+  <si>
+    <t>tkrwp</t>
+  </si>
+  <si>
+    <t>삭제</t>
+  </si>
+  <si>
+    <t>삭</t>
+  </si>
+  <si>
+    <t>삭제</t>
+  </si>
+  <si>
+    <t>펄스1</t>
+  </si>
+  <si>
+    <t>펄스 1</t>
+  </si>
+  <si>
+    <t>삭제</t>
+  </si>
+  <si>
+    <t>유럽(이탈리아)</t>
+  </si>
+  <si>
+    <t>삭제\</t>
+  </si>
+  <si>
+    <t>삭제</t>
+  </si>
+  <si>
+    <t>미</t>
+  </si>
+  <si>
+    <t>미등</t>
+  </si>
+  <si>
+    <t>미등장</t>
+  </si>
+  <si>
+    <t>미\</t>
+  </si>
+  <si>
+    <t>미등장</t>
+  </si>
+  <si>
+    <t>미등장</t>
+  </si>
+  <si>
+    <t>카자흐스탄</t>
   </si>
 </sst>
 </file>
@@ -4849,8 +4900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E261"/>
   <sheetViews>
-    <sheetView topLeftCell="A230" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C261"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -4913,7 +4964,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="16.500000" hidden="1">
       <c r="A4" s="0" t="s">
         <v>177</v>
       </c>
@@ -4922,6 +4973,9 @@
       </c>
       <c r="C4" s="0" t="s">
         <v>628</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4932,10 +4986,13 @@
         <v>838</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>1352</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.500000" hidden="1">
       <c r="A6" s="0" t="s">
         <v>466</v>
       </c>
@@ -4944,6 +5001,9 @@
       </c>
       <c r="C6" s="0" t="s">
         <v>778</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>1337</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4956,8 +5016,11 @@
       <c r="C7" s="0" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="D7" s="0" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.500000" hidden="1">
       <c r="A8" s="0" t="s">
         <v>475</v>
       </c>
@@ -4967,8 +5030,11 @@
       <c r="C8" s="0" t="s">
         <v>1289</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="D8" s="0" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.500000" hidden="1">
       <c r="A9" s="0" t="s">
         <v>477</v>
       </c>
@@ -4977,6 +5043,9 @@
       </c>
       <c r="C9" s="0" t="s">
         <v>782</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>1339</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.500000" hidden="1">
@@ -5006,6 +5075,9 @@
       <c r="C11" s="0" t="s">
         <v>631</v>
       </c>
+      <c r="D11" s="0" t="s">
+        <v>1351</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="16.500000" hidden="1">
       <c r="A12" s="0" t="s">
@@ -5034,6 +5106,9 @@
       <c r="C13" s="0" t="s">
         <v>546</v>
       </c>
+      <c r="D13" s="0" t="s">
+        <v>1351</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="0" t="s">
@@ -5045,8 +5120,11 @@
       <c r="C14" s="0" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="D14" s="0" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.500000" hidden="1">
       <c r="A15" s="0" t="s">
         <v>427</v>
       </c>
@@ -5056,8 +5134,11 @@
       <c r="C15" s="0" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="D15" s="0" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.500000" hidden="1">
       <c r="A16" s="0" t="s">
         <v>468</v>
       </c>
@@ -5067,8 +5148,11 @@
       <c r="C16" s="0" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="D16" s="0" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.500000" hidden="1">
       <c r="A17" s="0" t="s">
         <v>508</v>
       </c>
@@ -5077,6 +5161,9 @@
       </c>
       <c r="C17" s="0" t="s">
         <v>799</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.500000" hidden="1">
@@ -5106,6 +5193,9 @@
       <c r="C19" s="0" t="s">
         <v>854</v>
       </c>
+      <c r="D19" s="0" t="s">
+        <v>1333</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="0" t="s">
@@ -5117,8 +5207,11 @@
       <c r="C20" s="0" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="D20" s="0" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.500000" hidden="1">
       <c r="A21" s="0" t="s">
         <v>191</v>
       </c>
@@ -5127,6 +5220,9 @@
       </c>
       <c r="C21" s="0" t="s">
         <v>637</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.500000" hidden="1">
@@ -5156,8 +5252,11 @@
       <c r="C23" s="0" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="D23" s="0" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16.500000" hidden="1">
       <c r="A24" s="0" t="s">
         <v>429</v>
       </c>
@@ -5166,6 +5265,9 @@
       </c>
       <c r="C24" s="0" t="s">
         <v>761</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="16.500000" hidden="1">
@@ -5212,6 +5314,9 @@
       <c r="C27" s="0" t="s">
         <v>640</v>
       </c>
+      <c r="D27" s="0" t="s">
+        <v>1333</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="0" t="s">
@@ -5223,8 +5328,11 @@
       <c r="C28" s="0" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="D28" s="0" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16.500000" hidden="1">
       <c r="A29" s="0" t="s">
         <v>201</v>
       </c>
@@ -5233,6 +5341,9 @@
       </c>
       <c r="C29" s="0" t="s">
         <v>642</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16.500000" hidden="1">
@@ -5252,7 +5363,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" ht="16.500000" hidden="1">
       <c r="A31" s="0" t="s">
         <v>445</v>
       </c>
@@ -5262,8 +5373,11 @@
       <c r="C31" s="0" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="D31" s="0" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16.500000" hidden="1">
       <c r="A32" s="0" t="s">
         <v>203</v>
       </c>
@@ -5273,8 +5387,11 @@
       <c r="C32" s="0" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="D32" s="0" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16.500000" hidden="1">
       <c r="A33" s="0" t="s">
         <v>457</v>
       </c>
@@ -5283,6 +5400,9 @@
       </c>
       <c r="C33" s="0" t="s">
         <v>774</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="16.500000" hidden="1">
@@ -5404,7 +5524,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" ht="16.500000" hidden="1">
       <c r="A41" s="0" t="s">
         <v>215</v>
       </c>
@@ -5413,6 +5533,9 @@
       </c>
       <c r="C41" s="0" t="s">
         <v>651</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16.500000" hidden="1">
@@ -5459,8 +5582,11 @@
       <c r="C44" s="0" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="D44" s="0" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16.500000" hidden="1">
       <c r="A45" s="0" t="s">
         <v>221</v>
       </c>
@@ -5469,6 +5595,9 @@
       </c>
       <c r="C45" s="0" t="s">
         <v>839</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>1339</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -5481,6 +5610,9 @@
       <c r="C46" s="0" t="s">
         <v>783</v>
       </c>
+      <c r="D46" s="0" t="s">
+        <v>1333</v>
+      </c>
     </row>
     <row r="47" spans="1:5" ht="16.500000" hidden="1">
       <c r="A47" s="0" t="s">
@@ -5499,7 +5631,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" ht="16.500000" hidden="1">
       <c r="A48" s="0" t="s">
         <v>223</v>
       </c>
@@ -5508,6 +5640,9 @@
       </c>
       <c r="C48" s="0" t="s">
         <v>656</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -5520,6 +5655,9 @@
       <c r="C49" s="0" t="s">
         <v>657</v>
       </c>
+      <c r="D49" s="0" t="s">
+        <v>1351</v>
+      </c>
     </row>
     <row r="50" spans="1:5" ht="16.500000" hidden="1">
       <c r="A50" s="0" t="s">
@@ -5548,6 +5686,9 @@
       <c r="C51" s="0" t="s">
         <v>657</v>
       </c>
+      <c r="D51" s="0" t="s">
+        <v>1351</v>
+      </c>
     </row>
     <row r="52" spans="1:5" ht="16.500000" hidden="1">
       <c r="A52" s="0" t="s">
@@ -5576,6 +5717,9 @@
       <c r="C53" s="0" t="s">
         <v>578</v>
       </c>
+      <c r="D53" s="0" t="s">
+        <v>1348</v>
+      </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="0" t="s">
@@ -5587,6 +5731,9 @@
       <c r="C54" s="0" t="s">
         <v>612</v>
       </c>
+      <c r="D54" s="0" t="s">
+        <v>1333</v>
+      </c>
     </row>
     <row r="55" spans="1:5" ht="16.500000" hidden="1">
       <c r="A55" s="0" t="s">
@@ -5622,7 +5769,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" ht="16.500000" hidden="1">
       <c r="A57" s="0" t="s">
         <v>231</v>
       </c>
@@ -5632,8 +5779,11 @@
       <c r="C57" s="0" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="D57" s="0" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="16.500000" hidden="1">
       <c r="A58" s="0" t="s">
         <v>233</v>
       </c>
@@ -5642,6 +5792,9 @@
       </c>
       <c r="C58" s="0" t="s">
         <v>661</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -5654,8 +5807,11 @@
       <c r="C59" s="0" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="D59" s="0" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="16.500000" hidden="1">
       <c r="A60" s="0" t="s">
         <v>447</v>
       </c>
@@ -5664,6 +5820,9 @@
       </c>
       <c r="C60" s="0" t="s">
         <v>769</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -5676,6 +5835,9 @@
       <c r="C61" s="0" t="s">
         <v>624</v>
       </c>
+      <c r="D61" s="0" t="s">
+        <v>1333</v>
+      </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="0" t="s">
@@ -5687,8 +5849,11 @@
       <c r="C62" s="0" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="D62" s="0" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="16.500000" hidden="1">
       <c r="A63" s="0" t="s">
         <v>237</v>
       </c>
@@ -5697,6 +5862,9 @@
       </c>
       <c r="C63" s="0" t="s">
         <v>663</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>1339</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="16.500000" hidden="1">
@@ -5716,7 +5884,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" ht="16.500000" hidden="1">
       <c r="A65" s="0" t="s">
         <v>239</v>
       </c>
@@ -5725,6 +5893,9 @@
       </c>
       <c r="C65" s="0" t="s">
         <v>664</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="16.500000" hidden="1">
@@ -5788,8 +5959,11 @@
       <c r="C69" s="0" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="D69" s="0" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="16.500000" hidden="1">
       <c r="A70" s="0" t="s">
         <v>422</v>
       </c>
@@ -5798,6 +5972,9 @@
       </c>
       <c r="C70" s="0" t="s">
         <v>758</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>1342</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="16.500000" hidden="1">
@@ -5817,7 +5994,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" ht="16.500000" hidden="1">
       <c r="A72" s="0" t="s">
         <v>241</v>
       </c>
@@ -5827,8 +6004,11 @@
       <c r="C72" s="0" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="D72" s="0" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="16.500000" hidden="1">
       <c r="A73" s="0" t="s">
         <v>243</v>
       </c>
@@ -5837,6 +6017,9 @@
       </c>
       <c r="C73" s="0" t="s">
         <v>666</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -5849,6 +6032,9 @@
       <c r="C74" s="0" t="s">
         <v>548</v>
       </c>
+      <c r="D74" s="0" t="s">
+        <v>1351</v>
+      </c>
     </row>
     <row r="75" spans="1:5" ht="16.500000" hidden="1">
       <c r="A75" s="0" t="s">
@@ -5884,7 +6070,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" ht="16.500000" hidden="1">
       <c r="A77" s="0" t="s">
         <v>245</v>
       </c>
@@ -5894,8 +6080,11 @@
       <c r="C77" s="0" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="D77" s="0" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="16.500000" hidden="1">
       <c r="A78" s="0" t="s">
         <v>247</v>
       </c>
@@ -5905,8 +6094,11 @@
       <c r="C78" s="0" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="D78" s="0" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="16.500000" hidden="1">
       <c r="A79" s="0" t="s">
         <v>470</v>
       </c>
@@ -5915,6 +6107,9 @@
       </c>
       <c r="C79" s="0" t="s">
         <v>780</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>1339</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="16.500000" hidden="1">
@@ -5944,8 +6139,11 @@
       <c r="C81" s="0" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="D81" s="0" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="16.500000" hidden="1">
       <c r="A82" s="0" t="s">
         <v>251</v>
       </c>
@@ -5955,8 +6153,11 @@
       <c r="C82" s="0" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="D82" s="0" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="16.500000" hidden="1">
       <c r="A83" s="0" t="s">
         <v>253</v>
       </c>
@@ -5965,6 +6166,9 @@
       </c>
       <c r="C83" s="0" t="s">
         <v>671</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -5977,6 +6181,9 @@
       <c r="C84" s="0" t="s">
         <v>672</v>
       </c>
+      <c r="D84" s="0" t="s">
+        <v>1351</v>
+      </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="0" t="s">
@@ -5988,6 +6195,9 @@
       <c r="C85" s="0" t="s">
         <v>673</v>
       </c>
+      <c r="D85" s="0" t="s">
+        <v>1333</v>
+      </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="0" t="s">
@@ -5999,6 +6209,9 @@
       <c r="C86" s="0" t="s">
         <v>673</v>
       </c>
+      <c r="D86" s="0" t="s">
+        <v>1333</v>
+      </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="0" t="s">
@@ -6010,6 +6223,9 @@
       <c r="C87" s="0" t="s">
         <v>674</v>
       </c>
+      <c r="D87" s="0" t="s">
+        <v>1333</v>
+      </c>
     </row>
     <row r="88" spans="1:5" ht="16.500000" hidden="1">
       <c r="A88" s="0" t="s">
@@ -6055,8 +6271,11 @@
       <c r="C90" s="0" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="D90" s="0" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="16.500000" hidden="1">
       <c r="A91" s="0" t="s">
         <v>265</v>
       </c>
@@ -6065,6 +6284,9 @@
       </c>
       <c r="C91" s="0" t="s">
         <v>676</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -6077,8 +6299,11 @@
       <c r="C92" s="0" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="D92" s="0" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="16.500000" hidden="1">
       <c r="A93" s="0" t="s">
         <v>269</v>
       </c>
@@ -6087,6 +6312,9 @@
       </c>
       <c r="C93" s="0" t="s">
         <v>678</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="16.500000" hidden="1">
@@ -6106,7 +6334,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" ht="16.500000" hidden="1">
       <c r="A95" s="0" t="s">
         <v>464</v>
       </c>
@@ -6115,6 +6343,9 @@
       </c>
       <c r="C95" s="0" t="s">
         <v>777</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>1339</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -6127,6 +6358,9 @@
       <c r="C96" s="0" t="s">
         <v>679</v>
       </c>
+      <c r="D96" s="0" t="s">
+        <v>1333</v>
+      </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="0" t="s">
@@ -6138,8 +6372,11 @@
       <c r="C97" s="0" t="s">
         <v>1322</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="D97" s="0" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="16.500000" hidden="1">
       <c r="A98" s="0" t="s">
         <v>485</v>
       </c>
@@ -6148,6 +6385,9 @@
       </c>
       <c r="C98" s="0" t="s">
         <v>788</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>1339</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="16.500000" hidden="1">
@@ -6167,7 +6407,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" ht="16.500000" hidden="1">
       <c r="A100" s="0" t="s">
         <v>443</v>
       </c>
@@ -6176,6 +6416,9 @@
       </c>
       <c r="C100" s="0" t="s">
         <v>767</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -6188,8 +6431,11 @@
       <c r="C101" s="0" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="D101" s="0" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="16.500000" hidden="1">
       <c r="A102" s="0" t="s">
         <v>481</v>
       </c>
@@ -6198,6 +6444,9 @@
       </c>
       <c r="C102" s="0" t="s">
         <v>1301</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>1339</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="16.500000" hidden="1">
@@ -6227,6 +6476,9 @@
       <c r="C104" s="0" t="s">
         <v>582</v>
       </c>
+      <c r="D104" s="0" t="s">
+        <v>1348</v>
+      </c>
     </row>
     <row r="105" spans="1:5" ht="16.500000" hidden="1">
       <c r="A105" s="0" t="s">
@@ -6255,8 +6507,11 @@
       <c r="C106" s="0" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="D106" s="0" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="16.500000" hidden="1">
       <c r="A107" s="0" t="s">
         <v>283</v>
       </c>
@@ -6265,6 +6520,9 @@
       </c>
       <c r="C107" s="0" t="s">
         <v>685</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -6277,6 +6535,9 @@
       <c r="C108" s="0" t="s">
         <v>682</v>
       </c>
+      <c r="D108" s="0" t="s">
+        <v>1333</v>
+      </c>
     </row>
     <row r="109" spans="1:5" ht="16.500000" hidden="1">
       <c r="A109" s="0" t="s">
@@ -6339,8 +6600,11 @@
       <c r="C112" s="0" t="s">
         <v>1310</v>
       </c>
-    </row>
-    <row r="113" spans="1:5">
+      <c r="D112" s="0" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="16.500000" hidden="1">
       <c r="A113" s="0" t="s">
         <v>164</v>
       </c>
@@ -6349,6 +6613,9 @@
       </c>
       <c r="C113" s="0" t="s">
         <v>1334</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>1339</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -6356,10 +6623,13 @@
         <v>30</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>529</v>
+        <v>1343</v>
       </c>
       <c r="C114" s="0" t="s">
         <v>843</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>1333</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="16.500000" hidden="1">
@@ -6406,6 +6676,9 @@
       <c r="C117" s="0" t="s">
         <v>617</v>
       </c>
+      <c r="D117" s="0" t="s">
+        <v>1333</v>
+      </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="0" t="s">
@@ -6417,8 +6690,11 @@
       <c r="C118" s="0" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="D118" s="0" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="16.500000" hidden="1">
       <c r="A119" s="0" t="s">
         <v>287</v>
       </c>
@@ -6428,8 +6704,11 @@
       <c r="C119" s="0" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="D119" s="0" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="16.500000" hidden="1">
       <c r="A120" s="0" t="s">
         <v>433</v>
       </c>
@@ -6439,8 +6718,11 @@
       <c r="C120" s="0" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="D120" s="0" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="16.500000" hidden="1">
       <c r="A121" s="0" t="s">
         <v>289</v>
       </c>
@@ -6449,6 +6731,9 @@
       </c>
       <c r="C121" s="0" t="s">
         <v>688</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="16.500000" hidden="1">
@@ -6468,7 +6753,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" ht="16.500000" hidden="1">
       <c r="A123" s="0" t="s">
         <v>451</v>
       </c>
@@ -6477,6 +6762,9 @@
       </c>
       <c r="C123" s="0" t="s">
         <v>771</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -6489,6 +6777,9 @@
       <c r="C124" s="0" t="s">
         <v>689</v>
       </c>
+      <c r="D124" s="0" t="s">
+        <v>1348</v>
+      </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="0" t="s">
@@ -6500,6 +6791,9 @@
       <c r="C125" s="0" t="s">
         <v>804</v>
       </c>
+      <c r="D125" s="0" t="s">
+        <v>1350</v>
+      </c>
     </row>
     <row r="126" spans="1:5" ht="16.500000" hidden="1">
       <c r="A126" s="0" t="s">
@@ -6528,6 +6822,9 @@
       <c r="C127" s="0" t="s">
         <v>549</v>
       </c>
+      <c r="D127" s="0" t="s">
+        <v>1351</v>
+      </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="0" t="s">
@@ -6539,6 +6836,9 @@
       <c r="C128" s="0" t="s">
         <v>806</v>
       </c>
+      <c r="D128" s="0" t="s">
+        <v>1348</v>
+      </c>
     </row>
     <row r="129" spans="1:5" ht="16.500000" hidden="1">
       <c r="A129" s="0" t="s">
@@ -6557,7 +6857,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" ht="16.500000" hidden="1">
       <c r="A130" s="0" t="s">
         <v>483</v>
       </c>
@@ -6567,8 +6867,11 @@
       <c r="C130" s="0" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="131" spans="1:5">
+      <c r="D130" s="0" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="16.500000" hidden="1">
       <c r="A131" s="0" t="s">
         <v>295</v>
       </c>
@@ -6577,6 +6880,9 @@
       </c>
       <c r="C131" s="0" t="s">
         <v>691</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="16.500000" hidden="1">
@@ -6596,7 +6902,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" ht="16.500000" hidden="1">
       <c r="A133" s="0" t="s">
         <v>414</v>
       </c>
@@ -6606,8 +6912,11 @@
       <c r="C133" s="0" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="134" spans="1:5">
+      <c r="D133" s="0" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="16.500000" hidden="1">
       <c r="A134" s="0" t="s">
         <v>10</v>
       </c>
@@ -6616,6 +6925,9 @@
       </c>
       <c r="C134" s="0" t="s">
         <v>541</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="16.500000" hidden="1">
@@ -6635,7 +6947,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" ht="16.500000" hidden="1">
       <c r="A136" s="0" t="s">
         <v>301</v>
       </c>
@@ -6644,6 +6956,9 @@
       </c>
       <c r="C136" s="0" t="s">
         <v>694</v>
+      </c>
+      <c r="D136" s="0" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -6656,8 +6971,11 @@
       <c r="C137" s="0" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="138" spans="1:5">
+      <c r="D137" s="0" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="16.500000" hidden="1">
       <c r="A138" s="0" t="s">
         <v>305</v>
       </c>
@@ -6666,6 +6984,9 @@
       </c>
       <c r="C138" s="0" t="s">
         <v>696</v>
+      </c>
+      <c r="D138" s="0" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="16.500000" hidden="1">
@@ -6685,7 +7006,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" ht="16.500000" hidden="1">
       <c r="A140" s="0" t="s">
         <v>307</v>
       </c>
@@ -6694,6 +7015,9 @@
       </c>
       <c r="C140" s="0" t="s">
         <v>697</v>
+      </c>
+      <c r="D140" s="0" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="16.500000" hidden="1">
@@ -6713,7 +7037,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" ht="16.500000" hidden="1">
       <c r="A142" s="0" t="s">
         <v>520</v>
       </c>
@@ -6722,6 +7046,9 @@
       </c>
       <c r="C142" s="0" t="s">
         <v>805</v>
+      </c>
+      <c r="D142" s="0" t="s">
+        <v>1339</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="16.500000" hidden="1">
@@ -6741,7 +7068,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" ht="16.500000" hidden="1">
       <c r="A144" s="0" t="s">
         <v>453</v>
       </c>
@@ -6750,6 +7077,9 @@
       </c>
       <c r="C144" s="0" t="s">
         <v>772</v>
+      </c>
+      <c r="D144" s="0" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="16.500000" hidden="1">
@@ -6769,7 +7099,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" ht="16.500000" hidden="1">
       <c r="A146" s="0" t="s">
         <v>437</v>
       </c>
@@ -6778,6 +7108,9 @@
       </c>
       <c r="C146" s="0" t="s">
         <v>764</v>
+      </c>
+      <c r="D146" s="0" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="16.500000" hidden="1">
@@ -6797,7 +7130,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" ht="16.500000" hidden="1">
       <c r="A148" s="0" t="s">
         <v>313</v>
       </c>
@@ -6806,6 +7139,9 @@
       </c>
       <c r="C148" s="0" t="s">
         <v>700</v>
+      </c>
+      <c r="D148" s="0" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -6818,8 +7154,11 @@
       <c r="C149" s="0" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="150" spans="1:5">
+      <c r="D149" s="0" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="16.500000" hidden="1">
       <c r="A150" s="0" t="s">
         <v>317</v>
       </c>
@@ -6828,6 +7167,9 @@
       </c>
       <c r="C150" s="0" t="s">
         <v>702</v>
+      </c>
+      <c r="D150" s="0" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -6840,8 +7182,11 @@
       <c r="C151" s="0" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="152" spans="1:5">
+      <c r="D151" s="0" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="16.500000" hidden="1">
       <c r="A152" s="0" t="s">
         <v>321</v>
       </c>
@@ -6851,8 +7196,11 @@
       <c r="C152" s="0" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="153" spans="1:5">
+      <c r="D152" s="0" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="16.500000" hidden="1">
       <c r="A153" s="0" t="s">
         <v>435</v>
       </c>
@@ -6862,8 +7210,11 @@
       <c r="C153" s="0" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="154" spans="1:5">
+      <c r="D153" s="0" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="16.500000" hidden="1">
       <c r="A154" s="0" t="s">
         <v>323</v>
       </c>
@@ -6872,6 +7223,9 @@
       </c>
       <c r="C154" s="0" t="s">
         <v>705</v>
+      </c>
+      <c r="D154" s="0" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="16.500000" hidden="1">
@@ -6908,7 +7262,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" ht="16.500000" hidden="1">
       <c r="A157" s="0" t="s">
         <v>327</v>
       </c>
@@ -6917,6 +7271,9 @@
       </c>
       <c r="C157" s="0" t="s">
         <v>707</v>
+      </c>
+      <c r="D157" s="0" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -6929,6 +7286,9 @@
       <c r="C158" s="0" t="s">
         <v>708</v>
       </c>
+      <c r="D158" s="0" t="s">
+        <v>1351</v>
+      </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="0" t="s">
@@ -6940,8 +7300,11 @@
       <c r="C159" s="0" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="160" spans="1:5">
+      <c r="D159" s="0" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="16.500000" hidden="1">
       <c r="A160" s="0" t="s">
         <v>333</v>
       </c>
@@ -6950,6 +7313,9 @@
       </c>
       <c r="C160" s="0" t="s">
         <v>710</v>
+      </c>
+      <c r="D160" s="0" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -6962,6 +7328,9 @@
       <c r="C161" s="0" t="s">
         <v>1216</v>
       </c>
+      <c r="D161" s="0" t="s">
+        <v>1348</v>
+      </c>
     </row>
     <row r="162" spans="1:5" ht="16.500000" hidden="1">
       <c r="A162" s="0" t="s">
@@ -6980,7 +7349,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" ht="16.500000" hidden="1">
       <c r="A163" s="0" t="s">
         <v>335</v>
       </c>
@@ -6990,8 +7359,11 @@
       <c r="C163" s="0" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="164" spans="1:5">
+      <c r="D163" s="0" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="16.500000" hidden="1">
       <c r="A164" s="0" t="s">
         <v>100</v>
       </c>
@@ -7001,8 +7373,11 @@
       <c r="C164" s="0" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="165" spans="1:5">
+      <c r="D164" s="0" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="16.500000" hidden="1">
       <c r="A165" s="0" t="s">
         <v>337</v>
       </c>
@@ -7011,6 +7386,9 @@
       </c>
       <c r="C165" s="0" t="s">
         <v>712</v>
+      </c>
+      <c r="D165" s="0" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="16.500000" hidden="1">
@@ -7047,7 +7425,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" ht="16.500000" hidden="1">
       <c r="A168" s="0" t="s">
         <v>439</v>
       </c>
@@ -7056,6 +7434,9 @@
       </c>
       <c r="C168" s="0" t="s">
         <v>765</v>
+      </c>
+      <c r="D168" s="0" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -7068,6 +7449,9 @@
       <c r="C169" s="0" t="s">
         <v>621</v>
       </c>
+      <c r="D169" s="0" t="s">
+        <v>1348</v>
+      </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="0" t="s">
@@ -7079,6 +7463,9 @@
       <c r="C170" s="0" t="s">
         <v>626</v>
       </c>
+      <c r="D170" s="0" t="s">
+        <v>1350</v>
+      </c>
     </row>
     <row r="171" spans="1:5" ht="16.500000" hidden="1">
       <c r="A171" s="0" t="s">
@@ -7107,6 +7494,9 @@
       <c r="C172" s="0" t="s">
         <v>604</v>
       </c>
+      <c r="D172" s="0" t="s">
+        <v>1333</v>
+      </c>
     </row>
     <row r="173" spans="1:5" ht="16.500000" hidden="1">
       <c r="A173" s="0" t="s">
@@ -7142,7 +7532,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" ht="16.500000" hidden="1">
       <c r="A175" s="0" t="s">
         <v>341</v>
       </c>
@@ -7151,6 +7541,9 @@
       </c>
       <c r="C175" s="0" t="s">
         <v>715</v>
+      </c>
+      <c r="D175" s="0" t="s">
+        <v>1339</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="16.500000" hidden="1">
@@ -7170,7 +7563,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" ht="16.500000" hidden="1">
       <c r="A177" s="0" t="s">
         <v>343</v>
       </c>
@@ -7179,6 +7572,9 @@
       </c>
       <c r="C177" s="0" t="s">
         <v>716</v>
+      </c>
+      <c r="D177" s="0" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="16.500000" hidden="1">
@@ -7225,6 +7621,9 @@
       <c r="C180" s="0" t="s">
         <v>1286</v>
       </c>
+      <c r="D180" s="0" t="s">
+        <v>1333</v>
+      </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="0" t="s">
@@ -7236,6 +7635,9 @@
       <c r="C181" s="0" t="s">
         <v>717</v>
       </c>
+      <c r="D181" s="0" t="s">
+        <v>1333</v>
+      </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="0" t="s">
@@ -7247,6 +7649,9 @@
       <c r="C182" s="0" t="s">
         <v>798</v>
       </c>
+      <c r="D182" s="0" t="s">
+        <v>1348</v>
+      </c>
     </row>
     <row r="183" spans="1:5" ht="16.500000" hidden="1">
       <c r="A183" s="0" t="s">
@@ -7282,7 +7687,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" ht="16.500000" hidden="1">
       <c r="A185" s="0" t="s">
         <v>472</v>
       </c>
@@ -7291,6 +7696,9 @@
       </c>
       <c r="C185" s="0" t="s">
         <v>781</v>
+      </c>
+      <c r="D185" s="0" t="s">
+        <v>1339</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -7303,6 +7711,9 @@
       <c r="C186" s="0" t="s">
         <v>789</v>
       </c>
+      <c r="D186" s="0" t="s">
+        <v>1333</v>
+      </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="0" t="s">
@@ -7314,6 +7725,9 @@
       <c r="C187" s="0" t="s">
         <v>718</v>
       </c>
+      <c r="D187" s="0" t="s">
+        <v>1333</v>
+      </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="0" t="s">
@@ -7325,8 +7739,11 @@
       <c r="C188" s="0" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="189" spans="1:5">
+      <c r="D188" s="0" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="16.500000" hidden="1">
       <c r="A189" s="0" t="s">
         <v>460</v>
       </c>
@@ -7335,6 +7752,9 @@
       </c>
       <c r="C189" s="0" t="s">
         <v>775</v>
+      </c>
+      <c r="D189" s="0" t="s">
+        <v>1339</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -7398,6 +7818,9 @@
       <c r="C193" s="0" t="s">
         <v>773</v>
       </c>
+      <c r="D193" s="0" t="s">
+        <v>1351</v>
+      </c>
     </row>
     <row r="194" spans="1:5" ht="16.500000" hidden="1">
       <c r="A194" s="0" t="s">
@@ -7443,6 +7866,9 @@
       <c r="C196" s="0" t="s">
         <v>721</v>
       </c>
+      <c r="D196" s="0" t="s">
+        <v>1333</v>
+      </c>
     </row>
     <row r="197" spans="1:5" ht="16.500000" hidden="1">
       <c r="A197" s="0" t="s">
@@ -7471,6 +7897,9 @@
       <c r="C198" s="0" t="s">
         <v>722</v>
       </c>
+      <c r="D198" s="0" t="s">
+        <v>1351</v>
+      </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="0" t="s">
@@ -7482,6 +7911,9 @@
       <c r="C199" s="0" t="s">
         <v>801</v>
       </c>
+      <c r="D199" s="0" t="s">
+        <v>1333</v>
+      </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="0" t="s">
@@ -7493,8 +7925,11 @@
       <c r="C200" s="0" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="201" spans="1:5">
+      <c r="D200" s="0" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="16.500000" hidden="1">
       <c r="A201" s="0" t="s">
         <v>359</v>
       </c>
@@ -7503,6 +7938,9 @@
       </c>
       <c r="C201" s="0" t="s">
         <v>724</v>
+      </c>
+      <c r="D201" s="0" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -7515,6 +7953,9 @@
       <c r="C202" s="0" t="s">
         <v>554</v>
       </c>
+      <c r="D202" s="0" t="s">
+        <v>1333</v>
+      </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="0" t="s">
@@ -7526,8 +7967,11 @@
       <c r="C203" s="0" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="204" spans="1:5">
+      <c r="D203" s="0" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="16.500000" hidden="1">
       <c r="A204" s="0" t="s">
         <v>148</v>
       </c>
@@ -7536,6 +7980,9 @@
       </c>
       <c r="C204" s="0" t="s">
         <v>614</v>
+      </c>
+      <c r="D204" s="0" t="s">
+        <v>1339</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="16.500000" hidden="1">
@@ -7555,7 +8002,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" ht="16.500000" hidden="1">
       <c r="A206" s="0" t="s">
         <v>361</v>
       </c>
@@ -7565,8 +8012,11 @@
       <c r="C206" s="0" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="207" spans="1:5">
+      <c r="D206" s="0" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="16.500000" hidden="1">
       <c r="A207" s="0" t="s">
         <v>363</v>
       </c>
@@ -7576,8 +8026,11 @@
       <c r="C207" s="0" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="208" spans="1:5">
+      <c r="D207" s="0" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="16.500000" hidden="1">
       <c r="A208" s="0" t="s">
         <v>365</v>
       </c>
@@ -7587,8 +8040,11 @@
       <c r="C208" s="0" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="209" spans="1:5">
+      <c r="D208" s="0" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="16.500000" hidden="1">
       <c r="A209" s="0" t="s">
         <v>112</v>
       </c>
@@ -7597,6 +8053,12 @@
       </c>
       <c r="C209" s="0" t="s">
         <v>596</v>
+      </c>
+      <c r="D209" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E209" s="0" t="s">
+        <v>1341</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -7609,6 +8071,9 @@
       <c r="C210" s="0" t="s">
         <v>730</v>
       </c>
+      <c r="D210" s="0" t="s">
+        <v>1333</v>
+      </c>
     </row>
     <row r="211" spans="1:5" ht="16.500000" hidden="1">
       <c r="A211" s="0" t="s">
@@ -7637,8 +8102,11 @@
       <c r="C212" s="0" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="213" spans="1:5">
+      <c r="D212" s="0" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="16.500000" hidden="1">
       <c r="A213" s="0" t="s">
         <v>462</v>
       </c>
@@ -7647,6 +8115,9 @@
       </c>
       <c r="C213" s="0" t="s">
         <v>776</v>
+      </c>
+      <c r="D213" s="0" t="s">
+        <v>1339</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -7683,7 +8154,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" ht="16.500000" hidden="1">
       <c r="A216" s="0" t="s">
         <v>418</v>
       </c>
@@ -7692,6 +8163,9 @@
       </c>
       <c r="C216" s="0" t="s">
         <v>756</v>
+      </c>
+      <c r="D216" s="0" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -7704,6 +8178,9 @@
       <c r="C217" s="0" t="s">
         <v>852</v>
       </c>
+      <c r="D217" s="0" t="s">
+        <v>1333</v>
+      </c>
     </row>
     <row r="218" spans="1:5" ht="16.500000" hidden="1">
       <c r="A218" s="0" t="s">
@@ -7732,6 +8209,9 @@
       <c r="C219" s="0" t="s">
         <v>734</v>
       </c>
+      <c r="D219" s="0" t="s">
+        <v>1351</v>
+      </c>
     </row>
     <row r="220" spans="1:5" ht="16.500000" hidden="1">
       <c r="A220" s="0" t="s">
@@ -7794,8 +8274,11 @@
       <c r="C223" s="0" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="224" spans="1:5">
+      <c r="D223" s="0" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="16.500000" hidden="1">
       <c r="A224" s="0" t="s">
         <v>491</v>
       </c>
@@ -7804,6 +8287,9 @@
       </c>
       <c r="C224" s="0" t="s">
         <v>791</v>
+      </c>
+      <c r="D224" s="0" t="s">
+        <v>1339</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="16.500000" hidden="1">
@@ -7833,6 +8319,9 @@
       <c r="C226" s="0" t="s">
         <v>797</v>
       </c>
+      <c r="D226" s="0" t="s">
+        <v>1350</v>
+      </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="0" t="s">
@@ -7844,6 +8333,9 @@
       <c r="C227" s="0" t="s">
         <v>603</v>
       </c>
+      <c r="D227" s="0" t="s">
+        <v>1333</v>
+      </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="0" t="s">
@@ -7855,6 +8347,9 @@
       <c r="C228" s="0" t="s">
         <v>735</v>
       </c>
+      <c r="D228" s="0" t="s">
+        <v>1333</v>
+      </c>
     </row>
     <row r="229" spans="1:5" ht="16.500000" hidden="1">
       <c r="A229" s="0" t="s">
@@ -7873,7 +8368,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" ht="16.500000" hidden="1">
       <c r="A230" s="0" t="s">
         <v>379</v>
       </c>
@@ -7883,8 +8378,11 @@
       <c r="C230" s="0" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="231" spans="1:5">
+      <c r="D230" s="0" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="16.500000" hidden="1">
       <c r="A231" s="0" t="s">
         <v>449</v>
       </c>
@@ -7893,6 +8391,9 @@
       </c>
       <c r="C231" s="0" t="s">
         <v>770</v>
+      </c>
+      <c r="D231" s="0" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -7905,8 +8406,11 @@
       <c r="C232" s="0" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="233" spans="1:5">
+      <c r="D232" s="0" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="16.500000" hidden="1">
       <c r="A233" s="0" t="s">
         <v>383</v>
       </c>
@@ -7916,8 +8420,11 @@
       <c r="C233" s="0" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="234" spans="1:5">
+      <c r="D233" s="0" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="16.500000" hidden="1">
       <c r="A234" s="0" t="s">
         <v>387</v>
       </c>
@@ -7927,8 +8434,11 @@
       <c r="C234" s="0" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="235" spans="1:5">
+      <c r="D234" s="0" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="16.500000" hidden="1">
       <c r="A235" s="0" t="s">
         <v>385</v>
       </c>
@@ -7938,8 +8448,11 @@
       <c r="C235" s="0" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="236" spans="1:5">
+      <c r="D235" s="0" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="16.500000" hidden="1">
       <c r="A236" s="0" t="s">
         <v>389</v>
       </c>
@@ -7949,8 +8462,11 @@
       <c r="C236" s="0" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="237" spans="1:5">
+      <c r="D236" s="0" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="16.500000" hidden="1">
       <c r="A237" s="0" t="s">
         <v>391</v>
       </c>
@@ -7959,6 +8475,9 @@
       </c>
       <c r="C237" s="0" t="s">
         <v>743</v>
+      </c>
+      <c r="D237" s="0" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -7971,8 +8490,11 @@
       <c r="C238" s="0" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="239" spans="1:5">
+      <c r="D238" s="0" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="16.500000" hidden="1">
       <c r="A239" s="0" t="s">
         <v>420</v>
       </c>
@@ -7981,6 +8503,9 @@
       </c>
       <c r="C239" s="0" t="s">
         <v>757</v>
+      </c>
+      <c r="D239" s="0" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -7993,6 +8518,9 @@
       <c r="C240" s="0" t="s">
         <v>744</v>
       </c>
+      <c r="D240" s="0" t="s">
+        <v>1351</v>
+      </c>
     </row>
     <row r="241" spans="1:5" ht="16.500000" hidden="1">
       <c r="A241" s="0" t="s">
@@ -8021,6 +8549,9 @@
       <c r="C242" s="0" t="s">
         <v>746</v>
       </c>
+      <c r="D242" s="0" t="s">
+        <v>1333</v>
+      </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="0" t="s">
@@ -8032,6 +8563,9 @@
       <c r="C243" s="0" t="s">
         <v>598</v>
       </c>
+      <c r="D243" s="0" t="s">
+        <v>1333</v>
+      </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="0" t="s">
@@ -8043,6 +8577,9 @@
       <c r="C244" s="0" t="s">
         <v>601</v>
       </c>
+      <c r="D244" s="0" t="s">
+        <v>1333</v>
+      </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="0" t="s">
@@ -8054,6 +8591,9 @@
       <c r="C245" s="0" t="s">
         <v>803</v>
       </c>
+      <c r="D245" s="0" t="s">
+        <v>1351</v>
+      </c>
     </row>
     <row r="246" spans="1:5" ht="16.500000" hidden="1">
       <c r="A246" s="0" t="s">
@@ -8089,7 +8629,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" ht="16.500000" hidden="1">
       <c r="A248" s="0" t="s">
         <v>441</v>
       </c>
@@ -8099,8 +8639,11 @@
       <c r="C248" s="0" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="249" spans="1:5">
+      <c r="D248" s="0" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="16.500000" hidden="1">
       <c r="A249" s="0" t="s">
         <v>424</v>
       </c>
@@ -8110,8 +8653,11 @@
       <c r="C249" s="0" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="250" spans="1:5">
+      <c r="D249" s="0" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="16.500000" hidden="1">
       <c r="A250" s="0" t="s">
         <v>401</v>
       </c>
@@ -8120,6 +8666,9 @@
       </c>
       <c r="C250" s="0" t="s">
         <v>748</v>
+      </c>
+      <c r="D250" s="0" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="16.500000" hidden="1">
@@ -8149,6 +8698,9 @@
       <c r="C252" s="0" t="s">
         <v>749</v>
       </c>
+      <c r="D252" s="0" t="s">
+        <v>1333</v>
+      </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="0" t="s">
@@ -8160,8 +8712,11 @@
       <c r="C253" s="0" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="254" spans="1:5">
+      <c r="D253" s="0" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="16.500000" hidden="1">
       <c r="A254" s="0" t="s">
         <v>405</v>
       </c>
@@ -8171,8 +8726,14 @@
       <c r="C254" s="0" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="255" spans="1:5">
+      <c r="D254" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E254" s="0" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="16.500000" hidden="1">
       <c r="A255" s="0" t="s">
         <v>407</v>
       </c>
@@ -8182,8 +8743,11 @@
       <c r="C255" s="0" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="256" spans="1:5">
+      <c r="D255" s="0" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="16.500000" hidden="1">
       <c r="A256" s="0" t="s">
         <v>150</v>
       </c>
@@ -8192,6 +8756,9 @@
       </c>
       <c r="C256" s="0" t="s">
         <v>615</v>
+      </c>
+      <c r="D256" s="0" t="s">
+        <v>1339</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="16.500000" hidden="1">
@@ -8228,7 +8795,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" ht="16.500000" hidden="1">
       <c r="A259" s="0" t="s">
         <v>120</v>
       </c>
@@ -8238,8 +8805,11 @@
       <c r="C259" s="0" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="260" spans="1:5">
+      <c r="D259" s="0" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="16.500000" hidden="1">
       <c r="A260" s="0" t="s">
         <v>409</v>
       </c>
@@ -8249,8 +8819,11 @@
       <c r="C260" s="0" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="261" spans="1:5">
+      <c r="D260" s="0" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="16.500000" hidden="1">
       <c r="A261" s="0" t="s">
         <v>411</v>
       </c>
@@ -8259,12 +8832,15 @@
       </c>
       <c r="C261" s="0" t="s">
         <v>753</v>
+      </c>
+      <c r="D261" s="0" t="s">
+        <v>1345</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E261">
     <filterColumn colId="3">
-      <filters blank="1">
+      <filters>
         <filter val="All"/>
         <filter val="미등장"/>
       </filters>
@@ -8283,8 +8859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D162"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -8336,7 +8912,7 @@
         <v>929</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1156</v>
+        <v>1352</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1274</v>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4901,7 +4901,7 @@
   <dimension ref="A1:E261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -4964,7 +4964,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.500000" hidden="1">
+    <row r="4" spans="1:5">
       <c r="A4" s="0" t="s">
         <v>177</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="16.500000" hidden="1">
       <c r="A5" s="0" t="s">
         <v>179</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.500000" hidden="1">
+    <row r="6" spans="1:5">
       <c r="A6" s="0" t="s">
         <v>466</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="16.500000" hidden="1">
       <c r="A7" s="0" t="s">
         <v>181</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.500000" hidden="1">
+    <row r="8" spans="1:5">
       <c r="A8" s="0" t="s">
         <v>475</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.500000" hidden="1">
+    <row r="9" spans="1:5">
       <c r="A9" s="0" t="s">
         <v>477</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="16.500000" hidden="1">
       <c r="A11" s="0" t="s">
         <v>183</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="16.500000" hidden="1">
       <c r="A13" s="0" t="s">
         <v>20</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="16.500000" hidden="1">
       <c r="A14" s="0" t="s">
         <v>185</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16.500000" hidden="1">
+    <row r="15" spans="1:5">
       <c r="A15" s="0" t="s">
         <v>427</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16.500000" hidden="1">
+    <row r="16" spans="1:5">
       <c r="A16" s="0" t="s">
         <v>468</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.500000" hidden="1">
+    <row r="17" spans="1:5">
       <c r="A17" s="0" t="s">
         <v>508</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" ht="16.500000" hidden="1">
       <c r="A19" s="0" t="s">
         <v>189</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="16.500000" hidden="1">
       <c r="A20" s="0" t="s">
         <v>12</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16.500000" hidden="1">
+    <row r="21" spans="1:5">
       <c r="A21" s="0" t="s">
         <v>191</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" ht="16.500000" hidden="1">
       <c r="A23" s="0" t="s">
         <v>66</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16.500000" hidden="1">
+    <row r="24" spans="1:5">
       <c r="A24" s="0" t="s">
         <v>429</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" ht="16.500000" hidden="1">
       <c r="A27" s="0" t="s">
         <v>197</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" ht="16.500000" hidden="1">
       <c r="A28" s="0" t="s">
         <v>199</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16.500000" hidden="1">
+    <row r="29" spans="1:5">
       <c r="A29" s="0" t="s">
         <v>201</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16.500000" hidden="1">
+    <row r="31" spans="1:5">
       <c r="A31" s="0" t="s">
         <v>445</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="16.500000" hidden="1">
+    <row r="32" spans="1:5">
       <c r="A32" s="0" t="s">
         <v>203</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.500000" hidden="1">
+    <row r="33" spans="1:5">
       <c r="A33" s="0" t="s">
         <v>457</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" ht="16.500000" hidden="1">
       <c r="A40" s="0" t="s">
         <v>213</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="16.500000" hidden="1">
+    <row r="41" spans="1:5">
       <c r="A41" s="0" t="s">
         <v>215</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" ht="16.500000" hidden="1">
       <c r="A44" s="0" t="s">
         <v>219</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16.500000" hidden="1">
+    <row r="45" spans="1:5">
       <c r="A45" s="0" t="s">
         <v>221</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" ht="16.500000" hidden="1">
       <c r="A46" s="0" t="s">
         <v>479</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="16.500000" hidden="1">
+    <row r="48" spans="1:5">
       <c r="A48" s="0" t="s">
         <v>223</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" ht="16.500000" hidden="1">
       <c r="A49" s="0" t="s">
         <v>225</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" ht="16.500000" hidden="1">
       <c r="A51" s="0" t="s">
         <v>431</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" ht="16.500000" hidden="1">
       <c r="A53" s="0" t="s">
         <v>78</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" ht="16.500000" hidden="1">
       <c r="A54" s="0" t="s">
         <v>144</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="16.500000" hidden="1">
+    <row r="57" spans="1:5">
       <c r="A57" s="0" t="s">
         <v>231</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="16.500000" hidden="1">
+    <row r="58" spans="1:5">
       <c r="A58" s="0" t="s">
         <v>233</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" ht="16.500000" hidden="1">
       <c r="A59" s="0" t="s">
         <v>16</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="16.500000" hidden="1">
+    <row r="60" spans="1:5">
       <c r="A60" s="0" t="s">
         <v>447</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" ht="16.500000" hidden="1">
       <c r="A61" s="0" t="s">
         <v>168</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" ht="16.500000" hidden="1">
       <c r="A62" s="0" t="s">
         <v>235</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="16.500000" hidden="1">
+    <row r="63" spans="1:5">
       <c r="A63" s="0" t="s">
         <v>237</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="16.500000" hidden="1">
+    <row r="65" spans="1:5">
       <c r="A65" s="0" t="s">
         <v>239</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" ht="16.500000" hidden="1">
       <c r="A69" s="0" t="s">
         <v>170</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="16.500000" hidden="1">
+    <row r="70" spans="1:5">
       <c r="A70" s="0" t="s">
         <v>422</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="16.500000" hidden="1">
+    <row r="72" spans="1:5">
       <c r="A72" s="0" t="s">
         <v>241</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="16.500000" hidden="1">
+    <row r="73" spans="1:5">
       <c r="A73" s="0" t="s">
         <v>243</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" ht="16.500000" hidden="1">
       <c r="A74" s="0" t="s">
         <v>24</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="16.500000" hidden="1">
+    <row r="77" spans="1:5">
       <c r="A77" s="0" t="s">
         <v>245</v>
       </c>
@@ -6084,7 +6084,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="16.500000" hidden="1">
+    <row r="78" spans="1:5">
       <c r="A78" s="0" t="s">
         <v>247</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="16.500000" hidden="1">
+    <row r="79" spans="1:5">
       <c r="A79" s="0" t="s">
         <v>470</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" ht="16.500000" hidden="1">
       <c r="A81" s="0" t="s">
         <v>249</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="16.500000" hidden="1">
+    <row r="82" spans="1:5">
       <c r="A82" s="0" t="s">
         <v>251</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="16.500000" hidden="1">
+    <row r="83" spans="1:5">
       <c r="A83" s="0" t="s">
         <v>253</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" ht="16.500000" hidden="1">
       <c r="A84" s="0" t="s">
         <v>255</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" ht="16.500000" hidden="1">
       <c r="A85" s="0" t="s">
         <v>257</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" ht="16.500000" hidden="1">
       <c r="A86" s="0" t="s">
         <v>259</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" ht="16.500000" hidden="1">
       <c r="A87" s="0" t="s">
         <v>261</v>
       </c>
@@ -6261,7 +6261,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" ht="16.500000" hidden="1">
       <c r="A90" s="0" t="s">
         <v>273</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="16.500000" hidden="1">
+    <row r="91" spans="1:5">
       <c r="A91" s="0" t="s">
         <v>265</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" ht="16.500000" hidden="1">
       <c r="A92" s="0" t="s">
         <v>267</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="16.500000" hidden="1">
+    <row r="93" spans="1:5">
       <c r="A93" s="0" t="s">
         <v>269</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="16.500000" hidden="1">
+    <row r="95" spans="1:5">
       <c r="A95" s="0" t="s">
         <v>464</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" ht="16.500000" hidden="1">
       <c r="A96" s="0" t="s">
         <v>271</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" ht="16.500000" hidden="1">
       <c r="A97" s="0" t="s">
         <v>84</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="16.500000" hidden="1">
+    <row r="98" spans="1:5">
       <c r="A98" s="0" t="s">
         <v>485</v>
       </c>
@@ -6407,7 +6407,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="16.500000" hidden="1">
+    <row r="100" spans="1:5">
       <c r="A100" s="0" t="s">
         <v>443</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" ht="16.500000" hidden="1">
       <c r="A101" s="0" t="s">
         <v>275</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="16.500000" hidden="1">
+    <row r="102" spans="1:5">
       <c r="A102" s="0" t="s">
         <v>481</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" ht="16.500000" hidden="1">
       <c r="A104" s="0" t="s">
         <v>86</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" ht="16.500000" hidden="1">
       <c r="A106" s="0" t="s">
         <v>152</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="16.500000" hidden="1">
+    <row r="107" spans="1:5">
       <c r="A107" s="0" t="s">
         <v>283</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" ht="16.500000" hidden="1">
       <c r="A108" s="0" t="s">
         <v>277</v>
       </c>
@@ -6590,7 +6590,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" ht="16.500000" hidden="1">
       <c r="A112" s="0" t="s">
         <v>88</v>
       </c>
@@ -6604,7 +6604,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="16.500000" hidden="1">
+    <row r="113" spans="1:5">
       <c r="A113" s="0" t="s">
         <v>164</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" ht="16.500000" hidden="1">
       <c r="A114" s="0" t="s">
         <v>30</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" ht="16.500000" hidden="1">
       <c r="A117" s="0" t="s">
         <v>154</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" ht="16.500000" hidden="1">
       <c r="A118" s="0" t="s">
         <v>510</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="16.500000" hidden="1">
+    <row r="119" spans="1:5">
       <c r="A119" s="0" t="s">
         <v>287</v>
       </c>
@@ -6708,7 +6708,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="16.500000" hidden="1">
+    <row r="120" spans="1:5">
       <c r="A120" s="0" t="s">
         <v>433</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="16.500000" hidden="1">
+    <row r="121" spans="1:5">
       <c r="A121" s="0" t="s">
         <v>289</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="16.500000" hidden="1">
+    <row r="123" spans="1:5">
       <c r="A123" s="0" t="s">
         <v>451</v>
       </c>
@@ -6767,7 +6767,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" ht="16.500000" hidden="1">
       <c r="A124" s="0" t="s">
         <v>291</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" ht="16.500000" hidden="1">
       <c r="A125" s="0" t="s">
         <v>518</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" ht="16.500000" hidden="1">
       <c r="A127" s="0" t="s">
         <v>26</v>
       </c>
@@ -6826,7 +6826,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" ht="16.500000" hidden="1">
       <c r="A128" s="0" t="s">
         <v>522</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="16.500000" hidden="1">
+    <row r="130" spans="1:5">
       <c r="A130" s="0" t="s">
         <v>483</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="16.500000" hidden="1">
+    <row r="131" spans="1:5">
       <c r="A131" s="0" t="s">
         <v>295</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="16.500000" hidden="1">
+    <row r="133" spans="1:5">
       <c r="A133" s="0" t="s">
         <v>414</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="16.500000" hidden="1">
+    <row r="134" spans="1:5">
       <c r="A134" s="0" t="s">
         <v>10</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="16.500000" hidden="1">
+    <row r="136" spans="1:5">
       <c r="A136" s="0" t="s">
         <v>301</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" ht="16.500000" hidden="1">
       <c r="A137" s="0" t="s">
         <v>303</v>
       </c>
@@ -6975,7 +6975,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="16.500000" hidden="1">
+    <row r="138" spans="1:5">
       <c r="A138" s="0" t="s">
         <v>305</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="16.500000" hidden="1">
+    <row r="140" spans="1:5">
       <c r="A140" s="0" t="s">
         <v>307</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="16.500000" hidden="1">
+    <row r="142" spans="1:5">
       <c r="A142" s="0" t="s">
         <v>520</v>
       </c>
@@ -7068,7 +7068,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="16.500000" hidden="1">
+    <row r="144" spans="1:5">
       <c r="A144" s="0" t="s">
         <v>453</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="16.500000" hidden="1">
+    <row r="146" spans="1:5">
       <c r="A146" s="0" t="s">
         <v>437</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="16.500000" hidden="1">
+    <row r="148" spans="1:5">
       <c r="A148" s="0" t="s">
         <v>313</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" ht="16.500000" hidden="1">
       <c r="A149" s="0" t="s">
         <v>315</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="16.500000" hidden="1">
+    <row r="150" spans="1:5">
       <c r="A150" s="0" t="s">
         <v>317</v>
       </c>
@@ -7172,7 +7172,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" ht="16.500000" hidden="1">
       <c r="A151" s="0" t="s">
         <v>319</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="16.500000" hidden="1">
+    <row r="152" spans="1:5">
       <c r="A152" s="0" t="s">
         <v>321</v>
       </c>
@@ -7200,7 +7200,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="16.500000" hidden="1">
+    <row r="153" spans="1:5">
       <c r="A153" s="0" t="s">
         <v>435</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="16.500000" hidden="1">
+    <row r="154" spans="1:5">
       <c r="A154" s="0" t="s">
         <v>323</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="16.500000" hidden="1">
+    <row r="157" spans="1:5">
       <c r="A157" s="0" t="s">
         <v>327</v>
       </c>
@@ -7276,7 +7276,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" ht="16.500000" hidden="1">
       <c r="A158" s="0" t="s">
         <v>329</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" ht="16.500000" hidden="1">
       <c r="A159" s="0" t="s">
         <v>331</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="16.500000" hidden="1">
+    <row r="160" spans="1:5">
       <c r="A160" s="0" t="s">
         <v>333</v>
       </c>
@@ -7318,7 +7318,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" ht="16.500000" hidden="1">
       <c r="A161" s="0" t="s">
         <v>98</v>
       </c>
@@ -7349,7 +7349,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="16.500000" hidden="1">
+    <row r="163" spans="1:5">
       <c r="A163" s="0" t="s">
         <v>335</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="16.500000" hidden="1">
+    <row r="164" spans="1:5">
       <c r="A164" s="0" t="s">
         <v>100</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="16.500000" hidden="1">
+    <row r="165" spans="1:5">
       <c r="A165" s="0" t="s">
         <v>337</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="16.500000" hidden="1">
+    <row r="168" spans="1:5">
       <c r="A168" s="0" t="s">
         <v>439</v>
       </c>
@@ -7439,7 +7439,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" ht="16.500000" hidden="1">
       <c r="A169" s="0" t="s">
         <v>162</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" ht="16.500000" hidden="1">
       <c r="A170" s="0" t="s">
         <v>172</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" ht="16.500000" hidden="1">
       <c r="A172" s="0" t="s">
         <v>128</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="16.500000" hidden="1">
+    <row r="175" spans="1:5">
       <c r="A175" s="0" t="s">
         <v>341</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="16.500000" hidden="1">
+    <row r="177" spans="1:5">
       <c r="A177" s="0" t="s">
         <v>343</v>
       </c>
@@ -7611,7 +7611,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" ht="16.500000" hidden="1">
       <c r="A180" s="0" t="s">
         <v>146</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" ht="16.500000" hidden="1">
       <c r="A181" s="0" t="s">
         <v>345</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" ht="16.500000" hidden="1">
       <c r="A182" s="0" t="s">
         <v>506</v>
       </c>
@@ -7687,7 +7687,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="16.500000" hidden="1">
+    <row r="185" spans="1:5">
       <c r="A185" s="0" t="s">
         <v>472</v>
       </c>
@@ -7701,7 +7701,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" ht="16.500000" hidden="1">
       <c r="A186" s="0" t="s">
         <v>487</v>
       </c>
@@ -7715,7 +7715,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" ht="16.500000" hidden="1">
       <c r="A187" s="0" t="s">
         <v>347</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" ht="16.500000" hidden="1">
       <c r="A188" s="0" t="s">
         <v>142</v>
       </c>
@@ -7743,7 +7743,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="16.500000" hidden="1">
+    <row r="189" spans="1:5">
       <c r="A189" s="0" t="s">
         <v>460</v>
       </c>
@@ -7757,7 +7757,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" ht="16.500000" hidden="1">
       <c r="A190" s="0" t="s">
         <v>32</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" ht="16.500000" hidden="1">
       <c r="A193" s="0" t="s">
         <v>455</v>
       </c>
@@ -7856,7 +7856,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" ht="16.500000" hidden="1">
       <c r="A196" s="0" t="s">
         <v>353</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" ht="16.500000" hidden="1">
       <c r="A198" s="0" t="s">
         <v>355</v>
       </c>
@@ -7901,7 +7901,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" ht="16.500000" hidden="1">
       <c r="A199" s="0" t="s">
         <v>512</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" ht="16.500000" hidden="1">
       <c r="A200" s="0" t="s">
         <v>357</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="16.500000" hidden="1">
+    <row r="201" spans="1:5">
       <c r="A201" s="0" t="s">
         <v>359</v>
       </c>
@@ -7943,7 +7943,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" ht="16.500000" hidden="1">
       <c r="A202" s="0" t="s">
         <v>36</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" ht="16.500000" hidden="1">
       <c r="A203" s="0" t="s">
         <v>514</v>
       </c>
@@ -7971,7 +7971,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="16.500000" hidden="1">
+    <row r="204" spans="1:5">
       <c r="A204" s="0" t="s">
         <v>148</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="16.500000" hidden="1">
+    <row r="206" spans="1:5">
       <c r="A206" s="0" t="s">
         <v>361</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="16.500000" hidden="1">
+    <row r="207" spans="1:5">
       <c r="A207" s="0" t="s">
         <v>363</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="16.500000" hidden="1">
+    <row r="208" spans="1:5">
       <c r="A208" s="0" t="s">
         <v>365</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" ht="16.500000" hidden="1">
       <c r="A210" s="0" t="s">
         <v>367</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" ht="16.500000" hidden="1">
       <c r="A212" s="0" t="s">
         <v>4</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="16.500000" hidden="1">
+    <row r="213" spans="1:5">
       <c r="A213" s="0" t="s">
         <v>462</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" ht="16.500000" hidden="1">
       <c r="A214" s="0" t="s">
         <v>28</v>
       </c>
@@ -8154,7 +8154,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="16.500000" hidden="1">
+    <row r="216" spans="1:5">
       <c r="A216" s="0" t="s">
         <v>418</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" ht="16.500000" hidden="1">
       <c r="A217" s="0" t="s">
         <v>371</v>
       </c>
@@ -8199,7 +8199,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" ht="16.500000" hidden="1">
       <c r="A219" s="0" t="s">
         <v>375</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" ht="16.500000" hidden="1">
       <c r="A223" s="0" t="s">
         <v>156</v>
       </c>
@@ -8278,7 +8278,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="16.500000" hidden="1">
+    <row r="224" spans="1:5">
       <c r="A224" s="0" t="s">
         <v>491</v>
       </c>
@@ -8309,7 +8309,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" ht="16.500000" hidden="1">
       <c r="A226" s="0" t="s">
         <v>504</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" ht="16.500000" hidden="1">
       <c r="A227" s="0" t="s">
         <v>126</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" ht="16.500000" hidden="1">
       <c r="A228" s="0" t="s">
         <v>377</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="16.500000" hidden="1">
+    <row r="230" spans="1:5">
       <c r="A230" s="0" t="s">
         <v>379</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="16.500000" hidden="1">
+    <row r="231" spans="1:5">
       <c r="A231" s="0" t="s">
         <v>449</v>
       </c>
@@ -8396,7 +8396,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" ht="16.500000" hidden="1">
       <c r="A232" s="0" t="s">
         <v>381</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="16.500000" hidden="1">
+    <row r="233" spans="1:5">
       <c r="A233" s="0" t="s">
         <v>383</v>
       </c>
@@ -8424,7 +8424,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="16.500000" hidden="1">
+    <row r="234" spans="1:5">
       <c r="A234" s="0" t="s">
         <v>387</v>
       </c>
@@ -8438,7 +8438,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="16.500000" hidden="1">
+    <row r="235" spans="1:5">
       <c r="A235" s="0" t="s">
         <v>385</v>
       </c>
@@ -8452,7 +8452,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="16.500000" hidden="1">
+    <row r="236" spans="1:5">
       <c r="A236" s="0" t="s">
         <v>389</v>
       </c>
@@ -8466,7 +8466,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="16.500000" hidden="1">
+    <row r="237" spans="1:5">
       <c r="A237" s="0" t="s">
         <v>391</v>
       </c>
@@ -8480,7 +8480,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" ht="16.500000" hidden="1">
       <c r="A238" s="0" t="s">
         <v>40</v>
       </c>
@@ -8494,7 +8494,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="16.500000" hidden="1">
+    <row r="239" spans="1:5">
       <c r="A239" s="0" t="s">
         <v>420</v>
       </c>
@@ -8508,7 +8508,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" ht="16.500000" hidden="1">
       <c r="A240" s="0" t="s">
         <v>393</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" ht="16.500000" hidden="1">
       <c r="A242" s="0" t="s">
         <v>397</v>
       </c>
@@ -8553,7 +8553,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" ht="16.500000" hidden="1">
       <c r="A243" s="0" t="s">
         <v>116</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" ht="16.500000" hidden="1">
       <c r="A244" s="0" t="s">
         <v>122</v>
       </c>
@@ -8581,7 +8581,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" ht="16.500000" hidden="1">
       <c r="A245" s="0" t="s">
         <v>516</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="16.500000" hidden="1">
+    <row r="248" spans="1:5">
       <c r="A248" s="0" t="s">
         <v>441</v>
       </c>
@@ -8643,7 +8643,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="16.500000" hidden="1">
+    <row r="249" spans="1:5">
       <c r="A249" s="0" t="s">
         <v>424</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="16.500000" hidden="1">
+    <row r="250" spans="1:5">
       <c r="A250" s="0" t="s">
         <v>401</v>
       </c>
@@ -8688,7 +8688,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" ht="16.500000" hidden="1">
       <c r="A252" s="0" t="s">
         <v>403</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" ht="16.500000" hidden="1">
       <c r="A253" s="0" t="s">
         <v>166</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="16.500000" hidden="1">
+    <row r="255" spans="1:5">
       <c r="A255" s="0" t="s">
         <v>407</v>
       </c>
@@ -8747,7 +8747,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="16.500000" hidden="1">
+    <row r="256" spans="1:5">
       <c r="A256" s="0" t="s">
         <v>150</v>
       </c>
@@ -8795,7 +8795,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="16.500000" hidden="1">
+    <row r="259" spans="1:5">
       <c r="A259" s="0" t="s">
         <v>120</v>
       </c>
@@ -8809,7 +8809,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="16.500000" hidden="1">
+    <row r="260" spans="1:5">
       <c r="A260" s="0" t="s">
         <v>409</v>
       </c>
@@ -8823,7 +8823,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="16.500000" hidden="1">
+    <row r="261" spans="1:5">
       <c r="A261" s="0" t="s">
         <v>411</v>
       </c>
@@ -8842,7 +8842,7 @@
     <filterColumn colId="3">
       <filters>
         <filter val="All"/>
-        <filter val="미등장"/>
+        <filter val="삭제"/>
       </filters>
     </filterColumn>
     <sortState ref="A2:E261">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="140" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="130" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="1353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="1354">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4092,6 +4092,9 @@
   </si>
   <si>
     <t>카자흐스탄</t>
+  </si>
+  <si>
+    <t>미등장</t>
   </si>
 </sst>
 </file>
@@ -4407,9 +4410,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4424,25 +4425,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4457,7 +4466,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4472,7 +4483,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -4487,13 +4500,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -4502,14 +4519,18 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4901,7 +4922,7 @@
   <dimension ref="A1:E261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -4964,7 +4985,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="16.500000" hidden="1">
       <c r="A4" s="0" t="s">
         <v>177</v>
       </c>
@@ -4978,7 +4999,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.500000" hidden="1">
+    <row r="5" spans="1:5">
       <c r="A5" s="0" t="s">
         <v>179</v>
       </c>
@@ -4992,7 +5013,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="16.500000" hidden="1">
       <c r="A6" s="0" t="s">
         <v>466</v>
       </c>
@@ -5006,7 +5027,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.500000" hidden="1">
+    <row r="7" spans="1:5">
       <c r="A7" s="0" t="s">
         <v>181</v>
       </c>
@@ -5020,7 +5041,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="16.500000" hidden="1">
       <c r="A8" s="0" t="s">
         <v>475</v>
       </c>
@@ -5034,7 +5055,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="16.500000" hidden="1">
       <c r="A9" s="0" t="s">
         <v>477</v>
       </c>
@@ -5065,7 +5086,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.500000" hidden="1">
+    <row r="11" spans="1:5">
       <c r="A11" s="0" t="s">
         <v>183</v>
       </c>
@@ -5096,7 +5117,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16.500000" hidden="1">
+    <row r="13" spans="1:5">
       <c r="A13" s="0" t="s">
         <v>20</v>
       </c>
@@ -5110,7 +5131,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16.500000" hidden="1">
+    <row r="14" spans="1:5">
       <c r="A14" s="0" t="s">
         <v>185</v>
       </c>
@@ -5124,7 +5145,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" ht="16.500000" hidden="1">
       <c r="A15" s="0" t="s">
         <v>427</v>
       </c>
@@ -5138,7 +5159,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="16.500000" hidden="1">
       <c r="A16" s="0" t="s">
         <v>468</v>
       </c>
@@ -5152,7 +5173,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="16.500000" hidden="1">
       <c r="A17" s="0" t="s">
         <v>508</v>
       </c>
@@ -5183,7 +5204,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16.500000" hidden="1">
+    <row r="19" spans="1:5">
       <c r="A19" s="0" t="s">
         <v>189</v>
       </c>
@@ -5197,7 +5218,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16.500000" hidden="1">
+    <row r="20" spans="1:5">
       <c r="A20" s="0" t="s">
         <v>12</v>
       </c>
@@ -5211,7 +5232,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="16.500000" hidden="1">
       <c r="A21" s="0" t="s">
         <v>191</v>
       </c>
@@ -5242,7 +5263,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16.500000" hidden="1">
+    <row r="23" spans="1:5">
       <c r="A23" s="0" t="s">
         <v>66</v>
       </c>
@@ -5256,7 +5277,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" ht="16.500000" hidden="1">
       <c r="A24" s="0" t="s">
         <v>429</v>
       </c>
@@ -5304,7 +5325,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="16.500000" hidden="1">
+    <row r="27" spans="1:5">
       <c r="A27" s="0" t="s">
         <v>197</v>
       </c>
@@ -5318,7 +5339,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16.500000" hidden="1">
+    <row r="28" spans="1:5">
       <c r="A28" s="0" t="s">
         <v>199</v>
       </c>
@@ -5332,7 +5353,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" ht="16.500000" hidden="1">
       <c r="A29" s="0" t="s">
         <v>201</v>
       </c>
@@ -5363,7 +5384,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" ht="16.500000" hidden="1">
       <c r="A31" s="0" t="s">
         <v>445</v>
       </c>
@@ -5377,7 +5398,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" ht="16.500000" hidden="1">
       <c r="A32" s="0" t="s">
         <v>203</v>
       </c>
@@ -5391,7 +5412,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" ht="16.500000" hidden="1">
       <c r="A33" s="0" t="s">
         <v>457</v>
       </c>
@@ -5507,7 +5528,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="16.500000" hidden="1">
+    <row r="40" spans="1:5">
       <c r="A40" s="0" t="s">
         <v>213</v>
       </c>
@@ -5524,7 +5545,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" ht="16.500000" hidden="1">
       <c r="A41" s="0" t="s">
         <v>215</v>
       </c>
@@ -5572,7 +5593,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="16.500000" hidden="1">
+    <row r="44" spans="1:5">
       <c r="A44" s="0" t="s">
         <v>219</v>
       </c>
@@ -5586,7 +5607,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" ht="16.500000" hidden="1">
       <c r="A45" s="0" t="s">
         <v>221</v>
       </c>
@@ -5600,7 +5621,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16.500000" hidden="1">
+    <row r="46" spans="1:5">
       <c r="A46" s="0" t="s">
         <v>479</v>
       </c>
@@ -5631,7 +5652,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" ht="16.500000" hidden="1">
       <c r="A48" s="0" t="s">
         <v>223</v>
       </c>
@@ -5645,7 +5666,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16.500000" hidden="1">
+    <row r="49" spans="1:5">
       <c r="A49" s="0" t="s">
         <v>225</v>
       </c>
@@ -5676,7 +5697,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="16.500000" hidden="1">
+    <row r="51" spans="1:5">
       <c r="A51" s="0" t="s">
         <v>431</v>
       </c>
@@ -5707,7 +5728,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16.500000" hidden="1">
+    <row r="53" spans="1:5">
       <c r="A53" s="0" t="s">
         <v>78</v>
       </c>
@@ -5721,7 +5742,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="16.500000" hidden="1">
+    <row r="54" spans="1:5">
       <c r="A54" s="0" t="s">
         <v>144</v>
       </c>
@@ -5769,7 +5790,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" ht="16.500000" hidden="1">
       <c r="A57" s="0" t="s">
         <v>231</v>
       </c>
@@ -5783,7 +5804,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" ht="16.500000" hidden="1">
       <c r="A58" s="0" t="s">
         <v>233</v>
       </c>
@@ -5797,7 +5818,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="16.500000" hidden="1">
+    <row r="59" spans="1:5">
       <c r="A59" s="0" t="s">
         <v>16</v>
       </c>
@@ -5811,7 +5832,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" ht="16.500000" hidden="1">
       <c r="A60" s="0" t="s">
         <v>447</v>
       </c>
@@ -5825,7 +5846,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="16.500000" hidden="1">
+    <row r="61" spans="1:5">
       <c r="A61" s="0" t="s">
         <v>168</v>
       </c>
@@ -5839,7 +5860,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="16.500000" hidden="1">
+    <row r="62" spans="1:5">
       <c r="A62" s="0" t="s">
         <v>235</v>
       </c>
@@ -5853,7 +5874,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" ht="16.500000" hidden="1">
       <c r="A63" s="0" t="s">
         <v>237</v>
       </c>
@@ -5895,7 +5916,7 @@
         <v>664</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>1345</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="16.500000" hidden="1">
@@ -5949,7 +5970,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="16.500000" hidden="1">
+    <row r="69" spans="1:5">
       <c r="A69" s="0" t="s">
         <v>170</v>
       </c>
@@ -5963,7 +5984,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" ht="16.500000" hidden="1">
       <c r="A70" s="0" t="s">
         <v>422</v>
       </c>
@@ -5994,7 +6015,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" ht="16.500000" hidden="1">
       <c r="A72" s="0" t="s">
         <v>241</v>
       </c>
@@ -6008,7 +6029,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" ht="16.500000" hidden="1">
       <c r="A73" s="0" t="s">
         <v>243</v>
       </c>
@@ -6022,7 +6043,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="16.500000" hidden="1">
+    <row r="74" spans="1:5">
       <c r="A74" s="0" t="s">
         <v>24</v>
       </c>
@@ -6070,7 +6091,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" ht="16.500000" hidden="1">
       <c r="A77" s="0" t="s">
         <v>245</v>
       </c>
@@ -6084,7 +6105,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" ht="16.500000" hidden="1">
       <c r="A78" s="0" t="s">
         <v>247</v>
       </c>
@@ -6098,7 +6119,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" ht="16.500000" hidden="1">
       <c r="A79" s="0" t="s">
         <v>470</v>
       </c>
@@ -6129,7 +6150,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="16.500000" hidden="1">
+    <row r="81" spans="1:5">
       <c r="A81" s="0" t="s">
         <v>249</v>
       </c>
@@ -6143,7 +6164,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" ht="16.500000" hidden="1">
       <c r="A82" s="0" t="s">
         <v>251</v>
       </c>
@@ -6157,7 +6178,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" ht="16.500000" hidden="1">
       <c r="A83" s="0" t="s">
         <v>253</v>
       </c>
@@ -6171,7 +6192,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="16.500000" hidden="1">
+    <row r="84" spans="1:5">
       <c r="A84" s="0" t="s">
         <v>255</v>
       </c>
@@ -6185,7 +6206,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="16.500000" hidden="1">
+    <row r="85" spans="1:5">
       <c r="A85" s="0" t="s">
         <v>257</v>
       </c>
@@ -6199,7 +6220,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="16.500000" hidden="1">
+    <row r="86" spans="1:5">
       <c r="A86" s="0" t="s">
         <v>259</v>
       </c>
@@ -6213,7 +6234,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="16.500000" hidden="1">
+    <row r="87" spans="1:5">
       <c r="A87" s="0" t="s">
         <v>261</v>
       </c>
@@ -6261,7 +6282,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="16.500000" hidden="1">
+    <row r="90" spans="1:5">
       <c r="A90" s="0" t="s">
         <v>273</v>
       </c>
@@ -6275,7 +6296,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" ht="16.500000" hidden="1">
       <c r="A91" s="0" t="s">
         <v>265</v>
       </c>
@@ -6289,7 +6310,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="16.500000" hidden="1">
+    <row r="92" spans="1:5">
       <c r="A92" s="0" t="s">
         <v>267</v>
       </c>
@@ -6303,7 +6324,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" ht="16.500000" hidden="1">
       <c r="A93" s="0" t="s">
         <v>269</v>
       </c>
@@ -6334,7 +6355,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" ht="16.500000" hidden="1">
       <c r="A95" s="0" t="s">
         <v>464</v>
       </c>
@@ -6348,7 +6369,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="16.500000" hidden="1">
+    <row r="96" spans="1:5">
       <c r="A96" s="0" t="s">
         <v>271</v>
       </c>
@@ -6362,7 +6383,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="16.500000" hidden="1">
+    <row r="97" spans="1:5">
       <c r="A97" s="0" t="s">
         <v>84</v>
       </c>
@@ -6376,7 +6397,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" ht="16.500000" hidden="1">
       <c r="A98" s="0" t="s">
         <v>485</v>
       </c>
@@ -6407,7 +6428,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" ht="16.500000" hidden="1">
       <c r="A100" s="0" t="s">
         <v>443</v>
       </c>
@@ -6421,7 +6442,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="16.500000" hidden="1">
+    <row r="101" spans="1:5">
       <c r="A101" s="0" t="s">
         <v>275</v>
       </c>
@@ -6435,7 +6456,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" ht="16.500000" hidden="1">
       <c r="A102" s="0" t="s">
         <v>481</v>
       </c>
@@ -6466,7 +6487,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="16.500000" hidden="1">
+    <row r="104" spans="1:5">
       <c r="A104" s="0" t="s">
         <v>86</v>
       </c>
@@ -6497,7 +6518,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="16.500000" hidden="1">
+    <row r="106" spans="1:5">
       <c r="A106" s="0" t="s">
         <v>152</v>
       </c>
@@ -6511,7 +6532,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" ht="16.500000" hidden="1">
       <c r="A107" s="0" t="s">
         <v>283</v>
       </c>
@@ -6525,7 +6546,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="16.500000" hidden="1">
+    <row r="108" spans="1:5">
       <c r="A108" s="0" t="s">
         <v>277</v>
       </c>
@@ -6590,7 +6611,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="16.500000" hidden="1">
+    <row r="112" spans="1:5">
       <c r="A112" s="0" t="s">
         <v>88</v>
       </c>
@@ -6604,7 +6625,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" ht="16.500000" hidden="1">
       <c r="A113" s="0" t="s">
         <v>164</v>
       </c>
@@ -6618,7 +6639,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="16.500000" hidden="1">
+    <row r="114" spans="1:5">
       <c r="A114" s="0" t="s">
         <v>30</v>
       </c>
@@ -6666,7 +6687,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="16.500000" hidden="1">
+    <row r="117" spans="1:5">
       <c r="A117" s="0" t="s">
         <v>154</v>
       </c>
@@ -6680,7 +6701,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="16.500000" hidden="1">
+    <row r="118" spans="1:5">
       <c r="A118" s="0" t="s">
         <v>510</v>
       </c>
@@ -6694,7 +6715,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" ht="16.500000" hidden="1">
       <c r="A119" s="0" t="s">
         <v>287</v>
       </c>
@@ -6708,7 +6729,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" ht="16.500000" hidden="1">
       <c r="A120" s="0" t="s">
         <v>433</v>
       </c>
@@ -6722,7 +6743,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" ht="16.500000" hidden="1">
       <c r="A121" s="0" t="s">
         <v>289</v>
       </c>
@@ -6753,7 +6774,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" ht="16.500000" hidden="1">
       <c r="A123" s="0" t="s">
         <v>451</v>
       </c>
@@ -6767,7 +6788,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="16.500000" hidden="1">
+    <row r="124" spans="1:5">
       <c r="A124" s="0" t="s">
         <v>291</v>
       </c>
@@ -6781,7 +6802,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="16.500000" hidden="1">
+    <row r="125" spans="1:5">
       <c r="A125" s="0" t="s">
         <v>518</v>
       </c>
@@ -6812,7 +6833,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="16.500000" hidden="1">
+    <row r="127" spans="1:5">
       <c r="A127" s="0" t="s">
         <v>26</v>
       </c>
@@ -6826,7 +6847,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="16.500000" hidden="1">
+    <row r="128" spans="1:5">
       <c r="A128" s="0" t="s">
         <v>522</v>
       </c>
@@ -6857,7 +6878,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" ht="16.500000" hidden="1">
       <c r="A130" s="0" t="s">
         <v>483</v>
       </c>
@@ -6871,7 +6892,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" ht="16.500000" hidden="1">
       <c r="A131" s="0" t="s">
         <v>295</v>
       </c>
@@ -6902,7 +6923,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" ht="16.500000" hidden="1">
       <c r="A133" s="0" t="s">
         <v>414</v>
       </c>
@@ -6916,7 +6937,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" ht="16.500000" hidden="1">
       <c r="A134" s="0" t="s">
         <v>10</v>
       </c>
@@ -6947,7 +6968,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" ht="16.500000" hidden="1">
       <c r="A136" s="0" t="s">
         <v>301</v>
       </c>
@@ -6961,7 +6982,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="16.500000" hidden="1">
+    <row r="137" spans="1:5">
       <c r="A137" s="0" t="s">
         <v>303</v>
       </c>
@@ -6975,7 +6996,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" ht="16.500000" hidden="1">
       <c r="A138" s="0" t="s">
         <v>305</v>
       </c>
@@ -7006,7 +7027,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" ht="16.500000" hidden="1">
       <c r="A140" s="0" t="s">
         <v>307</v>
       </c>
@@ -7037,7 +7058,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" ht="16.500000" hidden="1">
       <c r="A142" s="0" t="s">
         <v>520</v>
       </c>
@@ -7068,7 +7089,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" ht="16.500000" hidden="1">
       <c r="A144" s="0" t="s">
         <v>453</v>
       </c>
@@ -7099,7 +7120,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" ht="16.500000" hidden="1">
       <c r="A146" s="0" t="s">
         <v>437</v>
       </c>
@@ -7130,7 +7151,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" ht="16.500000" hidden="1">
       <c r="A148" s="0" t="s">
         <v>313</v>
       </c>
@@ -7144,7 +7165,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="16.500000" hidden="1">
+    <row r="149" spans="1:5">
       <c r="A149" s="0" t="s">
         <v>315</v>
       </c>
@@ -7158,7 +7179,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" ht="16.500000" hidden="1">
       <c r="A150" s="0" t="s">
         <v>317</v>
       </c>
@@ -7172,7 +7193,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="16.500000" hidden="1">
+    <row r="151" spans="1:5">
       <c r="A151" s="0" t="s">
         <v>319</v>
       </c>
@@ -7186,7 +7207,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" ht="16.500000" hidden="1">
       <c r="A152" s="0" t="s">
         <v>321</v>
       </c>
@@ -7200,7 +7221,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" ht="16.500000" hidden="1">
       <c r="A153" s="0" t="s">
         <v>435</v>
       </c>
@@ -7214,7 +7235,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" ht="16.500000" hidden="1">
       <c r="A154" s="0" t="s">
         <v>323</v>
       </c>
@@ -7262,7 +7283,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" ht="16.500000" hidden="1">
       <c r="A157" s="0" t="s">
         <v>327</v>
       </c>
@@ -7276,7 +7297,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="16.500000" hidden="1">
+    <row r="158" spans="1:5">
       <c r="A158" s="0" t="s">
         <v>329</v>
       </c>
@@ -7290,7 +7311,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="16.500000" hidden="1">
+    <row r="159" spans="1:5">
       <c r="A159" s="0" t="s">
         <v>331</v>
       </c>
@@ -7304,7 +7325,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" ht="16.500000" hidden="1">
       <c r="A160" s="0" t="s">
         <v>333</v>
       </c>
@@ -7318,7 +7339,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="16.500000" hidden="1">
+    <row r="161" spans="1:5">
       <c r="A161" s="0" t="s">
         <v>98</v>
       </c>
@@ -7349,7 +7370,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" ht="16.500000" hidden="1">
       <c r="A163" s="0" t="s">
         <v>335</v>
       </c>
@@ -7363,7 +7384,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" ht="16.500000" hidden="1">
       <c r="A164" s="0" t="s">
         <v>100</v>
       </c>
@@ -7377,7 +7398,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" ht="16.500000" hidden="1">
       <c r="A165" s="0" t="s">
         <v>337</v>
       </c>
@@ -7425,7 +7446,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" ht="16.500000" hidden="1">
       <c r="A168" s="0" t="s">
         <v>439</v>
       </c>
@@ -7439,7 +7460,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="16.500000" hidden="1">
+    <row r="169" spans="1:5">
       <c r="A169" s="0" t="s">
         <v>162</v>
       </c>
@@ -7453,7 +7474,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="16.500000" hidden="1">
+    <row r="170" spans="1:5">
       <c r="A170" s="0" t="s">
         <v>172</v>
       </c>
@@ -7484,7 +7505,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="16.500000" hidden="1">
+    <row r="172" spans="1:5">
       <c r="A172" s="0" t="s">
         <v>128</v>
       </c>
@@ -7532,7 +7553,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" ht="16.500000" hidden="1">
       <c r="A175" s="0" t="s">
         <v>341</v>
       </c>
@@ -7563,7 +7584,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" ht="16.500000" hidden="1">
       <c r="A177" s="0" t="s">
         <v>343</v>
       </c>
@@ -7611,7 +7632,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="16.500000" hidden="1">
+    <row r="180" spans="1:5">
       <c r="A180" s="0" t="s">
         <v>146</v>
       </c>
@@ -7625,7 +7646,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="16.500000" hidden="1">
+    <row r="181" spans="1:5">
       <c r="A181" s="0" t="s">
         <v>345</v>
       </c>
@@ -7639,7 +7660,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="16.500000" hidden="1">
+    <row r="182" spans="1:5">
       <c r="A182" s="0" t="s">
         <v>506</v>
       </c>
@@ -7687,7 +7708,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" ht="16.500000" hidden="1">
       <c r="A185" s="0" t="s">
         <v>472</v>
       </c>
@@ -7701,7 +7722,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="16.500000" hidden="1">
+    <row r="186" spans="1:5">
       <c r="A186" s="0" t="s">
         <v>487</v>
       </c>
@@ -7715,7 +7736,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="16.500000" hidden="1">
+    <row r="187" spans="1:5">
       <c r="A187" s="0" t="s">
         <v>347</v>
       </c>
@@ -7729,7 +7750,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="16.500000" hidden="1">
+    <row r="188" spans="1:5">
       <c r="A188" s="0" t="s">
         <v>142</v>
       </c>
@@ -7743,7 +7764,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" ht="16.500000" hidden="1">
       <c r="A189" s="0" t="s">
         <v>460</v>
       </c>
@@ -7757,7 +7778,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="16.500000" hidden="1">
+    <row r="190" spans="1:5">
       <c r="A190" s="0" t="s">
         <v>32</v>
       </c>
@@ -7808,7 +7829,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="16.500000" hidden="1">
+    <row r="193" spans="1:5">
       <c r="A193" s="0" t="s">
         <v>455</v>
       </c>
@@ -7856,7 +7877,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="16.500000" hidden="1">
+    <row r="196" spans="1:5">
       <c r="A196" s="0" t="s">
         <v>353</v>
       </c>
@@ -7887,7 +7908,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="16.500000" hidden="1">
+    <row r="198" spans="1:5">
       <c r="A198" s="0" t="s">
         <v>355</v>
       </c>
@@ -7901,7 +7922,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="16.500000" hidden="1">
+    <row r="199" spans="1:5">
       <c r="A199" s="0" t="s">
         <v>512</v>
       </c>
@@ -7915,7 +7936,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="16.500000" hidden="1">
+    <row r="200" spans="1:5">
       <c r="A200" s="0" t="s">
         <v>357</v>
       </c>
@@ -7929,7 +7950,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" ht="16.500000" hidden="1">
       <c r="A201" s="0" t="s">
         <v>359</v>
       </c>
@@ -7943,7 +7964,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="16.500000" hidden="1">
+    <row r="202" spans="1:5">
       <c r="A202" s="0" t="s">
         <v>36</v>
       </c>
@@ -7957,7 +7978,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="16.500000" hidden="1">
+    <row r="203" spans="1:5">
       <c r="A203" s="0" t="s">
         <v>514</v>
       </c>
@@ -7971,7 +7992,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" ht="16.500000" hidden="1">
       <c r="A204" s="0" t="s">
         <v>148</v>
       </c>
@@ -8002,7 +8023,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" ht="16.500000" hidden="1">
       <c r="A206" s="0" t="s">
         <v>361</v>
       </c>
@@ -8016,7 +8037,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" ht="16.500000" hidden="1">
       <c r="A207" s="0" t="s">
         <v>363</v>
       </c>
@@ -8030,7 +8051,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" ht="16.500000" hidden="1">
       <c r="A208" s="0" t="s">
         <v>365</v>
       </c>
@@ -8061,7 +8082,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="16.500000" hidden="1">
+    <row r="210" spans="1:5">
       <c r="A210" s="0" t="s">
         <v>367</v>
       </c>
@@ -8092,7 +8113,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="16.500000" hidden="1">
+    <row r="212" spans="1:5">
       <c r="A212" s="0" t="s">
         <v>4</v>
       </c>
@@ -8106,7 +8127,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" ht="16.500000" hidden="1">
       <c r="A213" s="0" t="s">
         <v>462</v>
       </c>
@@ -8120,7 +8141,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="16.500000" hidden="1">
+    <row r="214" spans="1:5">
       <c r="A214" s="0" t="s">
         <v>28</v>
       </c>
@@ -8154,7 +8175,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" ht="16.500000" hidden="1">
       <c r="A216" s="0" t="s">
         <v>418</v>
       </c>
@@ -8168,7 +8189,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="16.500000" hidden="1">
+    <row r="217" spans="1:5">
       <c r="A217" s="0" t="s">
         <v>371</v>
       </c>
@@ -8199,7 +8220,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="16.500000" hidden="1">
+    <row r="219" spans="1:5">
       <c r="A219" s="0" t="s">
         <v>375</v>
       </c>
@@ -8264,7 +8285,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="16.500000" hidden="1">
+    <row r="223" spans="1:5">
       <c r="A223" s="0" t="s">
         <v>156</v>
       </c>
@@ -8278,7 +8299,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" ht="16.500000" hidden="1">
       <c r="A224" s="0" t="s">
         <v>491</v>
       </c>
@@ -8309,7 +8330,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="16.500000" hidden="1">
+    <row r="226" spans="1:5">
       <c r="A226" s="0" t="s">
         <v>504</v>
       </c>
@@ -8323,7 +8344,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="16.500000" hidden="1">
+    <row r="227" spans="1:5">
       <c r="A227" s="0" t="s">
         <v>126</v>
       </c>
@@ -8337,7 +8358,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="16.500000" hidden="1">
+    <row r="228" spans="1:5">
       <c r="A228" s="0" t="s">
         <v>377</v>
       </c>
@@ -8368,7 +8389,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" ht="16.500000" hidden="1">
       <c r="A230" s="0" t="s">
         <v>379</v>
       </c>
@@ -8382,7 +8403,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" ht="16.500000" hidden="1">
       <c r="A231" s="0" t="s">
         <v>449</v>
       </c>
@@ -8396,7 +8417,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="16.500000" hidden="1">
+    <row r="232" spans="1:5">
       <c r="A232" s="0" t="s">
         <v>381</v>
       </c>
@@ -8410,7 +8431,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" ht="16.500000" hidden="1">
       <c r="A233" s="0" t="s">
         <v>383</v>
       </c>
@@ -8424,7 +8445,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" ht="16.500000" hidden="1">
       <c r="A234" s="0" t="s">
         <v>387</v>
       </c>
@@ -8438,7 +8459,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" ht="16.500000" hidden="1">
       <c r="A235" s="0" t="s">
         <v>385</v>
       </c>
@@ -8452,7 +8473,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" ht="16.500000" hidden="1">
       <c r="A236" s="0" t="s">
         <v>389</v>
       </c>
@@ -8466,7 +8487,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" ht="16.500000" hidden="1">
       <c r="A237" s="0" t="s">
         <v>391</v>
       </c>
@@ -8480,7 +8501,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="16.500000" hidden="1">
+    <row r="238" spans="1:5">
       <c r="A238" s="0" t="s">
         <v>40</v>
       </c>
@@ -8494,7 +8515,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" ht="16.500000" hidden="1">
       <c r="A239" s="0" t="s">
         <v>420</v>
       </c>
@@ -8508,7 +8529,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="16.500000" hidden="1">
+    <row r="240" spans="1:5">
       <c r="A240" s="0" t="s">
         <v>393</v>
       </c>
@@ -8539,7 +8560,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="16.500000" hidden="1">
+    <row r="242" spans="1:5">
       <c r="A242" s="0" t="s">
         <v>397</v>
       </c>
@@ -8553,7 +8574,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="16.500000" hidden="1">
+    <row r="243" spans="1:5">
       <c r="A243" s="0" t="s">
         <v>116</v>
       </c>
@@ -8567,7 +8588,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="16.500000" hidden="1">
+    <row r="244" spans="1:5">
       <c r="A244" s="0" t="s">
         <v>122</v>
       </c>
@@ -8581,7 +8602,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="16.500000" hidden="1">
+    <row r="245" spans="1:5">
       <c r="A245" s="0" t="s">
         <v>516</v>
       </c>
@@ -8629,7 +8650,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" ht="16.500000" hidden="1">
       <c r="A248" s="0" t="s">
         <v>441</v>
       </c>
@@ -8643,7 +8664,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" ht="16.500000" hidden="1">
       <c r="A249" s="0" t="s">
         <v>424</v>
       </c>
@@ -8657,7 +8678,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" ht="16.500000" hidden="1">
       <c r="A250" s="0" t="s">
         <v>401</v>
       </c>
@@ -8688,7 +8709,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="16.500000" hidden="1">
+    <row r="252" spans="1:5">
       <c r="A252" s="0" t="s">
         <v>403</v>
       </c>
@@ -8702,7 +8723,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="16.500000" hidden="1">
+    <row r="253" spans="1:5">
       <c r="A253" s="0" t="s">
         <v>166</v>
       </c>
@@ -8733,7 +8754,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" ht="16.500000" hidden="1">
       <c r="A255" s="0" t="s">
         <v>407</v>
       </c>
@@ -8747,7 +8768,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" ht="16.500000" hidden="1">
       <c r="A256" s="0" t="s">
         <v>150</v>
       </c>
@@ -8795,7 +8816,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" ht="16.500000" hidden="1">
       <c r="A259" s="0" t="s">
         <v>120</v>
       </c>
@@ -8809,7 +8830,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" ht="16.500000" hidden="1">
       <c r="A260" s="0" t="s">
         <v>409</v>
       </c>
@@ -8823,7 +8844,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" ht="16.500000" hidden="1">
       <c r="A261" s="0" t="s">
         <v>411</v>
       </c>
@@ -8842,7 +8863,7 @@
     <filterColumn colId="3">
       <filters>
         <filter val="All"/>
-        <filter val="삭제"/>
+        <filter val="미등장"/>
       </filters>
     </filterColumn>
     <sortState ref="A2:E261">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="1354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="1356">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4095,6 +4095,12 @@
   </si>
   <si>
     <t>미등장</t>
+  </si>
+  <si>
+    <t>삭제</t>
+  </si>
+  <si>
+    <t>삭제</t>
   </si>
 </sst>
 </file>
@@ -4922,7 +4928,7 @@
   <dimension ref="A1:E261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -4999,7 +5005,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="16.500000" hidden="1">
       <c r="A5" s="0" t="s">
         <v>179</v>
       </c>
@@ -5027,7 +5033,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="16.500000" hidden="1">
       <c r="A7" s="0" t="s">
         <v>181</v>
       </c>
@@ -5086,7 +5092,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="16.500000" hidden="1">
       <c r="A11" s="0" t="s">
         <v>183</v>
       </c>
@@ -5130,8 +5136,11 @@
       <c r="D13" s="0" t="s">
         <v>1351</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13" s="0" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.500000" hidden="1">
       <c r="A14" s="0" t="s">
         <v>185</v>
       </c>
@@ -5204,7 +5213,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" ht="16.500000" hidden="1">
       <c r="A19" s="0" t="s">
         <v>189</v>
       </c>
@@ -5215,7 +5224,7 @@
         <v>854</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>1333</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5263,7 +5272,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" ht="16.500000" hidden="1">
       <c r="A23" s="0" t="s">
         <v>66</v>
       </c>
@@ -5325,7 +5334,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" ht="16.500000" hidden="1">
       <c r="A27" s="0" t="s">
         <v>197</v>
       </c>
@@ -5593,7 +5602,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" ht="16.500000" hidden="1">
       <c r="A44" s="0" t="s">
         <v>219</v>
       </c>
@@ -5621,7 +5630,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" ht="16.500000" hidden="1">
       <c r="A46" s="0" t="s">
         <v>479</v>
       </c>
@@ -5666,7 +5675,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" ht="16.500000" hidden="1">
       <c r="A49" s="0" t="s">
         <v>225</v>
       </c>
@@ -5697,7 +5706,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" ht="16.500000" hidden="1">
       <c r="A51" s="0" t="s">
         <v>431</v>
       </c>
@@ -5728,7 +5737,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" ht="16.500000" hidden="1">
       <c r="A53" s="0" t="s">
         <v>78</v>
       </c>
@@ -5846,7 +5855,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" ht="16.500000" hidden="1">
       <c r="A61" s="0" t="s">
         <v>168</v>
       </c>
@@ -5857,10 +5866,10 @@
         <v>624</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="16.500000" hidden="1">
       <c r="A62" s="0" t="s">
         <v>235</v>
       </c>
@@ -5905,7 +5914,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" ht="16.500000" hidden="1">
       <c r="A65" s="0" t="s">
         <v>239</v>
       </c>
@@ -5970,7 +5979,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" ht="16.500000" hidden="1">
       <c r="A69" s="0" t="s">
         <v>170</v>
       </c>
@@ -6234,7 +6243,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" ht="16.500000" hidden="1">
       <c r="A87" s="0" t="s">
         <v>261</v>
       </c>
@@ -6282,7 +6291,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" ht="16.500000" hidden="1">
       <c r="A90" s="0" t="s">
         <v>273</v>
       </c>
@@ -6383,7 +6392,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" ht="16.500000" hidden="1">
       <c r="A97" s="0" t="s">
         <v>84</v>
       </c>
@@ -6442,7 +6451,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" ht="16.500000" hidden="1">
       <c r="A101" s="0" t="s">
         <v>275</v>
       </c>
@@ -6487,7 +6496,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" ht="16.500000" hidden="1">
       <c r="A104" s="0" t="s">
         <v>86</v>
       </c>
@@ -6611,7 +6620,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" ht="16.500000" hidden="1">
       <c r="A112" s="0" t="s">
         <v>88</v>
       </c>
@@ -6687,7 +6696,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" ht="16.500000" hidden="1">
       <c r="A117" s="0" t="s">
         <v>154</v>
       </c>
@@ -6701,7 +6710,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" ht="16.500000" hidden="1">
       <c r="A118" s="0" t="s">
         <v>510</v>
       </c>
@@ -6788,7 +6797,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" ht="16.500000" hidden="1">
       <c r="A124" s="0" t="s">
         <v>291</v>
       </c>
@@ -6802,7 +6811,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" ht="16.500000" hidden="1">
       <c r="A125" s="0" t="s">
         <v>518</v>
       </c>
@@ -6847,7 +6856,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" ht="16.500000" hidden="1">
       <c r="A128" s="0" t="s">
         <v>522</v>
       </c>
@@ -6982,7 +6991,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" ht="16.500000" hidden="1">
       <c r="A137" s="0" t="s">
         <v>303</v>
       </c>
@@ -7165,7 +7174,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" ht="16.500000" hidden="1">
       <c r="A149" s="0" t="s">
         <v>315</v>
       </c>
@@ -7297,7 +7306,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" ht="16.500000" hidden="1">
       <c r="A158" s="0" t="s">
         <v>329</v>
       </c>
@@ -7311,7 +7320,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" ht="16.500000" hidden="1">
       <c r="A159" s="0" t="s">
         <v>331</v>
       </c>
@@ -7322,7 +7331,7 @@
         <v>709</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>1333</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="16.500000" hidden="1">
@@ -7339,7 +7348,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" ht="16.500000" hidden="1">
       <c r="A161" s="0" t="s">
         <v>98</v>
       </c>
@@ -7460,7 +7469,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" ht="16.500000" hidden="1">
       <c r="A169" s="0" t="s">
         <v>162</v>
       </c>
@@ -7474,7 +7483,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" ht="16.500000" hidden="1">
       <c r="A170" s="0" t="s">
         <v>172</v>
       </c>
@@ -7505,7 +7514,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" ht="16.500000" hidden="1">
       <c r="A172" s="0" t="s">
         <v>128</v>
       </c>
@@ -7632,7 +7641,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" ht="16.500000" hidden="1">
       <c r="A180" s="0" t="s">
         <v>146</v>
       </c>
@@ -7646,7 +7655,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" ht="16.500000" hidden="1">
       <c r="A181" s="0" t="s">
         <v>345</v>
       </c>
@@ -7660,7 +7669,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" ht="16.500000" hidden="1">
       <c r="A182" s="0" t="s">
         <v>506</v>
       </c>
@@ -7722,7 +7731,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" ht="16.500000" hidden="1">
       <c r="A186" s="0" t="s">
         <v>487</v>
       </c>
@@ -7736,7 +7745,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" ht="16.500000" hidden="1">
       <c r="A187" s="0" t="s">
         <v>347</v>
       </c>
@@ -7750,7 +7759,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" ht="16.500000" hidden="1">
       <c r="A188" s="0" t="s">
         <v>142</v>
       </c>
@@ -7829,7 +7838,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" ht="16.500000" hidden="1">
       <c r="A193" s="0" t="s">
         <v>455</v>
       </c>
@@ -7877,7 +7886,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" ht="16.500000" hidden="1">
       <c r="A196" s="0" t="s">
         <v>353</v>
       </c>
@@ -7922,7 +7931,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" ht="16.500000" hidden="1">
       <c r="A199" s="0" t="s">
         <v>512</v>
       </c>
@@ -7933,7 +7942,7 @@
         <v>801</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>1333</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -7978,7 +7987,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" ht="16.500000" hidden="1">
       <c r="A203" s="0" t="s">
         <v>514</v>
       </c>
@@ -8113,7 +8122,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" ht="16.500000" hidden="1">
       <c r="A212" s="0" t="s">
         <v>4</v>
       </c>
@@ -8285,7 +8294,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" ht="16.500000" hidden="1">
       <c r="A223" s="0" t="s">
         <v>156</v>
       </c>
@@ -8330,7 +8339,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" ht="16.500000" hidden="1">
       <c r="A226" s="0" t="s">
         <v>504</v>
       </c>
@@ -8344,7 +8353,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" ht="16.500000" hidden="1">
       <c r="A227" s="0" t="s">
         <v>126</v>
       </c>
@@ -8358,7 +8367,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" ht="16.500000" hidden="1">
       <c r="A228" s="0" t="s">
         <v>377</v>
       </c>
@@ -8417,7 +8426,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" ht="16.500000" hidden="1">
       <c r="A232" s="0" t="s">
         <v>381</v>
       </c>
@@ -8501,7 +8510,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" ht="16.500000" hidden="1">
       <c r="A238" s="0" t="s">
         <v>40</v>
       </c>
@@ -8529,7 +8538,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" ht="16.500000" hidden="1">
       <c r="A240" s="0" t="s">
         <v>393</v>
       </c>
@@ -8574,7 +8583,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" ht="16.500000" hidden="1">
       <c r="A243" s="0" t="s">
         <v>116</v>
       </c>
@@ -8588,7 +8597,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" ht="16.500000" hidden="1">
       <c r="A244" s="0" t="s">
         <v>122</v>
       </c>
@@ -8602,7 +8611,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" ht="16.500000" hidden="1">
       <c r="A245" s="0" t="s">
         <v>516</v>
       </c>
@@ -8723,7 +8732,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" ht="16.500000" hidden="1">
       <c r="A253" s="0" t="s">
         <v>166</v>
       </c>
@@ -8734,7 +8743,7 @@
         <v>623</v>
       </c>
       <c r="D253" s="0" t="s">
-        <v>1333</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="16.500000" hidden="1">
@@ -8860,6 +8869,18 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E261">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="All"/>
+        <filter val="유럽"/>
+        <filter val="유럽(독일)"/>
+        <filter val="유럽(영국)"/>
+        <filter val="유럽(유고슬라비아)"/>
+        <filter val="유럽(이베리아)"/>
+        <filter val="유럽(이탈리아)"/>
+        <filter val="유럽(프랑스)"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3">
       <filters>
         <filter val="All"/>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="1356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="1357">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4095,6 +4095,9 @@
   </si>
   <si>
     <t>미등장</t>
+  </si>
+  <si>
+    <t>삭제</t>
   </si>
   <si>
     <t>삭제</t>
@@ -4928,7 +4931,7 @@
   <dimension ref="A1:E261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G106" sqref="G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5227,7 +5230,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="16.500000" hidden="1">
       <c r="A20" s="0" t="s">
         <v>12</v>
       </c>
@@ -5238,7 +5241,7 @@
         <v>542</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>1351</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.500000" hidden="1">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="1357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="1360">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4101,6 +4101,15 @@
   </si>
   <si>
     <t>삭제</t>
+  </si>
+  <si>
+    <t>삭제</t>
+  </si>
+  <si>
+    <t>유럽(이베리아)</t>
+  </si>
+  <si>
+    <t>갈리시아</t>
   </si>
   <si>
     <t>삭제</t>
@@ -4931,7 +4940,7 @@
   <dimension ref="A1:E261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G106" sqref="G106"/>
+      <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -6204,7 +6213,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" ht="16.500000" hidden="1">
       <c r="A84" s="0" t="s">
         <v>255</v>
       </c>
@@ -6215,7 +6224,7 @@
         <v>672</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>1351</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -6322,18 +6331,18 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" ht="16.500000" hidden="1">
       <c r="A92" s="0" t="s">
         <v>267</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>529</v>
+        <v>1357</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>677</v>
+        <v>1358</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>1351</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="16.500000" hidden="1">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="130" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="120" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="1360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="1362">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4113,6 +4113,12 @@
   </si>
   <si>
     <t>삭제</t>
+  </si>
+  <si>
+    <t>alemdwkd</t>
+  </si>
+  <si>
+    <t>미등장</t>
   </si>
 </sst>
 </file>
@@ -4428,7 +4434,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4443,33 +4451,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4484,9 +4484,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4501,9 +4499,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -4518,17 +4514,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -4537,18 +4529,14 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4940,7 +4928,7 @@
   <dimension ref="A1:E261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F108" sqref="F108"/>
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5239,7 +5227,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16.500000" hidden="1">
+    <row r="20" spans="1:5">
       <c r="A20" s="0" t="s">
         <v>12</v>
       </c>
@@ -5250,7 +5238,10 @@
         <v>542</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>1356</v>
+        <v>1361</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>1341</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.500000" hidden="1">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="120" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="110" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="1362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="1366">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4116,6 +4116,18 @@
   </si>
   <si>
     <t>alemdwkd</t>
+  </si>
+  <si>
+    <t>미등장</t>
+  </si>
+  <si>
+    <t>미등장</t>
+  </si>
+  <si>
+    <t>미등장</t>
+  </si>
+  <si>
+    <t>미등장</t>
   </si>
   <si>
     <t>미등장</t>
@@ -4434,9 +4446,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4451,25 +4461,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4484,7 +4502,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4499,7 +4519,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -4514,13 +4536,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -4529,14 +4555,18 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4928,7 +4958,7 @@
   <dimension ref="A1:E261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5213,7 +5243,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16.500000" hidden="1">
+    <row r="19" spans="1:5">
       <c r="A19" s="0" t="s">
         <v>189</v>
       </c>
@@ -5224,7 +5254,7 @@
         <v>854</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>1345</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5410,7 +5440,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="16.500000" hidden="1">
+    <row r="32" spans="1:5">
       <c r="A32" s="0" t="s">
         <v>203</v>
       </c>
@@ -5421,7 +5451,7 @@
         <v>644</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>1345</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="16.500000" hidden="1">
@@ -5858,7 +5888,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="16.500000" hidden="1">
+    <row r="61" spans="1:5">
       <c r="A61" s="0" t="s">
         <v>168</v>
       </c>
@@ -5869,7 +5899,7 @@
         <v>624</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>1354</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="16.500000" hidden="1">
@@ -7323,7 +7353,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="16.500000" hidden="1">
+    <row r="159" spans="1:5">
       <c r="A159" s="0" t="s">
         <v>331</v>
       </c>
@@ -7334,7 +7364,7 @@
         <v>709</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>1354</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="16.500000" hidden="1">
@@ -7382,7 +7412,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="16.500000" hidden="1">
+    <row r="163" spans="1:5">
       <c r="A163" s="0" t="s">
         <v>335</v>
       </c>
@@ -7393,7 +7423,7 @@
         <v>713</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>1345</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="16.500000" hidden="1">
@@ -7410,7 +7440,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="16.500000" hidden="1">
+    <row r="165" spans="1:5">
       <c r="A165" s="0" t="s">
         <v>337</v>
       </c>
@@ -7421,7 +7451,7 @@
         <v>712</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>1345</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="16.500000" hidden="1">
@@ -8735,7 +8765,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="16.500000" hidden="1">
+    <row r="253" spans="1:5">
       <c r="A253" s="0" t="s">
         <v>166</v>
       </c>
@@ -8746,7 +8776,7 @@
         <v>623</v>
       </c>
       <c r="D253" s="0" t="s">
-        <v>1355</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="16.500000" hidden="1">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="110" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="100" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="1366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="1369">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4131,6 +4131,15 @@
   </si>
   <si>
     <t>미등장</t>
+  </si>
+  <si>
+    <t>삭제</t>
+  </si>
+  <si>
+    <t>삭제</t>
+  </si>
+  <si>
+    <t>작센</t>
   </si>
 </sst>
 </file>
@@ -4446,7 +4455,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4461,33 +4472,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4502,9 +4505,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4519,9 +4520,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -4536,17 +4535,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -4555,18 +4550,14 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4958,7 +4949,7 @@
   <dimension ref="A1:E261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5254,7 +5245,10 @@
         <v>854</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>1362</v>
+        <v>1365</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>1341</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5440,7 +5434,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" ht="16.500000" hidden="1">
       <c r="A32" s="0" t="s">
         <v>203</v>
       </c>
@@ -5451,7 +5445,7 @@
         <v>644</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>1362</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="16.500000" hidden="1">
@@ -7361,7 +7355,7 @@
         <v>828</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>709</v>
+        <v>1368</v>
       </c>
       <c r="D159" s="0" t="s">
         <v>1363</v>
@@ -7412,7 +7406,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" ht="16.500000" hidden="1">
       <c r="A163" s="0" t="s">
         <v>335</v>
       </c>
@@ -7423,7 +7417,7 @@
         <v>713</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="16.500000" hidden="1">
@@ -7440,7 +7434,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" ht="16.500000" hidden="1">
       <c r="A165" s="0" t="s">
         <v>337</v>
       </c>
@@ -7451,7 +7445,7 @@
         <v>712</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>1364</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="16.500000" hidden="1">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="100" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="210" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="1369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="1371">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4140,6 +4140,12 @@
   </si>
   <si>
     <t>작센</t>
+  </si>
+  <si>
+    <t>대영제국</t>
+  </si>
+  <si>
+    <t>대영제국(괴뢰)</t>
   </si>
 </sst>
 </file>
@@ -4455,9 +4461,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4472,25 +4476,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4505,7 +4517,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4520,7 +4534,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -4535,13 +4551,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -4550,14 +4570,18 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4949,7 +4973,7 @@
   <dimension ref="A1:E261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81"/>
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -6250,7 +6274,7 @@
         <v>829</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>673</v>
+        <v>1370</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>1333</v>
@@ -6264,7 +6288,7 @@
         <v>829</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>673</v>
+        <v>1369</v>
       </c>
       <c r="D86" s="0" t="s">
         <v>1333</v>
@@ -8928,8 +8952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D162"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4973,7 +4973,7 @@
   <dimension ref="A1:E261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+      <selection activeCell="E202" sqref="E202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="210" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="200" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="1371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="1373">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4146,6 +4146,12 @@
   </si>
   <si>
     <t>대영제국(괴뢰)</t>
+  </si>
+  <si>
+    <t>미등장</t>
+  </si>
+  <si>
+    <t>미등장</t>
   </si>
 </sst>
 </file>
@@ -4461,7 +4467,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4476,33 +4484,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4517,9 +4517,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4534,9 +4532,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -4551,17 +4547,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -4570,18 +4562,14 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4973,7 +4961,7 @@
   <dimension ref="A1:E261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E202" sqref="E202"/>
+      <selection activeCell="F207" sqref="F207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -8097,7 +8085,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="16.500000" hidden="1">
+    <row r="207" spans="1:5">
       <c r="A207" s="0" t="s">
         <v>363</v>
       </c>
@@ -8108,7 +8096,7 @@
         <v>726</v>
       </c>
       <c r="D207" s="0" t="s">
-        <v>1342</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="16.500000" hidden="1">
@@ -8235,7 +8223,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="16.500000" hidden="1">
+    <row r="216" spans="1:5">
       <c r="A216" s="0" t="s">
         <v>418</v>
       </c>
@@ -8246,7 +8234,7 @@
         <v>756</v>
       </c>
       <c r="D216" s="0" t="s">
-        <v>1345</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -8724,7 +8712,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="16.500000" hidden="1">
+    <row r="249" spans="1:5">
       <c r="A249" s="0" t="s">
         <v>424</v>
       </c>
@@ -8735,7 +8723,7 @@
         <v>759</v>
       </c>
       <c r="D249" s="0" t="s">
-        <v>1345</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="16.500000" hidden="1">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="200" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="190" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -4467,9 +4467,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4484,25 +4482,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4517,7 +4523,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4532,7 +4540,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -4547,13 +4557,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -4562,14 +4576,18 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4961,7 +4979,7 @@
   <dimension ref="A1:E261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F207" sqref="F207"/>
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5399,6 +5417,9 @@
       </c>
       <c r="D28" s="0" t="s">
         <v>1333</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>1341</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16.500000" hidden="1">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4979,7 +4979,7 @@
   <dimension ref="A1:E261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+      <selection activeCell="L86" sqref="L86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5823,6 +5823,9 @@
       </c>
       <c r="D54" s="0" t="s">
         <v>1333</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>1341</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="16.500000" hidden="1">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="1373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="1376">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4152,6 +4152,15 @@
   </si>
   <si>
     <t>미등장</t>
+  </si>
+  <si>
+    <t>등장</t>
+  </si>
+  <si>
+    <t>미등장</t>
+  </si>
+  <si>
+    <t>체코슬로바키아</t>
   </si>
 </sst>
 </file>
@@ -4979,7 +4988,7 @@
   <dimension ref="A1:E261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L86" sqref="L86"/>
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5898,10 +5907,13 @@
         <v>529</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>544</v>
+        <v>1375</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>1351</v>
+        <v>1374</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>1341</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="16.500000" hidden="1">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4988,7 +4988,7 @@
   <dimension ref="A1:E261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+      <selection activeCell="C190" sqref="C190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="190" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="180" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -4476,7 +4476,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4491,33 +4493,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4532,9 +4526,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4549,9 +4541,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -4566,17 +4556,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -4585,18 +4571,14 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4988,7 +4970,7 @@
   <dimension ref="A1:E261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C190" sqref="C190"/>
+      <selection activeCell="G151" sqref="G151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5942,6 +5924,9 @@
       </c>
       <c r="D61" s="0" t="s">
         <v>1363</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>1341</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="16.500000" hidden="1">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="180" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="160" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -4970,7 +4970,7 @@
   <dimension ref="A1:E261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G151" sqref="G151"/>
+      <selection activeCell="E253" sqref="E253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -6125,6 +6125,9 @@
       <c r="D74" s="0" t="s">
         <v>1351</v>
       </c>
+      <c r="E74" s="0" t="s">
+        <v>1341</v>
+      </c>
     </row>
     <row r="75" spans="1:5" ht="16.500000" hidden="1">
       <c r="A75" s="0" t="s">
@@ -6232,6 +6235,9 @@
       <c r="D81" s="0" t="s">
         <v>1333</v>
       </c>
+      <c r="E81" s="0" t="s">
+        <v>1341</v>
+      </c>
     </row>
     <row r="82" spans="1:5" ht="16.500000" hidden="1">
       <c r="A82" s="0" t="s">
@@ -6288,6 +6294,9 @@
       <c r="D85" s="0" t="s">
         <v>1333</v>
       </c>
+      <c r="E85" s="0" t="s">
+        <v>1341</v>
+      </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="0" t="s">
@@ -6302,6 +6311,9 @@
       <c r="D86" s="0" t="s">
         <v>1333</v>
       </c>
+      <c r="E86" s="0" t="s">
+        <v>1341</v>
+      </c>
     </row>
     <row r="87" spans="1:5" ht="16.500000" hidden="1">
       <c r="A87" s="0" t="s">
@@ -6451,6 +6463,9 @@
       <c r="D96" s="0" t="s">
         <v>1333</v>
       </c>
+      <c r="E96" s="0" t="s">
+        <v>1341</v>
+      </c>
     </row>
     <row r="97" spans="1:5" ht="16.500000" hidden="1">
       <c r="A97" s="0" t="s">
@@ -6914,6 +6929,9 @@
       </c>
       <c r="D127" s="0" t="s">
         <v>1351</v>
+      </c>
+      <c r="E127" s="0" t="s">
+        <v>1341</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="16.500000" hidden="1">
@@ -8961,8 +8979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D162"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="160" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="150" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="새_텍스트_문서" localSheetId="0">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'국가 태그'!$A$1:$E$261</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'임시 태그'!$A$1:$D$162</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="1376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="1384">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4161,6 +4161,30 @@
   </si>
   <si>
     <t>체코슬로바키아</t>
+  </si>
+  <si>
+    <t>GBR_bra</t>
+  </si>
+  <si>
+    <t>영국 재건 협의회</t>
+  </si>
+  <si>
+    <t>CAN_britain</t>
+  </si>
+  <si>
+    <t>캐나다 자치령</t>
+  </si>
+  <si>
+    <t>GBR_britain</t>
+  </si>
+  <si>
+    <t>연합 왕국</t>
+  </si>
+  <si>
+    <t>CAF_britain</t>
+  </si>
+  <si>
+    <t>카리브 해 연방</t>
   </si>
 </sst>
 </file>
@@ -4476,9 +4500,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4493,25 +4515,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4526,7 +4556,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4541,7 +4573,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -4556,13 +4590,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -4571,14 +4609,18 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4969,7 +5011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E253" sqref="E253"/>
     </sheetView>
   </sheetViews>
@@ -8977,10 +9019,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D162"/>
+  <dimension ref="A1:D166"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150"/>
+    <sheetView topLeftCell="A34" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -9249,43 +9291,43 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>917</v>
+        <v>1382</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>1274</v>
+        <v>1383</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1300</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>879</v>
+        <v>917</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1170</v>
+        <v>649</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>880</v>
+        <v>1378</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>1275</v>
+        <v>1379</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1300</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>997</v>
+        <v>879</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>850</v>
+        <v>1170</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>1275</v>
@@ -9293,32 +9335,32 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>981</v>
+        <v>880</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>951</v>
+        <v>997</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1173</v>
+        <v>850</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>945</v>
+        <v>981</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>1274</v>
@@ -9326,10 +9368,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>657</v>
+        <v>1173</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>1274</v>
@@ -9337,10 +9379,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>966</v>
+        <v>945</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>1274</v>
@@ -9348,10 +9390,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>967</v>
+        <v>953</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>1274</v>
@@ -9359,21 +9401,21 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>867</v>
+        <v>967</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>611</v>
+        <v>658</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>1274</v>
@@ -9381,21 +9423,21 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>899</v>
+        <v>965</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>988</v>
+        <v>867</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>543</v>
+        <v>611</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>1274</v>
@@ -9403,10 +9445,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>987</v>
+        <v>899</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>543</v>
+        <v>1177</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>1274</v>
@@ -9414,10 +9456,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1178</v>
+        <v>543</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>1274</v>
@@ -9425,10 +9467,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>908</v>
+        <v>987</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1179</v>
+        <v>543</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>1274</v>
@@ -9436,10 +9478,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>1274</v>
@@ -9447,10 +9489,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>1006</v>
+        <v>908</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1278</v>
+        <v>1179</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>1274</v>
@@ -9458,10 +9500,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>971</v>
+        <v>993</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>1274</v>
@@ -9469,10 +9511,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>1279</v>
+        <v>1006</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>1274</v>
@@ -9480,10 +9522,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>901</v>
+        <v>971</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>1274</v>
@@ -9491,10 +9533,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>952</v>
+        <v>1279</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>671</v>
+        <v>1280</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>1274</v>
@@ -9502,10 +9544,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>878</v>
+        <v>901</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>1274</v>
@@ -9513,10 +9555,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>877</v>
+        <v>952</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1185</v>
+        <v>671</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>1274</v>
@@ -9524,10 +9566,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>924</v>
+        <v>878</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>1274</v>
@@ -9535,32 +9577,32 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>885</v>
+        <v>1376</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>1274</v>
+        <v>1377</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>1300</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>884</v>
+        <v>1380</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>1274</v>
+        <v>1381</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>1300</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>1274</v>
@@ -9568,10 +9610,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>949</v>
+        <v>924</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>676</v>
+        <v>1186</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>1274</v>
@@ -9579,21 +9621,21 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>999</v>
+        <v>884</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>1274</v>
@@ -9601,10 +9643,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>989</v>
+        <v>883</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>581</v>
+        <v>1189</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>1274</v>
@@ -9612,10 +9654,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>1007</v>
+        <v>949</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1192</v>
+        <v>676</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>1274</v>
@@ -9623,10 +9665,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>976</v>
+        <v>896</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>1275</v>
@@ -9634,10 +9676,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>876</v>
+        <v>999</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>1274</v>
@@ -9645,10 +9687,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>919</v>
+        <v>989</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1195</v>
+        <v>581</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>1274</v>
@@ -9656,32 +9698,32 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>918</v>
+        <v>1007</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>868</v>
+        <v>976</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>611</v>
+        <v>1193</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>866</v>
+        <v>876</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>1274</v>
@@ -9689,10 +9731,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>972</v>
+        <v>919</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>1274</v>
@@ -9700,21 +9742,21 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>1002</v>
+        <v>918</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>889</v>
+        <v>868</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1200</v>
+        <v>611</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>1274</v>
@@ -9722,21 +9764,21 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>890</v>
+        <v>866</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>843</v>
+        <v>1197</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>892</v>
+        <v>972</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>843</v>
+        <v>1198</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>1274</v>
@@ -9744,10 +9786,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>872</v>
+        <v>1002</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>1274</v>
@@ -9755,10 +9797,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>873</v>
+        <v>889</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>1274</v>
@@ -9766,21 +9808,21 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>881</v>
+        <v>890</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1203</v>
+        <v>843</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>957</v>
+        <v>892</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>688</v>
+        <v>843</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>1274</v>
@@ -9788,10 +9830,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
-        <v>920</v>
+        <v>872</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>690</v>
+        <v>1201</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>1274</v>
@@ -9799,10 +9841,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>956</v>
+        <v>873</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>1274</v>
@@ -9810,10 +9852,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>925</v>
+        <v>881</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>1274</v>
@@ -9821,21 +9863,21 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
-        <v>939</v>
+        <v>957</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1206</v>
+        <v>688</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>875</v>
+        <v>920</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>620</v>
+        <v>690</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>1274</v>
@@ -9843,10 +9885,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>935</v>
+        <v>956</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>1274</v>
@@ -9854,10 +9896,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
-        <v>946</v>
+        <v>925</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>1274</v>
@@ -9865,120 +9907,120 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
-        <v>1294</v>
+        <v>939</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1296</v>
+        <v>1206</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>1282</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
-        <v>1295</v>
+        <v>875</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1297</v>
+        <v>620</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>1282</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>1313</v>
+        <v>935</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1314</v>
+        <v>1207</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>1300</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>1315</v>
+        <v>946</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1316</v>
+        <v>1208</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>1300</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>1317</v>
+        <v>1294</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1318</v>
+        <v>1296</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>1300</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>991</v>
+        <v>1295</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>695</v>
+        <v>1297</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>1275</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>943</v>
+        <v>1313</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1209</v>
+        <v>1314</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>1274</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>927</v>
+        <v>1317</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1210</v>
+        <v>1318</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>1274</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>947</v>
+        <v>1315</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>700</v>
+        <v>1316</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>1274</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>960</v>
+        <v>991</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>980</v>
+        <v>943</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>1274</v>
@@ -9986,21 +10028,21 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>941</v>
+        <v>927</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1213</v>
+        <v>700</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>1274</v>
@@ -10008,10 +10050,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>893</v>
+        <v>960</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1214</v>
+        <v>701</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>1274</v>
@@ -10019,10 +10061,10 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
-        <v>894</v>
+        <v>980</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1184</v>
+        <v>1211</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>1274</v>
@@ -10030,32 +10072,32 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>895</v>
+        <v>941</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>540</v>
+        <v>1212</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
-        <v>950</v>
+        <v>955</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
-        <v>990</v>
+        <v>893</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>1274</v>
@@ -10063,10 +10105,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1271</v>
+        <v>1184</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>1274</v>
@@ -10074,10 +10116,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>860</v>
+        <v>895</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>1217</v>
+        <v>540</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>1274</v>
@@ -10085,32 +10127,32 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
-        <v>1001</v>
+        <v>950</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
-        <v>1005</v>
+        <v>897</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>755</v>
+        <v>1271</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>1274</v>
@@ -10118,10 +10160,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
-        <v>923</v>
+        <v>860</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>1274</v>
@@ -10129,10 +10171,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>1274</v>
@@ -10140,21 +10182,21 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
-        <v>921</v>
+        <v>1000</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
-        <v>869</v>
+        <v>1005</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1224</v>
+        <v>755</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>1274</v>
@@ -10162,10 +10204,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
-        <v>870</v>
+        <v>923</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1197</v>
+        <v>1220</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>1274</v>
@@ -10173,10 +10215,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>1274</v>
@@ -10184,21 +10226,21 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
-        <v>998</v>
+        <v>921</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>562</v>
+        <v>1223</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>1274</v>
@@ -10206,21 +10248,21 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
-        <v>862</v>
+        <v>870</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1227</v>
+        <v>1197</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
-        <v>863</v>
+        <v>992</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>1274</v>
@@ -10228,21 +10270,21 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
-        <v>900</v>
+        <v>998</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>720</v>
+        <v>562</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
-        <v>934</v>
+        <v>864</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>1274</v>
@@ -10250,21 +10292,21 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
-        <v>928</v>
+        <v>862</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
-        <v>930</v>
+        <v>863</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>593</v>
+        <v>1228</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>1274</v>
@@ -10272,10 +10314,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
-        <v>931</v>
+        <v>900</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1231</v>
+        <v>720</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>1274</v>
@@ -10283,10 +10325,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
-        <v>944</v>
+        <v>934</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>1274</v>
@@ -10294,10 +10336,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
-        <v>871</v>
+        <v>928</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>1274</v>
@@ -10305,21 +10347,21 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
-        <v>858</v>
+        <v>930</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1234</v>
+        <v>593</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
-        <v>857</v>
+        <v>931</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>1274</v>
@@ -10327,10 +10369,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
-        <v>859</v>
+        <v>944</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>553</v>
+        <v>1232</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>1274</v>
@@ -10338,21 +10380,21 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
-        <v>1298</v>
+        <v>871</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>1299</v>
+        <v>1233</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>1300</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
-        <v>905</v>
+        <v>858</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>1275</v>
@@ -10360,43 +10402,43 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
-        <v>907</v>
+        <v>857</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>1282</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
-        <v>903</v>
+        <v>859</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>1238</v>
+        <v>553</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
-        <v>909</v>
+        <v>1298</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1239</v>
+        <v>1299</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>1275</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>1275</v>
@@ -10404,21 +10446,21 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>1275</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>1275</v>
@@ -10426,10 +10468,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>1275</v>
@@ -10437,10 +10479,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>1275</v>
@@ -10448,10 +10490,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>1275</v>
@@ -10459,54 +10501,54 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
-        <v>985</v>
+        <v>913</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
-        <v>964</v>
+        <v>910</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
-        <v>948</v>
+        <v>915</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
-        <v>886</v>
+        <v>911</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
-        <v>978</v>
+        <v>985</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>555</v>
+        <v>1246</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>1274</v>
@@ -10514,10 +10556,10 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
-        <v>979</v>
+        <v>964</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>555</v>
+        <v>1247</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>1274</v>
@@ -10525,21 +10567,21 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
-        <v>977</v>
+        <v>948</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>555</v>
+        <v>1248</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>1300</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>898</v>
+        <v>886</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1272</v>
+        <v>1249</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>1274</v>
@@ -10547,10 +10589,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>865</v>
+        <v>978</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1252</v>
+        <v>555</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>1274</v>
@@ -10558,10 +10600,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
-        <v>902</v>
+        <v>979</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>1253</v>
+        <v>555</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>1274</v>
@@ -10569,43 +10611,43 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
-        <v>906</v>
+        <v>977</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>1254</v>
+        <v>555</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>1275</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>595</v>
+        <v>1272</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
-        <v>1283</v>
+        <v>865</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>1282</v>
+        <v>1252</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
-        <v>861</v>
+        <v>902</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>1274</v>
@@ -10613,21 +10655,21 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
-        <v>954</v>
+        <v>906</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>737</v>
+        <v>1254</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
-        <v>932</v>
+        <v>904</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>1256</v>
+        <v>595</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>1275</v>
@@ -10635,32 +10677,32 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
-        <v>933</v>
+        <v>1283</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1229</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>1274</v>
+        <v>1284</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>1282</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
-        <v>942</v>
+        <v>861</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
-        <v>891</v>
+        <v>954</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1258</v>
+        <v>737</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>1274</v>
@@ -10668,10 +10710,10 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>1275</v>
@@ -10679,32 +10721,32 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
-        <v>926</v>
+        <v>933</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>1260</v>
+        <v>1229</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
-        <v>958</v>
+        <v>942</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
-        <v>922</v>
+        <v>891</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>1274</v>
@@ -10712,32 +10754,32 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
-        <v>916</v>
+        <v>940</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
-        <v>874</v>
+        <v>926</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1225</v>
+        <v>1260</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1268</v>
+        <v>1261</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>1274</v>
@@ -10745,10 +10787,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
-        <v>962</v>
+        <v>922</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>1269</v>
+        <v>1262</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>1274</v>
@@ -10756,10 +10798,10 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
-        <v>936</v>
+        <v>916</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>1274</v>
@@ -10767,17 +10809,65 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="0" t="s">
+        <v>874</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="0" t="s">
+        <v>963</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="0" t="s">
         <v>937</v>
       </c>
-      <c r="B162" s="0" t="s">
+      <c r="B166" s="0" t="s">
         <v>1270</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="C166" s="3" t="s">
         <v>1274</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D162"/>
+  <autoFilter ref="A1:D162">
+    <sortState ref="A2:D166">
+      <sortCondition ref="A2:A166"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="150" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="140" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="새_텍스트_문서" localSheetId="0">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'국가 태그'!$A$1:$E$261</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'임시 태그'!$A$1:$D$162</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="1384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="1385">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4185,6 +4185,9 @@
   </si>
   <si>
     <t>카리브 해 연방</t>
+  </si>
+  <si>
+    <t>미등장</t>
   </si>
 </sst>
 </file>
@@ -4500,7 +4503,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4515,33 +4520,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4556,9 +4553,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4573,9 +4568,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -4590,17 +4583,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -4609,18 +4598,14 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -5011,8 +4996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E261"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E253" sqref="E253"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -6126,7 +6111,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="16.500000" hidden="1">
+    <row r="72" spans="1:5">
       <c r="A72" s="0" t="s">
         <v>241</v>
       </c>
@@ -6137,7 +6122,10 @@
         <v>665</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>1345</v>
+        <v>1384</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>1341</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="16.500000" hidden="1">
@@ -9021,7 +9009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D166"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="140" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="130" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -4503,9 +4503,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4520,25 +4518,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4553,7 +4559,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4568,7 +4576,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -4583,13 +4593,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -4598,14 +4612,18 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4997,7 +5015,7 @@
   <dimension ref="A1:E261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -6644,6 +6662,9 @@
       </c>
       <c r="D106" s="0" t="s">
         <v>1351</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>1341</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="16.500000" hidden="1">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="130" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="120" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="새_텍스트_문서" localSheetId="0">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'국가 태그'!$A$1:$E$261</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'임시 태그'!$A$1:$D$162</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="1385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="1387">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4188,6 +4188,12 @@
   </si>
   <si>
     <t>미등장</t>
+  </si>
+  <si>
+    <t>중국공산당</t>
+  </si>
+  <si>
+    <t>PRC_proclaimed</t>
   </si>
 </sst>
 </file>
@@ -4503,7 +4509,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4518,33 +4526,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4559,9 +4559,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4576,9 +4574,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -4593,17 +4589,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -4612,18 +4604,14 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -5015,7 +5003,7 @@
   <dimension ref="A1:E261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+      <selection activeCell="E253" sqref="E253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -7778,7 +7766,7 @@
         <v>1287</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>1286</v>
+        <v>1385</v>
       </c>
       <c r="D180" s="0" t="s">
         <v>1333</v>
@@ -9028,10 +9016,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D166"/>
+  <dimension ref="A1:D167"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C168" sqref="C168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -10257,21 +10245,21 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
-        <v>870</v>
+        <v>1386</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>1274</v>
+        <v>1286</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>1300</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
-        <v>992</v>
+        <v>870</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1225</v>
+        <v>1197</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>1274</v>
@@ -10279,54 +10267,54 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>562</v>
+        <v>1225</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
-        <v>864</v>
+        <v>998</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1226</v>
+        <v>562</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
-        <v>900</v>
+        <v>863</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>720</v>
+        <v>1228</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>1274</v>
@@ -10334,10 +10322,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
-        <v>934</v>
+        <v>900</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1229</v>
+        <v>720</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>1274</v>
@@ -10345,10 +10333,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>1274</v>
@@ -10356,10 +10344,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>593</v>
+        <v>1230</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>1274</v>
@@ -10367,10 +10355,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1231</v>
+        <v>593</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>1274</v>
@@ -10378,10 +10366,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
-        <v>944</v>
+        <v>931</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>1274</v>
@@ -10389,10 +10377,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
-        <v>871</v>
+        <v>944</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>1274</v>
@@ -10400,32 +10388,32 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
-        <v>858</v>
+        <v>871</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>553</v>
+        <v>1235</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>1274</v>
@@ -10433,54 +10421,54 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
-        <v>1298</v>
+        <v>859</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1299</v>
+        <v>553</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>1300</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
-        <v>905</v>
+        <v>1298</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1236</v>
+        <v>1299</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>1275</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>1282</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>1275</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>1275</v>
@@ -10488,10 +10476,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>1275</v>
@@ -10499,10 +10487,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>1275</v>
@@ -10510,10 +10498,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>1275</v>
@@ -10521,10 +10509,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>1275</v>
@@ -10532,10 +10520,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>1275</v>
@@ -10543,10 +10531,10 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>1275</v>
@@ -10554,21 +10542,21 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
-        <v>985</v>
+        <v>911</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
-        <v>964</v>
+        <v>985</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>1274</v>
@@ -10576,10 +10564,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
-        <v>948</v>
+        <v>964</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>1274</v>
@@ -10587,10 +10575,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>886</v>
+        <v>948</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>1274</v>
@@ -10598,10 +10586,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>978</v>
+        <v>886</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>555</v>
+        <v>1249</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>1274</v>
@@ -10609,7 +10597,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>555</v>
@@ -10620,32 +10608,32 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>555</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>1300</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
-        <v>898</v>
+        <v>977</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1272</v>
+        <v>555</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>1274</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
-        <v>865</v>
+        <v>898</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1252</v>
+        <v>1272</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>1274</v>
@@ -10653,10 +10641,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
-        <v>902</v>
+        <v>865</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>1274</v>
@@ -10664,21 +10652,21 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>595</v>
+        <v>1254</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>1275</v>
@@ -10686,32 +10674,32 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
-        <v>1283</v>
+        <v>904</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>1282</v>
+        <v>595</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>1275</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
-        <v>861</v>
+        <v>1283</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>1274</v>
+        <v>1284</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>1282</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
-        <v>954</v>
+        <v>861</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>737</v>
+        <v>1255</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>1274</v>
@@ -10719,65 +10707,65 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
-        <v>932</v>
+        <v>954</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>1256</v>
+        <v>737</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>1229</v>
+        <v>1256</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>1257</v>
+        <v>1229</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
-        <v>891</v>
+        <v>942</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
-        <v>940</v>
+        <v>891</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
-        <v>926</v>
+        <v>940</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>1275</v>
@@ -10785,21 +10773,21 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
-        <v>958</v>
+        <v>926</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
-        <v>922</v>
+        <v>958</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>1274</v>
@@ -10807,10 +10795,10 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>1274</v>
@@ -10818,10 +10806,10 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="0" t="s">
-        <v>874</v>
+        <v>916</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>1225</v>
+        <v>1263</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>1274</v>
@@ -10829,10 +10817,10 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="0" t="s">
-        <v>963</v>
+        <v>874</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>1268</v>
+        <v>1225</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>1274</v>
@@ -10840,10 +10828,10 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="0" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>1274</v>
@@ -10851,7 +10839,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="0" t="s">
-        <v>936</v>
+        <v>962</v>
       </c>
       <c r="B165" s="0" t="s">
         <v>1269</v>
@@ -10862,19 +10850,30 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="0" t="s">
         <v>937</v>
       </c>
-      <c r="B166" s="0" t="s">
+      <c r="B167" s="0" t="s">
         <v>1270</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="C167" s="3" t="s">
         <v>1274</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D162">
-    <sortState ref="A2:D166">
-      <sortCondition ref="A2:A166"/>
+    <sortState ref="A2:D167">
+      <sortCondition ref="A2:A167"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="120" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="180" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="1387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="1390">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4194,6 +4194,15 @@
   </si>
   <si>
     <t>PRC_proclaimed</t>
+  </si>
+  <si>
+    <t>삭제</t>
+  </si>
+  <si>
+    <t>ITA_ANI</t>
+  </si>
+  <si>
+    <t>ITA_federation</t>
   </si>
 </sst>
 </file>
@@ -4509,9 +4518,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4526,25 +4533,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4559,7 +4574,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4574,7 +4591,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -4589,13 +4608,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -4604,14 +4627,18 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -6669,7 +6696,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" ht="16.500000" hidden="1">
       <c r="A108" s="0" t="s">
         <v>277</v>
       </c>
@@ -6680,7 +6707,7 @@
         <v>682</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>1333</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="16.500000" hidden="1">
@@ -6774,6 +6801,9 @@
       </c>
       <c r="D114" s="0" t="s">
         <v>1333</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>1341</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="16.500000" hidden="1">
@@ -9016,10 +9046,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D167"/>
+  <dimension ref="A1:D170"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C168" sqref="C168"/>
+    <sheetView topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -9794,32 +9824,32 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>889</v>
+        <v>1388</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>1274</v>
+        <v>1246</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>1300</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>890</v>
+        <v>1389</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="C71" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>1275</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>843</v>
+        <v>1200</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>1274</v>
@@ -9827,32 +9857,32 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
-        <v>872</v>
+        <v>889</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1201</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>1274</v>
+        <v>1200</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>1300</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>873</v>
+        <v>890</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1202</v>
+        <v>843</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>881</v>
+        <v>892</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1203</v>
+        <v>843</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>1274</v>
@@ -9860,10 +9890,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
-        <v>957</v>
+        <v>872</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>688</v>
+        <v>1201</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>1274</v>
@@ -9871,10 +9901,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>920</v>
+        <v>873</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>690</v>
+        <v>1202</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>1274</v>
@@ -9882,10 +9912,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>956</v>
+        <v>881</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>1274</v>
@@ -9893,10 +9923,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
-        <v>925</v>
+        <v>957</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1205</v>
+        <v>688</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>1274</v>
@@ -9904,21 +9934,21 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
-        <v>939</v>
+        <v>920</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1206</v>
+        <v>690</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
-        <v>875</v>
+        <v>956</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>620</v>
+        <v>1204</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>1274</v>
@@ -9926,10 +9956,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>1274</v>
@@ -9937,120 +9967,120 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>1294</v>
+        <v>875</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1296</v>
+        <v>620</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>1282</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>1295</v>
+        <v>935</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1297</v>
+        <v>1207</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>1282</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>1313</v>
+        <v>946</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1314</v>
+        <v>1208</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>1300</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>1317</v>
+        <v>1294</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1318</v>
+        <v>1296</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>1300</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>1315</v>
+        <v>1295</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1316</v>
+        <v>1297</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>1300</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>991</v>
+        <v>1313</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>695</v>
+        <v>1314</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>1275</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>943</v>
+        <v>1317</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>1209</v>
+        <v>1318</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>1274</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>927</v>
+        <v>1315</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>1210</v>
+        <v>1316</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>1274</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
-        <v>947</v>
+        <v>991</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>960</v>
+        <v>943</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>701</v>
+        <v>1209</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>1274</v>
@@ -10058,10 +10088,10 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
-        <v>980</v>
+        <v>927</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>1274</v>
@@ -10069,21 +10099,21 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>941</v>
+        <v>947</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1212</v>
+        <v>700</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>1213</v>
+        <v>701</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>1274</v>
@@ -10091,10 +10121,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
-        <v>893</v>
+        <v>980</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>1274</v>
@@ -10102,21 +10132,21 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
-        <v>894</v>
+        <v>941</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1184</v>
+        <v>1212</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>895</v>
+        <v>955</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>540</v>
+        <v>1213</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>1274</v>
@@ -10124,21 +10154,21 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
-        <v>950</v>
+        <v>893</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
-        <v>990</v>
+        <v>894</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>1216</v>
+        <v>1184</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>1274</v>
@@ -10146,10 +10176,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1271</v>
+        <v>540</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>1274</v>
@@ -10157,21 +10187,21 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
-        <v>860</v>
+        <v>950</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
-        <v>1001</v>
+        <v>990</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>1274</v>
@@ -10179,21 +10209,21 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
-        <v>1000</v>
+        <v>897</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1219</v>
+        <v>1271</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
-        <v>1005</v>
+        <v>860</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>755</v>
+        <v>1217</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>1274</v>
@@ -10201,10 +10231,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
-        <v>923</v>
+        <v>1001</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>1274</v>
@@ -10212,21 +10242,21 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
-        <v>921</v>
+        <v>1005</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>1223</v>
+        <v>755</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>1274</v>
@@ -10234,10 +10264,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
-        <v>869</v>
+        <v>923</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>1274</v>
@@ -10245,21 +10275,21 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
-        <v>1386</v>
+        <v>996</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>1300</v>
+        <v>1222</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
-        <v>870</v>
+        <v>921</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1197</v>
+        <v>1223</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>1274</v>
@@ -10267,10 +10297,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
-        <v>992</v>
+        <v>869</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>1274</v>
@@ -10278,21 +10308,21 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
-        <v>998</v>
+        <v>1386</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>1275</v>
+        <v>1286</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>1300</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1226</v>
+        <v>1197</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>1274</v>
@@ -10300,32 +10330,32 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
-        <v>862</v>
+        <v>992</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
-        <v>863</v>
+        <v>998</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1228</v>
+        <v>562</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
-        <v>900</v>
+        <v>864</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>720</v>
+        <v>1226</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>1274</v>
@@ -10333,21 +10363,21 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
-        <v>934</v>
+        <v>862</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
-        <v>928</v>
+        <v>863</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>1274</v>
@@ -10355,10 +10385,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
-        <v>930</v>
+        <v>900</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>593</v>
+        <v>720</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>1274</v>
@@ -10366,10 +10396,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>1274</v>
@@ -10377,10 +10407,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
-        <v>944</v>
+        <v>928</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>1274</v>
@@ -10388,10 +10418,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
-        <v>871</v>
+        <v>930</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1233</v>
+        <v>593</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>1274</v>
@@ -10399,21 +10429,21 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
-        <v>858</v>
+        <v>931</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
-        <v>857</v>
+        <v>944</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>1274</v>
@@ -10421,10 +10451,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
-        <v>859</v>
+        <v>871</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>553</v>
+        <v>1233</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>1274</v>
@@ -10432,54 +10462,54 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
-        <v>1298</v>
+        <v>858</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1299</v>
+        <v>1234</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>1300</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
-        <v>905</v>
+        <v>857</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
-        <v>907</v>
+        <v>859</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1237</v>
+        <v>553</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>1282</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
-        <v>903</v>
+        <v>1298</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1238</v>
+        <v>1299</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>1275</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>1275</v>
@@ -10487,21 +10517,21 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>1275</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>1275</v>
@@ -10509,10 +10539,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>1275</v>
@@ -10520,10 +10550,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>1275</v>
@@ -10531,10 +10561,10 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>1275</v>
@@ -10542,10 +10572,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>1275</v>
@@ -10553,43 +10583,43 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
-        <v>985</v>
+        <v>910</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
-        <v>964</v>
+        <v>915</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>948</v>
+        <v>911</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>886</v>
+        <v>985</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>1274</v>
@@ -10597,10 +10627,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
-        <v>978</v>
+        <v>964</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>555</v>
+        <v>1247</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>1274</v>
@@ -10608,10 +10638,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
-        <v>979</v>
+        <v>948</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>555</v>
+        <v>1248</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>1274</v>
@@ -10619,21 +10649,21 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
-        <v>977</v>
+        <v>886</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>555</v>
+        <v>1249</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>1300</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
-        <v>898</v>
+        <v>978</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1272</v>
+        <v>555</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>1274</v>
@@ -10641,10 +10671,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
-        <v>865</v>
+        <v>979</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1252</v>
+        <v>555</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>1274</v>
@@ -10652,87 +10682,87 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
-        <v>902</v>
+        <v>977</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>1253</v>
+        <v>555</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>1274</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>1254</v>
+        <v>1272</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
-        <v>904</v>
+        <v>865</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>595</v>
+        <v>1252</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
-        <v>1283</v>
+        <v>902</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>1282</v>
+        <v>1253</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
-        <v>861</v>
+        <v>906</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
-        <v>954</v>
+        <v>904</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>737</v>
+        <v>595</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
-        <v>932</v>
+        <v>1283</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>1275</v>
+        <v>1284</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>1282</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
-        <v>933</v>
+        <v>861</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>1229</v>
+        <v>1255</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>1274</v>
@@ -10740,43 +10770,43 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
-        <v>942</v>
+        <v>954</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>1257</v>
+        <v>737</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
-        <v>891</v>
+        <v>932</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1259</v>
+        <v>1229</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
-        <v>926</v>
+        <v>942</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>1275</v>
@@ -10784,10 +10814,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
-        <v>958</v>
+        <v>891</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>1274</v>
@@ -10795,32 +10825,32 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="0" t="s">
-        <v>916</v>
+        <v>926</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="0" t="s">
-        <v>874</v>
+        <v>958</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>1225</v>
+        <v>1261</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>1274</v>
@@ -10828,10 +10858,10 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="0" t="s">
-        <v>963</v>
+        <v>922</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>1274</v>
@@ -10839,10 +10869,10 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="0" t="s">
-        <v>962</v>
+        <v>916</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>1274</v>
@@ -10850,10 +10880,10 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="0" t="s">
-        <v>936</v>
+        <v>874</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>1269</v>
+        <v>1225</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>1274</v>
@@ -10861,19 +10891,52 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="0" t="s">
+        <v>963</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="0" t="s">
         <v>937</v>
       </c>
-      <c r="B167" s="0" t="s">
+      <c r="B170" s="0" t="s">
         <v>1270</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="C170" s="3" t="s">
         <v>1274</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D162">
-    <sortState ref="A2:D167">
-      <sortCondition ref="A2:A167"/>
+    <sortState ref="A2:D170">
+      <sortCondition ref="A2:A170"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="180" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="170" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -4518,7 +4518,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4533,33 +4535,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4574,9 +4568,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4591,9 +4583,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -4608,17 +4598,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -4627,18 +4613,14 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -5030,7 +5012,7 @@
   <dimension ref="A1:E261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E253" sqref="E253"/>
+      <selection activeCell="E159" sqref="E159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -7362,6 +7344,9 @@
       <c r="D151" s="0" t="s">
         <v>1333</v>
       </c>
+      <c r="E151" s="0" t="s">
+        <v>1341</v>
+      </c>
     </row>
     <row r="152" spans="1:5" ht="16.500000" hidden="1">
       <c r="A152" s="0" t="s">
@@ -7479,6 +7464,9 @@
       </c>
       <c r="D159" s="0" t="s">
         <v>1363</v>
+      </c>
+      <c r="E159" s="0" t="s">
+        <v>1341</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="16.500000" hidden="1">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="170" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="150" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="1390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="1392">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4203,6 +4203,12 @@
   </si>
   <si>
     <t>ITA_federation</t>
+  </si>
+  <si>
+    <t>미등장</t>
+  </si>
+  <si>
+    <t>러시아</t>
   </si>
 </sst>
 </file>
@@ -5012,7 +5018,7 @@
   <dimension ref="A1:E261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E159" sqref="E159"/>
+      <selection activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -8178,7 +8184,7 @@
         <v>725</v>
       </c>
       <c r="D206" s="0" t="s">
-        <v>1339</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -8580,13 +8586,13 @@
         <v>383</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>836</v>
+        <v>1391</v>
       </c>
       <c r="C233" s="0" t="s">
         <v>739</v>
       </c>
       <c r="D233" s="0" t="s">
-        <v>1339</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="16.500000" hidden="1">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="150" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="230" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="새_텍스트_문서" localSheetId="0">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'국가 태그'!$A$1:$E$261</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'임시 태그'!$A$1:$D$162</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -4524,9 +4524,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4541,25 +4539,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4574,7 +4580,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4589,7 +4597,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -4604,13 +4614,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -4619,14 +4633,18 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -5017,7 +5035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
@@ -10943,7 +10961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="230" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="220" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="1392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="1393">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4209,6 +4209,9 @@
   </si>
   <si>
     <t>러시아</t>
+  </si>
+  <si>
+    <t>미등장</t>
   </si>
 </sst>
 </file>
@@ -4524,7 +4527,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4539,33 +4544,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4580,9 +4577,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4597,9 +4592,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -4614,17 +4607,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -4633,18 +4622,14 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -5035,8 +5020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E261"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E127" sqref="E127"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C217" sqref="C217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -6257,7 +6242,7 @@
         <v>668</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>1339</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="16.500000" hidden="1">
@@ -10961,7 +10946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="220" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="210" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="새_텍스트_문서" localSheetId="0">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'국가 태그'!$A$1:$E$261</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'임시 태그'!$A$1:$D$162</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -4527,9 +4527,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4544,25 +4542,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4577,7 +4583,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4592,7 +4600,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -4607,13 +4617,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -4622,14 +4636,18 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -8074,6 +8092,9 @@
       <c r="D198" s="0" t="s">
         <v>1351</v>
       </c>
+      <c r="E198" s="0" t="s">
+        <v>1341</v>
+      </c>
     </row>
     <row r="199" spans="1:5" ht="16.500000" hidden="1">
       <c r="A199" s="0" t="s">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="210" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="200" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="새_텍스트_문서" localSheetId="0">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'국가 태그'!$A$1:$E$261</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'임시 태그'!$A$1:$D$162</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -4527,7 +4527,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4542,33 +4544,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4583,9 +4577,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4600,9 +4592,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -4617,17 +4607,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -4636,18 +4622,14 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -5039,7 +5021,7 @@
   <dimension ref="A1:E261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C217" sqref="C217"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -8123,6 +8105,9 @@
       <c r="D200" s="0" t="s">
         <v>1333</v>
       </c>
+      <c r="E200" s="0" t="s">
+        <v>1341</v>
+      </c>
     </row>
     <row r="201" spans="1:5" ht="16.500000" hidden="1">
       <c r="A201" s="0" t="s">
@@ -8150,6 +8135,9 @@
       </c>
       <c r="D202" s="0" t="s">
         <v>1333</v>
+      </c>
+      <c r="E202" s="0" t="s">
+        <v>1341</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="16.500000" hidden="1">
@@ -9066,7 +9054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D170"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" workbookViewId="0">
+    <sheetView topLeftCell="A112" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="200" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="190" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="1393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="1394">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4212,6 +4212,9 @@
   </si>
   <si>
     <t>미등장</t>
+  </si>
+  <si>
+    <t>펄스 3 : 국가중점 트리와 이벤트, 디시전, 추가 국가정신</t>
   </si>
 </sst>
 </file>
@@ -4527,9 +4530,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4544,25 +4545,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4577,7 +4586,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4592,7 +4603,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -4607,13 +4620,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -4622,14 +4639,18 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -5020,7 +5041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -10955,8 +10976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -10973,7 +10994,7 @@
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="0" t="s">
-        <v>1329</v>
+        <v>1393</v>
       </c>
     </row>
   </sheetData>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="190" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="180" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="1394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="1402">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4215,6 +4215,30 @@
   </si>
   <si>
     <t>펄스 3 : 국가중점 트리와 이벤트, 디시전, 추가 국가정신</t>
+  </si>
+  <si>
+    <t>삭제</t>
+  </si>
+  <si>
+    <t>삭제</t>
+  </si>
+  <si>
+    <t>등장</t>
+  </si>
+  <si>
+    <t>삭제</t>
+  </si>
+  <si>
+    <t>삭제</t>
+  </si>
+  <si>
+    <t>삭제</t>
+  </si>
+  <si>
+    <t>삭제</t>
+  </si>
+  <si>
+    <t>코어 빠짐</t>
   </si>
 </sst>
 </file>
@@ -4530,7 +4554,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4545,33 +4571,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4586,9 +4604,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4603,9 +4619,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -4620,17 +4634,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -4639,18 +4649,14 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -5041,8 +5047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E261"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5118,8 +5124,11 @@
       <c r="D4" s="0" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.500000" hidden="1">
+      <c r="E4" s="0" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="0" t="s">
         <v>179</v>
       </c>
@@ -5146,8 +5155,11 @@
       <c r="D6" s="0" t="s">
         <v>1337</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.500000" hidden="1">
+      <c r="E6" s="0" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="0" t="s">
         <v>181</v>
       </c>
@@ -5174,6 +5186,9 @@
       <c r="D8" s="0" t="s">
         <v>1339</v>
       </c>
+      <c r="E8" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="16.500000" hidden="1">
       <c r="A9" s="0" t="s">
@@ -5188,6 +5203,9 @@
       <c r="D9" s="0" t="s">
         <v>1339</v>
       </c>
+      <c r="E9" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="16.500000" hidden="1">
       <c r="A10" s="0" t="s">
@@ -5203,10 +5221,10 @@
         <v>537</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16.500000" hidden="1">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="0" t="s">
         <v>183</v>
       </c>
@@ -5234,10 +5252,10 @@
         <v>537</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.500000" hidden="1">
       <c r="A13" s="0" t="s">
         <v>20</v>
       </c>
@@ -5254,7 +5272,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16.500000" hidden="1">
+    <row r="14" spans="1:5">
       <c r="A14" s="0" t="s">
         <v>185</v>
       </c>
@@ -5281,6 +5299,9 @@
       <c r="D15" s="0" t="s">
         <v>1345</v>
       </c>
+      <c r="E15" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="16.500000" hidden="1">
       <c r="A16" s="0" t="s">
@@ -5295,6 +5316,9 @@
       <c r="D16" s="0" t="s">
         <v>1337</v>
       </c>
+      <c r="E16" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="16.500000" hidden="1">
       <c r="A17" s="0" t="s">
@@ -5309,6 +5333,9 @@
       <c r="D17" s="0" t="s">
         <v>1345</v>
       </c>
+      <c r="E17" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="16.500000" hidden="1">
       <c r="A18" s="0" t="s">
@@ -5324,10 +5351,10 @@
         <v>537</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.500000" hidden="1">
       <c r="A19" s="0" t="s">
         <v>189</v>
       </c>
@@ -5344,7 +5371,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="16.500000" hidden="1">
       <c r="A20" s="0" t="s">
         <v>12</v>
       </c>
@@ -5374,6 +5401,9 @@
       <c r="D21" s="0" t="s">
         <v>1345</v>
       </c>
+      <c r="E21" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="16.500000" hidden="1">
       <c r="A22" s="0" t="s">
@@ -5403,7 +5433,10 @@
         <v>572</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>1333</v>
+        <v>1399</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>1401</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16.500000" hidden="1">
@@ -5419,6 +5452,9 @@
       <c r="D24" s="0" t="s">
         <v>1345</v>
       </c>
+      <c r="E24" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="16.500000" hidden="1">
       <c r="A25" s="0" t="s">
@@ -5434,7 +5470,7 @@
         <v>537</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>534</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.500000" hidden="1">
@@ -5451,7 +5487,7 @@
         <v>537</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>534</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16.500000" hidden="1">
@@ -5465,10 +5501,13 @@
         <v>640</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>1399</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16.500000" hidden="1">
       <c r="A28" s="0" t="s">
         <v>199</v>
       </c>
@@ -5498,6 +5537,9 @@
       <c r="D29" s="0" t="s">
         <v>1345</v>
       </c>
+      <c r="E29" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="16.500000" hidden="1">
       <c r="A30" s="0" t="s">
@@ -5513,7 +5555,7 @@
         <v>537</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>534</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.500000" hidden="1">
@@ -5529,6 +5571,9 @@
       <c r="D31" s="0" t="s">
         <v>1345</v>
       </c>
+      <c r="E31" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="16.500000" hidden="1">
       <c r="A32" s="0" t="s">
@@ -5543,6 +5588,9 @@
       <c r="D32" s="0" t="s">
         <v>1366</v>
       </c>
+      <c r="E32" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="33" spans="1:5" ht="16.500000" hidden="1">
       <c r="A33" s="0" t="s">
@@ -5557,6 +5605,9 @@
       <c r="D33" s="0" t="s">
         <v>1345</v>
       </c>
+      <c r="E33" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="16.500000" hidden="1">
       <c r="A34" s="0" t="s">
@@ -5572,7 +5623,7 @@
         <v>537</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>534</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="16.500000" hidden="1">
@@ -5589,7 +5640,7 @@
         <v>537</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>534</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="16.500000" hidden="1">
@@ -5606,7 +5657,7 @@
         <v>537</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>534</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16.500000" hidden="1">
@@ -5623,7 +5674,7 @@
         <v>537</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>534</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16.500000" hidden="1">
@@ -5640,7 +5691,7 @@
         <v>537</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>534</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.500000" hidden="1">
@@ -5657,10 +5708,10 @@
         <v>537</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16.500000" hidden="1">
       <c r="A40" s="0" t="s">
         <v>213</v>
       </c>
@@ -5674,7 +5725,7 @@
         <v>851</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>534</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="16.500000" hidden="1">
@@ -5690,6 +5741,9 @@
       <c r="D41" s="0" t="s">
         <v>1345</v>
       </c>
+      <c r="E41" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="42" spans="1:5" ht="16.500000" hidden="1">
       <c r="A42" s="0" t="s">
@@ -5705,7 +5759,7 @@
         <v>537</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>534</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="16.500000" hidden="1">
@@ -5722,10 +5776,10 @@
         <v>537</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="16.500000" hidden="1">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="0" t="s">
         <v>219</v>
       </c>
@@ -5752,8 +5806,11 @@
       <c r="D45" s="0" t="s">
         <v>1339</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="16.500000" hidden="1">
+      <c r="E45" s="0" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="0" t="s">
         <v>479</v>
       </c>
@@ -5781,7 +5838,7 @@
         <v>537</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>534</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="16.500000" hidden="1">
@@ -5797,8 +5854,11 @@
       <c r="D48" s="0" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="16.500000" hidden="1">
+      <c r="E48" s="0" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="0" t="s">
         <v>225</v>
       </c>
@@ -5829,7 +5889,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="16.500000" hidden="1">
+    <row r="51" spans="1:5">
       <c r="A51" s="0" t="s">
         <v>431</v>
       </c>
@@ -5860,7 +5920,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16.500000" hidden="1">
+    <row r="53" spans="1:5">
       <c r="A53" s="0" t="s">
         <v>78</v>
       </c>
@@ -5874,7 +5934,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" ht="16.500000" hidden="1">
       <c r="A54" s="0" t="s">
         <v>144</v>
       </c>
@@ -5938,6 +5998,9 @@
       <c r="D57" s="0" t="s">
         <v>1345</v>
       </c>
+      <c r="E57" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="58" spans="1:5" ht="16.500000" hidden="1">
       <c r="A58" s="0" t="s">
@@ -5952,8 +6015,11 @@
       <c r="D58" s="0" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="E58" s="0" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="16.500000" hidden="1">
       <c r="A59" s="0" t="s">
         <v>16</v>
       </c>
@@ -5983,8 +6049,11 @@
       <c r="D60" s="0" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="E60" s="0" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="16.500000" hidden="1">
       <c r="A61" s="0" t="s">
         <v>168</v>
       </c>
@@ -6012,7 +6081,10 @@
         <v>662</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>1333</v>
+        <v>1397</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>1401</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="16.500000" hidden="1">
@@ -6028,6 +6100,9 @@
       <c r="D63" s="0" t="s">
         <v>1339</v>
       </c>
+      <c r="E63" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="64" spans="1:5" ht="16.500000" hidden="1">
       <c r="A64" s="0" t="s">
@@ -6057,7 +6132,10 @@
         <v>664</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>1353</v>
+        <v>1398</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>1401</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="16.500000" hidden="1">
@@ -6111,7 +6189,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="16.500000" hidden="1">
+    <row r="69" spans="1:5">
       <c r="A69" s="0" t="s">
         <v>170</v>
       </c>
@@ -6138,6 +6216,9 @@
       <c r="D70" s="0" t="s">
         <v>1342</v>
       </c>
+      <c r="E70" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="71" spans="1:5" ht="16.500000" hidden="1">
       <c r="A71" s="0" t="s">
@@ -6156,7 +6237,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" ht="16.500000" hidden="1">
       <c r="A72" s="0" t="s">
         <v>241</v>
       </c>
@@ -6186,8 +6267,11 @@
       <c r="D73" s="0" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="E73" s="0" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="16.500000" hidden="1">
       <c r="A74" s="0" t="s">
         <v>24</v>
       </c>
@@ -6251,6 +6335,9 @@
       <c r="D77" s="0" t="s">
         <v>1345</v>
       </c>
+      <c r="E77" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="78" spans="1:5" ht="16.500000" hidden="1">
       <c r="A78" s="0" t="s">
@@ -6263,7 +6350,10 @@
         <v>668</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>1392</v>
+        <v>1397</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>1401</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="16.500000" hidden="1">
@@ -6279,6 +6369,9 @@
       <c r="D79" s="0" t="s">
         <v>1339</v>
       </c>
+      <c r="E79" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="80" spans="1:5" ht="16.500000" hidden="1">
       <c r="A80" s="0" t="s">
@@ -6297,7 +6390,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" ht="16.500000" hidden="1">
       <c r="A81" s="0" t="s">
         <v>249</v>
       </c>
@@ -6327,6 +6420,9 @@
       <c r="D82" s="0" t="s">
         <v>1339</v>
       </c>
+      <c r="E82" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="83" spans="1:5" ht="16.500000" hidden="1">
       <c r="A83" s="0" t="s">
@@ -6341,6 +6437,9 @@
       <c r="D83" s="0" t="s">
         <v>1345</v>
       </c>
+      <c r="E83" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="84" spans="1:5" ht="16.500000" hidden="1">
       <c r="A84" s="0" t="s">
@@ -6355,8 +6454,11 @@
       <c r="D84" s="0" t="s">
         <v>1356</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="E84" s="0" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="16.500000" hidden="1">
       <c r="A85" s="0" t="s">
         <v>257</v>
       </c>
@@ -6373,7 +6475,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" ht="16.500000" hidden="1">
       <c r="A86" s="0" t="s">
         <v>259</v>
       </c>
@@ -6390,7 +6492,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="16.500000" hidden="1">
+    <row r="87" spans="1:5">
       <c r="A87" s="0" t="s">
         <v>261</v>
       </c>
@@ -6438,7 +6540,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="16.500000" hidden="1">
+    <row r="90" spans="1:5">
       <c r="A90" s="0" t="s">
         <v>273</v>
       </c>
@@ -6465,6 +6567,9 @@
       <c r="D91" s="0" t="s">
         <v>1345</v>
       </c>
+      <c r="E91" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="92" spans="1:5" ht="16.500000" hidden="1">
       <c r="A92" s="0" t="s">
@@ -6479,6 +6584,9 @@
       <c r="D92" s="0" t="s">
         <v>1359</v>
       </c>
+      <c r="E92" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="93" spans="1:5" ht="16.500000" hidden="1">
       <c r="A93" s="0" t="s">
@@ -6493,6 +6601,9 @@
       <c r="D93" s="0" t="s">
         <v>1345</v>
       </c>
+      <c r="E93" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="94" spans="1:5" ht="16.500000" hidden="1">
       <c r="A94" s="0" t="s">
@@ -6508,7 +6619,7 @@
         <v>537</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>534</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="16.500000" hidden="1">
@@ -6524,8 +6635,11 @@
       <c r="D95" s="0" t="s">
         <v>1339</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="E95" s="0" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="16.500000" hidden="1">
       <c r="A96" s="0" t="s">
         <v>271</v>
       </c>
@@ -6542,7 +6656,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="16.500000" hidden="1">
+    <row r="97" spans="1:5">
       <c r="A97" s="0" t="s">
         <v>84</v>
       </c>
@@ -6569,6 +6683,9 @@
       <c r="D98" s="0" t="s">
         <v>1339</v>
       </c>
+      <c r="E98" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="99" spans="1:5" ht="16.500000" hidden="1">
       <c r="A99" s="0" t="s">
@@ -6584,7 +6701,7 @@
         <v>537</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>534</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="16.500000" hidden="1">
@@ -6600,8 +6717,11 @@
       <c r="D100" s="0" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" ht="16.500000" hidden="1">
+      <c r="E100" s="0" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" s="0" t="s">
         <v>275</v>
       </c>
@@ -6628,6 +6748,9 @@
       <c r="D102" s="0" t="s">
         <v>1339</v>
       </c>
+      <c r="E102" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="103" spans="1:5" ht="16.500000" hidden="1">
       <c r="A103" s="0" t="s">
@@ -6646,7 +6769,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="16.500000" hidden="1">
+    <row r="104" spans="1:5">
       <c r="A104" s="0" t="s">
         <v>86</v>
       </c>
@@ -6677,7 +6800,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" ht="16.500000" hidden="1">
       <c r="A106" s="0" t="s">
         <v>152</v>
       </c>
@@ -6707,6 +6830,9 @@
       <c r="D107" s="0" t="s">
         <v>1345</v>
       </c>
+      <c r="E107" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="108" spans="1:5" ht="16.500000" hidden="1">
       <c r="A108" s="0" t="s">
@@ -6721,6 +6847,9 @@
       <c r="D108" s="0" t="s">
         <v>1387</v>
       </c>
+      <c r="E108" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="109" spans="1:5" ht="16.500000" hidden="1">
       <c r="A109" s="0" t="s">
@@ -6773,7 +6902,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="16.500000" hidden="1">
+    <row r="112" spans="1:5">
       <c r="A112" s="0" t="s">
         <v>88</v>
       </c>
@@ -6800,8 +6929,11 @@
       <c r="D113" s="0" t="s">
         <v>1339</v>
       </c>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="E113" s="0" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="16.500000" hidden="1">
       <c r="A114" s="0" t="s">
         <v>30</v>
       </c>
@@ -6852,7 +6984,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="16.500000" hidden="1">
+    <row r="117" spans="1:5">
       <c r="A117" s="0" t="s">
         <v>154</v>
       </c>
@@ -6866,7 +6998,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="16.500000" hidden="1">
+    <row r="118" spans="1:5">
       <c r="A118" s="0" t="s">
         <v>510</v>
       </c>
@@ -6893,6 +7025,9 @@
       <c r="D119" s="0" t="s">
         <v>1345</v>
       </c>
+      <c r="E119" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="120" spans="1:5" ht="16.500000" hidden="1">
       <c r="A120" s="0" t="s">
@@ -6907,6 +7042,9 @@
       <c r="D120" s="0" t="s">
         <v>1345</v>
       </c>
+      <c r="E120" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="121" spans="1:5" ht="16.500000" hidden="1">
       <c r="A121" s="0" t="s">
@@ -6921,6 +7059,9 @@
       <c r="D121" s="0" t="s">
         <v>1345</v>
       </c>
+      <c r="E121" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="122" spans="1:5" ht="16.500000" hidden="1">
       <c r="A122" s="0" t="s">
@@ -6952,8 +7093,11 @@
       <c r="D123" s="0" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" ht="16.500000" hidden="1">
+      <c r="E123" s="0" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" s="0" t="s">
         <v>291</v>
       </c>
@@ -6967,7 +7111,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="16.500000" hidden="1">
+    <row r="125" spans="1:5">
       <c r="A125" s="0" t="s">
         <v>518</v>
       </c>
@@ -6998,7 +7142,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" ht="16.500000" hidden="1">
       <c r="A127" s="0" t="s">
         <v>26</v>
       </c>
@@ -7015,7 +7159,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="16.500000" hidden="1">
+    <row r="128" spans="1:5">
       <c r="A128" s="0" t="s">
         <v>522</v>
       </c>
@@ -7059,8 +7203,11 @@
       <c r="D130" s="0" t="s">
         <v>1339</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" ht="16.500000" hidden="1">
+      <c r="E130" s="0" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131" s="0" t="s">
         <v>295</v>
       </c>
@@ -7071,7 +7218,7 @@
         <v>691</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>1345</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="16.500000" hidden="1">
@@ -7104,6 +7251,9 @@
       <c r="D133" s="0" t="s">
         <v>1342</v>
       </c>
+      <c r="E133" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="134" spans="1:5" ht="16.500000" hidden="1">
       <c r="A134" s="0" t="s">
@@ -7118,6 +7268,9 @@
       <c r="D134" s="0" t="s">
         <v>1345</v>
       </c>
+      <c r="E134" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="135" spans="1:5" ht="16.500000" hidden="1">
       <c r="A135" s="0" t="s">
@@ -7149,8 +7302,11 @@
       <c r="D136" s="0" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" ht="16.500000" hidden="1">
+      <c r="E136" s="0" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137" s="0" t="s">
         <v>303</v>
       </c>
@@ -7177,6 +7333,9 @@
       <c r="D138" s="0" t="s">
         <v>1345</v>
       </c>
+      <c r="E138" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="139" spans="1:5" ht="16.500000" hidden="1">
       <c r="A139" s="0" t="s">
@@ -7208,6 +7367,9 @@
       <c r="D140" s="0" t="s">
         <v>1345</v>
       </c>
+      <c r="E140" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="141" spans="1:5" ht="16.500000" hidden="1">
       <c r="A141" s="0" t="s">
@@ -7239,6 +7401,9 @@
       <c r="D142" s="0" t="s">
         <v>1339</v>
       </c>
+      <c r="E142" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="143" spans="1:5" ht="16.500000" hidden="1">
       <c r="A143" s="0" t="s">
@@ -7270,6 +7435,9 @@
       <c r="D144" s="0" t="s">
         <v>1345</v>
       </c>
+      <c r="E144" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="145" spans="1:5" ht="16.500000" hidden="1">
       <c r="A145" s="0" t="s">
@@ -7301,6 +7469,9 @@
       <c r="D146" s="0" t="s">
         <v>1345</v>
       </c>
+      <c r="E146" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="147" spans="1:5" ht="16.500000" hidden="1">
       <c r="A147" s="0" t="s">
@@ -7332,8 +7503,11 @@
       <c r="D148" s="0" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" ht="16.500000" hidden="1">
+      <c r="E148" s="0" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149" s="0" t="s">
         <v>315</v>
       </c>
@@ -7360,8 +7534,11 @@
       <c r="D150" s="0" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="151" spans="1:5">
+      <c r="E150" s="0" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="16.500000" hidden="1">
       <c r="A151" s="0" t="s">
         <v>319</v>
       </c>
@@ -7391,6 +7568,9 @@
       <c r="D152" s="0" t="s">
         <v>1345</v>
       </c>
+      <c r="E152" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="153" spans="1:5" ht="16.500000" hidden="1">
       <c r="A153" s="0" t="s">
@@ -7405,6 +7585,9 @@
       <c r="D153" s="0" t="s">
         <v>1345</v>
       </c>
+      <c r="E153" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="154" spans="1:5" ht="16.500000" hidden="1">
       <c r="A154" s="0" t="s">
@@ -7419,6 +7602,9 @@
       <c r="D154" s="0" t="s">
         <v>1345</v>
       </c>
+      <c r="E154" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="155" spans="1:5" ht="16.500000" hidden="1">
       <c r="A155" s="0" t="s">
@@ -7434,7 +7620,7 @@
         <v>537</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>534</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="16.500000" hidden="1">
@@ -7451,7 +7637,7 @@
         <v>537</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>534</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="16.500000" hidden="1">
@@ -7467,8 +7653,11 @@
       <c r="D157" s="0" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" ht="16.500000" hidden="1">
+      <c r="E157" s="0" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158" s="0" t="s">
         <v>329</v>
       </c>
@@ -7482,7 +7671,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" ht="16.500000" hidden="1">
       <c r="A159" s="0" t="s">
         <v>331</v>
       </c>
@@ -7512,8 +7701,11 @@
       <c r="D160" s="0" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" ht="16.500000" hidden="1">
+      <c r="E160" s="0" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
       <c r="A161" s="0" t="s">
         <v>98</v>
       </c>
@@ -7541,7 +7733,7 @@
         <v>537</v>
       </c>
       <c r="E162" s="0" t="s">
-        <v>534</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="16.500000" hidden="1">
@@ -7557,6 +7749,9 @@
       <c r="D163" s="0" t="s">
         <v>1366</v>
       </c>
+      <c r="E163" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="164" spans="1:5" ht="16.500000" hidden="1">
       <c r="A164" s="0" t="s">
@@ -7571,6 +7766,9 @@
       <c r="D164" s="0" t="s">
         <v>1342</v>
       </c>
+      <c r="E164" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="165" spans="1:5" ht="16.500000" hidden="1">
       <c r="A165" s="0" t="s">
@@ -7585,6 +7783,9 @@
       <c r="D165" s="0" t="s">
         <v>1367</v>
       </c>
+      <c r="E165" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="166" spans="1:5" ht="16.500000" hidden="1">
       <c r="A166" s="0" t="s">
@@ -7633,8 +7834,11 @@
       <c r="D168" s="0" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" ht="16.500000" hidden="1">
+      <c r="E168" s="0" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
       <c r="A169" s="0" t="s">
         <v>162</v>
       </c>
@@ -7648,7 +7852,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="16.500000" hidden="1">
+    <row r="170" spans="1:5">
       <c r="A170" s="0" t="s">
         <v>172</v>
       </c>
@@ -7679,7 +7883,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="16.500000" hidden="1">
+    <row r="172" spans="1:5">
       <c r="A172" s="0" t="s">
         <v>128</v>
       </c>
@@ -7740,6 +7944,9 @@
       <c r="D175" s="0" t="s">
         <v>1339</v>
       </c>
+      <c r="E175" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="176" spans="1:5" ht="16.500000" hidden="1">
       <c r="A176" s="0" t="s">
@@ -7771,6 +7978,9 @@
       <c r="D177" s="0" t="s">
         <v>1345</v>
       </c>
+      <c r="E177" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="178" spans="1:5" ht="16.500000" hidden="1">
       <c r="A178" s="0" t="s">
@@ -7806,7 +8016,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="16.500000" hidden="1">
+    <row r="180" spans="1:5">
       <c r="A180" s="0" t="s">
         <v>146</v>
       </c>
@@ -7820,7 +8030,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="16.500000" hidden="1">
+    <row r="181" spans="1:5">
       <c r="A181" s="0" t="s">
         <v>345</v>
       </c>
@@ -7834,7 +8044,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="16.500000" hidden="1">
+    <row r="182" spans="1:5">
       <c r="A182" s="0" t="s">
         <v>506</v>
       </c>
@@ -7895,8 +8105,11 @@
       <c r="D185" s="0" t="s">
         <v>1339</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" ht="16.500000" hidden="1">
+      <c r="E185" s="0" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
       <c r="A186" s="0" t="s">
         <v>487</v>
       </c>
@@ -7910,7 +8123,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="16.500000" hidden="1">
+    <row r="187" spans="1:5">
       <c r="A187" s="0" t="s">
         <v>347</v>
       </c>
@@ -7924,7 +8137,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="16.500000" hidden="1">
+    <row r="188" spans="1:5">
       <c r="A188" s="0" t="s">
         <v>142</v>
       </c>
@@ -7951,8 +8164,11 @@
       <c r="D189" s="0" t="s">
         <v>1339</v>
       </c>
-    </row>
-    <row r="190" spans="1:5">
+      <c r="E189" s="0" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="16.500000" hidden="1">
       <c r="A190" s="0" t="s">
         <v>32</v>
       </c>
@@ -8003,7 +8219,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="16.500000" hidden="1">
+    <row r="193" spans="1:5">
       <c r="A193" s="0" t="s">
         <v>455</v>
       </c>
@@ -8062,7 +8278,10 @@
         <v>721</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>1333</v>
+        <v>1400</v>
+      </c>
+      <c r="E196" s="0" t="s">
+        <v>1401</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="16.500000" hidden="1">
@@ -8082,7 +8301,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" ht="16.500000" hidden="1">
       <c r="A198" s="0" t="s">
         <v>355</v>
       </c>
@@ -8112,8 +8331,11 @@
       <c r="D199" s="0" t="s">
         <v>1355</v>
       </c>
-    </row>
-    <row r="200" spans="1:5">
+      <c r="E199" s="0" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="16.500000" hidden="1">
       <c r="A200" s="0" t="s">
         <v>357</v>
       </c>
@@ -8143,8 +8365,11 @@
       <c r="D201" s="0" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="202" spans="1:5">
+      <c r="E201" s="0" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="16.500000" hidden="1">
       <c r="A202" s="0" t="s">
         <v>36</v>
       </c>
@@ -8161,7 +8386,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="16.500000" hidden="1">
+    <row r="203" spans="1:5">
       <c r="A203" s="0" t="s">
         <v>514</v>
       </c>
@@ -8188,6 +8413,9 @@
       <c r="D204" s="0" t="s">
         <v>1339</v>
       </c>
+      <c r="E204" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="205" spans="1:5" ht="16.500000" hidden="1">
       <c r="A205" s="0" t="s">
@@ -8217,10 +8445,13 @@
         <v>725</v>
       </c>
       <c r="D206" s="0" t="s">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
+        <v>1398</v>
+      </c>
+      <c r="E206" s="0" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="16.500000" hidden="1">
       <c r="A207" s="0" t="s">
         <v>363</v>
       </c>
@@ -8231,7 +8462,10 @@
         <v>726</v>
       </c>
       <c r="D207" s="0" t="s">
-        <v>1371</v>
+        <v>1394</v>
+      </c>
+      <c r="E207" s="0" t="s">
+        <v>1401</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="16.500000" hidden="1">
@@ -8247,6 +8481,9 @@
       <c r="D208" s="0" t="s">
         <v>1345</v>
       </c>
+      <c r="E208" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="209" spans="1:5" ht="16.500000" hidden="1">
       <c r="A209" s="0" t="s">
@@ -8265,7 +8502,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" ht="16.500000" hidden="1">
       <c r="A210" s="0" t="s">
         <v>367</v>
       </c>
@@ -8277,6 +8514,9 @@
       </c>
       <c r="D210" s="0" t="s">
         <v>1333</v>
+      </c>
+      <c r="E210" s="0" t="s">
+        <v>1341</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="16.500000" hidden="1">
@@ -8296,7 +8536,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="16.500000" hidden="1">
+    <row r="212" spans="1:5">
       <c r="A212" s="0" t="s">
         <v>4</v>
       </c>
@@ -8323,8 +8563,11 @@
       <c r="D213" s="0" t="s">
         <v>1339</v>
       </c>
-    </row>
-    <row r="214" spans="1:5">
+      <c r="E213" s="0" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="16.500000" hidden="1">
       <c r="A214" s="0" t="s">
         <v>28</v>
       </c>
@@ -8358,7 +8601,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" ht="16.500000" hidden="1">
       <c r="A216" s="0" t="s">
         <v>418</v>
       </c>
@@ -8369,10 +8612,13 @@
         <v>756</v>
       </c>
       <c r="D216" s="0" t="s">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
+        <v>1394</v>
+      </c>
+      <c r="E216" s="0" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="16.500000" hidden="1">
       <c r="A217" s="0" t="s">
         <v>371</v>
       </c>
@@ -8384,6 +8630,9 @@
       </c>
       <c r="D217" s="0" t="s">
         <v>1333</v>
+      </c>
+      <c r="E217" s="0" t="s">
+        <v>1341</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="16.500000" hidden="1">
@@ -8403,7 +8652,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" ht="16.500000" hidden="1">
       <c r="A219" s="0" t="s">
         <v>375</v>
       </c>
@@ -8414,7 +8663,7 @@
         <v>734</v>
       </c>
       <c r="D219" s="0" t="s">
-        <v>1351</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="16.500000" hidden="1">
@@ -8468,7 +8717,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="16.500000" hidden="1">
+    <row r="223" spans="1:5">
       <c r="A223" s="0" t="s">
         <v>156</v>
       </c>
@@ -8495,6 +8744,9 @@
       <c r="D224" s="0" t="s">
         <v>1339</v>
       </c>
+      <c r="E224" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="225" spans="1:5" ht="16.500000" hidden="1">
       <c r="A225" s="0" t="s">
@@ -8513,7 +8765,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="16.500000" hidden="1">
+    <row r="226" spans="1:5">
       <c r="A226" s="0" t="s">
         <v>504</v>
       </c>
@@ -8527,7 +8779,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="16.500000" hidden="1">
+    <row r="227" spans="1:5">
       <c r="A227" s="0" t="s">
         <v>126</v>
       </c>
@@ -8541,7 +8793,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="16.500000" hidden="1">
+    <row r="228" spans="1:5">
       <c r="A228" s="0" t="s">
         <v>377</v>
       </c>
@@ -8585,6 +8837,9 @@
       <c r="D230" s="0" t="s">
         <v>1345</v>
       </c>
+      <c r="E230" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="231" spans="1:5" ht="16.500000" hidden="1">
       <c r="A231" s="0" t="s">
@@ -8599,8 +8854,11 @@
       <c r="D231" s="0" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" ht="16.500000" hidden="1">
+      <c r="E231" s="0" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
       <c r="A232" s="0" t="s">
         <v>381</v>
       </c>
@@ -8625,7 +8883,10 @@
         <v>739</v>
       </c>
       <c r="D233" s="0" t="s">
-        <v>1390</v>
+        <v>1400</v>
+      </c>
+      <c r="E233" s="0" t="s">
+        <v>1401</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="16.500000" hidden="1">
@@ -8641,6 +8902,9 @@
       <c r="D234" s="0" t="s">
         <v>1345</v>
       </c>
+      <c r="E234" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="235" spans="1:5" ht="16.500000" hidden="1">
       <c r="A235" s="0" t="s">
@@ -8655,6 +8919,9 @@
       <c r="D235" s="0" t="s">
         <v>1345</v>
       </c>
+      <c r="E235" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="236" spans="1:5" ht="16.500000" hidden="1">
       <c r="A236" s="0" t="s">
@@ -8669,6 +8936,9 @@
       <c r="D236" s="0" t="s">
         <v>1345</v>
       </c>
+      <c r="E236" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="237" spans="1:5" ht="16.500000" hidden="1">
       <c r="A237" s="0" t="s">
@@ -8683,8 +8953,11 @@
       <c r="D237" s="0" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" ht="16.500000" hidden="1">
+      <c r="E237" s="0" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
       <c r="A238" s="0" t="s">
         <v>40</v>
       </c>
@@ -8711,8 +8984,11 @@
       <c r="D239" s="0" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" ht="16.500000" hidden="1">
+      <c r="E239" s="0" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
       <c r="A240" s="0" t="s">
         <v>393</v>
       </c>
@@ -8743,7 +9019,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" ht="16.500000" hidden="1">
       <c r="A242" s="0" t="s">
         <v>397</v>
       </c>
@@ -8754,10 +9030,13 @@
         <v>746</v>
       </c>
       <c r="D242" s="0" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" ht="16.500000" hidden="1">
+        <v>1395</v>
+      </c>
+      <c r="E242" s="0" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
       <c r="A243" s="0" t="s">
         <v>116</v>
       </c>
@@ -8771,7 +9050,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="16.500000" hidden="1">
+    <row r="244" spans="1:5">
       <c r="A244" s="0" t="s">
         <v>122</v>
       </c>
@@ -8785,7 +9064,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="16.500000" hidden="1">
+    <row r="245" spans="1:5">
       <c r="A245" s="0" t="s">
         <v>516</v>
       </c>
@@ -8846,8 +9125,11 @@
       <c r="D248" s="0" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="249" spans="1:5">
+      <c r="E248" s="0" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="16.500000" hidden="1">
       <c r="A249" s="0" t="s">
         <v>424</v>
       </c>
@@ -8858,7 +9140,10 @@
         <v>759</v>
       </c>
       <c r="D249" s="0" t="s">
-        <v>1372</v>
+        <v>1395</v>
+      </c>
+      <c r="E249" s="0" t="s">
+        <v>1401</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="16.500000" hidden="1">
@@ -8874,6 +9159,9 @@
       <c r="D250" s="0" t="s">
         <v>1345</v>
       </c>
+      <c r="E250" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="251" spans="1:5" ht="16.500000" hidden="1">
       <c r="A251" s="0" t="s">
@@ -8892,7 +9180,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" ht="16.500000" hidden="1">
       <c r="A252" s="0" t="s">
         <v>403</v>
       </c>
@@ -8905,8 +9193,11 @@
       <c r="D252" s="0" t="s">
         <v>1333</v>
       </c>
-    </row>
-    <row r="253" spans="1:5">
+      <c r="E252" s="0" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="16.500000" hidden="1">
       <c r="A253" s="0" t="s">
         <v>166</v>
       </c>
@@ -8918,6 +9209,9 @@
       </c>
       <c r="D253" s="0" t="s">
         <v>1365</v>
+      </c>
+      <c r="E253" s="0" t="s">
+        <v>1341</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="16.500000" hidden="1">
@@ -8950,6 +9244,9 @@
       <c r="D255" s="0" t="s">
         <v>1345</v>
       </c>
+      <c r="E255" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="256" spans="1:5" ht="16.500000" hidden="1">
       <c r="A256" s="0" t="s">
@@ -8964,6 +9261,9 @@
       <c r="D256" s="0" t="s">
         <v>1339</v>
       </c>
+      <c r="E256" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="257" spans="1:5" ht="16.500000" hidden="1">
       <c r="A257" s="0" t="s">
@@ -9012,6 +9312,9 @@
       <c r="D259" s="0" t="s">
         <v>1339</v>
       </c>
+      <c r="E259" s="0" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="260" spans="1:5" ht="16.500000" hidden="1">
       <c r="A260" s="0" t="s">
@@ -9025,6 +9328,9 @@
       </c>
       <c r="D260" s="0" t="s">
         <v>1345</v>
+      </c>
+      <c r="E260" s="0" t="s">
+        <v>1401</v>
       </c>
     </row>
     <row r="261" spans="1:5" ht="16.500000" hidden="1">
@@ -9046,13 +9352,19 @@
     <filterColumn colId="1">
       <filters>
         <filter val="All"/>
-        <filter val="유럽"/>
-        <filter val="유럽(독일)"/>
-        <filter val="유럽(영국)"/>
-        <filter val="유럽(유고슬라비아)"/>
-        <filter val="유럽(이베리아)"/>
-        <filter val="유럽(이탈리아)"/>
-        <filter val="유럽(프랑스)"/>
+        <filter val="남미"/>
+        <filter val="동남아시아"/>
+        <filter val="동북아시아"/>
+        <filter val="러시아"/>
+        <filter val="북미"/>
+        <filter val="아프리카"/>
+        <filter val="인도"/>
+        <filter val="중국"/>
+        <filter val="중동"/>
+        <filter val="중미"/>
+        <filter val="중앙아시아"/>
+        <filter val="코카서스"/>
+        <filter val="태평양"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">
@@ -10976,7 +11288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="180" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="170" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -4554,9 +4554,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4571,25 +4569,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4604,7 +4610,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4619,7 +4627,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -4634,13 +4644,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -4649,14 +4663,18 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -5048,7 +5066,7 @@
   <dimension ref="A1:E261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+      <selection activeCell="E226" sqref="E226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5159,7 +5177,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="16.500000" hidden="1">
       <c r="A7" s="0" t="s">
         <v>181</v>
       </c>
@@ -5779,7 +5797,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" ht="16.500000" hidden="1">
       <c r="A44" s="0" t="s">
         <v>219</v>
       </c>
@@ -5810,7 +5828,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" ht="16.500000" hidden="1">
       <c r="A46" s="0" t="s">
         <v>479</v>
       </c>
@@ -5858,7 +5876,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" ht="16.500000" hidden="1">
       <c r="A49" s="0" t="s">
         <v>225</v>
       </c>
@@ -5889,7 +5907,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" ht="16.500000" hidden="1">
       <c r="A51" s="0" t="s">
         <v>431</v>
       </c>
@@ -5920,7 +5938,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" ht="16.500000" hidden="1">
       <c r="A53" s="0" t="s">
         <v>78</v>
       </c>
@@ -6189,7 +6207,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" ht="16.500000" hidden="1">
       <c r="A69" s="0" t="s">
         <v>170</v>
       </c>
@@ -6540,7 +6558,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" ht="16.500000" hidden="1">
       <c r="A90" s="0" t="s">
         <v>273</v>
       </c>
@@ -6656,7 +6674,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" ht="16.500000" hidden="1">
       <c r="A97" s="0" t="s">
         <v>84</v>
       </c>
@@ -6721,7 +6739,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" ht="16.500000" hidden="1">
       <c r="A101" s="0" t="s">
         <v>275</v>
       </c>
@@ -6769,7 +6787,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" ht="16.500000" hidden="1">
       <c r="A104" s="0" t="s">
         <v>86</v>
       </c>
@@ -6902,7 +6920,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" ht="16.500000" hidden="1">
       <c r="A112" s="0" t="s">
         <v>88</v>
       </c>
@@ -6984,7 +7002,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" ht="16.500000" hidden="1">
       <c r="A117" s="0" t="s">
         <v>154</v>
       </c>
@@ -7097,7 +7115,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" ht="16.500000" hidden="1">
       <c r="A124" s="0" t="s">
         <v>291</v>
       </c>
@@ -7159,7 +7177,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" ht="16.500000" hidden="1">
       <c r="A128" s="0" t="s">
         <v>522</v>
       </c>
@@ -7207,7 +7225,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" ht="16.500000" hidden="1">
       <c r="A131" s="0" t="s">
         <v>295</v>
       </c>
@@ -7306,7 +7324,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" ht="16.500000" hidden="1">
       <c r="A137" s="0" t="s">
         <v>303</v>
       </c>
@@ -7507,7 +7525,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" ht="16.500000" hidden="1">
       <c r="A149" s="0" t="s">
         <v>315</v>
       </c>
@@ -7657,7 +7675,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" ht="16.500000" hidden="1">
       <c r="A158" s="0" t="s">
         <v>329</v>
       </c>
@@ -7705,7 +7723,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" ht="16.500000" hidden="1">
       <c r="A161" s="0" t="s">
         <v>98</v>
       </c>
@@ -7838,7 +7856,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" ht="16.500000" hidden="1">
       <c r="A169" s="0" t="s">
         <v>162</v>
       </c>
@@ -7852,7 +7870,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" ht="16.500000" hidden="1">
       <c r="A170" s="0" t="s">
         <v>172</v>
       </c>
@@ -8016,7 +8034,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" ht="16.500000" hidden="1">
       <c r="A180" s="0" t="s">
         <v>146</v>
       </c>
@@ -8030,7 +8048,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" ht="16.500000" hidden="1">
       <c r="A181" s="0" t="s">
         <v>345</v>
       </c>
@@ -8044,7 +8062,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" ht="16.500000" hidden="1">
       <c r="A182" s="0" t="s">
         <v>506</v>
       </c>
@@ -8109,7 +8127,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" ht="16.500000" hidden="1">
       <c r="A186" s="0" t="s">
         <v>487</v>
       </c>
@@ -8123,7 +8141,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" ht="16.500000" hidden="1">
       <c r="A187" s="0" t="s">
         <v>347</v>
       </c>
@@ -8137,7 +8155,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" ht="16.500000" hidden="1">
       <c r="A188" s="0" t="s">
         <v>142</v>
       </c>
@@ -8219,7 +8237,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" ht="16.500000" hidden="1">
       <c r="A193" s="0" t="s">
         <v>455</v>
       </c>
@@ -8717,7 +8735,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" ht="16.500000" hidden="1">
       <c r="A223" s="0" t="s">
         <v>156</v>
       </c>
@@ -8793,7 +8811,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" ht="16.500000" hidden="1">
       <c r="A228" s="0" t="s">
         <v>377</v>
       </c>
@@ -8957,7 +8975,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" ht="16.500000" hidden="1">
       <c r="A238" s="0" t="s">
         <v>40</v>
       </c>
@@ -8988,7 +9006,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" ht="16.500000" hidden="1">
       <c r="A240" s="0" t="s">
         <v>393</v>
       </c>
@@ -9050,7 +9068,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" ht="16.500000" hidden="1">
       <c r="A244" s="0" t="s">
         <v>122</v>
       </c>
@@ -9356,15 +9374,8 @@
         <filter val="동남아시아"/>
         <filter val="동북아시아"/>
         <filter val="러시아"/>
-        <filter val="북미"/>
-        <filter val="아프리카"/>
-        <filter val="인도"/>
-        <filter val="중국"/>
-        <filter val="중동"/>
-        <filter val="중미"/>
         <filter val="중앙아시아"/>
         <filter val="코카서스"/>
-        <filter val="태평양"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="170" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="160" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,8 @@
   </sheets>
   <definedNames>
     <definedName name="새_텍스트_문서" localSheetId="0">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'국가 태그'!$A$1:$E$261</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'임시 태그'!$A$1:$D$162</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'국가 태그'!$A$1:$E$263</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="1402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="1415">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4239,6 +4239,45 @@
   </si>
   <si>
     <t>코어 빠짐</t>
+  </si>
+  <si>
+    <t>미등장</t>
+  </si>
+  <si>
+    <t>MOS</t>
+  </si>
+  <si>
+    <t>모스크바</t>
+  </si>
+  <si>
+    <t>URA</t>
+  </si>
+  <si>
+    <t>fj</t>
+  </si>
+  <si>
+    <t>우랄</t>
+  </si>
+  <si>
+    <t>MOS_GER</t>
+  </si>
+  <si>
+    <t>URA_GER</t>
+  </si>
+  <si>
+    <t>DKB_GER</t>
+  </si>
+  <si>
+    <t>모스크바 군정청</t>
+  </si>
+  <si>
+    <t>우랄 군정청</t>
+  </si>
+  <si>
+    <t>돈-쿠반 군정청</t>
+  </si>
+  <si>
+    <t>O</t>
   </si>
 </sst>
 </file>
@@ -4554,7 +4593,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4569,33 +4610,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4610,9 +4643,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4627,9 +4658,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -4644,17 +4673,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -4663,18 +4688,14 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -5063,10 +5084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E261"/>
+  <dimension ref="A1:E263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E226" sqref="E226"/>
+      <selection activeCell="E247" sqref="E247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5828,7 +5849,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16.500000" hidden="1">
+    <row r="46" spans="1:5">
       <c r="A46" s="0" t="s">
         <v>479</v>
       </c>
@@ -6139,7 +6160,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="16.500000" hidden="1">
+    <row r="65" spans="1:5">
       <c r="A65" s="0" t="s">
         <v>239</v>
       </c>
@@ -6150,10 +6171,7 @@
         <v>664</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>1398</v>
-      </c>
-      <c r="E65" s="0" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="16.500000" hidden="1">
@@ -7525,80 +7543,77 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="16.500000" hidden="1">
+    <row r="149" spans="1:5">
       <c r="A149" s="0" t="s">
-        <v>315</v>
+        <v>1403</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>812</v>
+        <v>1391</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>701</v>
+        <v>1404</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>1351</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="16.500000" hidden="1">
       <c r="A150" s="0" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B150" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E150" s="0" t="s">
-        <v>1401</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="16.500000" hidden="1">
       <c r="A151" s="0" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>1333</v>
+        <v>1345</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>1341</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="16.500000" hidden="1">
       <c r="A152" s="0" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>611</v>
+        <v>833</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>1345</v>
+        <v>1333</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>1401</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="16.500000" hidden="1">
       <c r="A153" s="0" t="s">
-        <v>435</v>
+        <v>321</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>812</v>
+        <v>611</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>763</v>
+        <v>704</v>
       </c>
       <c r="D153" s="0" t="s">
         <v>1345</v>
@@ -7609,13 +7624,13 @@
     </row>
     <row r="154" spans="1:5" ht="16.500000" hidden="1">
       <c r="A154" s="0" t="s">
-        <v>323</v>
+        <v>435</v>
       </c>
       <c r="B154" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>705</v>
+        <v>763</v>
       </c>
       <c r="D154" s="0" t="s">
         <v>1345</v>
@@ -7626,16 +7641,16 @@
     </row>
     <row r="155" spans="1:5" ht="16.500000" hidden="1">
       <c r="A155" s="0" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>537</v>
+        <v>1345</v>
       </c>
       <c r="E155" s="0" t="s">
         <v>1401</v>
@@ -7643,13 +7658,13 @@
     </row>
     <row r="156" spans="1:5" ht="16.500000" hidden="1">
       <c r="A156" s="0" t="s">
-        <v>96</v>
+        <v>325</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>611</v>
+        <v>810</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>588</v>
+        <v>706</v>
       </c>
       <c r="D156" s="0" t="s">
         <v>537</v>
@@ -7660,16 +7675,16 @@
     </row>
     <row r="157" spans="1:5" ht="16.500000" hidden="1">
       <c r="A157" s="0" t="s">
-        <v>327</v>
+        <v>96</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>812</v>
+        <v>611</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>707</v>
+        <v>588</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>1345</v>
+        <v>537</v>
       </c>
       <c r="E157" s="0" t="s">
         <v>1401</v>
@@ -7677,95 +7692,95 @@
     </row>
     <row r="158" spans="1:5" ht="16.500000" hidden="1">
       <c r="A158" s="0" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B158" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>1351</v>
+        <v>1345</v>
+      </c>
+      <c r="E158" s="0" t="s">
+        <v>1401</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="16.500000" hidden="1">
       <c r="A159" s="0" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>1368</v>
+        <v>708</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>1363</v>
-      </c>
-      <c r="E159" s="0" t="s">
-        <v>1341</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="16.500000" hidden="1">
       <c r="A160" s="0" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>812</v>
+        <v>828</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>710</v>
+        <v>1368</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>1345</v>
+        <v>1363</v>
       </c>
       <c r="E160" s="0" t="s">
-        <v>1401</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="16.500000" hidden="1">
       <c r="A161" s="0" t="s">
-        <v>98</v>
+        <v>333</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>1216</v>
+        <v>710</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>1348</v>
+        <v>1345</v>
+      </c>
+      <c r="E161" s="0" t="s">
+        <v>1401</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="16.500000" hidden="1">
       <c r="A162" s="0" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>529</v>
+        <v>811</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>559</v>
+        <v>1216</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E162" s="0" t="s">
-        <v>1401</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="16.500000" hidden="1">
       <c r="A163" s="0" t="s">
-        <v>335</v>
+        <v>46</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>831</v>
+        <v>529</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>713</v>
+        <v>559</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>1366</v>
+        <v>537</v>
       </c>
       <c r="E163" s="0" t="s">
         <v>1401</v>
@@ -7773,16 +7788,16 @@
     </row>
     <row r="164" spans="1:5" ht="16.500000" hidden="1">
       <c r="A164" s="0" t="s">
-        <v>100</v>
+        <v>335</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>815</v>
+        <v>831</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>590</v>
+        <v>713</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>1342</v>
+        <v>1366</v>
       </c>
       <c r="E164" s="0" t="s">
         <v>1401</v>
@@ -7790,16 +7805,16 @@
     </row>
     <row r="165" spans="1:5" ht="16.500000" hidden="1">
       <c r="A165" s="0" t="s">
-        <v>337</v>
+        <v>100</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>831</v>
+        <v>815</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>712</v>
+        <v>590</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>1367</v>
+        <v>1342</v>
       </c>
       <c r="E165" s="0" t="s">
         <v>1401</v>
@@ -7807,30 +7822,30 @@
     </row>
     <row r="166" spans="1:5" ht="16.500000" hidden="1">
       <c r="A166" s="0" t="s">
-        <v>140</v>
+        <v>337</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>808</v>
+        <v>831</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>610</v>
+        <v>712</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>537</v>
+        <v>1367</v>
       </c>
       <c r="E166" s="0" t="s">
-        <v>534</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="16.500000" hidden="1">
       <c r="A167" s="0" t="s">
-        <v>339</v>
+        <v>140</v>
       </c>
       <c r="B167" s="0" t="s">
         <v>808</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>714</v>
+        <v>610</v>
       </c>
       <c r="D167" s="0" t="s">
         <v>537</v>
@@ -7841,106 +7856,106 @@
     </row>
     <row r="168" spans="1:5" ht="16.500000" hidden="1">
       <c r="A168" s="0" t="s">
-        <v>439</v>
+        <v>339</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>765</v>
+        <v>714</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>1345</v>
+        <v>537</v>
       </c>
       <c r="E168" s="0" t="s">
-        <v>1401</v>
+        <v>534</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="16.500000" hidden="1">
       <c r="A169" s="0" t="s">
-        <v>162</v>
+        <v>439</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>621</v>
+        <v>765</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>1348</v>
+        <v>1345</v>
+      </c>
+      <c r="E169" s="0" t="s">
+        <v>1401</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="16.500000" hidden="1">
       <c r="A170" s="0" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="16.500000" hidden="1">
       <c r="A171" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>819</v>
+      </c>
+      <c r="C171" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="D171" s="0" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="16.500000" hidden="1">
+      <c r="A172" s="0" t="s">
         <v>416</v>
       </c>
-      <c r="B171" s="0" t="s">
+      <c r="B172" s="0" t="s">
         <v>835</v>
       </c>
-      <c r="C171" s="0" t="s">
+      <c r="C172" s="0" t="s">
         <v>755</v>
       </c>
-      <c r="D171" s="0" t="s">
+      <c r="D172" s="0" t="s">
         <v>537</v>
       </c>
-      <c r="E171" s="0" t="s">
+      <c r="E172" s="0" t="s">
         <v>534</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
-      <c r="A172" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B172" s="0" t="s">
-        <v>809</v>
-      </c>
-      <c r="C172" s="0" t="s">
-        <v>604</v>
-      </c>
-      <c r="D172" s="0" t="s">
-        <v>1333</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="16.500000" hidden="1">
       <c r="A173" s="0" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E173" s="0" t="s">
-        <v>534</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="16.500000" hidden="1">
       <c r="A174" s="0" t="s">
-        <v>174</v>
+        <v>102</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>837</v>
+        <v>808</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>627</v>
+        <v>591</v>
       </c>
       <c r="D174" s="0" t="s">
         <v>537</v>
@@ -7951,81 +7966,81 @@
     </row>
     <row r="175" spans="1:5" ht="16.500000" hidden="1">
       <c r="A175" s="0" t="s">
-        <v>341</v>
+        <v>174</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>715</v>
+        <v>627</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>1339</v>
+        <v>537</v>
       </c>
       <c r="E175" s="0" t="s">
-        <v>1401</v>
+        <v>534</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="16.500000" hidden="1">
       <c r="A176" s="0" t="s">
-        <v>501</v>
+        <v>341</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>611</v>
+        <v>840</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>796</v>
+        <v>715</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>537</v>
+        <v>1339</v>
       </c>
       <c r="E176" s="0" t="s">
-        <v>534</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="16.500000" hidden="1">
       <c r="A177" s="0" t="s">
-        <v>343</v>
+        <v>501</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>825</v>
+        <v>611</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>716</v>
+        <v>796</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>1345</v>
+        <v>537</v>
       </c>
       <c r="E177" s="0" t="s">
-        <v>1401</v>
+        <v>534</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="16.500000" hidden="1">
       <c r="A178" s="0" t="s">
-        <v>18</v>
+        <v>343</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>529</v>
+        <v>825</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>545</v>
+        <v>716</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>537</v>
+        <v>1345</v>
       </c>
       <c r="E178" s="0" t="s">
-        <v>534</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="16.500000" hidden="1">
       <c r="A179" s="0" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>832</v>
+        <v>529</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="D179" s="0" t="s">
         <v>537</v>
@@ -8036,27 +8051,30 @@
     </row>
     <row r="180" spans="1:5" ht="16.500000" hidden="1">
       <c r="A180" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>832</v>
+      </c>
+      <c r="C180" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D180" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E180" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="B180" s="0" t="s">
+      <c r="B181" s="0" t="s">
         <v>1287</v>
       </c>
-      <c r="C180" s="0" t="s">
+      <c r="C181" s="0" t="s">
         <v>1385</v>
-      </c>
-      <c r="D180" s="0" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" ht="16.500000" hidden="1">
-      <c r="A181" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="B181" s="0" t="s">
-        <v>611</v>
-      </c>
-      <c r="C181" s="0" t="s">
-        <v>717</v>
       </c>
       <c r="D181" s="0" t="s">
         <v>1333</v>
@@ -8064,44 +8082,41 @@
     </row>
     <row r="182" spans="1:5" ht="16.500000" hidden="1">
       <c r="A182" s="0" t="s">
-        <v>506</v>
+        <v>345</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>819</v>
+        <v>611</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>798</v>
+        <v>717</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>1348</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="16.500000" hidden="1">
       <c r="A183" s="0" t="s">
-        <v>104</v>
+        <v>506</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>809</v>
+        <v>819</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>592</v>
+        <v>798</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E183" s="0" t="s">
-        <v>534</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="16.500000" hidden="1">
       <c r="A184" s="0" t="s">
-        <v>1324</v>
+        <v>104</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>1321</v>
+        <v>592</v>
       </c>
       <c r="D184" s="0" t="s">
         <v>537</v>
@@ -8112,44 +8127,47 @@
     </row>
     <row r="185" spans="1:5" ht="16.500000" hidden="1">
       <c r="A185" s="0" t="s">
-        <v>472</v>
+        <v>1324</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>781</v>
+        <v>1321</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>1339</v>
+        <v>537</v>
       </c>
       <c r="E185" s="0" t="s">
-        <v>1401</v>
+        <v>534</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="16.500000" hidden="1">
       <c r="A186" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>818</v>
+      </c>
+      <c r="C186" s="0" t="s">
+        <v>781</v>
+      </c>
+      <c r="D186" s="0" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E186" s="0" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="0" t="s">
         <v>487</v>
       </c>
-      <c r="B186" s="0" t="s">
+      <c r="B187" s="0" t="s">
         <v>1287</v>
       </c>
-      <c r="C186" s="0" t="s">
+      <c r="C187" s="0" t="s">
         <v>789</v>
-      </c>
-      <c r="D186" s="0" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" ht="16.500000" hidden="1">
-      <c r="A187" s="0" t="s">
-        <v>347</v>
-      </c>
-      <c r="B187" s="0" t="s">
-        <v>810</v>
-      </c>
-      <c r="C187" s="0" t="s">
-        <v>718</v>
       </c>
       <c r="D187" s="0" t="s">
         <v>1333</v>
@@ -8157,13 +8175,13 @@
     </row>
     <row r="188" spans="1:5" ht="16.500000" hidden="1">
       <c r="A188" s="0" t="s">
-        <v>142</v>
+        <v>347</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>611</v>
+        <v>810</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>611</v>
+        <v>718</v>
       </c>
       <c r="D188" s="0" t="s">
         <v>1333</v>
@@ -8171,50 +8189,47 @@
     </row>
     <row r="189" spans="1:5" ht="16.500000" hidden="1">
       <c r="A189" s="0" t="s">
-        <v>460</v>
+        <v>142</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>840</v>
+        <v>611</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>775</v>
+        <v>611</v>
       </c>
       <c r="D189" s="0" t="s">
-        <v>1339</v>
-      </c>
-      <c r="E189" s="0" t="s">
-        <v>1401</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="16.500000" hidden="1">
       <c r="A190" s="0" t="s">
-        <v>32</v>
+        <v>460</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>529</v>
+        <v>840</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>729</v>
+        <v>775</v>
       </c>
       <c r="D190" s="0" t="s">
-        <v>1333</v>
+        <v>1339</v>
       </c>
       <c r="E190" s="0" t="s">
-        <v>534</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="16.500000" hidden="1">
       <c r="A191" s="0" t="s">
-        <v>349</v>
+        <v>32</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>825</v>
+        <v>529</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>719</v>
+        <v>729</v>
       </c>
       <c r="D191" s="0" t="s">
-        <v>537</v>
+        <v>1333</v>
       </c>
       <c r="E191" s="0" t="s">
         <v>534</v>
@@ -8222,13 +8237,13 @@
     </row>
     <row r="192" spans="1:5" ht="16.500000" hidden="1">
       <c r="A192" s="0" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D192" s="0" t="s">
         <v>537</v>
@@ -8239,44 +8254,44 @@
     </row>
     <row r="193" spans="1:5" ht="16.500000" hidden="1">
       <c r="A193" s="0" t="s">
-        <v>455</v>
+        <v>351</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>812</v>
+        <v>826</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>773</v>
+        <v>720</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>1351</v>
+        <v>537</v>
+      </c>
+      <c r="E193" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="16.500000" hidden="1">
       <c r="A194" s="0" t="s">
-        <v>495</v>
+        <v>455</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>836</v>
+        <v>812</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>793</v>
+        <v>773</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E194" s="0" t="s">
-        <v>534</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="16.500000" hidden="1">
       <c r="A195" s="0" t="s">
-        <v>106</v>
+        <v>495</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>812</v>
+        <v>836</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>593</v>
+        <v>793</v>
       </c>
       <c r="D195" s="0" t="s">
         <v>537</v>
@@ -8287,200 +8302,200 @@
     </row>
     <row r="196" spans="1:5" ht="16.500000" hidden="1">
       <c r="A196" s="0" t="s">
-        <v>353</v>
+        <v>106</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>837</v>
+        <v>812</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>721</v>
+        <v>593</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>1400</v>
+        <v>537</v>
       </c>
       <c r="E196" s="0" t="s">
-        <v>1401</v>
+        <v>534</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="16.500000" hidden="1">
       <c r="A197" s="0" t="s">
-        <v>108</v>
+        <v>353</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>808</v>
+        <v>837</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>1312</v>
+        <v>721</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>537</v>
+        <v>1400</v>
       </c>
       <c r="E197" s="0" t="s">
-        <v>534</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="16.500000" hidden="1">
       <c r="A198" s="0" t="s">
-        <v>355</v>
+        <v>108</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>825</v>
+        <v>808</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>722</v>
+        <v>1312</v>
       </c>
       <c r="D198" s="0" t="s">
-        <v>1351</v>
+        <v>537</v>
       </c>
       <c r="E198" s="0" t="s">
-        <v>1341</v>
+        <v>534</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="16.500000" hidden="1">
       <c r="A199" s="0" t="s">
-        <v>512</v>
+        <v>355</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>801</v>
+        <v>722</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="E199" s="0" t="s">
-        <v>1401</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="16.500000" hidden="1">
       <c r="A200" s="0" t="s">
-        <v>357</v>
+        <v>512</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>723</v>
+        <v>801</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>1333</v>
+        <v>1355</v>
       </c>
       <c r="E200" s="0" t="s">
-        <v>1341</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="16.500000" hidden="1">
       <c r="A201" s="0" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>812</v>
+        <v>829</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D201" s="0" t="s">
-        <v>1345</v>
+        <v>1333</v>
       </c>
       <c r="E201" s="0" t="s">
-        <v>1401</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="16.500000" hidden="1">
       <c r="A202" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="C202" s="0" t="s">
+        <v>724</v>
+      </c>
+      <c r="D202" s="0" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E202" s="0" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="16.500000" hidden="1">
+      <c r="A203" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B202" s="0" t="s">
+      <c r="B203" s="0" t="s">
         <v>833</v>
       </c>
-      <c r="C202" s="0" t="s">
+      <c r="C203" s="0" t="s">
         <v>554</v>
-      </c>
-      <c r="D202" s="0" t="s">
-        <v>1333</v>
-      </c>
-      <c r="E202" s="0" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="A203" s="0" t="s">
-        <v>514</v>
-      </c>
-      <c r="B203" s="0" t="s">
-        <v>837</v>
-      </c>
-      <c r="C203" s="0" t="s">
-        <v>802</v>
       </c>
       <c r="D203" s="0" t="s">
         <v>1333</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" ht="16.500000" hidden="1">
+      <c r="E203" s="0" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
       <c r="A204" s="0" t="s">
-        <v>148</v>
+        <v>514</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>1287</v>
+        <v>837</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>614</v>
+        <v>802</v>
       </c>
       <c r="D204" s="0" t="s">
-        <v>1339</v>
-      </c>
-      <c r="E204" s="0" t="s">
-        <v>1401</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="16.500000" hidden="1">
       <c r="A205" s="0" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>837</v>
+        <v>1287</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>595</v>
+        <v>614</v>
       </c>
       <c r="D205" s="0" t="s">
-        <v>537</v>
+        <v>1339</v>
       </c>
       <c r="E205" s="0" t="s">
-        <v>534</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="16.500000" hidden="1">
       <c r="A206" s="0" t="s">
-        <v>361</v>
+        <v>110</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>826</v>
+        <v>837</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>725</v>
+        <v>595</v>
       </c>
       <c r="D206" s="0" t="s">
-        <v>1398</v>
+        <v>537</v>
       </c>
       <c r="E206" s="0" t="s">
-        <v>1401</v>
+        <v>534</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="16.500000" hidden="1">
       <c r="A207" s="0" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D207" s="0" t="s">
-        <v>1394</v>
+        <v>1398</v>
       </c>
       <c r="E207" s="0" t="s">
         <v>1401</v>
@@ -8488,16 +8503,16 @@
     </row>
     <row r="208" spans="1:5" ht="16.500000" hidden="1">
       <c r="A208" s="0" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>812</v>
+        <v>835</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D208" s="0" t="s">
-        <v>1345</v>
+        <v>1394</v>
       </c>
       <c r="E208" s="0" t="s">
         <v>1401</v>
@@ -8505,33 +8520,33 @@
     </row>
     <row r="209" spans="1:5" ht="16.500000" hidden="1">
       <c r="A209" s="0" t="s">
-        <v>112</v>
+        <v>365</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>836</v>
+        <v>812</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>596</v>
+        <v>727</v>
       </c>
       <c r="D209" s="0" t="s">
-        <v>537</v>
+        <v>1345</v>
       </c>
       <c r="E209" s="0" t="s">
-        <v>1341</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="16.500000" hidden="1">
       <c r="A210" s="0" t="s">
-        <v>367</v>
+        <v>112</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>730</v>
+        <v>596</v>
       </c>
       <c r="D210" s="0" t="s">
-        <v>1333</v>
+        <v>537</v>
       </c>
       <c r="E210" s="0" t="s">
         <v>1341</v>
@@ -8539,81 +8554,81 @@
     </row>
     <row r="211" spans="1:5" ht="16.500000" hidden="1">
       <c r="A211" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="B211" s="0" t="s">
+        <v>833</v>
+      </c>
+      <c r="C211" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="D211" s="0" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E211" s="0" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="16.500000" hidden="1">
+      <c r="A212" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="B211" s="0" t="s">
+      <c r="B212" s="0" t="s">
         <v>812</v>
       </c>
-      <c r="C211" s="0" t="s">
+      <c r="C212" s="0" t="s">
         <v>731</v>
       </c>
-      <c r="D211" s="0" t="s">
+      <c r="D212" s="0" t="s">
         <v>537</v>
       </c>
-      <c r="E211" s="0" t="s">
+      <c r="E212" s="0" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
-      <c r="A212" s="0" t="s">
+    <row r="213" spans="1:5">
+      <c r="A213" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B212" s="0" t="s">
+      <c r="B213" s="0" t="s">
         <v>830</v>
       </c>
-      <c r="C212" s="0" t="s">
+      <c r="C213" s="0" t="s">
         <v>538</v>
       </c>
-      <c r="D212" s="0" t="s">
+      <c r="D213" s="0" t="s">
         <v>1333</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" ht="16.500000" hidden="1">
-      <c r="A213" s="0" t="s">
-        <v>462</v>
-      </c>
-      <c r="B213" s="0" t="s">
-        <v>840</v>
-      </c>
-      <c r="C213" s="0" t="s">
-        <v>776</v>
-      </c>
-      <c r="D213" s="0" t="s">
-        <v>1339</v>
-      </c>
-      <c r="E213" s="0" t="s">
-        <v>1401</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="16.500000" hidden="1">
       <c r="A214" s="0" t="s">
-        <v>28</v>
+        <v>462</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>850</v>
+        <v>776</v>
       </c>
       <c r="D214" s="0" t="s">
-        <v>851</v>
+        <v>1339</v>
       </c>
       <c r="E214" s="0" t="s">
-        <v>534</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="16.500000" hidden="1">
       <c r="A215" s="0" t="s">
-        <v>489</v>
+        <v>28</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>1287</v>
+        <v>832</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>790</v>
+        <v>850</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>537</v>
+        <v>851</v>
       </c>
       <c r="E215" s="0" t="s">
         <v>534</v>
@@ -8621,95 +8636,95 @@
     </row>
     <row r="216" spans="1:5" ht="16.500000" hidden="1">
       <c r="A216" s="0" t="s">
-        <v>418</v>
+        <v>489</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>835</v>
+        <v>1287</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>756</v>
+        <v>790</v>
       </c>
       <c r="D216" s="0" t="s">
-        <v>1394</v>
+        <v>537</v>
       </c>
       <c r="E216" s="0" t="s">
-        <v>1401</v>
+        <v>534</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="16.500000" hidden="1">
       <c r="A217" s="0" t="s">
-        <v>371</v>
+        <v>418</v>
       </c>
       <c r="B217" s="0" t="s">
         <v>835</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>852</v>
+        <v>756</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>1333</v>
+        <v>1394</v>
       </c>
       <c r="E217" s="0" t="s">
-        <v>1341</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="16.500000" hidden="1">
       <c r="A218" s="0" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>812</v>
+        <v>835</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>733</v>
+        <v>852</v>
       </c>
       <c r="D218" s="0" t="s">
-        <v>537</v>
+        <v>1333</v>
       </c>
       <c r="E218" s="0" t="s">
-        <v>534</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="16.500000" hidden="1">
       <c r="A219" s="0" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>825</v>
+        <v>812</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D219" s="0" t="s">
-        <v>1396</v>
+        <v>537</v>
+      </c>
+      <c r="E219" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="16.500000" hidden="1">
       <c r="A220" s="0" t="s">
-        <v>6</v>
+        <v>375</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>529</v>
+        <v>825</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>539</v>
+        <v>734</v>
       </c>
       <c r="D220" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E220" s="0" t="s">
-        <v>534</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="16.500000" hidden="1">
       <c r="A221" s="0" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="B221" s="0" t="s">
         <v>529</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="D221" s="0" t="s">
         <v>537</v>
@@ -8720,13 +8735,13 @@
     </row>
     <row r="222" spans="1:5" ht="16.500000" hidden="1">
       <c r="A222" s="0" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>808</v>
+        <v>529</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>609</v>
+        <v>555</v>
       </c>
       <c r="D222" s="0" t="s">
         <v>537</v>
@@ -8737,89 +8752,92 @@
     </row>
     <row r="223" spans="1:5" ht="16.500000" hidden="1">
       <c r="A223" s="0" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="B223" s="0" t="s">
         <v>808</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="D223" s="0" t="s">
-        <v>1348</v>
+        <v>537</v>
+      </c>
+      <c r="E223" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="16.500000" hidden="1">
       <c r="A224" s="0" t="s">
-        <v>491</v>
+        <v>156</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>1287</v>
+        <v>808</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>791</v>
+        <v>618</v>
       </c>
       <c r="D224" s="0" t="s">
-        <v>1339</v>
-      </c>
-      <c r="E224" s="0" t="s">
-        <v>1401</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="16.500000" hidden="1">
       <c r="A225" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="B225" s="0" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C225" s="0" t="s">
+        <v>791</v>
+      </c>
+      <c r="D225" s="0" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E225" s="0" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="16.500000" hidden="1">
+      <c r="A226" s="0" t="s">
         <v>493</v>
       </c>
-      <c r="B225" s="0" t="s">
+      <c r="B226" s="0" t="s">
         <v>836</v>
       </c>
-      <c r="C225" s="0" t="s">
+      <c r="C226" s="0" t="s">
         <v>792</v>
       </c>
-      <c r="D225" s="0" t="s">
+      <c r="D226" s="0" t="s">
         <v>537</v>
       </c>
-      <c r="E225" s="0" t="s">
+      <c r="E226" s="0" t="s">
         <v>534</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
-      <c r="A226" s="0" t="s">
-        <v>504</v>
-      </c>
-      <c r="B226" s="0" t="s">
-        <v>838</v>
-      </c>
-      <c r="C226" s="0" t="s">
-        <v>797</v>
-      </c>
-      <c r="D226" s="0" t="s">
-        <v>1350</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="B227" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="C227" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="D227" s="0" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="B227" s="0" t="s">
+      <c r="B228" s="0" t="s">
         <v>836</v>
       </c>
-      <c r="C227" s="0" t="s">
+      <c r="C228" s="0" t="s">
         <v>603</v>
-      </c>
-      <c r="D227" s="0" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" ht="16.500000" hidden="1">
-      <c r="A228" s="0" t="s">
-        <v>377</v>
-      </c>
-      <c r="B228" s="0" t="s">
-        <v>810</v>
-      </c>
-      <c r="C228" s="0" t="s">
-        <v>735</v>
       </c>
       <c r="D228" s="0" t="s">
         <v>1333</v>
@@ -8827,47 +8845,44 @@
     </row>
     <row r="229" spans="1:5" ht="16.500000" hidden="1">
       <c r="A229" s="0" t="s">
-        <v>114</v>
+        <v>377</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>836</v>
+        <v>810</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>597</v>
+        <v>735</v>
       </c>
       <c r="D229" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E229" s="0" t="s">
-        <v>534</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="16.500000" hidden="1">
       <c r="A230" s="0" t="s">
-        <v>379</v>
+        <v>114</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>812</v>
+        <v>836</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>737</v>
+        <v>597</v>
       </c>
       <c r="D230" s="0" t="s">
-        <v>1345</v>
+        <v>537</v>
       </c>
       <c r="E230" s="0" t="s">
-        <v>1401</v>
+        <v>534</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="16.500000" hidden="1">
       <c r="A231" s="0" t="s">
-        <v>449</v>
+        <v>379</v>
       </c>
       <c r="B231" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>770</v>
+        <v>737</v>
       </c>
       <c r="D231" s="0" t="s">
         <v>1345</v>
@@ -8876,49 +8891,49 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" ht="16.500000" hidden="1">
       <c r="A232" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="B232" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="C232" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="D232" s="0" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E232" s="0" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="B232" s="0" t="s">
+      <c r="B233" s="0" t="s">
         <v>838</v>
       </c>
-      <c r="C232" s="0" t="s">
+      <c r="C233" s="0" t="s">
         <v>738</v>
       </c>
-      <c r="D232" s="0" t="s">
+      <c r="D233" s="0" t="s">
         <v>1351</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" ht="16.500000" hidden="1">
-      <c r="A233" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="B233" s="0" t="s">
-        <v>1391</v>
-      </c>
-      <c r="C233" s="0" t="s">
-        <v>739</v>
-      </c>
-      <c r="D233" s="0" t="s">
-        <v>1400</v>
-      </c>
-      <c r="E233" s="0" t="s">
-        <v>1401</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="16.500000" hidden="1">
       <c r="A234" s="0" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>825</v>
+        <v>1391</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D234" s="0" t="s">
-        <v>1345</v>
+        <v>1400</v>
       </c>
       <c r="E234" s="0" t="s">
         <v>1401</v>
@@ -8926,13 +8941,13 @@
     </row>
     <row r="235" spans="1:5" ht="16.500000" hidden="1">
       <c r="A235" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>611</v>
+        <v>825</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D235" s="0" t="s">
         <v>1345</v>
@@ -8943,13 +8958,13 @@
     </row>
     <row r="236" spans="1:5" ht="16.500000" hidden="1">
       <c r="A236" s="0" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>812</v>
+        <v>611</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D236" s="0" t="s">
         <v>1345</v>
@@ -8960,13 +8975,13 @@
     </row>
     <row r="237" spans="1:5" ht="16.500000" hidden="1">
       <c r="A237" s="0" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B237" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D237" s="0" t="s">
         <v>1345</v>
@@ -8977,202 +8992,199 @@
     </row>
     <row r="238" spans="1:5" ht="16.500000" hidden="1">
       <c r="A238" s="0" t="s">
-        <v>40</v>
+        <v>391</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>834</v>
+        <v>812</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>556</v>
+        <v>743</v>
       </c>
       <c r="D238" s="0" t="s">
-        <v>1333</v>
+        <v>1345</v>
+      </c>
+      <c r="E238" s="0" t="s">
+        <v>1401</v>
       </c>
     </row>
     <row r="239" spans="1:5" ht="16.500000" hidden="1">
       <c r="A239" s="0" t="s">
-        <v>420</v>
+        <v>40</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>757</v>
+        <v>556</v>
       </c>
       <c r="D239" s="0" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E239" s="0" t="s">
-        <v>1401</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="16.500000" hidden="1">
       <c r="A240" s="0" t="s">
-        <v>393</v>
+        <v>420</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>812</v>
+        <v>835</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>744</v>
+        <v>757</v>
       </c>
       <c r="D240" s="0" t="s">
-        <v>1351</v>
+        <v>1345</v>
+      </c>
+      <c r="E240" s="0" t="s">
+        <v>1401</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="16.500000" hidden="1">
       <c r="A241" s="0" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>825</v>
+        <v>812</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D241" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E241" s="0" t="s">
-        <v>534</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="242" spans="1:5" ht="16.500000" hidden="1">
       <c r="A242" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="B242" s="0" t="s">
+        <v>825</v>
+      </c>
+      <c r="C242" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="D242" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E242" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="16.500000" hidden="1">
+      <c r="A243" s="0" t="s">
         <v>397</v>
       </c>
-      <c r="B242" s="0" t="s">
+      <c r="B243" s="0" t="s">
         <v>829</v>
       </c>
-      <c r="C242" s="0" t="s">
+      <c r="C243" s="0" t="s">
         <v>746</v>
       </c>
-      <c r="D242" s="0" t="s">
+      <c r="D243" s="0" t="s">
         <v>1395</v>
       </c>
-      <c r="E242" s="0" t="s">
+      <c r="E243" s="0" t="s">
         <v>1401</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
-      <c r="A243" s="0" t="s">
+    <row r="244" spans="1:5">
+      <c r="A244" s="0" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B244" s="0" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C244" s="0" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D244" s="0" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="16.500000" hidden="1">
+      <c r="A245" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="B243" s="0" t="s">
+      <c r="B245" s="0" t="s">
         <v>809</v>
       </c>
-      <c r="C243" s="0" t="s">
+      <c r="C245" s="0" t="s">
         <v>598</v>
       </c>
-      <c r="D243" s="0" t="s">
+      <c r="D245" s="0" t="s">
         <v>1333</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" ht="16.500000" hidden="1">
-      <c r="A244" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="B244" s="0" t="s">
-        <v>810</v>
-      </c>
-      <c r="C244" s="0" t="s">
-        <v>601</v>
-      </c>
-      <c r="D244" s="0" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5">
-      <c r="A245" s="0" t="s">
-        <v>516</v>
-      </c>
-      <c r="B245" s="0" t="s">
-        <v>838</v>
-      </c>
-      <c r="C245" s="0" t="s">
-        <v>803</v>
-      </c>
-      <c r="D245" s="0" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="16.500000" hidden="1">
       <c r="A246" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D246" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E246" s="0" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" ht="16.500000" hidden="1">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
       <c r="A247" s="0" t="s">
-        <v>399</v>
+        <v>516</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>747</v>
+        <v>803</v>
       </c>
       <c r="D247" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E247" s="0" t="s">
-        <v>534</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="16.500000" hidden="1">
       <c r="A248" s="0" t="s">
-        <v>441</v>
+        <v>118</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>766</v>
+        <v>599</v>
       </c>
       <c r="D248" s="0" t="s">
-        <v>1345</v>
+        <v>537</v>
       </c>
       <c r="E248" s="0" t="s">
-        <v>1401</v>
+        <v>534</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="16.500000" hidden="1">
       <c r="A249" s="0" t="s">
-        <v>424</v>
+        <v>399</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="D249" s="0" t="s">
-        <v>1395</v>
+        <v>537</v>
       </c>
       <c r="E249" s="0" t="s">
-        <v>1401</v>
+        <v>534</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="16.500000" hidden="1">
       <c r="A250" s="0" t="s">
-        <v>401</v>
+        <v>441</v>
       </c>
       <c r="B250" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>748</v>
+        <v>766</v>
       </c>
       <c r="D250" s="0" t="s">
         <v>1345</v>
@@ -9183,67 +9195,67 @@
     </row>
     <row r="251" spans="1:5" ht="16.500000" hidden="1">
       <c r="A251" s="0" t="s">
-        <v>497</v>
+        <v>424</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>812</v>
+        <v>835</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>794</v>
+        <v>759</v>
       </c>
       <c r="D251" s="0" t="s">
-        <v>537</v>
+        <v>1395</v>
       </c>
       <c r="E251" s="0" t="s">
-        <v>534</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="16.500000" hidden="1">
       <c r="A252" s="0" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>829</v>
+        <v>812</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D252" s="0" t="s">
-        <v>1333</v>
+        <v>1345</v>
       </c>
       <c r="E252" s="0" t="s">
-        <v>1341</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="16.500000" hidden="1">
       <c r="A253" s="0" t="s">
-        <v>166</v>
+        <v>497</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>623</v>
+        <v>794</v>
       </c>
       <c r="D253" s="0" t="s">
-        <v>1365</v>
+        <v>537</v>
       </c>
       <c r="E253" s="0" t="s">
-        <v>1341</v>
+        <v>534</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="16.500000" hidden="1">
       <c r="A254" s="0" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D254" s="0" t="s">
-        <v>537</v>
+        <v>1333</v>
       </c>
       <c r="E254" s="0" t="s">
         <v>1341</v>
@@ -9251,129 +9263,163 @@
     </row>
     <row r="255" spans="1:5" ht="16.500000" hidden="1">
       <c r="A255" s="0" t="s">
-        <v>407</v>
+        <v>166</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>751</v>
+        <v>623</v>
       </c>
       <c r="D255" s="0" t="s">
-        <v>1345</v>
+        <v>1365</v>
       </c>
       <c r="E255" s="0" t="s">
-        <v>1401</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="16.500000" hidden="1">
       <c r="A256" s="0" t="s">
-        <v>150</v>
+        <v>405</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>1287</v>
+        <v>825</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>615</v>
+        <v>750</v>
       </c>
       <c r="D256" s="0" t="s">
-        <v>1339</v>
+        <v>537</v>
       </c>
       <c r="E256" s="0" t="s">
-        <v>1401</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="16.500000" hidden="1">
       <c r="A257" s="0" t="s">
-        <v>136</v>
+        <v>407</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>808</v>
+        <v>825</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>1268</v>
+        <v>751</v>
       </c>
       <c r="D257" s="0" t="s">
-        <v>537</v>
+        <v>1345</v>
       </c>
       <c r="E257" s="0" t="s">
-        <v>534</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="258" spans="1:5" ht="16.500000" hidden="1">
       <c r="A258" s="0" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>833</v>
+        <v>1287</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>553</v>
+        <v>615</v>
       </c>
       <c r="D258" s="0" t="s">
-        <v>537</v>
+        <v>1339</v>
       </c>
       <c r="E258" s="0" t="s">
-        <v>534</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="16.500000" hidden="1">
       <c r="A259" s="0" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>1287</v>
+        <v>808</v>
       </c>
       <c r="C259" s="0" t="s">
-        <v>600</v>
+        <v>1268</v>
       </c>
       <c r="D259" s="0" t="s">
-        <v>1339</v>
+        <v>537</v>
       </c>
       <c r="E259" s="0" t="s">
-        <v>1401</v>
+        <v>534</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="16.500000" hidden="1">
       <c r="A260" s="0" t="s">
-        <v>409</v>
+        <v>34</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>812</v>
+        <v>833</v>
       </c>
       <c r="C260" s="0" t="s">
-        <v>752</v>
+        <v>553</v>
       </c>
       <c r="D260" s="0" t="s">
-        <v>1345</v>
+        <v>537</v>
       </c>
       <c r="E260" s="0" t="s">
-        <v>1401</v>
+        <v>534</v>
       </c>
     </row>
     <row r="261" spans="1:5" ht="16.500000" hidden="1">
       <c r="A261" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B261" s="0" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C261" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="D261" s="0" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E261" s="0" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" hidden="1">
+      <c r="A262" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="B262" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="C262" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="D262" s="0" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E262" s="0" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" hidden="1">
+      <c r="A263" s="0" t="s">
         <v>411</v>
       </c>
-      <c r="B261" s="0" t="s">
+      <c r="B263" s="0" t="s">
         <v>812</v>
       </c>
-      <c r="C261" s="0" t="s">
+      <c r="C263" s="0" t="s">
         <v>753</v>
       </c>
-      <c r="D261" s="0" t="s">
+      <c r="D263" s="0" t="s">
         <v>1345</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E261">
+  <autoFilter ref="A1:E263">
     <filterColumn colId="1">
       <filters>
         <filter val="All"/>
-        <filter val="남미"/>
         <filter val="동남아시아"/>
         <filter val="동북아시아"/>
         <filter val="러시아"/>
+        <filter val="중국"/>
         <filter val="중앙아시아"/>
         <filter val="코카서스"/>
       </filters>
@@ -9384,8 +9430,8 @@
         <filter val="미등장"/>
       </filters>
     </filterColumn>
-    <sortState ref="A2:E261">
-      <sortCondition ref="A2:A261"/>
+    <sortState ref="A2:E263">
+      <sortCondition ref="A2:A263"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9396,10 +9442,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D170"/>
+  <dimension ref="A1:D173"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -9855,21 +9901,21 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>995</v>
+        <v>1410</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>1274</v>
+        <v>1413</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>1414</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>908</v>
+        <v>995</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>1274</v>
@@ -9877,10 +9923,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>993</v>
+        <v>908</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>1274</v>
@@ -9888,10 +9934,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>1006</v>
+        <v>993</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1278</v>
+        <v>1180</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>1274</v>
@@ -9899,10 +9945,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>971</v>
+        <v>1006</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1182</v>
+        <v>1278</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>1274</v>
@@ -9910,10 +9956,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>1279</v>
+        <v>971</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1280</v>
+        <v>1182</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>1274</v>
@@ -9921,10 +9967,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>901</v>
+        <v>1279</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1184</v>
+        <v>1280</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>1274</v>
@@ -9932,10 +9978,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>952</v>
+        <v>901</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>671</v>
+        <v>1184</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>1274</v>
@@ -9943,10 +9989,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>878</v>
+        <v>952</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1185</v>
+        <v>671</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>1274</v>
@@ -9954,21 +10000,21 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>1376</v>
+        <v>878</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1377</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>1300</v>
+        <v>1185</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>1300</v>
@@ -9976,21 +10022,21 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>877</v>
+        <v>1380</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>1274</v>
+        <v>1381</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>1300</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>924</v>
+        <v>877</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>1274</v>
@@ -9998,10 +10044,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>885</v>
+        <v>924</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>1274</v>
@@ -10009,10 +10055,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>1274</v>
@@ -10020,10 +10066,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>1274</v>
@@ -10031,10 +10077,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>949</v>
+        <v>883</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>676</v>
+        <v>1189</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>1274</v>
@@ -10042,32 +10088,32 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>896</v>
+        <v>949</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1190</v>
+        <v>676</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>999</v>
+        <v>896</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>989</v>
+        <v>999</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>581</v>
+        <v>1191</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>1274</v>
@@ -10075,10 +10121,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>1007</v>
+        <v>989</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1192</v>
+        <v>581</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>1274</v>
@@ -10086,32 +10132,32 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>976</v>
+        <v>1007</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>876</v>
+        <v>976</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>919</v>
+        <v>876</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>1274</v>
@@ -10119,32 +10165,32 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>868</v>
+        <v>918</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>611</v>
+        <v>1196</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1197</v>
+        <v>611</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>1274</v>
@@ -10152,10 +10198,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>972</v>
+        <v>866</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>1274</v>
@@ -10163,10 +10209,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>1002</v>
+        <v>972</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>1274</v>
@@ -10174,35 +10220,35 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>1388</v>
+        <v>1002</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>1300</v>
+        <v>1199</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>755</v>
+        <v>1246</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1275</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>889</v>
+        <v>1389</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>1274</v>
+        <v>755</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>1275</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -10212,38 +10258,38 @@
       <c r="B73" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>1300</v>
+      <c r="C73" s="2" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>1275</v>
+        <v>1200</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>1300</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>843</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
-        <v>872</v>
+        <v>892</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1201</v>
+        <v>843</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>1274</v>
@@ -10251,10 +10297,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>1274</v>
@@ -10262,10 +10308,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>1274</v>
@@ -10273,10 +10319,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
-        <v>957</v>
+        <v>881</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>688</v>
+        <v>1203</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>1274</v>
@@ -10284,10 +10330,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
-        <v>920</v>
+        <v>957</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>1274</v>
@@ -10295,10 +10341,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
-        <v>956</v>
+        <v>920</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1204</v>
+        <v>690</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>1274</v>
@@ -10306,10 +10352,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>925</v>
+        <v>956</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>1274</v>
@@ -10317,32 +10363,32 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>939</v>
+        <v>925</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>875</v>
+        <v>939</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>620</v>
+        <v>1206</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>935</v>
+        <v>875</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1207</v>
+        <v>620</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>1274</v>
@@ -10350,10 +10396,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>1274</v>
@@ -10361,21 +10407,21 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>1294</v>
+        <v>946</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1296</v>
+        <v>1208</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>1282</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>1282</v>
@@ -10383,21 +10429,21 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>1313</v>
+        <v>1295</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1314</v>
+        <v>1297</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>1300</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>1300</v>
@@ -10405,10 +10451,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>1300</v>
@@ -10416,32 +10462,32 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
-        <v>991</v>
+        <v>1315</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>695</v>
+        <v>1316</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>1275</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>943</v>
+        <v>991</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1209</v>
+        <v>695</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
-        <v>927</v>
+        <v>943</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>1274</v>
@@ -10449,10 +10495,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>947</v>
+        <v>927</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>700</v>
+        <v>1210</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>1274</v>
@@ -10460,10 +10506,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
-        <v>960</v>
+        <v>947</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>1274</v>
@@ -10471,32 +10517,32 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
-        <v>980</v>
+        <v>1408</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>1274</v>
+        <v>1411</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>1414</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
-        <v>941</v>
+        <v>960</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1212</v>
+        <v>701</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>955</v>
+        <v>980</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>1274</v>
@@ -10504,21 +10550,21 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
-        <v>893</v>
+        <v>941</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
-        <v>894</v>
+        <v>955</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>1184</v>
+        <v>1213</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>1274</v>
@@ -10526,10 +10572,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>540</v>
+        <v>1214</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>1274</v>
@@ -10537,21 +10583,21 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
-        <v>950</v>
+        <v>894</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1215</v>
+        <v>1184</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
-        <v>990</v>
+        <v>895</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1216</v>
+        <v>540</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>1274</v>
@@ -10559,21 +10605,21 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
-        <v>897</v>
+        <v>950</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1271</v>
+        <v>1215</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
-        <v>860</v>
+        <v>990</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>1274</v>
@@ -10581,10 +10627,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
-        <v>1001</v>
+        <v>897</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1218</v>
+        <v>1271</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>1274</v>
@@ -10592,21 +10638,21 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
-        <v>1000</v>
+        <v>860</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>755</v>
+        <v>1218</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>1274</v>
@@ -10614,21 +10660,21 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
-        <v>923</v>
+        <v>1000</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
-        <v>996</v>
+        <v>1005</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1222</v>
+        <v>755</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>1274</v>
@@ -10636,10 +10682,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>1274</v>
@@ -10647,10 +10693,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
-        <v>869</v>
+        <v>996</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>1274</v>
@@ -10658,21 +10704,21 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
-        <v>1386</v>
+        <v>921</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>1300</v>
+        <v>1223</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1197</v>
+        <v>1224</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>1274</v>
@@ -10680,32 +10726,32 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
-        <v>992</v>
+        <v>1386</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1225</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>1274</v>
+        <v>1286</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>1300</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
-        <v>998</v>
+        <v>870</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>562</v>
+        <v>1197</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
-        <v>864</v>
+        <v>992</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>1274</v>
@@ -10713,10 +10759,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
-        <v>862</v>
+        <v>998</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1227</v>
+        <v>562</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>1275</v>
@@ -10724,10 +10770,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>1274</v>
@@ -10735,21 +10781,21 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
-        <v>900</v>
+        <v>862</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>720</v>
+        <v>1227</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
-        <v>934</v>
+        <v>863</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>1274</v>
@@ -10757,10 +10803,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
-        <v>928</v>
+        <v>900</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>1230</v>
+        <v>720</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>1274</v>
@@ -10768,10 +10814,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>593</v>
+        <v>1229</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>1274</v>
@@ -10779,10 +10825,10 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>1274</v>
@@ -10790,10 +10836,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
-        <v>944</v>
+        <v>930</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>1232</v>
+        <v>593</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>1274</v>
@@ -10801,10 +10847,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
-        <v>871</v>
+        <v>931</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>1274</v>
@@ -10812,21 +10858,21 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
-        <v>858</v>
+        <v>944</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
-        <v>857</v>
+        <v>871</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>1274</v>
@@ -10834,54 +10880,54 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>553</v>
+        <v>1234</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
-        <v>1298</v>
+        <v>857</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1299</v>
+        <v>1235</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>1300</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
-        <v>905</v>
+        <v>859</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1236</v>
+        <v>553</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>907</v>
+        <v>1298</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1237</v>
+        <v>1299</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>1282</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>1275</v>
@@ -10889,21 +10935,21 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>1275</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>1275</v>
@@ -10911,10 +10957,10 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>1275</v>
@@ -10922,10 +10968,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>1275</v>
@@ -10933,10 +10979,10 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>1275</v>
@@ -10944,10 +10990,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>1275</v>
@@ -10955,10 +11001,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>1275</v>
@@ -10966,32 +11012,32 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>985</v>
+        <v>915</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
-        <v>964</v>
+        <v>911</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
-        <v>948</v>
+        <v>985</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>1274</v>
@@ -10999,10 +11045,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
-        <v>886</v>
+        <v>964</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>1274</v>
@@ -11010,10 +11056,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
-        <v>978</v>
+        <v>948</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>555</v>
+        <v>1248</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>1274</v>
@@ -11021,10 +11067,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
-        <v>979</v>
+        <v>886</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>555</v>
+        <v>1249</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>1274</v>
@@ -11032,21 +11078,21 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>555</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>1300</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
-        <v>898</v>
+        <v>979</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>1272</v>
+        <v>555</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>1274</v>
@@ -11054,21 +11100,21 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
-        <v>865</v>
+        <v>977</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1252</v>
+        <v>555</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>1274</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1253</v>
+        <v>1272</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>1274</v>
@@ -11076,76 +11122,76 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
-        <v>906</v>
+        <v>865</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>595</v>
+        <v>1253</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
-        <v>1283</v>
+        <v>906</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>1282</v>
+        <v>1254</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>1275</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
-        <v>861</v>
+        <v>904</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>1255</v>
+        <v>595</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
-        <v>954</v>
+        <v>1283</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>1274</v>
+        <v>1284</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>1282</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
-        <v>932</v>
+        <v>861</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
-        <v>933</v>
+        <v>954</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1229</v>
+        <v>737</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>1274</v>
@@ -11153,10 +11199,10 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>1275</v>
@@ -11164,10 +11210,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
-        <v>891</v>
+        <v>933</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>1258</v>
+        <v>1229</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>1274</v>
@@ -11175,10 +11221,10 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>1275</v>
@@ -11186,43 +11232,43 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="0" t="s">
-        <v>926</v>
+        <v>891</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="0" t="s">
-        <v>958</v>
+        <v>940</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="0" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="0" t="s">
-        <v>916</v>
+        <v>958</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>1274</v>
@@ -11230,10 +11276,10 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="0" t="s">
-        <v>874</v>
+        <v>922</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>1225</v>
+        <v>1262</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>1274</v>
@@ -11241,21 +11287,21 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="0" t="s">
-        <v>963</v>
+        <v>1409</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>1274</v>
+        <v>1412</v>
+      </c>
+      <c r="C167" s="0" t="s">
+        <v>1414</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="0" t="s">
-        <v>962</v>
+        <v>916</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>1274</v>
@@ -11263,10 +11309,10 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="0" t="s">
-        <v>936</v>
+        <v>874</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>1269</v>
+        <v>1225</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>1274</v>
@@ -11274,19 +11320,52 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="0" t="s">
-        <v>937</v>
+        <v>963</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>1274</v>
       </c>
     </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="0" t="s">
+        <v>937</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>1414</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D162">
-    <sortState ref="A2:D170">
-      <sortCondition ref="A2:A170"/>
+    <sortState ref="A2:D173">
+      <sortCondition ref="A2:A173"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -5087,7 +5087,7 @@
   <dimension ref="A1:E263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E247" sqref="E247"/>
+      <selection activeCell="E228" sqref="E228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5180,6 +5180,9 @@
       <c r="D5" s="0" t="s">
         <v>1350</v>
       </c>
+      <c r="E5" s="0" t="s">
+        <v>1341</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="16.500000" hidden="1">
       <c r="A6" s="0" t="s">
@@ -6173,6 +6176,9 @@
       <c r="D65" s="0" t="s">
         <v>1402</v>
       </c>
+      <c r="E65" s="0" t="s">
+        <v>1341</v>
+      </c>
     </row>
     <row r="66" spans="1:5" ht="16.500000" hidden="1">
       <c r="A66" s="0" t="s">
@@ -8922,7 +8928,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="16.500000" hidden="1">
+    <row r="234" spans="1:5">
       <c r="A234" s="0" t="s">
         <v>383</v>
       </c>
@@ -8933,10 +8939,7 @@
         <v>739</v>
       </c>
       <c r="D234" s="0" t="s">
-        <v>1400</v>
-      </c>
-      <c r="E234" s="0" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="16.500000" hidden="1">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="160" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="150" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="1415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="1416">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4278,6 +4278,9 @@
   </si>
   <si>
     <t>O</t>
+  </si>
+  <si>
+    <t>러시아 사회주의 공화국</t>
   </si>
 </sst>
 </file>
@@ -4593,9 +4596,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4610,25 +4611,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4643,7 +4652,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4658,7 +4669,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -4673,13 +4686,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -4688,14 +4705,18 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -5087,7 +5108,7 @@
   <dimension ref="A1:E263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E228" sqref="E228"/>
+      <selection activeCell="C227" sqref="C227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -8600,7 +8621,7 @@
         <v>830</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>538</v>
+        <v>1415</v>
       </c>
       <c r="D213" s="0" t="s">
         <v>1333</v>
@@ -9383,7 +9404,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1">
+    <row r="262" spans="1:5" ht="16.500000" hidden="1">
       <c r="A262" s="0" t="s">
         <v>409</v>
       </c>
@@ -9400,7 +9421,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1">
+    <row r="263" spans="1:5" ht="16.500000" hidden="1">
       <c r="A263" s="0" t="s">
         <v>411</v>
       </c>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="150" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="120" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,8 @@
   </sheets>
   <definedNames>
     <definedName name="새_텍스트_문서" localSheetId="0">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'국가 태그'!$A$1:$E$263</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'임시 태그'!$A$1:$D$161</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="1416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="1420">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4281,6 +4281,18 @@
   </si>
   <si>
     <t>러시아 사회주의 공화국</t>
+  </si>
+  <si>
+    <t>TRK_turan</t>
+  </si>
+  <si>
+    <t>투라니아</t>
+  </si>
+  <si>
+    <t>튀르케스탄 칸국</t>
+  </si>
+  <si>
+    <t>TRA</t>
   </si>
 </sst>
 </file>
@@ -4596,7 +4608,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4611,33 +4625,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4652,9 +4658,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4669,9 +4673,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -4686,17 +4688,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -4705,18 +4703,14 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -5105,10 +5099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E263"/>
+  <dimension ref="A1:E264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C227" sqref="C227"/>
+      <selection activeCell="D233" sqref="D233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5300,6 +5294,9 @@
       <c r="D11" s="0" t="s">
         <v>1351</v>
       </c>
+      <c r="E11" s="0" t="s">
+        <v>1341</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="16.500000" hidden="1">
       <c r="A12" s="0" t="s">
@@ -5348,6 +5345,9 @@
       <c r="D14" s="0" t="s">
         <v>1351</v>
       </c>
+      <c r="E14" s="0" t="s">
+        <v>1341</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="16.500000" hidden="1">
       <c r="A15" s="0" t="s">
@@ -5842,7 +5842,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="16.500000" hidden="1">
+    <row r="44" spans="1:5">
       <c r="A44" s="0" t="s">
         <v>219</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="16.500000" hidden="1">
+    <row r="101" spans="1:5">
       <c r="A101" s="0" t="s">
         <v>275</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="16.500000" hidden="1">
+    <row r="182" spans="1:5">
       <c r="A182" s="0" t="s">
         <v>345</v>
       </c>
@@ -8199,6 +8199,9 @@
       <c r="D187" s="0" t="s">
         <v>1333</v>
       </c>
+      <c r="E187" s="0" t="s">
+        <v>1341</v>
+      </c>
     </row>
     <row r="188" spans="1:5" ht="16.500000" hidden="1">
       <c r="A188" s="0" t="s">
@@ -8214,7 +8217,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="16.500000" hidden="1">
+    <row r="189" spans="1:5">
       <c r="A189" s="0" t="s">
         <v>142</v>
       </c>
@@ -8937,30 +8940,30 @@
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="0" t="s">
-        <v>381</v>
+        <v>1419</v>
       </c>
       <c r="B233" s="0" t="s">
         <v>838</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>738</v>
+        <v>1417</v>
       </c>
       <c r="D233" s="0" t="s">
-        <v>1351</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="0" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>1391</v>
+        <v>838</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>739</v>
+        <v>1418</v>
       </c>
       <c r="D234" s="0" t="s">
-        <v>1402</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="16.500000" hidden="1">
@@ -9112,13 +9115,13 @@
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="0" t="s">
-        <v>1405</v>
+        <v>383</v>
       </c>
       <c r="B244" s="0" t="s">
         <v>1391</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>1407</v>
+        <v>739</v>
       </c>
       <c r="D244" s="0" t="s">
         <v>1402</v>
@@ -9154,16 +9157,16 @@
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="0" t="s">
-        <v>516</v>
+        <v>1405</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>838</v>
+        <v>1391</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>803</v>
+        <v>1407</v>
       </c>
       <c r="D247" s="0" t="s">
-        <v>1351</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="16.500000" hidden="1">
@@ -9434,28 +9437,47 @@
       <c r="D263" s="0" t="s">
         <v>1345</v>
       </c>
+      <c r="E263" s="0" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="B264" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="C264" s="0" t="s">
+        <v>803</v>
+      </c>
+      <c r="D264" s="0" t="s">
+        <v>1351</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E263">
     <filterColumn colId="1">
-      <filters>
+      <filters blank="1">
         <filter val="All"/>
         <filter val="동남아시아"/>
         <filter val="동북아시아"/>
         <filter val="러시아"/>
+        <filter val="인도"/>
         <filter val="중국"/>
         <filter val="중앙아시아"/>
         <filter val="코카서스"/>
+        <filter val="태평양"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">
-      <filters>
+      <filters blank="1">
         <filter val="All"/>
         <filter val="미등장"/>
       </filters>
     </filterColumn>
-    <sortState ref="A2:E263">
-      <sortCondition ref="A2:A263"/>
+    <sortState ref="A2:E264">
+      <sortCondition ref="A2:A264"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9468,8 +9490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D173"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="C159" sqref="C159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -11244,13 +11266,13 @@
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="1" t="s">
+      <c r="A161" s="0" t="s">
         <v>942</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B161" s="0" t="s">
         <v>1257</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C161" s="3" t="s">
         <v>1275</v>
       </c>
     </row>
@@ -11387,9 +11409,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D162">
+  <autoFilter ref="A1:D161">
     <sortState ref="A2:D173">
-      <sortCondition ref="A2:A173"/>
+      <sortCondition ref="A2:A174"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="120" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="190" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,8 @@
   </sheets>
   <definedNames>
     <definedName name="새_텍스트_문서" localSheetId="0">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'임시 태그'!$A$1:$D$161</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'국가 태그'!$A$1:$E$264</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="1420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="1423">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4293,6 +4293,15 @@
   </si>
   <si>
     <t>TRA</t>
+  </si>
+  <si>
+    <t>미등장</t>
+  </si>
+  <si>
+    <t>FNG_five</t>
+  </si>
+  <si>
+    <t>오족민국</t>
   </si>
 </sst>
 </file>
@@ -4608,9 +4617,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4625,25 +4632,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4658,7 +4673,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4673,7 +4690,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -4688,13 +4707,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -4703,14 +4726,18 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -5102,7 +5129,7 @@
   <dimension ref="A1:E264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D233" sqref="D233"/>
+      <selection activeCell="J213" sqref="J213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5855,6 +5882,9 @@
       <c r="D44" s="0" t="s">
         <v>1333</v>
       </c>
+      <c r="E44" s="0" t="s">
+        <v>1341</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="16.500000" hidden="1">
       <c r="A45" s="0" t="s">
@@ -5886,6 +5916,9 @@
       <c r="D46" s="0" t="s">
         <v>1333</v>
       </c>
+      <c r="E46" s="0" t="s">
+        <v>1341</v>
+      </c>
     </row>
     <row r="47" spans="1:5" ht="16.500000" hidden="1">
       <c r="A47" s="0" t="s">
@@ -6402,7 +6435,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="16.500000" hidden="1">
+    <row r="78" spans="1:5">
       <c r="A78" s="0" t="s">
         <v>247</v>
       </c>
@@ -6413,10 +6446,7 @@
         <v>668</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>1397</v>
-      </c>
-      <c r="E78" s="0" t="s">
-        <v>1401</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="16.500000" hidden="1">
@@ -9456,9 +9486,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E263">
+  <autoFilter ref="A1:E264">
     <filterColumn colId="1">
-      <filters blank="1">
+      <filters>
         <filter val="All"/>
         <filter val="동남아시아"/>
         <filter val="동북아시아"/>
@@ -9471,7 +9501,7 @@
       </filters>
     </filterColumn>
     <filterColumn colId="3">
-      <filters blank="1">
+      <filters>
         <filter val="All"/>
         <filter val="미등장"/>
       </filters>
@@ -9488,10 +9518,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D173"/>
+  <dimension ref="A1:D174"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="C159" sqref="C159"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -10002,21 +10032,21 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>971</v>
+        <v>1421</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>1274</v>
+        <v>1422</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>1414</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>1279</v>
+        <v>971</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1280</v>
+        <v>1182</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>1274</v>
@@ -10024,10 +10054,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>901</v>
+        <v>1279</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1184</v>
+        <v>1280</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>1274</v>
@@ -10035,10 +10065,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>952</v>
+        <v>901</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>671</v>
+        <v>1184</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>1274</v>
@@ -10046,10 +10076,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>878</v>
+        <v>952</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1185</v>
+        <v>671</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>1274</v>
@@ -10057,21 +10087,21 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>1376</v>
+        <v>878</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1377</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>1300</v>
+        <v>1185</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>1300</v>
@@ -10079,21 +10109,21 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>877</v>
+        <v>1380</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>1274</v>
+        <v>1381</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>1300</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>924</v>
+        <v>877</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>1274</v>
@@ -10101,10 +10131,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>885</v>
+        <v>924</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>1274</v>
@@ -10112,10 +10142,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>1274</v>
@@ -10123,10 +10153,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>1274</v>
@@ -10134,10 +10164,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>949</v>
+        <v>883</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>676</v>
+        <v>1189</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>1274</v>
@@ -10145,32 +10175,32 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>896</v>
+        <v>949</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1190</v>
+        <v>676</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>999</v>
+        <v>896</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>989</v>
+        <v>999</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>581</v>
+        <v>1191</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>1274</v>
@@ -10178,10 +10208,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>1007</v>
+        <v>989</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1192</v>
+        <v>581</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>1274</v>
@@ -10189,32 +10219,32 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>976</v>
+        <v>1007</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>876</v>
+        <v>976</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>919</v>
+        <v>876</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>1274</v>
@@ -10222,32 +10252,32 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>868</v>
+        <v>918</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>611</v>
+        <v>1196</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1197</v>
+        <v>611</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>1274</v>
@@ -10255,10 +10285,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>972</v>
+        <v>866</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>1274</v>
@@ -10266,10 +10296,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>1002</v>
+        <v>972</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>1274</v>
@@ -10277,35 +10307,35 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>1388</v>
+        <v>1002</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>1300</v>
+        <v>1199</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>755</v>
+        <v>1246</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1275</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
-        <v>889</v>
+        <v>1389</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>1274</v>
+        <v>755</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>1275</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -10315,38 +10345,38 @@
       <c r="B74" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>1300</v>
+      <c r="C74" s="2" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>1275</v>
+        <v>1200</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>1300</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>843</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>872</v>
+        <v>892</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1201</v>
+        <v>843</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>1274</v>
@@ -10354,10 +10384,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>1274</v>
@@ -10365,10 +10395,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>1274</v>
@@ -10376,10 +10406,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
-        <v>957</v>
+        <v>881</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>688</v>
+        <v>1203</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>1274</v>
@@ -10387,10 +10417,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
-        <v>920</v>
+        <v>957</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>1274</v>
@@ -10398,10 +10428,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>956</v>
+        <v>920</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1204</v>
+        <v>690</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>1274</v>
@@ -10409,10 +10439,10 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>925</v>
+        <v>956</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>1274</v>
@@ -10420,32 +10450,32 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>939</v>
+        <v>925</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>875</v>
+        <v>939</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>620</v>
+        <v>1206</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>935</v>
+        <v>875</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1207</v>
+        <v>620</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>1274</v>
@@ -10453,10 +10483,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>1274</v>
@@ -10464,21 +10494,21 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>1294</v>
+        <v>946</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1296</v>
+        <v>1208</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>1282</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>1282</v>
@@ -10486,21 +10516,21 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>1313</v>
+        <v>1295</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>1314</v>
+        <v>1297</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>1300</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>1300</v>
@@ -10508,10 +10538,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>1300</v>
@@ -10519,32 +10549,32 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>991</v>
+        <v>1315</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>695</v>
+        <v>1316</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>1275</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
-        <v>943</v>
+        <v>991</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1209</v>
+        <v>695</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>927</v>
+        <v>943</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>1274</v>
@@ -10552,10 +10582,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
-        <v>947</v>
+        <v>927</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>700</v>
+        <v>1210</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>1274</v>
@@ -10563,32 +10593,32 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
-        <v>1408</v>
+        <v>947</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>1411</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>1414</v>
+        <v>700</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
-        <v>960</v>
+        <v>1408</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>1274</v>
+        <v>1411</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>1414</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>1211</v>
+        <v>701</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>1274</v>
@@ -10596,32 +10626,32 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
-        <v>941</v>
+        <v>980</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
-        <v>955</v>
+        <v>941</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
-        <v>893</v>
+        <v>955</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>1274</v>
@@ -10629,10 +10659,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1184</v>
+        <v>1214</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>1274</v>
@@ -10640,10 +10670,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>540</v>
+        <v>1184</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>1274</v>
@@ -10651,32 +10681,32 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
-        <v>950</v>
+        <v>895</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1215</v>
+        <v>540</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
-        <v>990</v>
+        <v>950</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
-        <v>897</v>
+        <v>990</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1271</v>
+        <v>1216</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>1274</v>
@@ -10684,10 +10714,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
-        <v>860</v>
+        <v>897</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>1217</v>
+        <v>1271</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>1274</v>
@@ -10695,10 +10725,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
-        <v>1001</v>
+        <v>860</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>1274</v>
@@ -10706,32 +10736,32 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>755</v>
+        <v>1219</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
-        <v>923</v>
+        <v>1005</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1220</v>
+        <v>755</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>1274</v>
@@ -10739,10 +10769,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
-        <v>996</v>
+        <v>923</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>1274</v>
@@ -10750,10 +10780,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
-        <v>921</v>
+        <v>996</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>1274</v>
@@ -10761,10 +10791,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
-        <v>869</v>
+        <v>921</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>1274</v>
@@ -10772,32 +10802,32 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
-        <v>1386</v>
+        <v>869</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>1300</v>
+        <v>1224</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
-        <v>870</v>
+        <v>1386</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>1274</v>
+        <v>1286</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>1300</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
-        <v>992</v>
+        <v>870</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1225</v>
+        <v>1197</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>1274</v>
@@ -10805,54 +10835,54 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>562</v>
+        <v>1225</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
-        <v>864</v>
+        <v>998</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1226</v>
+        <v>562</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
-        <v>900</v>
+        <v>863</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>720</v>
+        <v>1228</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>1274</v>
@@ -10860,10 +10890,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
-        <v>934</v>
+        <v>900</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1229</v>
+        <v>720</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>1274</v>
@@ -10871,10 +10901,10 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>1274</v>
@@ -10882,10 +10912,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>593</v>
+        <v>1230</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>1274</v>
@@ -10893,10 +10923,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1231</v>
+        <v>593</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>1274</v>
@@ -10904,10 +10934,10 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
-        <v>944</v>
+        <v>931</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>1274</v>
@@ -10915,10 +10945,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
-        <v>871</v>
+        <v>944</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>1274</v>
@@ -10926,32 +10956,32 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
-        <v>858</v>
+        <v>871</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>553</v>
+        <v>1235</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>1274</v>
@@ -10959,54 +10989,54 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>1298</v>
+        <v>859</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1299</v>
+        <v>553</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>1300</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
-        <v>905</v>
+        <v>1298</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1236</v>
+        <v>1299</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>1275</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>1282</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>1275</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>1275</v>
@@ -11014,10 +11044,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>1275</v>
@@ -11025,10 +11055,10 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>1275</v>
@@ -11036,10 +11066,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>1275</v>
@@ -11047,10 +11077,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>1275</v>
@@ -11058,10 +11088,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>1275</v>
@@ -11069,10 +11099,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>1275</v>
@@ -11080,21 +11110,21 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
-        <v>985</v>
+        <v>911</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
-        <v>964</v>
+        <v>985</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>1274</v>
@@ -11102,10 +11132,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
-        <v>948</v>
+        <v>964</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>1274</v>
@@ -11113,10 +11143,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
-        <v>886</v>
+        <v>948</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>1274</v>
@@ -11124,10 +11154,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
-        <v>978</v>
+        <v>886</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>555</v>
+        <v>1249</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>1274</v>
@@ -11135,7 +11165,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>555</v>
@@ -11146,32 +11176,32 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>555</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>1300</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
-        <v>898</v>
+        <v>977</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1272</v>
+        <v>555</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>1274</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
-        <v>865</v>
+        <v>898</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1252</v>
+        <v>1272</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>1274</v>
@@ -11179,10 +11209,10 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
-        <v>902</v>
+        <v>865</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>1274</v>
@@ -11190,21 +11220,21 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>595</v>
+        <v>1254</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>1275</v>
@@ -11212,32 +11242,32 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
-        <v>1283</v>
+        <v>904</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>1282</v>
+        <v>595</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>1275</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
-        <v>861</v>
+        <v>1283</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>1274</v>
+        <v>1284</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>1282</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
-        <v>954</v>
+        <v>861</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>737</v>
+        <v>1255</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>1274</v>
@@ -11245,65 +11275,65 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
-        <v>932</v>
+        <v>954</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1256</v>
+        <v>737</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>1229</v>
+        <v>1256</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="0" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>1257</v>
+        <v>1229</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="0" t="s">
-        <v>891</v>
+        <v>942</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="0" t="s">
-        <v>940</v>
+        <v>891</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="0" t="s">
-        <v>926</v>
+        <v>940</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>1275</v>
@@ -11311,21 +11341,21 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="0" t="s">
-        <v>958</v>
+        <v>926</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="0" t="s">
-        <v>922</v>
+        <v>958</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>1274</v>
@@ -11333,32 +11363,32 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="0" t="s">
-        <v>1409</v>
+        <v>922</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>1412</v>
-      </c>
-      <c r="C167" s="0" t="s">
-        <v>1414</v>
+        <v>1262</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="0" t="s">
-        <v>916</v>
+        <v>1409</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>1274</v>
+        <v>1412</v>
+      </c>
+      <c r="C168" s="0" t="s">
+        <v>1414</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="0" t="s">
-        <v>874</v>
+        <v>916</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>1225</v>
+        <v>1263</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>1274</v>
@@ -11366,10 +11396,10 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="0" t="s">
-        <v>963</v>
+        <v>874</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>1268</v>
+        <v>1225</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>1274</v>
@@ -11377,10 +11407,10 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="0" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>1274</v>
@@ -11388,7 +11418,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="0" t="s">
-        <v>936</v>
+        <v>962</v>
       </c>
       <c r="B172" s="0" t="s">
         <v>1269</v>
@@ -11399,18 +11429,29 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="0" t="s">
         <v>937</v>
       </c>
-      <c r="B173" s="0" t="s">
+      <c r="B174" s="0" t="s">
         <v>1270</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="C174" s="3" t="s">
         <v>1414</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D161">
-    <sortState ref="A2:D173">
+    <sortState ref="A2:D174">
       <sortCondition ref="A2:A174"/>
     </sortState>
   </autoFilter>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="190" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="180" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -4617,7 +4617,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4632,33 +4634,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4673,9 +4667,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4690,9 +4682,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -4707,17 +4697,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -4726,18 +4712,14 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -11466,7 +11448,7 @@
   <dimension ref="B2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="180" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="170" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -4617,9 +4617,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4634,25 +4632,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4667,7 +4673,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4682,7 +4690,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -4697,13 +4707,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -4712,14 +4726,18 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -5111,7 +5129,7 @@
   <dimension ref="A1:E264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J213" sqref="J213"/>
+      <selection activeCell="F227" sqref="F227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -6430,6 +6448,9 @@
       <c r="D78" s="0" t="s">
         <v>1420</v>
       </c>
+      <c r="E78" s="0" t="s">
+        <v>1341</v>
+      </c>
     </row>
     <row r="79" spans="1:5" ht="16.500000" hidden="1">
       <c r="A79" s="0" t="s">
@@ -6579,6 +6600,9 @@
       </c>
       <c r="D87" s="0" t="s">
         <v>1333</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>1341</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="16.500000" hidden="1">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="170" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="160" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -4617,7 +4617,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4632,33 +4634,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4673,9 +4667,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4690,9 +4682,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -4707,17 +4697,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -4726,18 +4712,14 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -5129,7 +5111,7 @@
   <dimension ref="A1:E264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F227" sqref="F227"/>
+      <selection activeCell="E233" sqref="E233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -6833,6 +6815,9 @@
       <c r="D101" s="0" t="s">
         <v>1351</v>
       </c>
+      <c r="E101" s="0" t="s">
+        <v>1341</v>
+      </c>
     </row>
     <row r="102" spans="1:5" ht="16.500000" hidden="1">
       <c r="A102" s="0" t="s">
@@ -7110,6 +7095,9 @@
       <c r="D118" s="0" t="s">
         <v>1333</v>
       </c>
+      <c r="E118" s="0" t="s">
+        <v>1341</v>
+      </c>
     </row>
     <row r="119" spans="1:5" ht="16.500000" hidden="1">
       <c r="A119" s="0" t="s">
@@ -7223,6 +7211,9 @@
       <c r="D125" s="0" t="s">
         <v>1350</v>
       </c>
+      <c r="E125" s="0" t="s">
+        <v>1341</v>
+      </c>
     </row>
     <row r="126" spans="1:5" ht="16.500000" hidden="1">
       <c r="A126" s="0" t="s">
@@ -7619,6 +7610,9 @@
       <c r="D149" s="0" t="s">
         <v>1402</v>
       </c>
+      <c r="E149" s="0" t="s">
+        <v>1341</v>
+      </c>
     </row>
     <row r="150" spans="1:5" ht="16.500000" hidden="1">
       <c r="A150" s="0" t="s">
@@ -8142,6 +8136,9 @@
       <c r="D181" s="0" t="s">
         <v>1333</v>
       </c>
+      <c r="E181" s="0" t="s">
+        <v>1341</v>
+      </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="0" t="s">
@@ -8155,6 +8152,9 @@
       </c>
       <c r="D182" s="0" t="s">
         <v>1333</v>
+      </c>
+      <c r="E182" s="0" t="s">
+        <v>1341</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="16.500000" hidden="1">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="160" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="150" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="1423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="1424">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4302,6 +4302,9 @@
   </si>
   <si>
     <t>오족민국</t>
+  </si>
+  <si>
+    <t>삭제</t>
   </si>
 </sst>
 </file>
@@ -4617,9 +4620,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4634,25 +4635,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4667,7 +4676,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4682,7 +4693,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -4697,13 +4710,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -4712,14 +4729,18 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -5111,7 +5132,7 @@
   <dimension ref="A1:E264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E233" sqref="E233"/>
+      <selection activeCell="F137" sqref="F137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5191,7 +5212,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="16.500000" hidden="1">
       <c r="A5" s="0" t="s">
         <v>179</v>
       </c>
@@ -5225,7 +5246,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.500000" hidden="1">
+    <row r="7" spans="1:5">
       <c r="A7" s="0" t="s">
         <v>181</v>
       </c>
@@ -5290,7 +5311,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="16.500000" hidden="1">
       <c r="A11" s="0" t="s">
         <v>183</v>
       </c>
@@ -5341,7 +5362,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="16.500000" hidden="1">
       <c r="A14" s="0" t="s">
         <v>185</v>
       </c>
@@ -5851,7 +5872,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" ht="16.500000" hidden="1">
       <c r="A44" s="0" t="s">
         <v>219</v>
       </c>
@@ -5885,7 +5906,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" ht="16.500000" hidden="1">
       <c r="A46" s="0" t="s">
         <v>479</v>
       </c>
@@ -5936,7 +5957,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16.500000" hidden="1">
+    <row r="49" spans="1:5">
       <c r="A49" s="0" t="s">
         <v>225</v>
       </c>
@@ -5967,7 +5988,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="16.500000" hidden="1">
+    <row r="51" spans="1:5">
       <c r="A51" s="0" t="s">
         <v>431</v>
       </c>
@@ -5998,7 +6019,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16.500000" hidden="1">
+    <row r="53" spans="1:5">
       <c r="A53" s="0" t="s">
         <v>78</v>
       </c>
@@ -6159,10 +6180,10 @@
         <v>662</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>1397</v>
+        <v>1420</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>1401</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="16.500000" hidden="1">
@@ -6199,7 +6220,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" ht="16.500000" hidden="1">
       <c r="A65" s="0" t="s">
         <v>239</v>
       </c>
@@ -6267,7 +6288,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="16.500000" hidden="1">
+    <row r="69" spans="1:5">
       <c r="A69" s="0" t="s">
         <v>170</v>
       </c>
@@ -6417,7 +6438,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" ht="16.500000" hidden="1">
       <c r="A78" s="0" t="s">
         <v>247</v>
       </c>
@@ -6570,7 +6591,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" ht="16.500000" hidden="1">
       <c r="A87" s="0" t="s">
         <v>261</v>
       </c>
@@ -6621,7 +6642,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="16.500000" hidden="1">
+    <row r="90" spans="1:5">
       <c r="A90" s="0" t="s">
         <v>273</v>
       </c>
@@ -6737,7 +6758,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="16.500000" hidden="1">
+    <row r="97" spans="1:5">
       <c r="A97" s="0" t="s">
         <v>84</v>
       </c>
@@ -6802,7 +6823,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" ht="16.500000" hidden="1">
       <c r="A101" s="0" t="s">
         <v>275</v>
       </c>
@@ -6853,7 +6874,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="16.500000" hidden="1">
+    <row r="104" spans="1:5">
       <c r="A104" s="0" t="s">
         <v>86</v>
       </c>
@@ -6986,7 +7007,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="16.500000" hidden="1">
+    <row r="112" spans="1:5">
       <c r="A112" s="0" t="s">
         <v>88</v>
       </c>
@@ -7068,7 +7089,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="16.500000" hidden="1">
+    <row r="117" spans="1:5">
       <c r="A117" s="0" t="s">
         <v>154</v>
       </c>
@@ -7082,7 +7103,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" ht="16.500000" hidden="1">
       <c r="A118" s="0" t="s">
         <v>510</v>
       </c>
@@ -7184,7 +7205,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="16.500000" hidden="1">
+    <row r="124" spans="1:5">
       <c r="A124" s="0" t="s">
         <v>291</v>
       </c>
@@ -7198,7 +7219,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" ht="16.500000" hidden="1">
       <c r="A125" s="0" t="s">
         <v>518</v>
       </c>
@@ -7249,7 +7270,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="16.500000" hidden="1">
+    <row r="128" spans="1:5">
       <c r="A128" s="0" t="s">
         <v>522</v>
       </c>
@@ -7297,7 +7318,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="16.500000" hidden="1">
+    <row r="131" spans="1:5">
       <c r="A131" s="0" t="s">
         <v>295</v>
       </c>
@@ -7396,7 +7417,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="16.500000" hidden="1">
+    <row r="137" spans="1:5">
       <c r="A137" s="0" t="s">
         <v>303</v>
       </c>
@@ -7597,7 +7618,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" ht="16.500000" hidden="1">
       <c r="A149" s="0" t="s">
         <v>1403</v>
       </c>
@@ -7614,7 +7635,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="16.500000" hidden="1">
+    <row r="150" spans="1:5">
       <c r="A150" s="0" t="s">
         <v>315</v>
       </c>
@@ -7764,7 +7785,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="16.500000" hidden="1">
+    <row r="159" spans="1:5">
       <c r="A159" s="0" t="s">
         <v>329</v>
       </c>
@@ -7812,7 +7833,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="16.500000" hidden="1">
+    <row r="162" spans="1:5">
       <c r="A162" s="0" t="s">
         <v>98</v>
       </c>
@@ -7945,7 +7966,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="16.500000" hidden="1">
+    <row r="170" spans="1:5">
       <c r="A170" s="0" t="s">
         <v>162</v>
       </c>
@@ -7959,7 +7980,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="16.500000" hidden="1">
+    <row r="171" spans="1:5">
       <c r="A171" s="0" t="s">
         <v>172</v>
       </c>
@@ -7990,7 +8011,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="16.500000" hidden="1">
+    <row r="173" spans="1:5">
       <c r="A173" s="0" t="s">
         <v>128</v>
       </c>
@@ -8123,7 +8144,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" ht="16.500000" hidden="1">
       <c r="A181" s="0" t="s">
         <v>146</v>
       </c>
@@ -8140,7 +8161,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" ht="16.500000" hidden="1">
       <c r="A182" s="0" t="s">
         <v>345</v>
       </c>
@@ -8157,7 +8178,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="16.500000" hidden="1">
+    <row r="183" spans="1:5">
       <c r="A183" s="0" t="s">
         <v>506</v>
       </c>
@@ -8222,7 +8243,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" ht="16.500000" hidden="1">
       <c r="A187" s="0" t="s">
         <v>487</v>
       </c>
@@ -8239,7 +8260,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="16.500000" hidden="1">
+    <row r="188" spans="1:5">
       <c r="A188" s="0" t="s">
         <v>347</v>
       </c>
@@ -8253,7 +8274,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" ht="16.500000" hidden="1">
       <c r="A189" s="0" t="s">
         <v>142</v>
       </c>
@@ -8265,6 +8286,9 @@
       </c>
       <c r="D189" s="0" t="s">
         <v>1333</v>
+      </c>
+      <c r="E189" s="0" t="s">
+        <v>1341</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="16.500000" hidden="1">
@@ -8335,7 +8359,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="16.500000" hidden="1">
+    <row r="194" spans="1:5">
       <c r="A194" s="0" t="s">
         <v>455</v>
       </c>
@@ -8502,7 +8526,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" ht="16.500000" hidden="1">
       <c r="A204" s="0" t="s">
         <v>514</v>
       </c>
@@ -8514,6 +8538,9 @@
       </c>
       <c r="D204" s="0" t="s">
         <v>1333</v>
+      </c>
+      <c r="E204" s="0" t="s">
+        <v>1341</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="16.500000" hidden="1">
@@ -8652,7 +8679,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" ht="16.500000" hidden="1">
       <c r="A213" s="0" t="s">
         <v>4</v>
       </c>
@@ -8664,6 +8691,9 @@
       </c>
       <c r="D213" s="0" t="s">
         <v>1333</v>
+      </c>
+      <c r="E213" s="0" t="s">
+        <v>1341</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="16.500000" hidden="1">
@@ -8833,7 +8863,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="16.500000" hidden="1">
+    <row r="224" spans="1:5">
       <c r="A224" s="0" t="s">
         <v>156</v>
       </c>
@@ -8881,7 +8911,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" ht="16.500000" hidden="1">
       <c r="A227" s="0" t="s">
         <v>504</v>
       </c>
@@ -8894,8 +8924,11 @@
       <c r="D227" s="0" t="s">
         <v>1350</v>
       </c>
-    </row>
-    <row r="228" spans="1:5">
+      <c r="E227" s="0" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="16.500000" hidden="1">
       <c r="A228" s="0" t="s">
         <v>126</v>
       </c>
@@ -8906,10 +8939,10 @@
         <v>603</v>
       </c>
       <c r="D228" s="0" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" ht="16.500000" hidden="1">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
       <c r="A229" s="0" t="s">
         <v>377</v>
       </c>
@@ -8974,7 +9007,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" ht="16.500000" hidden="1">
       <c r="A233" s="0" t="s">
         <v>1419</v>
       </c>
@@ -8987,8 +9020,11 @@
       <c r="D233" s="0" t="s">
         <v>1402</v>
       </c>
-    </row>
-    <row r="234" spans="1:5">
+      <c r="E233" s="0" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="16.500000" hidden="1">
       <c r="A234" s="0" t="s">
         <v>381</v>
       </c>
@@ -9000,6 +9036,9 @@
       </c>
       <c r="D234" s="0" t="s">
         <v>1351</v>
+      </c>
+      <c r="E234" s="0" t="s">
+        <v>1341</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="16.500000" hidden="1">
@@ -9070,7 +9109,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="16.500000" hidden="1">
+    <row r="239" spans="1:5">
       <c r="A239" s="0" t="s">
         <v>40</v>
       </c>
@@ -9101,7 +9140,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="16.500000" hidden="1">
+    <row r="241" spans="1:5">
       <c r="A241" s="0" t="s">
         <v>393</v>
       </c>
@@ -9149,7 +9188,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" ht="16.500000" hidden="1">
       <c r="A244" s="0" t="s">
         <v>383</v>
       </c>
@@ -9162,8 +9201,11 @@
       <c r="D244" s="0" t="s">
         <v>1402</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" ht="16.500000" hidden="1">
+      <c r="E244" s="0" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
       <c r="A245" s="0" t="s">
         <v>116</v>
       </c>
@@ -9177,7 +9219,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="16.500000" hidden="1">
+    <row r="246" spans="1:5">
       <c r="A246" s="0" t="s">
         <v>122</v>
       </c>
@@ -9191,7 +9233,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" ht="16.500000" hidden="1">
       <c r="A247" s="0" t="s">
         <v>1405</v>
       </c>
@@ -9203,6 +9245,9 @@
       </c>
       <c r="D247" s="0" t="s">
         <v>1402</v>
+      </c>
+      <c r="E247" s="0" t="s">
+        <v>1341</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="16.500000" hidden="1">
@@ -9477,7 +9522,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" ht="16.500000" hidden="1">
       <c r="A264" s="0" t="s">
         <v>516</v>
       </c>
@@ -9489,6 +9534,9 @@
       </c>
       <c r="D264" s="0" t="s">
         <v>1351</v>
+      </c>
+      <c r="E264" s="0" t="s">
+        <v>1341</v>
       </c>
     </row>
   </sheetData>
@@ -9496,14 +9544,11 @@
     <filterColumn colId="1">
       <filters>
         <filter val="All"/>
-        <filter val="동남아시아"/>
-        <filter val="동북아시아"/>
-        <filter val="러시아"/>
-        <filter val="인도"/>
-        <filter val="중국"/>
-        <filter val="중앙아시아"/>
-        <filter val="코카서스"/>
-        <filter val="태평양"/>
+        <filter val="남미"/>
+        <filter val="북미"/>
+        <filter val="아프리카"/>
+        <filter val="중동"/>
+        <filter val="중미"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="150" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="140" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -4620,7 +4620,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4635,33 +4637,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4676,9 +4670,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4693,9 +4685,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -4710,17 +4700,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -4729,18 +4715,14 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -5132,7 +5114,7 @@
   <dimension ref="A1:E264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F137" sqref="F137"/>
+      <selection activeCell="E171" sqref="E171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="140" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="130" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -4620,9 +4620,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4637,25 +4635,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4670,7 +4676,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4685,7 +4693,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -4700,13 +4710,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -4715,14 +4729,18 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -5290,7 +5308,7 @@
         <v>537</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>1401</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.500000" hidden="1">
@@ -5324,7 +5342,7 @@
         <v>537</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>1401</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.500000" hidden="1">
@@ -5426,7 +5444,7 @@
         <v>537</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>1401</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.500000" hidden="1">
@@ -5545,7 +5563,7 @@
         <v>537</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>1401</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.500000" hidden="1">
@@ -5562,7 +5580,7 @@
         <v>537</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>1401</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16.500000" hidden="1">
@@ -5630,7 +5648,7 @@
         <v>537</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>1401</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.500000" hidden="1">
@@ -5698,7 +5716,7 @@
         <v>537</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>1401</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="16.500000" hidden="1">
@@ -5715,7 +5733,7 @@
         <v>537</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>1401</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="16.500000" hidden="1">
@@ -5732,7 +5750,7 @@
         <v>537</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>1401</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16.500000" hidden="1">
@@ -5749,7 +5767,7 @@
         <v>537</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>1401</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16.500000" hidden="1">
@@ -5766,7 +5784,7 @@
         <v>537</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>1401</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.500000" hidden="1">
@@ -5783,7 +5801,7 @@
         <v>537</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>1401</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="16.500000" hidden="1">
@@ -5834,7 +5852,7 @@
         <v>537</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>1401</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="16.500000" hidden="1">
@@ -5851,7 +5869,7 @@
         <v>537</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>1401</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="16.500000" hidden="1">
@@ -5919,7 +5937,7 @@
         <v>537</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>1401</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="16.500000" hidden="1">
@@ -6703,7 +6721,7 @@
         <v>537</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>1401</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="16.500000" hidden="1">
@@ -6785,7 +6803,7 @@
         <v>537</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>1401</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="16.500000" hidden="1">
@@ -7730,7 +7748,7 @@
         <v>537</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>1401</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="16.500000" hidden="1">
@@ -7747,7 +7765,7 @@
         <v>537</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>1401</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="16.500000" hidden="1">
@@ -7843,7 +7861,7 @@
         <v>537</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>1401</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="16.500000" hidden="1">
@@ -8793,6 +8811,9 @@
       <c r="D220" s="0" t="s">
         <v>1396</v>
       </c>
+      <c r="E220" s="0" t="s">
+        <v>1341</v>
+      </c>
     </row>
     <row r="221" spans="1:5" ht="16.500000" hidden="1">
       <c r="A221" s="0" t="s">
@@ -9523,16 +9544,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E264">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="All"/>
-        <filter val="남미"/>
-        <filter val="북미"/>
-        <filter val="아프리카"/>
-        <filter val="중동"/>
-        <filter val="중미"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="3">
       <filters>
         <filter val="All"/>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="130" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="120" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="1424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="1427">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4305,6 +4305,15 @@
   </si>
   <si>
     <t>삭제</t>
+  </si>
+  <si>
+    <t>삭제</t>
+  </si>
+  <si>
+    <t>삭제</t>
+  </si>
+  <si>
+    <t>오</t>
   </si>
 </sst>
 </file>
@@ -4620,7 +4629,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4635,33 +4646,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4676,9 +4679,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4693,9 +4694,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -4710,17 +4709,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -4729,18 +4724,14 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -5132,7 +5123,7 @@
   <dimension ref="A1:E264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E171" sqref="E171"/>
+      <selection activeCell="C246" sqref="C246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5957,7 +5948,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" ht="16.500000" hidden="1">
       <c r="A49" s="0" t="s">
         <v>225</v>
       </c>
@@ -5968,7 +5959,10 @@
         <v>657</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>1351</v>
+        <v>1425</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>1401</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="16.500000" hidden="1">
@@ -5988,7 +5982,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" ht="16.500000" hidden="1">
       <c r="A51" s="0" t="s">
         <v>431</v>
       </c>
@@ -5999,7 +5993,10 @@
         <v>657</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>1351</v>
+        <v>1425</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>1401</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="16.500000" hidden="1">
@@ -8359,7 +8356,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" ht="16.500000" hidden="1">
       <c r="A194" s="0" t="s">
         <v>455</v>
       </c>
@@ -8370,7 +8367,10 @@
         <v>773</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>1351</v>
+        <v>1424</v>
+      </c>
+      <c r="E194" s="0" t="s">
+        <v>1401</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="16.500000" hidden="1">
@@ -9143,7 +9143,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" ht="16.500000" hidden="1">
       <c r="A241" s="0" t="s">
         <v>393</v>
       </c>
@@ -9154,7 +9154,10 @@
         <v>744</v>
       </c>
       <c r="D241" s="0" t="s">
-        <v>1351</v>
+        <v>1424</v>
+      </c>
+      <c r="E241" s="0" t="s">
+        <v>1401</v>
       </c>
     </row>
     <row r="242" spans="1:5" ht="16.500000" hidden="1">
@@ -9544,6 +9547,16 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E264">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="All"/>
+        <filter val="남미"/>
+        <filter val="북미"/>
+        <filter val="아프리카"/>
+        <filter val="중동"/>
+        <filter val="중미"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3">
       <filters>
         <filter val="All"/>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="120" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="110" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="1427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="1428">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4314,6 +4314,9 @@
   </si>
   <si>
     <t>오</t>
+  </si>
+  <si>
+    <t>인도 자치령</t>
   </si>
 </sst>
 </file>
@@ -4629,9 +4632,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4646,25 +4647,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4679,7 +4688,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4694,7 +4705,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -4709,13 +4722,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -4724,14 +4741,18 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -5123,7 +5144,7 @@
   <dimension ref="A1:E264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C246" sqref="C246"/>
+      <selection activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -6174,7 +6195,7 @@
         <v>611</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>662</v>
+        <v>1427</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>1420</v>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="110" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="100" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="1428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="1429">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4317,6 +4317,9 @@
   </si>
   <si>
     <t>인도 자치령</t>
+  </si>
+  <si>
+    <t>삭제</t>
   </si>
 </sst>
 </file>
@@ -4632,7 +4635,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4647,33 +4652,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4688,9 +4685,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4705,9 +4700,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -4722,17 +4715,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -4741,18 +4730,14 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -5144,7 +5129,7 @@
   <dimension ref="A1:E264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C137" sqref="C137"/>
+      <selection activeCell="E171" sqref="E171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -7107,7 +7092,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" ht="16.500000" hidden="1">
       <c r="A117" s="0" t="s">
         <v>154</v>
       </c>
@@ -7118,7 +7103,7 @@
         <v>617</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>1333</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="16.500000" hidden="1">
@@ -9145,6 +9130,9 @@
       </c>
       <c r="D239" s="0" t="s">
         <v>1333</v>
+      </c>
+      <c r="E239" s="0" t="s">
+        <v>1341</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="16.500000" hidden="1">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="100" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="90" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -4635,9 +4635,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4652,25 +4650,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4685,7 +4691,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4700,7 +4708,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -4715,13 +4725,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -4730,14 +4744,18 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -5129,7 +5147,7 @@
   <dimension ref="A1:E264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E171" sqref="E171"/>
+      <selection activeCell="E246" sqref="E246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="90" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="80" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="1429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="1431">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4320,6 +4320,12 @@
   </si>
   <si>
     <t>삭제</t>
+  </si>
+  <si>
+    <t>미등장</t>
+  </si>
+  <si>
+    <t>미등장</t>
   </si>
 </sst>
 </file>
@@ -4635,7 +4641,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4650,33 +4658,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4691,9 +4691,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4708,9 +4706,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -4725,17 +4721,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -4744,18 +4736,14 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -5147,7 +5135,7 @@
   <dimension ref="A1:E264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E246" sqref="E246"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5210,7 +5198,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.500000" hidden="1">
+    <row r="4" spans="1:5">
       <c r="A4" s="0" t="s">
         <v>177</v>
       </c>
@@ -5221,10 +5209,7 @@
         <v>628</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>1401</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.500000" hidden="1">
@@ -7622,7 +7607,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="16.500000" hidden="1">
+    <row r="148" spans="1:5">
       <c r="A148" s="0" t="s">
         <v>313</v>
       </c>
@@ -7633,10 +7618,7 @@
         <v>700</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E148" s="0" t="s">
-        <v>1401</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="16.500000" hidden="1">
@@ -9119,7 +9101,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="16.500000" hidden="1">
+    <row r="238" spans="1:5">
       <c r="A238" s="0" t="s">
         <v>391</v>
       </c>
@@ -9130,10 +9112,7 @@
         <v>743</v>
       </c>
       <c r="D238" s="0" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E238" s="0" t="s">
-        <v>1401</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="239" spans="1:5">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="80" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="60" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="1431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="1437">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4326,6 +4326,24 @@
   </si>
   <si>
     <t>미등장</t>
+  </si>
+  <si>
+    <t>삭제</t>
+  </si>
+  <si>
+    <t>미등장</t>
+  </si>
+  <si>
+    <t>미등장</t>
+  </si>
+  <si>
+    <t>미등장</t>
+  </si>
+  <si>
+    <t>tkr</t>
+  </si>
+  <si>
+    <t>삭제</t>
   </si>
 </sst>
 </file>
@@ -5135,7 +5153,7 @@
   <dimension ref="A1:E264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F171" sqref="F171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5198,7 +5216,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="16.500000" hidden="1">
       <c r="A4" s="0" t="s">
         <v>177</v>
       </c>
@@ -5209,7 +5227,10 @@
         <v>628</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>1429</v>
+        <v>1431</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>1401</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.500000" hidden="1">
@@ -5951,13 +5972,13 @@
         <v>656</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>1345</v>
+        <v>1436</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>1401</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16.500000" hidden="1">
+    <row r="49" spans="1:5">
       <c r="A49" s="0" t="s">
         <v>225</v>
       </c>
@@ -5968,10 +5989,7 @@
         <v>657</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>1425</v>
-      </c>
-      <c r="E49" s="0" t="s">
-        <v>1401</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="16.500000" hidden="1">
@@ -6141,7 +6159,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="16.500000" hidden="1">
+    <row r="60" spans="1:5">
       <c r="A60" s="0" t="s">
         <v>447</v>
       </c>
@@ -6152,10 +6170,7 @@
         <v>769</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>1401</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="16.500000" hidden="1">
@@ -6673,7 +6688,7 @@
         <v>676</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>1345</v>
+        <v>1436</v>
       </c>
       <c r="E91" s="0" t="s">
         <v>1401</v>
@@ -6696,7 +6711,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="16.500000" hidden="1">
+    <row r="93" spans="1:5">
       <c r="A93" s="0" t="s">
         <v>269</v>
       </c>
@@ -6707,10 +6722,7 @@
         <v>678</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E93" s="0" t="s">
-        <v>1401</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="16.500000" hidden="1">
@@ -6812,7 +6824,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="16.500000" hidden="1">
+    <row r="100" spans="1:5">
       <c r="A100" s="0" t="s">
         <v>443</v>
       </c>
@@ -6823,10 +6835,7 @@
         <v>767</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E100" s="0" t="s">
-        <v>1401</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="16.500000" hidden="1">
@@ -7819,7 +7828,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="16.500000" hidden="1">
+    <row r="161" spans="1:5">
       <c r="A161" s="0" t="s">
         <v>333</v>
       </c>
@@ -7830,10 +7839,7 @@
         <v>710</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E161" s="0" t="s">
-        <v>1401</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -8982,7 +8988,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="16.500000" hidden="1">
+    <row r="231" spans="1:5">
       <c r="A231" s="0" t="s">
         <v>379</v>
       </c>
@@ -8993,10 +8999,7 @@
         <v>737</v>
       </c>
       <c r="D231" s="0" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E231" s="0" t="s">
-        <v>1401</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="16.500000" hidden="1">
@@ -9084,7 +9087,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="16.500000" hidden="1">
+    <row r="237" spans="1:5">
       <c r="A237" s="0" t="s">
         <v>389</v>
       </c>
@@ -9095,13 +9098,10 @@
         <v>742</v>
       </c>
       <c r="D237" s="0" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E237" s="0" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="16.500000" hidden="1">
       <c r="A238" s="0" t="s">
         <v>391</v>
       </c>
@@ -9112,7 +9112,10 @@
         <v>743</v>
       </c>
       <c r="D238" s="0" t="s">
-        <v>1430</v>
+        <v>1431</v>
+      </c>
+      <c r="E238" s="0" t="s">
+        <v>1401</v>
       </c>
     </row>
     <row r="239" spans="1:5">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="60" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="40" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="1437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="1440">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4344,6 +4344,15 @@
   </si>
   <si>
     <t>삭제</t>
+  </si>
+  <si>
+    <t>미등장</t>
+  </si>
+  <si>
+    <t>미등장</t>
+  </si>
+  <si>
+    <t>미등장</t>
   </si>
 </sst>
 </file>
@@ -5153,7 +5162,7 @@
   <dimension ref="A1:E264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F171" sqref="F171"/>
+      <selection activeCell="E161" sqref="E161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5638,7 +5647,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16.500000" hidden="1">
+    <row r="29" spans="1:5">
       <c r="A29" s="0" t="s">
         <v>201</v>
       </c>
@@ -5649,10 +5658,7 @@
         <v>642</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>1401</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16.500000" hidden="1">
@@ -7169,7 +7175,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="16.500000" hidden="1">
+    <row r="121" spans="1:5">
       <c r="A121" s="0" t="s">
         <v>289</v>
       </c>
@@ -7180,10 +7186,7 @@
         <v>688</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E121" s="0" t="s">
-        <v>1401</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="16.500000" hidden="1">
@@ -7548,7 +7551,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="16.500000" hidden="1">
+    <row r="144" spans="1:5">
       <c r="A144" s="0" t="s">
         <v>453</v>
       </c>
@@ -7559,10 +7562,7 @@
         <v>772</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E144" s="0" t="s">
-        <v>1401</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="16.500000" hidden="1">
@@ -8368,7 +8368,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="16.500000" hidden="1">
+    <row r="194" spans="1:5">
       <c r="A194" s="0" t="s">
         <v>455</v>
       </c>
@@ -8379,10 +8379,7 @@
         <v>773</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>1424</v>
-      </c>
-      <c r="E194" s="0" t="s">
-        <v>1401</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="16.500000" hidden="1">
@@ -9152,7 +9149,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="16.500000" hidden="1">
+    <row r="241" spans="1:5">
       <c r="A241" s="0" t="s">
         <v>393</v>
       </c>
@@ -9163,10 +9160,7 @@
         <v>744</v>
       </c>
       <c r="D241" s="0" t="s">
-        <v>1424</v>
-      </c>
-      <c r="E241" s="0" t="s">
-        <v>1401</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="242" spans="1:5" ht="16.500000" hidden="1">
@@ -9520,7 +9514,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="16.500000" hidden="1">
+    <row r="263" spans="1:5">
       <c r="A263" s="0" t="s">
         <v>411</v>
       </c>
@@ -9531,10 +9525,7 @@
         <v>753</v>
       </c>
       <c r="D263" s="0" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E263" s="0" t="s">
-        <v>1401</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="16.500000" hidden="1">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="1440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="1441">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4344,6 +4344,9 @@
   </si>
   <si>
     <t>삭제</t>
+  </si>
+  <si>
+    <t>미등장</t>
   </si>
   <si>
     <t>미등장</t>
@@ -5162,7 +5165,7 @@
   <dimension ref="A1:E264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E161" sqref="E161"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -7958,7 +7961,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="16.500000" hidden="1">
+    <row r="169" spans="1:5">
       <c r="A169" s="0" t="s">
         <v>439</v>
       </c>
@@ -7969,10 +7972,7 @@
         <v>765</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E169" s="0" t="s">
-        <v>1401</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="170" spans="1:5">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="40" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="30" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="1441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="1442">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4344,6 +4344,9 @@
   </si>
   <si>
     <t>삭제</t>
+  </si>
+  <si>
+    <t>미등장</t>
   </si>
   <si>
     <t>미등장</t>
@@ -4671,9 +4674,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4688,25 +4689,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4721,7 +4730,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4736,7 +4747,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -4751,13 +4764,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -4766,14 +4783,18 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -5165,7 +5186,7 @@
   <dimension ref="A1:E264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5292,6 +5313,9 @@
       <c r="D7" s="0" t="s">
         <v>1351</v>
       </c>
+      <c r="E7" s="0" t="s">
+        <v>1341</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="16.500000" hidden="1">
       <c r="A8" s="0" t="s">
@@ -5663,6 +5687,9 @@
       <c r="D29" s="0" t="s">
         <v>1437</v>
       </c>
+      <c r="E29" s="0" t="s">
+        <v>1341</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="16.500000" hidden="1">
       <c r="A30" s="0" t="s">
@@ -6000,6 +6027,9 @@
       <c r="D49" s="0" t="s">
         <v>1433</v>
       </c>
+      <c r="E49" s="0" t="s">
+        <v>1341</v>
+      </c>
     </row>
     <row r="50" spans="1:5" ht="16.500000" hidden="1">
       <c r="A50" s="0" t="s">
@@ -6065,6 +6095,9 @@
       <c r="D53" s="0" t="s">
         <v>1348</v>
       </c>
+      <c r="E53" s="0" t="s">
+        <v>1341</v>
+      </c>
     </row>
     <row r="54" spans="1:5" ht="16.500000" hidden="1">
       <c r="A54" s="0" t="s">
@@ -6553,7 +6586,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="16.500000" hidden="1">
+    <row r="83" spans="1:5">
       <c r="A83" s="0" t="s">
         <v>253</v>
       </c>
@@ -6564,10 +6597,7 @@
         <v>671</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E83" s="0" t="s">
-        <v>1401</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="16.500000" hidden="1">
@@ -7125,6 +7155,9 @@
       </c>
       <c r="D117" s="0" t="s">
         <v>1428</v>
+      </c>
+      <c r="E117" s="0" t="s">
+        <v>1401</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="16.500000" hidden="1">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="30" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="20" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="1442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="1444">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4359,6 +4359,12 @@
   </si>
   <si>
     <t>미등장</t>
+  </si>
+  <si>
+    <t>미등장</t>
+  </si>
+  <si>
+    <t>펄스 1</t>
   </si>
 </sst>
 </file>
@@ -4674,7 +4680,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4689,33 +4697,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4730,9 +4730,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4747,9 +4745,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -4764,17 +4760,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -4783,18 +4775,14 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -5186,7 +5174,7 @@
   <dimension ref="A1:E264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -8647,10 +8635,10 @@
         <v>726</v>
       </c>
       <c r="D208" s="0" t="s">
-        <v>1394</v>
+        <v>1442</v>
       </c>
       <c r="E208" s="0" t="s">
-        <v>1401</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="16.500000" hidden="1">
@@ -8800,10 +8788,10 @@
         <v>756</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>1394</v>
+        <v>1442</v>
       </c>
       <c r="E217" s="0" t="s">
-        <v>1401</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="16.500000" hidden="1">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="20" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="280" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="새_텍스트_문서" localSheetId="0">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'국가 태그'!$A$1:$E$264</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'임시 태그'!$A$1:$D$161</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="1444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="1448">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4365,6 +4365,18 @@
   </si>
   <si>
     <t>펄스 1</t>
+  </si>
+  <si>
+    <t>펄스 3 : 장관진과 테크팀, 국가원수 후보, 초기 국가 정신, 국가 원수 설명, 병력 배치, 초기 기술과 테크트리와 무기, 공용 국가중점, 코어, 지역 기반</t>
+  </si>
+  <si>
+    <t>펄스 4 : 국가중점 트리와 이벤트, 디시전, 추가 국가정신</t>
+  </si>
+  <si>
+    <t>펄스 3 : 장관진과 테크팀, 국가원수 후보, 초기 국가 정신, 국가 원수 설명, 초기 기술과 테크트리와 무기, 공용 국가중점, 코어, 지역 기반</t>
+  </si>
+  <si>
+    <t>펄스 2 : 병력 배치</t>
   </si>
 </sst>
 </file>
@@ -4680,9 +4692,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4697,25 +4707,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4730,7 +4748,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4745,7 +4765,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -4760,13 +4782,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -4775,14 +4801,18 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -5174,7 +5204,7 @@
   <dimension ref="A1:E264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -6202,6 +6232,9 @@
       <c r="D60" s="0" t="s">
         <v>1430</v>
       </c>
+      <c r="E60" s="0" t="s">
+        <v>1443</v>
+      </c>
     </row>
     <row r="61" spans="1:5" ht="16.500000" hidden="1">
       <c r="A61" s="0" t="s">
@@ -6351,6 +6384,9 @@
       </c>
       <c r="D69" s="0" t="s">
         <v>1348</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>1443</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="16.500000" hidden="1">
@@ -11541,10 +11577,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:B4"/>
+  <dimension ref="B2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -11556,12 +11592,17 @@
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="0" t="s">
-        <v>1328</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="0" t="s">
-        <v>1393</v>
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="0" t="s">
+        <v>1445</v>
       </c>
     </row>
   </sheetData>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="280" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="270" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="1448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="1450">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4377,6 +4377,12 @@
   </si>
   <si>
     <t>펄스 2 : 병력 배치</t>
+  </si>
+  <si>
+    <t>펄스 3 : 장관진과 테크팀, 국가원수 후보, 초기 국가 정신, 국가 원수 설명, 초기 기술과 테크트리와 무기, 공용 국가중점</t>
+  </si>
+  <si>
+    <t>펄스 2 : 병력 배치, 코어, 지역 기반</t>
   </si>
 </sst>
 </file>
@@ -4692,7 +4698,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4707,33 +4715,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4748,9 +4748,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4765,9 +4763,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -4782,17 +4778,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -4801,18 +4793,14 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -5203,7 +5191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E264"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
@@ -11579,8 +11567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -11592,12 +11580,12 @@
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="0" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="0" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="5" spans="2:2">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="270" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="260" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="1450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="1452">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4383,6 +4383,12 @@
   </si>
   <si>
     <t>펄스 2 : 병력 배치, 코어, 지역 기반</t>
+  </si>
+  <si>
+    <t>펄스 3 : 장관진과 테크팀, 국가원수 후보, 초기 국가 정신, 국가 원수 설명, 공용 국가중점</t>
+  </si>
+  <si>
+    <t>펄스 2 : 병력 배치, 코어, 지역 기반, 초기 기술과 테크트리와 무기</t>
   </si>
 </sst>
 </file>
@@ -4698,9 +4704,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4715,25 +4719,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4748,7 +4760,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4763,7 +4777,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -4778,13 +4794,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -4793,14 +4813,18 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -11580,12 +11604,12 @@
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="0" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="0" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="5" spans="2:2">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="260" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="260" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="1452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="1462">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4389,6 +4389,36 @@
   </si>
   <si>
     <t>펄스 2 : 병력 배치, 코어, 지역 기반, 초기 기술과 테크트리와 무기</t>
+  </si>
+  <si>
+    <t>al</t>
+  </si>
+  <si>
+    <t>미등장</t>
+  </si>
+  <si>
+    <t>미등장</t>
+  </si>
+  <si>
+    <t>미등장</t>
+  </si>
+  <si>
+    <t>펄스 1</t>
+  </si>
+  <si>
+    <t>펄</t>
+  </si>
+  <si>
+    <t>펄스 1</t>
+  </si>
+  <si>
+    <t>펄스 1</t>
+  </si>
+  <si>
+    <t>미등장</t>
+  </si>
+  <si>
+    <t>펄스 1</t>
   </si>
 </sst>
 </file>
@@ -5215,8 +5245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E264"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5279,7 +5309,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.500000" hidden="1">
+    <row r="4" spans="1:5">
       <c r="A4" s="0" t="s">
         <v>177</v>
       </c>
@@ -5296,7 +5326,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.500000" hidden="1">
+    <row r="5" spans="1:5">
       <c r="A5" s="0" t="s">
         <v>179</v>
       </c>
@@ -5398,7 +5428,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.500000" hidden="1">
+    <row r="11" spans="1:5">
       <c r="A11" s="0" t="s">
         <v>183</v>
       </c>
@@ -5432,7 +5462,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16.500000" hidden="1">
+    <row r="13" spans="1:5">
       <c r="A13" s="0" t="s">
         <v>20</v>
       </c>
@@ -5449,7 +5479,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16.500000" hidden="1">
+    <row r="14" spans="1:5">
       <c r="A14" s="0" t="s">
         <v>185</v>
       </c>
@@ -5466,7 +5496,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16.500000" hidden="1">
+    <row r="15" spans="1:5">
       <c r="A15" s="0" t="s">
         <v>427</v>
       </c>
@@ -5500,7 +5530,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.500000" hidden="1">
+    <row r="17" spans="1:5">
       <c r="A17" s="0" t="s">
         <v>508</v>
       </c>
@@ -5511,10 +5541,10 @@
         <v>799</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>1345</v>
+        <v>1453</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>1401</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.500000" hidden="1">
@@ -5534,7 +5564,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16.500000" hidden="1">
+    <row r="19" spans="1:5">
       <c r="A19" s="0" t="s">
         <v>189</v>
       </c>
@@ -5551,7 +5581,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16.500000" hidden="1">
+    <row r="20" spans="1:5">
       <c r="A20" s="0" t="s">
         <v>12</v>
       </c>
@@ -5568,7 +5598,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16.500000" hidden="1">
+    <row r="21" spans="1:5">
       <c r="A21" s="0" t="s">
         <v>191</v>
       </c>
@@ -5619,7 +5649,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16.500000" hidden="1">
+    <row r="24" spans="1:5">
       <c r="A24" s="0" t="s">
         <v>429</v>
       </c>
@@ -5687,7 +5717,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16.500000" hidden="1">
+    <row r="28" spans="1:5">
       <c r="A28" s="0" t="s">
         <v>199</v>
       </c>
@@ -5738,7 +5768,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16.500000" hidden="1">
+    <row r="31" spans="1:5">
       <c r="A31" s="0" t="s">
         <v>445</v>
       </c>
@@ -5755,7 +5785,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="16.500000" hidden="1">
+    <row r="32" spans="1:5">
       <c r="A32" s="0" t="s">
         <v>203</v>
       </c>
@@ -5766,13 +5796,13 @@
         <v>644</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>1366</v>
+        <v>1453</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="16.500000" hidden="1">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="0" t="s">
         <v>457</v>
       </c>
@@ -5891,7 +5921,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="16.500000" hidden="1">
+    <row r="40" spans="1:5">
       <c r="A40" s="0" t="s">
         <v>213</v>
       </c>
@@ -5908,7 +5938,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="16.500000" hidden="1">
+    <row r="41" spans="1:5">
       <c r="A41" s="0" t="s">
         <v>215</v>
       </c>
@@ -5919,10 +5949,10 @@
         <v>651</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>1345</v>
+        <v>1454</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>1401</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16.500000" hidden="1">
@@ -5959,7 +5989,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="16.500000" hidden="1">
+    <row r="44" spans="1:5">
       <c r="A44" s="0" t="s">
         <v>219</v>
       </c>
@@ -5976,7 +6006,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16.500000" hidden="1">
+    <row r="45" spans="1:5">
       <c r="A45" s="0" t="s">
         <v>221</v>
       </c>
@@ -5993,7 +6023,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16.500000" hidden="1">
+    <row r="46" spans="1:5">
       <c r="A46" s="0" t="s">
         <v>479</v>
       </c>
@@ -6027,7 +6057,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="16.500000" hidden="1">
+    <row r="48" spans="1:5">
       <c r="A48" s="0" t="s">
         <v>223</v>
       </c>
@@ -6078,7 +6108,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="16.500000" hidden="1">
+    <row r="51" spans="1:5">
       <c r="A51" s="0" t="s">
         <v>431</v>
       </c>
@@ -6129,7 +6159,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="16.500000" hidden="1">
+    <row r="54" spans="1:5">
       <c r="A54" s="0" t="s">
         <v>144</v>
       </c>
@@ -6180,7 +6210,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="16.500000" hidden="1">
+    <row r="57" spans="1:5">
       <c r="A57" s="0" t="s">
         <v>231</v>
       </c>
@@ -6214,7 +6244,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="16.500000" hidden="1">
+    <row r="59" spans="1:5">
       <c r="A59" s="0" t="s">
         <v>16</v>
       </c>
@@ -6248,7 +6278,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="16.500000" hidden="1">
+    <row r="61" spans="1:5">
       <c r="A61" s="0" t="s">
         <v>168</v>
       </c>
@@ -6265,7 +6295,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="16.500000" hidden="1">
+    <row r="62" spans="1:5">
       <c r="A62" s="0" t="s">
         <v>235</v>
       </c>
@@ -6316,7 +6346,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="16.500000" hidden="1">
+    <row r="65" spans="1:5">
       <c r="A65" s="0" t="s">
         <v>239</v>
       </c>
@@ -6435,7 +6465,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="16.500000" hidden="1">
+    <row r="72" spans="1:5">
       <c r="A72" s="0" t="s">
         <v>241</v>
       </c>
@@ -6452,7 +6482,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="16.500000" hidden="1">
+    <row r="73" spans="1:5">
       <c r="A73" s="0" t="s">
         <v>243</v>
       </c>
@@ -6469,7 +6499,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="16.500000" hidden="1">
+    <row r="74" spans="1:5">
       <c r="A74" s="0" t="s">
         <v>24</v>
       </c>
@@ -6537,7 +6567,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="16.500000" hidden="1">
+    <row r="78" spans="1:5">
       <c r="A78" s="0" t="s">
         <v>247</v>
       </c>
@@ -6554,7 +6584,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="16.500000" hidden="1">
+    <row r="79" spans="1:5">
       <c r="A79" s="0" t="s">
         <v>470</v>
       </c>
@@ -6588,7 +6618,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="16.500000" hidden="1">
+    <row r="81" spans="1:5">
       <c r="A81" s="0" t="s">
         <v>249</v>
       </c>
@@ -6605,7 +6635,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="16.500000" hidden="1">
+    <row r="82" spans="1:5">
       <c r="A82" s="0" t="s">
         <v>251</v>
       </c>
@@ -6653,7 +6683,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="16.500000" hidden="1">
+    <row r="85" spans="1:5">
       <c r="A85" s="0" t="s">
         <v>257</v>
       </c>
@@ -6670,7 +6700,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="16.500000" hidden="1">
+    <row r="86" spans="1:5">
       <c r="A86" s="0" t="s">
         <v>259</v>
       </c>
@@ -6687,7 +6717,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="16.500000" hidden="1">
+    <row r="87" spans="1:5">
       <c r="A87" s="0" t="s">
         <v>261</v>
       </c>
@@ -6752,7 +6782,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="16.500000" hidden="1">
+    <row r="91" spans="1:5">
       <c r="A91" s="0" t="s">
         <v>265</v>
       </c>
@@ -6769,7 +6799,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="16.500000" hidden="1">
+    <row r="92" spans="1:5">
       <c r="A92" s="0" t="s">
         <v>267</v>
       </c>
@@ -6780,7 +6810,7 @@
         <v>1358</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>1359</v>
+        <v>1436</v>
       </c>
       <c r="E92" s="0" t="s">
         <v>1401</v>
@@ -6834,7 +6864,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="16.500000" hidden="1">
+    <row r="96" spans="1:5">
       <c r="A96" s="0" t="s">
         <v>271</v>
       </c>
@@ -6913,7 +6943,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="16.500000" hidden="1">
+    <row r="101" spans="1:5">
       <c r="A101" s="0" t="s">
         <v>275</v>
       </c>
@@ -6995,7 +7025,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="16.500000" hidden="1">
+    <row r="106" spans="1:5">
       <c r="A106" s="0" t="s">
         <v>152</v>
       </c>
@@ -7012,7 +7042,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="16.500000" hidden="1">
+    <row r="107" spans="1:5">
       <c r="A107" s="0" t="s">
         <v>283</v>
       </c>
@@ -7128,7 +7158,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="16.500000" hidden="1">
+    <row r="114" spans="1:5">
       <c r="A114" s="0" t="s">
         <v>30</v>
       </c>
@@ -7179,7 +7209,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="16.500000" hidden="1">
+    <row r="117" spans="1:5">
       <c r="A117" s="0" t="s">
         <v>154</v>
       </c>
@@ -7196,7 +7226,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="16.500000" hidden="1">
+    <row r="118" spans="1:5">
       <c r="A118" s="0" t="s">
         <v>510</v>
       </c>
@@ -7213,7 +7243,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="16.500000" hidden="1">
+    <row r="119" spans="1:5">
       <c r="A119" s="0" t="s">
         <v>287</v>
       </c>
@@ -7230,7 +7260,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="16.500000" hidden="1">
+    <row r="120" spans="1:5">
       <c r="A120" s="0" t="s">
         <v>433</v>
       </c>
@@ -7278,7 +7308,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="16.500000" hidden="1">
+    <row r="123" spans="1:5">
       <c r="A123" s="0" t="s">
         <v>451</v>
       </c>
@@ -7309,7 +7339,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="16.500000" hidden="1">
+    <row r="125" spans="1:5">
       <c r="A125" s="0" t="s">
         <v>518</v>
       </c>
@@ -7343,7 +7373,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="16.500000" hidden="1">
+    <row r="127" spans="1:5">
       <c r="A127" s="0" t="s">
         <v>26</v>
       </c>
@@ -7456,7 +7486,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="16.500000" hidden="1">
+    <row r="134" spans="1:5">
       <c r="A134" s="0" t="s">
         <v>10</v>
       </c>
@@ -7467,10 +7497,10 @@
         <v>541</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>1345</v>
+        <v>1460</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>1401</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="16.500000" hidden="1">
@@ -7521,7 +7551,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="16.500000" hidden="1">
+    <row r="138" spans="1:5">
       <c r="A138" s="0" t="s">
         <v>305</v>
       </c>
@@ -7555,7 +7585,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="16.500000" hidden="1">
+    <row r="140" spans="1:5">
       <c r="A140" s="0" t="s">
         <v>307</v>
       </c>
@@ -7654,7 +7684,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="16.500000" hidden="1">
+    <row r="146" spans="1:5">
       <c r="A146" s="0" t="s">
         <v>437</v>
       </c>
@@ -7702,7 +7732,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="16.500000" hidden="1">
+    <row r="149" spans="1:5">
       <c r="A149" s="0" t="s">
         <v>1403</v>
       </c>
@@ -7733,7 +7763,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="16.500000" hidden="1">
+    <row r="151" spans="1:5">
       <c r="A151" s="0" t="s">
         <v>317</v>
       </c>
@@ -7750,7 +7780,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="16.500000" hidden="1">
+    <row r="152" spans="1:5">
       <c r="A152" s="0" t="s">
         <v>319</v>
       </c>
@@ -7784,7 +7814,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="16.500000" hidden="1">
+    <row r="154" spans="1:5">
       <c r="A154" s="0" t="s">
         <v>435</v>
       </c>
@@ -7801,7 +7831,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="16.500000" hidden="1">
+    <row r="155" spans="1:5">
       <c r="A155" s="0" t="s">
         <v>323</v>
       </c>
@@ -7852,7 +7882,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="16.500000" hidden="1">
+    <row r="158" spans="1:5">
       <c r="A158" s="0" t="s">
         <v>327</v>
       </c>
@@ -7883,7 +7913,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="16.500000" hidden="1">
+    <row r="160" spans="1:5">
       <c r="A160" s="0" t="s">
         <v>331</v>
       </c>
@@ -7945,7 +7975,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="16.500000" hidden="1">
+    <row r="164" spans="1:5">
       <c r="A164" s="0" t="s">
         <v>335</v>
       </c>
@@ -7956,10 +7986,10 @@
         <v>713</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>1366</v>
+        <v>1455</v>
       </c>
       <c r="E164" s="0" t="s">
-        <v>1401</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="16.500000" hidden="1">
@@ -7979,7 +8009,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="16.500000" hidden="1">
+    <row r="166" spans="1:5">
       <c r="A166" s="0" t="s">
         <v>337</v>
       </c>
@@ -7990,10 +8020,10 @@
         <v>712</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>1367</v>
+        <v>1455</v>
       </c>
       <c r="E166" s="0" t="s">
-        <v>1401</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="16.500000" hidden="1">
@@ -8222,7 +8252,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="16.500000" hidden="1">
+    <row r="181" spans="1:5">
       <c r="A181" s="0" t="s">
         <v>146</v>
       </c>
@@ -8239,7 +8269,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="16.500000" hidden="1">
+    <row r="182" spans="1:5">
       <c r="A182" s="0" t="s">
         <v>345</v>
       </c>
@@ -8304,7 +8334,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="16.500000" hidden="1">
+    <row r="186" spans="1:5">
       <c r="A186" s="0" t="s">
         <v>472</v>
       </c>
@@ -8321,7 +8351,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="16.500000" hidden="1">
+    <row r="187" spans="1:5">
       <c r="A187" s="0" t="s">
         <v>487</v>
       </c>
@@ -8352,7 +8382,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="16.500000" hidden="1">
+    <row r="189" spans="1:5">
       <c r="A189" s="0" t="s">
         <v>142</v>
       </c>
@@ -8386,7 +8416,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="16.500000" hidden="1">
+    <row r="191" spans="1:5">
       <c r="A191" s="0" t="s">
         <v>32</v>
       </c>
@@ -8519,7 +8549,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="16.500000" hidden="1">
+    <row r="199" spans="1:5">
       <c r="A199" s="0" t="s">
         <v>355</v>
       </c>
@@ -8553,7 +8583,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="16.500000" hidden="1">
+    <row r="201" spans="1:5">
       <c r="A201" s="0" t="s">
         <v>357</v>
       </c>
@@ -8570,7 +8600,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="16.500000" hidden="1">
+    <row r="202" spans="1:5">
       <c r="A202" s="0" t="s">
         <v>359</v>
       </c>
@@ -8587,7 +8617,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="16.500000" hidden="1">
+    <row r="203" spans="1:5">
       <c r="A203" s="0" t="s">
         <v>36</v>
       </c>
@@ -8604,7 +8634,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="16.500000" hidden="1">
+    <row r="204" spans="1:5">
       <c r="A204" s="0" t="s">
         <v>514</v>
       </c>
@@ -8672,7 +8702,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="16.500000" hidden="1">
+    <row r="208" spans="1:5">
       <c r="A208" s="0" t="s">
         <v>363</v>
       </c>
@@ -8689,7 +8719,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="16.500000" hidden="1">
+    <row r="209" spans="1:5">
       <c r="A209" s="0" t="s">
         <v>365</v>
       </c>
@@ -8723,7 +8753,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="16.500000" hidden="1">
+    <row r="211" spans="1:5">
       <c r="A211" s="0" t="s">
         <v>367</v>
       </c>
@@ -8757,7 +8787,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="16.500000" hidden="1">
+    <row r="213" spans="1:5">
       <c r="A213" s="0" t="s">
         <v>4</v>
       </c>
@@ -8791,7 +8821,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="16.500000" hidden="1">
+    <row r="215" spans="1:5">
       <c r="A215" s="0" t="s">
         <v>28</v>
       </c>
@@ -8825,7 +8855,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="16.500000" hidden="1">
+    <row r="217" spans="1:5">
       <c r="A217" s="0" t="s">
         <v>418</v>
       </c>
@@ -8842,7 +8872,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="16.500000" hidden="1">
+    <row r="218" spans="1:5">
       <c r="A218" s="0" t="s">
         <v>371</v>
       </c>
@@ -8992,7 +9022,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="16.500000" hidden="1">
+    <row r="227" spans="1:5">
       <c r="A227" s="0" t="s">
         <v>504</v>
       </c>
@@ -9068,7 +9098,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="16.500000" hidden="1">
+    <row r="232" spans="1:5">
       <c r="A232" s="0" t="s">
         <v>449</v>
       </c>
@@ -9085,7 +9115,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="16.500000" hidden="1">
+    <row r="233" spans="1:5">
       <c r="A233" s="0" t="s">
         <v>1419</v>
       </c>
@@ -9102,7 +9132,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="16.500000" hidden="1">
+    <row r="234" spans="1:5">
       <c r="A234" s="0" t="s">
         <v>381</v>
       </c>
@@ -9167,7 +9197,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="16.500000" hidden="1">
+    <row r="238" spans="1:5">
       <c r="A238" s="0" t="s">
         <v>391</v>
       </c>
@@ -9266,7 +9296,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="16.500000" hidden="1">
+    <row r="244" spans="1:5">
       <c r="A244" s="0" t="s">
         <v>383</v>
       </c>
@@ -9311,7 +9341,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="16.500000" hidden="1">
+    <row r="247" spans="1:5">
       <c r="A247" s="0" t="s">
         <v>1405</v>
       </c>
@@ -9362,7 +9392,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="16.500000" hidden="1">
+    <row r="250" spans="1:5">
       <c r="A250" s="0" t="s">
         <v>441</v>
       </c>
@@ -9396,7 +9426,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="16.500000" hidden="1">
+    <row r="252" spans="1:5">
       <c r="A252" s="0" t="s">
         <v>401</v>
       </c>
@@ -9430,7 +9460,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="16.500000" hidden="1">
+    <row r="254" spans="1:5">
       <c r="A254" s="0" t="s">
         <v>403</v>
       </c>
@@ -9447,7 +9477,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="16.500000" hidden="1">
+    <row r="255" spans="1:5">
       <c r="A255" s="0" t="s">
         <v>166</v>
       </c>
@@ -9566,7 +9596,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="16.500000" hidden="1">
+    <row r="262" spans="1:5">
       <c r="A262" s="0" t="s">
         <v>409</v>
       </c>
@@ -9597,7 +9627,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="16.500000" hidden="1">
+    <row r="264" spans="1:5">
       <c r="A264" s="0" t="s">
         <v>516</v>
       </c>
@@ -9616,20 +9646,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E264">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="All"/>
-        <filter val="남미"/>
-        <filter val="북미"/>
-        <filter val="아프리카"/>
-        <filter val="중동"/>
-        <filter val="중미"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="3">
       <filters>
         <filter val="All"/>
         <filter val="미등장"/>
+        <filter val="삭제"/>
       </filters>
     </filterColumn>
     <sortState ref="A2:E264">
@@ -11591,7 +11612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="260" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="250" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="1462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="1465">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4419,6 +4419,15 @@
   </si>
   <si>
     <t>펄스 1</t>
+  </si>
+  <si>
+    <t>삭제</t>
+  </si>
+  <si>
+    <t>삭제</t>
+  </si>
+  <si>
+    <t>코어 빠짐</t>
   </si>
 </sst>
 </file>
@@ -4734,7 +4743,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4749,33 +4760,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4790,9 +4793,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4807,9 +4808,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -4824,17 +4823,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -4843,18 +4838,14 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -5246,7 +5237,7 @@
   <dimension ref="A1:E264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5309,7 +5300,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="16.500000" hidden="1">
       <c r="A4" s="0" t="s">
         <v>177</v>
       </c>
@@ -5326,7 +5317,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="16.500000" hidden="1">
       <c r="A5" s="0" t="s">
         <v>179</v>
       </c>
@@ -5428,7 +5419,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="16.500000" hidden="1">
       <c r="A11" s="0" t="s">
         <v>183</v>
       </c>
@@ -5462,7 +5453,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="16.500000" hidden="1">
       <c r="A13" s="0" t="s">
         <v>20</v>
       </c>
@@ -5479,7 +5470,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="16.500000" hidden="1">
       <c r="A14" s="0" t="s">
         <v>185</v>
       </c>
@@ -5496,7 +5487,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" ht="16.500000" hidden="1">
       <c r="A15" s="0" t="s">
         <v>427</v>
       </c>
@@ -5530,7 +5521,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="16.500000" hidden="1">
       <c r="A17" s="0" t="s">
         <v>508</v>
       </c>
@@ -5541,10 +5532,10 @@
         <v>799</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>1453</v>
+        <v>1463</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>1459</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.500000" hidden="1">
@@ -5564,7 +5555,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" ht="16.500000" hidden="1">
       <c r="A19" s="0" t="s">
         <v>189</v>
       </c>
@@ -5581,7 +5572,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="16.500000" hidden="1">
       <c r="A20" s="0" t="s">
         <v>12</v>
       </c>
@@ -5598,7 +5589,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="16.500000" hidden="1">
       <c r="A21" s="0" t="s">
         <v>191</v>
       </c>
@@ -5649,7 +5640,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" ht="16.500000" hidden="1">
       <c r="A24" s="0" t="s">
         <v>429</v>
       </c>
@@ -5717,7 +5708,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" ht="16.500000" hidden="1">
       <c r="A28" s="0" t="s">
         <v>199</v>
       </c>
@@ -5768,7 +5759,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" ht="16.500000" hidden="1">
       <c r="A31" s="0" t="s">
         <v>445</v>
       </c>
@@ -5785,7 +5776,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" ht="16.500000" hidden="1">
       <c r="A32" s="0" t="s">
         <v>203</v>
       </c>
@@ -5802,7 +5793,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" ht="16.500000" hidden="1">
       <c r="A33" s="0" t="s">
         <v>457</v>
       </c>
@@ -5921,7 +5912,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" ht="16.500000" hidden="1">
       <c r="A40" s="0" t="s">
         <v>213</v>
       </c>
@@ -5938,7 +5929,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" ht="16.500000" hidden="1">
       <c r="A41" s="0" t="s">
         <v>215</v>
       </c>
@@ -5949,10 +5940,10 @@
         <v>651</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>1454</v>
+        <v>1462</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>1458</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16.500000" hidden="1">
@@ -5989,7 +5980,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" ht="16.500000" hidden="1">
       <c r="A44" s="0" t="s">
         <v>219</v>
       </c>
@@ -6006,7 +5997,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" ht="16.500000" hidden="1">
       <c r="A45" s="0" t="s">
         <v>221</v>
       </c>
@@ -6023,7 +6014,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" ht="16.500000" hidden="1">
       <c r="A46" s="0" t="s">
         <v>479</v>
       </c>
@@ -6057,7 +6048,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" ht="16.500000" hidden="1">
       <c r="A48" s="0" t="s">
         <v>223</v>
       </c>
@@ -6108,7 +6099,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" ht="16.500000" hidden="1">
       <c r="A51" s="0" t="s">
         <v>431</v>
       </c>
@@ -6142,7 +6133,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" ht="16.500000" hidden="1">
       <c r="A53" s="0" t="s">
         <v>78</v>
       </c>
@@ -6159,7 +6150,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" ht="16.500000" hidden="1">
       <c r="A54" s="0" t="s">
         <v>144</v>
       </c>
@@ -6210,7 +6201,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" ht="16.500000" hidden="1">
       <c r="A57" s="0" t="s">
         <v>231</v>
       </c>
@@ -6244,7 +6235,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" ht="16.500000" hidden="1">
       <c r="A59" s="0" t="s">
         <v>16</v>
       </c>
@@ -6278,7 +6269,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" ht="16.500000" hidden="1">
       <c r="A61" s="0" t="s">
         <v>168</v>
       </c>
@@ -6295,7 +6286,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" ht="16.500000" hidden="1">
       <c r="A62" s="0" t="s">
         <v>235</v>
       </c>
@@ -6346,7 +6337,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" ht="16.500000" hidden="1">
       <c r="A65" s="0" t="s">
         <v>239</v>
       </c>
@@ -6414,7 +6405,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" ht="16.500000" hidden="1">
       <c r="A69" s="0" t="s">
         <v>170</v>
       </c>
@@ -6465,7 +6456,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" ht="16.500000" hidden="1">
       <c r="A72" s="0" t="s">
         <v>241</v>
       </c>
@@ -6482,7 +6473,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" ht="16.500000" hidden="1">
       <c r="A73" s="0" t="s">
         <v>243</v>
       </c>
@@ -6499,7 +6490,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" ht="16.500000" hidden="1">
       <c r="A74" s="0" t="s">
         <v>24</v>
       </c>
@@ -6567,7 +6558,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" ht="16.500000" hidden="1">
       <c r="A78" s="0" t="s">
         <v>247</v>
       </c>
@@ -6584,7 +6575,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" ht="16.500000" hidden="1">
       <c r="A79" s="0" t="s">
         <v>470</v>
       </c>
@@ -6618,7 +6609,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" ht="16.500000" hidden="1">
       <c r="A81" s="0" t="s">
         <v>249</v>
       </c>
@@ -6635,7 +6626,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" ht="16.500000" hidden="1">
       <c r="A82" s="0" t="s">
         <v>251</v>
       </c>
@@ -6683,7 +6674,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" ht="16.500000" hidden="1">
       <c r="A85" s="0" t="s">
         <v>257</v>
       </c>
@@ -6700,7 +6691,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" ht="16.500000" hidden="1">
       <c r="A86" s="0" t="s">
         <v>259</v>
       </c>
@@ -6717,7 +6708,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" ht="16.500000" hidden="1">
       <c r="A87" s="0" t="s">
         <v>261</v>
       </c>
@@ -6782,7 +6773,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" ht="16.500000" hidden="1">
       <c r="A91" s="0" t="s">
         <v>265</v>
       </c>
@@ -6799,7 +6790,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" ht="16.500000" hidden="1">
       <c r="A92" s="0" t="s">
         <v>267</v>
       </c>
@@ -6864,7 +6855,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" ht="16.500000" hidden="1">
       <c r="A96" s="0" t="s">
         <v>271</v>
       </c>
@@ -6881,7 +6872,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" ht="16.500000" hidden="1">
       <c r="A97" s="0" t="s">
         <v>84</v>
       </c>
@@ -6943,7 +6934,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" ht="16.500000" hidden="1">
       <c r="A101" s="0" t="s">
         <v>275</v>
       </c>
@@ -6994,7 +6985,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" ht="16.500000" hidden="1">
       <c r="A104" s="0" t="s">
         <v>86</v>
       </c>
@@ -7025,7 +7016,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" ht="16.500000" hidden="1">
       <c r="A106" s="0" t="s">
         <v>152</v>
       </c>
@@ -7042,7 +7033,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" ht="16.500000" hidden="1">
       <c r="A107" s="0" t="s">
         <v>283</v>
       </c>
@@ -7158,7 +7149,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" ht="16.500000" hidden="1">
       <c r="A114" s="0" t="s">
         <v>30</v>
       </c>
@@ -7209,7 +7200,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" ht="16.500000" hidden="1">
       <c r="A117" s="0" t="s">
         <v>154</v>
       </c>
@@ -7226,7 +7217,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" ht="16.500000" hidden="1">
       <c r="A118" s="0" t="s">
         <v>510</v>
       </c>
@@ -7243,7 +7234,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" ht="16.500000" hidden="1">
       <c r="A119" s="0" t="s">
         <v>287</v>
       </c>
@@ -7260,7 +7251,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" ht="16.500000" hidden="1">
       <c r="A120" s="0" t="s">
         <v>433</v>
       </c>
@@ -7308,7 +7299,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" ht="16.500000" hidden="1">
       <c r="A123" s="0" t="s">
         <v>451</v>
       </c>
@@ -7339,7 +7330,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" ht="16.500000" hidden="1">
       <c r="A125" s="0" t="s">
         <v>518</v>
       </c>
@@ -7373,7 +7364,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" ht="16.500000" hidden="1">
       <c r="A127" s="0" t="s">
         <v>26</v>
       </c>
@@ -7486,7 +7477,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" ht="16.500000" hidden="1">
       <c r="A134" s="0" t="s">
         <v>10</v>
       </c>
@@ -7551,7 +7542,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" ht="16.500000" hidden="1">
       <c r="A138" s="0" t="s">
         <v>305</v>
       </c>
@@ -7585,7 +7576,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" ht="16.500000" hidden="1">
       <c r="A140" s="0" t="s">
         <v>307</v>
       </c>
@@ -7684,7 +7675,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" ht="16.500000" hidden="1">
       <c r="A146" s="0" t="s">
         <v>437</v>
       </c>
@@ -7732,7 +7723,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" ht="16.500000" hidden="1">
       <c r="A149" s="0" t="s">
         <v>1403</v>
       </c>
@@ -7763,7 +7754,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" ht="16.500000" hidden="1">
       <c r="A151" s="0" t="s">
         <v>317</v>
       </c>
@@ -7780,7 +7771,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" ht="16.500000" hidden="1">
       <c r="A152" s="0" t="s">
         <v>319</v>
       </c>
@@ -7814,7 +7805,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" ht="16.500000" hidden="1">
       <c r="A154" s="0" t="s">
         <v>435</v>
       </c>
@@ -7831,7 +7822,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" ht="16.500000" hidden="1">
       <c r="A155" s="0" t="s">
         <v>323</v>
       </c>
@@ -7882,7 +7873,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" ht="16.500000" hidden="1">
       <c r="A158" s="0" t="s">
         <v>327</v>
       </c>
@@ -7913,7 +7904,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" ht="16.500000" hidden="1">
       <c r="A160" s="0" t="s">
         <v>331</v>
       </c>
@@ -7944,7 +7935,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" ht="16.500000" hidden="1">
       <c r="A162" s="0" t="s">
         <v>98</v>
       </c>
@@ -7975,7 +7966,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" ht="16.500000" hidden="1">
       <c r="A164" s="0" t="s">
         <v>335</v>
       </c>
@@ -7986,10 +7977,10 @@
         <v>713</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>1455</v>
+        <v>1462</v>
       </c>
       <c r="E164" s="0" t="s">
-        <v>1458</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="16.500000" hidden="1">
@@ -8009,7 +8000,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" ht="16.500000" hidden="1">
       <c r="A166" s="0" t="s">
         <v>337</v>
       </c>
@@ -8088,7 +8079,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" ht="16.500000" hidden="1">
       <c r="A171" s="0" t="s">
         <v>172</v>
       </c>
@@ -8252,7 +8243,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" ht="16.500000" hidden="1">
       <c r="A181" s="0" t="s">
         <v>146</v>
       </c>
@@ -8269,7 +8260,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" ht="16.500000" hidden="1">
       <c r="A182" s="0" t="s">
         <v>345</v>
       </c>
@@ -8286,7 +8277,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" ht="16.500000" hidden="1">
       <c r="A183" s="0" t="s">
         <v>506</v>
       </c>
@@ -8334,7 +8325,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" ht="16.500000" hidden="1">
       <c r="A186" s="0" t="s">
         <v>472</v>
       </c>
@@ -8351,7 +8342,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" ht="16.500000" hidden="1">
       <c r="A187" s="0" t="s">
         <v>487</v>
       </c>
@@ -8382,7 +8373,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" ht="16.500000" hidden="1">
       <c r="A189" s="0" t="s">
         <v>142</v>
       </c>
@@ -8416,7 +8407,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" ht="16.500000" hidden="1">
       <c r="A191" s="0" t="s">
         <v>32</v>
       </c>
@@ -8549,7 +8540,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" ht="16.500000" hidden="1">
       <c r="A199" s="0" t="s">
         <v>355</v>
       </c>
@@ -8583,7 +8574,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" ht="16.500000" hidden="1">
       <c r="A201" s="0" t="s">
         <v>357</v>
       </c>
@@ -8600,7 +8591,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" ht="16.500000" hidden="1">
       <c r="A202" s="0" t="s">
         <v>359</v>
       </c>
@@ -8617,7 +8608,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" ht="16.500000" hidden="1">
       <c r="A203" s="0" t="s">
         <v>36</v>
       </c>
@@ -8634,7 +8625,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" ht="16.500000" hidden="1">
       <c r="A204" s="0" t="s">
         <v>514</v>
       </c>
@@ -8702,7 +8693,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" ht="16.500000" hidden="1">
       <c r="A208" s="0" t="s">
         <v>363</v>
       </c>
@@ -8719,7 +8710,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" ht="16.500000" hidden="1">
       <c r="A209" s="0" t="s">
         <v>365</v>
       </c>
@@ -8753,7 +8744,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" ht="16.500000" hidden="1">
       <c r="A211" s="0" t="s">
         <v>367</v>
       </c>
@@ -8787,7 +8778,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" ht="16.500000" hidden="1">
       <c r="A213" s="0" t="s">
         <v>4</v>
       </c>
@@ -8821,7 +8812,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" ht="16.500000" hidden="1">
       <c r="A215" s="0" t="s">
         <v>28</v>
       </c>
@@ -8855,7 +8846,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" ht="16.500000" hidden="1">
       <c r="A217" s="0" t="s">
         <v>418</v>
       </c>
@@ -8872,7 +8863,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" ht="16.500000" hidden="1">
       <c r="A218" s="0" t="s">
         <v>371</v>
       </c>
@@ -9022,7 +9013,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" ht="16.500000" hidden="1">
       <c r="A227" s="0" t="s">
         <v>504</v>
       </c>
@@ -9098,7 +9089,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" ht="16.500000" hidden="1">
       <c r="A232" s="0" t="s">
         <v>449</v>
       </c>
@@ -9115,7 +9106,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" ht="16.500000" hidden="1">
       <c r="A233" s="0" t="s">
         <v>1419</v>
       </c>
@@ -9132,7 +9123,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" ht="16.500000" hidden="1">
       <c r="A234" s="0" t="s">
         <v>381</v>
       </c>
@@ -9197,7 +9188,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" ht="16.500000" hidden="1">
       <c r="A238" s="0" t="s">
         <v>391</v>
       </c>
@@ -9296,7 +9287,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" ht="16.500000" hidden="1">
       <c r="A244" s="0" t="s">
         <v>383</v>
       </c>
@@ -9341,7 +9332,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" ht="16.500000" hidden="1">
       <c r="A247" s="0" t="s">
         <v>1405</v>
       </c>
@@ -9392,7 +9383,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" ht="16.500000" hidden="1">
       <c r="A250" s="0" t="s">
         <v>441</v>
       </c>
@@ -9426,7 +9417,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" ht="16.500000" hidden="1">
       <c r="A252" s="0" t="s">
         <v>401</v>
       </c>
@@ -9460,7 +9451,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" ht="16.500000" hidden="1">
       <c r="A254" s="0" t="s">
         <v>403</v>
       </c>
@@ -9477,7 +9468,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" ht="16.500000" hidden="1">
       <c r="A255" s="0" t="s">
         <v>166</v>
       </c>
@@ -9596,7 +9587,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" ht="16.500000" hidden="1">
       <c r="A262" s="0" t="s">
         <v>409</v>
       </c>
@@ -9627,7 +9618,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" ht="16.500000" hidden="1">
       <c r="A264" s="0" t="s">
         <v>516</v>
       </c>
@@ -9646,11 +9637,19 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E264">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="All"/>
+        <filter val="남미"/>
+        <filter val="북미"/>
+        <filter val="아프리카"/>
+        <filter val="중동"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3">
       <filters>
         <filter val="All"/>
         <filter val="미등장"/>
-        <filter val="삭제"/>
       </filters>
     </filterColumn>
     <sortState ref="A2:E264">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="250" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="240" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="1465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="1467">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4428,6 +4428,12 @@
   </si>
   <si>
     <t>코어 빠짐</t>
+  </si>
+  <si>
+    <t>팔</t>
+  </si>
+  <si>
+    <t>펄스 1</t>
   </si>
 </sst>
 </file>
@@ -4743,9 +4749,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4760,25 +4764,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4793,7 +4805,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -4808,7 +4822,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -4823,13 +4839,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -4838,14 +4858,18 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -5237,7 +5261,7 @@
   <dimension ref="A1:E264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -6656,6 +6680,9 @@
       <c r="D83" s="0" t="s">
         <v>1441</v>
       </c>
+      <c r="E83" s="0" t="s">
+        <v>1466</v>
+      </c>
     </row>
     <row r="84" spans="1:5" ht="16.500000" hidden="1">
       <c r="A84" s="0" t="s">
@@ -6772,6 +6799,9 @@
       <c r="D90" s="0" t="s">
         <v>1351</v>
       </c>
+      <c r="E90" s="0" t="s">
+        <v>1466</v>
+      </c>
     </row>
     <row r="91" spans="1:5" ht="16.500000" hidden="1">
       <c r="A91" s="0" t="s">
@@ -6819,6 +6849,9 @@
       </c>
       <c r="D93" s="0" t="s">
         <v>1432</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>1466</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="16.500000" hidden="1">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="240" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="새_텍스트_문서" localSheetId="0">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'국가 태그'!$A$1:$E$264</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'임시 태그'!$A$1:$D$161</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="1467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="1471">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4434,6 +4434,18 @@
   </si>
   <si>
     <t>펄스 1</t>
+  </si>
+  <si>
+    <t>다뉴브 연방</t>
+  </si>
+  <si>
+    <t>AUS_REP</t>
+  </si>
+  <si>
+    <t>AUS_HRR</t>
+  </si>
+  <si>
+    <t>신성로마제국</t>
   </si>
 </sst>
 </file>
@@ -4743,7 +4755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -4764,33 +4776,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4805,9 +4809,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4822,9 +4824,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -4839,17 +4839,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -4858,18 +4854,7 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4923,14 +4908,8 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -5260,8 +5239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E264"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C194" sqref="C194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -9697,10 +9676,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D174"/>
+  <dimension ref="A1:D176"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A7" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -9726,1911 +9705,1933 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="0" t="s">
         <v>994</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="0" t="s">
         <v>1154</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1274</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="0" t="s">
         <v>984</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="0" t="s">
         <v>1155</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>1275</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="0" t="s">
         <v>929</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="0" t="s">
         <v>1352</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>1274</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="0" t="s">
         <v>959</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="0" t="s">
         <v>630</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>1274</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="0" t="s">
         <v>1004</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="0" t="s">
         <v>849</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>1274</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="0" t="s">
         <v>968</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="0" t="s">
         <v>1157</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>1274</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="0" t="s">
         <v>970</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="0" t="s">
         <v>1158</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>1274</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="0" t="s">
         <v>969</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="0" t="s">
         <v>1159</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>1274</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="0" t="s">
         <v>974</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="0" t="s">
         <v>1160</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>1275</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="0" t="s">
         <v>882</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="0" t="s">
         <v>853</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>1274</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="0" t="s">
         <v>1305</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="0" t="s">
         <v>1306</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="0" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="0" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="0" t="s">
+        <v>975</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="0" t="s">
+        <v>887</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="0" t="s">
+        <v>888</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="0" t="s">
+        <v>888</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="0" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="0" t="s">
+        <v>986</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="0" t="s">
+        <v>983</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="0" t="s">
+        <v>982</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="0" t="s">
+        <v>938</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="0" t="s">
+        <v>961</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="0" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="0" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>975</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C13" s="2" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" s="0" t="s">
+        <v>917</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="0" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="0" t="s">
+        <v>879</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C14" s="2" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" s="0" t="s">
+        <v>880</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="0" t="s">
+        <v>997</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>850</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="0" t="s">
+        <v>981</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C15" s="2" t="s">
+    <row r="33" spans="1:3">
+      <c r="A33" s="0" t="s">
+        <v>951</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="0" t="s">
+        <v>945</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="0" t="s">
+        <v>953</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="0" t="s">
+        <v>966</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="0" t="s">
+        <v>967</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="0" t="s">
+        <v>965</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C16" s="2" t="s">
+    <row r="39" spans="1:3">
+      <c r="A39" s="0" t="s">
+        <v>867</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="0" t="s">
+        <v>899</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="0" t="s">
+        <v>988</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="0" t="s">
+        <v>987</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="0" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="0" t="s">
+        <v>995</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="0" t="s">
+        <v>908</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="0" t="s">
+        <v>993</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="0" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="0" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="0" t="s">
+        <v>971</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="0" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="0" t="s">
+        <v>901</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="0" t="s">
+        <v>952</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="0" t="s">
+        <v>878</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="0" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="0" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="0" t="s">
+        <v>877</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="0" t="s">
+        <v>924</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="0" t="s">
+        <v>885</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="0" t="s">
+        <v>884</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="0" t="s">
+        <v>883</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="0" t="s">
+        <v>949</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="0" t="s">
+        <v>896</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>1291</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1292</v>
-      </c>
-      <c r="C17" s="2" t="s">
+    <row r="63" spans="1:3">
+      <c r="A63" s="0" t="s">
+        <v>999</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="0" t="s">
+        <v>989</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="0" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="0" t="s">
+        <v>976</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="0" t="s">
+        <v>876</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="0" t="s">
+        <v>919</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="0" t="s">
+        <v>918</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="0" t="s">
+        <v>866</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="0" t="s">
+        <v>972</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="0" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="0" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="0" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="0" t="s">
+        <v>889</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="0" t="s">
+        <v>889</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>843</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>843</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="0" t="s">
+        <v>872</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="0" t="s">
+        <v>873</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="0" t="s">
+        <v>881</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="0" t="s">
+        <v>957</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="0" t="s">
+        <v>920</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="0" t="s">
+        <v>956</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="0" t="s">
+        <v>925</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="0" t="s">
+        <v>939</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="0" t="s">
+        <v>935</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="0" t="s">
+        <v>946</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="0" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>986</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C18" s="2" t="s">
+    <row r="92" spans="1:3">
+      <c r="A92" s="0" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="0" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="0" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="0" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="0" t="s">
+        <v>991</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="0" t="s">
+        <v>943</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C19" s="2" t="s">
+    <row r="98" spans="1:3">
+      <c r="A98" s="0" t="s">
+        <v>927</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>982</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C20" s="2" t="s">
+    <row r="99" spans="1:3">
+      <c r="A99" s="0" t="s">
+        <v>947</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>938</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="C21" s="2" t="s">
+    <row r="100" spans="1:3">
+      <c r="A100" s="0" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="0" t="s">
+        <v>960</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>701</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C22" s="2" t="s">
+    <row r="102" spans="1:3">
+      <c r="A102" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>1277</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C23" s="2" t="s">
+    <row r="103" spans="1:3">
+      <c r="A103" s="0" t="s">
+        <v>941</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="0" t="s">
+        <v>955</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>1382</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>1383</v>
-      </c>
-      <c r="C24" s="1" t="s">
+    <row r="105" spans="1:3">
+      <c r="A105" s="0" t="s">
+        <v>893</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="0" t="s">
+        <v>894</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="0" t="s">
+        <v>895</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="0" t="s">
+        <v>950</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="0" t="s">
+        <v>990</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="0" t="s">
+        <v>897</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="0" t="s">
+        <v>860</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="0" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="0" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="0" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="0" t="s">
+        <v>923</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="0" t="s">
+        <v>921</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="0" t="s">
+        <v>869</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="0" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C119" s="0" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="C25" s="2" t="s">
+    <row r="120" spans="1:3">
+      <c r="A120" s="0" t="s">
+        <v>870</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
-        <v>1378</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>1379</v>
-      </c>
-      <c r="C26" s="1" t="s">
+    <row r="121" spans="1:3">
+      <c r="A121" s="0" t="s">
+        <v>992</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="0" t="s">
+        <v>998</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="0" t="s">
+        <v>864</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="0" t="s">
+        <v>862</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="0" t="s">
+        <v>863</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="0" t="s">
+        <v>934</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="0" t="s">
+        <v>928</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="0" t="s">
+        <v>930</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="0" t="s">
+        <v>931</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="0" t="s">
+        <v>944</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="0" t="s">
+        <v>871</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="0" t="s">
+        <v>858</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="0" t="s">
+        <v>857</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="0" t="s">
+        <v>859</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="0" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C27" s="2" t="s">
+    <row r="137" spans="1:3">
+      <c r="A137" s="0" t="s">
+        <v>905</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C28" s="2" t="s">
+    <row r="138" spans="1:3">
+      <c r="A138" s="0" t="s">
+        <v>907</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="C29" s="2" t="s">
+    <row r="140" spans="1:3">
+      <c r="A140" s="0" t="s">
+        <v>909</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1" t="s">
-        <v>981</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C30" s="2" t="s">
+    <row r="141" spans="1:3">
+      <c r="A141" s="0" t="s">
+        <v>912</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="0" t="s">
+        <v>914</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="0" t="s">
+        <v>913</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="0" t="s">
+        <v>910</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="0" t="s">
+        <v>915</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="0" t="s">
+        <v>911</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="0" t="s">
+        <v>985</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C31" s="2" t="s">
+    <row r="148" spans="1:3">
+      <c r="A148" s="0" t="s">
+        <v>964</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C32" s="2" t="s">
+    <row r="149" spans="1:3">
+      <c r="A149" s="0" t="s">
+        <v>948</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1" t="s">
-        <v>953</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="C33" s="2" t="s">
+    <row r="150" spans="1:3">
+      <c r="A150" s="0" t="s">
+        <v>886</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1" t="s">
-        <v>966</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C34" s="2" t="s">
+    <row r="151" spans="1:3">
+      <c r="A151" s="0" t="s">
+        <v>978</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1" t="s">
-        <v>967</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="C35" s="2" t="s">
+    <row r="152" spans="1:3">
+      <c r="A152" s="0" t="s">
+        <v>979</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1" t="s">
-        <v>965</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C36" s="2" t="s">
+    <row r="153" spans="1:3">
+      <c r="A153" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="0" t="s">
+        <v>898</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="0" t="s">
+        <v>865</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="0" t="s">
+        <v>902</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="0" t="s">
+        <v>906</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="C37" s="2" t="s">
+    <row r="158" spans="1:3">
+      <c r="A158" s="0" t="s">
+        <v>904</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="0" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C159" s="0" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="0" t="s">
+        <v>861</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>1274</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1" t="s">
-        <v>988</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1" t="s">
-        <v>987</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1" t="s">
-        <v>1410</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>1413</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1" t="s">
-        <v>995</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1" t="s">
-        <v>993</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>1278</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1" t="s">
-        <v>1421</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1" t="s">
-        <v>1279</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="1" t="s">
-        <v>1376</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>1377</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="1" t="s">
-        <v>1380</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>1381</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="1" t="s">
-        <v>949</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="1" t="s">
-        <v>989</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="1" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="1" t="s">
-        <v>976</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>1193</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>1195</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="1" t="s">
-        <v>918</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="1" t="s">
-        <v>972</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>1198</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="1" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="1" t="s">
-        <v>1388</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="1" t="s">
-        <v>1389</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>1201</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>1202</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="1" t="s">
-        <v>881</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>1203</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>1205</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="1" t="s">
-        <v>939</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>1206</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="1" t="s">
-        <v>935</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="1" t="s">
-        <v>946</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="1" t="s">
-        <v>1295</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>1297</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="1" t="s">
-        <v>1313</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>1314</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="1" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>1318</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="1" t="s">
-        <v>1315</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="1" t="s">
-        <v>991</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="1" t="s">
-        <v>947</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="1" t="s">
-        <v>1408</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>1411</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="1" t="s">
-        <v>960</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="1" t="s">
-        <v>980</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="1" t="s">
-        <v>941</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>1213</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="1" t="s">
-        <v>950</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="1" t="s">
-        <v>990</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>1216</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>1271</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>1217</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>1218</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>1219</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="1" t="s">
-        <v>923</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>1220</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="1" t="s">
-        <v>996</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>1222</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>1223</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="1" t="s">
-        <v>1386</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>1225</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>1226</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>1228</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="1" t="s">
-        <v>934</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>1229</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="1" t="s">
-        <v>931</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="1" t="s">
-        <v>944</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>1232</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>1233</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>1234</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="1" t="s">
-        <v>1298</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>1299</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>1236</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>1237</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>1238</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>1239</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>1241</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>1242</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>1244</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>1245</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="1" t="s">
-        <v>985</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="1" t="s">
-        <v>964</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>1247</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="1" t="s">
-        <v>978</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="1" t="s">
-        <v>979</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="1" t="s">
-        <v>977</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>1272</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="1" t="s">
-        <v>1283</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" s="1" t="s">
-        <v>954</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="0" t="s">
-        <v>933</v>
+        <v>954</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>1229</v>
-      </c>
-      <c r="C161" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>1274</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="0" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>1257</v>
-      </c>
-      <c r="C162" s="3" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>1275</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="0" t="s">
-        <v>891</v>
+        <v>933</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>1258</v>
-      </c>
-      <c r="C163" s="3" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C163" s="1" t="s">
         <v>1274</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="0" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C164" s="3" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>1275</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="0" t="s">
-        <v>926</v>
+        <v>891</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>1260</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>1275</v>
+        <v>1258</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="0" t="s">
-        <v>958</v>
+        <v>940</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>1274</v>
+        <v>1259</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>1275</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="0" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>1262</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>1274</v>
+        <v>1260</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>1275</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="0" t="s">
-        <v>1409</v>
+        <v>958</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>1412</v>
-      </c>
-      <c r="C168" s="0" t="s">
-        <v>1414</v>
+        <v>1261</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="0" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C169" s="3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>1274</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="0" t="s">
-        <v>874</v>
+        <v>1409</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>1225</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>1274</v>
+        <v>1412</v>
+      </c>
+      <c r="C170" s="0" t="s">
+        <v>1414</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="0" t="s">
-        <v>963</v>
+        <v>916</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C171" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>1274</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="0" t="s">
-        <v>962</v>
+        <v>874</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>1269</v>
-      </c>
-      <c r="C172" s="3" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>1274</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="0" t="s">
-        <v>936</v>
+        <v>963</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>1269</v>
-      </c>
-      <c r="C173" s="3" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>1274</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="B174" s="0" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="0" t="s">
         <v>937</v>
       </c>
-      <c r="B174" s="0" t="s">
+      <c r="B176" s="0" t="s">
         <v>1270</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="C176" s="1" t="s">
         <v>1414</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D161">
-    <sortState ref="A2:D174">
+  <autoFilter ref="A1:D163">
+    <sortState ref="A2:D176">
       <sortCondition ref="A2:A174"/>
     </sortState>
   </autoFilter>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="220" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="1471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="1474">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4446,6 +4446,15 @@
   </si>
   <si>
     <t>신성로마제국</t>
+  </si>
+  <si>
+    <t>미등장</t>
+  </si>
+  <si>
+    <t>삭제</t>
+  </si>
+  <si>
+    <t>BHC_AGR</t>
   </si>
 </sst>
 </file>
@@ -5240,7 +5249,7 @@
   <dimension ref="A1:E264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C194" sqref="C194"/>
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -6136,7 +6145,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16.500000" hidden="1">
+    <row r="53" spans="1:5">
       <c r="A53" s="0" t="s">
         <v>78</v>
       </c>
@@ -6408,7 +6417,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="16.500000" hidden="1">
+    <row r="69" spans="1:5">
       <c r="A69" s="0" t="s">
         <v>170</v>
       </c>
@@ -6884,7 +6893,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="16.500000" hidden="1">
+    <row r="97" spans="1:5">
       <c r="A97" s="0" t="s">
         <v>84</v>
       </c>
@@ -6896,6 +6905,9 @@
       </c>
       <c r="D97" s="0" t="s">
         <v>1348</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>1466</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="16.500000" hidden="1">
@@ -6945,6 +6957,9 @@
       <c r="D100" s="0" t="s">
         <v>1434</v>
       </c>
+      <c r="E100" s="0" t="s">
+        <v>1466</v>
+      </c>
     </row>
     <row r="101" spans="1:5" ht="16.500000" hidden="1">
       <c r="A101" s="0" t="s">
@@ -6997,7 +7012,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="16.500000" hidden="1">
+    <row r="104" spans="1:5">
       <c r="A104" s="0" t="s">
         <v>86</v>
       </c>
@@ -7009,6 +7024,9 @@
       </c>
       <c r="D104" s="0" t="s">
         <v>1348</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>1466</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="16.500000" hidden="1">
@@ -7143,6 +7161,9 @@
       <c r="D112" s="0" t="s">
         <v>1333</v>
       </c>
+      <c r="E112" s="0" t="s">
+        <v>1466</v>
+      </c>
     </row>
     <row r="113" spans="1:5" ht="16.500000" hidden="1">
       <c r="A113" s="0" t="s">
@@ -7223,10 +7244,10 @@
         <v>617</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>1428</v>
+        <v>1472</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>1401</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="16.500000" hidden="1">
@@ -7947,7 +7968,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="16.500000" hidden="1">
+    <row r="162" spans="1:5">
       <c r="A162" s="0" t="s">
         <v>98</v>
       </c>
@@ -8091,7 +8112,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="16.500000" hidden="1">
+    <row r="171" spans="1:5">
       <c r="A171" s="0" t="s">
         <v>172</v>
       </c>
@@ -8289,7 +8310,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="16.500000" hidden="1">
+    <row r="183" spans="1:5">
       <c r="A183" s="0" t="s">
         <v>506</v>
       </c>
@@ -9656,6 +9677,7 @@
         <filter val="북미"/>
         <filter val="아프리카"/>
         <filter val="중동"/>
+        <filter val="중미"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">
@@ -9676,10 +9698,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D176"/>
+  <dimension ref="A1:D177"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -9816,10 +9838,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="0" t="s">
-        <v>1305</v>
+        <v>1469</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>1306</v>
+        <v>1470</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>1414</v>
@@ -9827,10 +9849,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="0" t="s">
-        <v>1468</v>
+        <v>1305</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>571</v>
+        <v>1306</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>1414</v>
@@ -9838,10 +9860,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="0" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>1470</v>
+        <v>571</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>1414</v>
@@ -9937,21 +9959,21 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="0" t="s">
-        <v>938</v>
+        <v>1473</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>638</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1274</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="0" t="s">
-        <v>961</v>
+        <v>938</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>1168</v>
+        <v>638</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>1274</v>
@@ -9959,10 +9981,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="0" t="s">
-        <v>1277</v>
+        <v>961</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>1274</v>
@@ -9970,54 +9992,54 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="0" t="s">
-        <v>1382</v>
+        <v>1277</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>1383</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>1300</v>
+        <v>1169</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="0" t="s">
-        <v>917</v>
+        <v>1382</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>649</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>1274</v>
+        <v>1383</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>1300</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="0" t="s">
-        <v>1378</v>
+        <v>917</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>1379</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>1300</v>
+        <v>649</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="0" t="s">
-        <v>879</v>
+        <v>1378</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>1275</v>
+        <v>1379</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>1300</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="0" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>1275</v>
@@ -10025,10 +10047,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="0" t="s">
-        <v>997</v>
+        <v>880</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>850</v>
+        <v>1171</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>1275</v>
@@ -10036,21 +10058,21 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="0" t="s">
-        <v>981</v>
+        <v>997</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>1172</v>
+        <v>850</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="0" t="s">
-        <v>951</v>
+        <v>981</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>1274</v>
@@ -10058,10 +10080,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="0" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>1274</v>
@@ -10069,10 +10091,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="0" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>657</v>
+        <v>1174</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>1274</v>
@@ -10080,10 +10102,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="0" t="s">
-        <v>966</v>
+        <v>953</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>1175</v>
+        <v>657</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>1274</v>
@@ -10091,10 +10113,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="0" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>658</v>
+        <v>1175</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>1274</v>
@@ -10102,32 +10124,32 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="0" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>1176</v>
+        <v>658</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="0" t="s">
-        <v>867</v>
+        <v>965</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>611</v>
+        <v>1176</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="0" t="s">
-        <v>899</v>
+        <v>867</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>1177</v>
+        <v>611</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>1274</v>
@@ -10135,10 +10157,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="0" t="s">
-        <v>988</v>
+        <v>899</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>543</v>
+        <v>1177</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>1274</v>
@@ -10146,7 +10168,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="0" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>543</v>
@@ -10157,32 +10179,32 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="0" t="s">
-        <v>1410</v>
+        <v>987</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>1413</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>1414</v>
+        <v>543</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="0" t="s">
-        <v>995</v>
+        <v>1410</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>1467</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>1274</v>
+        <v>1413</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>1414</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="0" t="s">
-        <v>908</v>
+        <v>995</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>1179</v>
+        <v>1467</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>1274</v>
@@ -10190,10 +10212,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="0" t="s">
-        <v>993</v>
+        <v>908</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>1274</v>
@@ -10201,10 +10223,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="0" t="s">
-        <v>1006</v>
+        <v>993</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>1278</v>
+        <v>1180</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>1274</v>
@@ -10212,32 +10234,32 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="0" t="s">
-        <v>1421</v>
+        <v>1006</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>1414</v>
+        <v>1278</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="0" t="s">
-        <v>971</v>
+        <v>1421</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>1274</v>
+        <v>1422</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>1414</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="0" t="s">
-        <v>1279</v>
+        <v>971</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>1280</v>
+        <v>1182</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>1274</v>
@@ -10245,10 +10267,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="0" t="s">
-        <v>901</v>
+        <v>1279</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>1184</v>
+        <v>1280</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>1274</v>
@@ -10256,10 +10278,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="0" t="s">
-        <v>952</v>
+        <v>901</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>671</v>
+        <v>1184</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>1274</v>
@@ -10267,10 +10289,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="0" t="s">
-        <v>878</v>
+        <v>952</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>1185</v>
+        <v>671</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>1274</v>
@@ -10278,21 +10300,21 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="0" t="s">
-        <v>1376</v>
+        <v>878</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>1377</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>1300</v>
+        <v>1185</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="0" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>1300</v>
@@ -10300,21 +10322,21 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="0" t="s">
-        <v>877</v>
+        <v>1380</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>1274</v>
+        <v>1381</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>1300</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="0" t="s">
-        <v>924</v>
+        <v>877</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>1274</v>
@@ -10322,10 +10344,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="0" t="s">
-        <v>885</v>
+        <v>924</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>1274</v>
@@ -10333,10 +10355,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="0" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>1274</v>
@@ -10344,10 +10366,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="0" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>1274</v>
@@ -10355,10 +10377,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="0" t="s">
-        <v>949</v>
+        <v>883</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>676</v>
+        <v>1189</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>1274</v>
@@ -10366,32 +10388,32 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="0" t="s">
-        <v>896</v>
+        <v>949</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>1190</v>
+        <v>676</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="0" t="s">
-        <v>999</v>
+        <v>896</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="0" t="s">
-        <v>989</v>
+        <v>999</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>581</v>
+        <v>1191</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>1274</v>
@@ -10399,10 +10421,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="0" t="s">
-        <v>1007</v>
+        <v>989</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>1192</v>
+        <v>581</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>1274</v>
@@ -10410,32 +10432,32 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="0" t="s">
-        <v>976</v>
+        <v>1007</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="0" t="s">
-        <v>876</v>
+        <v>976</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="0" t="s">
-        <v>919</v>
+        <v>876</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>1274</v>
@@ -10443,32 +10465,32 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="0" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="0" t="s">
-        <v>868</v>
+        <v>918</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>611</v>
+        <v>1196</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="0" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>1197</v>
+        <v>611</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>1274</v>
@@ -10476,10 +10498,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="0" t="s">
-        <v>972</v>
+        <v>866</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>1274</v>
@@ -10487,10 +10509,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="0" t="s">
-        <v>1002</v>
+        <v>972</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>1274</v>
@@ -10498,35 +10520,35 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="0" t="s">
-        <v>1388</v>
+        <v>1002</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>1300</v>
+        <v>1199</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="0" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>755</v>
+        <v>1246</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>1275</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="0" t="s">
-        <v>889</v>
+        <v>1389</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>1274</v>
+        <v>755</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>1275</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -10536,38 +10558,38 @@
       <c r="B77" s="0" t="s">
         <v>1200</v>
       </c>
-      <c r="C77" s="0" t="s">
-        <v>1300</v>
+      <c r="C77" s="1" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="0" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>843</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>1275</v>
+        <v>1200</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>1300</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="0" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>843</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="0" t="s">
-        <v>872</v>
+        <v>892</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>1201</v>
+        <v>843</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>1274</v>
@@ -10575,10 +10597,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="0" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>1274</v>
@@ -10586,10 +10608,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="0" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>1274</v>
@@ -10597,10 +10619,10 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="0" t="s">
-        <v>957</v>
+        <v>881</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>688</v>
+        <v>1203</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>1274</v>
@@ -10608,10 +10630,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="0" t="s">
-        <v>920</v>
+        <v>957</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>1274</v>
@@ -10619,10 +10641,10 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="0" t="s">
-        <v>956</v>
+        <v>920</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>1204</v>
+        <v>690</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>1274</v>
@@ -10630,10 +10652,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="0" t="s">
-        <v>925</v>
+        <v>956</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>1274</v>
@@ -10641,32 +10663,32 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="0" t="s">
-        <v>939</v>
+        <v>925</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="0" t="s">
-        <v>875</v>
+        <v>939</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>620</v>
+        <v>1206</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="0" t="s">
-        <v>935</v>
+        <v>875</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>1207</v>
+        <v>620</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>1274</v>
@@ -10674,10 +10696,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="0" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>1274</v>
@@ -10685,21 +10707,21 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="0" t="s">
-        <v>1294</v>
+        <v>946</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>1296</v>
+        <v>1208</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1282</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="0" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>1282</v>
@@ -10707,21 +10729,21 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="0" t="s">
-        <v>1313</v>
+        <v>1295</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>1314</v>
+        <v>1297</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1300</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="0" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>1300</v>
@@ -10729,10 +10751,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="0" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>1300</v>
@@ -10740,32 +10762,32 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="0" t="s">
-        <v>991</v>
+        <v>1315</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>695</v>
+        <v>1316</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1275</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="0" t="s">
-        <v>943</v>
+        <v>991</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>1209</v>
+        <v>695</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="0" t="s">
-        <v>927</v>
+        <v>943</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>1274</v>
@@ -10773,10 +10795,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="0" t="s">
-        <v>947</v>
+        <v>927</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>700</v>
+        <v>1210</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>1274</v>
@@ -10784,32 +10806,32 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="0" t="s">
-        <v>1408</v>
+        <v>947</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>1411</v>
-      </c>
-      <c r="C100" s="0" t="s">
-        <v>1414</v>
+        <v>700</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="0" t="s">
-        <v>960</v>
+        <v>1408</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>701</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>1274</v>
+        <v>1411</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>1414</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="0" t="s">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>1211</v>
+        <v>701</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>1274</v>
@@ -10817,32 +10839,32 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="0" t="s">
-        <v>941</v>
+        <v>980</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="0" t="s">
-        <v>955</v>
+        <v>941</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="0" t="s">
-        <v>893</v>
+        <v>955</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>1274</v>
@@ -10850,10 +10872,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="0" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>1184</v>
+        <v>1214</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>1274</v>
@@ -10861,10 +10883,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="0" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>540</v>
+        <v>1184</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>1274</v>
@@ -10872,32 +10894,32 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="0" t="s">
-        <v>950</v>
+        <v>895</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>1215</v>
+        <v>540</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="0" t="s">
-        <v>990</v>
+        <v>950</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="0" t="s">
-        <v>897</v>
+        <v>990</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>1271</v>
+        <v>1216</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>1274</v>
@@ -10905,10 +10927,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="0" t="s">
-        <v>860</v>
+        <v>897</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>1217</v>
+        <v>1271</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>1274</v>
@@ -10916,10 +10938,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="0" t="s">
-        <v>1001</v>
+        <v>860</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>1274</v>
@@ -10927,32 +10949,32 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="0" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="0" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>755</v>
+        <v>1219</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="0" t="s">
-        <v>923</v>
+        <v>1005</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>1220</v>
+        <v>755</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>1274</v>
@@ -10960,10 +10982,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="0" t="s">
-        <v>996</v>
+        <v>923</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>1274</v>
@@ -10971,10 +10993,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="0" t="s">
-        <v>921</v>
+        <v>996</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>1274</v>
@@ -10982,10 +11004,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="0" t="s">
-        <v>869</v>
+        <v>921</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>1274</v>
@@ -10993,32 +11015,32 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="0" t="s">
-        <v>1386</v>
+        <v>869</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C119" s="0" t="s">
-        <v>1300</v>
+        <v>1224</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="0" t="s">
-        <v>870</v>
+        <v>1386</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>1274</v>
+        <v>1286</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>1300</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="0" t="s">
-        <v>992</v>
+        <v>870</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>1225</v>
+        <v>1197</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>1274</v>
@@ -11026,54 +11048,54 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="0" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>562</v>
+        <v>1225</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="0" t="s">
-        <v>864</v>
+        <v>998</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>1226</v>
+        <v>562</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="0" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="0" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="0" t="s">
-        <v>900</v>
+        <v>863</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>720</v>
+        <v>1228</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>1274</v>
@@ -11081,10 +11103,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="0" t="s">
-        <v>934</v>
+        <v>900</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>1229</v>
+        <v>720</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>1274</v>
@@ -11092,10 +11114,10 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="0" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>1274</v>
@@ -11103,10 +11125,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="0" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>593</v>
+        <v>1230</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>1274</v>
@@ -11114,10 +11136,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="0" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>1231</v>
+        <v>593</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>1274</v>
@@ -11125,10 +11147,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="0" t="s">
-        <v>944</v>
+        <v>931</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>1274</v>
@@ -11136,10 +11158,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="0" t="s">
-        <v>871</v>
+        <v>944</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>1274</v>
@@ -11147,32 +11169,32 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="0" t="s">
-        <v>858</v>
+        <v>871</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="0" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="0" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>553</v>
+        <v>1235</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>1274</v>
@@ -11180,54 +11202,54 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="0" t="s">
-        <v>1298</v>
+        <v>859</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>1299</v>
+        <v>553</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1300</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="0" t="s">
-        <v>905</v>
+        <v>1298</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>1236</v>
+        <v>1299</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1275</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="0" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1282</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="0" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1275</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="0" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>1275</v>
@@ -11235,10 +11257,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="0" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>1275</v>
@@ -11246,10 +11268,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="0" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>1275</v>
@@ -11257,10 +11279,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="0" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>1275</v>
@@ -11268,10 +11290,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="0" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>1275</v>
@@ -11279,10 +11301,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="0" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>1275</v>
@@ -11290,10 +11312,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="0" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>1275</v>
@@ -11301,21 +11323,21 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="0" t="s">
-        <v>985</v>
+        <v>911</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="0" t="s">
-        <v>964</v>
+        <v>985</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>1274</v>
@@ -11323,10 +11345,10 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="0" t="s">
-        <v>948</v>
+        <v>964</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>1274</v>
@@ -11334,10 +11356,10 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="0" t="s">
-        <v>886</v>
+        <v>948</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>1274</v>
@@ -11345,10 +11367,10 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="0" t="s">
-        <v>978</v>
+        <v>886</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>555</v>
+        <v>1249</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>1274</v>
@@ -11356,7 +11378,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="0" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B152" s="0" t="s">
         <v>555</v>
@@ -11367,32 +11389,32 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="0" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="B153" s="0" t="s">
         <v>555</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>1300</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="0" t="s">
-        <v>898</v>
+        <v>977</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>1272</v>
+        <v>555</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>1274</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="0" t="s">
-        <v>865</v>
+        <v>898</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>1252</v>
+        <v>1272</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>1274</v>
@@ -11400,10 +11422,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="0" t="s">
-        <v>902</v>
+        <v>865</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>1274</v>
@@ -11411,21 +11433,21 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="0" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="0" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>595</v>
+        <v>1254</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>1275</v>
@@ -11433,32 +11455,32 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="0" t="s">
-        <v>1283</v>
+        <v>904</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C159" s="0" t="s">
-        <v>1282</v>
+        <v>595</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>1275</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="0" t="s">
-        <v>861</v>
+        <v>1283</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>1274</v>
+        <v>1284</v>
+      </c>
+      <c r="C160" s="0" t="s">
+        <v>1282</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="0" t="s">
-        <v>954</v>
+        <v>861</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>737</v>
+        <v>1255</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>1274</v>
@@ -11466,65 +11488,65 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="0" t="s">
-        <v>932</v>
+        <v>954</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>1256</v>
+        <v>737</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="0" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>1229</v>
+        <v>1256</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="0" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>1257</v>
+        <v>1229</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="0" t="s">
-        <v>891</v>
+        <v>942</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="0" t="s">
-        <v>940</v>
+        <v>891</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="0" t="s">
-        <v>926</v>
+        <v>940</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>1275</v>
@@ -11532,21 +11554,21 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="0" t="s">
-        <v>958</v>
+        <v>926</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="0" t="s">
-        <v>922</v>
+        <v>958</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>1274</v>
@@ -11554,32 +11576,32 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="0" t="s">
-        <v>1409</v>
+        <v>922</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>1412</v>
-      </c>
-      <c r="C170" s="0" t="s">
-        <v>1414</v>
+        <v>1262</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="0" t="s">
-        <v>916</v>
+        <v>1409</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>1274</v>
+        <v>1412</v>
+      </c>
+      <c r="C171" s="0" t="s">
+        <v>1414</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="0" t="s">
-        <v>874</v>
+        <v>916</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>1225</v>
+        <v>1263</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>1274</v>
@@ -11587,10 +11609,10 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="0" t="s">
-        <v>963</v>
+        <v>874</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>1268</v>
+        <v>1225</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>1274</v>
@@ -11598,10 +11620,10 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="0" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>1274</v>
@@ -11609,7 +11631,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="0" t="s">
-        <v>936</v>
+        <v>962</v>
       </c>
       <c r="B175" s="0" t="s">
         <v>1269</v>
@@ -11620,19 +11642,30 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="0" t="s">
         <v>937</v>
       </c>
-      <c r="B176" s="0" t="s">
+      <c r="B177" s="0" t="s">
         <v>1270</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="C177" s="1" t="s">
         <v>1414</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D163">
-    <sortState ref="A2:D176">
-      <sortCondition ref="A2:A174"/>
+  <autoFilter ref="A1:D164">
+    <sortState ref="A2:D177">
+      <sortCondition ref="A2:A177"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="210" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="200" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="새_텍스트_문서" localSheetId="0">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'국가 태그'!$A$1:$E$264</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'임시 태그'!$A$1:$D$164</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="1474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="1475">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4455,6 +4455,9 @@
   </si>
   <si>
     <t>BHC_AGR</t>
+  </si>
+  <si>
+    <t>미등장</t>
   </si>
 </sst>
 </file>
@@ -5248,8 +5251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E264"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -6145,7 +6148,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" ht="16.500000" hidden="1">
       <c r="A53" s="0" t="s">
         <v>78</v>
       </c>
@@ -6417,7 +6420,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" ht="16.500000" hidden="1">
       <c r="A69" s="0" t="s">
         <v>170</v>
       </c>
@@ -6893,7 +6896,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" ht="16.500000" hidden="1">
       <c r="A97" s="0" t="s">
         <v>84</v>
       </c>
@@ -7012,7 +7015,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" ht="16.500000" hidden="1">
       <c r="A104" s="0" t="s">
         <v>86</v>
       </c>
@@ -7233,7 +7236,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="16.500000" hidden="1">
+    <row r="117" spans="1:5">
       <c r="A117" s="0" t="s">
         <v>154</v>
       </c>
@@ -7244,10 +7247,7 @@
         <v>617</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>1472</v>
-      </c>
-      <c r="E117" s="0" t="s">
-        <v>1464</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="16.500000" hidden="1">
@@ -7968,7 +7968,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" ht="16.500000" hidden="1">
       <c r="A162" s="0" t="s">
         <v>98</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" ht="16.500000" hidden="1">
       <c r="A171" s="0" t="s">
         <v>172</v>
       </c>
@@ -8310,7 +8310,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" ht="16.500000" hidden="1">
       <c r="A183" s="0" t="s">
         <v>506</v>
       </c>
@@ -9677,7 +9677,6 @@
         <filter val="북미"/>
         <filter val="아프리카"/>
         <filter val="중동"/>
-        <filter val="중미"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">
@@ -9700,7 +9699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="200" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="180" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="1475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="1477">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4455,6 +4455,12 @@
   </si>
   <si>
     <t>BHC_AGR</t>
+  </si>
+  <si>
+    <t>미등장</t>
+  </si>
+  <si>
+    <t>삭제</t>
   </si>
   <si>
     <t>미등장</t>
@@ -5252,7 +5258,7 @@
   <dimension ref="A1:E264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E117" sqref="E117"/>
+      <selection activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -6148,7 +6154,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16.500000" hidden="1">
+    <row r="53" spans="1:5">
       <c r="A53" s="0" t="s">
         <v>78</v>
       </c>
@@ -6420,7 +6426,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="16.500000" hidden="1">
+    <row r="69" spans="1:5">
       <c r="A69" s="0" t="s">
         <v>170</v>
       </c>
@@ -6896,7 +6902,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="16.500000" hidden="1">
+    <row r="97" spans="1:5">
       <c r="A97" s="0" t="s">
         <v>84</v>
       </c>
@@ -7015,7 +7021,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="16.500000" hidden="1">
+    <row r="104" spans="1:5">
       <c r="A104" s="0" t="s">
         <v>86</v>
       </c>
@@ -7236,7 +7242,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" ht="16.500000" hidden="1">
       <c r="A117" s="0" t="s">
         <v>154</v>
       </c>
@@ -7247,7 +7253,10 @@
         <v>617</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>1474</v>
+        <v>1475</v>
+      </c>
+      <c r="E117" s="0" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="16.500000" hidden="1">
@@ -7968,7 +7977,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="16.500000" hidden="1">
+    <row r="162" spans="1:5">
       <c r="A162" s="0" t="s">
         <v>98</v>
       </c>
@@ -8109,10 +8118,10 @@
         <v>621</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="16.500000" hidden="1">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
       <c r="A171" s="0" t="s">
         <v>172</v>
       </c>
@@ -8310,7 +8319,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="16.500000" hidden="1">
+    <row r="183" spans="1:5">
       <c r="A183" s="0" t="s">
         <v>506</v>
       </c>
@@ -9677,6 +9686,7 @@
         <filter val="북미"/>
         <filter val="아프리카"/>
         <filter val="중동"/>
+        <filter val="중미"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="180" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="170" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="1477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="1479">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4464,6 +4464,12 @@
   </si>
   <si>
     <t>미등장</t>
+  </si>
+  <si>
+    <t>미등장</t>
+  </si>
+  <si>
+    <t>펄스 1</t>
   </si>
 </sst>
 </file>
@@ -5258,7 +5264,7 @@
   <dimension ref="A1:E264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E121" sqref="E121"/>
+      <selection activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -7242,7 +7248,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="16.500000" hidden="1">
+    <row r="117" spans="1:5">
       <c r="A117" s="0" t="s">
         <v>154</v>
       </c>
@@ -7253,10 +7259,7 @@
         <v>617</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E117" s="0" t="s">
-        <v>1464</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="16.500000" hidden="1">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="170" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="160" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="1479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="1481">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4470,6 +4470,12 @@
   </si>
   <si>
     <t>펄스 1</t>
+  </si>
+  <si>
+    <t>미등장</t>
+  </si>
+  <si>
+    <t>삭제</t>
   </si>
 </sst>
 </file>
@@ -5263,8 +5269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E264"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D128" sqref="D128"/>
+    <sheetView topLeftCell="A53" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -7261,6 +7267,9 @@
       <c r="D117" s="0" t="s">
         <v>1477</v>
       </c>
+      <c r="E117" s="0" t="s">
+        <v>1478</v>
+      </c>
     </row>
     <row r="118" spans="1:5" ht="16.500000" hidden="1">
       <c r="A118" s="0" t="s">
@@ -7326,6 +7335,9 @@
       <c r="D121" s="0" t="s">
         <v>1439</v>
       </c>
+      <c r="E121" s="0" t="s">
+        <v>1478</v>
+      </c>
     </row>
     <row r="122" spans="1:5" ht="16.500000" hidden="1">
       <c r="A122" s="0" t="s">
@@ -7374,6 +7386,9 @@
       <c r="D124" s="0" t="s">
         <v>1348</v>
       </c>
+      <c r="E124" s="0" t="s">
+        <v>1478</v>
+      </c>
     </row>
     <row r="125" spans="1:5" ht="16.500000" hidden="1">
       <c r="A125" s="0" t="s">
@@ -8022,10 +8037,10 @@
         <v>713</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>1462</v>
+        <v>1479</v>
       </c>
       <c r="E164" s="0" t="s">
-        <v>1401</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="16.500000" hidden="1">
@@ -9131,7 +9146,10 @@
         <v>737</v>
       </c>
       <c r="D231" s="0" t="s">
-        <v>1433</v>
+        <v>1479</v>
+      </c>
+      <c r="E231" s="0" t="s">
+        <v>1478</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="16.500000" hidden="1">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="160" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="150" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -5269,8 +5269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E264"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E128" sqref="E128"/>
+    <sheetView topLeftCell="A104" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -7454,6 +7454,9 @@
       <c r="D128" s="0" t="s">
         <v>1348</v>
       </c>
+      <c r="E128" s="0" t="s">
+        <v>1478</v>
+      </c>
     </row>
     <row r="129" spans="1:5" ht="16.500000" hidden="1">
       <c r="A129" s="0" t="s">
@@ -7502,6 +7505,9 @@
       <c r="D131" s="0" t="s">
         <v>1392</v>
       </c>
+      <c r="E131" s="0" t="s">
+        <v>1478</v>
+      </c>
     </row>
     <row r="132" spans="1:5" ht="16.500000" hidden="1">
       <c r="A132" s="0" t="s">
@@ -7600,6 +7606,9 @@
       </c>
       <c r="D137" s="0" t="s">
         <v>1351</v>
+      </c>
+      <c r="E137" s="0" t="s">
+        <v>1478</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="16.500000" hidden="1">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="150" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="140" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="새_텍스트_문서" localSheetId="0">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'국가 태그'!$A$1:$E$264</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'임시 태그'!$A$1:$D$164</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="1481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="1483">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4476,6 +4476,12 @@
   </si>
   <si>
     <t>삭제</t>
+  </si>
+  <si>
+    <t>HJZ</t>
+  </si>
+  <si>
+    <t>헤자즈</t>
   </si>
 </sst>
 </file>
@@ -5267,10 +5273,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E264"/>
+  <dimension ref="A1:E265"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E144" sqref="E144"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F159" sqref="F159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -7084,21 +7090,21 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="16.500000" hidden="1">
+    <row r="107" spans="1:5">
       <c r="A107" s="0" t="s">
-        <v>283</v>
+        <v>1481</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>808</v>
+        <v>841</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>685</v>
+        <v>1482</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>1345</v>
+        <v>1479</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>1401</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="16.500000" hidden="1">
@@ -7169,21 +7175,21 @@
         <v>534</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" ht="16.500000" hidden="1">
       <c r="A112" s="0" t="s">
-        <v>88</v>
+        <v>283</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>841</v>
+        <v>808</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>1310</v>
+        <v>685</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>1333</v>
+        <v>1345</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>1466</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="16.500000" hidden="1">
@@ -7256,19 +7262,19 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="0" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>808</v>
+        <v>841</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>617</v>
+        <v>1310</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>1477</v>
+        <v>1333</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>1478</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="16.500000" hidden="1">
@@ -7375,16 +7381,16 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="0" t="s">
-        <v>291</v>
+        <v>154</v>
       </c>
       <c r="B124" s="0" t="s">
         <v>808</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>689</v>
+        <v>617</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>1348</v>
+        <v>1477</v>
       </c>
       <c r="E124" s="0" t="s">
         <v>1478</v>
@@ -7443,13 +7449,13 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="0" t="s">
-        <v>522</v>
+        <v>291</v>
       </c>
       <c r="B128" s="0" t="s">
         <v>808</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>806</v>
+        <v>689</v>
       </c>
       <c r="D128" s="0" t="s">
         <v>1348</v>
@@ -8136,16 +8142,19 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="0" t="s">
-        <v>162</v>
+        <v>522</v>
       </c>
       <c r="B170" s="0" t="s">
         <v>808</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>621</v>
+        <v>806</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>1476</v>
+        <v>1348</v>
+      </c>
+      <c r="E170" s="0" t="s">
+        <v>1478</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -9036,16 +9045,16 @@
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="0" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B224" s="0" t="s">
         <v>808</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="D224" s="0" t="s">
-        <v>1348</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="16.500000" hidden="1">
@@ -9279,19 +9288,16 @@
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="0" t="s">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>834</v>
+        <v>808</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>556</v>
+        <v>618</v>
       </c>
       <c r="D239" s="0" t="s">
-        <v>1333</v>
-      </c>
-      <c r="E239" s="0" t="s">
-        <v>1341</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="16.500000" hidden="1">
@@ -9707,8 +9713,25 @@
         <v>1341</v>
       </c>
     </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B265" s="0" t="s">
+        <v>834</v>
+      </c>
+      <c r="C265" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="D265" s="0" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E265" s="0" t="s">
+        <v>1341</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E264">
+  <autoFilter ref="A1:E265">
     <filterColumn colId="1">
       <filters>
         <filter val="All"/>
@@ -9725,8 +9748,8 @@
         <filter val="미등장"/>
       </filters>
     </filterColumn>
-    <sortState ref="A2:E264">
-      <sortCondition ref="A2:A264"/>
+    <sortState ref="A2:E265">
+      <sortCondition ref="A2:A265"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="140" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="130" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="새_텍스트_문서" localSheetId="0">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'국가 태그'!$A$1:$E$265</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'임시 태그'!$A$1:$D$164</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -5276,7 +5276,7 @@
   <dimension ref="A1:E265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F159" sqref="F159"/>
+      <selection activeCell="E246" sqref="E246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -7732,6 +7732,9 @@
       <c r="D144" s="0" t="s">
         <v>1438</v>
       </c>
+      <c r="E144" s="0" t="s">
+        <v>1478</v>
+      </c>
     </row>
     <row r="145" spans="1:5" ht="16.500000" hidden="1">
       <c r="A145" s="0" t="s">
@@ -7797,6 +7800,9 @@
       <c r="D148" s="0" t="s">
         <v>1429</v>
       </c>
+      <c r="E148" s="0" t="s">
+        <v>1478</v>
+      </c>
     </row>
     <row r="149" spans="1:5" ht="16.500000" hidden="1">
       <c r="A149" s="0" t="s">
@@ -7828,6 +7834,9 @@
       <c r="D150" s="0" t="s">
         <v>1351</v>
       </c>
+      <c r="E150" s="0" t="s">
+        <v>1478</v>
+      </c>
     </row>
     <row r="151" spans="1:5" ht="16.500000" hidden="1">
       <c r="A151" s="0" t="s">
@@ -7977,6 +7986,9 @@
       </c>
       <c r="D159" s="0" t="s">
         <v>1351</v>
+      </c>
+      <c r="E159" s="0" t="s">
+        <v>1478</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="16.500000" hidden="1">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="130" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="120" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="1483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="1485">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4482,6 +4482,12 @@
   </si>
   <si>
     <t>헤자즈</t>
+  </si>
+  <si>
+    <t>미등장</t>
+  </si>
+  <si>
+    <t>펄스 1</t>
   </si>
 </sst>
 </file>
@@ -5275,8 +5281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E246" sqref="E246"/>
+    <sheetView topLeftCell="A121" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F246" sqref="F246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5339,7 +5345,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.500000" hidden="1">
+    <row r="4" spans="1:5">
       <c r="A4" s="0" t="s">
         <v>177</v>
       </c>
@@ -5350,10 +5356,10 @@
         <v>628</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>1431</v>
+        <v>1483</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>1401</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.500000" hidden="1">
@@ -6172,7 +6178,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" ht="16.500000" hidden="1">
       <c r="A53" s="0" t="s">
         <v>78</v>
       </c>
@@ -6444,7 +6450,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" ht="16.500000" hidden="1">
       <c r="A69" s="0" t="s">
         <v>170</v>
       </c>
@@ -6920,7 +6926,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" ht="16.500000" hidden="1">
       <c r="A97" s="0" t="s">
         <v>84</v>
       </c>
@@ -7039,7 +7045,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" ht="16.500000" hidden="1">
       <c r="A104" s="0" t="s">
         <v>86</v>
       </c>
@@ -8021,8 +8027,11 @@
       <c r="D161" s="0" t="s">
         <v>1434</v>
       </c>
-    </row>
-    <row r="162" spans="1:5">
+      <c r="E161" s="0" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="16.500000" hidden="1">
       <c r="A162" s="0" t="s">
         <v>98</v>
       </c>
@@ -8151,6 +8160,9 @@
       <c r="D169" s="0" t="s">
         <v>1440</v>
       </c>
+      <c r="E169" s="0" t="s">
+        <v>1484</v>
+      </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="0" t="s">
@@ -8169,7 +8181,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" ht="16.500000" hidden="1">
       <c r="A171" s="0" t="s">
         <v>172</v>
       </c>
@@ -8213,6 +8225,9 @@
       <c r="D173" s="0" t="s">
         <v>1333</v>
       </c>
+      <c r="E173" s="0" t="s">
+        <v>1484</v>
+      </c>
     </row>
     <row r="174" spans="1:5" ht="16.500000" hidden="1">
       <c r="A174" s="0" t="s">
@@ -8367,7 +8382,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" ht="16.500000" hidden="1">
       <c r="A183" s="0" t="s">
         <v>506</v>
       </c>
@@ -8462,6 +8477,9 @@
       <c r="D188" s="0" t="s">
         <v>1333</v>
       </c>
+      <c r="E188" s="0" t="s">
+        <v>1484</v>
+      </c>
     </row>
     <row r="189" spans="1:5" ht="16.500000" hidden="1">
       <c r="A189" s="0" t="s">
@@ -9281,7 +9299,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="16.500000" hidden="1">
+    <row r="238" spans="1:5">
       <c r="A238" s="0" t="s">
         <v>391</v>
       </c>
@@ -9292,10 +9310,10 @@
         <v>743</v>
       </c>
       <c r="D238" s="0" t="s">
-        <v>1431</v>
+        <v>1479</v>
       </c>
       <c r="E238" s="0" t="s">
-        <v>1401</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -9751,7 +9769,6 @@
         <filter val="북미"/>
         <filter val="아프리카"/>
         <filter val="중동"/>
-        <filter val="중미"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="120" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="110" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="1485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="1486">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4488,6 +4488,9 @@
   </si>
   <si>
     <t>펄스 1</t>
+  </si>
+  <si>
+    <t>미등장</t>
   </si>
 </sst>
 </file>
@@ -5281,8 +5284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E265"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F246" sqref="F246"/>
+    <sheetView topLeftCell="A100" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G188" sqref="G188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -6178,7 +6181,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16.500000" hidden="1">
+    <row r="53" spans="1:5">
       <c r="A53" s="0" t="s">
         <v>78</v>
       </c>
@@ -6450,7 +6453,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="16.500000" hidden="1">
+    <row r="69" spans="1:5">
       <c r="A69" s="0" t="s">
         <v>170</v>
       </c>
@@ -6926,7 +6929,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="16.500000" hidden="1">
+    <row r="97" spans="1:5">
       <c r="A97" s="0" t="s">
         <v>84</v>
       </c>
@@ -7045,21 +7048,21 @@
         <v>534</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="16.500000" hidden="1">
+    <row r="104" spans="1:5">
       <c r="A104" s="0" t="s">
-        <v>86</v>
+        <v>1481</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>811</v>
+        <v>841</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>582</v>
+        <v>1482</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>1348</v>
+        <v>1479</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>1466</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="16.500000" hidden="1">
@@ -7098,19 +7101,19 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="0" t="s">
-        <v>1481</v>
+        <v>86</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>841</v>
+        <v>811</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>1482</v>
+        <v>582</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>1479</v>
+        <v>1348</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>1478</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="16.500000" hidden="1">
@@ -7300,21 +7303,21 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="16.500000" hidden="1">
+    <row r="119" spans="1:5">
       <c r="A119" s="0" t="s">
-        <v>287</v>
+        <v>154</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>687</v>
+        <v>617</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>1345</v>
+        <v>1477</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>1401</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="16.500000" hidden="1">
@@ -7336,19 +7339,19 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="0" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B121" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>1439</v>
+        <v>1485</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>1478</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="16.500000" hidden="1">
@@ -7387,16 +7390,16 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="0" t="s">
-        <v>154</v>
+        <v>289</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>617</v>
+        <v>688</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>1477</v>
+        <v>1439</v>
       </c>
       <c r="E124" s="0" t="s">
         <v>1478</v>
@@ -7506,16 +7509,16 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="0" t="s">
-        <v>295</v>
+        <v>522</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>691</v>
+        <v>806</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>1392</v>
+        <v>1348</v>
       </c>
       <c r="E131" s="0" t="s">
         <v>1478</v>
@@ -7608,16 +7611,16 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="0" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B137" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>1351</v>
+        <v>1392</v>
       </c>
       <c r="E137" s="0" t="s">
         <v>1478</v>
@@ -7727,16 +7730,16 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="0" t="s">
-        <v>453</v>
+        <v>303</v>
       </c>
       <c r="B144" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>772</v>
+        <v>695</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>1438</v>
+        <v>1351</v>
       </c>
       <c r="E144" s="0" t="s">
         <v>1478</v>
@@ -7795,16 +7798,16 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="0" t="s">
-        <v>313</v>
+        <v>453</v>
       </c>
       <c r="B148" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>700</v>
+        <v>772</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>1429</v>
+        <v>1438</v>
       </c>
       <c r="E148" s="0" t="s">
         <v>1478</v>
@@ -7829,16 +7832,16 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="0" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B150" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>1351</v>
+        <v>1429</v>
       </c>
       <c r="E150" s="0" t="s">
         <v>1478</v>
@@ -7982,13 +7985,13 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="0" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="B159" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="D159" s="0" t="s">
         <v>1351</v>
@@ -8016,33 +8019,36 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="0" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B161" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C161" s="0" t="s">
+        <v>708</v>
+      </c>
+      <c r="D161" s="0" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E161" s="0" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="C162" s="0" t="s">
         <v>710</v>
       </c>
-      <c r="D161" s="0" t="s">
+      <c r="D162" s="0" t="s">
         <v>1434</v>
       </c>
-      <c r="E161" s="0" t="s">
+      <c r="E162" s="0" t="s">
         <v>1484</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="16.500000" hidden="1">
-      <c r="A162" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B162" s="0" t="s">
-        <v>811</v>
-      </c>
-      <c r="C162" s="0" t="s">
-        <v>1216</v>
-      </c>
-      <c r="D162" s="0" t="s">
-        <v>1348</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="16.500000" hidden="1">
@@ -8149,16 +8155,16 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="0" t="s">
-        <v>439</v>
+        <v>98</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>765</v>
+        <v>1216</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>1440</v>
+        <v>1348</v>
       </c>
       <c r="E169" s="0" t="s">
         <v>1484</v>
@@ -8166,33 +8172,36 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="0" t="s">
-        <v>522</v>
+        <v>439</v>
       </c>
       <c r="B170" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="C170" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="D170" s="0" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E170" s="0" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B171" s="0" t="s">
         <v>808</v>
       </c>
-      <c r="C170" s="0" t="s">
-        <v>806</v>
-      </c>
-      <c r="D170" s="0" t="s">
-        <v>1348</v>
-      </c>
-      <c r="E170" s="0" t="s">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="16.500000" hidden="1">
-      <c r="A171" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="B171" s="0" t="s">
-        <v>819</v>
-      </c>
       <c r="C171" s="0" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>1350</v>
+        <v>1476</v>
+      </c>
+      <c r="E171" s="0" t="s">
+        <v>1484</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="16.500000" hidden="1">
@@ -8214,19 +8223,16 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="0" t="s">
-        <v>128</v>
+        <v>172</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>809</v>
+        <v>819</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>604</v>
+        <v>626</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>1333</v>
-      </c>
-      <c r="E173" s="0" t="s">
-        <v>1484</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="16.500000" hidden="1">
@@ -8382,18 +8388,21 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="16.500000" hidden="1">
+    <row r="183" spans="1:5">
       <c r="A183" s="0" t="s">
-        <v>506</v>
+        <v>128</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>798</v>
+        <v>604</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>1348</v>
+        <v>1333</v>
+      </c>
+      <c r="E183" s="0" t="s">
+        <v>1484</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="16.500000" hidden="1">
@@ -8466,19 +8475,16 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="0" t="s">
-        <v>347</v>
+        <v>506</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>810</v>
+        <v>819</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>718</v>
+        <v>798</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>1333</v>
-      </c>
-      <c r="E188" s="0" t="s">
-        <v>1484</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="16.500000" hidden="1">
@@ -8568,16 +8574,19 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="0" t="s">
-        <v>455</v>
+        <v>347</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>773</v>
+        <v>718</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>1438</v>
+        <v>1333</v>
+      </c>
+      <c r="E194" s="0" t="s">
+        <v>1484</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="16.500000" hidden="1">
@@ -9075,16 +9084,19 @@
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="0" t="s">
-        <v>162</v>
+        <v>455</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>621</v>
+        <v>773</v>
       </c>
       <c r="D224" s="0" t="s">
-        <v>1476</v>
+        <v>1438</v>
+      </c>
+      <c r="E224" s="0" t="s">
+        <v>1484</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="16.500000" hidden="1">
@@ -9154,16 +9166,16 @@
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="0" t="s">
-        <v>377</v>
+        <v>156</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>735</v>
+        <v>618</v>
       </c>
       <c r="D229" s="0" t="s">
-        <v>1333</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="16.500000" hidden="1">
@@ -9185,19 +9197,16 @@
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="0" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D231" s="0" t="s">
-        <v>1479</v>
-      </c>
-      <c r="E231" s="0" t="s">
-        <v>1478</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="16.500000" hidden="1">
@@ -9287,47 +9296,50 @@
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="0" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="B237" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="D237" s="0" t="s">
-        <v>1432</v>
+        <v>1479</v>
+      </c>
+      <c r="E237" s="0" t="s">
+        <v>1478</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="0" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B238" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D238" s="0" t="s">
-        <v>1479</v>
-      </c>
-      <c r="E238" s="0" t="s">
-        <v>1478</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="0" t="s">
-        <v>156</v>
+        <v>391</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>618</v>
+        <v>743</v>
       </c>
       <c r="D239" s="0" t="s">
-        <v>1348</v>
+        <v>1479</v>
+      </c>
+      <c r="E239" s="0" t="s">
+        <v>1478</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="16.500000" hidden="1">
@@ -9349,16 +9361,19 @@
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="0" t="s">
-        <v>393</v>
+        <v>40</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>812</v>
+        <v>834</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>744</v>
+        <v>556</v>
       </c>
       <c r="D241" s="0" t="s">
-        <v>1439</v>
+        <v>1333</v>
+      </c>
+      <c r="E241" s="0" t="s">
+        <v>1341</v>
       </c>
     </row>
     <row r="242" spans="1:5" ht="16.500000" hidden="1">
@@ -9414,27 +9429,27 @@
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="0" t="s">
-        <v>116</v>
+        <v>393</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>598</v>
+        <v>744</v>
       </c>
       <c r="D245" s="0" t="s">
-        <v>1333</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="0" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D246" s="0" t="s">
         <v>1333</v>
@@ -9714,16 +9729,16 @@
     </row>
     <row r="263" spans="1:5">
       <c r="A263" s="0" t="s">
-        <v>411</v>
+        <v>122</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C263" s="0" t="s">
-        <v>753</v>
+        <v>601</v>
       </c>
       <c r="D263" s="0" t="s">
-        <v>1437</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="16.500000" hidden="1">
@@ -9745,19 +9760,16 @@
     </row>
     <row r="265" spans="1:5">
       <c r="A265" s="0" t="s">
-        <v>40</v>
+        <v>411</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>834</v>
+        <v>812</v>
       </c>
       <c r="C265" s="0" t="s">
-        <v>556</v>
+        <v>753</v>
       </c>
       <c r="D265" s="0" t="s">
-        <v>1333</v>
-      </c>
-      <c r="E265" s="0" t="s">
-        <v>1341</v>
+        <v>1437</v>
       </c>
     </row>
   </sheetData>
@@ -9769,6 +9781,7 @@
         <filter val="북미"/>
         <filter val="아프리카"/>
         <filter val="중동"/>
+        <filter val="중미"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="110" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="100" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -5284,8 +5284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E265"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G188" sqref="G188"/>
+    <sheetView topLeftCell="A124" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E231" sqref="E231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -8234,6 +8234,9 @@
       <c r="D173" s="0" t="s">
         <v>1350</v>
       </c>
+      <c r="E173" s="0" t="s">
+        <v>1484</v>
+      </c>
     </row>
     <row r="174" spans="1:5" ht="16.500000" hidden="1">
       <c r="A174" s="0" t="s">
@@ -8486,6 +8489,9 @@
       <c r="D188" s="0" t="s">
         <v>1348</v>
       </c>
+      <c r="E188" s="0" t="s">
+        <v>1484</v>
+      </c>
     </row>
     <row r="189" spans="1:5" ht="16.500000" hidden="1">
       <c r="A189" s="0" t="s">
@@ -9176,6 +9182,9 @@
       </c>
       <c r="D229" s="0" t="s">
         <v>1348</v>
+      </c>
+      <c r="E229" s="0" t="s">
+        <v>1484</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="16.500000" hidden="1">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="100" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="90" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="1486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="1487">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4491,6 +4491,9 @@
   </si>
   <si>
     <t>미등장</t>
+  </si>
+  <si>
+    <t>주권 맹방</t>
   </si>
 </sst>
 </file>
@@ -5284,8 +5287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E265"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E231" sqref="E231"/>
+    <sheetView topLeftCell="A150" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J266" sqref="J266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -9212,10 +9215,13 @@
         <v>810</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>735</v>
+        <v>1486</v>
       </c>
       <c r="D231" s="0" t="s">
         <v>1333</v>
+      </c>
+      <c r="E231" s="0" t="s">
+        <v>1484</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="16.500000" hidden="1">
@@ -9333,6 +9339,9 @@
       <c r="D238" s="0" t="s">
         <v>1432</v>
       </c>
+      <c r="E238" s="0" t="s">
+        <v>1484</v>
+      </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="0" t="s">
@@ -9448,6 +9457,9 @@
       </c>
       <c r="D245" s="0" t="s">
         <v>1439</v>
+      </c>
+      <c r="E245" s="0" t="s">
+        <v>1484</v>
       </c>
     </row>
     <row r="246" spans="1:5">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="90" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="80" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="1487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="1488">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4494,6 +4494,9 @@
   </si>
   <si>
     <t>주권 맹방</t>
+  </si>
+  <si>
+    <t>미주 연합</t>
   </si>
 </sst>
 </file>
@@ -5288,7 +5291,7 @@
   <dimension ref="A1:E265"/>
   <sheetViews>
     <sheetView topLeftCell="A150" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J266" sqref="J266"/>
+      <selection activeCell="C237" sqref="C237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -9215,7 +9218,7 @@
         <v>810</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="D231" s="0" t="s">
         <v>1333</v>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="80" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="170" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -5290,8 +5290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E265"/>
   <sheetViews>
-    <sheetView topLeftCell="A150" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C237" sqref="C237"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D268" sqref="D268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5337,7 +5337,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.500000" hidden="1">
+    <row r="3" spans="1:5">
       <c r="A3" s="0" t="s">
         <v>44</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="16.500000" hidden="1">
       <c r="A4" s="0" t="s">
         <v>177</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="16.500000" hidden="1">
       <c r="A7" s="0" t="s">
         <v>181</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.500000" hidden="1">
+    <row r="18" spans="1:5">
       <c r="A18" s="0" t="s">
         <v>187</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.500000" hidden="1">
+    <row r="26" spans="1:5">
       <c r="A26" s="0" t="s">
         <v>195</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" ht="16.500000" hidden="1">
       <c r="A29" s="0" t="s">
         <v>201</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.500000" hidden="1">
+    <row r="34" spans="1:5">
       <c r="A34" s="0" t="s">
         <v>50</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" ht="16.500000" hidden="1">
       <c r="A49" s="0" t="s">
         <v>225</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16.500000" hidden="1">
+    <row r="50" spans="1:5">
       <c r="A50" s="0" t="s">
         <v>227</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" ht="16.500000" hidden="1">
       <c r="A53" s="0" t="s">
         <v>78</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" ht="16.500000" hidden="1">
       <c r="A60" s="0" t="s">
         <v>447</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="16.500000" hidden="1">
+    <row r="64" spans="1:5">
       <c r="A64" s="0" t="s">
         <v>48</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" ht="16.500000" hidden="1">
       <c r="A69" s="0" t="s">
         <v>170</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="16.500000" hidden="1">
+    <row r="71" spans="1:5">
       <c r="A71" s="0" t="s">
         <v>2</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="16.500000" hidden="1">
+    <row r="76" spans="1:5">
       <c r="A76" s="0" t="s">
         <v>54</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="16.500000" hidden="1">
+    <row r="80" spans="1:5">
       <c r="A80" s="0" t="s">
         <v>8</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" ht="16.500000" hidden="1">
       <c r="A83" s="0" t="s">
         <v>253</v>
       </c>
@@ -6799,7 +6799,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="16.500000" hidden="1">
+    <row r="89" spans="1:5">
       <c r="A89" s="0" t="s">
         <v>0</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" ht="16.500000" hidden="1">
       <c r="A90" s="0" t="s">
         <v>273</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" ht="16.500000" hidden="1">
       <c r="A93" s="0" t="s">
         <v>269</v>
       </c>
@@ -6884,7 +6884,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="16.500000" hidden="1">
+    <row r="94" spans="1:5">
       <c r="A94" s="0" t="s">
         <v>42</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" ht="16.500000" hidden="1">
       <c r="A97" s="0" t="s">
         <v>84</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" ht="16.500000" hidden="1">
       <c r="A100" s="0" t="s">
         <v>443</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="16.500000" hidden="1">
+    <row r="103" spans="1:5">
       <c r="A103" s="0" t="s">
         <v>14</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" ht="16.500000" hidden="1">
       <c r="A104" s="0" t="s">
         <v>1481</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="16.500000" hidden="1">
+    <row r="105" spans="1:5">
       <c r="A105" s="0" t="s">
         <v>58</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" ht="16.500000" hidden="1">
       <c r="A107" s="0" t="s">
         <v>86</v>
       </c>
@@ -7173,7 +7173,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="16.500000" hidden="1">
+    <row r="111" spans="1:5">
       <c r="A111" s="0" t="s">
         <v>56</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" ht="16.500000" hidden="1">
       <c r="A117" s="0" t="s">
         <v>88</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" ht="16.500000" hidden="1">
       <c r="A119" s="0" t="s">
         <v>154</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" ht="16.500000" hidden="1">
       <c r="A121" s="0" t="s">
         <v>287</v>
       </c>
@@ -7394,7 +7394,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" ht="16.500000" hidden="1">
       <c r="A124" s="0" t="s">
         <v>289</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" ht="16.500000" hidden="1">
       <c r="A128" s="0" t="s">
         <v>291</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" ht="16.500000" hidden="1">
       <c r="A131" s="0" t="s">
         <v>522</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="16.500000" hidden="1">
+    <row r="132" spans="1:5">
       <c r="A132" s="0" t="s">
         <v>22</v>
       </c>
@@ -7615,7 +7615,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" ht="16.500000" hidden="1">
       <c r="A137" s="0" t="s">
         <v>295</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" ht="16.500000" hidden="1">
       <c r="A144" s="0" t="s">
         <v>303</v>
       </c>
@@ -7802,7 +7802,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" ht="16.500000" hidden="1">
       <c r="A148" s="0" t="s">
         <v>453</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" ht="16.500000" hidden="1">
       <c r="A150" s="0" t="s">
         <v>313</v>
       </c>
@@ -7989,7 +7989,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" ht="16.500000" hidden="1">
       <c r="A159" s="0" t="s">
         <v>315</v>
       </c>
@@ -8023,7 +8023,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" ht="16.500000" hidden="1">
       <c r="A161" s="0" t="s">
         <v>329</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" ht="16.500000" hidden="1">
       <c r="A162" s="0" t="s">
         <v>333</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="16.500000" hidden="1">
+    <row r="163" spans="1:5">
       <c r="A163" s="0" t="s">
         <v>46</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" ht="16.500000" hidden="1">
       <c r="A169" s="0" t="s">
         <v>98</v>
       </c>
@@ -8176,7 +8176,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" ht="16.500000" hidden="1">
       <c r="A170" s="0" t="s">
         <v>439</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" ht="16.500000" hidden="1">
       <c r="A171" s="0" t="s">
         <v>162</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="16.500000" hidden="1">
+    <row r="172" spans="1:5">
       <c r="A172" s="0" t="s">
         <v>416</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" ht="16.500000" hidden="1">
       <c r="A173" s="0" t="s">
         <v>172</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="16.500000" hidden="1">
+    <row r="179" spans="1:5">
       <c r="A179" s="0" t="s">
         <v>18</v>
       </c>
@@ -8346,7 +8346,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="16.500000" hidden="1">
+    <row r="180" spans="1:5">
       <c r="A180" s="0" t="s">
         <v>52</v>
       </c>
@@ -8397,7 +8397,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" ht="16.500000" hidden="1">
       <c r="A183" s="0" t="s">
         <v>128</v>
       </c>
@@ -8482,7 +8482,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" ht="16.500000" hidden="1">
       <c r="A188" s="0" t="s">
         <v>506</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="16.500000" hidden="1">
+    <row r="192" spans="1:5">
       <c r="A192" s="0" t="s">
         <v>349</v>
       </c>
@@ -8584,7 +8584,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" ht="16.500000" hidden="1">
       <c r="A194" s="0" t="s">
         <v>347</v>
       </c>
@@ -9026,7 +9026,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="16.500000" hidden="1">
+    <row r="220" spans="1:5">
       <c r="A220" s="0" t="s">
         <v>375</v>
       </c>
@@ -9043,7 +9043,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="16.500000" hidden="1">
+    <row r="221" spans="1:5">
       <c r="A221" s="0" t="s">
         <v>6</v>
       </c>
@@ -9060,7 +9060,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="16.500000" hidden="1">
+    <row r="222" spans="1:5">
       <c r="A222" s="0" t="s">
         <v>38</v>
       </c>
@@ -9094,7 +9094,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" ht="16.500000" hidden="1">
       <c r="A224" s="0" t="s">
         <v>455</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" ht="16.500000" hidden="1">
       <c r="A229" s="0" t="s">
         <v>156</v>
       </c>
@@ -9210,7 +9210,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" ht="16.500000" hidden="1">
       <c r="A231" s="0" t="s">
         <v>377</v>
       </c>
@@ -9312,7 +9312,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" ht="16.500000" hidden="1">
       <c r="A237" s="0" t="s">
         <v>379</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" ht="16.500000" hidden="1">
       <c r="A238" s="0" t="s">
         <v>389</v>
       </c>
@@ -9346,7 +9346,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" ht="16.500000" hidden="1">
       <c r="A239" s="0" t="s">
         <v>391</v>
       </c>
@@ -9380,7 +9380,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" ht="16.500000" hidden="1">
       <c r="A241" s="0" t="s">
         <v>40</v>
       </c>
@@ -9397,7 +9397,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="16.500000" hidden="1">
+    <row r="242" spans="1:5">
       <c r="A242" s="0" t="s">
         <v>395</v>
       </c>
@@ -9448,7 +9448,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" ht="16.500000" hidden="1">
       <c r="A245" s="0" t="s">
         <v>393</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" ht="16.500000" hidden="1">
       <c r="A246" s="0" t="s">
         <v>116</v>
       </c>
@@ -9477,6 +9477,9 @@
       </c>
       <c r="D246" s="0" t="s">
         <v>1333</v>
+      </c>
+      <c r="E246" s="0" t="s">
+        <v>1484</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="16.500000" hidden="1">
@@ -9632,7 +9635,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="16.500000" hidden="1">
+    <row r="256" spans="1:5">
       <c r="A256" s="0" t="s">
         <v>405</v>
       </c>
@@ -9700,7 +9703,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="16.500000" hidden="1">
+    <row r="260" spans="1:5">
       <c r="A260" s="0" t="s">
         <v>34</v>
       </c>
@@ -9751,7 +9754,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" ht="16.500000" hidden="1">
       <c r="A263" s="0" t="s">
         <v>122</v>
       </c>
@@ -9763,6 +9766,9 @@
       </c>
       <c r="D263" s="0" t="s">
         <v>1333</v>
+      </c>
+      <c r="E263" s="0" t="s">
+        <v>1484</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="16.500000" hidden="1">
@@ -9782,7 +9788,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" ht="16.500000" hidden="1">
       <c r="A265" s="0" t="s">
         <v>411</v>
       </c>
@@ -9794,6 +9800,9 @@
       </c>
       <c r="D265" s="0" t="s">
         <v>1437</v>
+      </c>
+      <c r="E265" s="0" t="s">
+        <v>1484</v>
       </c>
     </row>
   </sheetData>
@@ -9801,17 +9810,19 @@
     <filterColumn colId="1">
       <filters>
         <filter val="All"/>
-        <filter val="남미"/>
-        <filter val="북미"/>
-        <filter val="아프리카"/>
-        <filter val="중동"/>
-        <filter val="중미"/>
+        <filter val="유럽"/>
+        <filter val="유럽(독일)"/>
+        <filter val="유럽(영국)"/>
+        <filter val="유럽(유고슬라비아)"/>
+        <filter val="유럽(이베리아)"/>
+        <filter val="유럽(이탈리아)"/>
+        <filter val="유럽(프랑스)"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">
       <filters>
         <filter val="All"/>
-        <filter val="미등장"/>
+        <filter val="등장"/>
       </filters>
     </filterColumn>
     <sortState ref="A2:E265">
@@ -9828,8 +9839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D177"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="A176" sqref="A176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -11807,7 +11818,7 @@
   <dimension ref="B2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="170" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="160" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="1488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="1490">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4497,6 +4497,12 @@
   </si>
   <si>
     <t>미주 연합</t>
+  </si>
+  <si>
+    <t>펄스 2 : 병력 배치, 코어, 지역 기반</t>
+  </si>
+  <si>
+    <t>펄스 3 : 장관진과 테크팀, 초기 기술과 테크트리와 무기, 국가원수 후보, 초기 국가 정신, 국가 원수 설명, 공용 국가중점</t>
   </si>
 </sst>
 </file>
@@ -5291,7 +5297,7 @@
   <dimension ref="A1:E265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D268" sqref="D268"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -11818,7 +11824,7 @@
   <dimension ref="B2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -11830,12 +11836,12 @@
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="0" t="s">
-        <v>1451</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="0" t="s">
-        <v>1450</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="5" spans="2:2">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="160" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="200" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -5297,7 +5297,7 @@
   <dimension ref="A1:E265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -11824,7 +11824,7 @@
   <dimension ref="B2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="200" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="190" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="새_텍스트_문서" localSheetId="0">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'국가 태그'!$A$1:$E$265</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'임시 태그'!$A$1:$D$164</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="1490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="1495">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4503,6 +4503,21 @@
   </si>
   <si>
     <t>펄스 3 : 장관진과 테크팀, 초기 기술과 테크트리와 무기, 국가원수 후보, 초기 국가 정신, 국가 원수 설명, 공용 국가중점</t>
+  </si>
+  <si>
+    <t>CHI_BSWSWRE</t>
+  </si>
+  <si>
+    <t>wndghkalsrnr()</t>
+  </si>
+  <si>
+    <t>중화민국(청천백일만지홍)</t>
+  </si>
+  <si>
+    <t>CHI_KMT</t>
+  </si>
+  <si>
+    <t>중국 국민당</t>
   </si>
 </sst>
 </file>
@@ -9843,10 +9858,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D177"/>
+  <dimension ref="A1:D179"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="A176" sqref="A176"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -10247,32 +10262,32 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="0" t="s">
-        <v>953</v>
+        <v>1490</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>657</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>1274</v>
+        <v>1492</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>1414</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="0" t="s">
-        <v>966</v>
+        <v>1493</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>1274</v>
+        <v>1494</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>1414</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="0" t="s">
-        <v>967</v>
+        <v>953</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>1274</v>
@@ -10280,21 +10295,21 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="0" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="0" t="s">
-        <v>867</v>
+        <v>967</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>611</v>
+        <v>658</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>1274</v>
@@ -10302,21 +10317,21 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="0" t="s">
-        <v>899</v>
+        <v>965</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="0" t="s">
-        <v>988</v>
+        <v>867</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>543</v>
+        <v>611</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>1274</v>
@@ -10324,10 +10339,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="0" t="s">
-        <v>987</v>
+        <v>899</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>543</v>
+        <v>1177</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>1274</v>
@@ -10335,21 +10350,21 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="0" t="s">
-        <v>1410</v>
+        <v>988</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>1413</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>1414</v>
+        <v>543</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="0" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>1467</v>
+        <v>543</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>1274</v>
@@ -10357,21 +10372,21 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="0" t="s">
-        <v>908</v>
+        <v>1410</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>1274</v>
+        <v>1413</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>1414</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="0" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>1180</v>
+        <v>1467</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>1274</v>
@@ -10379,10 +10394,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="0" t="s">
-        <v>1006</v>
+        <v>908</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>1278</v>
+        <v>1179</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>1274</v>
@@ -10390,21 +10405,21 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="0" t="s">
-        <v>1421</v>
+        <v>993</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>1414</v>
+        <v>1180</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="0" t="s">
-        <v>971</v>
+        <v>1006</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>1182</v>
+        <v>1278</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>1274</v>
@@ -10412,21 +10427,21 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="0" t="s">
-        <v>1279</v>
+        <v>1421</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>1274</v>
+        <v>1422</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>1414</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="0" t="s">
-        <v>901</v>
+        <v>971</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>1274</v>
@@ -10434,10 +10449,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="0" t="s">
-        <v>952</v>
+        <v>1279</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>671</v>
+        <v>1280</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>1274</v>
@@ -10445,10 +10460,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="0" t="s">
-        <v>878</v>
+        <v>901</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>1274</v>
@@ -10456,54 +10471,54 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="0" t="s">
-        <v>1376</v>
+        <v>952</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>1377</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>1300</v>
+        <v>671</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="0" t="s">
-        <v>1380</v>
+        <v>878</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>1381</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>1300</v>
+        <v>1185</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="0" t="s">
-        <v>877</v>
+        <v>1376</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>1274</v>
+        <v>1377</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>1300</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="0" t="s">
-        <v>924</v>
+        <v>1380</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>1274</v>
+        <v>1381</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>1300</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="0" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>1274</v>
@@ -10511,10 +10526,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="0" t="s">
-        <v>884</v>
+        <v>924</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>1274</v>
@@ -10522,10 +10537,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="0" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>1274</v>
@@ -10533,10 +10548,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="0" t="s">
-        <v>949</v>
+        <v>884</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>676</v>
+        <v>1188</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>1274</v>
@@ -10544,21 +10559,21 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="0" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="0" t="s">
-        <v>999</v>
+        <v>949</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>1191</v>
+        <v>676</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>1274</v>
@@ -10566,21 +10581,21 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="0" t="s">
-        <v>989</v>
+        <v>896</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>581</v>
+        <v>1190</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="0" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>1274</v>
@@ -10588,21 +10603,21 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="0" t="s">
-        <v>976</v>
+        <v>989</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>1193</v>
+        <v>581</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="0" t="s">
-        <v>876</v>
+        <v>1007</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>1274</v>
@@ -10610,32 +10625,32 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="0" t="s">
-        <v>919</v>
+        <v>976</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="0" t="s">
-        <v>918</v>
+        <v>876</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="0" t="s">
-        <v>868</v>
+        <v>919</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>611</v>
+        <v>1195</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>1274</v>
@@ -10643,21 +10658,21 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="0" t="s">
-        <v>866</v>
+        <v>918</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="0" t="s">
-        <v>972</v>
+        <v>868</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>1198</v>
+        <v>611</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>1274</v>
@@ -10665,10 +10680,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="0" t="s">
-        <v>1002</v>
+        <v>866</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>1274</v>
@@ -10676,87 +10691,87 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="0" t="s">
-        <v>1388</v>
+        <v>972</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>1300</v>
+        <v>1198</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="0" t="s">
-        <v>1389</v>
+        <v>1002</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>755</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>1275</v>
+        <v>1199</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="0" t="s">
-        <v>889</v>
+        <v>1388</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>1274</v>
+        <v>1246</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>1300</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="0" t="s">
-        <v>889</v>
+        <v>1389</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>1200</v>
+        <v>755</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>1300</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="0" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>843</v>
+        <v>1200</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="0" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>843</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>1274</v>
+        <v>1200</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>1300</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="0" t="s">
-        <v>872</v>
+        <v>890</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>1201</v>
+        <v>843</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="0" t="s">
-        <v>873</v>
+        <v>892</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>1202</v>
+        <v>843</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>1274</v>
@@ -10764,10 +10779,10 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="0" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>1274</v>
@@ -10775,10 +10790,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="0" t="s">
-        <v>957</v>
+        <v>873</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>688</v>
+        <v>1202</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>1274</v>
@@ -10786,10 +10801,10 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="0" t="s">
-        <v>920</v>
+        <v>881</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>690</v>
+        <v>1203</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>1274</v>
@@ -10797,10 +10812,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="0" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>1204</v>
+        <v>688</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>1274</v>
@@ -10808,10 +10823,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="0" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>1205</v>
+        <v>690</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>1274</v>
@@ -10819,21 +10834,21 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="0" t="s">
-        <v>939</v>
+        <v>956</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="0" t="s">
-        <v>875</v>
+        <v>925</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>620</v>
+        <v>1205</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>1274</v>
@@ -10841,21 +10856,21 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="0" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="0" t="s">
-        <v>946</v>
+        <v>875</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>1208</v>
+        <v>620</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>1274</v>
@@ -10863,54 +10878,54 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="0" t="s">
-        <v>1294</v>
+        <v>935</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>1296</v>
+        <v>1207</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>1282</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="0" t="s">
-        <v>1295</v>
+        <v>946</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>1297</v>
+        <v>1208</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1282</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="0" t="s">
-        <v>1313</v>
+        <v>1294</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>1314</v>
+        <v>1296</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1300</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="0" t="s">
-        <v>1317</v>
+        <v>1295</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>1318</v>
+        <v>1297</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1300</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="0" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>1300</v>
@@ -10918,43 +10933,43 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="0" t="s">
-        <v>991</v>
+        <v>1317</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>695</v>
+        <v>1318</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1275</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="0" t="s">
-        <v>943</v>
+        <v>1315</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>1209</v>
+        <v>1316</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1274</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="0" t="s">
-        <v>927</v>
+        <v>991</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>1210</v>
+        <v>695</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="0" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>700</v>
+        <v>1209</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>1274</v>
@@ -10962,21 +10977,21 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="0" t="s">
-        <v>1408</v>
+        <v>927</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>1411</v>
-      </c>
-      <c r="C101" s="0" t="s">
-        <v>1414</v>
+        <v>1210</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="0" t="s">
-        <v>960</v>
+        <v>947</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>1274</v>
@@ -10984,32 +10999,32 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="0" t="s">
-        <v>980</v>
+        <v>1408</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>1274</v>
+        <v>1411</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>1414</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="0" t="s">
-        <v>941</v>
+        <v>960</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>1212</v>
+        <v>701</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="0" t="s">
-        <v>955</v>
+        <v>980</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>1274</v>
@@ -11017,21 +11032,21 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="0" t="s">
-        <v>893</v>
+        <v>941</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="0" t="s">
-        <v>894</v>
+        <v>955</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>1184</v>
+        <v>1213</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>1274</v>
@@ -11039,10 +11054,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="0" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>540</v>
+        <v>1214</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>1274</v>
@@ -11050,21 +11065,21 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="0" t="s">
-        <v>950</v>
+        <v>894</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>1215</v>
+        <v>1184</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="0" t="s">
-        <v>990</v>
+        <v>895</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>1216</v>
+        <v>540</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>1274</v>
@@ -11072,21 +11087,21 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="0" t="s">
-        <v>897</v>
+        <v>950</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>1271</v>
+        <v>1215</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="0" t="s">
-        <v>860</v>
+        <v>990</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>1274</v>
@@ -11094,10 +11109,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="0" t="s">
-        <v>1001</v>
+        <v>897</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>1218</v>
+        <v>1271</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>1274</v>
@@ -11105,21 +11120,21 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="0" t="s">
-        <v>1000</v>
+        <v>860</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="0" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>755</v>
+        <v>1218</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>1274</v>
@@ -11127,21 +11142,21 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="0" t="s">
-        <v>923</v>
+        <v>1000</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="0" t="s">
-        <v>996</v>
+        <v>1005</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>1222</v>
+        <v>755</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>1274</v>
@@ -11149,10 +11164,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="0" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>1274</v>
@@ -11160,10 +11175,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="0" t="s">
-        <v>869</v>
+        <v>996</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>1274</v>
@@ -11171,21 +11186,21 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="0" t="s">
-        <v>1386</v>
+        <v>921</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C120" s="0" t="s">
-        <v>1300</v>
+        <v>1223</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="0" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>1197</v>
+        <v>1224</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>1274</v>
@@ -11193,32 +11208,32 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="0" t="s">
-        <v>992</v>
+        <v>1386</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>1225</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>1274</v>
+        <v>1286</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>1300</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="0" t="s">
-        <v>998</v>
+        <v>870</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>562</v>
+        <v>1197</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="0" t="s">
-        <v>864</v>
+        <v>992</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>1274</v>
@@ -11226,10 +11241,10 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="0" t="s">
-        <v>862</v>
+        <v>998</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>1227</v>
+        <v>562</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>1275</v>
@@ -11237,10 +11252,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="0" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>1274</v>
@@ -11248,21 +11263,21 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="0" t="s">
-        <v>900</v>
+        <v>862</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>720</v>
+        <v>1227</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="0" t="s">
-        <v>934</v>
+        <v>863</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>1274</v>
@@ -11270,10 +11285,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="0" t="s">
-        <v>928</v>
+        <v>900</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>1230</v>
+        <v>720</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>1274</v>
@@ -11281,10 +11296,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="0" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>593</v>
+        <v>1229</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>1274</v>
@@ -11292,10 +11307,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="0" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>1274</v>
@@ -11303,10 +11318,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="0" t="s">
-        <v>944</v>
+        <v>930</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>1232</v>
+        <v>593</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>1274</v>
@@ -11314,10 +11329,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="0" t="s">
-        <v>871</v>
+        <v>931</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>1274</v>
@@ -11325,21 +11340,21 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="0" t="s">
-        <v>858</v>
+        <v>944</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="0" t="s">
-        <v>857</v>
+        <v>871</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>1274</v>
@@ -11347,54 +11362,54 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="0" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>553</v>
+        <v>1234</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="0" t="s">
-        <v>1298</v>
+        <v>857</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>1299</v>
+        <v>1235</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1300</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="0" t="s">
-        <v>905</v>
+        <v>859</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>1236</v>
+        <v>553</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="0" t="s">
-        <v>907</v>
+        <v>1298</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>1237</v>
+        <v>1299</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1282</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="0" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>1275</v>
@@ -11402,21 +11417,21 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="0" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1275</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="0" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>1275</v>
@@ -11424,10 +11439,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="0" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>1275</v>
@@ -11435,10 +11450,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="0" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>1275</v>
@@ -11446,10 +11461,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="0" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>1275</v>
@@ -11457,10 +11472,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="0" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>1275</v>
@@ -11468,10 +11483,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="0" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>1275</v>
@@ -11479,32 +11494,32 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="0" t="s">
-        <v>985</v>
+        <v>915</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="0" t="s">
-        <v>964</v>
+        <v>911</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="0" t="s">
-        <v>948</v>
+        <v>985</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>1274</v>
@@ -11512,10 +11527,10 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="0" t="s">
-        <v>886</v>
+        <v>964</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>1274</v>
@@ -11523,10 +11538,10 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="0" t="s">
-        <v>978</v>
+        <v>948</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>555</v>
+        <v>1248</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>1274</v>
@@ -11534,10 +11549,10 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="0" t="s">
-        <v>979</v>
+        <v>886</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>555</v>
+        <v>1249</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>1274</v>
@@ -11545,21 +11560,21 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="0" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B154" s="0" t="s">
         <v>555</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>1300</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="0" t="s">
-        <v>898</v>
+        <v>979</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>1272</v>
+        <v>555</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>1274</v>
@@ -11567,21 +11582,21 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="0" t="s">
-        <v>865</v>
+        <v>977</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>1252</v>
+        <v>555</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>1274</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="0" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>1253</v>
+        <v>1272</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>1274</v>
@@ -11589,76 +11604,76 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="0" t="s">
-        <v>906</v>
+        <v>865</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="0" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>595</v>
+        <v>1253</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="0" t="s">
-        <v>1283</v>
+        <v>906</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C160" s="0" t="s">
-        <v>1282</v>
+        <v>1254</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>1275</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="0" t="s">
-        <v>861</v>
+        <v>904</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>1255</v>
+        <v>595</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="0" t="s">
-        <v>954</v>
+        <v>1283</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>737</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>1274</v>
+        <v>1284</v>
+      </c>
+      <c r="C162" s="0" t="s">
+        <v>1282</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="0" t="s">
-        <v>932</v>
+        <v>861</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="0" t="s">
-        <v>933</v>
+        <v>954</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>1229</v>
+        <v>737</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>1274</v>
@@ -11666,10 +11681,10 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="0" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>1275</v>
@@ -11677,10 +11692,10 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="0" t="s">
-        <v>891</v>
+        <v>933</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>1258</v>
+        <v>1229</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>1274</v>
@@ -11688,10 +11703,10 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="0" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>1275</v>
@@ -11699,54 +11714,54 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="0" t="s">
-        <v>926</v>
+        <v>891</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="0" t="s">
-        <v>958</v>
+        <v>940</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="0" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="0" t="s">
-        <v>1409</v>
+        <v>958</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>1412</v>
-      </c>
-      <c r="C171" s="0" t="s">
-        <v>1414</v>
+        <v>1261</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="0" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>1274</v>
@@ -11754,21 +11769,21 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="0" t="s">
-        <v>874</v>
+        <v>1409</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>1225</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>1274</v>
+        <v>1412</v>
+      </c>
+      <c r="C173" s="0" t="s">
+        <v>1414</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="0" t="s">
-        <v>963</v>
+        <v>916</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>1268</v>
+        <v>1263</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>1274</v>
@@ -11776,10 +11791,10 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="0" t="s">
-        <v>962</v>
+        <v>874</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>1269</v>
+        <v>1225</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>1274</v>
@@ -11787,10 +11802,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="0" t="s">
-        <v>936</v>
+        <v>963</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>1274</v>
@@ -11798,19 +11813,41 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="0" t="s">
         <v>937</v>
       </c>
-      <c r="B177" s="0" t="s">
+      <c r="B179" s="0" t="s">
         <v>1270</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="C179" s="1" t="s">
         <v>1414</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D164">
-    <sortState ref="A2:D177">
-      <sortCondition ref="A2:A177"/>
+    <sortState ref="A2:D179">
+      <sortCondition ref="A2:A179"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="190" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="180" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="1495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="1497">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4518,6 +4518,12 @@
   </si>
   <si>
     <t>중국 국민당</t>
+  </si>
+  <si>
+    <t>등장</t>
+  </si>
+  <si>
+    <t>등정</t>
   </si>
 </sst>
 </file>
@@ -5312,7 +5318,7 @@
   <dimension ref="A1:E265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+      <selection activeCell="C180" sqref="C180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -6797,7 +6803,7 @@
         <v>674</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>1333</v>
+        <v>1495</v>
       </c>
       <c r="E87" s="0" t="s">
         <v>1341</v>
@@ -7766,7 +7772,7 @@
         <v>695</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>1351</v>
+        <v>1495</v>
       </c>
       <c r="E144" s="0" t="s">
         <v>1478</v>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="180" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="170" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="1497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="1498">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4524,6 +4524,9 @@
   </si>
   <si>
     <t>등정</t>
+  </si>
+  <si>
+    <t>미등장</t>
   </si>
 </sst>
 </file>
@@ -5317,8 +5320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C180" sqref="C180"/>
+    <sheetView topLeftCell="A22" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5347,7 +5350,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.500000" hidden="1">
+    <row r="2" spans="1:5">
       <c r="A2" s="0" t="s">
         <v>60</v>
       </c>
@@ -5381,7 +5384,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.500000" hidden="1">
+    <row r="4" spans="1:5">
       <c r="A4" s="0" t="s">
         <v>177</v>
       </c>
@@ -5398,7 +5401,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.500000" hidden="1">
+    <row r="5" spans="1:5">
       <c r="A5" s="0" t="s">
         <v>179</v>
       </c>
@@ -5432,7 +5435,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.500000" hidden="1">
+    <row r="7" spans="1:5">
       <c r="A7" s="0" t="s">
         <v>181</v>
       </c>
@@ -5466,7 +5469,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.500000" hidden="1">
+    <row r="9" spans="1:5">
       <c r="A9" s="0" t="s">
         <v>477</v>
       </c>
@@ -5477,13 +5480,13 @@
         <v>782</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>1339</v>
+        <v>1497</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16.500000" hidden="1">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="0" t="s">
         <v>62</v>
       </c>
@@ -5500,7 +5503,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.500000" hidden="1">
+    <row r="11" spans="1:5">
       <c r="A11" s="0" t="s">
         <v>183</v>
       </c>
@@ -5517,7 +5520,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.500000" hidden="1">
+    <row r="12" spans="1:5">
       <c r="A12" s="0" t="s">
         <v>64</v>
       </c>
@@ -5534,7 +5537,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16.500000" hidden="1">
+    <row r="13" spans="1:5">
       <c r="A13" s="0" t="s">
         <v>20</v>
       </c>
@@ -5551,7 +5554,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16.500000" hidden="1">
+    <row r="14" spans="1:5">
       <c r="A14" s="0" t="s">
         <v>185</v>
       </c>
@@ -5636,7 +5639,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16.500000" hidden="1">
+    <row r="19" spans="1:5">
       <c r="A19" s="0" t="s">
         <v>189</v>
       </c>
@@ -5653,7 +5656,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16.500000" hidden="1">
+    <row r="20" spans="1:5">
       <c r="A20" s="0" t="s">
         <v>12</v>
       </c>
@@ -5687,7 +5690,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16.500000" hidden="1">
+    <row r="22" spans="1:5">
       <c r="A22" s="0" t="s">
         <v>193</v>
       </c>
@@ -5738,7 +5741,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16.500000" hidden="1">
+    <row r="25" spans="1:5">
       <c r="A25" s="0" t="s">
         <v>68</v>
       </c>
@@ -5789,7 +5792,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16.500000" hidden="1">
+    <row r="28" spans="1:5">
       <c r="A28" s="0" t="s">
         <v>199</v>
       </c>
@@ -5806,7 +5809,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16.500000" hidden="1">
+    <row r="29" spans="1:5">
       <c r="A29" s="0" t="s">
         <v>201</v>
       </c>
@@ -5823,7 +5826,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="16.500000" hidden="1">
+    <row r="30" spans="1:5">
       <c r="A30" s="0" t="s">
         <v>70</v>
       </c>
@@ -5857,7 +5860,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="16.500000" hidden="1">
+    <row r="32" spans="1:5">
       <c r="A32" s="0" t="s">
         <v>203</v>
       </c>
@@ -5908,7 +5911,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="16.500000" hidden="1">
+    <row r="35" spans="1:5">
       <c r="A35" s="0" t="s">
         <v>205</v>
       </c>
@@ -5925,7 +5928,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="16.500000" hidden="1">
+    <row r="36" spans="1:5">
       <c r="A36" s="0" t="s">
         <v>207</v>
       </c>
@@ -5942,7 +5945,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="16.500000" hidden="1">
+    <row r="37" spans="1:5">
       <c r="A37" s="0" t="s">
         <v>209</v>
       </c>
@@ -5959,7 +5962,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16.500000" hidden="1">
+    <row r="38" spans="1:5">
       <c r="A38" s="0" t="s">
         <v>211</v>
       </c>
@@ -5976,7 +5979,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="16.500000" hidden="1">
+    <row r="39" spans="1:5">
       <c r="A39" s="0" t="s">
         <v>72</v>
       </c>
@@ -5993,7 +5996,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="16.500000" hidden="1">
+    <row r="40" spans="1:5">
       <c r="A40" s="0" t="s">
         <v>213</v>
       </c>
@@ -6027,7 +6030,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.500000" hidden="1">
+    <row r="42" spans="1:5">
       <c r="A42" s="0" t="s">
         <v>217</v>
       </c>
@@ -6044,7 +6047,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16.500000" hidden="1">
+    <row r="43" spans="1:5">
       <c r="A43" s="0" t="s">
         <v>1323</v>
       </c>
@@ -6061,7 +6064,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="16.500000" hidden="1">
+    <row r="44" spans="1:5">
       <c r="A44" s="0" t="s">
         <v>219</v>
       </c>
@@ -6095,7 +6098,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16.500000" hidden="1">
+    <row r="46" spans="1:5">
       <c r="A46" s="0" t="s">
         <v>479</v>
       </c>
@@ -6112,7 +6115,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16.500000" hidden="1">
+    <row r="47" spans="1:5">
       <c r="A47" s="0" t="s">
         <v>74</v>
       </c>
@@ -6146,7 +6149,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16.500000" hidden="1">
+    <row r="49" spans="1:5">
       <c r="A49" s="0" t="s">
         <v>225</v>
       </c>
@@ -6197,7 +6200,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="16.500000" hidden="1">
+    <row r="52" spans="1:5">
       <c r="A52" s="0" t="s">
         <v>76</v>
       </c>
@@ -6214,7 +6217,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16.500000" hidden="1">
+    <row r="53" spans="1:5">
       <c r="A53" s="0" t="s">
         <v>78</v>
       </c>
@@ -6231,7 +6234,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="16.500000" hidden="1">
+    <row r="54" spans="1:5">
       <c r="A54" s="0" t="s">
         <v>144</v>
       </c>
@@ -6248,7 +6251,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="16.500000" hidden="1">
+    <row r="55" spans="1:5">
       <c r="A55" s="0" t="s">
         <v>229</v>
       </c>
@@ -6265,7 +6268,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="16.500000" hidden="1">
+    <row r="56" spans="1:5">
       <c r="A56" s="0" t="s">
         <v>130</v>
       </c>
@@ -6316,7 +6319,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="16.500000" hidden="1">
+    <row r="59" spans="1:5">
       <c r="A59" s="0" t="s">
         <v>16</v>
       </c>
@@ -6333,7 +6336,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="16.500000" hidden="1">
+    <row r="60" spans="1:5">
       <c r="A60" s="0" t="s">
         <v>447</v>
       </c>
@@ -6350,7 +6353,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="16.500000" hidden="1">
+    <row r="61" spans="1:5">
       <c r="A61" s="0" t="s">
         <v>168</v>
       </c>
@@ -6367,7 +6370,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="16.500000" hidden="1">
+    <row r="62" spans="1:5">
       <c r="A62" s="0" t="s">
         <v>235</v>
       </c>
@@ -6418,7 +6421,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="16.500000" hidden="1">
+    <row r="65" spans="1:5">
       <c r="A65" s="0" t="s">
         <v>239</v>
       </c>
@@ -6435,7 +6438,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="16.500000" hidden="1">
+    <row r="66" spans="1:5">
       <c r="A66" s="0" t="s">
         <v>132</v>
       </c>
@@ -6452,7 +6455,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="16.500000" hidden="1">
+    <row r="67" spans="1:5">
       <c r="A67" s="0" t="s">
         <v>80</v>
       </c>
@@ -6469,7 +6472,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="16.500000" hidden="1">
+    <row r="68" spans="1:5">
       <c r="A68" s="0" t="s">
         <v>158</v>
       </c>
@@ -6486,7 +6489,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="16.500000" hidden="1">
+    <row r="69" spans="1:5">
       <c r="A69" s="0" t="s">
         <v>170</v>
       </c>
@@ -6537,7 +6540,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="16.500000" hidden="1">
+    <row r="72" spans="1:5">
       <c r="A72" s="0" t="s">
         <v>241</v>
       </c>
@@ -6571,7 +6574,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="16.500000" hidden="1">
+    <row r="74" spans="1:5">
       <c r="A74" s="0" t="s">
         <v>24</v>
       </c>
@@ -6588,7 +6591,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="16.500000" hidden="1">
+    <row r="75" spans="1:5">
       <c r="A75" s="0" t="s">
         <v>82</v>
       </c>
@@ -6639,7 +6642,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="16.500000" hidden="1">
+    <row r="78" spans="1:5">
       <c r="A78" s="0" t="s">
         <v>247</v>
       </c>
@@ -6690,7 +6693,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="16.500000" hidden="1">
+    <row r="81" spans="1:5">
       <c r="A81" s="0" t="s">
         <v>249</v>
       </c>
@@ -6724,7 +6727,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="16.500000" hidden="1">
+    <row r="83" spans="1:5">
       <c r="A83" s="0" t="s">
         <v>253</v>
       </c>
@@ -6758,7 +6761,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="16.500000" hidden="1">
+    <row r="85" spans="1:5">
       <c r="A85" s="0" t="s">
         <v>257</v>
       </c>
@@ -6775,7 +6778,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="16.500000" hidden="1">
+    <row r="86" spans="1:5">
       <c r="A86" s="0" t="s">
         <v>259</v>
       </c>
@@ -6792,7 +6795,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="16.500000" hidden="1">
+    <row r="87" spans="1:5">
       <c r="A87" s="0" t="s">
         <v>261</v>
       </c>
@@ -6809,7 +6812,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="16.500000" hidden="1">
+    <row r="88" spans="1:5">
       <c r="A88" s="0" t="s">
         <v>263</v>
       </c>
@@ -6843,7 +6846,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="16.500000" hidden="1">
+    <row r="90" spans="1:5">
       <c r="A90" s="0" t="s">
         <v>273</v>
       </c>
@@ -6894,7 +6897,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="16.500000" hidden="1">
+    <row r="93" spans="1:5">
       <c r="A93" s="0" t="s">
         <v>269</v>
       </c>
@@ -6945,7 +6948,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="16.500000" hidden="1">
+    <row r="96" spans="1:5">
       <c r="A96" s="0" t="s">
         <v>271</v>
       </c>
@@ -6962,7 +6965,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="16.500000" hidden="1">
+    <row r="97" spans="1:5">
       <c r="A97" s="0" t="s">
         <v>84</v>
       </c>
@@ -6996,7 +6999,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="16.500000" hidden="1">
+    <row r="99" spans="1:5">
       <c r="A99" s="0" t="s">
         <v>134</v>
       </c>
@@ -7013,7 +7016,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="16.500000" hidden="1">
+    <row r="100" spans="1:5">
       <c r="A100" s="0" t="s">
         <v>443</v>
       </c>
@@ -7030,7 +7033,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="16.500000" hidden="1">
+    <row r="101" spans="1:5">
       <c r="A101" s="0" t="s">
         <v>275</v>
       </c>
@@ -7081,7 +7084,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="16.500000" hidden="1">
+    <row r="104" spans="1:5">
       <c r="A104" s="0" t="s">
         <v>1481</v>
       </c>
@@ -7115,7 +7118,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="16.500000" hidden="1">
+    <row r="106" spans="1:5">
       <c r="A106" s="0" t="s">
         <v>152</v>
       </c>
@@ -7132,7 +7135,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="16.500000" hidden="1">
+    <row r="107" spans="1:5">
       <c r="A107" s="0" t="s">
         <v>86</v>
       </c>
@@ -7166,7 +7169,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="16.500000" hidden="1">
+    <row r="109" spans="1:5">
       <c r="A109" s="0" t="s">
         <v>279</v>
       </c>
@@ -7183,7 +7186,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="16.500000" hidden="1">
+    <row r="110" spans="1:5">
       <c r="A110" s="0" t="s">
         <v>281</v>
       </c>
@@ -7251,7 +7254,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="16.500000" hidden="1">
+    <row r="114" spans="1:5">
       <c r="A114" s="0" t="s">
         <v>30</v>
       </c>
@@ -7268,7 +7271,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="16.500000" hidden="1">
+    <row r="115" spans="1:5">
       <c r="A115" s="0" t="s">
         <v>90</v>
       </c>
@@ -7285,7 +7288,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="16.500000" hidden="1">
+    <row r="116" spans="1:5">
       <c r="A116" s="0" t="s">
         <v>285</v>
       </c>
@@ -7302,7 +7305,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="16.500000" hidden="1">
+    <row r="117" spans="1:5">
       <c r="A117" s="0" t="s">
         <v>88</v>
       </c>
@@ -7319,7 +7322,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="16.500000" hidden="1">
+    <row r="118" spans="1:5">
       <c r="A118" s="0" t="s">
         <v>510</v>
       </c>
@@ -7336,7 +7339,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="16.500000" hidden="1">
+    <row r="119" spans="1:5">
       <c r="A119" s="0" t="s">
         <v>154</v>
       </c>
@@ -7370,7 +7373,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="16.500000" hidden="1">
+    <row r="121" spans="1:5">
       <c r="A121" s="0" t="s">
         <v>287</v>
       </c>
@@ -7387,7 +7390,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="16.500000" hidden="1">
+    <row r="122" spans="1:5">
       <c r="A122" s="0" t="s">
         <v>92</v>
       </c>
@@ -7421,7 +7424,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="16.500000" hidden="1">
+    <row r="124" spans="1:5">
       <c r="A124" s="0" t="s">
         <v>289</v>
       </c>
@@ -7438,7 +7441,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="16.500000" hidden="1">
+    <row r="125" spans="1:5">
       <c r="A125" s="0" t="s">
         <v>518</v>
       </c>
@@ -7455,7 +7458,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="16.500000" hidden="1">
+    <row r="126" spans="1:5">
       <c r="A126" s="0" t="s">
         <v>293</v>
       </c>
@@ -7472,7 +7475,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="16.500000" hidden="1">
+    <row r="127" spans="1:5">
       <c r="A127" s="0" t="s">
         <v>26</v>
       </c>
@@ -7489,7 +7492,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="16.500000" hidden="1">
+    <row r="128" spans="1:5">
       <c r="A128" s="0" t="s">
         <v>291</v>
       </c>
@@ -7506,7 +7509,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="16.500000" hidden="1">
+    <row r="129" spans="1:5">
       <c r="A129" s="0" t="s">
         <v>297</v>
       </c>
@@ -7540,7 +7543,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="16.500000" hidden="1">
+    <row r="131" spans="1:5">
       <c r="A131" s="0" t="s">
         <v>522</v>
       </c>
@@ -7591,7 +7594,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="16.500000" hidden="1">
+    <row r="134" spans="1:5">
       <c r="A134" s="0" t="s">
         <v>10</v>
       </c>
@@ -7608,7 +7611,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="16.500000" hidden="1">
+    <row r="135" spans="1:5">
       <c r="A135" s="0" t="s">
         <v>299</v>
       </c>
@@ -7642,7 +7645,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="16.500000" hidden="1">
+    <row r="137" spans="1:5">
       <c r="A137" s="0" t="s">
         <v>295</v>
       </c>
@@ -7676,7 +7679,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="16.500000" hidden="1">
+    <row r="139" spans="1:5">
       <c r="A139" s="0" t="s">
         <v>499</v>
       </c>
@@ -7710,7 +7713,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="16.500000" hidden="1">
+    <row r="141" spans="1:5">
       <c r="A141" s="0" t="s">
         <v>309</v>
       </c>
@@ -7744,7 +7747,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="16.500000" hidden="1">
+    <row r="143" spans="1:5">
       <c r="A143" s="0" t="s">
         <v>94</v>
       </c>
@@ -7761,7 +7764,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="16.500000" hidden="1">
+    <row r="144" spans="1:5">
       <c r="A144" s="0" t="s">
         <v>303</v>
       </c>
@@ -7778,7 +7781,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="16.500000" hidden="1">
+    <row r="145" spans="1:5">
       <c r="A145" s="0" t="s">
         <v>311</v>
       </c>
@@ -7812,7 +7815,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="16.500000" hidden="1">
+    <row r="147" spans="1:5">
       <c r="A147" s="0" t="s">
         <v>124</v>
       </c>
@@ -7829,7 +7832,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="16.500000" hidden="1">
+    <row r="148" spans="1:5">
       <c r="A148" s="0" t="s">
         <v>453</v>
       </c>
@@ -7846,7 +7849,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="16.500000" hidden="1">
+    <row r="149" spans="1:5">
       <c r="A149" s="0" t="s">
         <v>1403</v>
       </c>
@@ -7863,7 +7866,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="16.500000" hidden="1">
+    <row r="150" spans="1:5">
       <c r="A150" s="0" t="s">
         <v>313</v>
       </c>
@@ -7897,7 +7900,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="16.500000" hidden="1">
+    <row r="152" spans="1:5">
       <c r="A152" s="0" t="s">
         <v>319</v>
       </c>
@@ -7965,7 +7968,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="16.500000" hidden="1">
+    <row r="156" spans="1:5">
       <c r="A156" s="0" t="s">
         <v>325</v>
       </c>
@@ -7982,7 +7985,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="16.500000" hidden="1">
+    <row r="157" spans="1:5">
       <c r="A157" s="0" t="s">
         <v>96</v>
       </c>
@@ -8016,7 +8019,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="16.500000" hidden="1">
+    <row r="159" spans="1:5">
       <c r="A159" s="0" t="s">
         <v>315</v>
       </c>
@@ -8033,7 +8036,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="16.500000" hidden="1">
+    <row r="160" spans="1:5">
       <c r="A160" s="0" t="s">
         <v>331</v>
       </c>
@@ -8050,7 +8053,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="16.500000" hidden="1">
+    <row r="161" spans="1:5">
       <c r="A161" s="0" t="s">
         <v>329</v>
       </c>
@@ -8067,7 +8070,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="16.500000" hidden="1">
+    <row r="162" spans="1:5">
       <c r="A162" s="0" t="s">
         <v>333</v>
       </c>
@@ -8101,7 +8104,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="16.500000" hidden="1">
+    <row r="164" spans="1:5">
       <c r="A164" s="0" t="s">
         <v>335</v>
       </c>
@@ -8135,7 +8138,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="16.500000" hidden="1">
+    <row r="166" spans="1:5">
       <c r="A166" s="0" t="s">
         <v>337</v>
       </c>
@@ -8152,7 +8155,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="16.500000" hidden="1">
+    <row r="167" spans="1:5">
       <c r="A167" s="0" t="s">
         <v>140</v>
       </c>
@@ -8169,7 +8172,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="16.500000" hidden="1">
+    <row r="168" spans="1:5">
       <c r="A168" s="0" t="s">
         <v>339</v>
       </c>
@@ -8186,7 +8189,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="16.500000" hidden="1">
+    <row r="169" spans="1:5">
       <c r="A169" s="0" t="s">
         <v>98</v>
       </c>
@@ -8203,7 +8206,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="16.500000" hidden="1">
+    <row r="170" spans="1:5">
       <c r="A170" s="0" t="s">
         <v>439</v>
       </c>
@@ -8220,7 +8223,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="16.500000" hidden="1">
+    <row r="171" spans="1:5">
       <c r="A171" s="0" t="s">
         <v>162</v>
       </c>
@@ -8254,7 +8257,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="16.500000" hidden="1">
+    <row r="173" spans="1:5">
       <c r="A173" s="0" t="s">
         <v>172</v>
       </c>
@@ -8271,7 +8274,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="16.500000" hidden="1">
+    <row r="174" spans="1:5">
       <c r="A174" s="0" t="s">
         <v>102</v>
       </c>
@@ -8288,7 +8291,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="16.500000" hidden="1">
+    <row r="175" spans="1:5">
       <c r="A175" s="0" t="s">
         <v>174</v>
       </c>
@@ -8322,7 +8325,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="16.500000" hidden="1">
+    <row r="177" spans="1:5">
       <c r="A177" s="0" t="s">
         <v>501</v>
       </c>
@@ -8390,7 +8393,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="16.500000" hidden="1">
+    <row r="181" spans="1:5">
       <c r="A181" s="0" t="s">
         <v>146</v>
       </c>
@@ -8407,7 +8410,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="16.500000" hidden="1">
+    <row r="182" spans="1:5">
       <c r="A182" s="0" t="s">
         <v>345</v>
       </c>
@@ -8424,7 +8427,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="16.500000" hidden="1">
+    <row r="183" spans="1:5">
       <c r="A183" s="0" t="s">
         <v>128</v>
       </c>
@@ -8441,7 +8444,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="16.500000" hidden="1">
+    <row r="184" spans="1:5">
       <c r="A184" s="0" t="s">
         <v>104</v>
       </c>
@@ -8458,7 +8461,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="16.500000" hidden="1">
+    <row r="185" spans="1:5">
       <c r="A185" s="0" t="s">
         <v>1324</v>
       </c>
@@ -8492,7 +8495,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="16.500000" hidden="1">
+    <row r="187" spans="1:5">
       <c r="A187" s="0" t="s">
         <v>487</v>
       </c>
@@ -8509,7 +8512,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="16.500000" hidden="1">
+    <row r="188" spans="1:5">
       <c r="A188" s="0" t="s">
         <v>506</v>
       </c>
@@ -8526,7 +8529,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="16.500000" hidden="1">
+    <row r="189" spans="1:5">
       <c r="A189" s="0" t="s">
         <v>142</v>
       </c>
@@ -8560,7 +8563,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="16.500000" hidden="1">
+    <row r="191" spans="1:5">
       <c r="A191" s="0" t="s">
         <v>32</v>
       </c>
@@ -8594,7 +8597,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="16.500000" hidden="1">
+    <row r="193" spans="1:5">
       <c r="A193" s="0" t="s">
         <v>351</v>
       </c>
@@ -8611,7 +8614,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="16.500000" hidden="1">
+    <row r="194" spans="1:5">
       <c r="A194" s="0" t="s">
         <v>347</v>
       </c>
@@ -8628,7 +8631,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="16.500000" hidden="1">
+    <row r="195" spans="1:5">
       <c r="A195" s="0" t="s">
         <v>495</v>
       </c>
@@ -8645,7 +8648,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="16.500000" hidden="1">
+    <row r="196" spans="1:5">
       <c r="A196" s="0" t="s">
         <v>106</v>
       </c>
@@ -8679,7 +8682,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="16.500000" hidden="1">
+    <row r="198" spans="1:5">
       <c r="A198" s="0" t="s">
         <v>108</v>
       </c>
@@ -8696,7 +8699,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="16.500000" hidden="1">
+    <row r="199" spans="1:5">
       <c r="A199" s="0" t="s">
         <v>355</v>
       </c>
@@ -8730,7 +8733,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="16.500000" hidden="1">
+    <row r="201" spans="1:5">
       <c r="A201" s="0" t="s">
         <v>357</v>
       </c>
@@ -8764,7 +8767,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="16.500000" hidden="1">
+    <row r="203" spans="1:5">
       <c r="A203" s="0" t="s">
         <v>36</v>
       </c>
@@ -8781,7 +8784,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="16.500000" hidden="1">
+    <row r="204" spans="1:5">
       <c r="A204" s="0" t="s">
         <v>514</v>
       </c>
@@ -8815,7 +8818,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="16.500000" hidden="1">
+    <row r="206" spans="1:5">
       <c r="A206" s="0" t="s">
         <v>110</v>
       </c>
@@ -8849,7 +8852,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="16.500000" hidden="1">
+    <row r="208" spans="1:5">
       <c r="A208" s="0" t="s">
         <v>363</v>
       </c>
@@ -8883,7 +8886,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="16.500000" hidden="1">
+    <row r="210" spans="1:5">
       <c r="A210" s="0" t="s">
         <v>112</v>
       </c>
@@ -8900,7 +8903,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="16.500000" hidden="1">
+    <row r="211" spans="1:5">
       <c r="A211" s="0" t="s">
         <v>367</v>
       </c>
@@ -8917,7 +8920,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="16.500000" hidden="1">
+    <row r="212" spans="1:5">
       <c r="A212" s="0" t="s">
         <v>369</v>
       </c>
@@ -8934,7 +8937,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="16.500000" hidden="1">
+    <row r="213" spans="1:5">
       <c r="A213" s="0" t="s">
         <v>4</v>
       </c>
@@ -8968,7 +8971,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="16.500000" hidden="1">
+    <row r="215" spans="1:5">
       <c r="A215" s="0" t="s">
         <v>28</v>
       </c>
@@ -8985,7 +8988,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="16.500000" hidden="1">
+    <row r="216" spans="1:5">
       <c r="A216" s="0" t="s">
         <v>489</v>
       </c>
@@ -9002,7 +9005,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="16.500000" hidden="1">
+    <row r="217" spans="1:5">
       <c r="A217" s="0" t="s">
         <v>418</v>
       </c>
@@ -9019,7 +9022,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="16.500000" hidden="1">
+    <row r="218" spans="1:5">
       <c r="A218" s="0" t="s">
         <v>371</v>
       </c>
@@ -9036,7 +9039,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="16.500000" hidden="1">
+    <row r="219" spans="1:5">
       <c r="A219" s="0" t="s">
         <v>373</v>
       </c>
@@ -9104,7 +9107,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="16.500000" hidden="1">
+    <row r="223" spans="1:5">
       <c r="A223" s="0" t="s">
         <v>138</v>
       </c>
@@ -9121,7 +9124,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="16.500000" hidden="1">
+    <row r="224" spans="1:5">
       <c r="A224" s="0" t="s">
         <v>455</v>
       </c>
@@ -9155,7 +9158,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="16.500000" hidden="1">
+    <row r="226" spans="1:5">
       <c r="A226" s="0" t="s">
         <v>493</v>
       </c>
@@ -9172,7 +9175,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="16.500000" hidden="1">
+    <row r="227" spans="1:5">
       <c r="A227" s="0" t="s">
         <v>504</v>
       </c>
@@ -9203,7 +9206,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="16.500000" hidden="1">
+    <row r="229" spans="1:5">
       <c r="A229" s="0" t="s">
         <v>156</v>
       </c>
@@ -9220,7 +9223,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="16.500000" hidden="1">
+    <row r="230" spans="1:5">
       <c r="A230" s="0" t="s">
         <v>114</v>
       </c>
@@ -9237,7 +9240,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="16.500000" hidden="1">
+    <row r="231" spans="1:5">
       <c r="A231" s="0" t="s">
         <v>377</v>
       </c>
@@ -9271,7 +9274,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="16.500000" hidden="1">
+    <row r="233" spans="1:5">
       <c r="A233" s="0" t="s">
         <v>1419</v>
       </c>
@@ -9288,7 +9291,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="16.500000" hidden="1">
+    <row r="234" spans="1:5">
       <c r="A234" s="0" t="s">
         <v>381</v>
       </c>
@@ -9339,7 +9342,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="16.500000" hidden="1">
+    <row r="237" spans="1:5">
       <c r="A237" s="0" t="s">
         <v>379</v>
       </c>
@@ -9356,7 +9359,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="16.500000" hidden="1">
+    <row r="238" spans="1:5">
       <c r="A238" s="0" t="s">
         <v>389</v>
       </c>
@@ -9373,7 +9376,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="16.500000" hidden="1">
+    <row r="239" spans="1:5">
       <c r="A239" s="0" t="s">
         <v>391</v>
       </c>
@@ -9407,7 +9410,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="16.500000" hidden="1">
+    <row r="241" spans="1:5">
       <c r="A241" s="0" t="s">
         <v>40</v>
       </c>
@@ -9458,7 +9461,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="16.500000" hidden="1">
+    <row r="244" spans="1:5">
       <c r="A244" s="0" t="s">
         <v>383</v>
       </c>
@@ -9475,7 +9478,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="16.500000" hidden="1">
+    <row r="245" spans="1:5">
       <c r="A245" s="0" t="s">
         <v>393</v>
       </c>
@@ -9492,7 +9495,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="16.500000" hidden="1">
+    <row r="246" spans="1:5">
       <c r="A246" s="0" t="s">
         <v>116</v>
       </c>
@@ -9509,7 +9512,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="16.500000" hidden="1">
+    <row r="247" spans="1:5">
       <c r="A247" s="0" t="s">
         <v>1405</v>
       </c>
@@ -9526,7 +9529,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="16.500000" hidden="1">
+    <row r="248" spans="1:5">
       <c r="A248" s="0" t="s">
         <v>118</v>
       </c>
@@ -9543,7 +9546,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="16.500000" hidden="1">
+    <row r="249" spans="1:5">
       <c r="A249" s="0" t="s">
         <v>399</v>
       </c>
@@ -9611,7 +9614,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="16.500000" hidden="1">
+    <row r="253" spans="1:5">
       <c r="A253" s="0" t="s">
         <v>497</v>
       </c>
@@ -9628,7 +9631,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="16.500000" hidden="1">
+    <row r="254" spans="1:5">
       <c r="A254" s="0" t="s">
         <v>403</v>
       </c>
@@ -9645,7 +9648,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="16.500000" hidden="1">
+    <row r="255" spans="1:5">
       <c r="A255" s="0" t="s">
         <v>166</v>
       </c>
@@ -9713,7 +9716,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="16.500000" hidden="1">
+    <row r="259" spans="1:5">
       <c r="A259" s="0" t="s">
         <v>136</v>
       </c>
@@ -9781,7 +9784,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="16.500000" hidden="1">
+    <row r="263" spans="1:5">
       <c r="A263" s="0" t="s">
         <v>122</v>
       </c>
@@ -9798,7 +9801,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="16.500000" hidden="1">
+    <row r="264" spans="1:5">
       <c r="A264" s="0" t="s">
         <v>516</v>
       </c>
@@ -9815,7 +9818,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="16.500000" hidden="1">
+    <row r="265" spans="1:5">
       <c r="A265" s="0" t="s">
         <v>411</v>
       </c>
@@ -9834,22 +9837,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E265">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="All"/>
-        <filter val="유럽"/>
-        <filter val="유럽(독일)"/>
-        <filter val="유럽(영국)"/>
-        <filter val="유럽(유고슬라비아)"/>
-        <filter val="유럽(이베리아)"/>
-        <filter val="유럽(이탈리아)"/>
-        <filter val="유럽(프랑스)"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="3">
       <filters>
         <filter val="All"/>
         <filter val="등장"/>
+        <filter val="미등장"/>
       </filters>
     </filterColumn>
     <sortState ref="A2:E265">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="170" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="160" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="1498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="1502">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4527,6 +4527,18 @@
   </si>
   <si>
     <t>미등장</t>
+  </si>
+  <si>
+    <t>LEC_triad</t>
+  </si>
+  <si>
+    <t>삼합회</t>
+  </si>
+  <si>
+    <t>미등장</t>
+  </si>
+  <si>
+    <t>펄스 1</t>
   </si>
 </sst>
 </file>
@@ -5320,8 +5332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E265"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -9444,7 +9456,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="16.500000" hidden="1">
+    <row r="243" spans="1:5">
       <c r="A243" s="0" t="s">
         <v>397</v>
       </c>
@@ -9455,10 +9467,10 @@
         <v>746</v>
       </c>
       <c r="D243" s="0" t="s">
-        <v>1395</v>
+        <v>1500</v>
       </c>
       <c r="E243" s="0" t="s">
-        <v>1401</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -9856,10 +9868,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D179"/>
+  <dimension ref="A1:D180"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -10832,21 +10844,21 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="0" t="s">
-        <v>956</v>
+        <v>1498</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>1274</v>
+        <v>1499</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>1414</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="0" t="s">
-        <v>925</v>
+        <v>956</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>1274</v>
@@ -10854,32 +10866,32 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="0" t="s">
-        <v>939</v>
+        <v>925</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="0" t="s">
-        <v>875</v>
+        <v>939</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>620</v>
+        <v>1206</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="0" t="s">
-        <v>935</v>
+        <v>875</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>1207</v>
+        <v>620</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>1274</v>
@@ -10887,10 +10899,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="0" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>1274</v>
@@ -10898,21 +10910,21 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="0" t="s">
-        <v>1294</v>
+        <v>946</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>1296</v>
+        <v>1208</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1282</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="0" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>1282</v>
@@ -10920,21 +10932,21 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="0" t="s">
-        <v>1313</v>
+        <v>1295</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>1314</v>
+        <v>1297</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1300</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="0" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>1300</v>
@@ -10942,10 +10954,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="0" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>1300</v>
@@ -10953,32 +10965,32 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="0" t="s">
-        <v>991</v>
+        <v>1315</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>695</v>
+        <v>1316</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>1275</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="0" t="s">
-        <v>943</v>
+        <v>991</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>1209</v>
+        <v>695</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="0" t="s">
-        <v>927</v>
+        <v>943</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>1274</v>
@@ -10986,10 +10998,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="0" t="s">
-        <v>947</v>
+        <v>927</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>700</v>
+        <v>1210</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>1274</v>
@@ -10997,32 +11009,32 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="0" t="s">
-        <v>1408</v>
+        <v>947</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>1411</v>
-      </c>
-      <c r="C103" s="0" t="s">
-        <v>1414</v>
+        <v>700</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="0" t="s">
-        <v>960</v>
+        <v>1408</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>701</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>1274</v>
+        <v>1411</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>1414</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="0" t="s">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>1211</v>
+        <v>701</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>1274</v>
@@ -11030,32 +11042,32 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="0" t="s">
-        <v>941</v>
+        <v>980</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="0" t="s">
-        <v>955</v>
+        <v>941</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="0" t="s">
-        <v>893</v>
+        <v>955</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>1274</v>
@@ -11063,10 +11075,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="0" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>1184</v>
+        <v>1214</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>1274</v>
@@ -11074,10 +11086,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="0" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>540</v>
+        <v>1184</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>1274</v>
@@ -11085,32 +11097,32 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="0" t="s">
-        <v>950</v>
+        <v>895</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>1215</v>
+        <v>540</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="0" t="s">
-        <v>990</v>
+        <v>950</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="0" t="s">
-        <v>897</v>
+        <v>990</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>1271</v>
+        <v>1216</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>1274</v>
@@ -11118,10 +11130,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="0" t="s">
-        <v>860</v>
+        <v>897</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>1217</v>
+        <v>1271</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>1274</v>
@@ -11129,10 +11141,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="0" t="s">
-        <v>1001</v>
+        <v>860</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>1274</v>
@@ -11140,32 +11152,32 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="0" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="0" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>755</v>
+        <v>1219</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="0" t="s">
-        <v>923</v>
+        <v>1005</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>1220</v>
+        <v>755</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>1274</v>
@@ -11173,10 +11185,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="0" t="s">
-        <v>996</v>
+        <v>923</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>1274</v>
@@ -11184,10 +11196,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="0" t="s">
-        <v>921</v>
+        <v>996</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>1274</v>
@@ -11195,10 +11207,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="0" t="s">
-        <v>869</v>
+        <v>921</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>1274</v>
@@ -11206,32 +11218,32 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="0" t="s">
-        <v>1386</v>
+        <v>869</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C122" s="0" t="s">
-        <v>1300</v>
+        <v>1224</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="0" t="s">
-        <v>870</v>
+        <v>1386</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>1274</v>
+        <v>1286</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>1300</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="0" t="s">
-        <v>992</v>
+        <v>870</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>1225</v>
+        <v>1197</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>1274</v>
@@ -11239,54 +11251,54 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="0" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>562</v>
+        <v>1225</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="0" t="s">
-        <v>864</v>
+        <v>998</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>1226</v>
+        <v>562</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="0" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="0" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="0" t="s">
-        <v>900</v>
+        <v>863</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>720</v>
+        <v>1228</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>1274</v>
@@ -11294,10 +11306,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="0" t="s">
-        <v>934</v>
+        <v>900</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>1229</v>
+        <v>720</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>1274</v>
@@ -11305,10 +11317,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="0" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>1274</v>
@@ -11316,10 +11328,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="0" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>593</v>
+        <v>1230</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>1274</v>
@@ -11327,10 +11339,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="0" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>1231</v>
+        <v>593</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>1274</v>
@@ -11338,10 +11350,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="0" t="s">
-        <v>944</v>
+        <v>931</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>1274</v>
@@ -11349,10 +11361,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="0" t="s">
-        <v>871</v>
+        <v>944</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>1274</v>
@@ -11360,32 +11372,32 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="0" t="s">
-        <v>858</v>
+        <v>871</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="0" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="0" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>553</v>
+        <v>1235</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>1274</v>
@@ -11393,54 +11405,54 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="0" t="s">
-        <v>1298</v>
+        <v>859</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>1299</v>
+        <v>553</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1300</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="0" t="s">
-        <v>905</v>
+        <v>1298</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>1236</v>
+        <v>1299</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1275</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="0" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1282</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="0" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1275</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="0" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>1275</v>
@@ -11448,10 +11460,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="0" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>1275</v>
@@ -11459,10 +11471,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="0" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>1275</v>
@@ -11470,10 +11482,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="0" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>1275</v>
@@ -11481,10 +11493,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="0" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>1275</v>
@@ -11492,10 +11504,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="0" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>1275</v>
@@ -11503,10 +11515,10 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="0" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>1275</v>
@@ -11514,21 +11526,21 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="0" t="s">
-        <v>985</v>
+        <v>911</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="0" t="s">
-        <v>964</v>
+        <v>985</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>1274</v>
@@ -11536,10 +11548,10 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="0" t="s">
-        <v>948</v>
+        <v>964</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>1274</v>
@@ -11547,10 +11559,10 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="0" t="s">
-        <v>886</v>
+        <v>948</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>1274</v>
@@ -11558,10 +11570,10 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="0" t="s">
-        <v>978</v>
+        <v>886</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>555</v>
+        <v>1249</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>1274</v>
@@ -11569,7 +11581,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="0" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B155" s="0" t="s">
         <v>555</v>
@@ -11580,32 +11592,32 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="0" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="B156" s="0" t="s">
         <v>555</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>1300</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="0" t="s">
-        <v>898</v>
+        <v>977</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>1272</v>
+        <v>555</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>1274</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="0" t="s">
-        <v>865</v>
+        <v>898</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>1252</v>
+        <v>1272</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>1274</v>
@@ -11613,10 +11625,10 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="0" t="s">
-        <v>902</v>
+        <v>865</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>1274</v>
@@ -11624,21 +11636,21 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="0" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="0" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>595</v>
+        <v>1254</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>1275</v>
@@ -11646,32 +11658,32 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="0" t="s">
-        <v>1283</v>
+        <v>904</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C162" s="0" t="s">
-        <v>1282</v>
+        <v>595</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>1275</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="0" t="s">
-        <v>861</v>
+        <v>1283</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>1274</v>
+        <v>1284</v>
+      </c>
+      <c r="C163" s="0" t="s">
+        <v>1282</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="0" t="s">
-        <v>954</v>
+        <v>861</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>737</v>
+        <v>1255</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>1274</v>
@@ -11679,65 +11691,65 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="0" t="s">
-        <v>932</v>
+        <v>954</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>1256</v>
+        <v>737</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="0" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>1229</v>
+        <v>1256</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="0" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>1257</v>
+        <v>1229</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="0" t="s">
-        <v>891</v>
+        <v>942</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="0" t="s">
-        <v>940</v>
+        <v>891</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="0" t="s">
-        <v>926</v>
+        <v>940</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>1275</v>
@@ -11745,21 +11757,21 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="0" t="s">
-        <v>958</v>
+        <v>926</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="0" t="s">
-        <v>922</v>
+        <v>958</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>1274</v>
@@ -11767,32 +11779,32 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="0" t="s">
-        <v>1409</v>
+        <v>922</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>1412</v>
-      </c>
-      <c r="C173" s="0" t="s">
-        <v>1414</v>
+        <v>1262</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="0" t="s">
-        <v>916</v>
+        <v>1409</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>1274</v>
+        <v>1412</v>
+      </c>
+      <c r="C174" s="0" t="s">
+        <v>1414</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="0" t="s">
-        <v>874</v>
+        <v>916</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>1225</v>
+        <v>1263</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>1274</v>
@@ -11800,10 +11812,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="0" t="s">
-        <v>963</v>
+        <v>874</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>1268</v>
+        <v>1225</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>1274</v>
@@ -11811,10 +11823,10 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="0" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>1274</v>
@@ -11822,7 +11834,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="0" t="s">
-        <v>936</v>
+        <v>962</v>
       </c>
       <c r="B178" s="0" t="s">
         <v>1269</v>
@@ -11833,19 +11845,30 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="0" t="s">
         <v>937</v>
       </c>
-      <c r="B179" s="0" t="s">
+      <c r="B180" s="0" t="s">
         <v>1270</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="C180" s="1" t="s">
         <v>1414</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D164">
-    <sortState ref="A2:D179">
-      <sortCondition ref="A2:A179"/>
+    <sortState ref="A2:D180">
+      <sortCondition ref="A2:A180"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="160" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="150" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="1502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="1512">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4539,6 +4539,36 @@
   </si>
   <si>
     <t>펄스 1</t>
+  </si>
+  <si>
+    <t>광시 dlatlwjdqn</t>
+  </si>
+  <si>
+    <t>광시 임시정부</t>
+  </si>
+  <si>
+    <t>서북 임시정부</t>
+  </si>
+  <si>
+    <t>영하 임시정부</t>
+  </si>
+  <si>
+    <t>난징 군벌</t>
+  </si>
+  <si>
+    <t>염군</t>
+  </si>
+  <si>
+    <t>미등장</t>
+  </si>
+  <si>
+    <t>미등장</t>
+  </si>
+  <si>
+    <t>미등장</t>
+  </si>
+  <si>
+    <t>산시신군</t>
   </si>
 </sst>
 </file>
@@ -5333,7 +5363,7 @@
   <dimension ref="A1:E265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="C258" sqref="C258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5362,7 +5392,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="16.500000" hidden="1">
       <c r="A2" s="0" t="s">
         <v>60</v>
       </c>
@@ -5379,7 +5409,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="16.500000" hidden="1">
       <c r="A3" s="0" t="s">
         <v>44</v>
       </c>
@@ -5396,7 +5426,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="16.500000" hidden="1">
       <c r="A4" s="0" t="s">
         <v>177</v>
       </c>
@@ -5413,7 +5443,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="16.500000" hidden="1">
       <c r="A5" s="0" t="s">
         <v>179</v>
       </c>
@@ -5447,7 +5477,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="16.500000" hidden="1">
       <c r="A7" s="0" t="s">
         <v>181</v>
       </c>
@@ -5464,7 +5494,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.500000" hidden="1">
+    <row r="8" spans="1:5">
       <c r="A8" s="0" t="s">
         <v>475</v>
       </c>
@@ -5475,10 +5505,7 @@
         <v>1289</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>1339</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>1401</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5498,7 +5525,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="16.500000" hidden="1">
       <c r="A10" s="0" t="s">
         <v>62</v>
       </c>
@@ -5515,7 +5542,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="16.500000" hidden="1">
       <c r="A11" s="0" t="s">
         <v>183</v>
       </c>
@@ -5532,7 +5559,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" ht="16.500000" hidden="1">
       <c r="A12" s="0" t="s">
         <v>64</v>
       </c>
@@ -5549,7 +5576,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="16.500000" hidden="1">
       <c r="A13" s="0" t="s">
         <v>20</v>
       </c>
@@ -5566,7 +5593,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="16.500000" hidden="1">
       <c r="A14" s="0" t="s">
         <v>185</v>
       </c>
@@ -5634,7 +5661,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" ht="16.500000" hidden="1">
       <c r="A18" s="0" t="s">
         <v>187</v>
       </c>
@@ -5651,7 +5678,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" ht="16.500000" hidden="1">
       <c r="A19" s="0" t="s">
         <v>189</v>
       </c>
@@ -5668,7 +5695,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="16.500000" hidden="1">
       <c r="A20" s="0" t="s">
         <v>12</v>
       </c>
@@ -5702,7 +5729,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" ht="16.500000" hidden="1">
       <c r="A22" s="0" t="s">
         <v>193</v>
       </c>
@@ -5753,7 +5780,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" ht="16.500000" hidden="1">
       <c r="A25" s="0" t="s">
         <v>68</v>
       </c>
@@ -5770,7 +5797,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" ht="16.500000" hidden="1">
       <c r="A26" s="0" t="s">
         <v>195</v>
       </c>
@@ -5804,7 +5831,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" ht="16.500000" hidden="1">
       <c r="A28" s="0" t="s">
         <v>199</v>
       </c>
@@ -5821,7 +5848,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" ht="16.500000" hidden="1">
       <c r="A29" s="0" t="s">
         <v>201</v>
       </c>
@@ -5838,7 +5865,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" ht="16.500000" hidden="1">
       <c r="A30" s="0" t="s">
         <v>70</v>
       </c>
@@ -5872,7 +5899,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" ht="16.500000" hidden="1">
       <c r="A32" s="0" t="s">
         <v>203</v>
       </c>
@@ -5906,7 +5933,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" ht="16.500000" hidden="1">
       <c r="A34" s="0" t="s">
         <v>50</v>
       </c>
@@ -5923,7 +5950,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" ht="16.500000" hidden="1">
       <c r="A35" s="0" t="s">
         <v>205</v>
       </c>
@@ -5940,7 +5967,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" ht="16.500000" hidden="1">
       <c r="A36" s="0" t="s">
         <v>207</v>
       </c>
@@ -5957,7 +5984,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" ht="16.500000" hidden="1">
       <c r="A37" s="0" t="s">
         <v>209</v>
       </c>
@@ -5974,7 +6001,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" ht="16.500000" hidden="1">
       <c r="A38" s="0" t="s">
         <v>211</v>
       </c>
@@ -5991,7 +6018,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" ht="16.500000" hidden="1">
       <c r="A39" s="0" t="s">
         <v>72</v>
       </c>
@@ -6008,7 +6035,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" ht="16.500000" hidden="1">
       <c r="A40" s="0" t="s">
         <v>213</v>
       </c>
@@ -6042,7 +6069,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" ht="16.500000" hidden="1">
       <c r="A42" s="0" t="s">
         <v>217</v>
       </c>
@@ -6059,7 +6086,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" ht="16.500000" hidden="1">
       <c r="A43" s="0" t="s">
         <v>1323</v>
       </c>
@@ -6076,7 +6103,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" ht="16.500000" hidden="1">
       <c r="A44" s="0" t="s">
         <v>219</v>
       </c>
@@ -6127,7 +6154,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" ht="16.500000" hidden="1">
       <c r="A47" s="0" t="s">
         <v>74</v>
       </c>
@@ -6161,7 +6188,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" ht="16.500000" hidden="1">
       <c r="A49" s="0" t="s">
         <v>225</v>
       </c>
@@ -6178,7 +6205,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" ht="16.500000" hidden="1">
       <c r="A50" s="0" t="s">
         <v>227</v>
       </c>
@@ -6212,7 +6239,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" ht="16.500000" hidden="1">
       <c r="A52" s="0" t="s">
         <v>76</v>
       </c>
@@ -6229,7 +6256,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" ht="16.500000" hidden="1">
       <c r="A53" s="0" t="s">
         <v>78</v>
       </c>
@@ -6246,7 +6273,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" ht="16.500000" hidden="1">
       <c r="A54" s="0" t="s">
         <v>144</v>
       </c>
@@ -6263,7 +6290,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" ht="16.500000" hidden="1">
       <c r="A55" s="0" t="s">
         <v>229</v>
       </c>
@@ -6280,7 +6307,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" ht="16.500000" hidden="1">
       <c r="A56" s="0" t="s">
         <v>130</v>
       </c>
@@ -6331,7 +6358,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" ht="16.500000" hidden="1">
       <c r="A59" s="0" t="s">
         <v>16</v>
       </c>
@@ -6348,7 +6375,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" ht="16.500000" hidden="1">
       <c r="A60" s="0" t="s">
         <v>447</v>
       </c>
@@ -6365,7 +6392,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" ht="16.500000" hidden="1">
       <c r="A61" s="0" t="s">
         <v>168</v>
       </c>
@@ -6382,7 +6409,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" ht="16.500000" hidden="1">
       <c r="A62" s="0" t="s">
         <v>235</v>
       </c>
@@ -6416,7 +6443,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" ht="16.500000" hidden="1">
       <c r="A64" s="0" t="s">
         <v>48</v>
       </c>
@@ -6433,7 +6460,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" ht="16.500000" hidden="1">
       <c r="A65" s="0" t="s">
         <v>239</v>
       </c>
@@ -6450,7 +6477,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" ht="16.500000" hidden="1">
       <c r="A66" s="0" t="s">
         <v>132</v>
       </c>
@@ -6467,7 +6494,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" ht="16.500000" hidden="1">
       <c r="A67" s="0" t="s">
         <v>80</v>
       </c>
@@ -6484,7 +6511,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" ht="16.500000" hidden="1">
       <c r="A68" s="0" t="s">
         <v>158</v>
       </c>
@@ -6501,7 +6528,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" ht="16.500000" hidden="1">
       <c r="A69" s="0" t="s">
         <v>170</v>
       </c>
@@ -6535,7 +6562,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" ht="16.500000" hidden="1">
       <c r="A71" s="0" t="s">
         <v>2</v>
       </c>
@@ -6552,7 +6579,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" ht="16.500000" hidden="1">
       <c r="A72" s="0" t="s">
         <v>241</v>
       </c>
@@ -6586,7 +6613,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" ht="16.500000" hidden="1">
       <c r="A74" s="0" t="s">
         <v>24</v>
       </c>
@@ -6603,7 +6630,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" ht="16.500000" hidden="1">
       <c r="A75" s="0" t="s">
         <v>82</v>
       </c>
@@ -6620,7 +6647,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" ht="16.500000" hidden="1">
       <c r="A76" s="0" t="s">
         <v>54</v>
       </c>
@@ -6688,7 +6715,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" ht="16.500000" hidden="1">
       <c r="A80" s="0" t="s">
         <v>8</v>
       </c>
@@ -6705,7 +6732,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" ht="16.500000" hidden="1">
       <c r="A81" s="0" t="s">
         <v>249</v>
       </c>
@@ -6739,7 +6766,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" ht="16.500000" hidden="1">
       <c r="A83" s="0" t="s">
         <v>253</v>
       </c>
@@ -6773,7 +6800,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" ht="16.500000" hidden="1">
       <c r="A85" s="0" t="s">
         <v>257</v>
       </c>
@@ -6790,7 +6817,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" ht="16.500000" hidden="1">
       <c r="A86" s="0" t="s">
         <v>259</v>
       </c>
@@ -6807,7 +6834,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" ht="16.500000" hidden="1">
       <c r="A87" s="0" t="s">
         <v>261</v>
       </c>
@@ -6824,7 +6851,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" ht="16.500000" hidden="1">
       <c r="A88" s="0" t="s">
         <v>263</v>
       </c>
@@ -6841,7 +6868,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" ht="16.500000" hidden="1">
       <c r="A89" s="0" t="s">
         <v>0</v>
       </c>
@@ -6858,7 +6885,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" ht="16.500000" hidden="1">
       <c r="A90" s="0" t="s">
         <v>273</v>
       </c>
@@ -6909,7 +6936,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" ht="16.500000" hidden="1">
       <c r="A93" s="0" t="s">
         <v>269</v>
       </c>
@@ -6926,7 +6953,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" ht="16.500000" hidden="1">
       <c r="A94" s="0" t="s">
         <v>42</v>
       </c>
@@ -6960,7 +6987,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" ht="16.500000" hidden="1">
       <c r="A96" s="0" t="s">
         <v>271</v>
       </c>
@@ -6977,7 +7004,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" ht="16.500000" hidden="1">
       <c r="A97" s="0" t="s">
         <v>84</v>
       </c>
@@ -6994,7 +7021,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="16.500000" hidden="1">
+    <row r="98" spans="1:5">
       <c r="A98" s="0" t="s">
         <v>485</v>
       </c>
@@ -7002,16 +7029,13 @@
         <v>1287</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>788</v>
+        <v>1503</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>1339</v>
-      </c>
-      <c r="E98" s="0" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="16.500000" hidden="1">
       <c r="A99" s="0" t="s">
         <v>134</v>
       </c>
@@ -7028,7 +7052,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" ht="16.500000" hidden="1">
       <c r="A100" s="0" t="s">
         <v>443</v>
       </c>
@@ -7045,7 +7069,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" ht="16.500000" hidden="1">
       <c r="A101" s="0" t="s">
         <v>275</v>
       </c>
@@ -7062,7 +7086,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="16.500000" hidden="1">
+    <row r="102" spans="1:5">
       <c r="A102" s="0" t="s">
         <v>481</v>
       </c>
@@ -7073,13 +7097,10 @@
         <v>1301</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>1339</v>
-      </c>
-      <c r="E102" s="0" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="16.500000" hidden="1">
       <c r="A103" s="0" t="s">
         <v>14</v>
       </c>
@@ -7096,7 +7117,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" ht="16.500000" hidden="1">
       <c r="A104" s="0" t="s">
         <v>1481</v>
       </c>
@@ -7113,7 +7134,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" ht="16.500000" hidden="1">
       <c r="A105" s="0" t="s">
         <v>58</v>
       </c>
@@ -7130,7 +7151,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" ht="16.500000" hidden="1">
       <c r="A106" s="0" t="s">
         <v>152</v>
       </c>
@@ -7147,7 +7168,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" ht="16.500000" hidden="1">
       <c r="A107" s="0" t="s">
         <v>86</v>
       </c>
@@ -7181,7 +7202,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" ht="16.500000" hidden="1">
       <c r="A109" s="0" t="s">
         <v>279</v>
       </c>
@@ -7198,7 +7219,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" ht="16.500000" hidden="1">
       <c r="A110" s="0" t="s">
         <v>281</v>
       </c>
@@ -7215,7 +7236,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" ht="16.500000" hidden="1">
       <c r="A111" s="0" t="s">
         <v>56</v>
       </c>
@@ -7266,7 +7287,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" ht="16.500000" hidden="1">
       <c r="A114" s="0" t="s">
         <v>30</v>
       </c>
@@ -7283,7 +7304,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" ht="16.500000" hidden="1">
       <c r="A115" s="0" t="s">
         <v>90</v>
       </c>
@@ -7300,7 +7321,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" ht="16.500000" hidden="1">
       <c r="A116" s="0" t="s">
         <v>285</v>
       </c>
@@ -7317,7 +7338,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" ht="16.500000" hidden="1">
       <c r="A117" s="0" t="s">
         <v>88</v>
       </c>
@@ -7334,7 +7355,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" ht="16.500000" hidden="1">
       <c r="A118" s="0" t="s">
         <v>510</v>
       </c>
@@ -7351,7 +7372,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" ht="16.500000" hidden="1">
       <c r="A119" s="0" t="s">
         <v>154</v>
       </c>
@@ -7385,7 +7406,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" ht="16.500000" hidden="1">
       <c r="A121" s="0" t="s">
         <v>287</v>
       </c>
@@ -7402,7 +7423,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" ht="16.500000" hidden="1">
       <c r="A122" s="0" t="s">
         <v>92</v>
       </c>
@@ -7436,7 +7457,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" ht="16.500000" hidden="1">
       <c r="A124" s="0" t="s">
         <v>289</v>
       </c>
@@ -7453,7 +7474,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" ht="16.500000" hidden="1">
       <c r="A125" s="0" t="s">
         <v>518</v>
       </c>
@@ -7470,7 +7491,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" ht="16.500000" hidden="1">
       <c r="A126" s="0" t="s">
         <v>293</v>
       </c>
@@ -7487,7 +7508,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" ht="16.500000" hidden="1">
       <c r="A127" s="0" t="s">
         <v>26</v>
       </c>
@@ -7504,7 +7525,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" ht="16.500000" hidden="1">
       <c r="A128" s="0" t="s">
         <v>291</v>
       </c>
@@ -7521,7 +7542,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" ht="16.500000" hidden="1">
       <c r="A129" s="0" t="s">
         <v>297</v>
       </c>
@@ -7538,7 +7559,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="16.500000" hidden="1">
+    <row r="130" spans="1:5">
       <c r="A130" s="0" t="s">
         <v>483</v>
       </c>
@@ -7546,16 +7567,13 @@
         <v>1287</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>787</v>
+        <v>1506</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>1339</v>
-      </c>
-      <c r="E130" s="0" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="16.500000" hidden="1">
       <c r="A131" s="0" t="s">
         <v>522</v>
       </c>
@@ -7572,7 +7590,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" ht="16.500000" hidden="1">
       <c r="A132" s="0" t="s">
         <v>22</v>
       </c>
@@ -7606,7 +7624,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" ht="16.500000" hidden="1">
       <c r="A134" s="0" t="s">
         <v>10</v>
       </c>
@@ -7623,7 +7641,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" ht="16.500000" hidden="1">
       <c r="A135" s="0" t="s">
         <v>299</v>
       </c>
@@ -7657,7 +7675,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" ht="16.500000" hidden="1">
       <c r="A137" s="0" t="s">
         <v>295</v>
       </c>
@@ -7691,7 +7709,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" ht="16.500000" hidden="1">
       <c r="A139" s="0" t="s">
         <v>499</v>
       </c>
@@ -7725,7 +7743,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" ht="16.500000" hidden="1">
       <c r="A141" s="0" t="s">
         <v>309</v>
       </c>
@@ -7759,7 +7777,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" ht="16.500000" hidden="1">
       <c r="A143" s="0" t="s">
         <v>94</v>
       </c>
@@ -7776,7 +7794,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" ht="16.500000" hidden="1">
       <c r="A144" s="0" t="s">
         <v>303</v>
       </c>
@@ -7793,7 +7811,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" ht="16.500000" hidden="1">
       <c r="A145" s="0" t="s">
         <v>311</v>
       </c>
@@ -7827,7 +7845,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" ht="16.500000" hidden="1">
       <c r="A147" s="0" t="s">
         <v>124</v>
       </c>
@@ -7844,7 +7862,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" ht="16.500000" hidden="1">
       <c r="A148" s="0" t="s">
         <v>453</v>
       </c>
@@ -7861,7 +7879,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" ht="16.500000" hidden="1">
       <c r="A149" s="0" t="s">
         <v>1403</v>
       </c>
@@ -7878,7 +7896,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" ht="16.500000" hidden="1">
       <c r="A150" s="0" t="s">
         <v>313</v>
       </c>
@@ -7912,7 +7930,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" ht="16.500000" hidden="1">
       <c r="A152" s="0" t="s">
         <v>319</v>
       </c>
@@ -7980,7 +7998,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" ht="16.500000" hidden="1">
       <c r="A156" s="0" t="s">
         <v>325</v>
       </c>
@@ -7997,7 +8015,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" ht="16.500000" hidden="1">
       <c r="A157" s="0" t="s">
         <v>96</v>
       </c>
@@ -8031,7 +8049,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" ht="16.500000" hidden="1">
       <c r="A159" s="0" t="s">
         <v>315</v>
       </c>
@@ -8048,7 +8066,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" ht="16.500000" hidden="1">
       <c r="A160" s="0" t="s">
         <v>331</v>
       </c>
@@ -8065,7 +8083,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" ht="16.500000" hidden="1">
       <c r="A161" s="0" t="s">
         <v>329</v>
       </c>
@@ -8082,7 +8100,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" ht="16.500000" hidden="1">
       <c r="A162" s="0" t="s">
         <v>333</v>
       </c>
@@ -8099,7 +8117,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" ht="16.500000" hidden="1">
       <c r="A163" s="0" t="s">
         <v>46</v>
       </c>
@@ -8116,7 +8134,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" ht="16.500000" hidden="1">
       <c r="A164" s="0" t="s">
         <v>335</v>
       </c>
@@ -8150,7 +8168,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" ht="16.500000" hidden="1">
       <c r="A166" s="0" t="s">
         <v>337</v>
       </c>
@@ -8167,7 +8185,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" ht="16.500000" hidden="1">
       <c r="A167" s="0" t="s">
         <v>140</v>
       </c>
@@ -8184,7 +8202,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" ht="16.500000" hidden="1">
       <c r="A168" s="0" t="s">
         <v>339</v>
       </c>
@@ -8201,7 +8219,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" ht="16.500000" hidden="1">
       <c r="A169" s="0" t="s">
         <v>98</v>
       </c>
@@ -8218,7 +8236,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" ht="16.500000" hidden="1">
       <c r="A170" s="0" t="s">
         <v>439</v>
       </c>
@@ -8235,7 +8253,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" ht="16.500000" hidden="1">
       <c r="A171" s="0" t="s">
         <v>162</v>
       </c>
@@ -8252,7 +8270,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" ht="16.500000" hidden="1">
       <c r="A172" s="0" t="s">
         <v>416</v>
       </c>
@@ -8269,7 +8287,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" ht="16.500000" hidden="1">
       <c r="A173" s="0" t="s">
         <v>172</v>
       </c>
@@ -8286,7 +8304,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" ht="16.500000" hidden="1">
       <c r="A174" s="0" t="s">
         <v>102</v>
       </c>
@@ -8303,7 +8321,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" ht="16.500000" hidden="1">
       <c r="A175" s="0" t="s">
         <v>174</v>
       </c>
@@ -8337,7 +8355,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" ht="16.500000" hidden="1">
       <c r="A177" s="0" t="s">
         <v>501</v>
       </c>
@@ -8371,7 +8389,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" ht="16.500000" hidden="1">
       <c r="A179" s="0" t="s">
         <v>18</v>
       </c>
@@ -8388,7 +8406,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" ht="16.500000" hidden="1">
       <c r="A180" s="0" t="s">
         <v>52</v>
       </c>
@@ -8422,7 +8440,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" ht="16.500000" hidden="1">
       <c r="A182" s="0" t="s">
         <v>345</v>
       </c>
@@ -8439,7 +8457,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" ht="16.500000" hidden="1">
       <c r="A183" s="0" t="s">
         <v>128</v>
       </c>
@@ -8456,7 +8474,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" ht="16.500000" hidden="1">
       <c r="A184" s="0" t="s">
         <v>104</v>
       </c>
@@ -8473,7 +8491,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" ht="16.500000" hidden="1">
       <c r="A185" s="0" t="s">
         <v>1324</v>
       </c>
@@ -8524,7 +8542,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" ht="16.500000" hidden="1">
       <c r="A188" s="0" t="s">
         <v>506</v>
       </c>
@@ -8541,7 +8559,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" ht="16.500000" hidden="1">
       <c r="A189" s="0" t="s">
         <v>142</v>
       </c>
@@ -8575,7 +8593,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" ht="16.500000" hidden="1">
       <c r="A191" s="0" t="s">
         <v>32</v>
       </c>
@@ -8592,7 +8610,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" ht="16.500000" hidden="1">
       <c r="A192" s="0" t="s">
         <v>349</v>
       </c>
@@ -8609,7 +8627,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" ht="16.500000" hidden="1">
       <c r="A193" s="0" t="s">
         <v>351</v>
       </c>
@@ -8626,7 +8644,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" ht="16.500000" hidden="1">
       <c r="A194" s="0" t="s">
         <v>347</v>
       </c>
@@ -8643,7 +8661,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" ht="16.500000" hidden="1">
       <c r="A195" s="0" t="s">
         <v>495</v>
       </c>
@@ -8660,7 +8678,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" ht="16.500000" hidden="1">
       <c r="A196" s="0" t="s">
         <v>106</v>
       </c>
@@ -8694,7 +8712,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" ht="16.500000" hidden="1">
       <c r="A198" s="0" t="s">
         <v>108</v>
       </c>
@@ -8711,7 +8729,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" ht="16.500000" hidden="1">
       <c r="A199" s="0" t="s">
         <v>355</v>
       </c>
@@ -8745,7 +8763,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" ht="16.500000" hidden="1">
       <c r="A201" s="0" t="s">
         <v>357</v>
       </c>
@@ -8779,7 +8797,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" ht="16.500000" hidden="1">
       <c r="A203" s="0" t="s">
         <v>36</v>
       </c>
@@ -8796,7 +8814,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" ht="16.500000" hidden="1">
       <c r="A204" s="0" t="s">
         <v>514</v>
       </c>
@@ -8813,7 +8831,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="16.500000" hidden="1">
+    <row r="205" spans="1:5">
       <c r="A205" s="0" t="s">
         <v>148</v>
       </c>
@@ -8821,16 +8839,13 @@
         <v>1287</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>614</v>
+        <v>1511</v>
       </c>
       <c r="D205" s="0" t="s">
-        <v>1339</v>
-      </c>
-      <c r="E205" s="0" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="16.500000" hidden="1">
       <c r="A206" s="0" t="s">
         <v>110</v>
       </c>
@@ -8864,7 +8879,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" ht="16.500000" hidden="1">
       <c r="A208" s="0" t="s">
         <v>363</v>
       </c>
@@ -8898,7 +8913,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" ht="16.500000" hidden="1">
       <c r="A210" s="0" t="s">
         <v>112</v>
       </c>
@@ -8915,7 +8930,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" ht="16.500000" hidden="1">
       <c r="A211" s="0" t="s">
         <v>367</v>
       </c>
@@ -8932,7 +8947,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" ht="16.500000" hidden="1">
       <c r="A212" s="0" t="s">
         <v>369</v>
       </c>
@@ -8949,7 +8964,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" ht="16.500000" hidden="1">
       <c r="A213" s="0" t="s">
         <v>4</v>
       </c>
@@ -8983,7 +8998,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" ht="16.500000" hidden="1">
       <c r="A215" s="0" t="s">
         <v>28</v>
       </c>
@@ -9000,7 +9015,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" ht="16.500000" hidden="1">
       <c r="A216" s="0" t="s">
         <v>489</v>
       </c>
@@ -9017,7 +9032,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" ht="16.500000" hidden="1">
       <c r="A217" s="0" t="s">
         <v>418</v>
       </c>
@@ -9034,7 +9049,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" ht="16.500000" hidden="1">
       <c r="A218" s="0" t="s">
         <v>371</v>
       </c>
@@ -9051,7 +9066,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" ht="16.500000" hidden="1">
       <c r="A219" s="0" t="s">
         <v>373</v>
       </c>
@@ -9068,7 +9083,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" ht="16.500000" hidden="1">
       <c r="A220" s="0" t="s">
         <v>375</v>
       </c>
@@ -9085,7 +9100,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" ht="16.500000" hidden="1">
       <c r="A221" s="0" t="s">
         <v>6</v>
       </c>
@@ -9102,7 +9117,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" ht="16.500000" hidden="1">
       <c r="A222" s="0" t="s">
         <v>38</v>
       </c>
@@ -9119,7 +9134,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" ht="16.500000" hidden="1">
       <c r="A223" s="0" t="s">
         <v>138</v>
       </c>
@@ -9136,7 +9151,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" ht="16.500000" hidden="1">
       <c r="A224" s="0" t="s">
         <v>455</v>
       </c>
@@ -9170,7 +9185,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" ht="16.500000" hidden="1">
       <c r="A226" s="0" t="s">
         <v>493</v>
       </c>
@@ -9187,7 +9202,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" ht="16.500000" hidden="1">
       <c r="A227" s="0" t="s">
         <v>504</v>
       </c>
@@ -9218,7 +9233,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" ht="16.500000" hidden="1">
       <c r="A229" s="0" t="s">
         <v>156</v>
       </c>
@@ -9235,7 +9250,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" ht="16.500000" hidden="1">
       <c r="A230" s="0" t="s">
         <v>114</v>
       </c>
@@ -9252,7 +9267,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" ht="16.500000" hidden="1">
       <c r="A231" s="0" t="s">
         <v>377</v>
       </c>
@@ -9286,7 +9301,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" ht="16.500000" hidden="1">
       <c r="A233" s="0" t="s">
         <v>1419</v>
       </c>
@@ -9303,7 +9318,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" ht="16.500000" hidden="1">
       <c r="A234" s="0" t="s">
         <v>381</v>
       </c>
@@ -9354,7 +9369,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" ht="16.500000" hidden="1">
       <c r="A237" s="0" t="s">
         <v>379</v>
       </c>
@@ -9371,7 +9386,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" ht="16.500000" hidden="1">
       <c r="A238" s="0" t="s">
         <v>389</v>
       </c>
@@ -9388,7 +9403,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" ht="16.500000" hidden="1">
       <c r="A239" s="0" t="s">
         <v>391</v>
       </c>
@@ -9422,7 +9437,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" ht="16.500000" hidden="1">
       <c r="A241" s="0" t="s">
         <v>40</v>
       </c>
@@ -9439,7 +9454,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" ht="16.500000" hidden="1">
       <c r="A242" s="0" t="s">
         <v>395</v>
       </c>
@@ -9456,7 +9471,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" ht="16.500000" hidden="1">
       <c r="A243" s="0" t="s">
         <v>397</v>
       </c>
@@ -9473,7 +9488,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" ht="16.500000" hidden="1">
       <c r="A244" s="0" t="s">
         <v>383</v>
       </c>
@@ -9490,7 +9505,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" ht="16.500000" hidden="1">
       <c r="A245" s="0" t="s">
         <v>393</v>
       </c>
@@ -9507,7 +9522,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" ht="16.500000" hidden="1">
       <c r="A246" s="0" t="s">
         <v>116</v>
       </c>
@@ -9524,7 +9539,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" ht="16.500000" hidden="1">
       <c r="A247" s="0" t="s">
         <v>1405</v>
       </c>
@@ -9541,7 +9556,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" ht="16.500000" hidden="1">
       <c r="A248" s="0" t="s">
         <v>118</v>
       </c>
@@ -9558,7 +9573,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" ht="16.500000" hidden="1">
       <c r="A249" s="0" t="s">
         <v>399</v>
       </c>
@@ -9626,7 +9641,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" ht="16.500000" hidden="1">
       <c r="A253" s="0" t="s">
         <v>497</v>
       </c>
@@ -9643,7 +9658,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" ht="16.500000" hidden="1">
       <c r="A254" s="0" t="s">
         <v>403</v>
       </c>
@@ -9660,7 +9675,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" ht="16.500000" hidden="1">
       <c r="A255" s="0" t="s">
         <v>166</v>
       </c>
@@ -9677,7 +9692,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" ht="16.500000" hidden="1">
       <c r="A256" s="0" t="s">
         <v>405</v>
       </c>
@@ -9711,7 +9726,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="16.500000" hidden="1">
+    <row r="258" spans="1:5">
       <c r="A258" s="0" t="s">
         <v>150</v>
       </c>
@@ -9719,16 +9734,13 @@
         <v>1287</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>615</v>
+        <v>1505</v>
       </c>
       <c r="D258" s="0" t="s">
-        <v>1339</v>
-      </c>
-      <c r="E258" s="0" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="16.500000" hidden="1">
       <c r="A259" s="0" t="s">
         <v>136</v>
       </c>
@@ -9745,7 +9757,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" ht="16.500000" hidden="1">
       <c r="A260" s="0" t="s">
         <v>34</v>
       </c>
@@ -9796,7 +9808,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" ht="16.500000" hidden="1">
       <c r="A263" s="0" t="s">
         <v>122</v>
       </c>
@@ -9813,7 +9825,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" ht="16.500000" hidden="1">
       <c r="A264" s="0" t="s">
         <v>516</v>
       </c>
@@ -9830,7 +9842,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" ht="16.500000" hidden="1">
       <c r="A265" s="0" t="s">
         <v>411</v>
       </c>
@@ -9849,10 +9861,15 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E265">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="All"/>
+        <filter val="중국"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3">
       <filters>
         <filter val="All"/>
-        <filter val="등장"/>
         <filter val="미등장"/>
       </filters>
     </filterColumn>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="150" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="140" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="1512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="1514">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4569,6 +4569,12 @@
   </si>
   <si>
     <t>산시신군</t>
+  </si>
+  <si>
+    <t>미등장</t>
+  </si>
+  <si>
+    <t>삭제</t>
   </si>
 </sst>
 </file>
@@ -5363,7 +5369,7 @@
   <dimension ref="A1:E265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C258" sqref="C258"/>
+      <selection activeCell="C261" sqref="C261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -8831,7 +8837,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" ht="16.500000" hidden="1">
       <c r="A205" s="0" t="s">
         <v>148</v>
       </c>
@@ -8842,7 +8848,10 @@
         <v>1511</v>
       </c>
       <c r="D205" s="0" t="s">
-        <v>1508</v>
+        <v>1513</v>
+      </c>
+      <c r="E205" s="0" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="16.500000" hidden="1">
@@ -9168,7 +9177,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="16.500000" hidden="1">
+    <row r="225" spans="1:5">
       <c r="A225" s="0" t="s">
         <v>491</v>
       </c>
@@ -9179,10 +9188,7 @@
         <v>791</v>
       </c>
       <c r="D225" s="0" t="s">
-        <v>1339</v>
-      </c>
-      <c r="E225" s="0" t="s">
-        <v>1401</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="16.500000" hidden="1">
@@ -9774,7 +9780,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="16.500000" hidden="1">
+    <row r="261" spans="1:5">
       <c r="A261" s="0" t="s">
         <v>120</v>
       </c>
@@ -9785,10 +9791,7 @@
         <v>600</v>
       </c>
       <c r="D261" s="0" t="s">
-        <v>1339</v>
-      </c>
-      <c r="E261" s="0" t="s">
-        <v>1401</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="16.500000" hidden="1">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="1514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="1521">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4575,6 +4575,27 @@
   </si>
   <si>
     <t>삭제</t>
+  </si>
+  <si>
+    <t>안칭 국민정부</t>
+  </si>
+  <si>
+    <t>후난 국민정부</t>
+  </si>
+  <si>
+    <t>난징 국민정부</t>
+  </si>
+  <si>
+    <t>쓰촨 국민정부</t>
+  </si>
+  <si>
+    <t>윈난 국민정부</t>
+  </si>
+  <si>
+    <t>중국 국민당</t>
+  </si>
+  <si>
+    <t>미등장</t>
   </si>
 </sst>
 </file>
@@ -5369,7 +5390,7 @@
   <dimension ref="A1:E265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C261" sqref="C261"/>
+      <selection activeCell="E205" sqref="E205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5508,7 +5529,7 @@
         <v>1287</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>1289</v>
+        <v>1514</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>1510</v>
@@ -6151,7 +6172,7 @@
         <v>1287</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>783</v>
+        <v>1519</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>1333</v>
@@ -7100,7 +7121,7 @@
         <v>1287</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>1301</v>
+        <v>1515</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>1509</v>
@@ -7573,7 +7594,7 @@
         <v>1287</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>1506</v>
+        <v>1516</v>
       </c>
       <c r="D130" s="0" t="s">
         <v>1509</v>
@@ -7766,7 +7787,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="16.500000" hidden="1">
+    <row r="142" spans="1:5">
       <c r="A142" s="0" t="s">
         <v>520</v>
       </c>
@@ -8837,7 +8858,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="16.500000" hidden="1">
+    <row r="205" spans="1:5">
       <c r="A205" s="0" t="s">
         <v>148</v>
       </c>
@@ -8848,10 +8869,7 @@
         <v>1511</v>
       </c>
       <c r="D205" s="0" t="s">
-        <v>1513</v>
-      </c>
-      <c r="E205" s="0" t="s">
-        <v>1464</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="16.500000" hidden="1">
@@ -9185,7 +9203,7 @@
         <v>1287</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>791</v>
+        <v>1517</v>
       </c>
       <c r="D225" s="0" t="s">
         <v>1512</v>
@@ -9788,7 +9806,7 @@
         <v>1287</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>600</v>
+        <v>1518</v>
       </c>
       <c r="D261" s="0" t="s">
         <v>1512</v>
@@ -9874,6 +9892,7 @@
       <filters>
         <filter val="All"/>
         <filter val="미등장"/>
+        <filter val="삭제"/>
       </filters>
     </filterColumn>
     <sortState ref="A2:E265">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="140" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="130" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="1521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="1522">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4596,6 +4596,9 @@
   </si>
   <si>
     <t>미등장</t>
+  </si>
+  <si>
+    <t>삭제</t>
   </si>
 </sst>
 </file>
@@ -5390,7 +5393,7 @@
   <dimension ref="A1:E265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E205" sqref="E205"/>
+      <selection activeCell="E225" sqref="E225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -8869,7 +8872,10 @@
         <v>1511</v>
       </c>
       <c r="D205" s="0" t="s">
-        <v>1520</v>
+        <v>1521</v>
+      </c>
+      <c r="E205" s="0" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="16.500000" hidden="1">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="130" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="120" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -5537,6 +5537,9 @@
       <c r="D8" s="0" t="s">
         <v>1510</v>
       </c>
+      <c r="E8" s="0" t="s">
+        <v>1501</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="0" t="s">
@@ -7064,6 +7067,9 @@
       <c r="D98" s="0" t="s">
         <v>1510</v>
       </c>
+      <c r="E98" s="0" t="s">
+        <v>1501</v>
+      </c>
     </row>
     <row r="99" spans="1:5" ht="16.500000" hidden="1">
       <c r="A99" s="0" t="s">
@@ -7129,6 +7135,9 @@
       <c r="D102" s="0" t="s">
         <v>1509</v>
       </c>
+      <c r="E102" s="0" t="s">
+        <v>1501</v>
+      </c>
     </row>
     <row r="103" spans="1:5" ht="16.500000" hidden="1">
       <c r="A103" s="0" t="s">
@@ -7602,6 +7611,9 @@
       <c r="D130" s="0" t="s">
         <v>1509</v>
       </c>
+      <c r="E130" s="0" t="s">
+        <v>1501</v>
+      </c>
     </row>
     <row r="131" spans="1:5" ht="16.500000" hidden="1">
       <c r="A131" s="0" t="s">
@@ -9214,6 +9226,9 @@
       <c r="D225" s="0" t="s">
         <v>1512</v>
       </c>
+      <c r="E225" s="0" t="s">
+        <v>1501</v>
+      </c>
     </row>
     <row r="226" spans="1:5" ht="16.500000" hidden="1">
       <c r="A226" s="0" t="s">
@@ -9769,6 +9784,9 @@
       <c r="D258" s="0" t="s">
         <v>1508</v>
       </c>
+      <c r="E258" s="0" t="s">
+        <v>1501</v>
+      </c>
     </row>
     <row r="259" spans="1:5" ht="16.500000" hidden="1">
       <c r="A259" s="0" t="s">
@@ -9816,6 +9834,9 @@
       </c>
       <c r="D261" s="0" t="s">
         <v>1512</v>
+      </c>
+      <c r="E261" s="0" t="s">
+        <v>1501</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="16.500000" hidden="1">

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="120" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="190" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="1522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="1524">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4599,6 +4599,12 @@
   </si>
   <si>
     <t>삭제</t>
+  </si>
+  <si>
+    <t>GER_MIL</t>
+  </si>
+  <si>
+    <t>독일 제국 (군사정부)</t>
   </si>
 </sst>
 </file>
@@ -9934,10 +9940,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D180"/>
+  <dimension ref="A1:D181"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -10646,43 +10652,43 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="0" t="s">
-        <v>949</v>
+        <v>1522</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>676</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>1274</v>
+        <v>1523</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>1414</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="0" t="s">
-        <v>896</v>
+        <v>949</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>1190</v>
+        <v>676</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="0" t="s">
-        <v>999</v>
+        <v>896</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="0" t="s">
-        <v>989</v>
+        <v>999</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>581</v>
+        <v>1191</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>1274</v>
@@ -10690,10 +10696,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="0" t="s">
-        <v>1007</v>
+        <v>989</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>1192</v>
+        <v>581</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>1274</v>
@@ -10701,32 +10707,32 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="0" t="s">
-        <v>976</v>
+        <v>1007</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="0" t="s">
-        <v>876</v>
+        <v>976</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="0" t="s">
-        <v>919</v>
+        <v>876</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>1274</v>
@@ -10734,32 +10740,32 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="0" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="0" t="s">
-        <v>868</v>
+        <v>918</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>611</v>
+        <v>1196</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="0" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>1197</v>
+        <v>611</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>1274</v>
@@ -10767,10 +10773,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="0" t="s">
-        <v>972</v>
+        <v>866</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>1274</v>
@@ -10778,10 +10784,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="0" t="s">
-        <v>1002</v>
+        <v>972</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>1274</v>
@@ -10789,35 +10795,35 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="0" t="s">
-        <v>1388</v>
+        <v>1002</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>1300</v>
+        <v>1199</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="0" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>755</v>
+        <v>1246</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>1275</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="0" t="s">
-        <v>889</v>
+        <v>1389</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>1274</v>
+        <v>755</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>1275</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -10827,38 +10833,38 @@
       <c r="B80" s="0" t="s">
         <v>1200</v>
       </c>
-      <c r="C80" s="0" t="s">
-        <v>1300</v>
+      <c r="C80" s="1" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="0" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>843</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>1275</v>
+        <v>1200</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>1300</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="0" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>843</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="0" t="s">
-        <v>872</v>
+        <v>892</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>1201</v>
+        <v>843</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>1274</v>
@@ -10866,10 +10872,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="0" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>1274</v>
@@ -10877,10 +10883,10 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="0" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>1274</v>
@@ -10888,10 +10894,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="0" t="s">
-        <v>957</v>
+        <v>881</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>688</v>
+        <v>1203</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>1274</v>
@@ -10899,10 +10905,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="0" t="s">
-        <v>920</v>
+        <v>957</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>1274</v>
@@ -10910,32 +10916,32 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="0" t="s">
-        <v>1498</v>
+        <v>920</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>1499</v>
-      </c>
-      <c r="C88" s="0" t="s">
-        <v>1414</v>
+        <v>690</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="0" t="s">
-        <v>956</v>
+        <v>1498</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>1274</v>
+        <v>1499</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>1414</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="0" t="s">
-        <v>925</v>
+        <v>956</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>1274</v>
@@ -10943,32 +10949,32 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="0" t="s">
-        <v>939</v>
+        <v>925</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="0" t="s">
-        <v>875</v>
+        <v>939</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>620</v>
+        <v>1206</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="0" t="s">
-        <v>935</v>
+        <v>875</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>1207</v>
+        <v>620</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>1274</v>
@@ -10976,10 +10982,10 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="0" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>1274</v>
@@ -10987,21 +10993,21 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="0" t="s">
-        <v>1294</v>
+        <v>946</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>1296</v>
+        <v>1208</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1282</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="0" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>1282</v>
@@ -11009,21 +11015,21 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="0" t="s">
-        <v>1313</v>
+        <v>1295</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>1314</v>
+        <v>1297</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1300</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="0" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>1300</v>
@@ -11031,10 +11037,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="0" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>1300</v>
@@ -11042,32 +11048,32 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="0" t="s">
-        <v>991</v>
+        <v>1315</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>695</v>
+        <v>1316</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1275</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="0" t="s">
-        <v>943</v>
+        <v>991</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>1209</v>
+        <v>695</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="0" t="s">
-        <v>927</v>
+        <v>943</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>1274</v>
@@ -11075,10 +11081,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="0" t="s">
-        <v>947</v>
+        <v>927</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>700</v>
+        <v>1210</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>1274</v>
@@ -11086,32 +11092,32 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="0" t="s">
-        <v>1408</v>
+        <v>947</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>1411</v>
-      </c>
-      <c r="C104" s="0" t="s">
-        <v>1414</v>
+        <v>700</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="0" t="s">
-        <v>960</v>
+        <v>1408</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>701</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>1274</v>
+        <v>1411</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>1414</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="0" t="s">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>1211</v>
+        <v>701</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>1274</v>
@@ -11119,32 +11125,32 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="0" t="s">
-        <v>941</v>
+        <v>980</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="0" t="s">
-        <v>955</v>
+        <v>941</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="0" t="s">
-        <v>893</v>
+        <v>955</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>1274</v>
@@ -11152,10 +11158,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="0" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>1184</v>
+        <v>1214</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>1274</v>
@@ -11163,10 +11169,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="0" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>540</v>
+        <v>1184</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>1274</v>
@@ -11174,32 +11180,32 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="0" t="s">
-        <v>950</v>
+        <v>895</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>1215</v>
+        <v>540</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="0" t="s">
-        <v>990</v>
+        <v>950</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="0" t="s">
-        <v>897</v>
+        <v>990</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>1271</v>
+        <v>1216</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>1274</v>
@@ -11207,10 +11213,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="0" t="s">
-        <v>860</v>
+        <v>897</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>1217</v>
+        <v>1271</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>1274</v>
@@ -11218,10 +11224,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="0" t="s">
-        <v>1001</v>
+        <v>860</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>1274</v>
@@ -11229,32 +11235,32 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="0" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="0" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>755</v>
+        <v>1219</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="0" t="s">
-        <v>923</v>
+        <v>1005</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>1220</v>
+        <v>755</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>1274</v>
@@ -11262,10 +11268,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="0" t="s">
-        <v>996</v>
+        <v>923</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>1274</v>
@@ -11273,10 +11279,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="0" t="s">
-        <v>921</v>
+        <v>996</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>1274</v>
@@ -11284,10 +11290,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="0" t="s">
-        <v>869</v>
+        <v>921</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>1274</v>
@@ -11295,32 +11301,32 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="0" t="s">
-        <v>1386</v>
+        <v>869</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C123" s="0" t="s">
-        <v>1300</v>
+        <v>1224</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="0" t="s">
-        <v>870</v>
+        <v>1386</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>1274</v>
+        <v>1286</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>1300</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="0" t="s">
-        <v>992</v>
+        <v>870</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>1225</v>
+        <v>1197</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>1274</v>
@@ -11328,54 +11334,54 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="0" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>562</v>
+        <v>1225</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="0" t="s">
-        <v>864</v>
+        <v>998</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>1226</v>
+        <v>562</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="0" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="0" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="0" t="s">
-        <v>900</v>
+        <v>863</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>720</v>
+        <v>1228</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>1274</v>
@@ -11383,10 +11389,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="0" t="s">
-        <v>934</v>
+        <v>900</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>1229</v>
+        <v>720</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>1274</v>
@@ -11394,10 +11400,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="0" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>1274</v>
@@ -11405,10 +11411,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="0" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>593</v>
+        <v>1230</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>1274</v>
@@ -11416,10 +11422,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="0" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>1231</v>
+        <v>593</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>1274</v>
@@ -11427,10 +11433,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="0" t="s">
-        <v>944</v>
+        <v>931</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>1274</v>
@@ -11438,10 +11444,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="0" t="s">
-        <v>871</v>
+        <v>944</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>1274</v>
@@ -11449,32 +11455,32 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="0" t="s">
-        <v>858</v>
+        <v>871</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="0" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="0" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>553</v>
+        <v>1235</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>1274</v>
@@ -11482,54 +11488,54 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="0" t="s">
-        <v>1298</v>
+        <v>859</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>1299</v>
+        <v>553</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1300</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="0" t="s">
-        <v>905</v>
+        <v>1298</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>1236</v>
+        <v>1299</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1275</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="0" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1282</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="0" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>1275</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="0" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>1275</v>
@@ -11537,10 +11543,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="0" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>1275</v>
@@ -11548,10 +11554,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="0" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>1275</v>
@@ -11559,10 +11565,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="0" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>1275</v>
@@ -11570,10 +11576,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="0" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>1275</v>
@@ -11581,10 +11587,10 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="0" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>1275</v>
@@ -11592,10 +11598,10 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="0" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>1275</v>
@@ -11603,21 +11609,21 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="0" t="s">
-        <v>985</v>
+        <v>911</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="0" t="s">
-        <v>964</v>
+        <v>985</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>1274</v>
@@ -11625,10 +11631,10 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="0" t="s">
-        <v>948</v>
+        <v>964</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>1274</v>
@@ -11636,10 +11642,10 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="0" t="s">
-        <v>886</v>
+        <v>948</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>1274</v>
@@ -11647,10 +11653,10 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="0" t="s">
-        <v>978</v>
+        <v>886</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>555</v>
+        <v>1249</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>1274</v>
@@ -11658,7 +11664,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="0" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B156" s="0" t="s">
         <v>555</v>
@@ -11669,32 +11675,32 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="0" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="B157" s="0" t="s">
         <v>555</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>1300</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="0" t="s">
-        <v>898</v>
+        <v>977</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>1272</v>
+        <v>555</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>1274</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="0" t="s">
-        <v>865</v>
+        <v>898</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>1252</v>
+        <v>1272</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>1274</v>
@@ -11702,10 +11708,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="0" t="s">
-        <v>902</v>
+        <v>865</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>1274</v>
@@ -11713,21 +11719,21 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="0" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="0" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>595</v>
+        <v>1254</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>1275</v>
@@ -11735,32 +11741,32 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="0" t="s">
-        <v>1283</v>
+        <v>904</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C163" s="0" t="s">
-        <v>1282</v>
+        <v>595</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>1275</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="0" t="s">
-        <v>861</v>
+        <v>1283</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>1274</v>
+        <v>1284</v>
+      </c>
+      <c r="C164" s="0" t="s">
+        <v>1282</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="0" t="s">
-        <v>954</v>
+        <v>861</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>737</v>
+        <v>1255</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>1274</v>
@@ -11768,65 +11774,65 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="0" t="s">
-        <v>932</v>
+        <v>954</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>1256</v>
+        <v>737</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="0" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>1229</v>
+        <v>1256</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="0" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>1257</v>
+        <v>1229</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="0" t="s">
-        <v>891</v>
+        <v>942</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="0" t="s">
-        <v>940</v>
+        <v>891</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="0" t="s">
-        <v>926</v>
+        <v>940</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>1275</v>
@@ -11834,21 +11840,21 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="0" t="s">
-        <v>958</v>
+        <v>926</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="0" t="s">
-        <v>922</v>
+        <v>958</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>1274</v>
@@ -11856,32 +11862,32 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="0" t="s">
-        <v>1409</v>
+        <v>922</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>1412</v>
-      </c>
-      <c r="C174" s="0" t="s">
-        <v>1414</v>
+        <v>1262</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="0" t="s">
-        <v>916</v>
+        <v>1409</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>1274</v>
+        <v>1412</v>
+      </c>
+      <c r="C175" s="0" t="s">
+        <v>1414</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="0" t="s">
-        <v>874</v>
+        <v>916</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>1225</v>
+        <v>1263</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>1274</v>
@@ -11889,10 +11895,10 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="0" t="s">
-        <v>963</v>
+        <v>874</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>1268</v>
+        <v>1225</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>1274</v>
@@ -11900,10 +11906,10 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="0" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>1274</v>
@@ -11911,7 +11917,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="0" t="s">
-        <v>936</v>
+        <v>962</v>
       </c>
       <c r="B179" s="0" t="s">
         <v>1269</v>
@@ -11922,19 +11928,30 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="0" t="s">
         <v>937</v>
       </c>
-      <c r="B180" s="0" t="s">
+      <c r="B181" s="0" t="s">
         <v>1270</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="C181" s="1" t="s">
         <v>1414</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D164">
-    <sortState ref="A2:D180">
-      <sortCondition ref="A2:A180"/>
+    <sortState ref="A2:D181">
+      <sortCondition ref="A2:A181"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="190" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="180" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -5398,8 +5398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E225" sqref="E225"/>
+    <sheetView topLeftCell="A247" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E266" sqref="E266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5428,7 +5428,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.500000" hidden="1">
+    <row r="2" spans="1:5">
       <c r="A2" s="0" t="s">
         <v>60</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.500000" hidden="1">
+    <row r="3" spans="1:5">
       <c r="A3" s="0" t="s">
         <v>44</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.500000" hidden="1">
+    <row r="4" spans="1:5">
       <c r="A4" s="0" t="s">
         <v>177</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.500000" hidden="1">
+    <row r="5" spans="1:5">
       <c r="A5" s="0" t="s">
         <v>179</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.500000" hidden="1">
+    <row r="6" spans="1:5">
       <c r="A6" s="0" t="s">
         <v>466</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.500000" hidden="1">
+    <row r="7" spans="1:5">
       <c r="A7" s="0" t="s">
         <v>181</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.500000" hidden="1">
+    <row r="10" spans="1:5">
       <c r="A10" s="0" t="s">
         <v>62</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.500000" hidden="1">
+    <row r="11" spans="1:5">
       <c r="A11" s="0" t="s">
         <v>183</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.500000" hidden="1">
+    <row r="12" spans="1:5">
       <c r="A12" s="0" t="s">
         <v>64</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16.500000" hidden="1">
+    <row r="13" spans="1:5">
       <c r="A13" s="0" t="s">
         <v>20</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16.500000" hidden="1">
+    <row r="14" spans="1:5">
       <c r="A14" s="0" t="s">
         <v>185</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16.500000" hidden="1">
+    <row r="15" spans="1:5">
       <c r="A15" s="0" t="s">
         <v>427</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16.500000" hidden="1">
+    <row r="16" spans="1:5">
       <c r="A16" s="0" t="s">
         <v>468</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.500000" hidden="1">
+    <row r="17" spans="1:5">
       <c r="A17" s="0" t="s">
         <v>508</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.500000" hidden="1">
+    <row r="18" spans="1:5">
       <c r="A18" s="0" t="s">
         <v>187</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16.500000" hidden="1">
+    <row r="19" spans="1:5">
       <c r="A19" s="0" t="s">
         <v>189</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16.500000" hidden="1">
+    <row r="20" spans="1:5">
       <c r="A20" s="0" t="s">
         <v>12</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16.500000" hidden="1">
+    <row r="21" spans="1:5">
       <c r="A21" s="0" t="s">
         <v>191</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16.500000" hidden="1">
+    <row r="22" spans="1:5">
       <c r="A22" s="0" t="s">
         <v>193</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16.500000" hidden="1">
+    <row r="23" spans="1:5">
       <c r="A23" s="0" t="s">
         <v>66</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16.500000" hidden="1">
+    <row r="24" spans="1:5">
       <c r="A24" s="0" t="s">
         <v>429</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16.500000" hidden="1">
+    <row r="25" spans="1:5">
       <c r="A25" s="0" t="s">
         <v>68</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.500000" hidden="1">
+    <row r="26" spans="1:5">
       <c r="A26" s="0" t="s">
         <v>195</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="16.500000" hidden="1">
+    <row r="27" spans="1:5">
       <c r="A27" s="0" t="s">
         <v>197</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16.500000" hidden="1">
+    <row r="28" spans="1:5">
       <c r="A28" s="0" t="s">
         <v>199</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16.500000" hidden="1">
+    <row r="29" spans="1:5">
       <c r="A29" s="0" t="s">
         <v>201</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="16.500000" hidden="1">
+    <row r="30" spans="1:5">
       <c r="A30" s="0" t="s">
         <v>70</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16.500000" hidden="1">
+    <row r="31" spans="1:5">
       <c r="A31" s="0" t="s">
         <v>445</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="16.500000" hidden="1">
+    <row r="32" spans="1:5">
       <c r="A32" s="0" t="s">
         <v>203</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.500000" hidden="1">
+    <row r="33" spans="1:5">
       <c r="A33" s="0" t="s">
         <v>457</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.500000" hidden="1">
+    <row r="34" spans="1:5">
       <c r="A34" s="0" t="s">
         <v>50</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="16.500000" hidden="1">
+    <row r="35" spans="1:5">
       <c r="A35" s="0" t="s">
         <v>205</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="16.500000" hidden="1">
+    <row r="36" spans="1:5">
       <c r="A36" s="0" t="s">
         <v>207</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="16.500000" hidden="1">
+    <row r="37" spans="1:5">
       <c r="A37" s="0" t="s">
         <v>209</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16.500000" hidden="1">
+    <row r="38" spans="1:5">
       <c r="A38" s="0" t="s">
         <v>211</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="16.500000" hidden="1">
+    <row r="39" spans="1:5">
       <c r="A39" s="0" t="s">
         <v>72</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="16.500000" hidden="1">
+    <row r="40" spans="1:5">
       <c r="A40" s="0" t="s">
         <v>213</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="16.500000" hidden="1">
+    <row r="41" spans="1:5">
       <c r="A41" s="0" t="s">
         <v>215</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.500000" hidden="1">
+    <row r="42" spans="1:5">
       <c r="A42" s="0" t="s">
         <v>217</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16.500000" hidden="1">
+    <row r="43" spans="1:5">
       <c r="A43" s="0" t="s">
         <v>1323</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="16.500000" hidden="1">
+    <row r="44" spans="1:5">
       <c r="A44" s="0" t="s">
         <v>219</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16.500000" hidden="1">
+    <row r="45" spans="1:5">
       <c r="A45" s="0" t="s">
         <v>221</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16.500000" hidden="1">
+    <row r="47" spans="1:5">
       <c r="A47" s="0" t="s">
         <v>74</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="16.500000" hidden="1">
+    <row r="48" spans="1:5">
       <c r="A48" s="0" t="s">
         <v>223</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16.500000" hidden="1">
+    <row r="49" spans="1:5">
       <c r="A49" s="0" t="s">
         <v>225</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16.500000" hidden="1">
+    <row r="50" spans="1:5">
       <c r="A50" s="0" t="s">
         <v>227</v>
       </c>
@@ -6261,7 +6261,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="16.500000" hidden="1">
+    <row r="51" spans="1:5">
       <c r="A51" s="0" t="s">
         <v>431</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="16.500000" hidden="1">
+    <row r="52" spans="1:5">
       <c r="A52" s="0" t="s">
         <v>76</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16.500000" hidden="1">
+    <row r="53" spans="1:5">
       <c r="A53" s="0" t="s">
         <v>78</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="16.500000" hidden="1">
+    <row r="54" spans="1:5">
       <c r="A54" s="0" t="s">
         <v>144</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="16.500000" hidden="1">
+    <row r="55" spans="1:5">
       <c r="A55" s="0" t="s">
         <v>229</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="16.500000" hidden="1">
+    <row r="56" spans="1:5">
       <c r="A56" s="0" t="s">
         <v>130</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="16.500000" hidden="1">
+    <row r="57" spans="1:5">
       <c r="A57" s="0" t="s">
         <v>231</v>
       </c>
@@ -6380,7 +6380,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="16.500000" hidden="1">
+    <row r="58" spans="1:5">
       <c r="A58" s="0" t="s">
         <v>233</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="16.500000" hidden="1">
+    <row r="59" spans="1:5">
       <c r="A59" s="0" t="s">
         <v>16</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="16.500000" hidden="1">
+    <row r="60" spans="1:5">
       <c r="A60" s="0" t="s">
         <v>447</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="16.500000" hidden="1">
+    <row r="61" spans="1:5">
       <c r="A61" s="0" t="s">
         <v>168</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="16.500000" hidden="1">
+    <row r="62" spans="1:5">
       <c r="A62" s="0" t="s">
         <v>235</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="16.500000" hidden="1">
+    <row r="63" spans="1:5">
       <c r="A63" s="0" t="s">
         <v>237</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="16.500000" hidden="1">
+    <row r="64" spans="1:5">
       <c r="A64" s="0" t="s">
         <v>48</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="16.500000" hidden="1">
+    <row r="65" spans="1:5">
       <c r="A65" s="0" t="s">
         <v>239</v>
       </c>
@@ -6516,7 +6516,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="16.500000" hidden="1">
+    <row r="66" spans="1:5">
       <c r="A66" s="0" t="s">
         <v>132</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="16.500000" hidden="1">
+    <row r="67" spans="1:5">
       <c r="A67" s="0" t="s">
         <v>80</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="16.500000" hidden="1">
+    <row r="68" spans="1:5">
       <c r="A68" s="0" t="s">
         <v>158</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="16.500000" hidden="1">
+    <row r="69" spans="1:5">
       <c r="A69" s="0" t="s">
         <v>170</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="16.500000" hidden="1">
+    <row r="70" spans="1:5">
       <c r="A70" s="0" t="s">
         <v>422</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="16.500000" hidden="1">
+    <row r="71" spans="1:5">
       <c r="A71" s="0" t="s">
         <v>2</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="16.500000" hidden="1">
+    <row r="72" spans="1:5">
       <c r="A72" s="0" t="s">
         <v>241</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="16.500000" hidden="1">
+    <row r="73" spans="1:5">
       <c r="A73" s="0" t="s">
         <v>243</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="16.500000" hidden="1">
+    <row r="74" spans="1:5">
       <c r="A74" s="0" t="s">
         <v>24</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="16.500000" hidden="1">
+    <row r="75" spans="1:5">
       <c r="A75" s="0" t="s">
         <v>82</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="16.500000" hidden="1">
+    <row r="76" spans="1:5">
       <c r="A76" s="0" t="s">
         <v>54</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="16.500000" hidden="1">
+    <row r="77" spans="1:5">
       <c r="A77" s="0" t="s">
         <v>245</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="16.500000" hidden="1">
+    <row r="79" spans="1:5">
       <c r="A79" s="0" t="s">
         <v>470</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="16.500000" hidden="1">
+    <row r="80" spans="1:5">
       <c r="A80" s="0" t="s">
         <v>8</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="16.500000" hidden="1">
+    <row r="81" spans="1:5">
       <c r="A81" s="0" t="s">
         <v>249</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="16.500000" hidden="1">
+    <row r="82" spans="1:5">
       <c r="A82" s="0" t="s">
         <v>251</v>
       </c>
@@ -6805,7 +6805,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="16.500000" hidden="1">
+    <row r="83" spans="1:5">
       <c r="A83" s="0" t="s">
         <v>253</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="16.500000" hidden="1">
+    <row r="84" spans="1:5">
       <c r="A84" s="0" t="s">
         <v>255</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="16.500000" hidden="1">
+    <row r="85" spans="1:5">
       <c r="A85" s="0" t="s">
         <v>257</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="16.500000" hidden="1">
+    <row r="86" spans="1:5">
       <c r="A86" s="0" t="s">
         <v>259</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="16.500000" hidden="1">
+    <row r="87" spans="1:5">
       <c r="A87" s="0" t="s">
         <v>261</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="16.500000" hidden="1">
+    <row r="88" spans="1:5">
       <c r="A88" s="0" t="s">
         <v>263</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="16.500000" hidden="1">
+    <row r="89" spans="1:5">
       <c r="A89" s="0" t="s">
         <v>0</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="16.500000" hidden="1">
+    <row r="90" spans="1:5">
       <c r="A90" s="0" t="s">
         <v>273</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="16.500000" hidden="1">
+    <row r="91" spans="1:5">
       <c r="A91" s="0" t="s">
         <v>265</v>
       </c>
@@ -6958,7 +6958,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="16.500000" hidden="1">
+    <row r="92" spans="1:5">
       <c r="A92" s="0" t="s">
         <v>267</v>
       </c>
@@ -6975,7 +6975,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="16.500000" hidden="1">
+    <row r="93" spans="1:5">
       <c r="A93" s="0" t="s">
         <v>269</v>
       </c>
@@ -6992,7 +6992,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="16.500000" hidden="1">
+    <row r="94" spans="1:5">
       <c r="A94" s="0" t="s">
         <v>42</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="16.500000" hidden="1">
+    <row r="95" spans="1:5">
       <c r="A95" s="0" t="s">
         <v>464</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="16.500000" hidden="1">
+    <row r="96" spans="1:5">
       <c r="A96" s="0" t="s">
         <v>271</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="16.500000" hidden="1">
+    <row r="97" spans="1:5">
       <c r="A97" s="0" t="s">
         <v>84</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="16.500000" hidden="1">
+    <row r="99" spans="1:5">
       <c r="A99" s="0" t="s">
         <v>134</v>
       </c>
@@ -7094,7 +7094,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="16.500000" hidden="1">
+    <row r="100" spans="1:5">
       <c r="A100" s="0" t="s">
         <v>443</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="16.500000" hidden="1">
+    <row r="101" spans="1:5">
       <c r="A101" s="0" t="s">
         <v>275</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="16.500000" hidden="1">
+    <row r="103" spans="1:5">
       <c r="A103" s="0" t="s">
         <v>14</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="16.500000" hidden="1">
+    <row r="104" spans="1:5">
       <c r="A104" s="0" t="s">
         <v>1481</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="16.500000" hidden="1">
+    <row r="105" spans="1:5">
       <c r="A105" s="0" t="s">
         <v>58</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="16.500000" hidden="1">
+    <row r="106" spans="1:5">
       <c r="A106" s="0" t="s">
         <v>152</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="16.500000" hidden="1">
+    <row r="107" spans="1:5">
       <c r="A107" s="0" t="s">
         <v>86</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="16.500000" hidden="1">
+    <row r="108" spans="1:5">
       <c r="A108" s="0" t="s">
         <v>277</v>
       </c>
@@ -7247,7 +7247,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="16.500000" hidden="1">
+    <row r="109" spans="1:5">
       <c r="A109" s="0" t="s">
         <v>279</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="16.500000" hidden="1">
+    <row r="110" spans="1:5">
       <c r="A110" s="0" t="s">
         <v>281</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="16.500000" hidden="1">
+    <row r="111" spans="1:5">
       <c r="A111" s="0" t="s">
         <v>56</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="16.500000" hidden="1">
+    <row r="112" spans="1:5">
       <c r="A112" s="0" t="s">
         <v>283</v>
       </c>
@@ -7315,7 +7315,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="16.500000" hidden="1">
+    <row r="113" spans="1:5">
       <c r="A113" s="0" t="s">
         <v>164</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="16.500000" hidden="1">
+    <row r="114" spans="1:5">
       <c r="A114" s="0" t="s">
         <v>30</v>
       </c>
@@ -7349,7 +7349,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="16.500000" hidden="1">
+    <row r="115" spans="1:5">
       <c r="A115" s="0" t="s">
         <v>90</v>
       </c>
@@ -7366,7 +7366,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="16.500000" hidden="1">
+    <row r="116" spans="1:5">
       <c r="A116" s="0" t="s">
         <v>285</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="16.500000" hidden="1">
+    <row r="117" spans="1:5">
       <c r="A117" s="0" t="s">
         <v>88</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="16.500000" hidden="1">
+    <row r="118" spans="1:5">
       <c r="A118" s="0" t="s">
         <v>510</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="16.500000" hidden="1">
+    <row r="119" spans="1:5">
       <c r="A119" s="0" t="s">
         <v>154</v>
       </c>
@@ -7434,7 +7434,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="16.500000" hidden="1">
+    <row r="120" spans="1:5">
       <c r="A120" s="0" t="s">
         <v>433</v>
       </c>
@@ -7451,7 +7451,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="16.500000" hidden="1">
+    <row r="121" spans="1:5">
       <c r="A121" s="0" t="s">
         <v>287</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="16.500000" hidden="1">
+    <row r="122" spans="1:5">
       <c r="A122" s="0" t="s">
         <v>92</v>
       </c>
@@ -7485,7 +7485,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="16.500000" hidden="1">
+    <row r="123" spans="1:5">
       <c r="A123" s="0" t="s">
         <v>451</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="16.500000" hidden="1">
+    <row r="124" spans="1:5">
       <c r="A124" s="0" t="s">
         <v>289</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="16.500000" hidden="1">
+    <row r="125" spans="1:5">
       <c r="A125" s="0" t="s">
         <v>518</v>
       </c>
@@ -7536,7 +7536,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="16.500000" hidden="1">
+    <row r="126" spans="1:5">
       <c r="A126" s="0" t="s">
         <v>293</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="16.500000" hidden="1">
+    <row r="127" spans="1:5">
       <c r="A127" s="0" t="s">
         <v>26</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="16.500000" hidden="1">
+    <row r="128" spans="1:5">
       <c r="A128" s="0" t="s">
         <v>291</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="16.500000" hidden="1">
+    <row r="129" spans="1:5">
       <c r="A129" s="0" t="s">
         <v>297</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="16.500000" hidden="1">
+    <row r="131" spans="1:5">
       <c r="A131" s="0" t="s">
         <v>522</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="16.500000" hidden="1">
+    <row r="132" spans="1:5">
       <c r="A132" s="0" t="s">
         <v>22</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="16.500000" hidden="1">
+    <row r="133" spans="1:5">
       <c r="A133" s="0" t="s">
         <v>414</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="16.500000" hidden="1">
+    <row r="134" spans="1:5">
       <c r="A134" s="0" t="s">
         <v>10</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="16.500000" hidden="1">
+    <row r="135" spans="1:5">
       <c r="A135" s="0" t="s">
         <v>299</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="16.500000" hidden="1">
+    <row r="136" spans="1:5">
       <c r="A136" s="0" t="s">
         <v>301</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="16.500000" hidden="1">
+    <row r="137" spans="1:5">
       <c r="A137" s="0" t="s">
         <v>295</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="16.500000" hidden="1">
+    <row r="138" spans="1:5">
       <c r="A138" s="0" t="s">
         <v>305</v>
       </c>
@@ -7757,7 +7757,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="16.500000" hidden="1">
+    <row r="139" spans="1:5">
       <c r="A139" s="0" t="s">
         <v>499</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="16.500000" hidden="1">
+    <row r="140" spans="1:5">
       <c r="A140" s="0" t="s">
         <v>307</v>
       </c>
@@ -7791,7 +7791,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="16.500000" hidden="1">
+    <row r="141" spans="1:5">
       <c r="A141" s="0" t="s">
         <v>309</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="16.500000" hidden="1">
+    <row r="143" spans="1:5">
       <c r="A143" s="0" t="s">
         <v>94</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="16.500000" hidden="1">
+    <row r="144" spans="1:5">
       <c r="A144" s="0" t="s">
         <v>303</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="16.500000" hidden="1">
+    <row r="145" spans="1:5">
       <c r="A145" s="0" t="s">
         <v>311</v>
       </c>
@@ -7876,7 +7876,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="16.500000" hidden="1">
+    <row r="146" spans="1:5">
       <c r="A146" s="0" t="s">
         <v>437</v>
       </c>
@@ -7893,7 +7893,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="16.500000" hidden="1">
+    <row r="147" spans="1:5">
       <c r="A147" s="0" t="s">
         <v>124</v>
       </c>
@@ -7910,7 +7910,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="16.500000" hidden="1">
+    <row r="148" spans="1:5">
       <c r="A148" s="0" t="s">
         <v>453</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="16.500000" hidden="1">
+    <row r="149" spans="1:5">
       <c r="A149" s="0" t="s">
         <v>1403</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="16.500000" hidden="1">
+    <row r="150" spans="1:5">
       <c r="A150" s="0" t="s">
         <v>313</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="16.500000" hidden="1">
+    <row r="151" spans="1:5">
       <c r="A151" s="0" t="s">
         <v>317</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="16.500000" hidden="1">
+    <row r="152" spans="1:5">
       <c r="A152" s="0" t="s">
         <v>319</v>
       </c>
@@ -7995,7 +7995,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="16.500000" hidden="1">
+    <row r="153" spans="1:5">
       <c r="A153" s="0" t="s">
         <v>321</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="16.500000" hidden="1">
+    <row r="154" spans="1:5">
       <c r="A154" s="0" t="s">
         <v>435</v>
       </c>
@@ -8029,7 +8029,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="16.500000" hidden="1">
+    <row r="155" spans="1:5">
       <c r="A155" s="0" t="s">
         <v>323</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="16.500000" hidden="1">
+    <row r="156" spans="1:5">
       <c r="A156" s="0" t="s">
         <v>325</v>
       </c>
@@ -8063,7 +8063,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="16.500000" hidden="1">
+    <row r="157" spans="1:5">
       <c r="A157" s="0" t="s">
         <v>96</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="16.500000" hidden="1">
+    <row r="158" spans="1:5">
       <c r="A158" s="0" t="s">
         <v>327</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="16.500000" hidden="1">
+    <row r="159" spans="1:5">
       <c r="A159" s="0" t="s">
         <v>315</v>
       </c>
@@ -8114,7 +8114,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="16.500000" hidden="1">
+    <row r="160" spans="1:5">
       <c r="A160" s="0" t="s">
         <v>331</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="16.500000" hidden="1">
+    <row r="161" spans="1:5">
       <c r="A161" s="0" t="s">
         <v>329</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="16.500000" hidden="1">
+    <row r="162" spans="1:5">
       <c r="A162" s="0" t="s">
         <v>333</v>
       </c>
@@ -8165,7 +8165,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="16.500000" hidden="1">
+    <row r="163" spans="1:5">
       <c r="A163" s="0" t="s">
         <v>46</v>
       </c>
@@ -8182,7 +8182,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="16.500000" hidden="1">
+    <row r="164" spans="1:5">
       <c r="A164" s="0" t="s">
         <v>335</v>
       </c>
@@ -8199,7 +8199,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="16.500000" hidden="1">
+    <row r="165" spans="1:5">
       <c r="A165" s="0" t="s">
         <v>100</v>
       </c>
@@ -8216,7 +8216,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="16.500000" hidden="1">
+    <row r="166" spans="1:5">
       <c r="A166" s="0" t="s">
         <v>337</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="16.500000" hidden="1">
+    <row r="167" spans="1:5">
       <c r="A167" s="0" t="s">
         <v>140</v>
       </c>
@@ -8250,7 +8250,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="16.500000" hidden="1">
+    <row r="168" spans="1:5">
       <c r="A168" s="0" t="s">
         <v>339</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="16.500000" hidden="1">
+    <row r="169" spans="1:5">
       <c r="A169" s="0" t="s">
         <v>98</v>
       </c>
@@ -8284,7 +8284,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="16.500000" hidden="1">
+    <row r="170" spans="1:5">
       <c r="A170" s="0" t="s">
         <v>439</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="16.500000" hidden="1">
+    <row r="171" spans="1:5">
       <c r="A171" s="0" t="s">
         <v>162</v>
       </c>
@@ -8318,7 +8318,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="16.500000" hidden="1">
+    <row r="172" spans="1:5">
       <c r="A172" s="0" t="s">
         <v>416</v>
       </c>
@@ -8335,7 +8335,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="16.500000" hidden="1">
+    <row r="173" spans="1:5">
       <c r="A173" s="0" t="s">
         <v>172</v>
       </c>
@@ -8352,7 +8352,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="16.500000" hidden="1">
+    <row r="174" spans="1:5">
       <c r="A174" s="0" t="s">
         <v>102</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="16.500000" hidden="1">
+    <row r="175" spans="1:5">
       <c r="A175" s="0" t="s">
         <v>174</v>
       </c>
@@ -8386,7 +8386,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="16.500000" hidden="1">
+    <row r="176" spans="1:5">
       <c r="A176" s="0" t="s">
         <v>341</v>
       </c>
@@ -8403,7 +8403,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="16.500000" hidden="1">
+    <row r="177" spans="1:5">
       <c r="A177" s="0" t="s">
         <v>501</v>
       </c>
@@ -8420,7 +8420,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="16.500000" hidden="1">
+    <row r="178" spans="1:5">
       <c r="A178" s="0" t="s">
         <v>343</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="16.500000" hidden="1">
+    <row r="179" spans="1:5">
       <c r="A179" s="0" t="s">
         <v>18</v>
       </c>
@@ -8454,7 +8454,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="16.500000" hidden="1">
+    <row r="180" spans="1:5">
       <c r="A180" s="0" t="s">
         <v>52</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="16.500000" hidden="1">
+    <row r="182" spans="1:5">
       <c r="A182" s="0" t="s">
         <v>345</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="16.500000" hidden="1">
+    <row r="183" spans="1:5">
       <c r="A183" s="0" t="s">
         <v>128</v>
       </c>
@@ -8522,7 +8522,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="16.500000" hidden="1">
+    <row r="184" spans="1:5">
       <c r="A184" s="0" t="s">
         <v>104</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="16.500000" hidden="1">
+    <row r="185" spans="1:5">
       <c r="A185" s="0" t="s">
         <v>1324</v>
       </c>
@@ -8556,7 +8556,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="16.500000" hidden="1">
+    <row r="186" spans="1:5">
       <c r="A186" s="0" t="s">
         <v>472</v>
       </c>
@@ -8590,7 +8590,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="16.500000" hidden="1">
+    <row r="188" spans="1:5">
       <c r="A188" s="0" t="s">
         <v>506</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="16.500000" hidden="1">
+    <row r="189" spans="1:5">
       <c r="A189" s="0" t="s">
         <v>142</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="16.500000" hidden="1">
+    <row r="190" spans="1:5">
       <c r="A190" s="0" t="s">
         <v>460</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="16.500000" hidden="1">
+    <row r="191" spans="1:5">
       <c r="A191" s="0" t="s">
         <v>32</v>
       </c>
@@ -8658,7 +8658,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="16.500000" hidden="1">
+    <row r="192" spans="1:5">
       <c r="A192" s="0" t="s">
         <v>349</v>
       </c>
@@ -8675,7 +8675,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="16.500000" hidden="1">
+    <row r="193" spans="1:5">
       <c r="A193" s="0" t="s">
         <v>351</v>
       </c>
@@ -8692,7 +8692,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="16.500000" hidden="1">
+    <row r="194" spans="1:5">
       <c r="A194" s="0" t="s">
         <v>347</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="16.500000" hidden="1">
+    <row r="195" spans="1:5">
       <c r="A195" s="0" t="s">
         <v>495</v>
       </c>
@@ -8726,7 +8726,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="16.500000" hidden="1">
+    <row r="196" spans="1:5">
       <c r="A196" s="0" t="s">
         <v>106</v>
       </c>
@@ -8743,7 +8743,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="16.500000" hidden="1">
+    <row r="197" spans="1:5">
       <c r="A197" s="0" t="s">
         <v>353</v>
       </c>
@@ -8760,7 +8760,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="16.500000" hidden="1">
+    <row r="198" spans="1:5">
       <c r="A198" s="0" t="s">
         <v>108</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="16.500000" hidden="1">
+    <row r="199" spans="1:5">
       <c r="A199" s="0" t="s">
         <v>355</v>
       </c>
@@ -8794,7 +8794,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="16.500000" hidden="1">
+    <row r="200" spans="1:5">
       <c r="A200" s="0" t="s">
         <v>512</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="16.500000" hidden="1">
+    <row r="201" spans="1:5">
       <c r="A201" s="0" t="s">
         <v>357</v>
       </c>
@@ -8828,7 +8828,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="16.500000" hidden="1">
+    <row r="202" spans="1:5">
       <c r="A202" s="0" t="s">
         <v>359</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="16.500000" hidden="1">
+    <row r="203" spans="1:5">
       <c r="A203" s="0" t="s">
         <v>36</v>
       </c>
@@ -8862,7 +8862,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="16.500000" hidden="1">
+    <row r="204" spans="1:5">
       <c r="A204" s="0" t="s">
         <v>514</v>
       </c>
@@ -8896,7 +8896,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="16.500000" hidden="1">
+    <row r="206" spans="1:5">
       <c r="A206" s="0" t="s">
         <v>110</v>
       </c>
@@ -8913,7 +8913,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="16.500000" hidden="1">
+    <row r="207" spans="1:5">
       <c r="A207" s="0" t="s">
         <v>361</v>
       </c>
@@ -8930,7 +8930,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="16.500000" hidden="1">
+    <row r="208" spans="1:5">
       <c r="A208" s="0" t="s">
         <v>363</v>
       </c>
@@ -8947,7 +8947,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="16.500000" hidden="1">
+    <row r="209" spans="1:5">
       <c r="A209" s="0" t="s">
         <v>365</v>
       </c>
@@ -8964,7 +8964,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="16.500000" hidden="1">
+    <row r="210" spans="1:5">
       <c r="A210" s="0" t="s">
         <v>112</v>
       </c>
@@ -8981,7 +8981,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="16.500000" hidden="1">
+    <row r="211" spans="1:5">
       <c r="A211" s="0" t="s">
         <v>367</v>
       </c>
@@ -8998,7 +8998,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="16.500000" hidden="1">
+    <row r="212" spans="1:5">
       <c r="A212" s="0" t="s">
         <v>369</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="16.500000" hidden="1">
+    <row r="213" spans="1:5">
       <c r="A213" s="0" t="s">
         <v>4</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="16.500000" hidden="1">
+    <row r="214" spans="1:5">
       <c r="A214" s="0" t="s">
         <v>462</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="16.500000" hidden="1">
+    <row r="215" spans="1:5">
       <c r="A215" s="0" t="s">
         <v>28</v>
       </c>
@@ -9066,7 +9066,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="16.500000" hidden="1">
+    <row r="216" spans="1:5">
       <c r="A216" s="0" t="s">
         <v>489</v>
       </c>
@@ -9083,7 +9083,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="16.500000" hidden="1">
+    <row r="217" spans="1:5">
       <c r="A217" s="0" t="s">
         <v>418</v>
       </c>
@@ -9100,7 +9100,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="16.500000" hidden="1">
+    <row r="218" spans="1:5">
       <c r="A218" s="0" t="s">
         <v>371</v>
       </c>
@@ -9117,7 +9117,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="16.500000" hidden="1">
+    <row r="219" spans="1:5">
       <c r="A219" s="0" t="s">
         <v>373</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="16.500000" hidden="1">
+    <row r="220" spans="1:5">
       <c r="A220" s="0" t="s">
         <v>375</v>
       </c>
@@ -9151,7 +9151,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="16.500000" hidden="1">
+    <row r="221" spans="1:5">
       <c r="A221" s="0" t="s">
         <v>6</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="16.500000" hidden="1">
+    <row r="222" spans="1:5">
       <c r="A222" s="0" t="s">
         <v>38</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="16.500000" hidden="1">
+    <row r="223" spans="1:5">
       <c r="A223" s="0" t="s">
         <v>138</v>
       </c>
@@ -9202,7 +9202,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="16.500000" hidden="1">
+    <row r="224" spans="1:5">
       <c r="A224" s="0" t="s">
         <v>455</v>
       </c>
@@ -9236,7 +9236,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="16.500000" hidden="1">
+    <row r="226" spans="1:5">
       <c r="A226" s="0" t="s">
         <v>493</v>
       </c>
@@ -9253,7 +9253,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="16.500000" hidden="1">
+    <row r="227" spans="1:5">
       <c r="A227" s="0" t="s">
         <v>504</v>
       </c>
@@ -9270,7 +9270,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="16.500000" hidden="1">
+    <row r="228" spans="1:5">
       <c r="A228" s="0" t="s">
         <v>126</v>
       </c>
@@ -9284,7 +9284,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="16.500000" hidden="1">
+    <row r="229" spans="1:5">
       <c r="A229" s="0" t="s">
         <v>156</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="16.500000" hidden="1">
+    <row r="230" spans="1:5">
       <c r="A230" s="0" t="s">
         <v>114</v>
       </c>
@@ -9318,7 +9318,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="16.500000" hidden="1">
+    <row r="231" spans="1:5">
       <c r="A231" s="0" t="s">
         <v>377</v>
       </c>
@@ -9335,7 +9335,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="16.500000" hidden="1">
+    <row r="232" spans="1:5">
       <c r="A232" s="0" t="s">
         <v>449</v>
       </c>
@@ -9352,7 +9352,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="16.500000" hidden="1">
+    <row r="233" spans="1:5">
       <c r="A233" s="0" t="s">
         <v>1419</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="16.500000" hidden="1">
+    <row r="234" spans="1:5">
       <c r="A234" s="0" t="s">
         <v>381</v>
       </c>
@@ -9386,7 +9386,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="16.500000" hidden="1">
+    <row r="235" spans="1:5">
       <c r="A235" s="0" t="s">
         <v>387</v>
       </c>
@@ -9403,7 +9403,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="16.500000" hidden="1">
+    <row r="236" spans="1:5">
       <c r="A236" s="0" t="s">
         <v>385</v>
       </c>
@@ -9420,7 +9420,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="16.500000" hidden="1">
+    <row r="237" spans="1:5">
       <c r="A237" s="0" t="s">
         <v>379</v>
       </c>
@@ -9437,7 +9437,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="16.500000" hidden="1">
+    <row r="238" spans="1:5">
       <c r="A238" s="0" t="s">
         <v>389</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="16.500000" hidden="1">
+    <row r="239" spans="1:5">
       <c r="A239" s="0" t="s">
         <v>391</v>
       </c>
@@ -9471,7 +9471,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="16.500000" hidden="1">
+    <row r="240" spans="1:5">
       <c r="A240" s="0" t="s">
         <v>420</v>
       </c>
@@ -9488,7 +9488,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="16.500000" hidden="1">
+    <row r="241" spans="1:5">
       <c r="A241" s="0" t="s">
         <v>40</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="16.500000" hidden="1">
+    <row r="242" spans="1:5">
       <c r="A242" s="0" t="s">
         <v>395</v>
       </c>
@@ -9522,7 +9522,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="16.500000" hidden="1">
+    <row r="243" spans="1:5">
       <c r="A243" s="0" t="s">
         <v>397</v>
       </c>
@@ -9539,7 +9539,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="16.500000" hidden="1">
+    <row r="244" spans="1:5">
       <c r="A244" s="0" t="s">
         <v>383</v>
       </c>
@@ -9556,7 +9556,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="16.500000" hidden="1">
+    <row r="245" spans="1:5">
       <c r="A245" s="0" t="s">
         <v>393</v>
       </c>
@@ -9573,7 +9573,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="16.500000" hidden="1">
+    <row r="246" spans="1:5">
       <c r="A246" s="0" t="s">
         <v>116</v>
       </c>
@@ -9590,7 +9590,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="16.500000" hidden="1">
+    <row r="247" spans="1:5">
       <c r="A247" s="0" t="s">
         <v>1405</v>
       </c>
@@ -9607,7 +9607,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="16.500000" hidden="1">
+    <row r="248" spans="1:5">
       <c r="A248" s="0" t="s">
         <v>118</v>
       </c>
@@ -9624,7 +9624,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="16.500000" hidden="1">
+    <row r="249" spans="1:5">
       <c r="A249" s="0" t="s">
         <v>399</v>
       </c>
@@ -9641,7 +9641,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="16.500000" hidden="1">
+    <row r="250" spans="1:5">
       <c r="A250" s="0" t="s">
         <v>441</v>
       </c>
@@ -9658,7 +9658,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="16.500000" hidden="1">
+    <row r="251" spans="1:5">
       <c r="A251" s="0" t="s">
         <v>424</v>
       </c>
@@ -9675,7 +9675,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="16.500000" hidden="1">
+    <row r="252" spans="1:5">
       <c r="A252" s="0" t="s">
         <v>401</v>
       </c>
@@ -9692,7 +9692,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="16.500000" hidden="1">
+    <row r="253" spans="1:5">
       <c r="A253" s="0" t="s">
         <v>497</v>
       </c>
@@ -9709,7 +9709,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="16.500000" hidden="1">
+    <row r="254" spans="1:5">
       <c r="A254" s="0" t="s">
         <v>403</v>
       </c>
@@ -9726,7 +9726,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="16.500000" hidden="1">
+    <row r="255" spans="1:5">
       <c r="A255" s="0" t="s">
         <v>166</v>
       </c>
@@ -9743,7 +9743,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="16.500000" hidden="1">
+    <row r="256" spans="1:5">
       <c r="A256" s="0" t="s">
         <v>405</v>
       </c>
@@ -9760,7 +9760,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="16.500000" hidden="1">
+    <row r="257" spans="1:5">
       <c r="A257" s="0" t="s">
         <v>407</v>
       </c>
@@ -9794,7 +9794,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="16.500000" hidden="1">
+    <row r="259" spans="1:5">
       <c r="A259" s="0" t="s">
         <v>136</v>
       </c>
@@ -9811,7 +9811,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="16.500000" hidden="1">
+    <row r="260" spans="1:5">
       <c r="A260" s="0" t="s">
         <v>34</v>
       </c>
@@ -9845,7 +9845,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="16.500000" hidden="1">
+    <row r="262" spans="1:5">
       <c r="A262" s="0" t="s">
         <v>409</v>
       </c>
@@ -9862,7 +9862,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="16.500000" hidden="1">
+    <row r="263" spans="1:5">
       <c r="A263" s="0" t="s">
         <v>122</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="16.500000" hidden="1">
+    <row r="264" spans="1:5">
       <c r="A264" s="0" t="s">
         <v>516</v>
       </c>
@@ -9896,7 +9896,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="16.500000" hidden="1">
+    <row r="265" spans="1:5">
       <c r="A265" s="0" t="s">
         <v>411</v>
       </c>
@@ -9915,19 +9915,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E265">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="All"/>
-        <filter val="중국"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="All"/>
-        <filter val="미등장"/>
-        <filter val="삭제"/>
-      </filters>
-    </filterColumn>
     <sortState ref="A2:E265">
       <sortCondition ref="A2:A265"/>
     </sortState>

--- a/국가 TAG.xlsx
+++ b/국가 TAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="180" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="170" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="국가 태그" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="새_텍스트_문서" localSheetId="0">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'국가 태그'!$A$1:$E$265</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="1524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="1528">
   <si>
     <t xml:space="preserve">GER </t>
   </si>
@@ -4605,6 +4605,18 @@
   </si>
   <si>
     <t>독일 제국 (군사정부)</t>
+  </si>
+  <si>
+    <t>KMT</t>
+  </si>
+  <si>
+    <t>동북아시북아시아</t>
+  </si>
+  <si>
+    <t>동북아시아</t>
+  </si>
+  <si>
+    <t>중국국민당</t>
   </si>
 </sst>
 </file>
@@ -5396,10 +5408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E265"/>
+  <dimension ref="A1:E266"/>
   <sheetViews>
-    <sheetView topLeftCell="A247" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E266" sqref="E266"/>
+    <sheetView topLeftCell="A106" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -7130,118 +7142,118 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="0" t="s">
-        <v>481</v>
+        <v>1481</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>1287</v>
+        <v>841</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>1515</v>
+        <v>1482</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>1509</v>
+        <v>1479</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>1501</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="0" t="s">
-        <v>14</v>
+        <v>481</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>529</v>
+        <v>1287</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>543</v>
+        <v>1515</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>537</v>
+        <v>1509</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>534</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="0" t="s">
-        <v>1481</v>
+        <v>14</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>841</v>
+        <v>529</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>1482</v>
+        <v>543</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>1479</v>
+        <v>537</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>1478</v>
+        <v>534</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="0" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>529</v>
+        <v>811</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>566</v>
+        <v>582</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>537</v>
+        <v>1348</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>534</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="0" t="s">
-        <v>152</v>
+        <v>58</v>
       </c>
       <c r="B106" s="0" t="s">
         <v>529</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>616</v>
+        <v>566</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>1351</v>
+        <v>537</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>1341</v>
+        <v>534</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="0" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>811</v>
+        <v>529</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>582</v>
+        <v>616</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>1466</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="0" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>833</v>
+        <v>808</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>1387</v>
+        <v>1345</v>
       </c>
       <c r="E108" s="0" t="s">
         <v>1401</v>
@@ -7249,30 +7261,30 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="0" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>537</v>
+        <v>1387</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>534</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="0" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B110" s="0" t="s">
         <v>837</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>537</v>
@@ -7283,13 +7295,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="0" t="s">
-        <v>56</v>
+        <v>281</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>529</v>
+        <v>837</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>565</v>
+        <v>684</v>
       </c>
       <c r="D111" s="0" t="s">
         <v>537</v>
@@ -7300,81 +7312,81 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="0" t="s">
-        <v>283</v>
+        <v>56</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>808</v>
+        <v>529</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>685</v>
+        <v>565</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>1345</v>
+        <v>537</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>1401</v>
+        <v>534</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="0" t="s">
-        <v>164</v>
+        <v>88</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>1335</v>
+        <v>841</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>1334</v>
+        <v>1310</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>1401</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="0" t="s">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>1343</v>
+        <v>1335</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>843</v>
+        <v>1334</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>1333</v>
+        <v>1339</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>1341</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="0" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>836</v>
+        <v>1343</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>537</v>
+        <v>1333</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>534</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="0" t="s">
-        <v>285</v>
+        <v>90</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>808</v>
+        <v>836</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>686</v>
+        <v>844</v>
       </c>
       <c r="D116" s="0" t="s">
         <v>537</v>
@@ -7385,186 +7397,186 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="0" t="s">
-        <v>88</v>
+        <v>285</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>841</v>
+        <v>808</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>1310</v>
+        <v>686</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>1333</v>
+        <v>537</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>1466</v>
+        <v>534</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="0" t="s">
-        <v>510</v>
+        <v>154</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>837</v>
+        <v>808</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>800</v>
+        <v>617</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>1333</v>
+        <v>1477</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>1341</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="0" t="s">
-        <v>154</v>
+        <v>510</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>808</v>
+        <v>837</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>617</v>
+        <v>800</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>1477</v>
+        <v>1333</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>1478</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="0" t="s">
-        <v>433</v>
+        <v>287</v>
       </c>
       <c r="B120" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>762</v>
+        <v>687</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>1345</v>
+        <v>1485</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>1401</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="0" t="s">
-        <v>287</v>
+        <v>433</v>
       </c>
       <c r="B121" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>687</v>
+        <v>762</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>1485</v>
+        <v>1345</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>1484</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="0" t="s">
-        <v>92</v>
+        <v>289</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>836</v>
+        <v>812</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>846</v>
+        <v>688</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>537</v>
+        <v>1439</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>534</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="0" t="s">
-        <v>451</v>
+        <v>1524</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>812</v>
+        <v>1526</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>771</v>
+        <v>1527</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>1345</v>
+        <v>1520</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>1401</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="0" t="s">
-        <v>289</v>
+        <v>92</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>812</v>
+        <v>836</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>688</v>
+        <v>846</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>1439</v>
+        <v>537</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>1478</v>
+        <v>534</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="0" t="s">
-        <v>518</v>
+        <v>451</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>838</v>
+        <v>812</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>804</v>
+        <v>771</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>1341</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="0" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>837</v>
+        <v>808</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>537</v>
+        <v>1348</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>534</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="0" t="s">
-        <v>26</v>
+        <v>518</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>529</v>
+        <v>838</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>549</v>
+        <v>804</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="E127" s="0" t="s">
         <v>1341</v>
@@ -7572,183 +7584,183 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>808</v>
+        <v>837</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>1348</v>
+        <v>537</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>1478</v>
+        <v>534</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="0" t="s">
-        <v>297</v>
+        <v>26</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>1287</v>
+        <v>529</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>692</v>
+        <v>549</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>537</v>
+        <v>1351</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>534</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="0" t="s">
-        <v>483</v>
+        <v>522</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>1287</v>
+        <v>808</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>1516</v>
+        <v>806</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>1509</v>
+        <v>1348</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>1501</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="0" t="s">
-        <v>522</v>
+        <v>297</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>808</v>
+        <v>1287</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>806</v>
+        <v>692</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>1348</v>
+        <v>537</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>1478</v>
+        <v>534</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="0" t="s">
-        <v>22</v>
+        <v>483</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>529</v>
+        <v>1287</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>547</v>
+        <v>1516</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>537</v>
+        <v>1509</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>534</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="0" t="s">
-        <v>414</v>
+        <v>295</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>835</v>
+        <v>812</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>754</v>
+        <v>691</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>1342</v>
+        <v>1392</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>1401</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="0" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B134" s="0" t="s">
         <v>529</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>1460</v>
+        <v>537</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>1461</v>
+        <v>534</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="0" t="s">
-        <v>299</v>
+        <v>414</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>812</v>
+        <v>835</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>1304</v>
+        <v>754</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>537</v>
+        <v>1342</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>534</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="0" t="s">
-        <v>301</v>
+        <v>10</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>611</v>
+        <v>529</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>694</v>
+        <v>541</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>1345</v>
+        <v>1460</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>1401</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B137" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>691</v>
+        <v>1304</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>1392</v>
+        <v>537</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>1478</v>
+        <v>534</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="0" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>812</v>
+        <v>611</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D138" s="0" t="s">
         <v>1345</v>
@@ -7759,30 +7771,30 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="0" t="s">
-        <v>499</v>
+        <v>303</v>
       </c>
       <c r="B139" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>795</v>
+        <v>695</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>537</v>
+        <v>1495</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>534</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="0" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B140" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D140" s="0" t="s">
         <v>1345</v>
@@ -7793,13 +7805,13 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="0" t="s">
-        <v>309</v>
+        <v>499</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>1287</v>
+        <v>812</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>698</v>
+        <v>795</v>
       </c>
       <c r="D141" s="0" t="s">
         <v>537</v>
@@ -7810,16 +7822,16 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="0" t="s">
-        <v>520</v>
+        <v>307</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>1287</v>
+        <v>812</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>805</v>
+        <v>697</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>1339</v>
+        <v>1345</v>
       </c>
       <c r="E142" s="0" t="s">
         <v>1401</v>
@@ -7827,13 +7839,13 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="0" t="s">
-        <v>94</v>
+        <v>309</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>811</v>
+        <v>1287</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>587</v>
+        <v>698</v>
       </c>
       <c r="D143" s="0" t="s">
         <v>537</v>
@@ -7844,30 +7856,30 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="0" t="s">
-        <v>303</v>
+        <v>520</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>812</v>
+        <v>1287</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>695</v>
+        <v>805</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>1495</v>
+        <v>1339</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>1478</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="0" t="s">
-        <v>311</v>
+        <v>94</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>837</v>
+        <v>811</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>1332</v>
+        <v>587</v>
       </c>
       <c r="D145" s="0" t="s">
         <v>537</v>
@@ -7878,30 +7890,30 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="0" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="B146" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>1345</v>
+        <v>1438</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>1401</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="0" t="s">
-        <v>124</v>
+        <v>311</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>602</v>
+        <v>1332</v>
       </c>
       <c r="D147" s="0" t="s">
         <v>537</v>
@@ -7912,36 +7924,36 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="0" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="B148" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>1438</v>
+        <v>1345</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>1478</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="0" t="s">
-        <v>1403</v>
+        <v>124</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>1391</v>
+        <v>836</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>1404</v>
+        <v>602</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>1402</v>
+        <v>537</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>1341</v>
+        <v>534</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -7963,47 +7975,47 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="0" t="s">
-        <v>317</v>
+        <v>1403</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>812</v>
+        <v>1391</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>702</v>
+        <v>1404</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>1345</v>
+        <v>1402</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>1401</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="0" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>1333</v>
+        <v>1351</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>1341</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="0" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>611</v>
+        <v>812</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D153" s="0" t="s">
         <v>1345</v>
@@ -8014,30 +8026,30 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="0" t="s">
-        <v>435</v>
+        <v>319</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>812</v>
+        <v>833</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>763</v>
+        <v>703</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>1345</v>
+        <v>1333</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>1401</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="0" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>812</v>
+        <v>611</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D155" s="0" t="s">
         <v>1345</v>
@@ -8048,87 +8060,87 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="0" t="s">
-        <v>325</v>
+        <v>435</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>706</v>
+        <v>763</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>537</v>
+        <v>1345</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>1341</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="0" t="s">
-        <v>96</v>
+        <v>323</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>611</v>
+        <v>812</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>588</v>
+        <v>705</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>537</v>
+        <v>1345</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>1341</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="0" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>1345</v>
+        <v>537</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>1401</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="0" t="s">
-        <v>315</v>
+        <v>96</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>812</v>
+        <v>611</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>701</v>
+        <v>588</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>1351</v>
+        <v>537</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>1478</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="0" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>1368</v>
+        <v>707</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>1363</v>
+        <v>1345</v>
       </c>
       <c r="E160" s="0" t="s">
-        <v>1341</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -8150,169 +8162,169 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="0" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>812</v>
+        <v>828</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>710</v>
+        <v>1368</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>1434</v>
+        <v>1363</v>
       </c>
       <c r="E162" s="0" t="s">
-        <v>1484</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="0" t="s">
-        <v>46</v>
+        <v>333</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>529</v>
+        <v>812</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>559</v>
+        <v>710</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>537</v>
+        <v>1434</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>1341</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="0" t="s">
-        <v>335</v>
+        <v>98</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>831</v>
+        <v>811</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>713</v>
+        <v>1216</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>1479</v>
+        <v>1348</v>
       </c>
       <c r="E164" s="0" t="s">
-        <v>1478</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="0" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>815</v>
+        <v>529</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>590</v>
+        <v>559</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>1342</v>
+        <v>537</v>
       </c>
       <c r="E165" s="0" t="s">
-        <v>1401</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="0" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B166" s="0" t="s">
         <v>831</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>1455</v>
+        <v>1479</v>
       </c>
       <c r="E166" s="0" t="s">
-        <v>1456</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="0" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>537</v>
+        <v>1342</v>
       </c>
       <c r="E167" s="0" t="s">
-        <v>534</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="0" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>808</v>
+        <v>831</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>537</v>
+        <v>1455</v>
       </c>
       <c r="E168" s="0" t="s">
-        <v>534</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="0" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>1216</v>
+        <v>610</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>1348</v>
+        <v>537</v>
       </c>
       <c r="E169" s="0" t="s">
-        <v>1484</v>
+        <v>534</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="0" t="s">
-        <v>439</v>
+        <v>339</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>765</v>
+        <v>714</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>1440</v>
+        <v>537</v>
       </c>
       <c r="E170" s="0" t="s">
-        <v>1484</v>
+        <v>534</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="0" t="s">
-        <v>162</v>
+        <v>439</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>621</v>
+        <v>765</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>1476</v>
+        <v>1440</v>
       </c>
       <c r="E171" s="0" t="s">
         <v>1484</v>
@@ -8320,19 +8332,19 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="0" t="s">
-        <v>416</v>
+        <v>162</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>835</v>
+        <v>808</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>755</v>
+        <v>621</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>537</v>
+        <v>1476</v>
       </c>
       <c r="E172" s="0" t="s">
-        <v>534</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -8354,13 +8366,13 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="0" t="s">
-        <v>102</v>
+        <v>416</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>808</v>
+        <v>835</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>591</v>
+        <v>755</v>
       </c>
       <c r="D174" s="0" t="s">
         <v>537</v>
@@ -8371,47 +8383,47 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="0" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>837</v>
+        <v>809</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>627</v>
+        <v>604</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>537</v>
+        <v>1333</v>
       </c>
       <c r="E175" s="0" t="s">
-        <v>534</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="0" t="s">
-        <v>341</v>
+        <v>102</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>840</v>
+        <v>808</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>715</v>
+        <v>591</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>1339</v>
+        <v>537</v>
       </c>
       <c r="E176" s="0" t="s">
-        <v>1401</v>
+        <v>534</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="0" t="s">
-        <v>501</v>
+        <v>174</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>611</v>
+        <v>837</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>796</v>
+        <v>627</v>
       </c>
       <c r="D177" s="0" t="s">
         <v>537</v>
@@ -8422,16 +8434,16 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="0" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>825</v>
+        <v>840</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
       <c r="E178" s="0" t="s">
         <v>1401</v>
@@ -8439,13 +8451,13 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="0" t="s">
-        <v>18</v>
+        <v>501</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>529</v>
+        <v>611</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>545</v>
+        <v>796</v>
       </c>
       <c r="D179" s="0" t="s">
         <v>537</v>
@@ -8456,166 +8468,166 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="0" t="s">
-        <v>52</v>
+        <v>343</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>562</v>
+        <v>716</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>537</v>
+        <v>1345</v>
       </c>
       <c r="E180" s="0" t="s">
-        <v>534</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="0" t="s">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>1287</v>
+        <v>529</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>1385</v>
+        <v>545</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>1333</v>
+        <v>537</v>
       </c>
       <c r="E181" s="0" t="s">
-        <v>1341</v>
+        <v>534</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="0" t="s">
-        <v>345</v>
+        <v>52</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>611</v>
+        <v>832</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>717</v>
+        <v>562</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>1333</v>
+        <v>537</v>
       </c>
       <c r="E182" s="0" t="s">
-        <v>1341</v>
+        <v>534</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="0" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>809</v>
+        <v>1287</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>604</v>
+        <v>1385</v>
       </c>
       <c r="D183" s="0" t="s">
         <v>1333</v>
       </c>
       <c r="E183" s="0" t="s">
-        <v>1484</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="0" t="s">
-        <v>104</v>
+        <v>345</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>809</v>
+        <v>611</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>592</v>
+        <v>717</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>537</v>
+        <v>1333</v>
       </c>
       <c r="E184" s="0" t="s">
-        <v>534</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="0" t="s">
-        <v>1324</v>
+        <v>506</v>
       </c>
       <c r="B185" s="0" t="s">
         <v>819</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>1321</v>
+        <v>798</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>537</v>
+        <v>1348</v>
       </c>
       <c r="E185" s="0" t="s">
-        <v>534</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="0" t="s">
-        <v>472</v>
+        <v>104</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>781</v>
+        <v>592</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>1339</v>
+        <v>537</v>
       </c>
       <c r="E186" s="0" t="s">
-        <v>1401</v>
+        <v>534</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="0" t="s">
-        <v>487</v>
+        <v>1324</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>1287</v>
+        <v>819</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>789</v>
+        <v>1321</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>1333</v>
+        <v>537</v>
       </c>
       <c r="E187" s="0" t="s">
-        <v>1341</v>
+        <v>534</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="0" t="s">
-        <v>506</v>
+        <v>472</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>798</v>
+        <v>781</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>1348</v>
+        <v>1339</v>
       </c>
       <c r="E188" s="0" t="s">
-        <v>1484</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="0" t="s">
-        <v>142</v>
+        <v>487</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>611</v>
+        <v>1287</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>611</v>
+        <v>789</v>
       </c>
       <c r="D189" s="0" t="s">
         <v>1333</v>
@@ -8626,67 +8638,67 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="0" t="s">
-        <v>460</v>
+        <v>347</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>840</v>
+        <v>810</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>775</v>
+        <v>718</v>
       </c>
       <c r="D190" s="0" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
       <c r="E190" s="0" t="s">
-        <v>1401</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="0" t="s">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>529</v>
+        <v>611</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>729</v>
+        <v>611</v>
       </c>
       <c r="D191" s="0" t="s">
         <v>1333</v>
       </c>
       <c r="E191" s="0" t="s">
-        <v>534</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="0" t="s">
-        <v>349</v>
+        <v>460</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>825</v>
+        <v>840</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>719</v>
+        <v>775</v>
       </c>
       <c r="D192" s="0" t="s">
-        <v>537</v>
+        <v>1339</v>
       </c>
       <c r="E192" s="0" t="s">
-        <v>534</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="0" t="s">
-        <v>351</v>
+        <v>32</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>826</v>
+        <v>529</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>537</v>
+        <v>1333</v>
       </c>
       <c r="E193" s="0" t="s">
         <v>534</v>
@@ -8694,30 +8706,30 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>810</v>
+        <v>825</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>1333</v>
+        <v>537</v>
       </c>
       <c r="E194" s="0" t="s">
-        <v>1484</v>
+        <v>534</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="0" t="s">
-        <v>495</v>
+        <v>351</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>793</v>
+        <v>720</v>
       </c>
       <c r="D195" s="0" t="s">
         <v>537</v>
@@ -8728,47 +8740,47 @@
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="0" t="s">
-        <v>106</v>
+        <v>455</v>
       </c>
       <c r="B196" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>593</v>
+        <v>773</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>537</v>
+        <v>1438</v>
       </c>
       <c r="E196" s="0" t="s">
-        <v>534</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="0" t="s">
-        <v>353</v>
+        <v>495</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>721</v>
+        <v>793</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>1400</v>
+        <v>537</v>
       </c>
       <c r="E197" s="0" t="s">
-        <v>1401</v>
+        <v>534</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>1312</v>
+        <v>593</v>
       </c>
       <c r="D198" s="0" t="s">
         <v>537</v>
@@ -8779,50 +8791,50 @@
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="0" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>825</v>
+        <v>837</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>1351</v>
+        <v>1400</v>
       </c>
       <c r="E199" s="0" t="s">
-        <v>1341</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="0" t="s">
-        <v>512</v>
+        <v>108</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>828</v>
+        <v>808</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>801</v>
+        <v>1312</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>1355</v>
+        <v>537</v>
       </c>
       <c r="E200" s="0" t="s">
-        <v>1401</v>
+        <v>534</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="0" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D201" s="0" t="s">
-        <v>1333</v>
+        <v>1351</v>
       </c>
       <c r="E201" s="0" t="s">
         <v>1341</v>
@@ -8830,16 +8842,16 @@
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="0" t="s">
-        <v>359</v>
+        <v>512</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>812</v>
+        <v>828</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>724</v>
+        <v>801</v>
       </c>
       <c r="D202" s="0" t="s">
-        <v>1345</v>
+        <v>1355</v>
       </c>
       <c r="E202" s="0" t="s">
         <v>1401</v>
@@ -8847,13 +8859,13 @@
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="0" t="s">
-        <v>36</v>
+        <v>357</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>554</v>
+        <v>723</v>
       </c>
       <c r="D203" s="0" t="s">
         <v>1333</v>
@@ -8864,101 +8876,101 @@
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="0" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>837</v>
+        <v>812</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>802</v>
+        <v>724</v>
       </c>
       <c r="D204" s="0" t="s">
-        <v>1333</v>
+        <v>1345</v>
       </c>
       <c r="E204" s="0" t="s">
-        <v>1341</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="0" t="s">
-        <v>148</v>
+        <v>36</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>1287</v>
+        <v>833</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>1511</v>
+        <v>554</v>
       </c>
       <c r="D205" s="0" t="s">
-        <v>1521</v>
+        <v>1333</v>
       </c>
       <c r="E205" s="0" t="s">
-        <v>1464</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="0" t="s">
-        <v>110</v>
+        <v>514</v>
       </c>
       <c r="B206" s="0" t="s">
         <v>837</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>595</v>
+        <v>802</v>
       </c>
       <c r="D206" s="0" t="s">
-        <v>537</v>
+        <v>1333</v>
       </c>
       <c r="E206" s="0" t="s">
-        <v>534</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="0" t="s">
-        <v>361</v>
+        <v>148</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>826</v>
+        <v>1287</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>725</v>
+        <v>1511</v>
       </c>
       <c r="D207" s="0" t="s">
-        <v>1398</v>
+        <v>1521</v>
       </c>
       <c r="E207" s="0" t="s">
-        <v>1401</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="0" t="s">
-        <v>363</v>
+        <v>110</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>726</v>
+        <v>595</v>
       </c>
       <c r="D208" s="0" t="s">
-        <v>1442</v>
+        <v>537</v>
       </c>
       <c r="E208" s="0" t="s">
-        <v>1443</v>
+        <v>534</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>812</v>
+        <v>826</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D209" s="0" t="s">
-        <v>1345</v>
+        <v>1398</v>
       </c>
       <c r="E209" s="0" t="s">
         <v>1401</v>
@@ -8966,64 +8978,64 @@
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="0" t="s">
-        <v>112</v>
+        <v>363</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>596</v>
+        <v>726</v>
       </c>
       <c r="D210" s="0" t="s">
-        <v>537</v>
+        <v>1442</v>
       </c>
       <c r="E210" s="0" t="s">
-        <v>1341</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="0" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D211" s="0" t="s">
-        <v>1333</v>
+        <v>1345</v>
       </c>
       <c r="E211" s="0" t="s">
-        <v>1341</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="0" t="s">
-        <v>369</v>
+        <v>112</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>812</v>
+        <v>836</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>731</v>
+        <v>596</v>
       </c>
       <c r="D212" s="0" t="s">
         <v>537</v>
       </c>
       <c r="E212" s="0" t="s">
-        <v>534</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="0" t="s">
-        <v>4</v>
+        <v>367</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>1415</v>
+        <v>730</v>
       </c>
       <c r="D213" s="0" t="s">
         <v>1333</v>
@@ -9034,118 +9046,118 @@
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="0" t="s">
-        <v>462</v>
+        <v>369</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>840</v>
+        <v>812</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>776</v>
+        <v>731</v>
       </c>
       <c r="D214" s="0" t="s">
-        <v>1339</v>
+        <v>537</v>
       </c>
       <c r="E214" s="0" t="s">
-        <v>1401</v>
+        <v>534</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="0" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>850</v>
+        <v>1415</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>851</v>
+        <v>1333</v>
       </c>
       <c r="E215" s="0" t="s">
-        <v>534</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="0" t="s">
-        <v>489</v>
+        <v>462</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>1287</v>
+        <v>840</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>790</v>
+        <v>776</v>
       </c>
       <c r="D216" s="0" t="s">
-        <v>537</v>
+        <v>1339</v>
       </c>
       <c r="E216" s="0" t="s">
-        <v>534</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="0" t="s">
-        <v>418</v>
+        <v>28</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>756</v>
+        <v>850</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>1442</v>
+        <v>851</v>
       </c>
       <c r="E217" s="0" t="s">
-        <v>1443</v>
+        <v>534</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="0" t="s">
-        <v>371</v>
+        <v>489</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>835</v>
+        <v>1287</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>852</v>
+        <v>790</v>
       </c>
       <c r="D218" s="0" t="s">
-        <v>1333</v>
+        <v>537</v>
       </c>
       <c r="E218" s="0" t="s">
-        <v>1341</v>
+        <v>534</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="0" t="s">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>812</v>
+        <v>835</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>733</v>
+        <v>756</v>
       </c>
       <c r="D219" s="0" t="s">
-        <v>537</v>
+        <v>1442</v>
       </c>
       <c r="E219" s="0" t="s">
-        <v>534</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="0" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>825</v>
+        <v>835</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>734</v>
+        <v>852</v>
       </c>
       <c r="D220" s="0" t="s">
-        <v>1396</v>
+        <v>1333</v>
       </c>
       <c r="E220" s="0" t="s">
         <v>1341</v>
@@ -9153,13 +9165,13 @@
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="0" t="s">
-        <v>6</v>
+        <v>373</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>529</v>
+        <v>812</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>539</v>
+        <v>733</v>
       </c>
       <c r="D221" s="0" t="s">
         <v>537</v>
@@ -9170,30 +9182,30 @@
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="0" t="s">
-        <v>38</v>
+        <v>375</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>529</v>
+        <v>825</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>555</v>
+        <v>734</v>
       </c>
       <c r="D222" s="0" t="s">
-        <v>537</v>
+        <v>1396</v>
       </c>
       <c r="E222" s="0" t="s">
-        <v>534</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="0" t="s">
-        <v>138</v>
+        <v>6</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>808</v>
+        <v>529</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>609</v>
+        <v>539</v>
       </c>
       <c r="D223" s="0" t="s">
         <v>537</v>
@@ -9204,118 +9216,118 @@
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="0" t="s">
-        <v>455</v>
+        <v>38</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>812</v>
+        <v>529</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>773</v>
+        <v>555</v>
       </c>
       <c r="D224" s="0" t="s">
-        <v>1438</v>
+        <v>537</v>
       </c>
       <c r="E224" s="0" t="s">
-        <v>1484</v>
+        <v>534</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="0" t="s">
-        <v>491</v>
+        <v>138</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>1287</v>
+        <v>808</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>1517</v>
+        <v>609</v>
       </c>
       <c r="D225" s="0" t="s">
-        <v>1512</v>
+        <v>537</v>
       </c>
       <c r="E225" s="0" t="s">
-        <v>1501</v>
+        <v>534</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="0" t="s">
-        <v>493</v>
+        <v>156</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>836</v>
+        <v>808</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>792</v>
+        <v>618</v>
       </c>
       <c r="D226" s="0" t="s">
-        <v>537</v>
+        <v>1348</v>
       </c>
       <c r="E226" s="0" t="s">
-        <v>534</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="0" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>838</v>
+        <v>1287</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>797</v>
+        <v>1517</v>
       </c>
       <c r="D227" s="0" t="s">
-        <v>1350</v>
+        <v>1512</v>
       </c>
       <c r="E227" s="0" t="s">
-        <v>1341</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="0" t="s">
-        <v>126</v>
+        <v>493</v>
       </c>
       <c r="B228" s="0" t="s">
         <v>836</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>603</v>
+        <v>792</v>
       </c>
       <c r="D228" s="0" t="s">
-        <v>1423</v>
+        <v>537</v>
+      </c>
+      <c r="E228" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="0" t="s">
-        <v>156</v>
+        <v>504</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>808</v>
+        <v>838</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>618</v>
+        <v>797</v>
       </c>
       <c r="D229" s="0" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="E229" s="0" t="s">
-        <v>1484</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="0" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B230" s="0" t="s">
         <v>836</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="D230" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E230" s="0" t="s">
-        <v>534</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -9337,257 +9349,257 @@
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="0" t="s">
-        <v>449</v>
+        <v>114</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>812</v>
+        <v>836</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>770</v>
+        <v>597</v>
       </c>
       <c r="D232" s="0" t="s">
-        <v>1345</v>
+        <v>537</v>
       </c>
       <c r="E232" s="0" t="s">
-        <v>1401</v>
+        <v>534</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="0" t="s">
-        <v>1419</v>
+        <v>379</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>838</v>
+        <v>812</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>1417</v>
+        <v>737</v>
       </c>
       <c r="D233" s="0" t="s">
-        <v>1402</v>
+        <v>1479</v>
       </c>
       <c r="E233" s="0" t="s">
-        <v>1341</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="0" t="s">
-        <v>381</v>
+        <v>449</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>838</v>
+        <v>812</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>1418</v>
+        <v>770</v>
       </c>
       <c r="D234" s="0" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
       <c r="E234" s="0" t="s">
-        <v>1341</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="0" t="s">
-        <v>387</v>
+        <v>1419</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>825</v>
+        <v>838</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>740</v>
+        <v>1417</v>
       </c>
       <c r="D235" s="0" t="s">
-        <v>1345</v>
+        <v>1402</v>
       </c>
       <c r="E235" s="0" t="s">
-        <v>1401</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="0" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>611</v>
+        <v>838</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>741</v>
+        <v>1418</v>
       </c>
       <c r="D236" s="0" t="s">
-        <v>1345</v>
+        <v>1351</v>
       </c>
       <c r="E236" s="0" t="s">
-        <v>1401</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="0" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>812</v>
+        <v>1391</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="D237" s="0" t="s">
-        <v>1479</v>
+        <v>1402</v>
       </c>
       <c r="E237" s="0" t="s">
-        <v>1478</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="0" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>812</v>
+        <v>825</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D238" s="0" t="s">
-        <v>1432</v>
+        <v>1345</v>
       </c>
       <c r="E238" s="0" t="s">
-        <v>1484</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="0" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>812</v>
+        <v>611</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D239" s="0" t="s">
-        <v>1479</v>
+        <v>1345</v>
       </c>
       <c r="E239" s="0" t="s">
-        <v>1478</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="0" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>835</v>
+        <v>812</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="D240" s="0" t="s">
-        <v>1345</v>
+        <v>1432</v>
       </c>
       <c r="E240" s="0" t="s">
-        <v>1401</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="0" t="s">
-        <v>40</v>
+        <v>391</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>834</v>
+        <v>812</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>556</v>
+        <v>743</v>
       </c>
       <c r="D241" s="0" t="s">
-        <v>1333</v>
+        <v>1479</v>
       </c>
       <c r="E241" s="0" t="s">
-        <v>1341</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="0" t="s">
-        <v>395</v>
+        <v>40</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>825</v>
+        <v>834</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>745</v>
+        <v>556</v>
       </c>
       <c r="D242" s="0" t="s">
-        <v>537</v>
+        <v>1333</v>
       </c>
       <c r="E242" s="0" t="s">
-        <v>534</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="0" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>746</v>
+        <v>757</v>
       </c>
       <c r="D243" s="0" t="s">
-        <v>1500</v>
+        <v>1345</v>
       </c>
       <c r="E243" s="0" t="s">
-        <v>1501</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="0" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>1391</v>
+        <v>812</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="D244" s="0" t="s">
-        <v>1402</v>
+        <v>1439</v>
       </c>
       <c r="E244" s="0" t="s">
-        <v>1341</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="0" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>812</v>
+        <v>825</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D245" s="0" t="s">
-        <v>1439</v>
+        <v>537</v>
       </c>
       <c r="E245" s="0" t="s">
-        <v>1484</v>
+        <v>534</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="0" t="s">
-        <v>116</v>
+        <v>397</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>809</v>
+        <v>829</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>598</v>
+        <v>746</v>
       </c>
       <c r="D246" s="0" t="s">
-        <v>1333</v>
+        <v>1500</v>
       </c>
       <c r="E246" s="0" t="s">
-        <v>1484</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -9609,237 +9621,237 @@
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="0" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B248" s="0" t="s">
         <v>809</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D248" s="0" t="s">
-        <v>537</v>
+        <v>1333</v>
       </c>
       <c r="E248" s="0" t="s">
-        <v>534</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="0" t="s">
-        <v>399</v>
+        <v>122</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>837</v>
+        <v>810</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>747</v>
+        <v>601</v>
       </c>
       <c r="D249" s="0" t="s">
-        <v>537</v>
+        <v>1333</v>
       </c>
       <c r="E249" s="0" t="s">
-        <v>534</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="0" t="s">
-        <v>441</v>
+        <v>516</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>812</v>
+        <v>838</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>766</v>
+        <v>803</v>
       </c>
       <c r="D250" s="0" t="s">
-        <v>1345</v>
+        <v>1351</v>
       </c>
       <c r="E250" s="0" t="s">
-        <v>1401</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="0" t="s">
-        <v>424</v>
+        <v>118</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>835</v>
+        <v>809</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>759</v>
+        <v>599</v>
       </c>
       <c r="D251" s="0" t="s">
-        <v>1395</v>
+        <v>537</v>
       </c>
       <c r="E251" s="0" t="s">
-        <v>1401</v>
+        <v>534</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="0" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>812</v>
+        <v>837</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D252" s="0" t="s">
-        <v>1345</v>
+        <v>537</v>
       </c>
       <c r="E252" s="0" t="s">
-        <v>1401</v>
+        <v>534</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="0" t="s">
-        <v>497</v>
+        <v>441</v>
       </c>
       <c r="B253" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>794</v>
+        <v>766</v>
       </c>
       <c r="D253" s="0" t="s">
-        <v>537</v>
+        <v>1345</v>
       </c>
       <c r="E253" s="0" t="s">
-        <v>534</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="0" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="D254" s="0" t="s">
-        <v>1333</v>
+        <v>1395</v>
       </c>
       <c r="E254" s="0" t="s">
-        <v>1341</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="0" t="s">
-        <v>166</v>
+        <v>401</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>623</v>
+        <v>748</v>
       </c>
       <c r="D255" s="0" t="s">
-        <v>1365</v>
+        <v>1345</v>
       </c>
       <c r="E255" s="0" t="s">
-        <v>1341</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" s="0" t="s">
-        <v>405</v>
+        <v>497</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>825</v>
+        <v>812</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>750</v>
+        <v>794</v>
       </c>
       <c r="D256" s="0" t="s">
         <v>537</v>
       </c>
       <c r="E256" s="0" t="s">
-        <v>1341</v>
+        <v>534</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="0" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D257" s="0" t="s">
-        <v>1345</v>
+        <v>1333</v>
       </c>
       <c r="E257" s="0" t="s">
-        <v>1401</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" s="0" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>1287</v>
+        <v>828</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>1505</v>
+        <v>623</v>
       </c>
       <c r="D258" s="0" t="s">
-        <v>1508</v>
+        <v>1365</v>
       </c>
       <c r="E258" s="0" t="s">
-        <v>1501</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="0" t="s">
-        <v>136</v>
+        <v>405</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>808</v>
+        <v>825</v>
       </c>
       <c r="C259" s="0" t="s">
-        <v>1268</v>
+        <v>750</v>
       </c>
       <c r="D259" s="0" t="s">
         <v>537</v>
       </c>
       <c r="E259" s="0" t="s">
-        <v>534</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="0" t="s">
-        <v>34</v>
+        <v>407</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="C260" s="0" t="s">
-        <v>553</v>
+        <v>751</v>
       </c>
       <c r="D260" s="0" t="s">
-        <v>537</v>
+        <v>1345</v>
       </c>
       <c r="E260" s="0" t="s">
-        <v>534</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="0" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="B261" s="0" t="s">
         <v>1287</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>1518</v>
+        <v>1505</v>
       </c>
       <c r="D261" s="0" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="E261" s="0" t="s">
         <v>1501</v>
@@ -9847,76 +9859,93 @@
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="0" t="s">
-        <v>409</v>
+        <v>136</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="C262" s="0" t="s">
-        <v>752</v>
+        <v>1268</v>
       </c>
       <c r="D262" s="0" t="s">
-        <v>1345</v>
+        <v>537</v>
       </c>
       <c r="E262" s="0" t="s">
-        <v>1401</v>
+        <v>534</v>
       </c>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" s="0" t="s">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>810</v>
+        <v>833</v>
       </c>
       <c r="C263" s="0" t="s">
-        <v>601</v>
+        <v>553</v>
       </c>
       <c r="D263" s="0" t="s">
-        <v>1333</v>
+        <v>537</v>
       </c>
       <c r="E263" s="0" t="s">
-        <v>1484</v>
+        <v>534</v>
       </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="0" t="s">
-        <v>516</v>
+        <v>120</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>838</v>
+        <v>1287</v>
       </c>
       <c r="C264" s="0" t="s">
-        <v>803</v>
+        <v>1518</v>
       </c>
       <c r="D264" s="0" t="s">
-        <v>1351</v>
+        <v>1512</v>
       </c>
       <c r="E264" s="0" t="s">
-        <v>1341</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" s="0" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B265" s="0" t="s">
         <v>812</v>
       </c>
       <c r="C265" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="D265" s="0" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E265" s="0" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="B266" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="C266" s="0" t="s">
         <v>753</v>
       </c>
-      <c r="D265" s="0" t="s">
+      <c r="D266" s="0" t="s">
         <v>1437</v>
       </c>
-      <c r="E265" s="0" t="s">
+      <c r="E266" s="0" t="s">
         <v>1484</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E265">
-    <sortState ref="A2:E265">
-      <sortCondition ref="A2:A265"/>
+    <sortState ref="A2:E266">
+      <sortCondition ref="A2:A266"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
